--- a/csv_parser/test-cases-15-15.xlsx
+++ b/csv_parser/test-cases-15-15.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27605"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://esantegouv.sharepoint.com/sites/GED-Calypso/espace-projets/Espace Programme SISAMU/01 - Equipe projet/07 - Innovation et prospectif/12 - Hub Santé/13 - 15-15/04 - Pilotes 15-15/04 - JDD recette/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CEAB033-E275-40EB-85A9-403F00F6BAB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F4976DF-637F-4D2A-9FBC-68A9EBFB8207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8E95E427-60E8-4C01-A0F5-EF6B52DBDF48}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8E95E427-60E8-4C01-A0F5-EF6B52DBDF48}"/>
   </bookViews>
   <sheets>
     <sheet name="Partage de dossier simple" sheetId="1" r:id="rId1"/>
@@ -156,7 +156,7 @@
     <t>JDD 3</t>
   </si>
   <si>
-    <t>JDD4</t>
+    <t>JDD 4</t>
   </si>
   <si>
     <t>JDD 5</t>
@@ -2486,8 +2486,26 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2518,24 +2536,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -4655,9 +4655,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC96D3DE-56F6-4E60-B012-339ED5333B2B}">
   <dimension ref="A1:O119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="10" topLeftCell="J11" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="6" ySplit="10" topLeftCell="I11" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="K9" sqref="K9"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
     </sheetView>
@@ -4678,19 +4678,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75">
-      <c r="A1" s="229" t="s">
+      <c r="A1" s="231" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="229"/>
+      <c r="B1" s="231"/>
       <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="18.75">
-      <c r="A2" s="229" t="s">
+      <c r="A2" s="231" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="229"/>
+      <c r="B2" s="231"/>
       <c r="C2" t="s">
         <v>3</v>
       </c>
@@ -4700,60 +4700,60 @@
       <c r="I2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="240" t="s">
+      <c r="J2" s="229" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="240"/>
-      <c r="L2" s="240"/>
-      <c r="M2" s="240"/>
-      <c r="N2" s="240"/>
-      <c r="O2" s="240"/>
+      <c r="K2" s="229"/>
+      <c r="L2" s="229"/>
+      <c r="M2" s="229"/>
+      <c r="N2" s="229"/>
+      <c r="O2" s="229"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="18.75">
-      <c r="A3" s="229" t="s">
+      <c r="A3" s="231" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="229"/>
+      <c r="B3" s="231"/>
       <c r="C3" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3"/>
       <c r="H3" s="7"/>
-      <c r="J3" s="240"/>
-      <c r="K3" s="240"/>
-      <c r="L3" s="240"/>
-      <c r="M3" s="240"/>
-      <c r="N3" s="240"/>
-      <c r="O3" s="240"/>
+      <c r="J3" s="229"/>
+      <c r="K3" s="229"/>
+      <c r="L3" s="229"/>
+      <c r="M3" s="229"/>
+      <c r="N3" s="229"/>
+      <c r="O3" s="229"/>
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1" ht="18.75">
-      <c r="A4" s="229" t="s">
+      <c r="A4" s="231" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="229"/>
+      <c r="B4" s="231"/>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4"/>
       <c r="H4" s="7"/>
-      <c r="J4" s="240"/>
-      <c r="K4" s="240"/>
-      <c r="L4" s="240"/>
-      <c r="M4" s="240"/>
-      <c r="N4" s="240"/>
-      <c r="O4" s="240"/>
+      <c r="J4" s="229"/>
+      <c r="K4" s="229"/>
+      <c r="L4" s="229"/>
+      <c r="M4" s="229"/>
+      <c r="N4" s="229"/>
+      <c r="O4" s="229"/>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" ht="18.75">
-      <c r="A5" s="239" t="s">
+      <c r="A5" s="245" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="239"/>
-      <c r="C5" s="239"/>
-      <c r="D5" s="239"/>
-      <c r="E5" s="239"/>
-      <c r="F5" s="239"/>
+      <c r="B5" s="245"/>
+      <c r="C5" s="245"/>
+      <c r="D5" s="245"/>
+      <c r="E5" s="245"/>
+      <c r="F5" s="245"/>
       <c r="H5" s="7"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -4763,12 +4763,12 @@
       <c r="O5" s="8"/>
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1" ht="18.75">
-      <c r="A6" s="242" t="s">
+      <c r="A6" s="232" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="243"/>
-      <c r="C6" s="243"/>
-      <c r="D6" s="244"/>
+      <c r="B6" s="233"/>
+      <c r="C6" s="233"/>
+      <c r="D6" s="234"/>
       <c r="E6" s="5"/>
       <c r="F6" t="s">
         <v>11</v>
@@ -4782,12 +4782,12 @@
       <c r="O6" s="8"/>
     </row>
     <row r="7" spans="1:15" s="1" customFormat="1" ht="18.75">
-      <c r="A7" s="245" t="s">
+      <c r="A7" s="235" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="245"/>
-      <c r="C7" s="245"/>
-      <c r="D7" s="245"/>
+      <c r="B7" s="235"/>
+      <c r="C7" s="235"/>
+      <c r="D7" s="235"/>
       <c r="E7" s="10"/>
       <c r="F7" t="s">
         <v>13</v>
@@ -4809,10 +4809,10 @@
       <c r="L8" s="9"/>
     </row>
     <row r="9" spans="1:15" s="4" customFormat="1" ht="18.75">
-      <c r="A9" s="241" t="s">
+      <c r="A9" s="230" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="241"/>
+      <c r="B9" s="230"/>
       <c r="C9" s="163" t="s">
         <v>7</v>
       </c>
@@ -4867,7 +4867,7 @@
       <c r="L10" s="25"/>
     </row>
     <row r="11" spans="1:15" ht="16.5" customHeight="1">
-      <c r="D11" s="230" t="s">
+      <c r="D11" s="236" t="s">
         <v>28</v>
       </c>
       <c r="E11" s="74"/>
@@ -4890,7 +4890,7 @@
       <c r="L11" s="46"/>
     </row>
     <row r="12" spans="1:15">
-      <c r="D12" s="231"/>
+      <c r="D12" s="237"/>
       <c r="E12" s="74"/>
       <c r="F12" s="13" t="s">
         <v>34</v>
@@ -4911,7 +4911,7 @@
       <c r="L12" s="46"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="D13" s="232"/>
+      <c r="D13" s="238"/>
       <c r="E13" s="74"/>
       <c r="F13" s="13" t="s">
         <v>37</v>
@@ -4932,7 +4932,7 @@
       <c r="L13" s="46"/>
     </row>
     <row r="14" spans="1:15">
-      <c r="D14" s="230" t="s">
+      <c r="D14" s="236" t="s">
         <v>41</v>
       </c>
       <c r="E14" s="74" t="s">
@@ -4957,7 +4957,7 @@
       <c r="L14" s="12"/>
     </row>
     <row r="15" spans="1:15" ht="28.5" customHeight="1">
-      <c r="D15" s="231"/>
+      <c r="D15" s="237"/>
       <c r="E15" s="84" t="s">
         <v>48</v>
       </c>
@@ -4980,7 +4980,7 @@
       <c r="L15" s="12"/>
     </row>
     <row r="16" spans="1:15" s="112" customFormat="1" ht="28.5" customHeight="1">
-      <c r="D16" s="231"/>
+      <c r="D16" s="237"/>
       <c r="E16" s="75" t="s">
         <v>42</v>
       </c>
@@ -5001,7 +5001,7 @@
       </c>
     </row>
     <row r="17" spans="4:12">
-      <c r="D17" s="231"/>
+      <c r="D17" s="237"/>
       <c r="E17" s="85" t="s">
         <v>48</v>
       </c>
@@ -5024,7 +5024,7 @@
       <c r="L17" s="42"/>
     </row>
     <row r="18" spans="4:12" s="112" customFormat="1" ht="30">
-      <c r="D18" s="231"/>
+      <c r="D18" s="237"/>
       <c r="E18" s="75"/>
       <c r="F18" s="109" t="s">
         <v>64</v>
@@ -5045,7 +5045,7 @@
       <c r="L18" s="109"/>
     </row>
     <row r="19" spans="4:12">
-      <c r="D19" s="231"/>
+      <c r="D19" s="237"/>
       <c r="E19" s="34" t="s">
         <v>42</v>
       </c>
@@ -5068,7 +5068,7 @@
       <c r="L19" s="44"/>
     </row>
     <row r="20" spans="4:12" ht="30.75" customHeight="1">
-      <c r="D20" s="231"/>
+      <c r="D20" s="237"/>
       <c r="E20" s="34"/>
       <c r="F20" s="20" t="s">
         <v>74</v>
@@ -5089,7 +5089,7 @@
       <c r="L20" s="20"/>
     </row>
     <row r="21" spans="4:12">
-      <c r="D21" s="231"/>
+      <c r="D21" s="237"/>
       <c r="E21" s="34" t="s">
         <v>42</v>
       </c>
@@ -5112,7 +5112,7 @@
       <c r="L21" s="20"/>
     </row>
     <row r="22" spans="4:12" s="203" customFormat="1">
-      <c r="D22" s="231"/>
+      <c r="D22" s="237"/>
       <c r="E22" s="200" t="s">
         <v>48</v>
       </c>
@@ -5135,7 +5135,7 @@
       <c r="L22" s="201"/>
     </row>
     <row r="23" spans="4:12">
-      <c r="D23" s="231"/>
+      <c r="D23" s="237"/>
       <c r="E23" s="87" t="s">
         <v>48</v>
       </c>
@@ -5158,7 +5158,7 @@
       <c r="L23" s="29"/>
     </row>
     <row r="24" spans="4:12" ht="30">
-      <c r="D24" s="231"/>
+      <c r="D24" s="237"/>
       <c r="E24" s="89"/>
       <c r="F24" s="162" t="s">
         <v>91</v>
@@ -5173,7 +5173,7 @@
       <c r="L24" s="35"/>
     </row>
     <row r="25" spans="4:12">
-      <c r="D25" s="232"/>
+      <c r="D25" s="238"/>
       <c r="E25" s="89"/>
       <c r="F25" s="90" t="s">
         <v>93</v>
@@ -5219,7 +5219,7 @@
       <c r="L26" s="59"/>
     </row>
     <row r="27" spans="4:12">
-      <c r="D27" s="236" t="s">
+      <c r="D27" s="242" t="s">
         <v>101</v>
       </c>
       <c r="E27" s="76"/>
@@ -5242,7 +5242,7 @@
       <c r="L27" s="20"/>
     </row>
     <row r="28" spans="4:12">
-      <c r="D28" s="237"/>
+      <c r="D28" s="243"/>
       <c r="E28" s="34" t="s">
         <v>42</v>
       </c>
@@ -5265,7 +5265,7 @@
       <c r="L28" s="20"/>
     </row>
     <row r="29" spans="4:12" s="69" customFormat="1">
-      <c r="D29" s="237"/>
+      <c r="D29" s="243"/>
       <c r="E29" s="87" t="s">
         <v>48</v>
       </c>
@@ -5286,7 +5286,7 @@
       <c r="L29" s="68"/>
     </row>
     <row r="30" spans="4:12">
-      <c r="D30" s="237"/>
+      <c r="D30" s="243"/>
       <c r="E30" s="34" t="s">
         <v>42</v>
       </c>
@@ -5307,7 +5307,7 @@
       <c r="L30" s="20"/>
     </row>
     <row r="31" spans="4:12">
-      <c r="D31" s="237"/>
+      <c r="D31" s="243"/>
       <c r="E31" s="34"/>
       <c r="F31" s="20" t="s">
         <v>120</v>
@@ -5326,7 +5326,7 @@
       <c r="L31" s="20"/>
     </row>
     <row r="32" spans="4:12">
-      <c r="D32" s="237"/>
+      <c r="D32" s="243"/>
       <c r="E32" s="34"/>
       <c r="F32" s="20" t="s">
         <v>124</v>
@@ -5345,7 +5345,7 @@
       <c r="L32" s="20"/>
     </row>
     <row r="33" spans="4:12" s="203" customFormat="1">
-      <c r="D33" s="237"/>
+      <c r="D33" s="243"/>
       <c r="E33" s="205" t="s">
         <v>48</v>
       </c>
@@ -5368,7 +5368,7 @@
       <c r="L33" s="206"/>
     </row>
     <row r="34" spans="4:12">
-      <c r="D34" s="236" t="s">
+      <c r="D34" s="242" t="s">
         <v>133</v>
       </c>
       <c r="E34" s="78"/>
@@ -5385,7 +5385,7 @@
       <c r="L34" s="63"/>
     </row>
     <row r="35" spans="4:12">
-      <c r="D35" s="237"/>
+      <c r="D35" s="243"/>
       <c r="E35" s="34"/>
       <c r="F35" s="20" t="s">
         <v>107</v>
@@ -5400,7 +5400,7 @@
       <c r="L35" s="64"/>
     </row>
     <row r="36" spans="4:12">
-      <c r="D36" s="237"/>
+      <c r="D36" s="243"/>
       <c r="E36" s="34"/>
       <c r="F36" s="20" t="s">
         <v>112</v>
@@ -5415,7 +5415,7 @@
       <c r="L36" s="64"/>
     </row>
     <row r="37" spans="4:12">
-      <c r="D37" s="237"/>
+      <c r="D37" s="243"/>
       <c r="E37" s="34"/>
       <c r="F37" s="20" t="s">
         <v>116</v>
@@ -5430,7 +5430,7 @@
       <c r="L37" s="64"/>
     </row>
     <row r="38" spans="4:12">
-      <c r="D38" s="237"/>
+      <c r="D38" s="243"/>
       <c r="E38" s="34"/>
       <c r="F38" s="20" t="s">
         <v>120</v>
@@ -5445,7 +5445,7 @@
       <c r="L38" s="64"/>
     </row>
     <row r="39" spans="4:12">
-      <c r="D39" s="237"/>
+      <c r="D39" s="243"/>
       <c r="E39" s="34"/>
       <c r="F39" s="20" t="s">
         <v>124</v>
@@ -5460,7 +5460,7 @@
       <c r="L39" s="64"/>
     </row>
     <row r="40" spans="4:12">
-      <c r="D40" s="238"/>
+      <c r="D40" s="244"/>
       <c r="E40" s="79"/>
       <c r="F40" s="65" t="s">
         <v>128</v>
@@ -5475,7 +5475,7 @@
       <c r="L40" s="67"/>
     </row>
     <row r="41" spans="4:12">
-      <c r="D41" s="230" t="s">
+      <c r="D41" s="236" t="s">
         <v>141</v>
       </c>
       <c r="E41" s="80"/>
@@ -5498,7 +5498,7 @@
       <c r="L41" s="59"/>
     </row>
     <row r="42" spans="4:12">
-      <c r="D42" s="231"/>
+      <c r="D42" s="237"/>
       <c r="E42" s="147" t="s">
         <v>42</v>
       </c>
@@ -5521,7 +5521,7 @@
       <c r="L42" s="150"/>
     </row>
     <row r="43" spans="4:12" s="38" customFormat="1">
-      <c r="D43" s="233"/>
+      <c r="D43" s="239"/>
       <c r="E43" s="152"/>
       <c r="F43" s="153" t="s">
         <v>150</v>
@@ -5538,7 +5538,7 @@
       <c r="L43" s="153"/>
     </row>
     <row r="44" spans="4:12">
-      <c r="D44" s="231"/>
+      <c r="D44" s="237"/>
       <c r="E44" s="151" t="s">
         <v>42</v>
       </c>
@@ -5561,7 +5561,7 @@
       <c r="L44" s="27"/>
     </row>
     <row r="45" spans="4:12">
-      <c r="D45" s="231"/>
+      <c r="D45" s="237"/>
       <c r="E45" s="34" t="s">
         <v>42</v>
       </c>
@@ -5584,7 +5584,7 @@
       <c r="L45" s="20"/>
     </row>
     <row r="46" spans="4:12">
-      <c r="D46" s="231"/>
+      <c r="D46" s="237"/>
       <c r="E46" s="85" t="s">
         <v>48</v>
       </c>
@@ -5607,7 +5607,7 @@
       <c r="L46" s="22"/>
     </row>
     <row r="47" spans="4:12">
-      <c r="D47" s="231"/>
+      <c r="D47" s="237"/>
       <c r="E47" s="85" t="s">
         <v>48</v>
       </c>
@@ -5626,7 +5626,7 @@
       <c r="L47" s="20"/>
     </row>
     <row r="48" spans="4:12">
-      <c r="D48" s="231"/>
+      <c r="D48" s="237"/>
       <c r="E48" s="85" t="s">
         <v>48</v>
       </c>
@@ -5642,7 +5642,7 @@
       <c r="L48" s="20"/>
     </row>
     <row r="49" spans="4:12">
-      <c r="D49" s="231"/>
+      <c r="D49" s="237"/>
       <c r="E49" s="85" t="s">
         <v>48</v>
       </c>
@@ -5661,7 +5661,7 @@
       <c r="L49" s="20"/>
     </row>
     <row r="50" spans="4:12">
-      <c r="D50" s="231"/>
+      <c r="D50" s="237"/>
       <c r="E50" s="85" t="s">
         <v>48</v>
       </c>
@@ -5680,7 +5680,7 @@
       <c r="L50" s="20"/>
     </row>
     <row r="51" spans="4:12">
-      <c r="D51" s="231"/>
+      <c r="D51" s="237"/>
       <c r="E51" s="85" t="s">
         <v>48</v>
       </c>
@@ -5699,7 +5699,7 @@
       <c r="L51" s="20"/>
     </row>
     <row r="52" spans="4:12">
-      <c r="D52" s="231"/>
+      <c r="D52" s="237"/>
       <c r="E52" s="85" t="s">
         <v>48</v>
       </c>
@@ -5718,7 +5718,7 @@
       <c r="L52" s="20"/>
     </row>
     <row r="53" spans="4:12">
-      <c r="D53" s="231"/>
+      <c r="D53" s="237"/>
       <c r="E53" s="85" t="s">
         <v>48</v>
       </c>
@@ -5735,7 +5735,7 @@
       <c r="L53" s="20"/>
     </row>
     <row r="54" spans="4:12">
-      <c r="D54" s="231"/>
+      <c r="D54" s="237"/>
       <c r="E54" s="85" t="s">
         <v>48</v>
       </c>
@@ -5752,7 +5752,7 @@
       <c r="L54" s="20"/>
     </row>
     <row r="55" spans="4:12">
-      <c r="D55" s="231"/>
+      <c r="D55" s="237"/>
       <c r="E55" s="85" t="s">
         <v>48</v>
       </c>
@@ -5771,7 +5771,7 @@
       <c r="L55" s="20"/>
     </row>
     <row r="56" spans="4:12" s="38" customFormat="1">
-      <c r="D56" s="231"/>
+      <c r="D56" s="237"/>
       <c r="E56" s="81" t="s">
         <v>42</v>
       </c>
@@ -5794,7 +5794,7 @@
       <c r="L56" s="40"/>
     </row>
     <row r="57" spans="4:12">
-      <c r="D57" s="231"/>
+      <c r="D57" s="237"/>
       <c r="E57" s="82"/>
       <c r="F57" s="47" t="s">
         <v>189</v>
@@ -5815,7 +5815,7 @@
       <c r="L57" s="44"/>
     </row>
     <row r="58" spans="4:12">
-      <c r="D58" s="231"/>
+      <c r="D58" s="237"/>
       <c r="E58" s="82"/>
       <c r="F58" s="48" t="s">
         <v>192</v>
@@ -5836,7 +5836,7 @@
       <c r="L58" s="44"/>
     </row>
     <row r="59" spans="4:12">
-      <c r="D59" s="231"/>
+      <c r="D59" s="237"/>
       <c r="E59" s="82"/>
       <c r="F59" s="48" t="s">
         <v>197</v>
@@ -5857,7 +5857,7 @@
       <c r="L59" s="44"/>
     </row>
     <row r="60" spans="4:12">
-      <c r="D60" s="231"/>
+      <c r="D60" s="237"/>
       <c r="E60" s="34"/>
       <c r="F60" s="27" t="s">
         <v>202</v>
@@ -5872,7 +5872,7 @@
       <c r="L60" s="20"/>
     </row>
     <row r="61" spans="4:12">
-      <c r="D61" s="231"/>
+      <c r="D61" s="237"/>
       <c r="E61" s="34"/>
       <c r="F61" s="20" t="s">
         <v>204</v>
@@ -5887,7 +5887,7 @@
       <c r="L61" s="20"/>
     </row>
     <row r="62" spans="4:12">
-      <c r="D62" s="231"/>
+      <c r="D62" s="237"/>
       <c r="E62" s="34"/>
       <c r="F62" s="29" t="s">
         <v>206</v>
@@ -5902,7 +5902,7 @@
       <c r="L62" s="20"/>
     </row>
     <row r="63" spans="4:12">
-      <c r="D63" s="232"/>
+      <c r="D63" s="238"/>
       <c r="E63" s="82"/>
       <c r="F63" s="48" t="s">
         <v>208</v>
@@ -5923,7 +5923,7 @@
       <c r="L63" s="44"/>
     </row>
     <row r="64" spans="4:12">
-      <c r="D64" s="234" t="s">
+      <c r="D64" s="240" t="s">
         <v>211</v>
       </c>
       <c r="E64" s="82"/>
@@ -5946,7 +5946,7 @@
       <c r="L64" s="44"/>
     </row>
     <row r="65" spans="4:12">
-      <c r="D65" s="234"/>
+      <c r="D65" s="240"/>
       <c r="E65" s="82"/>
       <c r="F65" s="51" t="s">
         <v>217</v>
@@ -5967,7 +5967,7 @@
       <c r="L65" s="44"/>
     </row>
     <row r="66" spans="4:12">
-      <c r="D66" s="234"/>
+      <c r="D66" s="240"/>
       <c r="E66" s="81"/>
       <c r="F66" s="51" t="s">
         <v>219</v>
@@ -5988,7 +5988,7 @@
       <c r="L66" s="44"/>
     </row>
     <row r="67" spans="4:12" ht="15" customHeight="1">
-      <c r="D67" s="234"/>
+      <c r="D67" s="240"/>
       <c r="E67" s="85" t="s">
         <v>48</v>
       </c>
@@ -6005,7 +6005,7 @@
       <c r="L67" s="20"/>
     </row>
     <row r="68" spans="4:12">
-      <c r="D68" s="234"/>
+      <c r="D68" s="240"/>
       <c r="E68" s="81" t="s">
         <v>42</v>
       </c>
@@ -6028,7 +6028,7 @@
       <c r="L68" s="20"/>
     </row>
     <row r="69" spans="4:12" s="69" customFormat="1">
-      <c r="D69" s="234"/>
+      <c r="D69" s="240"/>
       <c r="E69" s="83" t="s">
         <v>42</v>
       </c>
@@ -6051,7 +6051,7 @@
       <c r="L69" s="68"/>
     </row>
     <row r="70" spans="4:12">
-      <c r="D70" s="234"/>
+      <c r="D70" s="240"/>
       <c r="E70" s="85" t="s">
         <v>48</v>
       </c>
@@ -6074,7 +6074,7 @@
       <c r="L70" s="20"/>
     </row>
     <row r="71" spans="4:12" s="69" customFormat="1">
-      <c r="D71" s="234"/>
+      <c r="D71" s="240"/>
       <c r="E71" s="85" t="s">
         <v>48</v>
       </c>
@@ -6097,7 +6097,7 @@
       <c r="L71" s="68"/>
     </row>
     <row r="72" spans="4:12" s="69" customFormat="1">
-      <c r="D72" s="234"/>
+      <c r="D72" s="240"/>
       <c r="E72" s="85"/>
       <c r="F72" s="95" t="s">
         <v>233</v>
@@ -6116,7 +6116,7 @@
       <c r="L72" s="68"/>
     </row>
     <row r="73" spans="4:12">
-      <c r="D73" s="234"/>
+      <c r="D73" s="240"/>
       <c r="E73" s="85" t="s">
         <v>48</v>
       </c>
@@ -6139,7 +6139,7 @@
       <c r="L73" s="20"/>
     </row>
     <row r="74" spans="4:12">
-      <c r="D74" s="234"/>
+      <c r="D74" s="240"/>
       <c r="E74" s="97"/>
       <c r="F74" s="35" t="s">
         <v>239</v>
@@ -6154,7 +6154,7 @@
       <c r="L74" s="20"/>
     </row>
     <row r="75" spans="4:12">
-      <c r="D75" s="234"/>
+      <c r="D75" s="240"/>
       <c r="E75" s="85" t="s">
         <v>48</v>
       </c>
@@ -6172,7 +6172,7 @@
       <c r="L75" s="20"/>
     </row>
     <row r="76" spans="4:12">
-      <c r="D76" s="234"/>
+      <c r="D76" s="240"/>
       <c r="E76" s="82" t="s">
         <v>42</v>
       </c>
@@ -6195,7 +6195,7 @@
       <c r="L76" s="20"/>
     </row>
     <row r="77" spans="4:12">
-      <c r="D77" s="234"/>
+      <c r="D77" s="240"/>
       <c r="E77" s="34"/>
       <c r="F77" s="20" t="s">
         <v>249</v>
@@ -6216,7 +6216,7 @@
       <c r="L77" s="20"/>
     </row>
     <row r="78" spans="4:12">
-      <c r="D78" s="234"/>
+      <c r="D78" s="240"/>
       <c r="E78" s="77"/>
       <c r="F78" s="29" t="s">
         <v>254</v>
@@ -6237,7 +6237,7 @@
       <c r="L78" s="29"/>
     </row>
     <row r="79" spans="4:12">
-      <c r="D79" s="234"/>
+      <c r="D79" s="240"/>
       <c r="E79" s="129"/>
       <c r="F79" s="124" t="s">
         <v>258</v>
@@ -6258,7 +6258,7 @@
       <c r="L79" s="124"/>
     </row>
     <row r="80" spans="4:12">
-      <c r="D80" s="234"/>
+      <c r="D80" s="240"/>
       <c r="E80" s="129"/>
       <c r="F80" s="124" t="s">
         <v>261</v>
@@ -6279,7 +6279,7 @@
       <c r="L80" s="124"/>
     </row>
     <row r="81" spans="4:12">
-      <c r="D81" s="234"/>
+      <c r="D81" s="240"/>
       <c r="E81" s="129"/>
       <c r="F81" s="124" t="s">
         <v>263</v>
@@ -6300,7 +6300,7 @@
       <c r="L81" s="124"/>
     </row>
     <row r="82" spans="4:12">
-      <c r="D82" s="234"/>
+      <c r="D82" s="240"/>
       <c r="E82" s="128"/>
       <c r="F82" s="127" t="s">
         <v>142</v>
@@ -6321,7 +6321,7 @@
       <c r="L82" s="124"/>
     </row>
     <row r="83" spans="4:12">
-      <c r="D83" s="234"/>
+      <c r="D83" s="240"/>
       <c r="E83" s="82" t="s">
         <v>42</v>
       </c>
@@ -6344,7 +6344,7 @@
       <c r="L83" s="124"/>
     </row>
     <row r="84" spans="4:12">
-      <c r="D84" s="234"/>
+      <c r="D84" s="240"/>
       <c r="E84" s="82"/>
       <c r="F84" s="44" t="s">
         <v>150</v>
@@ -6361,7 +6361,7 @@
       <c r="L84" s="211"/>
     </row>
     <row r="85" spans="4:12">
-      <c r="D85" s="234"/>
+      <c r="D85" s="240"/>
       <c r="E85" s="76" t="s">
         <v>42</v>
       </c>
@@ -6384,7 +6384,7 @@
       <c r="L85" s="42"/>
     </row>
     <row r="86" spans="4:12">
-      <c r="D86" s="234"/>
+      <c r="D86" s="240"/>
       <c r="E86" s="34" t="s">
         <v>42</v>
       </c>
@@ -6407,7 +6407,7 @@
       <c r="L86" s="44"/>
     </row>
     <row r="87" spans="4:12">
-      <c r="D87" s="234"/>
+      <c r="D87" s="240"/>
       <c r="E87" s="85" t="s">
         <v>48</v>
       </c>
@@ -6430,7 +6430,7 @@
       <c r="L87" s="102"/>
     </row>
     <row r="88" spans="4:12">
-      <c r="D88" s="234"/>
+      <c r="D88" s="240"/>
       <c r="E88" s="85" t="s">
         <v>48</v>
       </c>
@@ -6449,7 +6449,7 @@
       <c r="L88" s="44"/>
     </row>
     <row r="89" spans="4:12">
-      <c r="D89" s="234"/>
+      <c r="D89" s="240"/>
       <c r="E89" s="85" t="s">
         <v>48</v>
       </c>
@@ -6466,7 +6466,7 @@
       <c r="L89" s="44"/>
     </row>
     <row r="90" spans="4:12">
-      <c r="D90" s="234"/>
+      <c r="D90" s="240"/>
       <c r="E90" s="85" t="s">
         <v>48</v>
       </c>
@@ -6485,7 +6485,7 @@
       <c r="L90" s="44"/>
     </row>
     <row r="91" spans="4:12">
-      <c r="D91" s="234"/>
+      <c r="D91" s="240"/>
       <c r="E91" s="85" t="s">
         <v>48</v>
       </c>
@@ -6504,7 +6504,7 @@
       <c r="L91" s="44"/>
     </row>
     <row r="92" spans="4:12">
-      <c r="D92" s="234"/>
+      <c r="D92" s="240"/>
       <c r="E92" s="85" t="s">
         <v>48</v>
       </c>
@@ -6523,7 +6523,7 @@
       <c r="L92" s="44"/>
     </row>
     <row r="93" spans="4:12">
-      <c r="D93" s="234"/>
+      <c r="D93" s="240"/>
       <c r="E93" s="85" t="s">
         <v>48</v>
       </c>
@@ -6542,7 +6542,7 @@
       <c r="L93" s="44"/>
     </row>
     <row r="94" spans="4:12">
-      <c r="D94" s="234"/>
+      <c r="D94" s="240"/>
       <c r="E94" s="85" t="s">
         <v>48</v>
       </c>
@@ -6559,7 +6559,7 @@
       <c r="L94" s="44"/>
     </row>
     <row r="95" spans="4:12">
-      <c r="D95" s="234"/>
+      <c r="D95" s="240"/>
       <c r="E95" s="85" t="s">
         <v>48</v>
       </c>
@@ -6576,7 +6576,7 @@
       <c r="L95" s="44"/>
     </row>
     <row r="96" spans="4:12">
-      <c r="D96" s="234"/>
+      <c r="D96" s="240"/>
       <c r="E96" s="85" t="s">
         <v>48</v>
       </c>
@@ -6595,7 +6595,7 @@
       <c r="L96" s="44"/>
     </row>
     <row r="97" spans="4:12" s="38" customFormat="1">
-      <c r="D97" s="234"/>
+      <c r="D97" s="240"/>
       <c r="E97" s="81" t="s">
         <v>42</v>
       </c>
@@ -6618,7 +6618,7 @@
       <c r="L97" s="106"/>
     </row>
     <row r="98" spans="4:12">
-      <c r="D98" s="234"/>
+      <c r="D98" s="240"/>
       <c r="E98" s="82"/>
       <c r="F98" s="47" t="s">
         <v>189</v>
@@ -6639,7 +6639,7 @@
       <c r="L98" s="44"/>
     </row>
     <row r="99" spans="4:12">
-      <c r="D99" s="234"/>
+      <c r="D99" s="240"/>
       <c r="E99" s="82"/>
       <c r="F99" s="48" t="s">
         <v>192</v>
@@ -6660,7 +6660,7 @@
       <c r="L99" s="44"/>
     </row>
     <row r="100" spans="4:12">
-      <c r="D100" s="234"/>
+      <c r="D100" s="240"/>
       <c r="E100" s="82"/>
       <c r="F100" s="48" t="s">
         <v>197</v>
@@ -6681,7 +6681,7 @@
       <c r="L100" s="44"/>
     </row>
     <row r="101" spans="4:12" s="112" customFormat="1">
-      <c r="D101" s="234"/>
+      <c r="D101" s="240"/>
       <c r="E101" s="75"/>
       <c r="F101" s="113" t="s">
         <v>202</v>
@@ -6696,7 +6696,7 @@
       <c r="L101" s="114"/>
     </row>
     <row r="102" spans="4:12" s="112" customFormat="1">
-      <c r="D102" s="234"/>
+      <c r="D102" s="240"/>
       <c r="E102" s="75"/>
       <c r="F102" s="114" t="s">
         <v>204</v>
@@ -6711,7 +6711,7 @@
       <c r="L102" s="114"/>
     </row>
     <row r="103" spans="4:12" s="112" customFormat="1">
-      <c r="D103" s="234"/>
+      <c r="D103" s="240"/>
       <c r="E103" s="130"/>
       <c r="F103" s="115" t="s">
         <v>206</v>
@@ -6726,7 +6726,7 @@
       <c r="L103" s="115"/>
     </row>
     <row r="104" spans="4:12" s="112" customFormat="1">
-      <c r="D104" s="235"/>
+      <c r="D104" s="241"/>
       <c r="E104" s="136"/>
       <c r="F104" s="133" t="s">
         <v>208</v>
@@ -6747,7 +6747,7 @@
       <c r="L104" s="135"/>
     </row>
     <row r="105" spans="4:12" s="112" customFormat="1">
-      <c r="D105" s="235"/>
+      <c r="D105" s="241"/>
       <c r="E105" s="136" t="s">
         <v>42</v>
       </c>
@@ -6770,7 +6770,7 @@
       <c r="L105" s="135"/>
     </row>
     <row r="106" spans="4:12" s="112" customFormat="1" ht="28.5" customHeight="1">
-      <c r="D106" s="235"/>
+      <c r="D106" s="241"/>
       <c r="E106" s="178" t="s">
         <v>48</v>
       </c>
@@ -6793,7 +6793,7 @@
       <c r="L106" s="181"/>
     </row>
     <row r="107" spans="4:12" s="112" customFormat="1" ht="28.5" customHeight="1">
-      <c r="D107" s="235"/>
+      <c r="D107" s="241"/>
       <c r="E107" s="182" t="s">
         <v>42</v>
       </c>
@@ -6816,7 +6816,7 @@
       <c r="L107" s="184"/>
     </row>
     <row r="108" spans="4:12" s="112" customFormat="1">
-      <c r="D108" s="234"/>
+      <c r="D108" s="240"/>
       <c r="E108" s="132" t="s">
         <v>48</v>
       </c>
@@ -6839,7 +6839,7 @@
       <c r="L108" s="113"/>
     </row>
     <row r="109" spans="4:12" s="112" customFormat="1" ht="30">
-      <c r="D109" s="234"/>
+      <c r="D109" s="240"/>
       <c r="E109" s="75"/>
       <c r="F109" s="114" t="s">
         <v>64</v>
@@ -6860,7 +6860,7 @@
       <c r="L109" s="114"/>
     </row>
     <row r="110" spans="4:12" s="112" customFormat="1">
-      <c r="D110" s="234"/>
+      <c r="D110" s="240"/>
       <c r="E110" s="75" t="s">
         <v>42</v>
       </c>
@@ -6883,7 +6883,7 @@
       <c r="L110" s="114"/>
     </row>
     <row r="111" spans="4:12" s="112" customFormat="1" ht="30">
-      <c r="D111" s="234"/>
+      <c r="D111" s="240"/>
       <c r="E111" s="75"/>
       <c r="F111" s="114" t="s">
         <v>74</v>
@@ -6904,7 +6904,7 @@
       <c r="L111" s="114"/>
     </row>
     <row r="112" spans="4:12" s="112" customFormat="1">
-      <c r="D112" s="234"/>
+      <c r="D112" s="240"/>
       <c r="E112" s="75" t="s">
         <v>42</v>
       </c>
@@ -6927,7 +6927,7 @@
       <c r="L112" s="114"/>
     </row>
     <row r="113" spans="1:12" s="112" customFormat="1">
-      <c r="D113" s="234"/>
+      <c r="D113" s="240"/>
       <c r="E113" s="86" t="s">
         <v>48</v>
       </c>
@@ -6950,7 +6950,7 @@
       <c r="L113" s="114"/>
     </row>
     <row r="114" spans="1:12" s="112" customFormat="1">
-      <c r="D114" s="234"/>
+      <c r="D114" s="240"/>
       <c r="E114" s="120" t="s">
         <v>48</v>
       </c>
@@ -6973,7 +6973,7 @@
       <c r="L114" s="115"/>
     </row>
     <row r="115" spans="1:12" s="112" customFormat="1" ht="30">
-      <c r="D115" s="234"/>
+      <c r="D115" s="240"/>
       <c r="E115" s="89" t="s">
         <v>48</v>
       </c>
@@ -6990,7 +6990,7 @@
       <c r="L115" s="108"/>
     </row>
     <row r="116" spans="1:12" s="112" customFormat="1">
-      <c r="D116" s="234"/>
+      <c r="D116" s="240"/>
       <c r="E116" s="143"/>
       <c r="F116" s="144" t="s">
         <v>93</v>
@@ -7011,7 +7011,7 @@
       <c r="L116" s="108"/>
     </row>
     <row r="117" spans="1:12" s="138" customFormat="1">
-      <c r="D117" s="235"/>
+      <c r="D117" s="241"/>
       <c r="E117" s="146"/>
       <c r="F117" s="124" t="s">
         <v>301</v>
@@ -7032,7 +7032,7 @@
       <c r="L117" s="139"/>
     </row>
     <row r="118" spans="1:12" s="138" customFormat="1">
-      <c r="D118" s="235"/>
+      <c r="D118" s="241"/>
       <c r="E118" s="146"/>
       <c r="F118" s="124" t="s">
         <v>304</v>
@@ -7064,13 +7064,6 @@
     <filterColumn colId="0" showButton="0"/>
   </autoFilter>
   <mergeCells count="15">
-    <mergeCell ref="J2:O4"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D14:D25"/>
     <mergeCell ref="D11:D13"/>
@@ -7079,6 +7072,13 @@
     <mergeCell ref="D27:D33"/>
     <mergeCell ref="D34:D40"/>
     <mergeCell ref="A5:F5"/>
+    <mergeCell ref="J2:O4"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D27">
@@ -7370,8 +7370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E39679EB-3E9B-472F-B5A5-82E3B98361DA}">
   <dimension ref="A1:EV352"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -7391,19 +7391,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:152" ht="18.75">
-      <c r="A1" s="229" t="s">
+      <c r="A1" s="231" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="229"/>
+      <c r="B1" s="231"/>
       <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:152" s="1" customFormat="1" ht="18.75">
-      <c r="A2" s="229" t="s">
+      <c r="A2" s="231" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="229"/>
+      <c r="B2" s="231"/>
       <c r="C2" t="s">
         <v>310</v>
       </c>
@@ -7413,14 +7413,14 @@
       <c r="I2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="240" t="s">
+      <c r="J2" s="229" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="240"/>
-      <c r="L2" s="240"/>
-      <c r="M2" s="240"/>
-      <c r="N2" s="240"/>
-      <c r="O2" s="240"/>
+      <c r="K2" s="229"/>
+      <c r="L2" s="229"/>
+      <c r="M2" s="229"/>
+      <c r="N2" s="229"/>
+      <c r="O2" s="229"/>
       <c r="P2" s="218"/>
       <c r="Q2" s="218"/>
       <c r="R2" s="218"/>
@@ -7560,22 +7560,22 @@
       <c r="EV2" s="218"/>
     </row>
     <row r="3" spans="1:152" s="1" customFormat="1" ht="18.75">
-      <c r="A3" s="229" t="s">
+      <c r="A3" s="231" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="229"/>
+      <c r="B3" s="231"/>
       <c r="C3" t="s">
         <v>311</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3"/>
       <c r="H3" s="7"/>
-      <c r="J3" s="240"/>
-      <c r="K3" s="240"/>
-      <c r="L3" s="240"/>
-      <c r="M3" s="240"/>
-      <c r="N3" s="240"/>
-      <c r="O3" s="240"/>
+      <c r="J3" s="229"/>
+      <c r="K3" s="229"/>
+      <c r="L3" s="229"/>
+      <c r="M3" s="229"/>
+      <c r="N3" s="229"/>
+      <c r="O3" s="229"/>
       <c r="P3" s="218"/>
       <c r="Q3" s="218"/>
       <c r="R3" s="218"/>
@@ -7715,22 +7715,22 @@
       <c r="EV3" s="218"/>
     </row>
     <row r="4" spans="1:152" s="1" customFormat="1" ht="18.75">
-      <c r="A4" s="229" t="s">
+      <c r="A4" s="231" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="229"/>
+      <c r="B4" s="231"/>
       <c r="C4" t="s">
         <v>312</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4"/>
       <c r="H4" s="7"/>
-      <c r="J4" s="240"/>
-      <c r="K4" s="240"/>
-      <c r="L4" s="240"/>
-      <c r="M4" s="240"/>
-      <c r="N4" s="240"/>
-      <c r="O4" s="240"/>
+      <c r="J4" s="229"/>
+      <c r="K4" s="229"/>
+      <c r="L4" s="229"/>
+      <c r="M4" s="229"/>
+      <c r="N4" s="229"/>
+      <c r="O4" s="229"/>
       <c r="P4" s="218"/>
       <c r="Q4" s="218"/>
       <c r="R4" s="218"/>
@@ -8024,12 +8024,12 @@
       <c r="EV5" s="218"/>
     </row>
     <row r="6" spans="1:152" s="1" customFormat="1" ht="18.75">
-      <c r="A6" s="242" t="s">
+      <c r="A6" s="232" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="243"/>
-      <c r="C6" s="243"/>
-      <c r="D6" s="244"/>
+      <c r="B6" s="233"/>
+      <c r="C6" s="233"/>
+      <c r="D6" s="234"/>
       <c r="E6" s="5"/>
       <c r="F6" t="s">
         <v>11</v>
@@ -8180,12 +8180,12 @@
       <c r="EV6" s="218"/>
     </row>
     <row r="7" spans="1:152" s="1" customFormat="1" ht="18.75">
-      <c r="A7" s="245" t="s">
+      <c r="A7" s="235" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="245"/>
-      <c r="C7" s="245"/>
-      <c r="D7" s="245"/>
+      <c r="B7" s="235"/>
+      <c r="C7" s="235"/>
+      <c r="D7" s="235"/>
       <c r="E7" s="10"/>
       <c r="F7" t="s">
         <v>13</v>
@@ -8487,10 +8487,10 @@
       <c r="EV8" s="220"/>
     </row>
     <row r="9" spans="1:152" s="4" customFormat="1" ht="18.75">
-      <c r="A9" s="241" t="s">
+      <c r="A9" s="230" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="241"/>
+      <c r="B9" s="230"/>
       <c r="C9" s="163" t="s">
         <v>7</v>
       </c>
@@ -8686,7 +8686,7 @@
     </row>
     <row r="11" spans="1:152" ht="16.5" customHeight="1">
       <c r="A11" s="167"/>
-      <c r="D11" s="230" t="s">
+      <c r="D11" s="236" t="s">
         <v>28</v>
       </c>
       <c r="E11" s="74"/>
@@ -8710,7 +8710,7 @@
     </row>
     <row r="12" spans="1:152">
       <c r="A12" s="2"/>
-      <c r="D12" s="231"/>
+      <c r="D12" s="237"/>
       <c r="E12" s="74"/>
       <c r="F12" s="13" t="s">
         <v>34</v>
@@ -8732,7 +8732,7 @@
     </row>
     <row r="13" spans="1:152">
       <c r="A13" s="2"/>
-      <c r="D13" s="232"/>
+      <c r="D13" s="238"/>
       <c r="E13" s="74"/>
       <c r="F13" s="13" t="s">
         <v>37</v>
@@ -8754,7 +8754,7 @@
     </row>
     <row r="14" spans="1:152">
       <c r="A14" s="2"/>
-      <c r="D14" s="230" t="s">
+      <c r="D14" s="236" t="s">
         <v>41</v>
       </c>
       <c r="E14" s="74" t="s">
@@ -8780,7 +8780,7 @@
     </row>
     <row r="15" spans="1:152" ht="28.5" customHeight="1">
       <c r="A15" s="2"/>
-      <c r="D15" s="231"/>
+      <c r="D15" s="237"/>
       <c r="E15" s="84" t="s">
         <v>48</v>
       </c>
@@ -8804,7 +8804,7 @@
     </row>
     <row r="16" spans="1:152" s="112" customFormat="1" ht="28.5" customHeight="1">
       <c r="A16" s="215"/>
-      <c r="D16" s="231"/>
+      <c r="D16" s="237"/>
       <c r="E16" s="186" t="s">
         <v>42</v>
       </c>
@@ -8968,7 +8968,7 @@
     </row>
     <row r="17" spans="1:152">
       <c r="A17" s="2"/>
-      <c r="D17" s="231"/>
+      <c r="D17" s="237"/>
       <c r="E17" s="85" t="s">
         <v>48</v>
       </c>
@@ -8992,7 +8992,7 @@
     </row>
     <row r="18" spans="1:152" s="112" customFormat="1" ht="30">
       <c r="A18" s="2"/>
-      <c r="D18" s="231"/>
+      <c r="D18" s="237"/>
       <c r="E18" s="75"/>
       <c r="F18" s="109" t="s">
         <v>64</v>
@@ -9154,7 +9154,7 @@
     </row>
     <row r="19" spans="1:152">
       <c r="A19" s="2"/>
-      <c r="D19" s="231"/>
+      <c r="D19" s="237"/>
       <c r="E19" s="34" t="s">
         <v>42</v>
       </c>
@@ -9178,7 +9178,7 @@
     </row>
     <row r="20" spans="1:152">
       <c r="A20" s="2"/>
-      <c r="D20" s="231"/>
+      <c r="D20" s="237"/>
       <c r="E20" s="34"/>
       <c r="F20" s="20" t="s">
         <v>74</v>
@@ -9200,7 +9200,7 @@
     </row>
     <row r="21" spans="1:152">
       <c r="A21" s="2"/>
-      <c r="D21" s="231"/>
+      <c r="D21" s="237"/>
       <c r="E21" s="34" t="s">
         <v>42</v>
       </c>
@@ -9224,7 +9224,7 @@
     </row>
     <row r="22" spans="1:152">
       <c r="A22" s="2"/>
-      <c r="D22" s="231"/>
+      <c r="D22" s="237"/>
       <c r="E22" s="85" t="s">
         <v>48</v>
       </c>
@@ -9248,7 +9248,7 @@
     </row>
     <row r="23" spans="1:152">
       <c r="A23" s="2"/>
-      <c r="D23" s="231"/>
+      <c r="D23" s="237"/>
       <c r="E23" s="87" t="s">
         <v>48</v>
       </c>
@@ -9274,7 +9274,7 @@
       <c r="A24" s="2"/>
       <c r="B24"/>
       <c r="C24"/>
-      <c r="D24" s="231"/>
+      <c r="D24" s="237"/>
       <c r="E24" s="189" t="s">
         <v>48</v>
       </c>
@@ -9292,7 +9292,7 @@
     </row>
     <row r="25" spans="1:152">
       <c r="A25" s="2"/>
-      <c r="D25" s="232"/>
+      <c r="D25" s="238"/>
       <c r="E25" s="89"/>
       <c r="F25" s="90" t="s">
         <v>93</v>
@@ -9340,7 +9340,7 @@
     </row>
     <row r="27" spans="1:152">
       <c r="A27" s="2"/>
-      <c r="D27" s="236" t="s">
+      <c r="D27" s="242" t="s">
         <v>101</v>
       </c>
       <c r="E27" s="76"/>
@@ -9364,7 +9364,7 @@
     </row>
     <row r="28" spans="1:152">
       <c r="A28" s="2"/>
-      <c r="D28" s="237"/>
+      <c r="D28" s="243"/>
       <c r="E28" s="34" t="s">
         <v>42</v>
       </c>
@@ -9388,7 +9388,7 @@
     </row>
     <row r="29" spans="1:152" s="69" customFormat="1">
       <c r="A29" s="2"/>
-      <c r="D29" s="237"/>
+      <c r="D29" s="243"/>
       <c r="E29" s="87" t="s">
         <v>48</v>
       </c>
@@ -9552,7 +9552,7 @@
     </row>
     <row r="30" spans="1:152">
       <c r="A30" s="2"/>
-      <c r="D30" s="237"/>
+      <c r="D30" s="243"/>
       <c r="E30" s="34" t="s">
         <v>42</v>
       </c>
@@ -9576,7 +9576,7 @@
     </row>
     <row r="31" spans="1:152">
       <c r="A31" s="2"/>
-      <c r="D31" s="237"/>
+      <c r="D31" s="243"/>
       <c r="E31" s="34"/>
       <c r="F31" s="20" t="s">
         <v>120</v>
@@ -9598,7 +9598,7 @@
     </row>
     <row r="32" spans="1:152">
       <c r="A32" s="2"/>
-      <c r="D32" s="237"/>
+      <c r="D32" s="243"/>
       <c r="E32" s="34"/>
       <c r="F32" s="20" t="s">
         <v>124</v>
@@ -9620,7 +9620,7 @@
     </row>
     <row r="33" spans="1:152">
       <c r="A33" s="2"/>
-      <c r="D33" s="237"/>
+      <c r="D33" s="243"/>
       <c r="E33" s="87" t="s">
         <v>48</v>
       </c>
@@ -9644,7 +9644,7 @@
     </row>
     <row r="34" spans="1:152">
       <c r="A34" s="2"/>
-      <c r="D34" s="236" t="s">
+      <c r="D34" s="242" t="s">
         <v>133</v>
       </c>
       <c r="E34" s="78"/>
@@ -9662,7 +9662,7 @@
     </row>
     <row r="35" spans="1:152">
       <c r="A35" s="2"/>
-      <c r="D35" s="237"/>
+      <c r="D35" s="243"/>
       <c r="E35" s="34"/>
       <c r="F35" s="20" t="s">
         <v>107</v>
@@ -9680,7 +9680,7 @@
     </row>
     <row r="36" spans="1:152">
       <c r="A36" s="2"/>
-      <c r="D36" s="237"/>
+      <c r="D36" s="243"/>
       <c r="E36" s="34"/>
       <c r="F36" s="20" t="s">
         <v>112</v>
@@ -9698,7 +9698,7 @@
     </row>
     <row r="37" spans="1:152">
       <c r="A37" s="2"/>
-      <c r="D37" s="237"/>
+      <c r="D37" s="243"/>
       <c r="E37" s="34"/>
       <c r="F37" s="20" t="s">
         <v>116</v>
@@ -9716,7 +9716,7 @@
     </row>
     <row r="38" spans="1:152">
       <c r="A38" s="2"/>
-      <c r="D38" s="237"/>
+      <c r="D38" s="243"/>
       <c r="E38" s="34"/>
       <c r="F38" s="20" t="s">
         <v>120</v>
@@ -9734,7 +9734,7 @@
     </row>
     <row r="39" spans="1:152">
       <c r="A39" s="2"/>
-      <c r="D39" s="237"/>
+      <c r="D39" s="243"/>
       <c r="E39" s="34"/>
       <c r="F39" s="20" t="s">
         <v>124</v>
@@ -9752,7 +9752,7 @@
     </row>
     <row r="40" spans="1:152">
       <c r="A40" s="2"/>
-      <c r="D40" s="238"/>
+      <c r="D40" s="244"/>
       <c r="E40" s="79"/>
       <c r="F40" s="65" t="s">
         <v>128</v>
@@ -9770,7 +9770,7 @@
     </row>
     <row r="41" spans="1:152">
       <c r="A41" s="2"/>
-      <c r="D41" s="230" t="s">
+      <c r="D41" s="236" t="s">
         <v>141</v>
       </c>
       <c r="E41" s="80"/>
@@ -9794,7 +9794,7 @@
     </row>
     <row r="42" spans="1:152">
       <c r="A42" s="2"/>
-      <c r="D42" s="231"/>
+      <c r="D42" s="237"/>
       <c r="E42" s="147" t="s">
         <v>42</v>
       </c>
@@ -9818,7 +9818,7 @@
     </row>
     <row r="43" spans="1:152" s="38" customFormat="1">
       <c r="A43" s="2"/>
-      <c r="D43" s="233"/>
+      <c r="D43" s="239"/>
       <c r="E43" s="152"/>
       <c r="F43" s="153" t="s">
         <v>150</v>
@@ -9976,7 +9976,7 @@
     </row>
     <row r="44" spans="1:152">
       <c r="A44" s="2"/>
-      <c r="D44" s="231"/>
+      <c r="D44" s="237"/>
       <c r="E44" s="151" t="s">
         <v>42</v>
       </c>
@@ -10000,7 +10000,7 @@
     </row>
     <row r="45" spans="1:152">
       <c r="A45" s="2"/>
-      <c r="D45" s="231"/>
+      <c r="D45" s="237"/>
       <c r="E45" s="34" t="s">
         <v>42</v>
       </c>
@@ -10024,7 +10024,7 @@
     </row>
     <row r="46" spans="1:152">
       <c r="A46" s="2"/>
-      <c r="D46" s="231"/>
+      <c r="D46" s="237"/>
       <c r="E46" s="85" t="s">
         <v>48</v>
       </c>
@@ -10048,7 +10048,7 @@
     </row>
     <row r="47" spans="1:152">
       <c r="A47" s="2"/>
-      <c r="D47" s="231"/>
+      <c r="D47" s="237"/>
       <c r="E47" s="85" t="s">
         <v>48</v>
       </c>
@@ -10070,7 +10070,7 @@
     </row>
     <row r="48" spans="1:152">
       <c r="A48" s="2"/>
-      <c r="D48" s="231"/>
+      <c r="D48" s="237"/>
       <c r="E48" s="85" t="s">
         <v>48</v>
       </c>
@@ -10087,7 +10087,7 @@
     </row>
     <row r="49" spans="1:152">
       <c r="A49" s="2"/>
-      <c r="D49" s="231"/>
+      <c r="D49" s="237"/>
       <c r="E49" s="85" t="s">
         <v>48</v>
       </c>
@@ -10109,7 +10109,7 @@
     </row>
     <row r="50" spans="1:152">
       <c r="A50" s="2"/>
-      <c r="D50" s="231"/>
+      <c r="D50" s="237"/>
       <c r="E50" s="85" t="s">
         <v>48</v>
       </c>
@@ -10127,7 +10127,7 @@
     </row>
     <row r="51" spans="1:152">
       <c r="A51" s="2"/>
-      <c r="D51" s="231"/>
+      <c r="D51" s="237"/>
       <c r="E51" s="85" t="s">
         <v>48</v>
       </c>
@@ -10147,7 +10147,7 @@
     </row>
     <row r="52" spans="1:152">
       <c r="A52" s="2"/>
-      <c r="D52" s="231"/>
+      <c r="D52" s="237"/>
       <c r="E52" s="85" t="s">
         <v>48</v>
       </c>
@@ -10167,7 +10167,7 @@
     </row>
     <row r="53" spans="1:152">
       <c r="A53" s="2"/>
-      <c r="D53" s="231"/>
+      <c r="D53" s="237"/>
       <c r="E53" s="85" t="s">
         <v>48</v>
       </c>
@@ -10187,7 +10187,7 @@
     </row>
     <row r="54" spans="1:152">
       <c r="A54" s="2"/>
-      <c r="D54" s="231"/>
+      <c r="D54" s="237"/>
       <c r="E54" s="85" t="s">
         <v>48</v>
       </c>
@@ -10207,7 +10207,7 @@
     </row>
     <row r="55" spans="1:152">
       <c r="A55" s="2"/>
-      <c r="D55" s="231"/>
+      <c r="D55" s="237"/>
       <c r="E55" s="85" t="s">
         <v>48</v>
       </c>
@@ -10228,7 +10228,7 @@
     </row>
     <row r="56" spans="1:152" s="38" customFormat="1">
       <c r="A56" s="2"/>
-      <c r="D56" s="231"/>
+      <c r="D56" s="237"/>
       <c r="E56" s="81" t="s">
         <v>42</v>
       </c>
@@ -10388,7 +10388,7 @@
     </row>
     <row r="57" spans="1:152">
       <c r="A57" s="2"/>
-      <c r="D57" s="231"/>
+      <c r="D57" s="237"/>
       <c r="E57" s="82"/>
       <c r="F57" s="47" t="s">
         <v>189</v>
@@ -10410,7 +10410,7 @@
     </row>
     <row r="58" spans="1:152">
       <c r="A58" s="2"/>
-      <c r="D58" s="231"/>
+      <c r="D58" s="237"/>
       <c r="E58" s="82"/>
       <c r="F58" s="48" t="s">
         <v>192</v>
@@ -10432,7 +10432,7 @@
     </row>
     <row r="59" spans="1:152">
       <c r="A59" s="2"/>
-      <c r="D59" s="231"/>
+      <c r="D59" s="237"/>
       <c r="E59" s="82"/>
       <c r="F59" s="48" t="s">
         <v>197</v>
@@ -10454,7 +10454,7 @@
     </row>
     <row r="60" spans="1:152">
       <c r="A60" s="2"/>
-      <c r="D60" s="231"/>
+      <c r="D60" s="237"/>
       <c r="E60" s="34"/>
       <c r="F60" s="27" t="s">
         <v>202</v>
@@ -10470,7 +10470,7 @@
     </row>
     <row r="61" spans="1:152">
       <c r="A61" s="2"/>
-      <c r="D61" s="231"/>
+      <c r="D61" s="237"/>
       <c r="E61" s="34"/>
       <c r="F61" s="20" t="s">
         <v>204</v>
@@ -10486,7 +10486,7 @@
     </row>
     <row r="62" spans="1:152">
       <c r="A62" s="2"/>
-      <c r="D62" s="231"/>
+      <c r="D62" s="237"/>
       <c r="E62" s="34"/>
       <c r="F62" s="29" t="s">
         <v>206</v>
@@ -10502,7 +10502,7 @@
     </row>
     <row r="63" spans="1:152">
       <c r="A63" s="2"/>
-      <c r="D63" s="232"/>
+      <c r="D63" s="238"/>
       <c r="E63" s="82"/>
       <c r="F63" s="48" t="s">
         <v>208</v>
@@ -10524,7 +10524,7 @@
     </row>
     <row r="64" spans="1:152">
       <c r="A64" s="2"/>
-      <c r="D64" s="234" t="s">
+      <c r="D64" s="240" t="s">
         <v>211</v>
       </c>
       <c r="E64" s="82"/>
@@ -10548,7 +10548,7 @@
     </row>
     <row r="65" spans="1:152">
       <c r="A65" s="2"/>
-      <c r="D65" s="234"/>
+      <c r="D65" s="240"/>
       <c r="E65" s="82"/>
       <c r="F65" s="51" t="s">
         <v>217</v>
@@ -10570,7 +10570,7 @@
     </row>
     <row r="66" spans="1:152">
       <c r="A66" s="2"/>
-      <c r="D66" s="234"/>
+      <c r="D66" s="240"/>
       <c r="E66" s="81"/>
       <c r="F66" s="51" t="s">
         <v>219</v>
@@ -10594,7 +10594,7 @@
       <c r="A67" s="2"/>
       <c r="B67"/>
       <c r="C67"/>
-      <c r="D67" s="234"/>
+      <c r="D67" s="240"/>
       <c r="E67" s="192" t="s">
         <v>48</v>
       </c>
@@ -10612,7 +10612,7 @@
     </row>
     <row r="68" spans="1:152">
       <c r="A68" s="2"/>
-      <c r="D68" s="234"/>
+      <c r="D68" s="240"/>
       <c r="E68" s="81" t="s">
         <v>42</v>
       </c>
@@ -10636,7 +10636,7 @@
     </row>
     <row r="69" spans="1:152" s="69" customFormat="1">
       <c r="A69" s="2"/>
-      <c r="D69" s="234"/>
+      <c r="D69" s="240"/>
       <c r="E69" s="83" t="s">
         <v>42</v>
       </c>
@@ -10800,7 +10800,7 @@
     </row>
     <row r="70" spans="1:152">
       <c r="A70" s="2"/>
-      <c r="D70" s="234"/>
+      <c r="D70" s="240"/>
       <c r="E70" s="85" t="s">
         <v>48</v>
       </c>
@@ -10820,7 +10820,7 @@
     </row>
     <row r="71" spans="1:152" s="69" customFormat="1">
       <c r="A71" s="2"/>
-      <c r="D71" s="234"/>
+      <c r="D71" s="240"/>
       <c r="E71" s="85" t="s">
         <v>48</v>
       </c>
@@ -10980,7 +10980,7 @@
     </row>
     <row r="72" spans="1:152" s="69" customFormat="1">
       <c r="A72" s="2"/>
-      <c r="D72" s="234"/>
+      <c r="D72" s="240"/>
       <c r="E72" s="85"/>
       <c r="F72" s="95" t="s">
         <v>233</v>
@@ -11138,7 +11138,7 @@
     </row>
     <row r="73" spans="1:152">
       <c r="A73" s="2"/>
-      <c r="D73" s="234"/>
+      <c r="D73" s="240"/>
       <c r="E73" s="85" t="s">
         <v>48</v>
       </c>
@@ -11162,7 +11162,7 @@
     </row>
     <row r="74" spans="1:152">
       <c r="A74" s="2"/>
-      <c r="D74" s="234"/>
+      <c r="D74" s="240"/>
       <c r="E74" s="97"/>
       <c r="F74" s="35" t="s">
         <v>239</v>
@@ -11178,7 +11178,7 @@
     </row>
     <row r="75" spans="1:152">
       <c r="A75" s="2"/>
-      <c r="D75" s="234"/>
+      <c r="D75" s="240"/>
       <c r="E75" s="85" t="s">
         <v>48</v>
       </c>
@@ -11202,7 +11202,7 @@
     </row>
     <row r="76" spans="1:152">
       <c r="A76" s="2"/>
-      <c r="D76" s="234"/>
+      <c r="D76" s="240"/>
       <c r="E76" s="82" t="s">
         <v>42</v>
       </c>
@@ -11226,7 +11226,7 @@
     </row>
     <row r="77" spans="1:152">
       <c r="A77" s="2"/>
-      <c r="D77" s="234"/>
+      <c r="D77" s="240"/>
       <c r="E77" s="34"/>
       <c r="F77" s="20" t="s">
         <v>249</v>
@@ -11248,7 +11248,7 @@
     </row>
     <row r="78" spans="1:152">
       <c r="A78" s="2"/>
-      <c r="D78" s="234"/>
+      <c r="D78" s="240"/>
       <c r="E78" s="77"/>
       <c r="F78" s="29" t="s">
         <v>254</v>
@@ -11270,7 +11270,7 @@
     </row>
     <row r="79" spans="1:152">
       <c r="A79" s="2"/>
-      <c r="D79" s="234"/>
+      <c r="D79" s="240"/>
       <c r="E79" s="129"/>
       <c r="F79" s="124" t="s">
         <v>258</v>
@@ -11292,7 +11292,7 @@
     </row>
     <row r="80" spans="1:152">
       <c r="A80" s="2"/>
-      <c r="D80" s="234"/>
+      <c r="D80" s="240"/>
       <c r="E80" s="129"/>
       <c r="F80" s="124" t="s">
         <v>261</v>
@@ -11314,7 +11314,7 @@
     </row>
     <row r="81" spans="1:152">
       <c r="A81" s="2"/>
-      <c r="D81" s="234"/>
+      <c r="D81" s="240"/>
       <c r="E81" s="129"/>
       <c r="F81" s="124" t="s">
         <v>263</v>
@@ -11336,7 +11336,7 @@
     </row>
     <row r="82" spans="1:152">
       <c r="A82" s="2"/>
-      <c r="D82" s="234"/>
+      <c r="D82" s="240"/>
       <c r="E82" s="128"/>
       <c r="F82" s="127" t="s">
         <v>142</v>
@@ -11358,7 +11358,7 @@
     </row>
     <row r="83" spans="1:152">
       <c r="A83" s="2"/>
-      <c r="D83" s="234"/>
+      <c r="D83" s="240"/>
       <c r="E83" s="82" t="s">
         <v>42</v>
       </c>
@@ -11384,7 +11384,7 @@
       <c r="A84" s="2"/>
       <c r="B84"/>
       <c r="C84"/>
-      <c r="D84" s="234"/>
+      <c r="D84" s="240"/>
       <c r="E84" s="212"/>
       <c r="F84" s="213" t="s">
         <v>150</v>
@@ -11542,7 +11542,7 @@
     </row>
     <row r="85" spans="1:152">
       <c r="A85" s="2"/>
-      <c r="D85" s="234"/>
+      <c r="D85" s="240"/>
       <c r="E85" s="76" t="s">
         <v>42</v>
       </c>
@@ -11566,7 +11566,7 @@
     </row>
     <row r="86" spans="1:152">
       <c r="A86" s="2"/>
-      <c r="D86" s="234"/>
+      <c r="D86" s="240"/>
       <c r="E86" s="34" t="s">
         <v>42</v>
       </c>
@@ -11590,7 +11590,7 @@
     </row>
     <row r="87" spans="1:152">
       <c r="A87" s="2"/>
-      <c r="D87" s="234"/>
+      <c r="D87" s="240"/>
       <c r="E87" s="85" t="s">
         <v>48</v>
       </c>
@@ -11614,7 +11614,7 @@
     </row>
     <row r="88" spans="1:152">
       <c r="A88" s="2"/>
-      <c r="D88" s="234"/>
+      <c r="D88" s="240"/>
       <c r="E88" s="85" t="s">
         <v>48</v>
       </c>
@@ -11636,7 +11636,7 @@
     </row>
     <row r="89" spans="1:152">
       <c r="A89" s="2"/>
-      <c r="D89" s="234"/>
+      <c r="D89" s="240"/>
       <c r="E89" s="85" t="s">
         <v>48</v>
       </c>
@@ -11654,7 +11654,7 @@
     </row>
     <row r="90" spans="1:152">
       <c r="A90" s="2"/>
-      <c r="D90" s="234"/>
+      <c r="D90" s="240"/>
       <c r="E90" s="85" t="s">
         <v>48</v>
       </c>
@@ -11676,7 +11676,7 @@
     </row>
     <row r="91" spans="1:152">
       <c r="A91" s="2"/>
-      <c r="D91" s="234"/>
+      <c r="D91" s="240"/>
       <c r="E91" s="85" t="s">
         <v>48</v>
       </c>
@@ -11694,7 +11694,7 @@
     </row>
     <row r="92" spans="1:152">
       <c r="A92" s="2"/>
-      <c r="D92" s="234"/>
+      <c r="D92" s="240"/>
       <c r="E92" s="85" t="s">
         <v>48</v>
       </c>
@@ -11714,7 +11714,7 @@
     </row>
     <row r="93" spans="1:152">
       <c r="A93" s="2"/>
-      <c r="D93" s="234"/>
+      <c r="D93" s="240"/>
       <c r="E93" s="85" t="s">
         <v>48</v>
       </c>
@@ -11734,7 +11734,7 @@
     </row>
     <row r="94" spans="1:152">
       <c r="A94" s="2"/>
-      <c r="D94" s="234"/>
+      <c r="D94" s="240"/>
       <c r="E94" s="85" t="s">
         <v>48</v>
       </c>
@@ -11754,7 +11754,7 @@
     </row>
     <row r="95" spans="1:152">
       <c r="A95" s="2"/>
-      <c r="D95" s="234"/>
+      <c r="D95" s="240"/>
       <c r="E95" s="85" t="s">
         <v>48</v>
       </c>
@@ -11774,7 +11774,7 @@
     </row>
     <row r="96" spans="1:152">
       <c r="A96" s="2"/>
-      <c r="D96" s="234"/>
+      <c r="D96" s="240"/>
       <c r="E96" s="85" t="s">
         <v>48</v>
       </c>
@@ -11794,7 +11794,7 @@
     </row>
     <row r="97" spans="1:152" s="38" customFormat="1">
       <c r="A97" s="2"/>
-      <c r="D97" s="234"/>
+      <c r="D97" s="240"/>
       <c r="E97" s="81" t="s">
         <v>42</v>
       </c>
@@ -11954,7 +11954,7 @@
     </row>
     <row r="98" spans="1:152">
       <c r="A98" s="2"/>
-      <c r="D98" s="234"/>
+      <c r="D98" s="240"/>
       <c r="E98" s="82"/>
       <c r="F98" s="47" t="s">
         <v>189</v>
@@ -11976,7 +11976,7 @@
     </row>
     <row r="99" spans="1:152">
       <c r="A99" s="2"/>
-      <c r="D99" s="234"/>
+      <c r="D99" s="240"/>
       <c r="E99" s="82"/>
       <c r="F99" s="48" t="s">
         <v>192</v>
@@ -11998,7 +11998,7 @@
     </row>
     <row r="100" spans="1:152">
       <c r="A100" s="2"/>
-      <c r="D100" s="234"/>
+      <c r="D100" s="240"/>
       <c r="E100" s="82"/>
       <c r="F100" s="48" t="s">
         <v>197</v>
@@ -12020,7 +12020,7 @@
     </row>
     <row r="101" spans="1:152" s="112" customFormat="1">
       <c r="A101" s="2"/>
-      <c r="D101" s="234"/>
+      <c r="D101" s="240"/>
       <c r="E101" s="75"/>
       <c r="F101" s="113" t="s">
         <v>202</v>
@@ -12176,7 +12176,7 @@
     </row>
     <row r="102" spans="1:152" s="112" customFormat="1">
       <c r="A102" s="2"/>
-      <c r="D102" s="234"/>
+      <c r="D102" s="240"/>
       <c r="E102" s="75"/>
       <c r="F102" s="114" t="s">
         <v>204</v>
@@ -12332,7 +12332,7 @@
     </row>
     <row r="103" spans="1:152" s="112" customFormat="1">
       <c r="A103" s="2"/>
-      <c r="D103" s="234"/>
+      <c r="D103" s="240"/>
       <c r="E103" s="130"/>
       <c r="F103" s="115" t="s">
         <v>206</v>
@@ -12488,7 +12488,7 @@
     </row>
     <row r="104" spans="1:152" s="112" customFormat="1">
       <c r="A104" s="2"/>
-      <c r="D104" s="235"/>
+      <c r="D104" s="241"/>
       <c r="E104" s="136"/>
       <c r="F104" s="133" t="s">
         <v>208</v>
@@ -12650,7 +12650,7 @@
     </row>
     <row r="105" spans="1:152" s="112" customFormat="1">
       <c r="A105" s="2"/>
-      <c r="D105" s="235"/>
+      <c r="D105" s="241"/>
       <c r="E105" s="136" t="s">
         <v>42</v>
       </c>
@@ -12814,7 +12814,7 @@
     </row>
     <row r="106" spans="1:152" s="112" customFormat="1" ht="28.5" customHeight="1">
       <c r="A106" s="2"/>
-      <c r="D106" s="235"/>
+      <c r="D106" s="241"/>
       <c r="E106" s="137" t="s">
         <v>48</v>
       </c>
@@ -12978,7 +12978,7 @@
     </row>
     <row r="107" spans="1:152" s="112" customFormat="1" ht="28.5" customHeight="1">
       <c r="A107" s="2"/>
-      <c r="D107" s="235"/>
+      <c r="D107" s="241"/>
       <c r="E107" s="197" t="s">
         <v>42</v>
       </c>
@@ -13142,7 +13142,7 @@
     </row>
     <row r="108" spans="1:152" s="112" customFormat="1">
       <c r="A108" s="2"/>
-      <c r="D108" s="234"/>
+      <c r="D108" s="240"/>
       <c r="E108" s="132" t="s">
         <v>48</v>
       </c>
@@ -13306,7 +13306,7 @@
     </row>
     <row r="109" spans="1:152" s="112" customFormat="1" ht="30">
       <c r="A109" s="2"/>
-      <c r="D109" s="234"/>
+      <c r="D109" s="240"/>
       <c r="E109" s="75"/>
       <c r="F109" s="114" t="s">
         <v>64</v>
@@ -13468,7 +13468,7 @@
     </row>
     <row r="110" spans="1:152" s="112" customFormat="1">
       <c r="A110" s="2"/>
-      <c r="D110" s="234"/>
+      <c r="D110" s="240"/>
       <c r="E110" s="75" t="s">
         <v>42</v>
       </c>
@@ -13632,7 +13632,7 @@
     </row>
     <row r="111" spans="1:152" s="112" customFormat="1">
       <c r="A111" s="2"/>
-      <c r="D111" s="234"/>
+      <c r="D111" s="240"/>
       <c r="E111" s="75"/>
       <c r="F111" s="114" t="s">
         <v>74</v>
@@ -13794,7 +13794,7 @@
     </row>
     <row r="112" spans="1:152" s="112" customFormat="1">
       <c r="A112" s="2"/>
-      <c r="D112" s="234"/>
+      <c r="D112" s="240"/>
       <c r="E112" s="75" t="s">
         <v>42</v>
       </c>
@@ -13958,7 +13958,7 @@
     </row>
     <row r="113" spans="1:152" s="112" customFormat="1">
       <c r="A113" s="2"/>
-      <c r="D113" s="234"/>
+      <c r="D113" s="240"/>
       <c r="E113" s="86" t="s">
         <v>48</v>
       </c>
@@ -14122,7 +14122,7 @@
     </row>
     <row r="114" spans="1:152" s="112" customFormat="1">
       <c r="A114" s="2"/>
-      <c r="D114" s="234"/>
+      <c r="D114" s="240"/>
       <c r="E114" s="120" t="s">
         <v>48</v>
       </c>
@@ -14286,7 +14286,7 @@
     </row>
     <row r="115" spans="1:152" s="194" customFormat="1" ht="30">
       <c r="A115" s="196"/>
-      <c r="D115" s="234"/>
+      <c r="D115" s="240"/>
       <c r="E115" s="195" t="s">
         <v>48</v>
       </c>
@@ -14444,7 +14444,7 @@
     </row>
     <row r="116" spans="1:152" s="112" customFormat="1">
       <c r="A116" s="2"/>
-      <c r="D116" s="234"/>
+      <c r="D116" s="240"/>
       <c r="E116" s="143"/>
       <c r="F116" s="144" t="s">
         <v>93</v>
@@ -14606,7 +14606,7 @@
     </row>
     <row r="117" spans="1:152" s="138" customFormat="1">
       <c r="A117" s="2"/>
-      <c r="D117" s="235"/>
+      <c r="D117" s="241"/>
       <c r="E117" s="146"/>
       <c r="F117" s="124" t="s">
         <v>301</v>
@@ -14768,7 +14768,7 @@
     </row>
     <row r="118" spans="1:152" s="138" customFormat="1">
       <c r="A118" s="2"/>
-      <c r="D118" s="235"/>
+      <c r="D118" s="241"/>
       <c r="E118" s="146"/>
       <c r="F118" s="124" t="s">
         <v>304</v>
@@ -14954,7 +14954,7 @@
     </row>
     <row r="120" spans="1:152" ht="16.5" customHeight="1">
       <c r="A120" s="167"/>
-      <c r="D120" s="230" t="s">
+      <c r="D120" s="236" t="s">
         <v>28</v>
       </c>
       <c r="E120" s="74"/>
@@ -14978,7 +14978,7 @@
     </row>
     <row r="121" spans="1:152">
       <c r="A121" s="2"/>
-      <c r="D121" s="231"/>
+      <c r="D121" s="237"/>
       <c r="E121" s="74"/>
       <c r="F121" s="13" t="s">
         <v>34</v>
@@ -15000,7 +15000,7 @@
     </row>
     <row r="122" spans="1:152">
       <c r="A122" s="2"/>
-      <c r="D122" s="232"/>
+      <c r="D122" s="238"/>
       <c r="E122" s="74"/>
       <c r="F122" s="13" t="s">
         <v>37</v>
@@ -15022,7 +15022,7 @@
     </row>
     <row r="123" spans="1:152">
       <c r="A123" s="2"/>
-      <c r="D123" s="230" t="s">
+      <c r="D123" s="236" t="s">
         <v>41</v>
       </c>
       <c r="E123" s="74" t="s">
@@ -15048,7 +15048,7 @@
     </row>
     <row r="124" spans="1:152" ht="28.5" customHeight="1">
       <c r="A124" s="2"/>
-      <c r="D124" s="231"/>
+      <c r="D124" s="237"/>
       <c r="E124" s="84" t="s">
         <v>48</v>
       </c>
@@ -15072,7 +15072,7 @@
     </row>
     <row r="125" spans="1:152" s="112" customFormat="1" ht="28.5" customHeight="1">
       <c r="A125" s="215"/>
-      <c r="D125" s="231"/>
+      <c r="D125" s="237"/>
       <c r="E125" s="186" t="s">
         <v>42</v>
       </c>
@@ -15236,7 +15236,7 @@
     </row>
     <row r="126" spans="1:152">
       <c r="A126" s="2"/>
-      <c r="D126" s="231"/>
+      <c r="D126" s="237"/>
       <c r="E126" s="85" t="s">
         <v>48</v>
       </c>
@@ -15260,7 +15260,7 @@
     </row>
     <row r="127" spans="1:152" s="112" customFormat="1" ht="30">
       <c r="A127" s="2"/>
-      <c r="D127" s="231"/>
+      <c r="D127" s="237"/>
       <c r="E127" s="75"/>
       <c r="F127" s="109" t="s">
         <v>64</v>
@@ -15422,7 +15422,7 @@
     </row>
     <row r="128" spans="1:152">
       <c r="A128" s="2"/>
-      <c r="D128" s="231"/>
+      <c r="D128" s="237"/>
       <c r="E128" s="34" t="s">
         <v>42</v>
       </c>
@@ -15446,7 +15446,7 @@
     </row>
     <row r="129" spans="1:152">
       <c r="A129" s="2"/>
-      <c r="D129" s="231"/>
+      <c r="D129" s="237"/>
       <c r="E129" s="34"/>
       <c r="F129" s="20" t="s">
         <v>74</v>
@@ -15468,7 +15468,7 @@
     </row>
     <row r="130" spans="1:152">
       <c r="A130" s="2"/>
-      <c r="D130" s="231"/>
+      <c r="D130" s="237"/>
       <c r="E130" s="34" t="s">
         <v>42</v>
       </c>
@@ -15492,7 +15492,7 @@
     </row>
     <row r="131" spans="1:152">
       <c r="A131" s="2"/>
-      <c r="D131" s="231"/>
+      <c r="D131" s="237"/>
       <c r="E131" s="85" t="s">
         <v>48</v>
       </c>
@@ -15516,7 +15516,7 @@
     </row>
     <row r="132" spans="1:152">
       <c r="A132" s="2"/>
-      <c r="D132" s="231"/>
+      <c r="D132" s="237"/>
       <c r="E132" s="87" t="s">
         <v>48</v>
       </c>
@@ -15542,7 +15542,7 @@
       <c r="A133" s="2"/>
       <c r="B133"/>
       <c r="C133"/>
-      <c r="D133" s="231"/>
+      <c r="D133" s="237"/>
       <c r="E133" s="189" t="s">
         <v>48</v>
       </c>
@@ -15560,7 +15560,7 @@
     </row>
     <row r="134" spans="1:152">
       <c r="A134" s="2"/>
-      <c r="D134" s="232"/>
+      <c r="D134" s="238"/>
       <c r="E134" s="89"/>
       <c r="F134" s="90" t="s">
         <v>93</v>
@@ -15608,7 +15608,7 @@
     </row>
     <row r="136" spans="1:152">
       <c r="A136" s="2"/>
-      <c r="D136" s="236" t="s">
+      <c r="D136" s="242" t="s">
         <v>101</v>
       </c>
       <c r="E136" s="76"/>
@@ -15632,7 +15632,7 @@
     </row>
     <row r="137" spans="1:152">
       <c r="A137" s="2"/>
-      <c r="D137" s="237"/>
+      <c r="D137" s="243"/>
       <c r="E137" s="34" t="s">
         <v>42</v>
       </c>
@@ -15656,7 +15656,7 @@
     </row>
     <row r="138" spans="1:152" s="69" customFormat="1">
       <c r="A138" s="2"/>
-      <c r="D138" s="237"/>
+      <c r="D138" s="243"/>
       <c r="E138" s="87" t="s">
         <v>48</v>
       </c>
@@ -15820,7 +15820,7 @@
     </row>
     <row r="139" spans="1:152">
       <c r="A139" s="2"/>
-      <c r="D139" s="237"/>
+      <c r="D139" s="243"/>
       <c r="E139" s="34" t="s">
         <v>42</v>
       </c>
@@ -15844,7 +15844,7 @@
     </row>
     <row r="140" spans="1:152">
       <c r="A140" s="2"/>
-      <c r="D140" s="237"/>
+      <c r="D140" s="243"/>
       <c r="E140" s="34"/>
       <c r="F140" s="20" t="s">
         <v>120</v>
@@ -15866,7 +15866,7 @@
     </row>
     <row r="141" spans="1:152">
       <c r="A141" s="2"/>
-      <c r="D141" s="237"/>
+      <c r="D141" s="243"/>
       <c r="E141" s="34"/>
       <c r="F141" s="20" t="s">
         <v>124</v>
@@ -15888,7 +15888,7 @@
     </row>
     <row r="142" spans="1:152">
       <c r="A142" s="2"/>
-      <c r="D142" s="237"/>
+      <c r="D142" s="243"/>
       <c r="E142" s="87" t="s">
         <v>48</v>
       </c>
@@ -15912,7 +15912,7 @@
     </row>
     <row r="143" spans="1:152">
       <c r="A143" s="2"/>
-      <c r="D143" s="236" t="s">
+      <c r="D143" s="242" t="s">
         <v>133</v>
       </c>
       <c r="E143" s="78"/>
@@ -15930,7 +15930,7 @@
     </row>
     <row r="144" spans="1:152">
       <c r="A144" s="2"/>
-      <c r="D144" s="237"/>
+      <c r="D144" s="243"/>
       <c r="E144" s="34"/>
       <c r="F144" s="20" t="s">
         <v>107</v>
@@ -15948,7 +15948,7 @@
     </row>
     <row r="145" spans="1:152">
       <c r="A145" s="2"/>
-      <c r="D145" s="237"/>
+      <c r="D145" s="243"/>
       <c r="E145" s="34"/>
       <c r="F145" s="20" t="s">
         <v>112</v>
@@ -15966,7 +15966,7 @@
     </row>
     <row r="146" spans="1:152">
       <c r="A146" s="2"/>
-      <c r="D146" s="237"/>
+      <c r="D146" s="243"/>
       <c r="E146" s="34"/>
       <c r="F146" s="20" t="s">
         <v>116</v>
@@ -15984,7 +15984,7 @@
     </row>
     <row r="147" spans="1:152">
       <c r="A147" s="2"/>
-      <c r="D147" s="237"/>
+      <c r="D147" s="243"/>
       <c r="E147" s="34"/>
       <c r="F147" s="20" t="s">
         <v>120</v>
@@ -16002,7 +16002,7 @@
     </row>
     <row r="148" spans="1:152">
       <c r="A148" s="2"/>
-      <c r="D148" s="237"/>
+      <c r="D148" s="243"/>
       <c r="E148" s="34"/>
       <c r="F148" s="20" t="s">
         <v>124</v>
@@ -16020,7 +16020,7 @@
     </row>
     <row r="149" spans="1:152">
       <c r="A149" s="2"/>
-      <c r="D149" s="238"/>
+      <c r="D149" s="244"/>
       <c r="E149" s="79"/>
       <c r="F149" s="65" t="s">
         <v>128</v>
@@ -16038,7 +16038,7 @@
     </row>
     <row r="150" spans="1:152">
       <c r="A150" s="2"/>
-      <c r="D150" s="230" t="s">
+      <c r="D150" s="236" t="s">
         <v>141</v>
       </c>
       <c r="E150" s="80"/>
@@ -16062,7 +16062,7 @@
     </row>
     <row r="151" spans="1:152">
       <c r="A151" s="2"/>
-      <c r="D151" s="231"/>
+      <c r="D151" s="237"/>
       <c r="E151" s="147" t="s">
         <v>42</v>
       </c>
@@ -16086,7 +16086,7 @@
     </row>
     <row r="152" spans="1:152" s="38" customFormat="1">
       <c r="A152" s="2"/>
-      <c r="D152" s="233"/>
+      <c r="D152" s="239"/>
       <c r="E152" s="152"/>
       <c r="F152" s="153" t="s">
         <v>150</v>
@@ -16244,7 +16244,7 @@
     </row>
     <row r="153" spans="1:152">
       <c r="A153" s="2"/>
-      <c r="D153" s="231"/>
+      <c r="D153" s="237"/>
       <c r="E153" s="151" t="s">
         <v>42</v>
       </c>
@@ -16268,7 +16268,7 @@
     </row>
     <row r="154" spans="1:152">
       <c r="A154" s="2"/>
-      <c r="D154" s="231"/>
+      <c r="D154" s="237"/>
       <c r="E154" s="34" t="s">
         <v>42</v>
       </c>
@@ -16292,7 +16292,7 @@
     </row>
     <row r="155" spans="1:152">
       <c r="A155" s="2"/>
-      <c r="D155" s="231"/>
+      <c r="D155" s="237"/>
       <c r="E155" s="85" t="s">
         <v>48</v>
       </c>
@@ -16316,7 +16316,7 @@
     </row>
     <row r="156" spans="1:152">
       <c r="A156" s="2"/>
-      <c r="D156" s="231"/>
+      <c r="D156" s="237"/>
       <c r="E156" s="85" t="s">
         <v>48</v>
       </c>
@@ -16338,7 +16338,7 @@
     </row>
     <row r="157" spans="1:152">
       <c r="A157" s="2"/>
-      <c r="D157" s="231"/>
+      <c r="D157" s="237"/>
       <c r="E157" s="85" t="s">
         <v>48</v>
       </c>
@@ -16355,7 +16355,7 @@
     </row>
     <row r="158" spans="1:152">
       <c r="A158" s="2"/>
-      <c r="D158" s="231"/>
+      <c r="D158" s="237"/>
       <c r="E158" s="85" t="s">
         <v>48</v>
       </c>
@@ -16377,7 +16377,7 @@
     </row>
     <row r="159" spans="1:152">
       <c r="A159" s="2"/>
-      <c r="D159" s="231"/>
+      <c r="D159" s="237"/>
       <c r="E159" s="85" t="s">
         <v>48</v>
       </c>
@@ -16395,7 +16395,7 @@
     </row>
     <row r="160" spans="1:152">
       <c r="A160" s="2"/>
-      <c r="D160" s="231"/>
+      <c r="D160" s="237"/>
       <c r="E160" s="85" t="s">
         <v>48</v>
       </c>
@@ -16415,7 +16415,7 @@
     </row>
     <row r="161" spans="1:152">
       <c r="A161" s="2"/>
-      <c r="D161" s="231"/>
+      <c r="D161" s="237"/>
       <c r="E161" s="85" t="s">
         <v>48</v>
       </c>
@@ -16435,7 +16435,7 @@
     </row>
     <row r="162" spans="1:152">
       <c r="A162" s="2"/>
-      <c r="D162" s="231"/>
+      <c r="D162" s="237"/>
       <c r="E162" s="85" t="s">
         <v>48</v>
       </c>
@@ -16455,7 +16455,7 @@
     </row>
     <row r="163" spans="1:152">
       <c r="A163" s="2"/>
-      <c r="D163" s="231"/>
+      <c r="D163" s="237"/>
       <c r="E163" s="85" t="s">
         <v>48</v>
       </c>
@@ -16475,7 +16475,7 @@
     </row>
     <row r="164" spans="1:152">
       <c r="A164" s="2"/>
-      <c r="D164" s="231"/>
+      <c r="D164" s="237"/>
       <c r="E164" s="85" t="s">
         <v>48</v>
       </c>
@@ -16496,7 +16496,7 @@
     </row>
     <row r="165" spans="1:152" s="38" customFormat="1">
       <c r="A165" s="2"/>
-      <c r="D165" s="231"/>
+      <c r="D165" s="237"/>
       <c r="E165" s="81" t="s">
         <v>42</v>
       </c>
@@ -16656,7 +16656,7 @@
     </row>
     <row r="166" spans="1:152">
       <c r="A166" s="2"/>
-      <c r="D166" s="231"/>
+      <c r="D166" s="237"/>
       <c r="E166" s="82"/>
       <c r="F166" s="47" t="s">
         <v>189</v>
@@ -16678,7 +16678,7 @@
     </row>
     <row r="167" spans="1:152">
       <c r="A167" s="2"/>
-      <c r="D167" s="231"/>
+      <c r="D167" s="237"/>
       <c r="E167" s="82"/>
       <c r="F167" s="48" t="s">
         <v>192</v>
@@ -16700,7 +16700,7 @@
     </row>
     <row r="168" spans="1:152">
       <c r="A168" s="2"/>
-      <c r="D168" s="231"/>
+      <c r="D168" s="237"/>
       <c r="E168" s="82"/>
       <c r="F168" s="48" t="s">
         <v>197</v>
@@ -16722,7 +16722,7 @@
     </row>
     <row r="169" spans="1:152">
       <c r="A169" s="2"/>
-      <c r="D169" s="231"/>
+      <c r="D169" s="237"/>
       <c r="E169" s="34"/>
       <c r="F169" s="27" t="s">
         <v>202</v>
@@ -16738,7 +16738,7 @@
     </row>
     <row r="170" spans="1:152">
       <c r="A170" s="2"/>
-      <c r="D170" s="231"/>
+      <c r="D170" s="237"/>
       <c r="E170" s="34"/>
       <c r="F170" s="20" t="s">
         <v>204</v>
@@ -16754,7 +16754,7 @@
     </row>
     <row r="171" spans="1:152">
       <c r="A171" s="2"/>
-      <c r="D171" s="231"/>
+      <c r="D171" s="237"/>
       <c r="E171" s="34"/>
       <c r="F171" s="29" t="s">
         <v>206</v>
@@ -16770,7 +16770,7 @@
     </row>
     <row r="172" spans="1:152">
       <c r="A172" s="2"/>
-      <c r="D172" s="232"/>
+      <c r="D172" s="238"/>
       <c r="E172" s="82"/>
       <c r="F172" s="48" t="s">
         <v>208</v>
@@ -16792,7 +16792,7 @@
     </row>
     <row r="173" spans="1:152">
       <c r="A173" s="2"/>
-      <c r="D173" s="234" t="s">
+      <c r="D173" s="240" t="s">
         <v>211</v>
       </c>
       <c r="E173" s="82"/>
@@ -16816,7 +16816,7 @@
     </row>
     <row r="174" spans="1:152">
       <c r="A174" s="2"/>
-      <c r="D174" s="234"/>
+      <c r="D174" s="240"/>
       <c r="E174" s="82"/>
       <c r="F174" s="51" t="s">
         <v>217</v>
@@ -16838,7 +16838,7 @@
     </row>
     <row r="175" spans="1:152">
       <c r="A175" s="2"/>
-      <c r="D175" s="234"/>
+      <c r="D175" s="240"/>
       <c r="E175" s="81"/>
       <c r="F175" s="51" t="s">
         <v>219</v>
@@ -16862,7 +16862,7 @@
       <c r="A176" s="2"/>
       <c r="B176"/>
       <c r="C176"/>
-      <c r="D176" s="234"/>
+      <c r="D176" s="240"/>
       <c r="E176" s="192" t="s">
         <v>48</v>
       </c>
@@ -16880,7 +16880,7 @@
     </row>
     <row r="177" spans="1:152">
       <c r="A177" s="2"/>
-      <c r="D177" s="234"/>
+      <c r="D177" s="240"/>
       <c r="E177" s="81" t="s">
         <v>42</v>
       </c>
@@ -16904,7 +16904,7 @@
     </row>
     <row r="178" spans="1:152" s="69" customFormat="1">
       <c r="A178" s="2"/>
-      <c r="D178" s="234"/>
+      <c r="D178" s="240"/>
       <c r="E178" s="83" t="s">
         <v>42</v>
       </c>
@@ -17068,7 +17068,7 @@
     </row>
     <row r="179" spans="1:152">
       <c r="A179" s="2"/>
-      <c r="D179" s="234"/>
+      <c r="D179" s="240"/>
       <c r="E179" s="85" t="s">
         <v>48</v>
       </c>
@@ -17088,7 +17088,7 @@
     </row>
     <row r="180" spans="1:152" s="69" customFormat="1">
       <c r="A180" s="2"/>
-      <c r="D180" s="234"/>
+      <c r="D180" s="240"/>
       <c r="E180" s="85" t="s">
         <v>48</v>
       </c>
@@ -17248,7 +17248,7 @@
     </row>
     <row r="181" spans="1:152" s="69" customFormat="1">
       <c r="A181" s="2"/>
-      <c r="D181" s="234"/>
+      <c r="D181" s="240"/>
       <c r="E181" s="85"/>
       <c r="F181" s="95" t="s">
         <v>233</v>
@@ -17406,7 +17406,7 @@
     </row>
     <row r="182" spans="1:152">
       <c r="A182" s="2"/>
-      <c r="D182" s="234"/>
+      <c r="D182" s="240"/>
       <c r="E182" s="85" t="s">
         <v>48</v>
       </c>
@@ -17430,7 +17430,7 @@
     </row>
     <row r="183" spans="1:152">
       <c r="A183" s="2"/>
-      <c r="D183" s="234"/>
+      <c r="D183" s="240"/>
       <c r="E183" s="97"/>
       <c r="F183" s="35" t="s">
         <v>239</v>
@@ -17446,7 +17446,7 @@
     </row>
     <row r="184" spans="1:152">
       <c r="A184" s="2"/>
-      <c r="D184" s="234"/>
+      <c r="D184" s="240"/>
       <c r="E184" s="85" t="s">
         <v>48</v>
       </c>
@@ -17470,7 +17470,7 @@
     </row>
     <row r="185" spans="1:152">
       <c r="A185" s="2"/>
-      <c r="D185" s="234"/>
+      <c r="D185" s="240"/>
       <c r="E185" s="82" t="s">
         <v>42</v>
       </c>
@@ -17494,7 +17494,7 @@
     </row>
     <row r="186" spans="1:152">
       <c r="A186" s="2"/>
-      <c r="D186" s="234"/>
+      <c r="D186" s="240"/>
       <c r="E186" s="34"/>
       <c r="F186" s="20" t="s">
         <v>249</v>
@@ -17516,7 +17516,7 @@
     </row>
     <row r="187" spans="1:152">
       <c r="A187" s="2"/>
-      <c r="D187" s="234"/>
+      <c r="D187" s="240"/>
       <c r="E187" s="77"/>
       <c r="F187" s="29" t="s">
         <v>254</v>
@@ -17538,7 +17538,7 @@
     </row>
     <row r="188" spans="1:152">
       <c r="A188" s="2"/>
-      <c r="D188" s="234"/>
+      <c r="D188" s="240"/>
       <c r="E188" s="129"/>
       <c r="F188" s="124" t="s">
         <v>258</v>
@@ -17560,7 +17560,7 @@
     </row>
     <row r="189" spans="1:152">
       <c r="A189" s="2"/>
-      <c r="D189" s="234"/>
+      <c r="D189" s="240"/>
       <c r="E189" s="129"/>
       <c r="F189" s="124" t="s">
         <v>261</v>
@@ -17582,7 +17582,7 @@
     </row>
     <row r="190" spans="1:152">
       <c r="A190" s="2"/>
-      <c r="D190" s="234"/>
+      <c r="D190" s="240"/>
       <c r="E190" s="129"/>
       <c r="F190" s="124" t="s">
         <v>263</v>
@@ -17604,7 +17604,7 @@
     </row>
     <row r="191" spans="1:152">
       <c r="A191" s="2"/>
-      <c r="D191" s="234"/>
+      <c r="D191" s="240"/>
       <c r="E191" s="128"/>
       <c r="F191" s="127" t="s">
         <v>142</v>
@@ -17626,7 +17626,7 @@
     </row>
     <row r="192" spans="1:152">
       <c r="A192" s="2"/>
-      <c r="D192" s="234"/>
+      <c r="D192" s="240"/>
       <c r="E192" s="82" t="s">
         <v>42</v>
       </c>
@@ -17652,7 +17652,7 @@
       <c r="A193" s="2"/>
       <c r="B193"/>
       <c r="C193"/>
-      <c r="D193" s="234"/>
+      <c r="D193" s="240"/>
       <c r="E193" s="212"/>
       <c r="F193" s="213" t="s">
         <v>150</v>
@@ -17810,7 +17810,7 @@
     </row>
     <row r="194" spans="1:152">
       <c r="A194" s="2"/>
-      <c r="D194" s="234"/>
+      <c r="D194" s="240"/>
       <c r="E194" s="76" t="s">
         <v>42</v>
       </c>
@@ -17834,7 +17834,7 @@
     </row>
     <row r="195" spans="1:152">
       <c r="A195" s="2"/>
-      <c r="D195" s="234"/>
+      <c r="D195" s="240"/>
       <c r="E195" s="34" t="s">
         <v>42</v>
       </c>
@@ -17858,7 +17858,7 @@
     </row>
     <row r="196" spans="1:152">
       <c r="A196" s="2"/>
-      <c r="D196" s="234"/>
+      <c r="D196" s="240"/>
       <c r="E196" s="85" t="s">
         <v>48</v>
       </c>
@@ -17882,7 +17882,7 @@
     </row>
     <row r="197" spans="1:152">
       <c r="A197" s="2"/>
-      <c r="D197" s="234"/>
+      <c r="D197" s="240"/>
       <c r="E197" s="85" t="s">
         <v>48</v>
       </c>
@@ -17904,7 +17904,7 @@
     </row>
     <row r="198" spans="1:152">
       <c r="A198" s="2"/>
-      <c r="D198" s="234"/>
+      <c r="D198" s="240"/>
       <c r="E198" s="85" t="s">
         <v>48</v>
       </c>
@@ -17922,7 +17922,7 @@
     </row>
     <row r="199" spans="1:152">
       <c r="A199" s="2"/>
-      <c r="D199" s="234"/>
+      <c r="D199" s="240"/>
       <c r="E199" s="85" t="s">
         <v>48</v>
       </c>
@@ -17944,7 +17944,7 @@
     </row>
     <row r="200" spans="1:152">
       <c r="A200" s="2"/>
-      <c r="D200" s="234"/>
+      <c r="D200" s="240"/>
       <c r="E200" s="85" t="s">
         <v>48</v>
       </c>
@@ -17962,7 +17962,7 @@
     </row>
     <row r="201" spans="1:152">
       <c r="A201" s="2"/>
-      <c r="D201" s="234"/>
+      <c r="D201" s="240"/>
       <c r="E201" s="85" t="s">
         <v>48</v>
       </c>
@@ -17982,7 +17982,7 @@
     </row>
     <row r="202" spans="1:152">
       <c r="A202" s="2"/>
-      <c r="D202" s="234"/>
+      <c r="D202" s="240"/>
       <c r="E202" s="85" t="s">
         <v>48</v>
       </c>
@@ -18002,7 +18002,7 @@
     </row>
     <row r="203" spans="1:152">
       <c r="A203" s="2"/>
-      <c r="D203" s="234"/>
+      <c r="D203" s="240"/>
       <c r="E203" s="85" t="s">
         <v>48</v>
       </c>
@@ -18022,7 +18022,7 @@
     </row>
     <row r="204" spans="1:152">
       <c r="A204" s="2"/>
-      <c r="D204" s="234"/>
+      <c r="D204" s="240"/>
       <c r="E204" s="85" t="s">
         <v>48</v>
       </c>
@@ -18042,7 +18042,7 @@
     </row>
     <row r="205" spans="1:152">
       <c r="A205" s="2"/>
-      <c r="D205" s="234"/>
+      <c r="D205" s="240"/>
       <c r="E205" s="85" t="s">
         <v>48</v>
       </c>
@@ -18062,7 +18062,7 @@
     </row>
     <row r="206" spans="1:152" s="38" customFormat="1">
       <c r="A206" s="2"/>
-      <c r="D206" s="234"/>
+      <c r="D206" s="240"/>
       <c r="E206" s="81" t="s">
         <v>42</v>
       </c>
@@ -18222,7 +18222,7 @@
     </row>
     <row r="207" spans="1:152">
       <c r="A207" s="2"/>
-      <c r="D207" s="234"/>
+      <c r="D207" s="240"/>
       <c r="E207" s="82"/>
       <c r="F207" s="47" t="s">
         <v>189</v>
@@ -18244,7 +18244,7 @@
     </row>
     <row r="208" spans="1:152">
       <c r="A208" s="2"/>
-      <c r="D208" s="234"/>
+      <c r="D208" s="240"/>
       <c r="E208" s="82"/>
       <c r="F208" s="48" t="s">
         <v>192</v>
@@ -18266,7 +18266,7 @@
     </row>
     <row r="209" spans="1:152">
       <c r="A209" s="2"/>
-      <c r="D209" s="234"/>
+      <c r="D209" s="240"/>
       <c r="E209" s="82"/>
       <c r="F209" s="48" t="s">
         <v>197</v>
@@ -18288,7 +18288,7 @@
     </row>
     <row r="210" spans="1:152" s="112" customFormat="1">
       <c r="A210" s="2"/>
-      <c r="D210" s="234"/>
+      <c r="D210" s="240"/>
       <c r="E210" s="75"/>
       <c r="F210" s="113" t="s">
         <v>202</v>
@@ -18444,7 +18444,7 @@
     </row>
     <row r="211" spans="1:152" s="112" customFormat="1">
       <c r="A211" s="2"/>
-      <c r="D211" s="234"/>
+      <c r="D211" s="240"/>
       <c r="E211" s="75"/>
       <c r="F211" s="114" t="s">
         <v>204</v>
@@ -18600,7 +18600,7 @@
     </row>
     <row r="212" spans="1:152" s="112" customFormat="1">
       <c r="A212" s="2"/>
-      <c r="D212" s="234"/>
+      <c r="D212" s="240"/>
       <c r="E212" s="130"/>
       <c r="F212" s="115" t="s">
         <v>206</v>
@@ -18756,7 +18756,7 @@
     </row>
     <row r="213" spans="1:152" s="112" customFormat="1">
       <c r="A213" s="2"/>
-      <c r="D213" s="235"/>
+      <c r="D213" s="241"/>
       <c r="E213" s="136"/>
       <c r="F213" s="133" t="s">
         <v>208</v>
@@ -18918,7 +18918,7 @@
     </row>
     <row r="214" spans="1:152" s="112" customFormat="1">
       <c r="A214" s="2"/>
-      <c r="D214" s="235"/>
+      <c r="D214" s="241"/>
       <c r="E214" s="136" t="s">
         <v>42</v>
       </c>
@@ -19082,7 +19082,7 @@
     </row>
     <row r="215" spans="1:152" s="112" customFormat="1" ht="28.5" customHeight="1">
       <c r="A215" s="2"/>
-      <c r="D215" s="235"/>
+      <c r="D215" s="241"/>
       <c r="E215" s="137" t="s">
         <v>48</v>
       </c>
@@ -19246,7 +19246,7 @@
     </row>
     <row r="216" spans="1:152" s="112" customFormat="1" ht="28.5" customHeight="1">
       <c r="A216" s="2"/>
-      <c r="D216" s="235"/>
+      <c r="D216" s="241"/>
       <c r="E216" s="197" t="s">
         <v>42</v>
       </c>
@@ -19410,7 +19410,7 @@
     </row>
     <row r="217" spans="1:152" s="112" customFormat="1">
       <c r="A217" s="2"/>
-      <c r="D217" s="234"/>
+      <c r="D217" s="240"/>
       <c r="E217" s="132" t="s">
         <v>48</v>
       </c>
@@ -19574,7 +19574,7 @@
     </row>
     <row r="218" spans="1:152" s="112" customFormat="1" ht="30">
       <c r="A218" s="2"/>
-      <c r="D218" s="234"/>
+      <c r="D218" s="240"/>
       <c r="E218" s="75"/>
       <c r="F218" s="114" t="s">
         <v>64</v>
@@ -19736,7 +19736,7 @@
     </row>
     <row r="219" spans="1:152" s="112" customFormat="1">
       <c r="A219" s="2"/>
-      <c r="D219" s="234"/>
+      <c r="D219" s="240"/>
       <c r="E219" s="75" t="s">
         <v>42</v>
       </c>
@@ -19900,7 +19900,7 @@
     </row>
     <row r="220" spans="1:152" s="112" customFormat="1">
       <c r="A220" s="2"/>
-      <c r="D220" s="234"/>
+      <c r="D220" s="240"/>
       <c r="E220" s="75"/>
       <c r="F220" s="114" t="s">
         <v>74</v>
@@ -20062,7 +20062,7 @@
     </row>
     <row r="221" spans="1:152" s="112" customFormat="1">
       <c r="A221" s="2"/>
-      <c r="D221" s="234"/>
+      <c r="D221" s="240"/>
       <c r="E221" s="75" t="s">
         <v>42</v>
       </c>
@@ -20226,7 +20226,7 @@
     </row>
     <row r="222" spans="1:152" s="112" customFormat="1">
       <c r="A222" s="2"/>
-      <c r="D222" s="234"/>
+      <c r="D222" s="240"/>
       <c r="E222" s="86" t="s">
         <v>48</v>
       </c>
@@ -20390,7 +20390,7 @@
     </row>
     <row r="223" spans="1:152" s="112" customFormat="1">
       <c r="A223" s="2"/>
-      <c r="D223" s="234"/>
+      <c r="D223" s="240"/>
       <c r="E223" s="120" t="s">
         <v>48</v>
       </c>
@@ -20554,7 +20554,7 @@
     </row>
     <row r="224" spans="1:152" s="194" customFormat="1" ht="30">
       <c r="A224" s="196"/>
-      <c r="D224" s="234"/>
+      <c r="D224" s="240"/>
       <c r="E224" s="195" t="s">
         <v>48</v>
       </c>
@@ -20712,7 +20712,7 @@
     </row>
     <row r="225" spans="1:152" s="112" customFormat="1">
       <c r="A225" s="2"/>
-      <c r="D225" s="234"/>
+      <c r="D225" s="240"/>
       <c r="E225" s="143"/>
       <c r="F225" s="144" t="s">
         <v>93</v>
@@ -20874,7 +20874,7 @@
     </row>
     <row r="226" spans="1:152" s="138" customFormat="1">
       <c r="A226" s="2"/>
-      <c r="D226" s="235"/>
+      <c r="D226" s="241"/>
       <c r="E226" s="146"/>
       <c r="F226" s="124" t="s">
         <v>301</v>
@@ -21036,7 +21036,7 @@
     </row>
     <row r="227" spans="1:152" s="138" customFormat="1">
       <c r="A227" s="2"/>
-      <c r="D227" s="235"/>
+      <c r="D227" s="241"/>
       <c r="E227" s="146"/>
       <c r="F227" s="124" t="s">
         <v>304</v>
@@ -21717,27 +21717,27 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="J2:O4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="D41:D63"/>
-    <mergeCell ref="D64:D118"/>
-    <mergeCell ref="D14:D25"/>
-    <mergeCell ref="D27:D33"/>
-    <mergeCell ref="D34:D40"/>
     <mergeCell ref="D173:D227"/>
     <mergeCell ref="D120:D122"/>
     <mergeCell ref="D123:D134"/>
     <mergeCell ref="D136:D142"/>
     <mergeCell ref="D143:D149"/>
     <mergeCell ref="D150:D172"/>
+    <mergeCell ref="D41:D63"/>
+    <mergeCell ref="D64:D118"/>
+    <mergeCell ref="D14:D25"/>
+    <mergeCell ref="D27:D33"/>
+    <mergeCell ref="D34:D40"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="J2:O4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <conditionalFormatting sqref="D27">
     <cfRule type="expression" dxfId="171" priority="439">
@@ -22332,6 +22332,67 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ModificateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <f8b6baa267c0456bbf6a8d18c49a130b xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </f8b6baa267c0456bbf6a8d18c49a130b>
+    <eef0f6fc4ed046399a9d01fd3a7d6a6a xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </eef0f6fc4ed046399a9d01fd3a7d6a6a>
+    <Référence_x0020_Bon_x0020_de_x0020_Commande xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <Référence_x0020_Documentaire xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <Chantier xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <p671c8df16a44846939d278d4958f62c xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </p671c8df16a44846939d278d4958f62c>
+    <Durée_x0020_d_x0027_Utilité_x0020_Administrative_x0020__x0028_DUA_x0029_ xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <Environnement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <b2804ef99be44b9e8166e80a6c2eb9f1 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </b2804ef99be44b9e8166e80a6c2eb9f1>
+    <_ExtendedDescription xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <mc4aa6e782e045f6bb87dab01c971b56 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </mc4aa6e782e045f6bb87dab01c971b56>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <m312bc62cb0243b6a873cbbf4dace6b2 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </m312bc62cb0243b6a873cbbf4dace6b2>
+    <b084a4cb34a444d7969136255594d2f3 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </b084a4cb34a444d7969136255594d2f3>
+    <CreateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <g30fb2d8061a4d40b63138f91c1a832e xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </g30fb2d8061a4d40b63138f91c1a832e>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <m9a76db3058146ae844db6599c9d7036 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </m9a76db3058146ae844db6599c9d7036>
+    <Ticket_x0020_Changement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <l0a6b4600f484920bbceae0813174244 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l0a6b4600f484920bbceae0813174244>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document - Suivi de projet" ma:contentTypeID="0x010100333226B5D6902549BFE4A72F45A4400B0100E98F8C089710A74CA077FC6D601326A8" ma:contentTypeVersion="52" ma:contentTypeDescription="Type de contenu - Documentation de suivi de projet" ma:contentTypeScope="" ma:versionID="b3317a165cd10de70dc68851db9884d1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xmlns:ns3="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b8430278eece82d06f551ff77398a68" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -22745,69 +22806,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ModificateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <f8b6baa267c0456bbf6a8d18c49a130b xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </f8b6baa267c0456bbf6a8d18c49a130b>
-    <eef0f6fc4ed046399a9d01fd3a7d6a6a xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </eef0f6fc4ed046399a9d01fd3a7d6a6a>
-    <Référence_x0020_Bon_x0020_de_x0020_Commande xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <Référence_x0020_Documentaire xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <Chantier xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <p671c8df16a44846939d278d4958f62c xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </p671c8df16a44846939d278d4958f62c>
-    <Durée_x0020_d_x0027_Utilité_x0020_Administrative_x0020__x0028_DUA_x0029_ xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <Environnement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <b2804ef99be44b9e8166e80a6c2eb9f1 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </b2804ef99be44b9e8166e80a6c2eb9f1>
-    <_ExtendedDescription xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <mc4aa6e782e045f6bb87dab01c971b56 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </mc4aa6e782e045f6bb87dab01c971b56>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <m312bc62cb0243b6a873cbbf4dace6b2 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </m312bc62cb0243b6a873cbbf4dace6b2>
-    <b084a4cb34a444d7969136255594d2f3 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </b084a4cb34a444d7969136255594d2f3>
-    <CreateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <g30fb2d8061a4d40b63138f91c1a832e xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </g30fb2d8061a4d40b63138f91c1a832e>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <m9a76db3058146ae844db6599c9d7036 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </m9a76db3058146ae844db6599c9d7036>
-    <Ticket_x0020_Changement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <l0a6b4600f484920bbceae0813174244 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </l0a6b4600f484920bbceae0813174244>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AEC75D3-A67D-4574-BB93-839AC9299105}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381C76DC-CEF1-461E-A76F-551B50E93033}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -22815,5 +22815,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381C76DC-CEF1-461E-A76F-551B50E93033}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AEC75D3-A67D-4574-BB93-839AC9299105}"/>
 </file>
--- a/csv_parser/test-cases-15-15.xlsx
+++ b/csv_parser/test-cases-15-15.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://esantegouv.sharepoint.com/sites/GED-Calypso/espace-projets/Espace Programme SISAMU/01 - Equipe projet/07 - Innovation et prospectif/12 - Hub Santé/13 - 15-15/04 - Pilotes 15-15/04 - JDD recette/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F4976DF-637F-4D2A-9FBC-68A9EBFB8207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7103EE15-2A05-4A79-A236-98AD5305964D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8E95E427-60E8-4C01-A0F5-EF6B52DBDF48}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" xr2:uid="{8E95E427-60E8-4C01-A0F5-EF6B52DBDF48}"/>
   </bookViews>
   <sheets>
     <sheet name="Partage de dossier simple" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1523" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="400">
   <si>
     <t>Périmètre</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>Pas de test</t>
+  </si>
+  <si>
+    <t>Modèle</t>
   </si>
   <si>
     <t>Déroulé métier</t>
@@ -2486,26 +2489,8 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2537,9 +2522,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4655,9 +4656,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC96D3DE-56F6-4E60-B012-339ED5333B2B}">
   <dimension ref="A1:O119"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="6" ySplit="10" topLeftCell="I11" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="6" ySplit="10" topLeftCell="J11" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
     </sheetView>
@@ -4678,19 +4679,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75">
-      <c r="A1" s="231" t="s">
+      <c r="A1" s="229" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="231"/>
+      <c r="B1" s="229"/>
       <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="18.75">
-      <c r="A2" s="231" t="s">
+      <c r="A2" s="229" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="231"/>
+      <c r="B2" s="229"/>
       <c r="C2" t="s">
         <v>3</v>
       </c>
@@ -4700,60 +4701,60 @@
       <c r="I2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="229" t="s">
+      <c r="J2" s="240" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="229"/>
-      <c r="L2" s="229"/>
-      <c r="M2" s="229"/>
-      <c r="N2" s="229"/>
-      <c r="O2" s="229"/>
+      <c r="K2" s="240"/>
+      <c r="L2" s="240"/>
+      <c r="M2" s="240"/>
+      <c r="N2" s="240"/>
+      <c r="O2" s="240"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="18.75">
-      <c r="A3" s="231" t="s">
+      <c r="A3" s="229" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="231"/>
+      <c r="B3" s="229"/>
       <c r="C3" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3"/>
       <c r="H3" s="7"/>
-      <c r="J3" s="229"/>
-      <c r="K3" s="229"/>
-      <c r="L3" s="229"/>
-      <c r="M3" s="229"/>
-      <c r="N3" s="229"/>
-      <c r="O3" s="229"/>
+      <c r="J3" s="240"/>
+      <c r="K3" s="240"/>
+      <c r="L3" s="240"/>
+      <c r="M3" s="240"/>
+      <c r="N3" s="240"/>
+      <c r="O3" s="240"/>
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1" ht="18.75">
-      <c r="A4" s="231" t="s">
+      <c r="A4" s="229" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="231"/>
+      <c r="B4" s="229"/>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4"/>
       <c r="H4" s="7"/>
-      <c r="J4" s="229"/>
-      <c r="K4" s="229"/>
-      <c r="L4" s="229"/>
-      <c r="M4" s="229"/>
-      <c r="N4" s="229"/>
-      <c r="O4" s="229"/>
+      <c r="J4" s="240"/>
+      <c r="K4" s="240"/>
+      <c r="L4" s="240"/>
+      <c r="M4" s="240"/>
+      <c r="N4" s="240"/>
+      <c r="O4" s="240"/>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" ht="18.75">
-      <c r="A5" s="245" t="s">
+      <c r="A5" s="239" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="245"/>
-      <c r="C5" s="245"/>
-      <c r="D5" s="245"/>
-      <c r="E5" s="245"/>
-      <c r="F5" s="245"/>
+      <c r="B5" s="239"/>
+      <c r="C5" s="239"/>
+      <c r="D5" s="239"/>
+      <c r="E5" s="239"/>
+      <c r="F5" s="239"/>
       <c r="H5" s="7"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -4763,12 +4764,12 @@
       <c r="O5" s="8"/>
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1" ht="18.75">
-      <c r="A6" s="232" t="s">
+      <c r="A6" s="241" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="233"/>
-      <c r="C6" s="233"/>
-      <c r="D6" s="234"/>
+      <c r="B6" s="242"/>
+      <c r="C6" s="242"/>
+      <c r="D6" s="243"/>
       <c r="E6" s="5"/>
       <c r="F6" t="s">
         <v>11</v>
@@ -4782,12 +4783,12 @@
       <c r="O6" s="8"/>
     </row>
     <row r="7" spans="1:15" s="1" customFormat="1" ht="18.75">
-      <c r="A7" s="235" t="s">
+      <c r="A7" s="244" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="235"/>
-      <c r="C7" s="235"/>
-      <c r="D7" s="235"/>
+      <c r="B7" s="244"/>
+      <c r="C7" s="244"/>
+      <c r="D7" s="244"/>
       <c r="E7" s="10"/>
       <c r="F7" t="s">
         <v>13</v>
@@ -4809,53 +4810,55 @@
       <c r="L8" s="9"/>
     </row>
     <row r="9" spans="1:15" s="4" customFormat="1" ht="18.75">
-      <c r="A9" s="230" t="s">
+      <c r="A9" s="246" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="230"/>
+      <c r="B9" s="246" t="s">
+        <v>15</v>
+      </c>
       <c r="C9" s="163" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L9" s="18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="109" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E10" s="34"/>
       <c r="F10" s="25"/>
@@ -4867,260 +4870,260 @@
       <c r="L10" s="25"/>
     </row>
     <row r="11" spans="1:15" ht="16.5" customHeight="1">
-      <c r="D11" s="236" t="s">
-        <v>28</v>
+      <c r="D11" s="230" t="s">
+        <v>29</v>
       </c>
       <c r="E11" s="74"/>
       <c r="F11" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K11" s="46"/>
       <c r="L11" s="46"/>
     </row>
     <row r="12" spans="1:15">
-      <c r="D12" s="237"/>
+      <c r="D12" s="231"/>
       <c r="E12" s="74"/>
       <c r="F12" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K12" s="46"/>
       <c r="L12" s="46"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="D13" s="238"/>
+      <c r="D13" s="232"/>
       <c r="E13" s="74"/>
       <c r="F13" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K13" s="46"/>
       <c r="L13" s="46"/>
     </row>
     <row r="14" spans="1:15">
-      <c r="D14" s="236" t="s">
-        <v>41</v>
+      <c r="D14" s="230" t="s">
+        <v>42</v>
       </c>
       <c r="E14" s="74" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
     </row>
     <row r="15" spans="1:15" ht="28.5" customHeight="1">
-      <c r="D15" s="237"/>
+      <c r="D15" s="231"/>
       <c r="E15" s="84" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J15" s="73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
     </row>
     <row r="16" spans="1:15" s="112" customFormat="1" ht="28.5" customHeight="1">
-      <c r="D16" s="237"/>
+      <c r="D16" s="231"/>
       <c r="E16" s="75" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F16" s="109" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G16" s="185" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H16" s="160" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I16" s="160" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J16" s="160" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="4:12">
-      <c r="D17" s="237"/>
+      <c r="D17" s="231"/>
       <c r="E17" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F17" s="42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G17" s="42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H17" s="43" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I17" s="42" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J17" s="42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K17" s="42"/>
       <c r="L17" s="42"/>
     </row>
     <row r="18" spans="4:12" s="112" customFormat="1" ht="30">
-      <c r="D18" s="237"/>
+      <c r="D18" s="231"/>
       <c r="E18" s="75"/>
       <c r="F18" s="109" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G18" s="109" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H18" s="110" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I18" s="110" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J18" s="111" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K18" s="109"/>
       <c r="L18" s="109"/>
     </row>
     <row r="19" spans="4:12">
-      <c r="D19" s="237"/>
+      <c r="D19" s="231"/>
       <c r="E19" s="34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F19" s="44" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G19" s="44" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H19" s="45" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I19" s="44" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J19" s="44" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K19" s="44"/>
       <c r="L19" s="44"/>
     </row>
     <row r="20" spans="4:12" ht="30.75" customHeight="1">
-      <c r="D20" s="237"/>
+      <c r="D20" s="231"/>
       <c r="E20" s="34"/>
       <c r="F20" s="20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H20" s="21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I20" s="53" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J20" s="53" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K20" s="20"/>
       <c r="L20" s="20"/>
     </row>
     <row r="21" spans="4:12">
-      <c r="D21" s="237"/>
+      <c r="D21" s="231"/>
       <c r="E21" s="34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I21" s="20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J21" s="20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K21" s="20"/>
       <c r="L21" s="20"/>
     </row>
     <row r="22" spans="4:12" s="203" customFormat="1">
-      <c r="D22" s="237"/>
+      <c r="D22" s="231"/>
       <c r="E22" s="200" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F22" s="201" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G22" s="201" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H22" s="202">
         <v>1</v>
@@ -5135,36 +5138,36 @@
       <c r="L22" s="201"/>
     </row>
     <row r="23" spans="4:12">
-      <c r="D23" s="237"/>
+      <c r="D23" s="231"/>
       <c r="E23" s="87" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F23" s="29" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G23" s="29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H23" s="55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I23" s="29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J23" s="29" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K23" s="29"/>
       <c r="L23" s="29"/>
     </row>
     <row r="24" spans="4:12" ht="30">
-      <c r="D24" s="237"/>
+      <c r="D24" s="231"/>
       <c r="E24" s="89"/>
       <c r="F24" s="162" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G24" s="158" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H24" s="174"/>
       <c r="I24" s="175"/>
@@ -5173,210 +5176,210 @@
       <c r="L24" s="35"/>
     </row>
     <row r="25" spans="4:12">
-      <c r="D25" s="238"/>
+      <c r="D25" s="232"/>
       <c r="E25" s="89"/>
       <c r="F25" s="90" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G25" s="35" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H25" s="91" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I25" s="91" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J25" s="91" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K25" s="35"/>
       <c r="L25" s="35"/>
     </row>
     <row r="26" spans="4:12">
       <c r="D26" s="88" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E26" s="80" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F26" s="57" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G26" s="57" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H26" s="58" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I26" s="58" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J26" s="58" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K26" s="59"/>
       <c r="L26" s="59"/>
     </row>
     <row r="27" spans="4:12">
-      <c r="D27" s="242" t="s">
-        <v>101</v>
+      <c r="D27" s="236" t="s">
+        <v>102</v>
       </c>
       <c r="E27" s="76"/>
       <c r="F27" s="23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H27" s="24" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I27" s="24" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J27" s="24" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K27" s="20"/>
       <c r="L27" s="20"/>
     </row>
     <row r="28" spans="4:12">
-      <c r="D28" s="243"/>
+      <c r="D28" s="237"/>
       <c r="E28" s="34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I28" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J28" s="20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K28" s="20"/>
       <c r="L28" s="20"/>
     </row>
     <row r="29" spans="4:12" s="69" customFormat="1">
-      <c r="D29" s="243"/>
+      <c r="D29" s="237"/>
       <c r="E29" s="87" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F29" s="68" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H29" s="68" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I29" s="68" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J29" s="68"/>
       <c r="K29" s="68"/>
       <c r="L29" s="68"/>
     </row>
     <row r="30" spans="4:12">
-      <c r="D30" s="243"/>
+      <c r="D30" s="237"/>
       <c r="E30" s="34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H30" s="21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I30" s="20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J30" s="20"/>
       <c r="K30" s="20"/>
       <c r="L30" s="20"/>
     </row>
     <row r="31" spans="4:12">
-      <c r="D31" s="243"/>
+      <c r="D31" s="237"/>
       <c r="E31" s="34"/>
       <c r="F31" s="20" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H31" s="21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I31" s="20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J31" s="20"/>
       <c r="K31" s="20"/>
       <c r="L31" s="20"/>
     </row>
     <row r="32" spans="4:12">
-      <c r="D32" s="243"/>
+      <c r="D32" s="237"/>
       <c r="E32" s="34"/>
       <c r="F32" s="20" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H32" s="21" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I32" s="20" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J32" s="20"/>
       <c r="K32" s="20"/>
       <c r="L32" s="20"/>
     </row>
     <row r="33" spans="4:12" s="203" customFormat="1">
-      <c r="D33" s="243"/>
+      <c r="D33" s="237"/>
       <c r="E33" s="205" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F33" s="206" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G33" s="201" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H33" s="207" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I33" s="206" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J33" s="206" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K33" s="206"/>
       <c r="L33" s="206"/>
     </row>
     <row r="34" spans="4:12">
-      <c r="D34" s="242" t="s">
-        <v>133</v>
+      <c r="D34" s="236" t="s">
+        <v>134</v>
       </c>
       <c r="E34" s="78"/>
       <c r="F34" s="60" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G34" s="23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H34" s="61"/>
       <c r="I34" s="61"/>
@@ -5385,13 +5388,13 @@
       <c r="L34" s="63"/>
     </row>
     <row r="35" spans="4:12">
-      <c r="D35" s="243"/>
+      <c r="D35" s="237"/>
       <c r="E35" s="34"/>
       <c r="F35" s="20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H35" s="21"/>
       <c r="I35" s="20"/>
@@ -5400,13 +5403,13 @@
       <c r="L35" s="64"/>
     </row>
     <row r="36" spans="4:12">
-      <c r="D36" s="243"/>
+      <c r="D36" s="237"/>
       <c r="E36" s="34"/>
       <c r="F36" s="20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H36" s="21"/>
       <c r="I36" s="20"/>
@@ -5415,13 +5418,13 @@
       <c r="L36" s="64"/>
     </row>
     <row r="37" spans="4:12">
-      <c r="D37" s="243"/>
+      <c r="D37" s="237"/>
       <c r="E37" s="34"/>
       <c r="F37" s="20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H37" s="21"/>
       <c r="I37" s="20"/>
@@ -5430,13 +5433,13 @@
       <c r="L37" s="64"/>
     </row>
     <row r="38" spans="4:12">
-      <c r="D38" s="243"/>
+      <c r="D38" s="237"/>
       <c r="E38" s="34"/>
       <c r="F38" s="20" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G38" s="20" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H38" s="21"/>
       <c r="I38" s="20"/>
@@ -5445,13 +5448,13 @@
       <c r="L38" s="64"/>
     </row>
     <row r="39" spans="4:12">
-      <c r="D39" s="243"/>
+      <c r="D39" s="237"/>
       <c r="E39" s="34"/>
       <c r="F39" s="20" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G39" s="20" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H39" s="21"/>
       <c r="I39" s="20"/>
@@ -5460,13 +5463,13 @@
       <c r="L39" s="64"/>
     </row>
     <row r="40" spans="4:12">
-      <c r="D40" s="244"/>
+      <c r="D40" s="238"/>
       <c r="E40" s="79"/>
       <c r="F40" s="65" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G40" s="20" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H40" s="66"/>
       <c r="I40" s="65"/>
@@ -5475,124 +5478,124 @@
       <c r="L40" s="67"/>
     </row>
     <row r="41" spans="4:12">
-      <c r="D41" s="236" t="s">
-        <v>141</v>
+      <c r="D41" s="230" t="s">
+        <v>142</v>
       </c>
       <c r="E41" s="80"/>
       <c r="F41" s="56" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G41" s="57" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H41" s="58" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I41" s="58" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J41" s="58" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K41" s="59"/>
       <c r="L41" s="59"/>
     </row>
     <row r="42" spans="4:12">
-      <c r="D42" s="237"/>
+      <c r="D42" s="231"/>
       <c r="E42" s="147" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F42" s="148" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G42" s="148" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H42" s="149" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I42" s="149" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J42" s="149" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K42" s="150"/>
       <c r="L42" s="150"/>
     </row>
     <row r="43" spans="4:12" s="38" customFormat="1">
-      <c r="D43" s="239"/>
+      <c r="D43" s="233"/>
       <c r="E43" s="152"/>
       <c r="F43" s="153" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G43" s="20" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H43" s="154"/>
       <c r="I43" s="154"/>
       <c r="J43" s="154" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K43" s="153"/>
       <c r="L43" s="153"/>
     </row>
     <row r="44" spans="4:12">
-      <c r="D44" s="237"/>
+      <c r="D44" s="231"/>
       <c r="E44" s="151" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F44" s="30" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G44" s="30" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H44" s="31" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I44" s="31" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J44" s="27" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K44" s="27"/>
       <c r="L44" s="27"/>
     </row>
     <row r="45" spans="4:12">
-      <c r="D45" s="237"/>
+      <c r="D45" s="231"/>
       <c r="E45" s="34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F45" s="20" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G45" s="20" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H45" s="21" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I45" s="20" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J45" s="20" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K45" s="20"/>
       <c r="L45" s="20"/>
     </row>
     <row r="46" spans="4:12">
-      <c r="D46" s="237"/>
+      <c r="D46" s="231"/>
       <c r="E46" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F46" s="20" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G46" s="20" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H46" s="22">
         <v>77479</v>
@@ -5607,15 +5610,15 @@
       <c r="L46" s="22"/>
     </row>
     <row r="47" spans="4:12">
-      <c r="D47" s="237"/>
+      <c r="D47" s="231"/>
       <c r="E47" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F47" s="20" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G47" s="20" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H47" s="20"/>
       <c r="I47" s="70">
@@ -5626,15 +5629,15 @@
       <c r="L47" s="20"/>
     </row>
     <row r="48" spans="4:12">
-      <c r="D48" s="237"/>
+      <c r="D48" s="231"/>
       <c r="E48" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F48" s="20" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G48" s="20" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H48" s="20"/>
       <c r="J48" s="20"/>
@@ -5642,34 +5645,34 @@
       <c r="L48" s="20"/>
     </row>
     <row r="49" spans="4:12">
-      <c r="D49" s="237"/>
+      <c r="D49" s="231"/>
       <c r="E49" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F49" s="20" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G49" s="20" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H49" s="20"/>
       <c r="I49" s="20" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J49" s="20"/>
       <c r="K49" s="20"/>
       <c r="L49" s="20"/>
     </row>
     <row r="50" spans="4:12">
-      <c r="D50" s="237"/>
+      <c r="D50" s="231"/>
       <c r="E50" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F50" s="20" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G50" s="20" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H50" s="20"/>
       <c r="I50" s="54">
@@ -5680,53 +5683,53 @@
       <c r="L50" s="20"/>
     </row>
     <row r="51" spans="4:12">
-      <c r="D51" s="237"/>
+      <c r="D51" s="231"/>
       <c r="E51" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F51" s="20" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G51" s="20" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H51" s="20"/>
       <c r="I51" s="20" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J51" s="20"/>
       <c r="K51" s="20"/>
       <c r="L51" s="20"/>
     </row>
     <row r="52" spans="4:12">
-      <c r="D52" s="237"/>
+      <c r="D52" s="231"/>
       <c r="E52" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F52" s="20" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G52" s="20" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H52" s="20"/>
       <c r="I52" s="20" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J52" s="20"/>
       <c r="K52" s="20"/>
       <c r="L52" s="20"/>
     </row>
     <row r="53" spans="4:12">
-      <c r="D53" s="237"/>
+      <c r="D53" s="231"/>
       <c r="E53" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F53" s="20" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G53" s="20" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H53" s="20"/>
       <c r="I53" s="20"/>
@@ -5735,15 +5738,15 @@
       <c r="L53" s="20"/>
     </row>
     <row r="54" spans="4:12">
-      <c r="D54" s="237"/>
+      <c r="D54" s="231"/>
       <c r="E54" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F54" s="20" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G54" s="20" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H54" s="20"/>
       <c r="I54" s="20"/>
@@ -5752,15 +5755,15 @@
       <c r="L54" s="20"/>
     </row>
     <row r="55" spans="4:12">
-      <c r="D55" s="237"/>
+      <c r="D55" s="231"/>
       <c r="E55" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F55" s="29" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G55" s="20" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H55" s="29"/>
       <c r="I55" s="29"/>
@@ -5771,99 +5774,99 @@
       <c r="L55" s="20"/>
     </row>
     <row r="56" spans="4:12" s="38" customFormat="1">
-      <c r="D56" s="237"/>
+      <c r="D56" s="231"/>
       <c r="E56" s="81" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F56" s="41" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G56" s="20" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H56" s="41" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I56" s="41" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J56" s="39" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K56" s="40"/>
       <c r="L56" s="40"/>
     </row>
     <row r="57" spans="4:12">
-      <c r="D57" s="237"/>
+      <c r="D57" s="231"/>
       <c r="E57" s="82"/>
       <c r="F57" s="47" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G57" s="47" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H57" s="47" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I57" s="208" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J57" s="47" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K57" s="44"/>
       <c r="L57" s="44"/>
     </row>
     <row r="58" spans="4:12">
-      <c r="D58" s="237"/>
+      <c r="D58" s="231"/>
       <c r="E58" s="82"/>
       <c r="F58" s="48" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G58" s="47" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H58" s="48" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I58" s="209" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J58" s="48" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K58" s="44"/>
       <c r="L58" s="44"/>
     </row>
     <row r="59" spans="4:12">
-      <c r="D59" s="237"/>
+      <c r="D59" s="231"/>
       <c r="E59" s="82"/>
       <c r="F59" s="48" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G59" s="47" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H59" s="48" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I59" s="209" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J59" s="48" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K59" s="44"/>
       <c r="L59" s="44"/>
     </row>
     <row r="60" spans="4:12">
-      <c r="D60" s="237"/>
+      <c r="D60" s="231"/>
       <c r="E60" s="34"/>
       <c r="F60" s="27" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G60" s="27" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H60" s="27"/>
       <c r="I60" s="20"/>
@@ -5872,13 +5875,13 @@
       <c r="L60" s="20"/>
     </row>
     <row r="61" spans="4:12">
-      <c r="D61" s="237"/>
+      <c r="D61" s="231"/>
       <c r="E61" s="34"/>
       <c r="F61" s="20" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G61" s="27" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H61" s="20"/>
       <c r="I61" s="20"/>
@@ -5887,13 +5890,13 @@
       <c r="L61" s="20"/>
     </row>
     <row r="62" spans="4:12">
-      <c r="D62" s="237"/>
+      <c r="D62" s="231"/>
       <c r="E62" s="34"/>
       <c r="F62" s="29" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G62" s="27" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H62" s="29"/>
       <c r="I62" s="20"/>
@@ -5902,101 +5905,101 @@
       <c r="L62" s="20"/>
     </row>
     <row r="63" spans="4:12">
-      <c r="D63" s="238"/>
+      <c r="D63" s="232"/>
       <c r="E63" s="82"/>
       <c r="F63" s="48" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G63" s="47" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H63" s="50" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I63" s="50" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J63" s="50" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K63" s="44"/>
       <c r="L63" s="44"/>
     </row>
     <row r="64" spans="4:12">
-      <c r="D64" s="240" t="s">
-        <v>211</v>
+      <c r="D64" s="234" t="s">
+        <v>212</v>
       </c>
       <c r="E64" s="82"/>
       <c r="F64" s="49" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G64" s="47" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H64" s="50" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I64" s="50" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J64" s="50" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K64" s="44"/>
       <c r="L64" s="44"/>
     </row>
     <row r="65" spans="4:12">
-      <c r="D65" s="240"/>
+      <c r="D65" s="234"/>
       <c r="E65" s="82"/>
       <c r="F65" s="51" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G65" s="47" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H65" s="52" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I65" s="52" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J65" s="52" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K65" s="44"/>
       <c r="L65" s="44"/>
     </row>
     <row r="66" spans="4:12">
-      <c r="D66" s="240"/>
+      <c r="D66" s="234"/>
       <c r="E66" s="81"/>
       <c r="F66" s="51" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G66" s="47" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H66" s="52" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I66" s="52" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J66" s="52" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K66" s="44"/>
       <c r="L66" s="44"/>
     </row>
     <row r="67" spans="4:12" ht="15" customHeight="1">
-      <c r="D67" s="240"/>
+      <c r="D67" s="234"/>
       <c r="E67" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F67" s="37" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G67" s="37" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H67" s="174"/>
       <c r="I67" s="175"/>
@@ -6005,38 +6008,38 @@
       <c r="L67" s="20"/>
     </row>
     <row r="68" spans="4:12">
-      <c r="D68" s="240"/>
+      <c r="D68" s="234"/>
       <c r="E68" s="81" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F68" s="35" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G68" s="37" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H68" s="36" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I68" s="36" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J68" s="36" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K68" s="20"/>
       <c r="L68" s="20"/>
     </row>
     <row r="69" spans="4:12" s="69" customFormat="1">
-      <c r="D69" s="240"/>
+      <c r="D69" s="234"/>
       <c r="E69" s="83" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F69" s="71" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G69" s="37" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H69" s="140">
         <v>607080915</v>
@@ -6051,38 +6054,38 @@
       <c r="L69" s="68"/>
     </row>
     <row r="70" spans="4:12">
-      <c r="D70" s="240"/>
+      <c r="D70" s="234"/>
       <c r="E70" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F70" s="27" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G70" s="37" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H70" s="28" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I70" s="36" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J70" s="36" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K70" s="20"/>
       <c r="L70" s="20"/>
     </row>
     <row r="71" spans="4:12" s="69" customFormat="1">
-      <c r="D71" s="240"/>
+      <c r="D71" s="234"/>
       <c r="E71" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F71" s="68" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G71" s="37" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H71" s="140">
         <v>607080915</v>
@@ -6097,55 +6100,55 @@
       <c r="L71" s="68"/>
     </row>
     <row r="72" spans="4:12" s="69" customFormat="1">
-      <c r="D72" s="240"/>
+      <c r="D72" s="234"/>
       <c r="E72" s="85"/>
       <c r="F72" s="95" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G72" s="37" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H72" s="210"/>
       <c r="I72" s="72" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J72" s="72" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K72" s="68"/>
       <c r="L72" s="68"/>
     </row>
     <row r="73" spans="4:12">
-      <c r="D73" s="240"/>
+      <c r="D73" s="234"/>
       <c r="E73" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F73" s="29" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G73" s="37" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H73" s="33" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I73" s="20" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J73" s="20" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K73" s="20"/>
       <c r="L73" s="20"/>
     </row>
     <row r="74" spans="4:12">
-      <c r="D74" s="240"/>
+      <c r="D74" s="234"/>
       <c r="E74" s="97"/>
       <c r="F74" s="35" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G74" s="37" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H74" s="99"/>
       <c r="I74" s="32"/>
@@ -6154,138 +6157,138 @@
       <c r="L74" s="20"/>
     </row>
     <row r="75" spans="4:12">
-      <c r="D75" s="240"/>
+      <c r="D75" s="234"/>
       <c r="E75" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F75" s="98" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G75" s="37" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H75" s="36" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="J75" s="20"/>
       <c r="K75" s="20"/>
       <c r="L75" s="20"/>
     </row>
     <row r="76" spans="4:12">
-      <c r="D76" s="240"/>
+      <c r="D76" s="234"/>
       <c r="E76" s="82" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F76" s="23" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G76" s="37" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H76" s="31" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I76" s="24" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J76" s="23" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K76" s="20"/>
       <c r="L76" s="20"/>
     </row>
     <row r="77" spans="4:12">
-      <c r="D77" s="240"/>
+      <c r="D77" s="234"/>
       <c r="E77" s="34"/>
       <c r="F77" s="20" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G77" s="37" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H77" s="21" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I77" s="20" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J77" s="20" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K77" s="20"/>
       <c r="L77" s="20"/>
     </row>
     <row r="78" spans="4:12">
-      <c r="D78" s="240"/>
+      <c r="D78" s="234"/>
       <c r="E78" s="77"/>
       <c r="F78" s="29" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G78" s="123" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H78" s="55" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I78" s="29" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="J78" s="29" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K78" s="29"/>
       <c r="L78" s="29"/>
     </row>
     <row r="79" spans="4:12">
-      <c r="D79" s="240"/>
+      <c r="D79" s="234"/>
       <c r="E79" s="129"/>
       <c r="F79" s="124" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G79" s="124" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H79" s="126" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I79" s="126" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J79" s="126" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K79" s="124"/>
       <c r="L79" s="124"/>
     </row>
     <row r="80" spans="4:12">
-      <c r="D80" s="240"/>
+      <c r="D80" s="234"/>
       <c r="E80" s="129"/>
       <c r="F80" s="124" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G80" s="124" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H80" s="216" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I80" s="216" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J80" s="216" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K80" s="124"/>
       <c r="L80" s="124"/>
     </row>
     <row r="81" spans="4:12">
-      <c r="D81" s="240"/>
+      <c r="D81" s="234"/>
       <c r="E81" s="129"/>
       <c r="F81" s="124" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G81" s="124" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H81" s="217">
         <v>607080915</v>
@@ -6300,122 +6303,122 @@
       <c r="L81" s="124"/>
     </row>
     <row r="82" spans="4:12">
-      <c r="D82" s="240"/>
+      <c r="D82" s="234"/>
       <c r="E82" s="128"/>
       <c r="F82" s="127" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G82" s="124" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H82" s="126" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I82" s="126" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J82" s="126" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K82" s="124"/>
       <c r="L82" s="124"/>
     </row>
     <row r="83" spans="4:12">
-      <c r="D83" s="240"/>
+      <c r="D83" s="234"/>
       <c r="E83" s="82" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F83" s="124" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G83" s="124" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H83" s="126" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I83" s="126" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J83" s="126" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K83" s="124"/>
       <c r="L83" s="124"/>
     </row>
     <row r="84" spans="4:12">
-      <c r="D84" s="240"/>
+      <c r="D84" s="234"/>
       <c r="E84" s="82"/>
       <c r="F84" s="44" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G84" s="44" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H84" s="44"/>
       <c r="I84" s="44"/>
       <c r="J84" s="44" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K84" s="211"/>
       <c r="L84" s="211"/>
     </row>
     <row r="85" spans="4:12">
-      <c r="D85" s="240"/>
+      <c r="D85" s="234"/>
       <c r="E85" s="76" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F85" s="100" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G85" s="100" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H85" s="101" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I85" s="101" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J85" s="102" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K85" s="42"/>
       <c r="L85" s="42"/>
     </row>
     <row r="86" spans="4:12">
-      <c r="D86" s="240"/>
+      <c r="D86" s="234"/>
       <c r="E86" s="34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F86" s="44" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G86" s="44" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H86" s="45" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I86" s="44" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J86" s="102" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K86" s="44"/>
       <c r="L86" s="44"/>
     </row>
     <row r="87" spans="4:12">
-      <c r="D87" s="240"/>
+      <c r="D87" s="234"/>
       <c r="E87" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F87" s="44" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G87" s="44" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H87" s="102">
         <v>77479</v>
@@ -6430,15 +6433,15 @@
       <c r="L87" s="102"/>
     </row>
     <row r="88" spans="4:12">
-      <c r="D88" s="240"/>
+      <c r="D88" s="234"/>
       <c r="E88" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F88" s="44" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G88" s="44" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H88" s="44"/>
       <c r="I88" s="103">
@@ -6449,15 +6452,15 @@
       <c r="L88" s="44"/>
     </row>
     <row r="89" spans="4:12">
-      <c r="D89" s="240"/>
+      <c r="D89" s="234"/>
       <c r="E89" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F89" s="44" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G89" s="44" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H89" s="44"/>
       <c r="I89" s="104"/>
@@ -6466,34 +6469,34 @@
       <c r="L89" s="44"/>
     </row>
     <row r="90" spans="4:12">
-      <c r="D90" s="240"/>
+      <c r="D90" s="234"/>
       <c r="E90" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F90" s="44" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G90" s="44" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H90" s="44"/>
       <c r="I90" s="44" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J90" s="102"/>
       <c r="K90" s="44"/>
       <c r="L90" s="44"/>
     </row>
     <row r="91" spans="4:12">
-      <c r="D91" s="240"/>
+      <c r="D91" s="234"/>
       <c r="E91" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F91" s="44" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G91" s="44" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H91" s="44"/>
       <c r="I91" s="105">
@@ -6504,53 +6507,53 @@
       <c r="L91" s="44"/>
     </row>
     <row r="92" spans="4:12">
-      <c r="D92" s="240"/>
+      <c r="D92" s="234"/>
       <c r="E92" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F92" s="44" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G92" s="44" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H92" s="44"/>
       <c r="I92" s="44" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J92" s="102"/>
       <c r="K92" s="44"/>
       <c r="L92" s="44"/>
     </row>
     <row r="93" spans="4:12">
-      <c r="D93" s="240"/>
+      <c r="D93" s="234"/>
       <c r="E93" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F93" s="44" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G93" s="44" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H93" s="44"/>
       <c r="I93" s="44" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J93" s="102"/>
       <c r="K93" s="44"/>
       <c r="L93" s="44"/>
     </row>
     <row r="94" spans="4:12">
-      <c r="D94" s="240"/>
+      <c r="D94" s="234"/>
       <c r="E94" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F94" s="44" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G94" s="44" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H94" s="44"/>
       <c r="I94" s="44"/>
@@ -6559,15 +6562,15 @@
       <c r="L94" s="44"/>
     </row>
     <row r="95" spans="4:12">
-      <c r="D95" s="240"/>
+      <c r="D95" s="234"/>
       <c r="E95" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F95" s="44" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G95" s="44" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H95" s="44"/>
       <c r="I95" s="44"/>
@@ -6576,15 +6579,15 @@
       <c r="L95" s="44"/>
     </row>
     <row r="96" spans="4:12">
-      <c r="D96" s="240"/>
+      <c r="D96" s="234"/>
       <c r="E96" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F96" s="44" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G96" s="44" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H96" s="44"/>
       <c r="I96" s="44"/>
@@ -6595,99 +6598,99 @@
       <c r="L96" s="44"/>
     </row>
     <row r="97" spans="4:12" s="38" customFormat="1">
-      <c r="D97" s="240"/>
+      <c r="D97" s="234"/>
       <c r="E97" s="81" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F97" s="44" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G97" s="44" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H97" s="44" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I97" s="44" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J97" s="44" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K97" s="44"/>
       <c r="L97" s="106"/>
     </row>
     <row r="98" spans="4:12">
-      <c r="D98" s="240"/>
+      <c r="D98" s="234"/>
       <c r="E98" s="82"/>
       <c r="F98" s="47" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G98" s="47" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H98" s="47" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I98" s="47" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J98" s="47" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K98" s="44"/>
       <c r="L98" s="44"/>
     </row>
     <row r="99" spans="4:12">
-      <c r="D99" s="240"/>
+      <c r="D99" s="234"/>
       <c r="E99" s="82"/>
       <c r="F99" s="48" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G99" s="47" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H99" s="48" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I99" s="48" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J99" s="48" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K99" s="44"/>
       <c r="L99" s="44"/>
     </row>
     <row r="100" spans="4:12">
-      <c r="D100" s="240"/>
+      <c r="D100" s="234"/>
       <c r="E100" s="82"/>
       <c r="F100" s="48" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G100" s="47" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H100" s="48" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I100" s="48" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J100" s="48" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K100" s="44"/>
       <c r="L100" s="44"/>
     </row>
     <row r="101" spans="4:12" s="112" customFormat="1">
-      <c r="D101" s="240"/>
+      <c r="D101" s="234"/>
       <c r="E101" s="75"/>
       <c r="F101" s="113" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G101" s="113" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H101" s="113"/>
       <c r="I101" s="114"/>
@@ -6696,13 +6699,13 @@
       <c r="L101" s="114"/>
     </row>
     <row r="102" spans="4:12" s="112" customFormat="1">
-      <c r="D102" s="240"/>
+      <c r="D102" s="234"/>
       <c r="E102" s="75"/>
       <c r="F102" s="114" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G102" s="113" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H102" s="114"/>
       <c r="I102" s="114"/>
@@ -6711,13 +6714,13 @@
       <c r="L102" s="114"/>
     </row>
     <row r="103" spans="4:12" s="112" customFormat="1">
-      <c r="D103" s="240"/>
+      <c r="D103" s="234"/>
       <c r="E103" s="130"/>
       <c r="F103" s="115" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G103" s="131" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H103" s="115"/>
       <c r="I103" s="115"/>
@@ -6726,216 +6729,216 @@
       <c r="L103" s="115"/>
     </row>
     <row r="104" spans="4:12" s="112" customFormat="1">
-      <c r="D104" s="241"/>
+      <c r="D104" s="235"/>
       <c r="E104" s="136"/>
       <c r="F104" s="133" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G104" s="125" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H104" s="134" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I104" s="134" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J104" s="134" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K104" s="133"/>
       <c r="L104" s="135"/>
     </row>
     <row r="105" spans="4:12" s="112" customFormat="1">
-      <c r="D105" s="241"/>
+      <c r="D105" s="235"/>
       <c r="E105" s="136" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F105" s="133" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G105" s="133" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H105" s="134" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I105" s="134" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J105" s="133" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K105" s="133"/>
       <c r="L105" s="135"/>
     </row>
     <row r="106" spans="4:12" s="112" customFormat="1" ht="28.5" customHeight="1">
-      <c r="D106" s="241"/>
+      <c r="D106" s="235"/>
       <c r="E106" s="178" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F106" s="179" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G106" s="179" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H106" s="180" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I106" s="180" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J106" s="180" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K106" s="179"/>
       <c r="L106" s="181"/>
     </row>
     <row r="107" spans="4:12" s="112" customFormat="1" ht="28.5" customHeight="1">
-      <c r="D107" s="241"/>
+      <c r="D107" s="235"/>
       <c r="E107" s="182" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F107" s="183" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G107" s="183" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H107" s="176" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I107" s="177" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J107" s="177" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K107" s="184"/>
       <c r="L107" s="184"/>
     </row>
     <row r="108" spans="4:12" s="112" customFormat="1">
-      <c r="D108" s="240"/>
+      <c r="D108" s="234"/>
       <c r="E108" s="132" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F108" s="113" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G108" s="113" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H108" s="116" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I108" s="113" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J108" s="113" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K108" s="113"/>
       <c r="L108" s="113"/>
     </row>
     <row r="109" spans="4:12" s="112" customFormat="1" ht="30">
-      <c r="D109" s="240"/>
+      <c r="D109" s="234"/>
       <c r="E109" s="75"/>
       <c r="F109" s="114" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G109" s="113" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H109" s="117" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I109" s="117" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J109" s="118" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K109" s="114"/>
       <c r="L109" s="114"/>
     </row>
     <row r="110" spans="4:12" s="112" customFormat="1">
-      <c r="D110" s="240"/>
+      <c r="D110" s="234"/>
       <c r="E110" s="75" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F110" s="114" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G110" s="114" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H110" s="119" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I110" s="114" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J110" s="114" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K110" s="114"/>
       <c r="L110" s="114"/>
     </row>
     <row r="111" spans="4:12" s="112" customFormat="1" ht="30">
-      <c r="D111" s="240"/>
+      <c r="D111" s="234"/>
       <c r="E111" s="75"/>
       <c r="F111" s="114" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G111" s="114" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H111" s="119" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I111" s="114" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="J111" s="114" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K111" s="114"/>
       <c r="L111" s="114"/>
     </row>
     <row r="112" spans="4:12" s="112" customFormat="1">
-      <c r="D112" s="240"/>
+      <c r="D112" s="234"/>
       <c r="E112" s="75" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F112" s="114" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G112" s="114" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H112" s="119" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I112" s="114" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J112" s="114" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K112" s="114"/>
       <c r="L112" s="114"/>
     </row>
     <row r="113" spans="1:12" s="112" customFormat="1">
-      <c r="D113" s="240"/>
+      <c r="D113" s="234"/>
       <c r="E113" s="86" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F113" s="114" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G113" s="114" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H113" s="117">
         <v>1</v>
@@ -6950,38 +6953,38 @@
       <c r="L113" s="114"/>
     </row>
     <row r="114" spans="1:12" s="112" customFormat="1">
-      <c r="D114" s="240"/>
+      <c r="D114" s="234"/>
       <c r="E114" s="120" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F114" s="115" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G114" s="115" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H114" s="121" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I114" s="115" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J114" s="115" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K114" s="115"/>
       <c r="L114" s="115"/>
     </row>
     <row r="115" spans="1:12" s="112" customFormat="1" ht="30">
-      <c r="D115" s="240"/>
+      <c r="D115" s="234"/>
       <c r="E115" s="89" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F115" s="107" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G115" s="108" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H115" s="108"/>
       <c r="I115" s="108"/>
@@ -6990,71 +6993,71 @@
       <c r="L115" s="108"/>
     </row>
     <row r="116" spans="1:12" s="112" customFormat="1">
-      <c r="D116" s="240"/>
+      <c r="D116" s="234"/>
       <c r="E116" s="143"/>
       <c r="F116" s="144" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G116" s="145" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H116" s="122" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I116" s="122" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J116" s="122" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K116" s="108"/>
       <c r="L116" s="108"/>
     </row>
     <row r="117" spans="1:12" s="138" customFormat="1">
-      <c r="D117" s="241"/>
+      <c r="D117" s="235"/>
       <c r="E117" s="146"/>
       <c r="F117" s="124" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G117" s="133" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H117" s="141" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I117" s="141" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J117" s="141" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="K117" s="139"/>
       <c r="L117" s="139"/>
     </row>
     <row r="118" spans="1:12" s="138" customFormat="1">
-      <c r="D118" s="241"/>
+      <c r="D118" s="235"/>
       <c r="E118" s="146"/>
       <c r="F118" s="124" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G118" s="133" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H118" s="142" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="I118" s="142" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="J118" s="142" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K118" s="139"/>
       <c r="L118" s="139"/>
     </row>
     <row r="119" spans="1:12" s="92" customFormat="1">
       <c r="A119" s="92" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E119" s="93"/>
       <c r="H119" s="94"/>
@@ -7063,7 +7066,13 @@
   <autoFilter ref="A9:O119" xr:uid="{FC96D3DE-56F6-4E60-B012-339ED5333B2B}">
     <filterColumn colId="0" showButton="0"/>
   </autoFilter>
-  <mergeCells count="15">
+  <mergeCells count="14">
+    <mergeCell ref="J2:O4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D14:D25"/>
     <mergeCell ref="D11:D13"/>
@@ -7072,13 +7081,6 @@
     <mergeCell ref="D27:D33"/>
     <mergeCell ref="D34:D40"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="J2:O4"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D27">
@@ -7370,15 +7372,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E39679EB-3E9B-472F-B5A5-82E3B98361DA}">
   <dimension ref="A1:EV352"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
     <col min="5" max="5" width="3.140625" style="5" customWidth="1"/>
     <col min="6" max="6" width="40.28515625" customWidth="1"/>
@@ -7391,21 +7393,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:152" ht="18.75">
-      <c r="A1" s="231" t="s">
+      <c r="A1" s="229" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="231"/>
+      <c r="B1" s="229"/>
       <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:152" s="1" customFormat="1" ht="18.75">
-      <c r="A2" s="231" t="s">
+      <c r="A2" s="229" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="231"/>
+      <c r="B2" s="229"/>
       <c r="C2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2"/>
@@ -7413,14 +7415,14 @@
       <c r="I2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="229" t="s">
+      <c r="J2" s="240" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="229"/>
-      <c r="L2" s="229"/>
-      <c r="M2" s="229"/>
-      <c r="N2" s="229"/>
-      <c r="O2" s="229"/>
+      <c r="K2" s="240"/>
+      <c r="L2" s="240"/>
+      <c r="M2" s="240"/>
+      <c r="N2" s="240"/>
+      <c r="O2" s="240"/>
       <c r="P2" s="218"/>
       <c r="Q2" s="218"/>
       <c r="R2" s="218"/>
@@ -7560,22 +7562,22 @@
       <c r="EV2" s="218"/>
     </row>
     <row r="3" spans="1:152" s="1" customFormat="1" ht="18.75">
-      <c r="A3" s="231" t="s">
+      <c r="A3" s="229" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="231"/>
+      <c r="B3" s="229"/>
       <c r="C3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3"/>
       <c r="H3" s="7"/>
-      <c r="J3" s="229"/>
-      <c r="K3" s="229"/>
-      <c r="L3" s="229"/>
-      <c r="M3" s="229"/>
-      <c r="N3" s="229"/>
-      <c r="O3" s="229"/>
+      <c r="J3" s="240"/>
+      <c r="K3" s="240"/>
+      <c r="L3" s="240"/>
+      <c r="M3" s="240"/>
+      <c r="N3" s="240"/>
+      <c r="O3" s="240"/>
       <c r="P3" s="218"/>
       <c r="Q3" s="218"/>
       <c r="R3" s="218"/>
@@ -7715,22 +7717,22 @@
       <c r="EV3" s="218"/>
     </row>
     <row r="4" spans="1:152" s="1" customFormat="1" ht="18.75">
-      <c r="A4" s="231" t="s">
+      <c r="A4" s="229" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="231"/>
+      <c r="B4" s="229"/>
       <c r="C4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4"/>
       <c r="H4" s="7"/>
-      <c r="J4" s="229"/>
-      <c r="K4" s="229"/>
-      <c r="L4" s="229"/>
-      <c r="M4" s="229"/>
-      <c r="N4" s="229"/>
-      <c r="O4" s="229"/>
+      <c r="J4" s="240"/>
+      <c r="K4" s="240"/>
+      <c r="L4" s="240"/>
+      <c r="M4" s="240"/>
+      <c r="N4" s="240"/>
+      <c r="O4" s="240"/>
       <c r="P4" s="218"/>
       <c r="Q4" s="218"/>
       <c r="R4" s="218"/>
@@ -7870,12 +7872,12 @@
       <c r="EV4" s="218"/>
     </row>
     <row r="5" spans="1:152" s="1" customFormat="1" ht="18.75">
-      <c r="A5" s="246" t="s">
+      <c r="A5" s="245" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="246"/>
-      <c r="C5" s="246"/>
-      <c r="D5" s="246"/>
+      <c r="B5" s="245"/>
+      <c r="C5" s="245"/>
+      <c r="D5" s="245"/>
       <c r="E5" s="5"/>
       <c r="F5"/>
       <c r="H5" s="7"/>
@@ -8024,12 +8026,12 @@
       <c r="EV5" s="218"/>
     </row>
     <row r="6" spans="1:152" s="1" customFormat="1" ht="18.75">
-      <c r="A6" s="232" t="s">
+      <c r="A6" s="241" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="233"/>
-      <c r="C6" s="233"/>
-      <c r="D6" s="234"/>
+      <c r="B6" s="242"/>
+      <c r="C6" s="242"/>
+      <c r="D6" s="243"/>
       <c r="E6" s="5"/>
       <c r="F6" t="s">
         <v>11</v>
@@ -8180,12 +8182,12 @@
       <c r="EV6" s="218"/>
     </row>
     <row r="7" spans="1:152" s="1" customFormat="1" ht="18.75">
-      <c r="A7" s="235" t="s">
+      <c r="A7" s="244" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="235"/>
-      <c r="C7" s="235"/>
-      <c r="D7" s="235"/>
+      <c r="B7" s="244"/>
+      <c r="C7" s="244"/>
+      <c r="D7" s="244"/>
       <c r="E7" s="10"/>
       <c r="F7" t="s">
         <v>13</v>
@@ -8487,39 +8489,41 @@
       <c r="EV8" s="220"/>
     </row>
     <row r="9" spans="1:152" s="4" customFormat="1" ht="18.75">
-      <c r="A9" s="230" t="s">
+      <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="230"/>
+      <c r="B9" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="C9" s="163" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L9" s="18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M9" s="221"/>
       <c r="N9" s="221"/>
@@ -8664,16 +8668,16 @@
     </row>
     <row r="10" spans="1:152">
       <c r="A10" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="109" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E10" s="34"/>
       <c r="F10" s="25"/>
@@ -8686,142 +8690,142 @@
     </row>
     <row r="11" spans="1:152" ht="16.5" customHeight="1">
       <c r="A11" s="167"/>
-      <c r="D11" s="236" t="s">
-        <v>28</v>
+      <c r="D11" s="230" t="s">
+        <v>29</v>
       </c>
       <c r="E11" s="74"/>
       <c r="F11" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K11" s="46"/>
       <c r="L11" s="46"/>
     </row>
     <row r="12" spans="1:152">
       <c r="A12" s="2"/>
-      <c r="D12" s="237"/>
+      <c r="D12" s="231"/>
       <c r="E12" s="74"/>
       <c r="F12" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K12" s="46"/>
       <c r="L12" s="46"/>
     </row>
     <row r="13" spans="1:152">
       <c r="A13" s="2"/>
-      <c r="D13" s="238"/>
+      <c r="D13" s="232"/>
       <c r="E13" s="74"/>
       <c r="F13" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K13" s="46"/>
       <c r="L13" s="46"/>
     </row>
     <row r="14" spans="1:152">
       <c r="A14" s="2"/>
-      <c r="D14" s="236" t="s">
-        <v>41</v>
+      <c r="D14" s="230" t="s">
+        <v>42</v>
       </c>
       <c r="E14" s="74" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
     </row>
     <row r="15" spans="1:152" ht="28.5" customHeight="1">
       <c r="A15" s="2"/>
-      <c r="D15" s="237"/>
+      <c r="D15" s="231"/>
       <c r="E15" s="84" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F15" s="148" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G15" s="148" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H15" s="149" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I15" s="149" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="J15" s="149" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
     </row>
     <row r="16" spans="1:152" s="112" customFormat="1" ht="28.5" customHeight="1">
       <c r="A16" s="215"/>
-      <c r="D16" s="237"/>
+      <c r="D16" s="231"/>
       <c r="E16" s="186" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F16" s="187" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G16" s="199" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H16" s="159" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I16" s="160" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J16" s="160" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K16" s="187"/>
       <c r="L16" s="187"/>
@@ -8968,46 +8972,46 @@
     </row>
     <row r="17" spans="1:152">
       <c r="A17" s="2"/>
-      <c r="D17" s="237"/>
+      <c r="D17" s="231"/>
       <c r="E17" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F17" s="42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G17" s="42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H17" s="43" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I17" s="42" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="J17" s="43" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K17" s="42"/>
       <c r="L17" s="42"/>
     </row>
     <row r="18" spans="1:152" s="112" customFormat="1" ht="30">
       <c r="A18" s="2"/>
-      <c r="D18" s="237"/>
+      <c r="D18" s="231"/>
       <c r="E18" s="75"/>
       <c r="F18" s="109" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G18" s="109" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H18" s="110" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I18" s="110" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="J18" s="110" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K18" s="109"/>
       <c r="L18" s="109"/>
@@ -9154,85 +9158,85 @@
     </row>
     <row r="19" spans="1:152">
       <c r="A19" s="2"/>
-      <c r="D19" s="237"/>
+      <c r="D19" s="231"/>
       <c r="E19" s="34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F19" s="44" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G19" s="44" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H19" s="45" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="I19" s="45" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="J19" s="44" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K19" s="44"/>
       <c r="L19" s="44"/>
     </row>
     <row r="20" spans="1:152">
       <c r="A20" s="2"/>
-      <c r="D20" s="237"/>
+      <c r="D20" s="231"/>
       <c r="E20" s="34"/>
       <c r="F20" s="20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H20" s="21" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I20" s="21" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J20" s="53" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K20" s="20"/>
       <c r="L20" s="20"/>
     </row>
     <row r="21" spans="1:152">
       <c r="A21" s="2"/>
-      <c r="D21" s="237"/>
+      <c r="D21" s="231"/>
       <c r="E21" s="34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H21" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="I21" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="I21" s="20" t="s">
-        <v>82</v>
-      </c>
       <c r="J21" s="20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K21" s="20"/>
       <c r="L21" s="20"/>
     </row>
     <row r="22" spans="1:152">
       <c r="A22" s="2"/>
-      <c r="D22" s="237"/>
+      <c r="D22" s="231"/>
       <c r="E22" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H22" s="22">
         <v>1</v>
@@ -9241,31 +9245,31 @@
         <v>1</v>
       </c>
       <c r="J22" s="54" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K22" s="20"/>
       <c r="L22" s="20"/>
     </row>
     <row r="23" spans="1:152">
       <c r="A23" s="2"/>
-      <c r="D23" s="237"/>
+      <c r="D23" s="231"/>
       <c r="E23" s="87" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F23" s="29" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G23" s="29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H23" s="55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I23" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="J23" s="29" t="s">
         <v>90</v>
-      </c>
-      <c r="J23" s="29" t="s">
-        <v>89</v>
       </c>
       <c r="K23" s="29"/>
       <c r="L23" s="29"/>
@@ -9274,15 +9278,15 @@
       <c r="A24" s="2"/>
       <c r="B24"/>
       <c r="C24"/>
-      <c r="D24" s="237"/>
+      <c r="D24" s="231"/>
       <c r="E24" s="189" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F24" s="190" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G24" s="190" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H24" s="174"/>
       <c r="I24" s="175"/>
@@ -9292,22 +9296,22 @@
     </row>
     <row r="25" spans="1:152">
       <c r="A25" s="2"/>
-      <c r="D25" s="238"/>
+      <c r="D25" s="232"/>
       <c r="E25" s="89"/>
       <c r="F25" s="90" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G25" s="35" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H25" s="91" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I25" s="91" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J25" s="91" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K25" s="35"/>
       <c r="L25" s="35"/>
@@ -9315,97 +9319,97 @@
     <row r="26" spans="1:152">
       <c r="A26" s="2"/>
       <c r="D26" s="88" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E26" s="80" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F26" s="57" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G26" s="57" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H26" s="58" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="I26" s="58" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="J26" s="58" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K26" s="59"/>
       <c r="L26" s="59"/>
     </row>
     <row r="27" spans="1:152">
       <c r="A27" s="2"/>
-      <c r="D27" s="242" t="s">
-        <v>101</v>
+      <c r="D27" s="236" t="s">
+        <v>102</v>
       </c>
       <c r="E27" s="76"/>
       <c r="F27" s="23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H27" s="24" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="I27" s="24" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="J27" s="24" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K27" s="20"/>
       <c r="L27" s="20"/>
     </row>
     <row r="28" spans="1:152">
       <c r="A28" s="2"/>
-      <c r="D28" s="243"/>
+      <c r="D28" s="237"/>
       <c r="E28" s="34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I28" s="21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J28" s="21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K28" s="20"/>
       <c r="L28" s="20"/>
     </row>
     <row r="29" spans="1:152" s="69" customFormat="1">
       <c r="A29" s="2"/>
-      <c r="D29" s="243"/>
+      <c r="D29" s="237"/>
       <c r="E29" s="87" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F29" s="68" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H29" s="68" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="I29" s="68" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="J29" s="68" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K29" s="68"/>
       <c r="L29" s="68"/>
@@ -9552,107 +9556,107 @@
     </row>
     <row r="30" spans="1:152">
       <c r="A30" s="2"/>
-      <c r="D30" s="243"/>
+      <c r="D30" s="237"/>
       <c r="E30" s="34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H30" s="21" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I30" s="20" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J30" s="20" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K30" s="20"/>
       <c r="L30" s="20"/>
     </row>
     <row r="31" spans="1:152">
       <c r="A31" s="2"/>
-      <c r="D31" s="243"/>
+      <c r="D31" s="237"/>
       <c r="E31" s="34"/>
       <c r="F31" s="20" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H31" s="21" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I31" s="20" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="J31" s="20" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K31" s="20"/>
       <c r="L31" s="20"/>
     </row>
     <row r="32" spans="1:152">
       <c r="A32" s="2"/>
-      <c r="D32" s="243"/>
+      <c r="D32" s="237"/>
       <c r="E32" s="34"/>
       <c r="F32" s="20" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H32" s="21" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I32" s="20" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="J32" s="20" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K32" s="20"/>
       <c r="L32" s="20"/>
     </row>
     <row r="33" spans="1:152">
       <c r="A33" s="2"/>
-      <c r="D33" s="243"/>
+      <c r="D33" s="237"/>
       <c r="E33" s="87" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F33" s="29" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H33" s="55" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I33" s="29" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="J33" s="29" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K33" s="29"/>
       <c r="L33" s="29"/>
     </row>
     <row r="34" spans="1:152">
       <c r="A34" s="2"/>
-      <c r="D34" s="242" t="s">
-        <v>133</v>
+      <c r="D34" s="236" t="s">
+        <v>134</v>
       </c>
       <c r="E34" s="78"/>
       <c r="F34" s="60" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G34" s="23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H34" s="61"/>
       <c r="I34" s="61"/>
@@ -9662,172 +9666,172 @@
     </row>
     <row r="35" spans="1:152">
       <c r="A35" s="2"/>
-      <c r="D35" s="243"/>
+      <c r="D35" s="237"/>
       <c r="E35" s="34"/>
       <c r="F35" s="20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H35" s="21"/>
       <c r="I35" s="20"/>
       <c r="J35" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K35" s="20"/>
       <c r="L35" s="64"/>
     </row>
     <row r="36" spans="1:152">
       <c r="A36" s="2"/>
-      <c r="D36" s="243"/>
+      <c r="D36" s="237"/>
       <c r="E36" s="34"/>
       <c r="F36" s="20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H36" s="21"/>
       <c r="I36" s="169"/>
       <c r="J36" s="68" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K36" s="20"/>
       <c r="L36" s="64"/>
     </row>
     <row r="37" spans="1:152">
       <c r="A37" s="2"/>
-      <c r="D37" s="243"/>
+      <c r="D37" s="237"/>
       <c r="E37" s="34"/>
       <c r="F37" s="20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H37" s="21"/>
       <c r="I37" s="20"/>
       <c r="J37" s="20" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K37" s="20"/>
       <c r="L37" s="64"/>
     </row>
     <row r="38" spans="1:152">
       <c r="A38" s="2"/>
-      <c r="D38" s="243"/>
+      <c r="D38" s="237"/>
       <c r="E38" s="34"/>
       <c r="F38" s="20" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G38" s="20" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H38" s="21"/>
       <c r="I38" s="20"/>
       <c r="J38" s="20" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K38" s="20"/>
       <c r="L38" s="64"/>
     </row>
     <row r="39" spans="1:152">
       <c r="A39" s="2"/>
-      <c r="D39" s="243"/>
+      <c r="D39" s="237"/>
       <c r="E39" s="34"/>
       <c r="F39" s="20" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G39" s="20" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H39" s="21"/>
       <c r="I39" s="20"/>
       <c r="J39" s="20" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K39" s="20"/>
       <c r="L39" s="64"/>
     </row>
     <row r="40" spans="1:152">
       <c r="A40" s="2"/>
-      <c r="D40" s="244"/>
+      <c r="D40" s="238"/>
       <c r="E40" s="79"/>
       <c r="F40" s="65" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G40" s="20" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H40" s="66"/>
       <c r="I40" s="65"/>
       <c r="J40" s="65" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K40" s="65"/>
       <c r="L40" s="67"/>
     </row>
     <row r="41" spans="1:152">
       <c r="A41" s="2"/>
-      <c r="D41" s="236" t="s">
-        <v>141</v>
+      <c r="D41" s="230" t="s">
+        <v>142</v>
       </c>
       <c r="E41" s="80"/>
       <c r="F41" s="56" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G41" s="57" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H41" s="58" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="I41" s="58" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="J41" s="58" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K41" s="59"/>
       <c r="L41" s="59"/>
     </row>
     <row r="42" spans="1:152">
       <c r="A42" s="2"/>
-      <c r="D42" s="237"/>
+      <c r="D42" s="231"/>
       <c r="E42" s="147" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F42" s="148" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G42" s="148" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H42" s="149" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I42" s="149" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J42" s="149" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K42" s="150"/>
       <c r="L42" s="150"/>
     </row>
     <row r="43" spans="1:152" s="38" customFormat="1">
       <c r="A43" s="2"/>
-      <c r="D43" s="239"/>
+      <c r="D43" s="233"/>
       <c r="E43" s="152"/>
       <c r="F43" s="153" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G43" s="20" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H43" s="154" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I43" s="154"/>
       <c r="J43" s="154"/>
@@ -9976,63 +9980,63 @@
     </row>
     <row r="44" spans="1:152">
       <c r="A44" s="2"/>
-      <c r="D44" s="237"/>
+      <c r="D44" s="231"/>
       <c r="E44" s="151" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F44" s="30" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G44" s="30" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H44" s="31" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="I44" s="31" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="J44" s="31" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K44" s="27"/>
       <c r="L44" s="27"/>
     </row>
     <row r="45" spans="1:152">
       <c r="A45" s="2"/>
-      <c r="D45" s="237"/>
+      <c r="D45" s="231"/>
       <c r="E45" s="34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F45" s="20" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G45" s="20" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H45" s="21" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="I45" s="20" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="J45" s="20" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K45" s="20"/>
       <c r="L45" s="20"/>
     </row>
     <row r="46" spans="1:152">
       <c r="A46" s="2"/>
-      <c r="D46" s="237"/>
+      <c r="D46" s="231"/>
       <c r="E46" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F46" s="20" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G46" s="20" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H46" s="22">
         <v>78586</v>
@@ -10048,15 +10052,15 @@
     </row>
     <row r="47" spans="1:152">
       <c r="A47" s="2"/>
-      <c r="D47" s="237"/>
+      <c r="D47" s="231"/>
       <c r="E47" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F47" s="20" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G47" s="20" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H47" s="54">
         <v>4</v>
@@ -10070,15 +10074,15 @@
     </row>
     <row r="48" spans="1:152">
       <c r="A48" s="2"/>
-      <c r="D48" s="237"/>
+      <c r="D48" s="231"/>
       <c r="E48" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F48" s="20" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G48" s="20" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H48" s="20"/>
       <c r="J48" s="20"/>
@@ -10087,21 +10091,21 @@
     </row>
     <row r="49" spans="1:152">
       <c r="A49" s="2"/>
-      <c r="D49" s="237"/>
+      <c r="D49" s="231"/>
       <c r="E49" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F49" s="20" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G49" s="20" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H49" s="20" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I49" s="20" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="J49" s="20"/>
       <c r="K49" s="20"/>
@@ -10109,15 +10113,15 @@
     </row>
     <row r="50" spans="1:152">
       <c r="A50" s="2"/>
-      <c r="D50" s="237"/>
+      <c r="D50" s="231"/>
       <c r="E50" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F50" s="20" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G50" s="20" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H50" s="20"/>
       <c r="I50" s="54"/>
@@ -10127,18 +10131,18 @@
     </row>
     <row r="51" spans="1:152">
       <c r="A51" s="2"/>
-      <c r="D51" s="237"/>
+      <c r="D51" s="231"/>
       <c r="E51" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F51" s="20" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G51" s="20" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H51" s="20" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I51" s="20"/>
       <c r="J51" s="20"/>
@@ -10147,18 +10151,18 @@
     </row>
     <row r="52" spans="1:152">
       <c r="A52" s="2"/>
-      <c r="D52" s="237"/>
+      <c r="D52" s="231"/>
       <c r="E52" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F52" s="20" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G52" s="20" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H52" s="20" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="I52" s="20"/>
       <c r="J52" s="20"/>
@@ -10167,19 +10171,19 @@
     </row>
     <row r="53" spans="1:152">
       <c r="A53" s="2"/>
-      <c r="D53" s="237"/>
+      <c r="D53" s="231"/>
       <c r="E53" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F53" s="20" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G53" s="20" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H53" s="20"/>
       <c r="I53" s="20" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J53" s="20"/>
       <c r="K53" s="20"/>
@@ -10187,18 +10191,18 @@
     </row>
     <row r="54" spans="1:152">
       <c r="A54" s="2"/>
-      <c r="D54" s="237"/>
+      <c r="D54" s="231"/>
       <c r="E54" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F54" s="20" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G54" s="20" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H54" s="20" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="I54" s="20"/>
       <c r="J54" s="20"/>
@@ -10207,15 +10211,15 @@
     </row>
     <row r="55" spans="1:152">
       <c r="A55" s="2"/>
-      <c r="D55" s="237"/>
+      <c r="D55" s="231"/>
       <c r="E55" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F55" s="29" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G55" s="20" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H55" s="164">
         <v>156789456</v>
@@ -10228,19 +10232,19 @@
     </row>
     <row r="56" spans="1:152" s="38" customFormat="1">
       <c r="A56" s="2"/>
-      <c r="D56" s="237"/>
+      <c r="D56" s="231"/>
       <c r="E56" s="81" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F56" s="41" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G56" s="20" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H56" s="41"/>
       <c r="I56" s="41" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="J56" s="39"/>
       <c r="K56" s="40"/>
@@ -10388,79 +10392,79 @@
     </row>
     <row r="57" spans="1:152">
       <c r="A57" s="2"/>
-      <c r="D57" s="237"/>
+      <c r="D57" s="231"/>
       <c r="E57" s="82"/>
       <c r="F57" s="47" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G57" s="47" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H57" s="47" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I57" s="47" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J57" s="47" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K57" s="44"/>
       <c r="L57" s="44"/>
     </row>
     <row r="58" spans="1:152">
       <c r="A58" s="2"/>
-      <c r="D58" s="237"/>
+      <c r="D58" s="231"/>
       <c r="E58" s="82"/>
       <c r="F58" s="48" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G58" s="47" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H58" s="48" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I58" s="48" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="J58" s="48" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K58" s="44"/>
       <c r="L58" s="44"/>
     </row>
     <row r="59" spans="1:152">
       <c r="A59" s="2"/>
-      <c r="D59" s="237"/>
+      <c r="D59" s="231"/>
       <c r="E59" s="82"/>
       <c r="F59" s="48" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G59" s="47" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H59" s="48" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I59" s="204" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="J59" s="204" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K59" s="44"/>
       <c r="L59" s="44"/>
     </row>
     <row r="60" spans="1:152">
       <c r="A60" s="2"/>
-      <c r="D60" s="237"/>
+      <c r="D60" s="231"/>
       <c r="E60" s="34"/>
       <c r="F60" s="27" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G60" s="27" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H60" s="27"/>
       <c r="I60" s="20"/>
@@ -10470,13 +10474,13 @@
     </row>
     <row r="61" spans="1:152">
       <c r="A61" s="2"/>
-      <c r="D61" s="237"/>
+      <c r="D61" s="231"/>
       <c r="E61" s="34"/>
       <c r="F61" s="20" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G61" s="27" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H61" s="20"/>
       <c r="I61" s="20"/>
@@ -10486,13 +10490,13 @@
     </row>
     <row r="62" spans="1:152">
       <c r="A62" s="2"/>
-      <c r="D62" s="237"/>
+      <c r="D62" s="231"/>
       <c r="E62" s="34"/>
       <c r="F62" s="29" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G62" s="27" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H62" s="29"/>
       <c r="I62" s="20"/>
@@ -10502,90 +10506,90 @@
     </row>
     <row r="63" spans="1:152">
       <c r="A63" s="2"/>
-      <c r="D63" s="238"/>
+      <c r="D63" s="232"/>
       <c r="E63" s="82"/>
       <c r="F63" s="48" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G63" s="47" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H63" s="50" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I63" s="50" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J63" s="50" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K63" s="44"/>
       <c r="L63" s="44"/>
     </row>
     <row r="64" spans="1:152">
       <c r="A64" s="2"/>
-      <c r="D64" s="240" t="s">
-        <v>211</v>
+      <c r="D64" s="234" t="s">
+        <v>212</v>
       </c>
       <c r="E64" s="82"/>
       <c r="F64" s="49" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G64" s="47" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H64" s="50" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I64" s="50" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="J64" s="50" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K64" s="44"/>
       <c r="L64" s="44"/>
     </row>
     <row r="65" spans="1:152">
       <c r="A65" s="2"/>
-      <c r="D65" s="240"/>
+      <c r="D65" s="234"/>
       <c r="E65" s="82"/>
       <c r="F65" s="51" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G65" s="47" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H65" s="52" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I65" s="52" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J65" s="52" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K65" s="44"/>
       <c r="L65" s="44"/>
     </row>
     <row r="66" spans="1:152">
       <c r="A66" s="2"/>
-      <c r="D66" s="240"/>
+      <c r="D66" s="234"/>
       <c r="E66" s="81"/>
       <c r="F66" s="51" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G66" s="47" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H66" s="52" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I66" s="52" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J66" s="52" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K66" s="44"/>
       <c r="L66" s="44"/>
@@ -10594,15 +10598,15 @@
       <c r="A67" s="2"/>
       <c r="B67"/>
       <c r="C67"/>
-      <c r="D67" s="240"/>
+      <c r="D67" s="234"/>
       <c r="E67" s="192" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F67" s="174" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G67" s="174" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H67" s="174"/>
       <c r="I67" s="175"/>
@@ -10612,48 +10616,48 @@
     </row>
     <row r="68" spans="1:152">
       <c r="A68" s="2"/>
-      <c r="D68" s="240"/>
+      <c r="D68" s="234"/>
       <c r="E68" s="81" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F68" s="35" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G68" s="37" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H68" s="36" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I68" s="36" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J68" s="36" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K68" s="20"/>
       <c r="L68" s="20"/>
     </row>
     <row r="69" spans="1:152" s="69" customFormat="1">
       <c r="A69" s="2"/>
-      <c r="D69" s="240"/>
+      <c r="D69" s="234"/>
       <c r="E69" s="83" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F69" s="71" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G69" s="37" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H69" s="140">
         <v>607080928</v>
       </c>
       <c r="I69" s="140" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="J69" s="140" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K69" s="68"/>
       <c r="L69" s="68"/>
@@ -10800,18 +10804,18 @@
     </row>
     <row r="70" spans="1:152">
       <c r="A70" s="2"/>
-      <c r="D70" s="240"/>
+      <c r="D70" s="234"/>
       <c r="E70" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F70" s="27" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G70" s="37" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H70" s="28" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I70" s="36"/>
       <c r="J70" s="36"/>
@@ -10820,15 +10824,15 @@
     </row>
     <row r="71" spans="1:152" s="69" customFormat="1">
       <c r="A71" s="2"/>
-      <c r="D71" s="240"/>
+      <c r="D71" s="234"/>
       <c r="E71" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F71" s="68" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G71" s="37" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H71" s="164">
         <v>156789456</v>
@@ -10980,16 +10984,16 @@
     </row>
     <row r="72" spans="1:152" s="69" customFormat="1">
       <c r="A72" s="2"/>
-      <c r="D72" s="240"/>
+      <c r="D72" s="234"/>
       <c r="E72" s="85"/>
       <c r="F72" s="95" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G72" s="37" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H72" s="96" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I72" s="72"/>
       <c r="J72" s="72"/>
@@ -11138,37 +11142,37 @@
     </row>
     <row r="73" spans="1:152">
       <c r="A73" s="2"/>
-      <c r="D73" s="240"/>
+      <c r="D73" s="234"/>
       <c r="E73" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F73" s="29" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G73" s="37" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H73" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="I73" s="168" t="s">
         <v>238</v>
       </c>
-      <c r="I73" s="168" t="s">
-        <v>237</v>
-      </c>
       <c r="J73" s="168" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K73" s="20"/>
       <c r="L73" s="20"/>
     </row>
     <row r="74" spans="1:152">
       <c r="A74" s="2"/>
-      <c r="D74" s="240"/>
+      <c r="D74" s="234"/>
       <c r="E74" s="97"/>
       <c r="F74" s="35" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G74" s="37" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H74" s="170"/>
       <c r="I74" s="171"/>
@@ -11178,204 +11182,204 @@
     </row>
     <row r="75" spans="1:152">
       <c r="A75" s="2"/>
-      <c r="D75" s="240"/>
+      <c r="D75" s="234"/>
       <c r="E75" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F75" s="98" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G75" s="37" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H75" s="36" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I75" s="35" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="J75" s="35" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K75" s="32"/>
       <c r="L75" s="20"/>
     </row>
     <row r="76" spans="1:152">
       <c r="A76" s="2"/>
-      <c r="D76" s="240"/>
+      <c r="D76" s="234"/>
       <c r="E76" s="82" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F76" s="23" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G76" s="37" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H76" s="165" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="I76" s="165" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="J76" s="27" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K76" s="20"/>
       <c r="L76" s="20"/>
     </row>
     <row r="77" spans="1:152">
       <c r="A77" s="2"/>
-      <c r="D77" s="240"/>
+      <c r="D77" s="234"/>
       <c r="E77" s="34"/>
       <c r="F77" s="20" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G77" s="37" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H77" s="165" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="I77" s="165" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="J77" s="20" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K77" s="20"/>
       <c r="L77" s="20"/>
     </row>
     <row r="78" spans="1:152">
       <c r="A78" s="2"/>
-      <c r="D78" s="240"/>
+      <c r="D78" s="234"/>
       <c r="E78" s="77"/>
       <c r="F78" s="29" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G78" s="123" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H78" s="165" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="I78" s="165" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="J78" s="29" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K78" s="29"/>
       <c r="L78" s="29"/>
     </row>
     <row r="79" spans="1:152">
       <c r="A79" s="2"/>
-      <c r="D79" s="240"/>
+      <c r="D79" s="234"/>
       <c r="E79" s="129"/>
       <c r="F79" s="124" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G79" s="124" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H79" s="126" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I79" s="126" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J79" s="126" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K79" s="124"/>
       <c r="L79" s="124"/>
     </row>
     <row r="80" spans="1:152">
       <c r="A80" s="2"/>
-      <c r="D80" s="240"/>
+      <c r="D80" s="234"/>
       <c r="E80" s="129"/>
       <c r="F80" s="124" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G80" s="124" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H80" s="216" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I80" s="216" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J80" s="216" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K80" s="124"/>
       <c r="L80" s="124"/>
     </row>
     <row r="81" spans="1:152">
       <c r="A81" s="2"/>
-      <c r="D81" s="240"/>
+      <c r="D81" s="234"/>
       <c r="E81" s="129"/>
       <c r="F81" s="124" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G81" s="124" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H81" s="217">
         <v>607080928</v>
       </c>
       <c r="I81" s="217" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="J81" s="217" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K81" s="124"/>
       <c r="L81" s="124"/>
     </row>
     <row r="82" spans="1:152">
       <c r="A82" s="2"/>
-      <c r="D82" s="240"/>
+      <c r="D82" s="234"/>
       <c r="E82" s="128"/>
       <c r="F82" s="127" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G82" s="124" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H82" s="126" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I82" s="126" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J82" s="126" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K82" s="124"/>
       <c r="L82" s="124"/>
     </row>
     <row r="83" spans="1:152">
       <c r="A83" s="2"/>
-      <c r="D83" s="240"/>
+      <c r="D83" s="234"/>
       <c r="E83" s="82" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F83" s="124" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G83" s="124" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H83" s="126" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I83" s="126" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J83" s="126" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K83" s="124"/>
       <c r="L83" s="124"/>
@@ -11384,16 +11388,16 @@
       <c r="A84" s="2"/>
       <c r="B84"/>
       <c r="C84"/>
-      <c r="D84" s="240"/>
+      <c r="D84" s="234"/>
       <c r="E84" s="212"/>
       <c r="F84" s="213" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G84" s="44" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H84" s="214" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I84" s="214"/>
       <c r="J84" s="214"/>
@@ -11542,63 +11546,63 @@
     </row>
     <row r="85" spans="1:152">
       <c r="A85" s="2"/>
-      <c r="D85" s="240"/>
+      <c r="D85" s="234"/>
       <c r="E85" s="76" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F85" s="100" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G85" s="100" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H85" s="101" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="I85" s="101" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="J85" s="101" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K85" s="42"/>
       <c r="L85" s="42"/>
     </row>
     <row r="86" spans="1:152">
       <c r="A86" s="2"/>
-      <c r="D86" s="240"/>
+      <c r="D86" s="234"/>
       <c r="E86" s="34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F86" s="44" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G86" s="44" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H86" s="45" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="I86" s="44" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="J86" s="44" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K86" s="44"/>
       <c r="L86" s="44"/>
     </row>
     <row r="87" spans="1:152">
       <c r="A87" s="2"/>
-      <c r="D87" s="240"/>
+      <c r="D87" s="234"/>
       <c r="E87" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F87" s="44" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G87" s="44" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H87" s="102">
         <v>78586</v>
@@ -11614,15 +11618,15 @@
     </row>
     <row r="88" spans="1:152">
       <c r="A88" s="2"/>
-      <c r="D88" s="240"/>
+      <c r="D88" s="234"/>
       <c r="E88" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F88" s="44" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G88" s="44" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H88" s="105">
         <v>4</v>
@@ -11636,15 +11640,15 @@
     </row>
     <row r="89" spans="1:152">
       <c r="A89" s="2"/>
-      <c r="D89" s="240"/>
+      <c r="D89" s="234"/>
       <c r="E89" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F89" s="44" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G89" s="44" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H89" s="44"/>
       <c r="I89" s="104"/>
@@ -11654,21 +11658,21 @@
     </row>
     <row r="90" spans="1:152">
       <c r="A90" s="2"/>
-      <c r="D90" s="240"/>
+      <c r="D90" s="234"/>
       <c r="E90" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F90" s="44" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G90" s="44" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H90" s="44" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I90" s="44" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="J90" s="44"/>
       <c r="K90" s="44"/>
@@ -11676,15 +11680,15 @@
     </row>
     <row r="91" spans="1:152">
       <c r="A91" s="2"/>
-      <c r="D91" s="240"/>
+      <c r="D91" s="234"/>
       <c r="E91" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F91" s="44" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G91" s="44" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H91" s="44"/>
       <c r="I91" s="105"/>
@@ -11694,18 +11698,18 @@
     </row>
     <row r="92" spans="1:152">
       <c r="A92" s="2"/>
-      <c r="D92" s="240"/>
+      <c r="D92" s="234"/>
       <c r="E92" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F92" s="44" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G92" s="44" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H92" s="44" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="I92" s="44"/>
       <c r="J92" s="44"/>
@@ -11714,18 +11718,18 @@
     </row>
     <row r="93" spans="1:152">
       <c r="A93" s="2"/>
-      <c r="D93" s="240"/>
+      <c r="D93" s="234"/>
       <c r="E93" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F93" s="44" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G93" s="44" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H93" s="44" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="I93" s="44"/>
       <c r="J93" s="44"/>
@@ -11734,19 +11738,19 @@
     </row>
     <row r="94" spans="1:152">
       <c r="A94" s="2"/>
-      <c r="D94" s="240"/>
+      <c r="D94" s="234"/>
       <c r="E94" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F94" s="44" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G94" s="44" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H94" s="44"/>
       <c r="I94" s="44" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J94" s="44"/>
       <c r="K94" s="44"/>
@@ -11754,18 +11758,18 @@
     </row>
     <row r="95" spans="1:152">
       <c r="A95" s="2"/>
-      <c r="D95" s="240"/>
+      <c r="D95" s="234"/>
       <c r="E95" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F95" s="44" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G95" s="44" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H95" s="44" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="I95" s="44"/>
       <c r="J95" s="44"/>
@@ -11774,15 +11778,15 @@
     </row>
     <row r="96" spans="1:152">
       <c r="A96" s="2"/>
-      <c r="D96" s="240"/>
+      <c r="D96" s="234"/>
       <c r="E96" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F96" s="44" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G96" s="44" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H96" s="166">
         <v>156789456</v>
@@ -11794,19 +11798,19 @@
     </row>
     <row r="97" spans="1:152" s="38" customFormat="1">
       <c r="A97" s="2"/>
-      <c r="D97" s="240"/>
+      <c r="D97" s="234"/>
       <c r="E97" s="81" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F97" s="44" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G97" s="44" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H97" s="44"/>
       <c r="I97" s="44" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="J97" s="173"/>
       <c r="K97" s="44"/>
@@ -11954,79 +11958,79 @@
     </row>
     <row r="98" spans="1:152">
       <c r="A98" s="2"/>
-      <c r="D98" s="240"/>
+      <c r="D98" s="234"/>
       <c r="E98" s="82"/>
       <c r="F98" s="47" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G98" s="47" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H98" s="47" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I98" s="48" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J98" s="47" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K98" s="44"/>
       <c r="L98" s="44"/>
     </row>
     <row r="99" spans="1:152">
       <c r="A99" s="2"/>
-      <c r="D99" s="240"/>
+      <c r="D99" s="234"/>
       <c r="E99" s="82"/>
       <c r="F99" s="48" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G99" s="47" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H99" s="48" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I99" s="48" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="J99" s="48" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K99" s="44"/>
       <c r="L99" s="44"/>
     </row>
     <row r="100" spans="1:152">
       <c r="A100" s="2"/>
-      <c r="D100" s="240"/>
+      <c r="D100" s="234"/>
       <c r="E100" s="82"/>
       <c r="F100" s="48" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G100" s="47" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H100" s="48" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I100" s="204" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="J100" s="204" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K100" s="44"/>
       <c r="L100" s="44"/>
     </row>
     <row r="101" spans="1:152" s="112" customFormat="1">
       <c r="A101" s="2"/>
-      <c r="D101" s="240"/>
+      <c r="D101" s="234"/>
       <c r="E101" s="75"/>
       <c r="F101" s="113" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G101" s="113" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H101" s="113"/>
       <c r="I101" s="114"/>
@@ -12176,13 +12180,13 @@
     </row>
     <row r="102" spans="1:152" s="112" customFormat="1">
       <c r="A102" s="2"/>
-      <c r="D102" s="240"/>
+      <c r="D102" s="234"/>
       <c r="E102" s="75"/>
       <c r="F102" s="114" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G102" s="113" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H102" s="114"/>
       <c r="I102" s="114"/>
@@ -12332,13 +12336,13 @@
     </row>
     <row r="103" spans="1:152" s="112" customFormat="1">
       <c r="A103" s="2"/>
-      <c r="D103" s="240"/>
+      <c r="D103" s="234"/>
       <c r="E103" s="130"/>
       <c r="F103" s="115" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G103" s="131" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H103" s="115"/>
       <c r="I103" s="115"/>
@@ -12488,22 +12492,22 @@
     </row>
     <row r="104" spans="1:152" s="112" customFormat="1">
       <c r="A104" s="2"/>
-      <c r="D104" s="241"/>
+      <c r="D104" s="235"/>
       <c r="E104" s="136"/>
       <c r="F104" s="133" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G104" s="125" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H104" s="134" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I104" s="133" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J104" s="50" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K104" s="133"/>
       <c r="L104" s="135"/>
@@ -12650,24 +12654,24 @@
     </row>
     <row r="105" spans="1:152" s="112" customFormat="1">
       <c r="A105" s="2"/>
-      <c r="D105" s="241"/>
+      <c r="D105" s="235"/>
       <c r="E105" s="136" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F105" s="133" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G105" s="133" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H105" s="134" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I105" s="134" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J105" s="134" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K105" s="133"/>
       <c r="L105" s="135"/>
@@ -12814,24 +12818,24 @@
     </row>
     <row r="106" spans="1:152" s="112" customFormat="1" ht="28.5" customHeight="1">
       <c r="A106" s="2"/>
-      <c r="D106" s="241"/>
+      <c r="D106" s="235"/>
       <c r="E106" s="137" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F106" s="133" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G106" s="133" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H106" s="134" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I106" s="134" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="J106" s="134" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K106" s="133"/>
       <c r="L106" s="135"/>
@@ -12978,24 +12982,24 @@
     </row>
     <row r="107" spans="1:152" s="112" customFormat="1" ht="28.5" customHeight="1">
       <c r="A107" s="2"/>
-      <c r="D107" s="241"/>
+      <c r="D107" s="235"/>
       <c r="E107" s="197" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F107" s="135" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G107" s="135" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H107" s="198" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I107" s="161" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J107" s="161" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K107" s="108"/>
       <c r="L107" s="108"/>
@@ -13142,24 +13146,24 @@
     </row>
     <row r="108" spans="1:152" s="112" customFormat="1">
       <c r="A108" s="2"/>
-      <c r="D108" s="240"/>
+      <c r="D108" s="234"/>
       <c r="E108" s="132" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F108" s="113" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G108" s="113" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H108" s="116" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I108" s="42" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="J108" s="43" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K108" s="113"/>
       <c r="L108" s="113"/>
@@ -13306,22 +13310,22 @@
     </row>
     <row r="109" spans="1:152" s="112" customFormat="1" ht="30">
       <c r="A109" s="2"/>
-      <c r="D109" s="240"/>
+      <c r="D109" s="234"/>
       <c r="E109" s="75"/>
       <c r="F109" s="114" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G109" s="113" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H109" s="117" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I109" s="117" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="J109" s="117" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K109" s="114"/>
       <c r="L109" s="114"/>
@@ -13468,24 +13472,24 @@
     </row>
     <row r="110" spans="1:152" s="112" customFormat="1">
       <c r="A110" s="2"/>
-      <c r="D110" s="240"/>
+      <c r="D110" s="234"/>
       <c r="E110" s="75" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F110" s="114" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G110" s="114" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H110" s="119" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="I110" s="45" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="J110" s="44" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K110" s="114"/>
       <c r="L110" s="114"/>
@@ -13632,22 +13636,22 @@
     </row>
     <row r="111" spans="1:152" s="112" customFormat="1">
       <c r="A111" s="2"/>
-      <c r="D111" s="240"/>
+      <c r="D111" s="234"/>
       <c r="E111" s="75"/>
       <c r="F111" s="114" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G111" s="114" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H111" s="119" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I111" s="119" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J111" s="119" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K111" s="114"/>
       <c r="L111" s="114"/>
@@ -13794,24 +13798,24 @@
     </row>
     <row r="112" spans="1:152" s="112" customFormat="1">
       <c r="A112" s="2"/>
-      <c r="D112" s="240"/>
+      <c r="D112" s="234"/>
       <c r="E112" s="75" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F112" s="114" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G112" s="114" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H112" s="119" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I112" s="119" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J112" s="119" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K112" s="114"/>
       <c r="L112" s="114"/>
@@ -13958,15 +13962,15 @@
     </row>
     <row r="113" spans="1:152" s="112" customFormat="1">
       <c r="A113" s="2"/>
-      <c r="D113" s="240"/>
+      <c r="D113" s="234"/>
       <c r="E113" s="86" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F113" s="114" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G113" s="114" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H113" s="117">
         <v>1</v>
@@ -13975,7 +13979,7 @@
         <v>1</v>
       </c>
       <c r="J113" s="117" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K113" s="114"/>
       <c r="L113" s="114"/>
@@ -14122,24 +14126,24 @@
     </row>
     <row r="114" spans="1:152" s="112" customFormat="1">
       <c r="A114" s="2"/>
-      <c r="D114" s="240"/>
+      <c r="D114" s="234"/>
       <c r="E114" s="120" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F114" s="115" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G114" s="115" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H114" s="121" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I114" s="121" t="s">
+        <v>91</v>
+      </c>
+      <c r="J114" s="121" t="s">
         <v>90</v>
-      </c>
-      <c r="J114" s="121" t="s">
-        <v>89</v>
       </c>
       <c r="K114" s="115"/>
       <c r="L114" s="115"/>
@@ -14286,15 +14290,15 @@
     </row>
     <row r="115" spans="1:152" s="194" customFormat="1" ht="30">
       <c r="A115" s="196"/>
-      <c r="D115" s="240"/>
+      <c r="D115" s="234"/>
       <c r="E115" s="195" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F115" s="122" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G115" s="122" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H115" s="122"/>
       <c r="I115" s="107"/>
@@ -14444,22 +14448,22 @@
     </row>
     <row r="116" spans="1:152" s="112" customFormat="1">
       <c r="A116" s="2"/>
-      <c r="D116" s="240"/>
+      <c r="D116" s="234"/>
       <c r="E116" s="143"/>
       <c r="F116" s="144" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G116" s="145" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H116" s="122" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I116" s="122" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J116" s="122" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K116" s="108"/>
       <c r="L116" s="108"/>
@@ -14606,22 +14610,22 @@
     </row>
     <row r="117" spans="1:152" s="138" customFormat="1">
       <c r="A117" s="2"/>
-      <c r="D117" s="241"/>
+      <c r="D117" s="235"/>
       <c r="E117" s="146"/>
       <c r="F117" s="124" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G117" s="133" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H117" s="141" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I117" s="141" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="J117" s="141" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K117" s="139"/>
       <c r="L117" s="139"/>
@@ -14768,22 +14772,22 @@
     </row>
     <row r="118" spans="1:152" s="138" customFormat="1">
       <c r="A118" s="2"/>
-      <c r="D118" s="241"/>
+      <c r="D118" s="235"/>
       <c r="E118" s="146"/>
       <c r="F118" s="124" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G118" s="133" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H118" s="142" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I118" s="142" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="J118" s="142" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="K118" s="139"/>
       <c r="L118" s="139"/>
@@ -14930,20 +14934,20 @@
     </row>
     <row r="119" spans="1:152">
       <c r="A119" s="4" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C119" s="109" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E119" s="34"/>
       <c r="F119" s="228" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G119" s="25"/>
       <c r="H119" s="26"/>
@@ -14954,142 +14958,142 @@
     </row>
     <row r="120" spans="1:152" ht="16.5" customHeight="1">
       <c r="A120" s="167"/>
-      <c r="D120" s="236" t="s">
-        <v>28</v>
+      <c r="D120" s="230" t="s">
+        <v>29</v>
       </c>
       <c r="E120" s="74"/>
       <c r="F120" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G120" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H120" s="14" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I120" s="14" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="J120" s="14" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K120" s="46"/>
       <c r="L120" s="46"/>
     </row>
     <row r="121" spans="1:152">
       <c r="A121" s="2"/>
-      <c r="D121" s="237"/>
+      <c r="D121" s="231"/>
       <c r="E121" s="74"/>
       <c r="F121" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G121" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H121" s="14" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I121" s="14" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J121" s="14" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K121" s="46"/>
       <c r="L121" s="46"/>
     </row>
     <row r="122" spans="1:152">
       <c r="A122" s="2"/>
-      <c r="D122" s="238"/>
+      <c r="D122" s="232"/>
       <c r="E122" s="74"/>
       <c r="F122" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G122" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H122" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I122" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J122" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K122" s="46"/>
       <c r="L122" s="46"/>
     </row>
     <row r="123" spans="1:152">
       <c r="A123" s="2"/>
-      <c r="D123" s="236" t="s">
-        <v>41</v>
+      <c r="D123" s="230" t="s">
+        <v>42</v>
       </c>
       <c r="E123" s="74" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F123" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G123" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H123" s="16" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I123" s="16" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J123" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K123" s="12"/>
       <c r="L123" s="12"/>
     </row>
     <row r="124" spans="1:152" ht="28.5" customHeight="1">
       <c r="A124" s="2"/>
-      <c r="D124" s="237"/>
+      <c r="D124" s="231"/>
       <c r="E124" s="84" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F124" s="148" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G124" s="148" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H124" s="149" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I124" s="149" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="J124" s="149" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K124" s="12"/>
       <c r="L124" s="12"/>
     </row>
     <row r="125" spans="1:152" s="112" customFormat="1" ht="28.5" customHeight="1">
       <c r="A125" s="215"/>
-      <c r="D125" s="237"/>
+      <c r="D125" s="231"/>
       <c r="E125" s="186" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F125" s="187" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G125" s="199" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H125" s="159" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I125" s="160" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J125" s="160" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K125" s="187"/>
       <c r="L125" s="187"/>
@@ -15236,46 +15240,46 @@
     </row>
     <row r="126" spans="1:152">
       <c r="A126" s="2"/>
-      <c r="D126" s="237"/>
+      <c r="D126" s="231"/>
       <c r="E126" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F126" s="42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G126" s="42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H126" s="43" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I126" s="42" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="J126" s="43" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K126" s="42"/>
       <c r="L126" s="42"/>
     </row>
     <row r="127" spans="1:152" s="112" customFormat="1" ht="30">
       <c r="A127" s="2"/>
-      <c r="D127" s="237"/>
+      <c r="D127" s="231"/>
       <c r="E127" s="75"/>
       <c r="F127" s="109" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G127" s="109" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H127" s="110" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I127" s="110" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="J127" s="110" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K127" s="109"/>
       <c r="L127" s="109"/>
@@ -15422,85 +15426,85 @@
     </row>
     <row r="128" spans="1:152">
       <c r="A128" s="2"/>
-      <c r="D128" s="237"/>
+      <c r="D128" s="231"/>
       <c r="E128" s="34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F128" s="44" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G128" s="44" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H128" s="45" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="I128" s="45" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="J128" s="44" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K128" s="44"/>
       <c r="L128" s="44"/>
     </row>
     <row r="129" spans="1:152">
       <c r="A129" s="2"/>
-      <c r="D129" s="237"/>
+      <c r="D129" s="231"/>
       <c r="E129" s="34"/>
       <c r="F129" s="20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G129" s="20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H129" s="21" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I129" s="21" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J129" s="53" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K129" s="20"/>
       <c r="L129" s="20"/>
     </row>
     <row r="130" spans="1:152">
       <c r="A130" s="2"/>
-      <c r="D130" s="237"/>
+      <c r="D130" s="231"/>
       <c r="E130" s="34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F130" s="20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G130" s="20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H130" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="I130" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="I130" s="20" t="s">
-        <v>82</v>
-      </c>
       <c r="J130" s="20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K130" s="20"/>
       <c r="L130" s="20"/>
     </row>
     <row r="131" spans="1:152">
       <c r="A131" s="2"/>
-      <c r="D131" s="237"/>
+      <c r="D131" s="231"/>
       <c r="E131" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F131" s="20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G131" s="20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H131" s="22">
         <v>1</v>
@@ -15509,31 +15513,31 @@
         <v>1</v>
       </c>
       <c r="J131" s="54" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K131" s="20"/>
       <c r="L131" s="20"/>
     </row>
     <row r="132" spans="1:152">
       <c r="A132" s="2"/>
-      <c r="D132" s="237"/>
+      <c r="D132" s="231"/>
       <c r="E132" s="87" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F132" s="29" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G132" s="29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H132" s="55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I132" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="J132" s="29" t="s">
         <v>90</v>
-      </c>
-      <c r="J132" s="29" t="s">
-        <v>89</v>
       </c>
       <c r="K132" s="29"/>
       <c r="L132" s="29"/>
@@ -15542,15 +15546,15 @@
       <c r="A133" s="2"/>
       <c r="B133"/>
       <c r="C133"/>
-      <c r="D133" s="237"/>
+      <c r="D133" s="231"/>
       <c r="E133" s="189" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F133" s="190" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G133" s="190" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H133" s="174"/>
       <c r="I133" s="175"/>
@@ -15560,22 +15564,22 @@
     </row>
     <row r="134" spans="1:152">
       <c r="A134" s="2"/>
-      <c r="D134" s="238"/>
+      <c r="D134" s="232"/>
       <c r="E134" s="89"/>
       <c r="F134" s="90" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G134" s="35" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H134" s="91" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I134" s="91" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J134" s="91" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K134" s="35"/>
       <c r="L134" s="35"/>
@@ -15583,97 +15587,97 @@
     <row r="135" spans="1:152">
       <c r="A135" s="2"/>
       <c r="D135" s="88" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E135" s="80" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F135" s="57" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G135" s="57" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H135" s="58" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="I135" s="58" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="J135" s="58" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K135" s="59"/>
       <c r="L135" s="59"/>
     </row>
     <row r="136" spans="1:152">
       <c r="A136" s="2"/>
-      <c r="D136" s="242" t="s">
-        <v>101</v>
+      <c r="D136" s="236" t="s">
+        <v>102</v>
       </c>
       <c r="E136" s="76"/>
       <c r="F136" s="23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G136" s="23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H136" s="24" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="I136" s="24" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="J136" s="24" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K136" s="20"/>
       <c r="L136" s="20"/>
     </row>
     <row r="137" spans="1:152">
       <c r="A137" s="2"/>
-      <c r="D137" s="243"/>
+      <c r="D137" s="237"/>
       <c r="E137" s="34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F137" s="20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G137" s="20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H137" s="21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I137" s="21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J137" s="21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K137" s="20"/>
       <c r="L137" s="20"/>
     </row>
     <row r="138" spans="1:152" s="69" customFormat="1">
       <c r="A138" s="2"/>
-      <c r="D138" s="243"/>
+      <c r="D138" s="237"/>
       <c r="E138" s="87" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F138" s="68" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G138" s="20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H138" s="68" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="I138" s="68" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="J138" s="68" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K138" s="68"/>
       <c r="L138" s="68"/>
@@ -15820,107 +15824,107 @@
     </row>
     <row r="139" spans="1:152">
       <c r="A139" s="2"/>
-      <c r="D139" s="243"/>
+      <c r="D139" s="237"/>
       <c r="E139" s="34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F139" s="20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G139" s="20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H139" s="21" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I139" s="20" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J139" s="20" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K139" s="20"/>
       <c r="L139" s="20"/>
     </row>
     <row r="140" spans="1:152">
       <c r="A140" s="2"/>
-      <c r="D140" s="243"/>
+      <c r="D140" s="237"/>
       <c r="E140" s="34"/>
       <c r="F140" s="20" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G140" s="20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H140" s="21" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I140" s="20" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="J140" s="20" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K140" s="20"/>
       <c r="L140" s="20"/>
     </row>
     <row r="141" spans="1:152">
       <c r="A141" s="2"/>
-      <c r="D141" s="243"/>
+      <c r="D141" s="237"/>
       <c r="E141" s="34"/>
       <c r="F141" s="20" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G141" s="20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H141" s="21" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I141" s="20" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="J141" s="20" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K141" s="20"/>
       <c r="L141" s="20"/>
     </row>
     <row r="142" spans="1:152">
       <c r="A142" s="2"/>
-      <c r="D142" s="243"/>
+      <c r="D142" s="237"/>
       <c r="E142" s="87" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F142" s="29" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G142" s="20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H142" s="55" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I142" s="29" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="J142" s="29" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K142" s="29"/>
       <c r="L142" s="29"/>
     </row>
     <row r="143" spans="1:152">
       <c r="A143" s="2"/>
-      <c r="D143" s="242" t="s">
-        <v>133</v>
+      <c r="D143" s="236" t="s">
+        <v>134</v>
       </c>
       <c r="E143" s="78"/>
       <c r="F143" s="60" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G143" s="23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H143" s="61"/>
       <c r="I143" s="61"/>
@@ -15930,172 +15934,172 @@
     </row>
     <row r="144" spans="1:152">
       <c r="A144" s="2"/>
-      <c r="D144" s="243"/>
+      <c r="D144" s="237"/>
       <c r="E144" s="34"/>
       <c r="F144" s="20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G144" s="20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H144" s="21"/>
       <c r="I144" s="20"/>
       <c r="J144" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K144" s="20"/>
       <c r="L144" s="64"/>
     </row>
     <row r="145" spans="1:152">
       <c r="A145" s="2"/>
-      <c r="D145" s="243"/>
+      <c r="D145" s="237"/>
       <c r="E145" s="34"/>
       <c r="F145" s="20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G145" s="20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H145" s="21"/>
       <c r="I145" s="169"/>
       <c r="J145" s="68" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K145" s="20"/>
       <c r="L145" s="64"/>
     </row>
     <row r="146" spans="1:152">
       <c r="A146" s="2"/>
-      <c r="D146" s="243"/>
+      <c r="D146" s="237"/>
       <c r="E146" s="34"/>
       <c r="F146" s="20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G146" s="20" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H146" s="21"/>
       <c r="I146" s="20"/>
       <c r="J146" s="20" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K146" s="20"/>
       <c r="L146" s="64"/>
     </row>
     <row r="147" spans="1:152">
       <c r="A147" s="2"/>
-      <c r="D147" s="243"/>
+      <c r="D147" s="237"/>
       <c r="E147" s="34"/>
       <c r="F147" s="20" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G147" s="20" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H147" s="21"/>
       <c r="I147" s="20"/>
       <c r="J147" s="20" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K147" s="20"/>
       <c r="L147" s="64"/>
     </row>
     <row r="148" spans="1:152">
       <c r="A148" s="2"/>
-      <c r="D148" s="243"/>
+      <c r="D148" s="237"/>
       <c r="E148" s="34"/>
       <c r="F148" s="20" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G148" s="20" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H148" s="21"/>
       <c r="I148" s="20"/>
       <c r="J148" s="20" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K148" s="20"/>
       <c r="L148" s="64"/>
     </row>
     <row r="149" spans="1:152">
       <c r="A149" s="2"/>
-      <c r="D149" s="244"/>
+      <c r="D149" s="238"/>
       <c r="E149" s="79"/>
       <c r="F149" s="65" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G149" s="20" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H149" s="66"/>
       <c r="I149" s="65"/>
       <c r="J149" s="65" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K149" s="65"/>
       <c r="L149" s="67"/>
     </row>
     <row r="150" spans="1:152">
       <c r="A150" s="2"/>
-      <c r="D150" s="236" t="s">
-        <v>141</v>
+      <c r="D150" s="230" t="s">
+        <v>142</v>
       </c>
       <c r="E150" s="80"/>
       <c r="F150" s="56" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G150" s="57" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H150" s="58" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="I150" s="58" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="J150" s="58" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K150" s="59"/>
       <c r="L150" s="59"/>
     </row>
     <row r="151" spans="1:152">
       <c r="A151" s="2"/>
-      <c r="D151" s="237"/>
+      <c r="D151" s="231"/>
       <c r="E151" s="147" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F151" s="148" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G151" s="148" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H151" s="149" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I151" s="149" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J151" s="149" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K151" s="150"/>
       <c r="L151" s="150"/>
     </row>
     <row r="152" spans="1:152" s="38" customFormat="1">
       <c r="A152" s="2"/>
-      <c r="D152" s="239"/>
+      <c r="D152" s="233"/>
       <c r="E152" s="152"/>
       <c r="F152" s="153" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G152" s="20" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H152" s="154" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I152" s="154"/>
       <c r="J152" s="154"/>
@@ -16244,63 +16248,63 @@
     </row>
     <row r="153" spans="1:152">
       <c r="A153" s="2"/>
-      <c r="D153" s="237"/>
+      <c r="D153" s="231"/>
       <c r="E153" s="151" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F153" s="30" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G153" s="30" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H153" s="31" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="I153" s="31" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="J153" s="31" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K153" s="27"/>
       <c r="L153" s="27"/>
     </row>
     <row r="154" spans="1:152">
       <c r="A154" s="2"/>
-      <c r="D154" s="237"/>
+      <c r="D154" s="231"/>
       <c r="E154" s="34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F154" s="20" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G154" s="20" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H154" s="21" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="I154" s="20" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="J154" s="20" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K154" s="20"/>
       <c r="L154" s="20"/>
     </row>
     <row r="155" spans="1:152">
       <c r="A155" s="2"/>
-      <c r="D155" s="237"/>
+      <c r="D155" s="231"/>
       <c r="E155" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F155" s="20" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G155" s="20" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H155" s="22">
         <v>78586</v>
@@ -16316,15 +16320,15 @@
     </row>
     <row r="156" spans="1:152">
       <c r="A156" s="2"/>
-      <c r="D156" s="237"/>
+      <c r="D156" s="231"/>
       <c r="E156" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F156" s="20" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G156" s="20" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H156" s="54">
         <v>4</v>
@@ -16338,15 +16342,15 @@
     </row>
     <row r="157" spans="1:152">
       <c r="A157" s="2"/>
-      <c r="D157" s="237"/>
+      <c r="D157" s="231"/>
       <c r="E157" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F157" s="20" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G157" s="20" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H157" s="20"/>
       <c r="J157" s="20"/>
@@ -16355,21 +16359,21 @@
     </row>
     <row r="158" spans="1:152">
       <c r="A158" s="2"/>
-      <c r="D158" s="237"/>
+      <c r="D158" s="231"/>
       <c r="E158" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F158" s="20" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G158" s="20" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H158" s="20" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I158" s="20" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="J158" s="20"/>
       <c r="K158" s="20"/>
@@ -16377,15 +16381,15 @@
     </row>
     <row r="159" spans="1:152">
       <c r="A159" s="2"/>
-      <c r="D159" s="237"/>
+      <c r="D159" s="231"/>
       <c r="E159" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F159" s="20" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G159" s="20" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H159" s="20"/>
       <c r="I159" s="54"/>
@@ -16395,18 +16399,18 @@
     </row>
     <row r="160" spans="1:152">
       <c r="A160" s="2"/>
-      <c r="D160" s="237"/>
+      <c r="D160" s="231"/>
       <c r="E160" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F160" s="20" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G160" s="20" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H160" s="20" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I160" s="20"/>
       <c r="J160" s="20"/>
@@ -16415,18 +16419,18 @@
     </row>
     <row r="161" spans="1:152">
       <c r="A161" s="2"/>
-      <c r="D161" s="237"/>
+      <c r="D161" s="231"/>
       <c r="E161" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F161" s="20" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G161" s="20" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H161" s="20" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="I161" s="20"/>
       <c r="J161" s="20"/>
@@ -16435,19 +16439,19 @@
     </row>
     <row r="162" spans="1:152">
       <c r="A162" s="2"/>
-      <c r="D162" s="237"/>
+      <c r="D162" s="231"/>
       <c r="E162" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F162" s="20" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G162" s="20" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H162" s="20"/>
       <c r="I162" s="20" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J162" s="20"/>
       <c r="K162" s="20"/>
@@ -16455,18 +16459,18 @@
     </row>
     <row r="163" spans="1:152">
       <c r="A163" s="2"/>
-      <c r="D163" s="237"/>
+      <c r="D163" s="231"/>
       <c r="E163" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F163" s="20" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G163" s="20" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H163" s="20" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="I163" s="20"/>
       <c r="J163" s="20"/>
@@ -16475,15 +16479,15 @@
     </row>
     <row r="164" spans="1:152">
       <c r="A164" s="2"/>
-      <c r="D164" s="237"/>
+      <c r="D164" s="231"/>
       <c r="E164" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F164" s="29" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G164" s="20" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H164" s="164">
         <v>156789456</v>
@@ -16496,19 +16500,19 @@
     </row>
     <row r="165" spans="1:152" s="38" customFormat="1">
       <c r="A165" s="2"/>
-      <c r="D165" s="237"/>
+      <c r="D165" s="231"/>
       <c r="E165" s="81" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F165" s="41" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G165" s="20" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H165" s="41"/>
       <c r="I165" s="41" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="J165" s="39"/>
       <c r="K165" s="40"/>
@@ -16656,79 +16660,79 @@
     </row>
     <row r="166" spans="1:152">
       <c r="A166" s="2"/>
-      <c r="D166" s="237"/>
+      <c r="D166" s="231"/>
       <c r="E166" s="82"/>
       <c r="F166" s="47" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G166" s="47" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H166" s="47" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I166" s="47" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J166" s="47" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K166" s="44"/>
       <c r="L166" s="44"/>
     </row>
     <row r="167" spans="1:152">
       <c r="A167" s="2"/>
-      <c r="D167" s="237"/>
+      <c r="D167" s="231"/>
       <c r="E167" s="82"/>
       <c r="F167" s="48" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G167" s="47" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H167" s="48" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I167" s="48" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="J167" s="48" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K167" s="44"/>
       <c r="L167" s="44"/>
     </row>
     <row r="168" spans="1:152">
       <c r="A168" s="2"/>
-      <c r="D168" s="237"/>
+      <c r="D168" s="231"/>
       <c r="E168" s="82"/>
       <c r="F168" s="48" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G168" s="47" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H168" s="48" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I168" s="204" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="J168" s="204" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K168" s="44"/>
       <c r="L168" s="44"/>
     </row>
     <row r="169" spans="1:152">
       <c r="A169" s="2"/>
-      <c r="D169" s="237"/>
+      <c r="D169" s="231"/>
       <c r="E169" s="34"/>
       <c r="F169" s="27" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G169" s="27" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H169" s="27"/>
       <c r="I169" s="20"/>
@@ -16738,13 +16742,13 @@
     </row>
     <row r="170" spans="1:152">
       <c r="A170" s="2"/>
-      <c r="D170" s="237"/>
+      <c r="D170" s="231"/>
       <c r="E170" s="34"/>
       <c r="F170" s="20" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G170" s="27" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H170" s="20"/>
       <c r="I170" s="20"/>
@@ -16754,13 +16758,13 @@
     </row>
     <row r="171" spans="1:152">
       <c r="A171" s="2"/>
-      <c r="D171" s="237"/>
+      <c r="D171" s="231"/>
       <c r="E171" s="34"/>
       <c r="F171" s="29" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G171" s="27" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H171" s="29"/>
       <c r="I171" s="20"/>
@@ -16770,90 +16774,90 @@
     </row>
     <row r="172" spans="1:152">
       <c r="A172" s="2"/>
-      <c r="D172" s="238"/>
+      <c r="D172" s="232"/>
       <c r="E172" s="82"/>
       <c r="F172" s="48" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G172" s="47" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H172" s="50" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I172" s="50" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J172" s="50" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K172" s="44"/>
       <c r="L172" s="44"/>
     </row>
     <row r="173" spans="1:152">
       <c r="A173" s="2"/>
-      <c r="D173" s="240" t="s">
-        <v>211</v>
+      <c r="D173" s="234" t="s">
+        <v>212</v>
       </c>
       <c r="E173" s="82"/>
       <c r="F173" s="49" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G173" s="47" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H173" s="50" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I173" s="50" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="J173" s="50" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K173" s="44"/>
       <c r="L173" s="44"/>
     </row>
     <row r="174" spans="1:152">
       <c r="A174" s="2"/>
-      <c r="D174" s="240"/>
+      <c r="D174" s="234"/>
       <c r="E174" s="82"/>
       <c r="F174" s="51" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G174" s="47" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H174" s="52" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I174" s="52" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J174" s="52" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K174" s="44"/>
       <c r="L174" s="44"/>
     </row>
     <row r="175" spans="1:152">
       <c r="A175" s="2"/>
-      <c r="D175" s="240"/>
+      <c r="D175" s="234"/>
       <c r="E175" s="81"/>
       <c r="F175" s="51" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G175" s="47" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H175" s="52" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I175" s="52" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J175" s="52" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K175" s="44"/>
       <c r="L175" s="44"/>
@@ -16862,15 +16866,15 @@
       <c r="A176" s="2"/>
       <c r="B176"/>
       <c r="C176"/>
-      <c r="D176" s="240"/>
+      <c r="D176" s="234"/>
       <c r="E176" s="192" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F176" s="174" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G176" s="174" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H176" s="174"/>
       <c r="I176" s="175"/>
@@ -16880,48 +16884,48 @@
     </row>
     <row r="177" spans="1:152">
       <c r="A177" s="2"/>
-      <c r="D177" s="240"/>
+      <c r="D177" s="234"/>
       <c r="E177" s="81" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F177" s="35" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G177" s="37" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H177" s="36" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I177" s="36" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J177" s="36" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K177" s="20"/>
       <c r="L177" s="20"/>
     </row>
     <row r="178" spans="1:152" s="69" customFormat="1">
       <c r="A178" s="2"/>
-      <c r="D178" s="240"/>
+      <c r="D178" s="234"/>
       <c r="E178" s="83" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F178" s="71" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G178" s="37" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H178" s="140">
         <v>607080928</v>
       </c>
       <c r="I178" s="140" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="J178" s="140" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K178" s="68"/>
       <c r="L178" s="68"/>
@@ -17068,18 +17072,18 @@
     </row>
     <row r="179" spans="1:152">
       <c r="A179" s="2"/>
-      <c r="D179" s="240"/>
+      <c r="D179" s="234"/>
       <c r="E179" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F179" s="27" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G179" s="37" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H179" s="28" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I179" s="36"/>
       <c r="J179" s="36"/>
@@ -17088,15 +17092,15 @@
     </row>
     <row r="180" spans="1:152" s="69" customFormat="1">
       <c r="A180" s="2"/>
-      <c r="D180" s="240"/>
+      <c r="D180" s="234"/>
       <c r="E180" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F180" s="68" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G180" s="37" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H180" s="164">
         <v>156789456</v>
@@ -17248,16 +17252,16 @@
     </row>
     <row r="181" spans="1:152" s="69" customFormat="1">
       <c r="A181" s="2"/>
-      <c r="D181" s="240"/>
+      <c r="D181" s="234"/>
       <c r="E181" s="85"/>
       <c r="F181" s="95" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G181" s="37" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H181" s="96" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I181" s="72"/>
       <c r="J181" s="72"/>
@@ -17406,37 +17410,37 @@
     </row>
     <row r="182" spans="1:152">
       <c r="A182" s="2"/>
-      <c r="D182" s="240"/>
+      <c r="D182" s="234"/>
       <c r="E182" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F182" s="29" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G182" s="37" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H182" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="I182" s="168" t="s">
         <v>238</v>
       </c>
-      <c r="I182" s="168" t="s">
-        <v>237</v>
-      </c>
       <c r="J182" s="168" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K182" s="20"/>
       <c r="L182" s="20"/>
     </row>
     <row r="183" spans="1:152">
       <c r="A183" s="2"/>
-      <c r="D183" s="240"/>
+      <c r="D183" s="234"/>
       <c r="E183" s="97"/>
       <c r="F183" s="35" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G183" s="37" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H183" s="170"/>
       <c r="I183" s="171"/>
@@ -17446,149 +17450,149 @@
     </row>
     <row r="184" spans="1:152">
       <c r="A184" s="2"/>
-      <c r="D184" s="240"/>
+      <c r="D184" s="234"/>
       <c r="E184" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F184" s="98" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G184" s="37" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H184" s="36" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I184" s="35" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="J184" s="35" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K184" s="32"/>
       <c r="L184" s="20"/>
     </row>
     <row r="185" spans="1:152">
       <c r="A185" s="2"/>
-      <c r="D185" s="240"/>
+      <c r="D185" s="234"/>
       <c r="E185" s="82" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F185" s="23" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G185" s="37" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H185" s="165" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="I185" s="165" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="J185" s="27" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K185" s="20"/>
       <c r="L185" s="20"/>
     </row>
     <row r="186" spans="1:152">
       <c r="A186" s="2"/>
-      <c r="D186" s="240"/>
+      <c r="D186" s="234"/>
       <c r="E186" s="34"/>
       <c r="F186" s="20" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G186" s="37" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H186" s="165" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="I186" s="165" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="J186" s="20" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K186" s="20"/>
       <c r="L186" s="20"/>
     </row>
     <row r="187" spans="1:152">
       <c r="A187" s="2"/>
-      <c r="D187" s="240"/>
+      <c r="D187" s="234"/>
       <c r="E187" s="77"/>
       <c r="F187" s="29" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G187" s="123" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H187" s="165" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="I187" s="165" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="J187" s="29" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K187" s="29"/>
       <c r="L187" s="29"/>
     </row>
     <row r="188" spans="1:152">
       <c r="A188" s="2"/>
-      <c r="D188" s="240"/>
+      <c r="D188" s="234"/>
       <c r="E188" s="129"/>
       <c r="F188" s="124" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G188" s="124" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H188" s="126" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I188" s="126" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J188" s="126" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K188" s="124"/>
       <c r="L188" s="124"/>
     </row>
     <row r="189" spans="1:152">
       <c r="A189" s="2"/>
-      <c r="D189" s="240"/>
+      <c r="D189" s="234"/>
       <c r="E189" s="129"/>
       <c r="F189" s="124" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G189" s="124" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H189" s="126" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I189" s="126" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J189" s="126" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K189" s="124"/>
       <c r="L189" s="124"/>
     </row>
     <row r="190" spans="1:152">
       <c r="A190" s="2"/>
-      <c r="D190" s="240"/>
+      <c r="D190" s="234"/>
       <c r="E190" s="129"/>
       <c r="F190" s="124" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G190" s="124" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H190" s="156">
         <v>102030504</v>
@@ -17604,46 +17608,46 @@
     </row>
     <row r="191" spans="1:152">
       <c r="A191" s="2"/>
-      <c r="D191" s="240"/>
+      <c r="D191" s="234"/>
       <c r="E191" s="128"/>
       <c r="F191" s="127" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G191" s="124" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H191" s="126" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I191" s="126" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J191" s="126" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K191" s="124"/>
       <c r="L191" s="124"/>
     </row>
     <row r="192" spans="1:152">
       <c r="A192" s="2"/>
-      <c r="D192" s="240"/>
+      <c r="D192" s="234"/>
       <c r="E192" s="82" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F192" s="124" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G192" s="124" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H192" s="126" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I192" s="126" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J192" s="126" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K192" s="124"/>
       <c r="L192" s="124"/>
@@ -17652,16 +17656,16 @@
       <c r="A193" s="2"/>
       <c r="B193"/>
       <c r="C193"/>
-      <c r="D193" s="240"/>
+      <c r="D193" s="234"/>
       <c r="E193" s="212"/>
       <c r="F193" s="213" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G193" s="44" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H193" s="214" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I193" s="214"/>
       <c r="J193" s="214"/>
@@ -17810,63 +17814,63 @@
     </row>
     <row r="194" spans="1:152">
       <c r="A194" s="2"/>
-      <c r="D194" s="240"/>
+      <c r="D194" s="234"/>
       <c r="E194" s="76" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F194" s="100" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G194" s="100" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H194" s="101" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="I194" s="101" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="J194" s="101" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K194" s="42"/>
       <c r="L194" s="42"/>
     </row>
     <row r="195" spans="1:152">
       <c r="A195" s="2"/>
-      <c r="D195" s="240"/>
+      <c r="D195" s="234"/>
       <c r="E195" s="34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F195" s="44" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G195" s="44" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H195" s="45" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="I195" s="44" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="J195" s="44" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K195" s="44"/>
       <c r="L195" s="44"/>
     </row>
     <row r="196" spans="1:152">
       <c r="A196" s="2"/>
-      <c r="D196" s="240"/>
+      <c r="D196" s="234"/>
       <c r="E196" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F196" s="44" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G196" s="44" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H196" s="102">
         <v>78586</v>
@@ -17882,15 +17886,15 @@
     </row>
     <row r="197" spans="1:152">
       <c r="A197" s="2"/>
-      <c r="D197" s="240"/>
+      <c r="D197" s="234"/>
       <c r="E197" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F197" s="44" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G197" s="44" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H197" s="105">
         <v>4</v>
@@ -17904,15 +17908,15 @@
     </row>
     <row r="198" spans="1:152">
       <c r="A198" s="2"/>
-      <c r="D198" s="240"/>
+      <c r="D198" s="234"/>
       <c r="E198" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F198" s="44" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G198" s="44" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H198" s="44"/>
       <c r="I198" s="104"/>
@@ -17922,21 +17926,21 @@
     </row>
     <row r="199" spans="1:152">
       <c r="A199" s="2"/>
-      <c r="D199" s="240"/>
+      <c r="D199" s="234"/>
       <c r="E199" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F199" s="44" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G199" s="44" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H199" s="44" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I199" s="44" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="J199" s="44"/>
       <c r="K199" s="44"/>
@@ -17944,15 +17948,15 @@
     </row>
     <row r="200" spans="1:152">
       <c r="A200" s="2"/>
-      <c r="D200" s="240"/>
+      <c r="D200" s="234"/>
       <c r="E200" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F200" s="44" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G200" s="44" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H200" s="44"/>
       <c r="I200" s="105"/>
@@ -17962,18 +17966,18 @@
     </row>
     <row r="201" spans="1:152">
       <c r="A201" s="2"/>
-      <c r="D201" s="240"/>
+      <c r="D201" s="234"/>
       <c r="E201" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F201" s="44" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G201" s="44" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H201" s="44" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="I201" s="44"/>
       <c r="J201" s="44"/>
@@ -17982,18 +17986,18 @@
     </row>
     <row r="202" spans="1:152">
       <c r="A202" s="2"/>
-      <c r="D202" s="240"/>
+      <c r="D202" s="234"/>
       <c r="E202" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F202" s="44" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G202" s="44" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H202" s="44" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="I202" s="44"/>
       <c r="J202" s="44"/>
@@ -18002,19 +18006,19 @@
     </row>
     <row r="203" spans="1:152">
       <c r="A203" s="2"/>
-      <c r="D203" s="240"/>
+      <c r="D203" s="234"/>
       <c r="E203" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F203" s="44" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G203" s="44" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H203" s="44"/>
       <c r="I203" s="44" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J203" s="44"/>
       <c r="K203" s="44"/>
@@ -18022,18 +18026,18 @@
     </row>
     <row r="204" spans="1:152">
       <c r="A204" s="2"/>
-      <c r="D204" s="240"/>
+      <c r="D204" s="234"/>
       <c r="E204" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F204" s="44" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G204" s="44" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H204" s="44" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="I204" s="44"/>
       <c r="J204" s="44"/>
@@ -18042,15 +18046,15 @@
     </row>
     <row r="205" spans="1:152">
       <c r="A205" s="2"/>
-      <c r="D205" s="240"/>
+      <c r="D205" s="234"/>
       <c r="E205" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F205" s="44" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G205" s="44" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H205" s="166">
         <v>156789456</v>
@@ -18062,19 +18066,19 @@
     </row>
     <row r="206" spans="1:152" s="38" customFormat="1">
       <c r="A206" s="2"/>
-      <c r="D206" s="240"/>
+      <c r="D206" s="234"/>
       <c r="E206" s="81" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F206" s="44" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G206" s="44" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H206" s="44"/>
       <c r="I206" s="44" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="J206" s="173"/>
       <c r="K206" s="44"/>
@@ -18222,79 +18226,79 @@
     </row>
     <row r="207" spans="1:152">
       <c r="A207" s="2"/>
-      <c r="D207" s="240"/>
+      <c r="D207" s="234"/>
       <c r="E207" s="82"/>
       <c r="F207" s="47" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G207" s="47" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H207" s="47" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I207" s="48" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J207" s="47" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K207" s="44"/>
       <c r="L207" s="44"/>
     </row>
     <row r="208" spans="1:152">
       <c r="A208" s="2"/>
-      <c r="D208" s="240"/>
+      <c r="D208" s="234"/>
       <c r="E208" s="82"/>
       <c r="F208" s="48" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G208" s="47" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H208" s="48" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I208" s="48" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="J208" s="48" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K208" s="44"/>
       <c r="L208" s="44"/>
     </row>
     <row r="209" spans="1:152">
       <c r="A209" s="2"/>
-      <c r="D209" s="240"/>
+      <c r="D209" s="234"/>
       <c r="E209" s="82"/>
       <c r="F209" s="48" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G209" s="47" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H209" s="48" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I209" s="204" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="J209" s="204" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K209" s="44"/>
       <c r="L209" s="44"/>
     </row>
     <row r="210" spans="1:152" s="112" customFormat="1">
       <c r="A210" s="2"/>
-      <c r="D210" s="240"/>
+      <c r="D210" s="234"/>
       <c r="E210" s="75"/>
       <c r="F210" s="113" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G210" s="113" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H210" s="113"/>
       <c r="I210" s="114"/>
@@ -18444,13 +18448,13 @@
     </row>
     <row r="211" spans="1:152" s="112" customFormat="1">
       <c r="A211" s="2"/>
-      <c r="D211" s="240"/>
+      <c r="D211" s="234"/>
       <c r="E211" s="75"/>
       <c r="F211" s="114" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G211" s="113" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H211" s="114"/>
       <c r="I211" s="114"/>
@@ -18600,13 +18604,13 @@
     </row>
     <row r="212" spans="1:152" s="112" customFormat="1">
       <c r="A212" s="2"/>
-      <c r="D212" s="240"/>
+      <c r="D212" s="234"/>
       <c r="E212" s="130"/>
       <c r="F212" s="115" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G212" s="131" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H212" s="115"/>
       <c r="I212" s="115"/>
@@ -18756,22 +18760,22 @@
     </row>
     <row r="213" spans="1:152" s="112" customFormat="1">
       <c r="A213" s="2"/>
-      <c r="D213" s="241"/>
+      <c r="D213" s="235"/>
       <c r="E213" s="136"/>
       <c r="F213" s="133" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G213" s="125" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H213" s="134" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I213" s="133" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J213" s="50" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K213" s="133"/>
       <c r="L213" s="135"/>
@@ -18918,24 +18922,24 @@
     </row>
     <row r="214" spans="1:152" s="112" customFormat="1">
       <c r="A214" s="2"/>
-      <c r="D214" s="241"/>
+      <c r="D214" s="235"/>
       <c r="E214" s="136" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F214" s="133" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G214" s="133" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H214" s="134" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I214" s="134" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J214" s="134" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K214" s="133"/>
       <c r="L214" s="135"/>
@@ -19082,24 +19086,24 @@
     </row>
     <row r="215" spans="1:152" s="112" customFormat="1" ht="28.5" customHeight="1">
       <c r="A215" s="2"/>
-      <c r="D215" s="241"/>
+      <c r="D215" s="235"/>
       <c r="E215" s="137" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F215" s="133" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G215" s="133" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H215" s="134" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I215" s="134" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="J215" s="134" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K215" s="133"/>
       <c r="L215" s="135"/>
@@ -19246,24 +19250,24 @@
     </row>
     <row r="216" spans="1:152" s="112" customFormat="1" ht="28.5" customHeight="1">
       <c r="A216" s="2"/>
-      <c r="D216" s="241"/>
+      <c r="D216" s="235"/>
       <c r="E216" s="197" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F216" s="135" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G216" s="135" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H216" s="198" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I216" s="161" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J216" s="161" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K216" s="108"/>
       <c r="L216" s="108"/>
@@ -19410,24 +19414,24 @@
     </row>
     <row r="217" spans="1:152" s="112" customFormat="1">
       <c r="A217" s="2"/>
-      <c r="D217" s="240"/>
+      <c r="D217" s="234"/>
       <c r="E217" s="132" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F217" s="113" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G217" s="113" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H217" s="116" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I217" s="42" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="J217" s="43" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K217" s="113"/>
       <c r="L217" s="113"/>
@@ -19574,22 +19578,22 @@
     </row>
     <row r="218" spans="1:152" s="112" customFormat="1" ht="30">
       <c r="A218" s="2"/>
-      <c r="D218" s="240"/>
+      <c r="D218" s="234"/>
       <c r="E218" s="75"/>
       <c r="F218" s="114" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G218" s="113" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H218" s="117" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I218" s="117" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="J218" s="117" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K218" s="114"/>
       <c r="L218" s="114"/>
@@ -19736,24 +19740,24 @@
     </row>
     <row r="219" spans="1:152" s="112" customFormat="1">
       <c r="A219" s="2"/>
-      <c r="D219" s="240"/>
+      <c r="D219" s="234"/>
       <c r="E219" s="75" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F219" s="114" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G219" s="114" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H219" s="119" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="I219" s="45" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="J219" s="44" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K219" s="114"/>
       <c r="L219" s="114"/>
@@ -19900,22 +19904,22 @@
     </row>
     <row r="220" spans="1:152" s="112" customFormat="1">
       <c r="A220" s="2"/>
-      <c r="D220" s="240"/>
+      <c r="D220" s="234"/>
       <c r="E220" s="75"/>
       <c r="F220" s="114" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G220" s="114" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H220" s="119" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I220" s="119" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J220" s="119" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K220" s="114"/>
       <c r="L220" s="114"/>
@@ -20062,24 +20066,24 @@
     </row>
     <row r="221" spans="1:152" s="112" customFormat="1">
       <c r="A221" s="2"/>
-      <c r="D221" s="240"/>
+      <c r="D221" s="234"/>
       <c r="E221" s="75" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F221" s="114" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G221" s="114" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H221" s="119" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I221" s="119" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J221" s="119" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K221" s="114"/>
       <c r="L221" s="114"/>
@@ -20226,15 +20230,15 @@
     </row>
     <row r="222" spans="1:152" s="112" customFormat="1">
       <c r="A222" s="2"/>
-      <c r="D222" s="240"/>
+      <c r="D222" s="234"/>
       <c r="E222" s="86" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F222" s="114" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G222" s="114" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H222" s="117">
         <v>1</v>
@@ -20243,7 +20247,7 @@
         <v>1</v>
       </c>
       <c r="J222" s="117" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K222" s="114"/>
       <c r="L222" s="114"/>
@@ -20390,24 +20394,24 @@
     </row>
     <row r="223" spans="1:152" s="112" customFormat="1">
       <c r="A223" s="2"/>
-      <c r="D223" s="240"/>
+      <c r="D223" s="234"/>
       <c r="E223" s="120" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F223" s="115" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G223" s="115" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H223" s="121" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I223" s="121" t="s">
+        <v>91</v>
+      </c>
+      <c r="J223" s="121" t="s">
         <v>90</v>
-      </c>
-      <c r="J223" s="121" t="s">
-        <v>89</v>
       </c>
       <c r="K223" s="115"/>
       <c r="L223" s="115"/>
@@ -20554,15 +20558,15 @@
     </row>
     <row r="224" spans="1:152" s="194" customFormat="1" ht="30">
       <c r="A224" s="196"/>
-      <c r="D224" s="240"/>
+      <c r="D224" s="234"/>
       <c r="E224" s="195" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F224" s="122" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G224" s="122" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H224" s="122"/>
       <c r="I224" s="107"/>
@@ -20712,22 +20716,22 @@
     </row>
     <row r="225" spans="1:152" s="112" customFormat="1">
       <c r="A225" s="2"/>
-      <c r="D225" s="240"/>
+      <c r="D225" s="234"/>
       <c r="E225" s="143"/>
       <c r="F225" s="144" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G225" s="145" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H225" s="122" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I225" s="122" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J225" s="122" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K225" s="108"/>
       <c r="L225" s="108"/>
@@ -20874,22 +20878,22 @@
     </row>
     <row r="226" spans="1:152" s="138" customFormat="1">
       <c r="A226" s="2"/>
-      <c r="D226" s="241"/>
+      <c r="D226" s="235"/>
       <c r="E226" s="146"/>
       <c r="F226" s="124" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G226" s="133" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H226" s="141" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I226" s="141" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="J226" s="141" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K226" s="139"/>
       <c r="L226" s="139"/>
@@ -21036,22 +21040,22 @@
     </row>
     <row r="227" spans="1:152" s="138" customFormat="1">
       <c r="A227" s="2"/>
-      <c r="D227" s="241"/>
+      <c r="D227" s="235"/>
       <c r="E227" s="146"/>
       <c r="F227" s="124" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G227" s="133" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H227" s="142" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I227" s="142" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="J227" s="142" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="K227" s="139"/>
       <c r="L227" s="139"/>
@@ -21198,7 +21202,7 @@
     </row>
     <row r="228" spans="1:152" s="92" customFormat="1">
       <c r="A228" s="92" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E228" s="93"/>
       <c r="H228" s="94"/>
@@ -21716,28 +21720,27 @@
       <c r="A352" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="20">
+    <mergeCell ref="J2:O4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="D41:D63"/>
+    <mergeCell ref="D64:D118"/>
+    <mergeCell ref="D14:D25"/>
+    <mergeCell ref="D27:D33"/>
+    <mergeCell ref="D34:D40"/>
     <mergeCell ref="D173:D227"/>
     <mergeCell ref="D120:D122"/>
     <mergeCell ref="D123:D134"/>
     <mergeCell ref="D136:D142"/>
     <mergeCell ref="D143:D149"/>
     <mergeCell ref="D150:D172"/>
-    <mergeCell ref="D41:D63"/>
-    <mergeCell ref="D64:D118"/>
-    <mergeCell ref="D14:D25"/>
-    <mergeCell ref="D27:D33"/>
-    <mergeCell ref="D34:D40"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="J2:O4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <conditionalFormatting sqref="D27">
     <cfRule type="expression" dxfId="171" priority="439">
@@ -22332,67 +22335,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ModificateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <f8b6baa267c0456bbf6a8d18c49a130b xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </f8b6baa267c0456bbf6a8d18c49a130b>
-    <eef0f6fc4ed046399a9d01fd3a7d6a6a xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </eef0f6fc4ed046399a9d01fd3a7d6a6a>
-    <Référence_x0020_Bon_x0020_de_x0020_Commande xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <Référence_x0020_Documentaire xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <Chantier xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <p671c8df16a44846939d278d4958f62c xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </p671c8df16a44846939d278d4958f62c>
-    <Durée_x0020_d_x0027_Utilité_x0020_Administrative_x0020__x0028_DUA_x0029_ xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <Environnement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <b2804ef99be44b9e8166e80a6c2eb9f1 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </b2804ef99be44b9e8166e80a6c2eb9f1>
-    <_ExtendedDescription xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <mc4aa6e782e045f6bb87dab01c971b56 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </mc4aa6e782e045f6bb87dab01c971b56>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <m312bc62cb0243b6a873cbbf4dace6b2 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </m312bc62cb0243b6a873cbbf4dace6b2>
-    <b084a4cb34a444d7969136255594d2f3 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </b084a4cb34a444d7969136255594d2f3>
-    <CreateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <g30fb2d8061a4d40b63138f91c1a832e xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </g30fb2d8061a4d40b63138f91c1a832e>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <m9a76db3058146ae844db6599c9d7036 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </m9a76db3058146ae844db6599c9d7036>
-    <Ticket_x0020_Changement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <l0a6b4600f484920bbceae0813174244 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </l0a6b4600f484920bbceae0813174244>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document - Suivi de projet" ma:contentTypeID="0x010100333226B5D6902549BFE4A72F45A4400B0100E98F8C089710A74CA077FC6D601326A8" ma:contentTypeVersion="52" ma:contentTypeDescription="Type de contenu - Documentation de suivi de projet" ma:contentTypeScope="" ma:versionID="b3317a165cd10de70dc68851db9884d1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xmlns:ns3="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b8430278eece82d06f551ff77398a68" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -22806,8 +22748,69 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ModificateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <f8b6baa267c0456bbf6a8d18c49a130b xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </f8b6baa267c0456bbf6a8d18c49a130b>
+    <eef0f6fc4ed046399a9d01fd3a7d6a6a xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </eef0f6fc4ed046399a9d01fd3a7d6a6a>
+    <Référence_x0020_Bon_x0020_de_x0020_Commande xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <Référence_x0020_Documentaire xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <Chantier xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <p671c8df16a44846939d278d4958f62c xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </p671c8df16a44846939d278d4958f62c>
+    <Durée_x0020_d_x0027_Utilité_x0020_Administrative_x0020__x0028_DUA_x0029_ xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <Environnement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <b2804ef99be44b9e8166e80a6c2eb9f1 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </b2804ef99be44b9e8166e80a6c2eb9f1>
+    <_ExtendedDescription xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <mc4aa6e782e045f6bb87dab01c971b56 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </mc4aa6e782e045f6bb87dab01c971b56>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <m312bc62cb0243b6a873cbbf4dace6b2 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </m312bc62cb0243b6a873cbbf4dace6b2>
+    <b084a4cb34a444d7969136255594d2f3 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </b084a4cb34a444d7969136255594d2f3>
+    <CreateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <g30fb2d8061a4d40b63138f91c1a832e xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </g30fb2d8061a4d40b63138f91c1a832e>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <m9a76db3058146ae844db6599c9d7036 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </m9a76db3058146ae844db6599c9d7036>
+    <Ticket_x0020_Changement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <l0a6b4600f484920bbceae0813174244 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l0a6b4600f484920bbceae0813174244>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381C76DC-CEF1-461E-A76F-551B50E93033}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AEC75D3-A67D-4574-BB93-839AC9299105}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -22815,5 +22818,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AEC75D3-A67D-4574-BB93-839AC9299105}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381C76DC-CEF1-461E-A76F-551B50E93033}"/>
 </file>
--- a/csv_parser/test-cases-15-15.xlsx
+++ b/csv_parser/test-cases-15-15.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://esantegouv.sharepoint.com/sites/GED-Calypso/espace-projets/Espace Programme SISAMU/01 - Equipe projet/07 - Innovation et prospectif/12 - Hub Santé/13 - 15-15/04 - Pilotes 15-15/04 - JDD recette/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7103EE15-2A05-4A79-A236-98AD5305964D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CE541BF-9526-4E38-974F-7B617D7C786F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" xr2:uid="{8E95E427-60E8-4C01-A0F5-EF6B52DBDF48}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="401">
   <si>
     <t>Périmètre</t>
   </si>
@@ -135,901 +135,904 @@
     <t>Pas de test</t>
   </si>
   <si>
+    <t>Déroulé métier</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Donnée</t>
+  </si>
+  <si>
+    <t>path JSON</t>
+  </si>
+  <si>
+    <t>JDD 1</t>
+  </si>
+  <si>
+    <t>JDD 2</t>
+  </si>
+  <si>
+    <t>JDD 3</t>
+  </si>
+  <si>
+    <t>JDD 4</t>
+  </si>
+  <si>
+    <t>JDD 5</t>
+  </si>
+  <si>
+    <t>Envoi</t>
+  </si>
+  <si>
+    <t>RS-EDA</t>
+  </si>
+  <si>
+    <t>Envoyer un message de partage de dossier pour le périmètre 15-15 sans demande de transfert; qui contient les valeurs obligatoires minimales attendues</t>
+  </si>
+  <si>
+    <t>Envoi d'un message RS-EDA</t>
+  </si>
+  <si>
+    <t>Création d'un dossier</t>
+  </si>
+  <si>
+    <t>N° de dossier</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.caseId</t>
+  </si>
+  <si>
+    <t>fr.health.samu770-DRFR157702400400055</t>
+  </si>
+  <si>
+    <t>fr.health.samu950-DRFR159502400400159</t>
+  </si>
+  <si>
+    <t>fr.health.samu009-DRFR150092400401259</t>
+  </si>
+  <si>
+    <t>Date heure de création du dossier</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.creation</t>
+  </si>
+  <si>
+    <t>S2024-01-18T15:15:00+01:00</t>
+  </si>
+  <si>
+    <t>Version du référentiel CISU</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.referenceVersion</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>Qualification du dossier</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Code Nature de fait</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.qualification.whatsHappen.code</t>
+  </si>
+  <si>
+    <t>C02.08.05</t>
+  </si>
+  <si>
+    <t>C02.08.02</t>
+  </si>
+  <si>
+    <t>C02.05.00</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Libellé Nature de fait</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.qualification.whatsHappen.label</t>
+  </si>
+  <si>
+    <t>Atteinte aux personnes ; Traumatisme / Accident ; Par objet tranchant ou perforant</t>
+  </si>
+  <si>
+    <t>Atteinte aux personnes ; Traumatisme / Accident ; Accident domestique</t>
+  </si>
+  <si>
+    <t>Atteinte aux personnes ; Pathologie / maladie</t>
+  </si>
+  <si>
+    <t>Commentaire Nature de fait</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.qualification.whatsHappen.freetext</t>
+  </si>
+  <si>
+    <t>Coupure grave causée par une scie circulaire au niveau de la main; saigne beaucoup. La victime est inconsciente (perte de connaissance).</t>
+  </si>
+  <si>
+    <t>Entorse de la cheville, avec possible fracture. Cheville gonflée et douloureuse. Marche impossible.</t>
+  </si>
+  <si>
+    <t>Confusion, étourdissements, s’exprime difficilement</t>
+  </si>
+  <si>
+    <t>Code Type de lieu</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.qualification.locationKind.code</t>
+  </si>
+  <si>
+    <t>L01.01.04</t>
+  </si>
+  <si>
+    <t>L01.02.10</t>
+  </si>
+  <si>
+    <t>L04.12.00</t>
+  </si>
+  <si>
+    <t>Libellé Type de lieu</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.qualification.locationKind.label</t>
+  </si>
+  <si>
+    <t>Domicile ; Maison particulière, pavillon ;  dépendance</t>
+  </si>
+  <si>
+    <t>Domicile ; Lieu d'habitation collectif ou foyer d'hébergement ;  escaliers</t>
+  </si>
+  <si>
+    <t>Lieu accueillant du public ; Hébergement touristique</t>
+  </si>
+  <si>
+    <t>Code Motif de recours médico-secouriste</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.qualification.healthMotive.code</t>
+  </si>
+  <si>
+    <t>M01.02</t>
+  </si>
+  <si>
+    <t>M02.07</t>
+  </si>
+  <si>
+    <t>M03.08</t>
+  </si>
+  <si>
+    <t>Libellé Motif de recours médico-secouriste</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.qualification.healthMotive.label</t>
+  </si>
+  <si>
+    <t>Détresse vitale; Altération de la conscience; Dont inconscient, coma</t>
+  </si>
+  <si>
+    <t>Traumatisme sérieux, plaie intermédiaire</t>
+  </si>
+  <si>
+    <t>Signes d’AVC</t>
+  </si>
+  <si>
+    <t>Priorité de régulation médicale</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.qualification.details.priority</t>
+  </si>
+  <si>
+    <t>P0</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>Nombre de patients-victimes</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.qualification.victims.count</t>
+  </si>
+  <si>
+    <t>Type du patient-victime principal</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.qualification.victims.mainvictim</t>
+  </si>
+  <si>
+    <t>ADULT</t>
+  </si>
+  <si>
+    <t>CHILD</t>
+  </si>
+  <si>
+    <t>SENIOR</t>
+  </si>
+  <si>
+    <t>Informations complémentaires sur les patients-victimes</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.qualification.victims.freetext</t>
+  </si>
+  <si>
+    <t>Attribution du dossier</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.qualification.details.attribution</t>
+  </si>
+  <si>
+    <t>MU</t>
+  </si>
+  <si>
+    <t>CRRA traitant</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.owner</t>
+  </si>
+  <si>
+    <t>fr.health.samu770</t>
+  </si>
+  <si>
+    <t>fr.health.samu950</t>
+  </si>
+  <si>
+    <t>fr.health.samu009</t>
+  </si>
+  <si>
+    <t>Patient / victime n°1</t>
+  </si>
+  <si>
+    <t>ID patient partagé</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.patient.[0].id</t>
+  </si>
+  <si>
+    <t>IDPT-2024-XYZ789</t>
+  </si>
+  <si>
+    <t>IDPT-2024-PAT009</t>
+  </si>
+  <si>
+    <t>IDPT-2024-PAT124</t>
+  </si>
+  <si>
+    <t>Sexe</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.patient.[0].identity.strictFeatures.sex</t>
+  </si>
+  <si>
+    <t>MASC</t>
+  </si>
+  <si>
+    <t>FEM</t>
+  </si>
+  <si>
+    <t>INCONNU</t>
+  </si>
+  <si>
+    <t>Date de naissance</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.patient.[0].identity.strictFeatures.birthDate</t>
+  </si>
+  <si>
+    <t>1959-02-01</t>
+  </si>
+  <si>
+    <t>2014-03-03</t>
+  </si>
+  <si>
+    <t>Prénom et nom</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.patient.[0].identity.nonstrictFeatures.complete</t>
+  </si>
+  <si>
+    <t>Didier Morel</t>
+  </si>
+  <si>
+    <t>Lola Halimi</t>
+  </si>
+  <si>
+    <t>Inconnu</t>
+  </si>
+  <si>
+    <t>Prénom</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.patient.[0].identity.nonstrictFeatures.firstName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Didier </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lola </t>
+  </si>
+  <si>
+    <t>Nom</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.patient.[0].identity.nonstrictFeatures.lastName</t>
+  </si>
+  <si>
+    <t>Morel</t>
+  </si>
+  <si>
+    <t>Halimi</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.patient.[0].detail.age</t>
+  </si>
+  <si>
+    <t>P65Y</t>
+  </si>
+  <si>
+    <t>P10Y</t>
+  </si>
+  <si>
+    <t>P80Y</t>
+  </si>
+  <si>
+    <t>Patient / victime n°2</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.patient.[1].id</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.patient.[1].identity.strictFeatures.sex</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.patient.[1].identity.strictFeatures.birthDate</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.patient.[1].identity.nonstrictFeatures.complete</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.patient.[1].identity.nonstrictFeatures.firstName</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.patient.[1].identity.nonstrictFeatures.lastName</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.patient.[1].detail.age</t>
+  </si>
+  <si>
+    <t>Localisation de l'affaire/dossier</t>
+  </si>
+  <si>
+    <t>Identifiant technique de localisation</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.location.locID</t>
+  </si>
+  <si>
+    <t>555fb03a-4df5-8zg6-8e81-990c4511256</t>
+  </si>
+  <si>
+    <t>567op03a-3qr4-5st6-7uv8-109u8765432</t>
+  </si>
+  <si>
+    <t>654ij03a-1kl2-3mn4-5op6-210p9876543</t>
+  </si>
+  <si>
+    <t>Pays</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.location.country</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>Nom du lieu</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.location.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le gite du Moulin </t>
+  </si>
+  <si>
+    <t>Détails de l'adresse / Numéro, type et nom de voie</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.location.detailedAddress.complete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 Rue Louis Aristide Verdier </t>
+  </si>
+  <si>
+    <t>4 rue Danielle Mitterrand</t>
+  </si>
+  <si>
+    <t>Rue principale</t>
+  </si>
+  <si>
+    <t>Nom de la commune</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.location.city.name</t>
+  </si>
+  <si>
+    <t>Vaires-sur-Marne</t>
+  </si>
+  <si>
+    <t>Bezons</t>
+  </si>
+  <si>
+    <t>Aulus-les-Bains</t>
+  </si>
+  <si>
+    <t>Code Insee de la commune</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.location.city.inseeCode</t>
+  </si>
+  <si>
+    <t>Etage</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.location.access.floor</t>
+  </si>
+  <si>
+    <t>Numéro de porte</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.location.access.roomNumber</t>
+  </si>
+  <si>
+    <t>Interphone</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.location.access.interphone</t>
+  </si>
+  <si>
+    <t>Digicode</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.location.access.elevator</t>
+  </si>
+  <si>
+    <t>Ascenseur/escalier</t>
+  </si>
+  <si>
+    <t>ESC B</t>
+  </si>
+  <si>
+    <t>Bâtiment</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.location.access.buildingName</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Entrée</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.location.access.entrance</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.location.access.entity</t>
+  </si>
+  <si>
+    <t>N° de téléphone du lieu</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.location.access.phoneNumber</t>
+  </si>
+  <si>
+    <t>Commentaire localisation</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.location.freetext</t>
+  </si>
+  <si>
+    <t>Aller directement dans le garage</t>
+  </si>
+  <si>
+    <t>dans la cage d’escalier B</t>
+  </si>
+  <si>
+    <t>Maison avec la porte verte, 100 m après le lavoir</t>
+  </si>
+  <si>
+    <t>Géométrie Associée / Heure du dernier relevé</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.location.geometry.obsDatime</t>
+  </si>
+  <si>
+    <t>2024-01-04T00:05:00+01:00</t>
+  </si>
+  <si>
+    <t>Géométrie Associée / Point / Latitude</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.location.geometry.point.coord.lat</t>
+  </si>
+  <si>
+    <t>48.866920471191406</t>
+  </si>
+  <si>
+    <t>48.92399978637695</t>
+  </si>
+  <si>
+    <t>42.79077911376953</t>
+  </si>
+  <si>
+    <t>Géométrie Associée / Point / Longitude</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.location.geometry.point.coord.lon</t>
+  </si>
+  <si>
+    <t>2.631575345993042</t>
+  </si>
+  <si>
+    <t>2.2162439823150635</t>
+  </si>
+  <si>
+    <t>1.3394532203674316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Altitude </t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.location.geometry.point.coord.height</t>
+  </si>
+  <si>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.location.geometry.point.coord.heading</t>
+  </si>
+  <si>
+    <t>Vitesse</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.location.geometry.point.coord.speed</t>
+  </si>
+  <si>
+    <t>Précision</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.location.geometry.point.coord.precision</t>
+  </si>
+  <si>
+    <t>ADDRESS</t>
+  </si>
+  <si>
+    <t>Alerte initiale</t>
+  </si>
+  <si>
+    <t>Identifiant alerte</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.intialAlert.id</t>
+  </si>
+  <si>
+    <t>ALRT-2024-ABC123</t>
+  </si>
+  <si>
+    <t>ALRT-2024-ZGY594</t>
+  </si>
+  <si>
+    <t>ALRT-2024-AMP697</t>
+  </si>
+  <si>
+    <t>Date de réception de l'alerte</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.intialAlert.reception</t>
+  </si>
+  <si>
+    <t>Signalement</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.intialAlert.reporting</t>
+  </si>
+  <si>
+    <t>STANDARD</t>
+  </si>
+  <si>
+    <t>Informations complémentaires sur l'alerte</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.intialAlert.freetext</t>
+  </si>
+  <si>
+    <t>Requérant contact type</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.intialAlert.caller.callerContact.type</t>
+  </si>
+  <si>
+    <t>PHNADD</t>
+  </si>
+  <si>
+    <t>Requérant contact numéro</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.intialAlert.caller.callerContact.detail</t>
+  </si>
+  <si>
+    <t>Requérant contact de contre appel type</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.intialAlert.caller.callbackContact.type</t>
+  </si>
+  <si>
+    <t>Requérant contact de contre appel numéro</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.intialAlert.caller.callbackContact.detail</t>
+  </si>
+  <si>
+    <t>Langue parlée</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.intialAlert.caller.language</t>
+  </si>
+  <si>
+    <t>Type de réquérant</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.intialAlert.caller.type</t>
+  </si>
+  <si>
+    <t>FAMILLE</t>
+  </si>
+  <si>
+    <t>TIERS</t>
+  </si>
+  <si>
+    <t>Difficulté de communication</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.intialAlert.caller.communication</t>
+  </si>
+  <si>
+    <t>Informations complémentaires sur le requérant</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.intialAlert.caller.freetext</t>
+  </si>
+  <si>
+    <t>Fils de la victime</t>
+  </si>
+  <si>
+    <t>Prénom et nom du requérant</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.intialAlert.caller.detailedName.complete</t>
+  </si>
+  <si>
+    <t>Sébastien Morel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amina BERTRAND  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucas Bernardi </t>
+  </si>
+  <si>
+    <t>Prénom du requérant</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.intialAlert.caller.detailedName.firstName</t>
+  </si>
+  <si>
+    <t>Sébastien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amina </t>
+  </si>
+  <si>
+    <t>Lucas</t>
+  </si>
+  <si>
+    <t>Nom du requérant</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.intialAlert.caller.detailedName.lastName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BERTRAND  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bernardi </t>
+  </si>
+  <si>
+    <t>Source de l'alerte/Canal</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.initialalert.alertSource.channel</t>
+  </si>
+  <si>
+    <t>Personne</t>
+  </si>
+  <si>
+    <t>Source de l'alerte/Type</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.initialalert.alertSource.type</t>
+  </si>
+  <si>
+    <t>Source de l'alerte/Url</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.initialalert.alertSource.detail</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.initialalert.location.locID</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.initialalert.location.country</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.initialalert.location.name</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.initialalert.location.detailedAddress.complete</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.initialalert.location.city.name</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.initialalert.location.city.inseeCode</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.initialalert.location.access.floor</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.initialalert.location.access.roomNumber</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.initialalert.location.access.interphone</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.initialalert.location.access.elevator</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.initialalert.location.access.buildingName</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.initialalert.location.access.entrance</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.initialalert.location.access.entity</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.initialalert.location.access.phoneNumber</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.initialalert.location.freetext</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.initialalert.location.geometry.obsDatime</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.initialalert.location.geometry.point.coord.lat</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.initialalert.location.geometry.point.coord.lon</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.initialalert.location.geometry.point.coord.height</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.initialalert.location.geometry.point.coord.heading</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.initialalert.location.geometry.point.coord.speed</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.initialalert.location.geometry.point.coord.precision</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.initialalert.qualification.whatsHappen.code</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.initialalert.qualification.whatsHappen.label</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.initialalert.qualification.whatsHappen.freetext</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.initialalert.qualification.locationKind.code</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.initialalert.qualification.locationKind.label</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.initialalert.qualification.healthMotive.code</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.initialalert.qualification.healthMotive.label</t>
+  </si>
+  <si>
+    <t>Blessure; Traumatisme sérieux, plaie intermédiaire</t>
+  </si>
+  <si>
+    <t>Problème médical; Signes d’AVC</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.initialalert.qualification.details.priority</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.initialalert.qualification.victims.count</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.initialalert.qualification.victims.mainvictim</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.initialalert.qualification.victims.freetext</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.initialalert.qualification.details.attribution</t>
+  </si>
+  <si>
+    <t>Agent/service d'urgence</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.initialalert.callTaker.organisation</t>
+  </si>
+  <si>
+    <t>fr.health.samu090</t>
+  </si>
+  <si>
+    <t>Agent/centre d'appel</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.initialalert.callTaker.controlRoom</t>
+  </si>
+  <si>
+    <t>CRRA 77</t>
+  </si>
+  <si>
+    <t>CRRA 95</t>
+  </si>
+  <si>
+    <t>CRRA 09</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>Appels Limitrophes</t>
+  </si>
+  <si>
+    <t>Partage de dossier simple (avec demande de prise en charge)</t>
+  </si>
+  <si>
+    <t>Envoi d'un message RS-EDA avec demande de prise en charge, réception d'une réponse RS-EDA d'acceptation</t>
+  </si>
+  <si>
     <t>Modèle</t>
-  </si>
-  <si>
-    <t>Déroulé métier</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>Donnée</t>
-  </si>
-  <si>
-    <t>path JSON</t>
-  </si>
-  <si>
-    <t>JDD 1</t>
-  </si>
-  <si>
-    <t>JDD 2</t>
-  </si>
-  <si>
-    <t>JDD 3</t>
-  </si>
-  <si>
-    <t>JDD 4</t>
-  </si>
-  <si>
-    <t>JDD 5</t>
-  </si>
-  <si>
-    <t>Envoi</t>
-  </si>
-  <si>
-    <t>RS-EDA</t>
-  </si>
-  <si>
-    <t>Envoyer un message de partage de dossier pour le périmètre 15-15 sans demande de transfert; qui contient les valeurs obligatoires minimales attendues</t>
-  </si>
-  <si>
-    <t>Envoi d'un message RS-EDA</t>
-  </si>
-  <si>
-    <t>Création d'un dossier</t>
-  </si>
-  <si>
-    <t>N° de dossier</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.caseId</t>
-  </si>
-  <si>
-    <t>fr.health.samu770-DRFR157702400400055</t>
-  </si>
-  <si>
-    <t>fr.health.samu950-DRFR159502400400159</t>
-  </si>
-  <si>
-    <t>fr.health.samu009-DRFR150092400401259</t>
-  </si>
-  <si>
-    <t>Date heure de création du dossier</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.creation</t>
-  </si>
-  <si>
-    <t>S2024-01-18T15:15:00+01:00</t>
-  </si>
-  <si>
-    <t>Version du référentiel CISU</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.referenceVersion</t>
-  </si>
-  <si>
-    <t>1.3</t>
-  </si>
-  <si>
-    <t>1.4</t>
-  </si>
-  <si>
-    <t>Qualification du dossier</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Code Nature de fait</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.qualification.whatsHappen.code</t>
-  </si>
-  <si>
-    <t>C02.08.05</t>
-  </si>
-  <si>
-    <t>C02.08.02</t>
-  </si>
-  <si>
-    <t>C02.05.00</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Libellé Nature de fait</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.qualification.whatsHappen.label</t>
-  </si>
-  <si>
-    <t>Atteinte aux personnes ; Traumatisme / Accident ; Par objet tranchant ou perforant</t>
-  </si>
-  <si>
-    <t>Atteinte aux personnes ; Traumatisme / Accident ; Accident domestique</t>
-  </si>
-  <si>
-    <t>Atteinte aux personnes ; Pathologie / maladie</t>
-  </si>
-  <si>
-    <t>Commentaire Nature de fait</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.qualification.whatsHappen.freetext</t>
-  </si>
-  <si>
-    <t>Coupure grave causée par une scie circulaire au niveau de la main; saigne beaucoup. La victime est inconsciente (perte de connaissance).</t>
-  </si>
-  <si>
-    <t>Entorse de la cheville, avec possible fracture. Cheville gonflée et douloureuse. Marche impossible.</t>
-  </si>
-  <si>
-    <t>Confusion, étourdissements, s’exprime difficilement</t>
-  </si>
-  <si>
-    <t>Code Type de lieu</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.qualification.locationKind.code</t>
-  </si>
-  <si>
-    <t>L01.01.04</t>
-  </si>
-  <si>
-    <t>L01.02.10</t>
-  </si>
-  <si>
-    <t>L04.12.00</t>
-  </si>
-  <si>
-    <t>Libellé Type de lieu</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.qualification.locationKind.label</t>
-  </si>
-  <si>
-    <t>Domicile ; Maison particulière, pavillon ;  dépendance</t>
-  </si>
-  <si>
-    <t>Domicile ; Lieu d'habitation collectif ou foyer d'hébergement ;  escaliers</t>
-  </si>
-  <si>
-    <t>Lieu accueillant du public ; Hébergement touristique</t>
-  </si>
-  <si>
-    <t>Code Motif de recours médico-secouriste</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.qualification.healthMotive.code</t>
-  </si>
-  <si>
-    <t>M01.02</t>
-  </si>
-  <si>
-    <t>M02.07</t>
-  </si>
-  <si>
-    <t>M03.08</t>
-  </si>
-  <si>
-    <t>Libellé Motif de recours médico-secouriste</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.qualification.healthMotive.label</t>
-  </si>
-  <si>
-    <t>Détresse vitale; Altération de la conscience; Dont inconscient, coma</t>
-  </si>
-  <si>
-    <t>Traumatisme sérieux, plaie intermédiaire</t>
-  </si>
-  <si>
-    <t>Signes d’AVC</t>
-  </si>
-  <si>
-    <t>Priorité de régulation médicale</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.qualification.details.priority</t>
-  </si>
-  <si>
-    <t>P0</t>
-  </si>
-  <si>
-    <t>P2</t>
-  </si>
-  <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>Nombre de patients-victimes</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.qualification.victims.count</t>
-  </si>
-  <si>
-    <t>Type du patient-victime principal</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.qualification.victims.mainvictim</t>
-  </si>
-  <si>
-    <t>ADULT</t>
-  </si>
-  <si>
-    <t>CHILD</t>
-  </si>
-  <si>
-    <t>SENIOR</t>
-  </si>
-  <si>
-    <t>Informations complémentaires sur les patients-victimes</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.qualification.victims.freetext</t>
-  </si>
-  <si>
-    <t>Attribution du dossier</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.qualification.details.attribution</t>
-  </si>
-  <si>
-    <t>MU</t>
-  </si>
-  <si>
-    <t>CRRA traitant</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.owner</t>
-  </si>
-  <si>
-    <t>fr.health.samu770</t>
-  </si>
-  <si>
-    <t>fr.health.samu950</t>
-  </si>
-  <si>
-    <t>fr.health.samu009</t>
-  </si>
-  <si>
-    <t>Patient / victime n°1</t>
-  </si>
-  <si>
-    <t>ID patient partagé</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.patient.[0].id</t>
-  </si>
-  <si>
-    <t>IDPT-2024-XYZ789</t>
-  </si>
-  <si>
-    <t>IDPT-2024-PAT009</t>
-  </si>
-  <si>
-    <t>IDPT-2024-PAT124</t>
-  </si>
-  <si>
-    <t>Sexe</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.patient.[0].identity.strictFeatures.sex</t>
-  </si>
-  <si>
-    <t>MASC</t>
-  </si>
-  <si>
-    <t>FEM</t>
-  </si>
-  <si>
-    <t>INCONNU</t>
-  </si>
-  <si>
-    <t>Date de naissance</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.patient.[0].identity.strictFeatures.birthDate</t>
-  </si>
-  <si>
-    <t>1959-02-01</t>
-  </si>
-  <si>
-    <t>2014-03-03</t>
-  </si>
-  <si>
-    <t>Prénom et nom</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.patient.[0].identity.nonstrictFeatures.complete</t>
-  </si>
-  <si>
-    <t>Didier Morel</t>
-  </si>
-  <si>
-    <t>Lola Halimi</t>
-  </si>
-  <si>
-    <t>Prénom</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.patient.[0].identity.nonstrictFeatures.firstName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Didier </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lola </t>
-  </si>
-  <si>
-    <t>Nom</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.patient.[0].identity.nonstrictFeatures.lastName</t>
-  </si>
-  <si>
-    <t>Morel</t>
-  </si>
-  <si>
-    <t>Halimi</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.patient.[0].detail.age</t>
-  </si>
-  <si>
-    <t>P65Y</t>
-  </si>
-  <si>
-    <t>P10Y</t>
-  </si>
-  <si>
-    <t>P80Y</t>
-  </si>
-  <si>
-    <t>Patient / victime n°2</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.patient.[1].id</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.patient.[1].identity.strictFeatures.sex</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.patient.[1].identity.strictFeatures.birthDate</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.patient.[1].identity.nonstrictFeatures.complete</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.patient.[1].identity.nonstrictFeatures.firstName</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.patient.[1].identity.nonstrictFeatures.lastName</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.patient.[1].detail.age</t>
-  </si>
-  <si>
-    <t>Localisation de l'affaire/dossier</t>
-  </si>
-  <si>
-    <t>Identifiant technique de localisation</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.location.locID</t>
-  </si>
-  <si>
-    <t>555fb03a-4df5-8zg6-8e81-990c4511256</t>
-  </si>
-  <si>
-    <t>567op03a-3qr4-5st6-7uv8-109u8765432</t>
-  </si>
-  <si>
-    <t>654ij03a-1kl2-3mn4-5op6-210p9876543</t>
-  </si>
-  <si>
-    <t>Pays</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.location.country</t>
-  </si>
-  <si>
-    <t>FR</t>
-  </si>
-  <si>
-    <t>Nom du lieu</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.location.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le gite du Moulin </t>
-  </si>
-  <si>
-    <t>Détails de l'adresse / Numéro, type et nom de voie</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.location.detailedAddress.complete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 Rue Louis Aristide Verdier </t>
-  </si>
-  <si>
-    <t>4 rue Danielle Mitterrand</t>
-  </si>
-  <si>
-    <t>Rue principale</t>
-  </si>
-  <si>
-    <t>Nom de la commune</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.location.city.name</t>
-  </si>
-  <si>
-    <t>Vaires-sur-Marne</t>
-  </si>
-  <si>
-    <t>Bezons</t>
-  </si>
-  <si>
-    <t>Aulus-les-Bains</t>
-  </si>
-  <si>
-    <t>Code Insee de la commune</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.location.city.inseeCode</t>
-  </si>
-  <si>
-    <t>Etage</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.location.access.floor</t>
-  </si>
-  <si>
-    <t>Numéro de porte</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.location.access.roomNumber</t>
-  </si>
-  <si>
-    <t>Interphone</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.location.access.interphone</t>
-  </si>
-  <si>
-    <t>Digicode</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.location.access.elevator</t>
-  </si>
-  <si>
-    <t>Ascenseur/escalier</t>
-  </si>
-  <si>
-    <t>ESC B</t>
-  </si>
-  <si>
-    <t>Bâtiment</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.location.access.buildingName</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Entrée</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.location.access.entrance</t>
-  </si>
-  <si>
-    <t>Service</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.location.access.entity</t>
-  </si>
-  <si>
-    <t>N° de téléphone du lieu</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.location.access.phoneNumber</t>
-  </si>
-  <si>
-    <t>Commentaire localisation</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.location.freetext</t>
-  </si>
-  <si>
-    <t>Aller directement dans le garage</t>
-  </si>
-  <si>
-    <t>dans la cage d’escalier B</t>
-  </si>
-  <si>
-    <t>Maison avec la porte verte, 100 m après le lavoir</t>
-  </si>
-  <si>
-    <t>Géométrie Associée / Heure du dernier relevé</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.location.geometry.obsDatime</t>
-  </si>
-  <si>
-    <t>2024-01-04T00:05:00+01:00</t>
-  </si>
-  <si>
-    <t>Géométrie Associée / Point / Latitude</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.location.geometry.point.coord.lat</t>
-  </si>
-  <si>
-    <t>48.866920471191406</t>
-  </si>
-  <si>
-    <t>48.92399978637695</t>
-  </si>
-  <si>
-    <t>42.79077911376953</t>
-  </si>
-  <si>
-    <t>Géométrie Associée / Point / Longitude</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.location.geometry.point.coord.lon</t>
-  </si>
-  <si>
-    <t>2.631575345993042</t>
-  </si>
-  <si>
-    <t>2.2162439823150635</t>
-  </si>
-  <si>
-    <t>1.3394532203674316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Altitude </t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.location.geometry.point.coord.height</t>
-  </si>
-  <si>
-    <t>Cap</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.location.geometry.point.coord.heading</t>
-  </si>
-  <si>
-    <t>Vitesse</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.location.geometry.point.coord.speed</t>
-  </si>
-  <si>
-    <t>Précision</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.location.geometry.point.coord.precision</t>
-  </si>
-  <si>
-    <t>ADDRESS</t>
-  </si>
-  <si>
-    <t>Alerte initiale</t>
-  </si>
-  <si>
-    <t>Identifiant alerte</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.intialAlert.id</t>
-  </si>
-  <si>
-    <t>ALRT-2024-ABC123</t>
-  </si>
-  <si>
-    <t>ALRT-2024-ZGY594</t>
-  </si>
-  <si>
-    <t>ALRT-2024-AMP697</t>
-  </si>
-  <si>
-    <t>Date de réception de l'alerte</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.intialAlert.reception</t>
-  </si>
-  <si>
-    <t>Signalement</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.intialAlert.reporting</t>
-  </si>
-  <si>
-    <t>STANDARD</t>
-  </si>
-  <si>
-    <t>Informations complémentaires sur l'alerte</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.intialAlert.freetext</t>
-  </si>
-  <si>
-    <t>Requérant contact type</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.intialAlert.caller.callerContact.type</t>
-  </si>
-  <si>
-    <t>PHNADD</t>
-  </si>
-  <si>
-    <t>Requérant contact numéro</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.intialAlert.caller.callerContact.detail</t>
-  </si>
-  <si>
-    <t>Requérant contact de contre appel type</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.intialAlert.caller.callbackContact.type</t>
-  </si>
-  <si>
-    <t>Requérant contact de contre appel numéro</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.intialAlert.caller.callbackContact.detail</t>
-  </si>
-  <si>
-    <t>Langue parlée</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.intialAlert.caller.language</t>
-  </si>
-  <si>
-    <t>Type de réquérant</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.intialAlert.caller.type</t>
-  </si>
-  <si>
-    <t>FAMILLE</t>
-  </si>
-  <si>
-    <t>TIERS</t>
-  </si>
-  <si>
-    <t>Difficulté de communication</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.intialAlert.caller.communication</t>
-  </si>
-  <si>
-    <t>Informations complémentaires sur le requérant</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.intialAlert.caller.freetext</t>
-  </si>
-  <si>
-    <t>Fils de la victime</t>
-  </si>
-  <si>
-    <t>Prénom et nom du requérant</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.intialAlert.caller.detailedName.complete</t>
-  </si>
-  <si>
-    <t>Sébastien Morel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amina BERTRAND  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucas Bernardi </t>
-  </si>
-  <si>
-    <t>Prénom du requérant</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.intialAlert.caller.detailedName.firstName</t>
-  </si>
-  <si>
-    <t>Sébastien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amina </t>
-  </si>
-  <si>
-    <t>Lucas</t>
-  </si>
-  <si>
-    <t>Nom du requérant</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.intialAlert.caller.detailedName.lastName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BERTRAND  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bernardi </t>
-  </si>
-  <si>
-    <t>Source de l'alerte/Canal</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.initialalert.alertSource.channel</t>
-  </si>
-  <si>
-    <t>Personne</t>
-  </si>
-  <si>
-    <t>Source de l'alerte/Type</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.initialalert.alertSource.type</t>
-  </si>
-  <si>
-    <t>Source de l'alerte/Url</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.initialalert.alertSource.detail</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.initialalert.location.locID</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.initialalert.location.country</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.initialalert.location.name</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.initialalert.location.detailedAddress.complete</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.initialalert.location.city.name</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.initialalert.location.city.inseeCode</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.initialalert.location.access.floor</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.initialalert.location.access.roomNumber</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.initialalert.location.access.interphone</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.initialalert.location.access.elevator</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.initialalert.location.access.buildingName</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.initialalert.location.access.entrance</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.initialalert.location.access.entity</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.initialalert.location.access.phoneNumber</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.initialalert.location.freetext</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.initialalert.location.geometry.obsDatime</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.initialalert.location.geometry.point.coord.lat</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.initialalert.location.geometry.point.coord.lon</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.initialalert.location.geometry.point.coord.height</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.initialalert.location.geometry.point.coord.heading</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.initialalert.location.geometry.point.coord.speed</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.initialalert.location.geometry.point.coord.precision</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.initialalert.qualification.whatsHappen.code</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.initialalert.qualification.whatsHappen.label</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.initialalert.qualification.whatsHappen.freetext</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.initialalert.qualification.locationKind.code</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.initialalert.qualification.locationKind.label</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.initialalert.qualification.healthMotive.code</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.initialalert.qualification.healthMotive.label</t>
-  </si>
-  <si>
-    <t>Blessure; Traumatisme sérieux, plaie intermédiaire</t>
-  </si>
-  <si>
-    <t>Problème médical; Signes d’AVC</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.initialalert.qualification.details.priority</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.initialalert.qualification.victims.count</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.initialalert.qualification.victims.mainvictim</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.initialalert.qualification.victims.freetext</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.initialalert.qualification.details.attribution</t>
-  </si>
-  <si>
-    <t>Agent/service d'urgence</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.initialalert.callTaker.organisation</t>
-  </si>
-  <si>
-    <t>fr.health.samu090</t>
-  </si>
-  <si>
-    <t>Agent/centre d'appel</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.initialalert.callTaker.controlRoom</t>
-  </si>
-  <si>
-    <t>CRRA 77</t>
-  </si>
-  <si>
-    <t>CRRA 95</t>
-  </si>
-  <si>
-    <t>CRRA 09</t>
-  </si>
-  <si>
-    <t>End</t>
-  </si>
-  <si>
-    <t>Appels Limitrophes</t>
-  </si>
-  <si>
-    <t>Partage de dossier simple (avec demande de prise en charge)</t>
-  </si>
-  <si>
-    <t>Envoi d'un message RS-EDA avec demande de prise en charge, réception d'une réponse RS-EDA d'acceptation</t>
   </si>
   <si>
     <t>fr.health.samu950-DRFR159502401000233</t>
@@ -2489,8 +2492,26 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2522,25 +2543,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4657,8 +4662,8 @@
   <dimension ref="A1:O119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="10" topLeftCell="J11" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <pane xSplit="6" ySplit="10" topLeftCell="G26" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="I32" sqref="I32"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
     </sheetView>
@@ -4679,19 +4684,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75">
-      <c r="A1" s="229" t="s">
+      <c r="A1" s="231" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="229"/>
+      <c r="B1" s="231"/>
       <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="18.75">
-      <c r="A2" s="229" t="s">
+      <c r="A2" s="231" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="229"/>
+      <c r="B2" s="231"/>
       <c r="C2" t="s">
         <v>3</v>
       </c>
@@ -4701,60 +4706,60 @@
       <c r="I2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="240" t="s">
+      <c r="J2" s="229" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="240"/>
-      <c r="L2" s="240"/>
-      <c r="M2" s="240"/>
-      <c r="N2" s="240"/>
-      <c r="O2" s="240"/>
+      <c r="K2" s="229"/>
+      <c r="L2" s="229"/>
+      <c r="M2" s="229"/>
+      <c r="N2" s="229"/>
+      <c r="O2" s="229"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="18.75">
-      <c r="A3" s="229" t="s">
+      <c r="A3" s="231" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="229"/>
+      <c r="B3" s="231"/>
       <c r="C3" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3"/>
       <c r="H3" s="7"/>
-      <c r="J3" s="240"/>
-      <c r="K3" s="240"/>
-      <c r="L3" s="240"/>
-      <c r="M3" s="240"/>
-      <c r="N3" s="240"/>
-      <c r="O3" s="240"/>
+      <c r="J3" s="229"/>
+      <c r="K3" s="229"/>
+      <c r="L3" s="229"/>
+      <c r="M3" s="229"/>
+      <c r="N3" s="229"/>
+      <c r="O3" s="229"/>
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1" ht="18.75">
-      <c r="A4" s="229" t="s">
+      <c r="A4" s="231" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="229"/>
+      <c r="B4" s="231"/>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4"/>
       <c r="H4" s="7"/>
-      <c r="J4" s="240"/>
-      <c r="K4" s="240"/>
-      <c r="L4" s="240"/>
-      <c r="M4" s="240"/>
-      <c r="N4" s="240"/>
-      <c r="O4" s="240"/>
+      <c r="J4" s="229"/>
+      <c r="K4" s="229"/>
+      <c r="L4" s="229"/>
+      <c r="M4" s="229"/>
+      <c r="N4" s="229"/>
+      <c r="O4" s="229"/>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" ht="18.75">
-      <c r="A5" s="239" t="s">
+      <c r="A5" s="245" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="239"/>
-      <c r="C5" s="239"/>
-      <c r="D5" s="239"/>
-      <c r="E5" s="239"/>
-      <c r="F5" s="239"/>
+      <c r="B5" s="245"/>
+      <c r="C5" s="245"/>
+      <c r="D5" s="245"/>
+      <c r="E5" s="245"/>
+      <c r="F5" s="245"/>
       <c r="H5" s="7"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -4764,12 +4769,12 @@
       <c r="O5" s="8"/>
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1" ht="18.75">
-      <c r="A6" s="241" t="s">
+      <c r="A6" s="232" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="242"/>
-      <c r="C6" s="242"/>
-      <c r="D6" s="243"/>
+      <c r="B6" s="233"/>
+      <c r="C6" s="233"/>
+      <c r="D6" s="234"/>
       <c r="E6" s="5"/>
       <c r="F6" t="s">
         <v>11</v>
@@ -4783,12 +4788,12 @@
       <c r="O6" s="8"/>
     </row>
     <row r="7" spans="1:15" s="1" customFormat="1" ht="18.75">
-      <c r="A7" s="244" t="s">
+      <c r="A7" s="235" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="244"/>
-      <c r="C7" s="244"/>
-      <c r="D7" s="244"/>
+      <c r="B7" s="235"/>
+      <c r="C7" s="235"/>
+      <c r="D7" s="235"/>
       <c r="E7" s="10"/>
       <c r="F7" t="s">
         <v>13</v>
@@ -4810,55 +4815,53 @@
       <c r="L8" s="9"/>
     </row>
     <row r="9" spans="1:15" s="4" customFormat="1" ht="18.75">
-      <c r="A9" s="246" t="s">
+      <c r="A9" s="230" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="246" t="s">
-        <v>15</v>
-      </c>
+      <c r="B9" s="230"/>
       <c r="C9" s="163" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="F9" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="G9" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="H9" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="I9" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="18" t="s">
+      <c r="J9" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="18" t="s">
+      <c r="K9" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="18" t="s">
+      <c r="L9" s="18" t="s">
         <v>23</v>
-      </c>
-      <c r="L9" s="18" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="109" t="s">
+      <c r="D10" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="E10" s="34"/>
       <c r="F10" s="25"/>
@@ -4870,260 +4873,260 @@
       <c r="L10" s="25"/>
     </row>
     <row r="11" spans="1:15" ht="16.5" customHeight="1">
-      <c r="D11" s="230" t="s">
-        <v>29</v>
+      <c r="D11" s="236" t="s">
+        <v>28</v>
       </c>
       <c r="E11" s="74"/>
       <c r="F11" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="H11" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="I11" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="J11" s="14" t="s">
         <v>33</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>34</v>
       </c>
       <c r="K11" s="46"/>
       <c r="L11" s="46"/>
     </row>
     <row r="12" spans="1:15">
-      <c r="D12" s="231"/>
+      <c r="D12" s="237"/>
       <c r="E12" s="74"/>
       <c r="F12" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="H12" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="14" t="s">
-        <v>37</v>
-      </c>
       <c r="I12" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K12" s="46"/>
       <c r="L12" s="46"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="D13" s="232"/>
+      <c r="D13" s="238"/>
       <c r="E13" s="74"/>
       <c r="F13" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="H13" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="14" t="s">
+      <c r="I13" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="I13" s="14" t="s">
-        <v>41</v>
-      </c>
       <c r="J13" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K13" s="46"/>
       <c r="L13" s="46"/>
     </row>
     <row r="14" spans="1:15">
-      <c r="D14" s="230" t="s">
+      <c r="D14" s="236" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="74" t="s">
+      <c r="F14" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="G14" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="H14" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="I14" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="I14" s="16" t="s">
+      <c r="J14" s="16" t="s">
         <v>47</v>
-      </c>
-      <c r="J14" s="16" t="s">
-        <v>48</v>
       </c>
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
     </row>
     <row r="15" spans="1:15" ht="28.5" customHeight="1">
-      <c r="D15" s="231"/>
+      <c r="D15" s="237"/>
       <c r="E15" s="84" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="G15" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="H15" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="I15" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="I15" s="16" t="s">
+      <c r="J15" s="73" t="s">
         <v>53</v>
-      </c>
-      <c r="J15" s="73" t="s">
-        <v>54</v>
       </c>
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
     </row>
     <row r="16" spans="1:15" s="112" customFormat="1" ht="28.5" customHeight="1">
-      <c r="D16" s="231"/>
+      <c r="D16" s="237"/>
       <c r="E16" s="75" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F16" s="109" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="185" t="s">
         <v>55</v>
       </c>
-      <c r="G16" s="185" t="s">
+      <c r="H16" s="160" t="s">
         <v>56</v>
       </c>
-      <c r="H16" s="160" t="s">
+      <c r="I16" s="160" t="s">
         <v>57</v>
       </c>
-      <c r="I16" s="160" t="s">
+      <c r="J16" s="160" t="s">
         <v>58</v>
       </c>
-      <c r="J16" s="160" t="s">
+    </row>
+    <row r="17" spans="4:12">
+      <c r="D17" s="237"/>
+      <c r="E17" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="42" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="17" spans="4:12">
-      <c r="D17" s="231"/>
-      <c r="E17" s="85" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="42" t="s">
+      <c r="G17" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="G17" s="42" t="s">
+      <c r="H17" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="H17" s="43" t="s">
+      <c r="I17" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="I17" s="42" t="s">
+      <c r="J17" s="42" t="s">
         <v>63</v>
-      </c>
-      <c r="J17" s="42" t="s">
-        <v>64</v>
       </c>
       <c r="K17" s="42"/>
       <c r="L17" s="42"/>
     </row>
     <row r="18" spans="4:12" s="112" customFormat="1" ht="30">
-      <c r="D18" s="231"/>
+      <c r="D18" s="237"/>
       <c r="E18" s="75"/>
       <c r="F18" s="109" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" s="109" t="s">
         <v>65</v>
       </c>
-      <c r="G18" s="109" t="s">
+      <c r="H18" s="110" t="s">
         <v>66</v>
       </c>
-      <c r="H18" s="110" t="s">
+      <c r="I18" s="110" t="s">
         <v>67</v>
       </c>
-      <c r="I18" s="110" t="s">
+      <c r="J18" s="111" t="s">
         <v>68</v>
-      </c>
-      <c r="J18" s="111" t="s">
-        <v>69</v>
       </c>
       <c r="K18" s="109"/>
       <c r="L18" s="109"/>
     </row>
     <row r="19" spans="4:12">
-      <c r="D19" s="231"/>
+      <c r="D19" s="237"/>
       <c r="E19" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F19" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="G19" s="44" t="s">
+      <c r="H19" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="H19" s="45" t="s">
+      <c r="I19" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="I19" s="44" t="s">
+      <c r="J19" s="44" t="s">
         <v>73</v>
-      </c>
-      <c r="J19" s="44" t="s">
-        <v>74</v>
       </c>
       <c r="K19" s="44"/>
       <c r="L19" s="44"/>
     </row>
     <row r="20" spans="4:12" ht="30.75" customHeight="1">
-      <c r="D20" s="231"/>
+      <c r="D20" s="237"/>
       <c r="E20" s="34"/>
       <c r="F20" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="G20" s="20" t="s">
+      <c r="H20" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="H20" s="21" t="s">
+      <c r="I20" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="I20" s="53" t="s">
+      <c r="J20" s="53" t="s">
         <v>78</v>
-      </c>
-      <c r="J20" s="53" t="s">
-        <v>79</v>
       </c>
       <c r="K20" s="20"/>
       <c r="L20" s="20"/>
     </row>
     <row r="21" spans="4:12">
-      <c r="D21" s="231"/>
+      <c r="D21" s="237"/>
       <c r="E21" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F21" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="G21" s="20" t="s">
+      <c r="H21" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="H21" s="21" t="s">
+      <c r="I21" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="I21" s="20" t="s">
+      <c r="J21" s="20" t="s">
         <v>83</v>
-      </c>
-      <c r="J21" s="20" t="s">
-        <v>84</v>
       </c>
       <c r="K21" s="20"/>
       <c r="L21" s="20"/>
     </row>
     <row r="22" spans="4:12" s="203" customFormat="1">
-      <c r="D22" s="231"/>
+      <c r="D22" s="237"/>
       <c r="E22" s="200" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F22" s="201" t="s">
+        <v>84</v>
+      </c>
+      <c r="G22" s="201" t="s">
         <v>85</v>
-      </c>
-      <c r="G22" s="201" t="s">
-        <v>86</v>
       </c>
       <c r="H22" s="202">
         <v>1</v>
@@ -5138,36 +5141,36 @@
       <c r="L22" s="201"/>
     </row>
     <row r="23" spans="4:12">
-      <c r="D23" s="231"/>
+      <c r="D23" s="237"/>
       <c r="E23" s="87" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F23" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="G23" s="29" t="s">
+      <c r="H23" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="H23" s="55" t="s">
+      <c r="I23" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="I23" s="29" t="s">
+      <c r="J23" s="29" t="s">
         <v>90</v>
-      </c>
-      <c r="J23" s="29" t="s">
-        <v>91</v>
       </c>
       <c r="K23" s="29"/>
       <c r="L23" s="29"/>
     </row>
     <row r="24" spans="4:12" ht="30">
-      <c r="D24" s="231"/>
+      <c r="D24" s="237"/>
       <c r="E24" s="89"/>
       <c r="F24" s="162" t="s">
+        <v>91</v>
+      </c>
+      <c r="G24" s="158" t="s">
         <v>92</v>
-      </c>
-      <c r="G24" s="158" t="s">
-        <v>93</v>
       </c>
       <c r="H24" s="174"/>
       <c r="I24" s="175"/>
@@ -5176,141 +5179,143 @@
       <c r="L24" s="35"/>
     </row>
     <row r="25" spans="4:12">
-      <c r="D25" s="232"/>
+      <c r="D25" s="238"/>
       <c r="E25" s="89"/>
       <c r="F25" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="G25" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="G25" s="35" t="s">
+      <c r="H25" s="91" t="s">
         <v>95</v>
       </c>
-      <c r="H25" s="91" t="s">
-        <v>96</v>
-      </c>
       <c r="I25" s="91" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J25" s="91" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K25" s="35"/>
       <c r="L25" s="35"/>
     </row>
     <row r="26" spans="4:12">
       <c r="D26" s="88" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="G26" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="E26" s="80" t="s">
-        <v>43</v>
-      </c>
-      <c r="F26" s="57" t="s">
-        <v>97</v>
-      </c>
-      <c r="G26" s="57" t="s">
+      <c r="H26" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="H26" s="58" t="s">
+      <c r="I26" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="I26" s="58" t="s">
+      <c r="J26" s="58" t="s">
         <v>100</v>
-      </c>
-      <c r="J26" s="58" t="s">
-        <v>101</v>
       </c>
       <c r="K26" s="59"/>
       <c r="L26" s="59"/>
     </row>
     <row r="27" spans="4:12">
-      <c r="D27" s="236" t="s">
-        <v>102</v>
+      <c r="D27" s="242" t="s">
+        <v>101</v>
       </c>
       <c r="E27" s="76"/>
       <c r="F27" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="G27" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="G27" s="23" t="s">
+      <c r="H27" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="H27" s="24" t="s">
+      <c r="I27" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="I27" s="24" t="s">
+      <c r="J27" s="24" t="s">
         <v>106</v>
-      </c>
-      <c r="J27" s="24" t="s">
-        <v>107</v>
       </c>
       <c r="K27" s="20"/>
       <c r="L27" s="20"/>
     </row>
     <row r="28" spans="4:12">
-      <c r="D28" s="237"/>
+      <c r="D28" s="243"/>
       <c r="E28" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F28" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="G28" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="G28" s="20" t="s">
+      <c r="H28" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="H28" s="21" t="s">
+      <c r="I28" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="I28" s="20" t="s">
+      <c r="J28" s="20" t="s">
         <v>111</v>
-      </c>
-      <c r="J28" s="20" t="s">
-        <v>112</v>
       </c>
       <c r="K28" s="20"/>
       <c r="L28" s="20"/>
     </row>
     <row r="29" spans="4:12" s="69" customFormat="1">
-      <c r="D29" s="237"/>
+      <c r="D29" s="243"/>
       <c r="E29" s="87" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F29" s="68" t="s">
+        <v>112</v>
+      </c>
+      <c r="G29" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="G29" s="20" t="s">
+      <c r="H29" s="68" t="s">
         <v>114</v>
       </c>
-      <c r="H29" s="68" t="s">
+      <c r="I29" s="68" t="s">
         <v>115</v>
-      </c>
-      <c r="I29" s="68" t="s">
-        <v>116</v>
       </c>
       <c r="J29" s="68"/>
       <c r="K29" s="68"/>
       <c r="L29" s="68"/>
     </row>
     <row r="30" spans="4:12">
-      <c r="D30" s="237"/>
+      <c r="D30" s="243"/>
       <c r="E30" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F30" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="G30" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="G30" s="20" t="s">
+      <c r="H30" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="H30" s="21" t="s">
+      <c r="I30" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="I30" s="20" t="s">
+      <c r="J30" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="J30" s="20"/>
       <c r="K30" s="20"/>
       <c r="L30" s="20"/>
     </row>
     <row r="31" spans="4:12">
-      <c r="D31" s="237"/>
+      <c r="D31" s="243"/>
       <c r="E31" s="34"/>
       <c r="F31" s="20" t="s">
         <v>121</v>
@@ -5329,7 +5334,7 @@
       <c r="L31" s="20"/>
     </row>
     <row r="32" spans="4:12">
-      <c r="D32" s="237"/>
+      <c r="D32" s="243"/>
       <c r="E32" s="34"/>
       <c r="F32" s="20" t="s">
         <v>125</v>
@@ -5348,9 +5353,9 @@
       <c r="L32" s="20"/>
     </row>
     <row r="33" spans="4:12" s="203" customFormat="1">
-      <c r="D33" s="237"/>
+      <c r="D33" s="243"/>
       <c r="E33" s="205" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F33" s="206" t="s">
         <v>129</v>
@@ -5371,12 +5376,12 @@
       <c r="L33" s="206"/>
     </row>
     <row r="34" spans="4:12">
-      <c r="D34" s="236" t="s">
+      <c r="D34" s="242" t="s">
         <v>134</v>
       </c>
       <c r="E34" s="78"/>
       <c r="F34" s="60" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G34" s="23" t="s">
         <v>135</v>
@@ -5388,10 +5393,10 @@
       <c r="L34" s="63"/>
     </row>
     <row r="35" spans="4:12">
-      <c r="D35" s="237"/>
+      <c r="D35" s="243"/>
       <c r="E35" s="34"/>
       <c r="F35" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G35" s="20" t="s">
         <v>136</v>
@@ -5403,10 +5408,10 @@
       <c r="L35" s="64"/>
     </row>
     <row r="36" spans="4:12">
-      <c r="D36" s="237"/>
+      <c r="D36" s="243"/>
       <c r="E36" s="34"/>
       <c r="F36" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G36" s="20" t="s">
         <v>137</v>
@@ -5418,10 +5423,10 @@
       <c r="L36" s="64"/>
     </row>
     <row r="37" spans="4:12">
-      <c r="D37" s="237"/>
+      <c r="D37" s="243"/>
       <c r="E37" s="34"/>
       <c r="F37" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G37" s="20" t="s">
         <v>138</v>
@@ -5433,7 +5438,7 @@
       <c r="L37" s="64"/>
     </row>
     <row r="38" spans="4:12">
-      <c r="D38" s="237"/>
+      <c r="D38" s="243"/>
       <c r="E38" s="34"/>
       <c r="F38" s="20" t="s">
         <v>121</v>
@@ -5448,7 +5453,7 @@
       <c r="L38" s="64"/>
     </row>
     <row r="39" spans="4:12">
-      <c r="D39" s="237"/>
+      <c r="D39" s="243"/>
       <c r="E39" s="34"/>
       <c r="F39" s="20" t="s">
         <v>125</v>
@@ -5463,7 +5468,7 @@
       <c r="L39" s="64"/>
     </row>
     <row r="40" spans="4:12">
-      <c r="D40" s="238"/>
+      <c r="D40" s="244"/>
       <c r="E40" s="79"/>
       <c r="F40" s="65" t="s">
         <v>129</v>
@@ -5478,7 +5483,7 @@
       <c r="L40" s="67"/>
     </row>
     <row r="41" spans="4:12">
-      <c r="D41" s="230" t="s">
+      <c r="D41" s="236" t="s">
         <v>142</v>
       </c>
       <c r="E41" s="80"/>
@@ -5501,9 +5506,9 @@
       <c r="L41" s="59"/>
     </row>
     <row r="42" spans="4:12">
-      <c r="D42" s="231"/>
+      <c r="D42" s="237"/>
       <c r="E42" s="147" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F42" s="148" t="s">
         <v>148</v>
@@ -5524,7 +5529,7 @@
       <c r="L42" s="150"/>
     </row>
     <row r="43" spans="4:12" s="38" customFormat="1">
-      <c r="D43" s="233"/>
+      <c r="D43" s="239"/>
       <c r="E43" s="152"/>
       <c r="F43" s="153" t="s">
         <v>151</v>
@@ -5541,9 +5546,9 @@
       <c r="L43" s="153"/>
     </row>
     <row r="44" spans="4:12">
-      <c r="D44" s="231"/>
+      <c r="D44" s="237"/>
       <c r="E44" s="151" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F44" s="30" t="s">
         <v>154</v>
@@ -5564,9 +5569,9 @@
       <c r="L44" s="27"/>
     </row>
     <row r="45" spans="4:12">
-      <c r="D45" s="231"/>
+      <c r="D45" s="237"/>
       <c r="E45" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F45" s="20" t="s">
         <v>159</v>
@@ -5587,9 +5592,9 @@
       <c r="L45" s="20"/>
     </row>
     <row r="46" spans="4:12">
-      <c r="D46" s="231"/>
+      <c r="D46" s="237"/>
       <c r="E46" s="85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F46" s="20" t="s">
         <v>164</v>
@@ -5610,9 +5615,9 @@
       <c r="L46" s="22"/>
     </row>
     <row r="47" spans="4:12">
-      <c r="D47" s="231"/>
+      <c r="D47" s="237"/>
       <c r="E47" s="85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F47" s="20" t="s">
         <v>166</v>
@@ -5629,9 +5634,9 @@
       <c r="L47" s="20"/>
     </row>
     <row r="48" spans="4:12">
-      <c r="D48" s="231"/>
+      <c r="D48" s="237"/>
       <c r="E48" s="85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F48" s="20" t="s">
         <v>168</v>
@@ -5645,9 +5650,9 @@
       <c r="L48" s="20"/>
     </row>
     <row r="49" spans="4:12">
-      <c r="D49" s="231"/>
+      <c r="D49" s="237"/>
       <c r="E49" s="85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F49" s="20" t="s">
         <v>170</v>
@@ -5664,9 +5669,9 @@
       <c r="L49" s="20"/>
     </row>
     <row r="50" spans="4:12">
-      <c r="D50" s="231"/>
+      <c r="D50" s="237"/>
       <c r="E50" s="85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F50" s="20" t="s">
         <v>172</v>
@@ -5683,9 +5688,9 @@
       <c r="L50" s="20"/>
     </row>
     <row r="51" spans="4:12">
-      <c r="D51" s="231"/>
+      <c r="D51" s="237"/>
       <c r="E51" s="85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F51" s="20" t="s">
         <v>174</v>
@@ -5702,9 +5707,9 @@
       <c r="L51" s="20"/>
     </row>
     <row r="52" spans="4:12">
-      <c r="D52" s="231"/>
+      <c r="D52" s="237"/>
       <c r="E52" s="85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F52" s="20" t="s">
         <v>176</v>
@@ -5721,9 +5726,9 @@
       <c r="L52" s="20"/>
     </row>
     <row r="53" spans="4:12">
-      <c r="D53" s="231"/>
+      <c r="D53" s="237"/>
       <c r="E53" s="85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F53" s="20" t="s">
         <v>179</v>
@@ -5738,9 +5743,9 @@
       <c r="L53" s="20"/>
     </row>
     <row r="54" spans="4:12">
-      <c r="D54" s="231"/>
+      <c r="D54" s="237"/>
       <c r="E54" s="85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F54" s="20" t="s">
         <v>181</v>
@@ -5755,9 +5760,9 @@
       <c r="L54" s="20"/>
     </row>
     <row r="55" spans="4:12">
-      <c r="D55" s="231"/>
+      <c r="D55" s="237"/>
       <c r="E55" s="85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F55" s="29" t="s">
         <v>183</v>
@@ -5774,9 +5779,9 @@
       <c r="L55" s="20"/>
     </row>
     <row r="56" spans="4:12" s="38" customFormat="1">
-      <c r="D56" s="231"/>
+      <c r="D56" s="237"/>
       <c r="E56" s="81" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F56" s="41" t="s">
         <v>185</v>
@@ -5797,7 +5802,7 @@
       <c r="L56" s="40"/>
     </row>
     <row r="57" spans="4:12">
-      <c r="D57" s="231"/>
+      <c r="D57" s="237"/>
       <c r="E57" s="82"/>
       <c r="F57" s="47" t="s">
         <v>190</v>
@@ -5818,7 +5823,7 @@
       <c r="L57" s="44"/>
     </row>
     <row r="58" spans="4:12">
-      <c r="D58" s="231"/>
+      <c r="D58" s="237"/>
       <c r="E58" s="82"/>
       <c r="F58" s="48" t="s">
         <v>193</v>
@@ -5839,7 +5844,7 @@
       <c r="L58" s="44"/>
     </row>
     <row r="59" spans="4:12">
-      <c r="D59" s="231"/>
+      <c r="D59" s="237"/>
       <c r="E59" s="82"/>
       <c r="F59" s="48" t="s">
         <v>198</v>
@@ -5860,7 +5865,7 @@
       <c r="L59" s="44"/>
     </row>
     <row r="60" spans="4:12">
-      <c r="D60" s="231"/>
+      <c r="D60" s="237"/>
       <c r="E60" s="34"/>
       <c r="F60" s="27" t="s">
         <v>203</v>
@@ -5875,7 +5880,7 @@
       <c r="L60" s="20"/>
     </row>
     <row r="61" spans="4:12">
-      <c r="D61" s="231"/>
+      <c r="D61" s="237"/>
       <c r="E61" s="34"/>
       <c r="F61" s="20" t="s">
         <v>205</v>
@@ -5890,7 +5895,7 @@
       <c r="L61" s="20"/>
     </row>
     <row r="62" spans="4:12">
-      <c r="D62" s="231"/>
+      <c r="D62" s="237"/>
       <c r="E62" s="34"/>
       <c r="F62" s="29" t="s">
         <v>207</v>
@@ -5905,7 +5910,7 @@
       <c r="L62" s="20"/>
     </row>
     <row r="63" spans="4:12">
-      <c r="D63" s="232"/>
+      <c r="D63" s="238"/>
       <c r="E63" s="82"/>
       <c r="F63" s="48" t="s">
         <v>209</v>
@@ -5926,7 +5931,7 @@
       <c r="L63" s="44"/>
     </row>
     <row r="64" spans="4:12">
-      <c r="D64" s="234" t="s">
+      <c r="D64" s="240" t="s">
         <v>212</v>
       </c>
       <c r="E64" s="82"/>
@@ -5949,7 +5954,7 @@
       <c r="L64" s="44"/>
     </row>
     <row r="65" spans="4:12">
-      <c r="D65" s="234"/>
+      <c r="D65" s="240"/>
       <c r="E65" s="82"/>
       <c r="F65" s="51" t="s">
         <v>218</v>
@@ -5958,19 +5963,19 @@
         <v>219</v>
       </c>
       <c r="H65" s="52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I65" s="52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J65" s="52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K65" s="44"/>
       <c r="L65" s="44"/>
     </row>
     <row r="66" spans="4:12">
-      <c r="D66" s="234"/>
+      <c r="D66" s="240"/>
       <c r="E66" s="81"/>
       <c r="F66" s="51" t="s">
         <v>220</v>
@@ -5991,9 +5996,9 @@
       <c r="L66" s="44"/>
     </row>
     <row r="67" spans="4:12" ht="15" customHeight="1">
-      <c r="D67" s="234"/>
+      <c r="D67" s="240"/>
       <c r="E67" s="85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F67" s="37" t="s">
         <v>223</v>
@@ -6008,9 +6013,9 @@
       <c r="L67" s="20"/>
     </row>
     <row r="68" spans="4:12">
-      <c r="D68" s="234"/>
+      <c r="D68" s="240"/>
       <c r="E68" s="81" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F68" s="35" t="s">
         <v>225</v>
@@ -6031,9 +6036,9 @@
       <c r="L68" s="20"/>
     </row>
     <row r="69" spans="4:12" s="69" customFormat="1">
-      <c r="D69" s="234"/>
+      <c r="D69" s="240"/>
       <c r="E69" s="83" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F69" s="71" t="s">
         <v>228</v>
@@ -6054,9 +6059,9 @@
       <c r="L69" s="68"/>
     </row>
     <row r="70" spans="4:12">
-      <c r="D70" s="234"/>
+      <c r="D70" s="240"/>
       <c r="E70" s="85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F70" s="27" t="s">
         <v>230</v>
@@ -6077,9 +6082,9 @@
       <c r="L70" s="20"/>
     </row>
     <row r="71" spans="4:12" s="69" customFormat="1">
-      <c r="D71" s="234"/>
+      <c r="D71" s="240"/>
       <c r="E71" s="85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F71" s="68" t="s">
         <v>232</v>
@@ -6100,7 +6105,7 @@
       <c r="L71" s="68"/>
     </row>
     <row r="72" spans="4:12" s="69" customFormat="1">
-      <c r="D72" s="234"/>
+      <c r="D72" s="240"/>
       <c r="E72" s="85"/>
       <c r="F72" s="95" t="s">
         <v>234</v>
@@ -6119,9 +6124,9 @@
       <c r="L72" s="68"/>
     </row>
     <row r="73" spans="4:12">
-      <c r="D73" s="234"/>
+      <c r="D73" s="240"/>
       <c r="E73" s="85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F73" s="29" t="s">
         <v>236</v>
@@ -6142,7 +6147,7 @@
       <c r="L73" s="20"/>
     </row>
     <row r="74" spans="4:12">
-      <c r="D74" s="234"/>
+      <c r="D74" s="240"/>
       <c r="E74" s="97"/>
       <c r="F74" s="35" t="s">
         <v>240</v>
@@ -6157,9 +6162,9 @@
       <c r="L74" s="20"/>
     </row>
     <row r="75" spans="4:12">
-      <c r="D75" s="234"/>
+      <c r="D75" s="240"/>
       <c r="E75" s="85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F75" s="98" t="s">
         <v>242</v>
@@ -6175,9 +6180,9 @@
       <c r="L75" s="20"/>
     </row>
     <row r="76" spans="4:12">
-      <c r="D76" s="234"/>
+      <c r="D76" s="240"/>
       <c r="E76" s="82" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F76" s="23" t="s">
         <v>245</v>
@@ -6198,7 +6203,7 @@
       <c r="L76" s="20"/>
     </row>
     <row r="77" spans="4:12">
-      <c r="D77" s="234"/>
+      <c r="D77" s="240"/>
       <c r="E77" s="34"/>
       <c r="F77" s="20" t="s">
         <v>250</v>
@@ -6219,7 +6224,7 @@
       <c r="L77" s="20"/>
     </row>
     <row r="78" spans="4:12">
-      <c r="D78" s="234"/>
+      <c r="D78" s="240"/>
       <c r="E78" s="77"/>
       <c r="F78" s="29" t="s">
         <v>255</v>
@@ -6240,7 +6245,7 @@
       <c r="L78" s="29"/>
     </row>
     <row r="79" spans="4:12">
-      <c r="D79" s="234"/>
+      <c r="D79" s="240"/>
       <c r="E79" s="129"/>
       <c r="F79" s="124" t="s">
         <v>259</v>
@@ -6261,7 +6266,7 @@
       <c r="L79" s="124"/>
     </row>
     <row r="80" spans="4:12">
-      <c r="D80" s="234"/>
+      <c r="D80" s="240"/>
       <c r="E80" s="129"/>
       <c r="F80" s="124" t="s">
         <v>262</v>
@@ -6282,7 +6287,7 @@
       <c r="L80" s="124"/>
     </row>
     <row r="81" spans="4:12">
-      <c r="D81" s="234"/>
+      <c r="D81" s="240"/>
       <c r="E81" s="129"/>
       <c r="F81" s="124" t="s">
         <v>264</v>
@@ -6303,7 +6308,7 @@
       <c r="L81" s="124"/>
     </row>
     <row r="82" spans="4:12">
-      <c r="D82" s="234"/>
+      <c r="D82" s="240"/>
       <c r="E82" s="128"/>
       <c r="F82" s="127" t="s">
         <v>143</v>
@@ -6324,9 +6329,9 @@
       <c r="L82" s="124"/>
     </row>
     <row r="83" spans="4:12">
-      <c r="D83" s="234"/>
+      <c r="D83" s="240"/>
       <c r="E83" s="82" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F83" s="124" t="s">
         <v>148</v>
@@ -6347,7 +6352,7 @@
       <c r="L83" s="124"/>
     </row>
     <row r="84" spans="4:12">
-      <c r="D84" s="234"/>
+      <c r="D84" s="240"/>
       <c r="E84" s="82"/>
       <c r="F84" s="44" t="s">
         <v>151</v>
@@ -6364,9 +6369,9 @@
       <c r="L84" s="211"/>
     </row>
     <row r="85" spans="4:12">
-      <c r="D85" s="234"/>
+      <c r="D85" s="240"/>
       <c r="E85" s="76" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F85" s="100" t="s">
         <v>154</v>
@@ -6387,9 +6392,9 @@
       <c r="L85" s="42"/>
     </row>
     <row r="86" spans="4:12">
-      <c r="D86" s="234"/>
+      <c r="D86" s="240"/>
       <c r="E86" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F86" s="44" t="s">
         <v>159</v>
@@ -6410,9 +6415,9 @@
       <c r="L86" s="44"/>
     </row>
     <row r="87" spans="4:12">
-      <c r="D87" s="234"/>
+      <c r="D87" s="240"/>
       <c r="E87" s="85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F87" s="44" t="s">
         <v>164</v>
@@ -6433,9 +6438,9 @@
       <c r="L87" s="102"/>
     </row>
     <row r="88" spans="4:12">
-      <c r="D88" s="234"/>
+      <c r="D88" s="240"/>
       <c r="E88" s="85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F88" s="44" t="s">
         <v>166</v>
@@ -6452,9 +6457,9 @@
       <c r="L88" s="44"/>
     </row>
     <row r="89" spans="4:12">
-      <c r="D89" s="234"/>
+      <c r="D89" s="240"/>
       <c r="E89" s="85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F89" s="44" t="s">
         <v>168</v>
@@ -6469,9 +6474,9 @@
       <c r="L89" s="44"/>
     </row>
     <row r="90" spans="4:12">
-      <c r="D90" s="234"/>
+      <c r="D90" s="240"/>
       <c r="E90" s="85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F90" s="44" t="s">
         <v>170</v>
@@ -6488,9 +6493,9 @@
       <c r="L90" s="44"/>
     </row>
     <row r="91" spans="4:12">
-      <c r="D91" s="234"/>
+      <c r="D91" s="240"/>
       <c r="E91" s="85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F91" s="44" t="s">
         <v>172</v>
@@ -6507,9 +6512,9 @@
       <c r="L91" s="44"/>
     </row>
     <row r="92" spans="4:12">
-      <c r="D92" s="234"/>
+      <c r="D92" s="240"/>
       <c r="E92" s="85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F92" s="44" t="s">
         <v>174</v>
@@ -6526,9 +6531,9 @@
       <c r="L92" s="44"/>
     </row>
     <row r="93" spans="4:12">
-      <c r="D93" s="234"/>
+      <c r="D93" s="240"/>
       <c r="E93" s="85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F93" s="44" t="s">
         <v>176</v>
@@ -6545,9 +6550,9 @@
       <c r="L93" s="44"/>
     </row>
     <row r="94" spans="4:12">
-      <c r="D94" s="234"/>
+      <c r="D94" s="240"/>
       <c r="E94" s="85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F94" s="44" t="s">
         <v>179</v>
@@ -6562,9 +6567,9 @@
       <c r="L94" s="44"/>
     </row>
     <row r="95" spans="4:12">
-      <c r="D95" s="234"/>
+      <c r="D95" s="240"/>
       <c r="E95" s="85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F95" s="44" t="s">
         <v>181</v>
@@ -6579,9 +6584,9 @@
       <c r="L95" s="44"/>
     </row>
     <row r="96" spans="4:12">
-      <c r="D96" s="234"/>
+      <c r="D96" s="240"/>
       <c r="E96" s="85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F96" s="44" t="s">
         <v>183</v>
@@ -6598,9 +6603,9 @@
       <c r="L96" s="44"/>
     </row>
     <row r="97" spans="4:12" s="38" customFormat="1">
-      <c r="D97" s="234"/>
+      <c r="D97" s="240"/>
       <c r="E97" s="81" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F97" s="44" t="s">
         <v>185</v>
@@ -6621,7 +6626,7 @@
       <c r="L97" s="106"/>
     </row>
     <row r="98" spans="4:12">
-      <c r="D98" s="234"/>
+      <c r="D98" s="240"/>
       <c r="E98" s="82"/>
       <c r="F98" s="47" t="s">
         <v>190</v>
@@ -6642,7 +6647,7 @@
       <c r="L98" s="44"/>
     </row>
     <row r="99" spans="4:12">
-      <c r="D99" s="234"/>
+      <c r="D99" s="240"/>
       <c r="E99" s="82"/>
       <c r="F99" s="48" t="s">
         <v>193</v>
@@ -6663,7 +6668,7 @@
       <c r="L99" s="44"/>
     </row>
     <row r="100" spans="4:12">
-      <c r="D100" s="234"/>
+      <c r="D100" s="240"/>
       <c r="E100" s="82"/>
       <c r="F100" s="48" t="s">
         <v>198</v>
@@ -6684,7 +6689,7 @@
       <c r="L100" s="44"/>
     </row>
     <row r="101" spans="4:12" s="112" customFormat="1">
-      <c r="D101" s="234"/>
+      <c r="D101" s="240"/>
       <c r="E101" s="75"/>
       <c r="F101" s="113" t="s">
         <v>203</v>
@@ -6699,7 +6704,7 @@
       <c r="L101" s="114"/>
     </row>
     <row r="102" spans="4:12" s="112" customFormat="1">
-      <c r="D102" s="234"/>
+      <c r="D102" s="240"/>
       <c r="E102" s="75"/>
       <c r="F102" s="114" t="s">
         <v>205</v>
@@ -6714,7 +6719,7 @@
       <c r="L102" s="114"/>
     </row>
     <row r="103" spans="4:12" s="112" customFormat="1">
-      <c r="D103" s="234"/>
+      <c r="D103" s="240"/>
       <c r="E103" s="130"/>
       <c r="F103" s="115" t="s">
         <v>207</v>
@@ -6729,7 +6734,7 @@
       <c r="L103" s="115"/>
     </row>
     <row r="104" spans="4:12" s="112" customFormat="1">
-      <c r="D104" s="235"/>
+      <c r="D104" s="241"/>
       <c r="E104" s="136"/>
       <c r="F104" s="133" t="s">
         <v>209</v>
@@ -6750,152 +6755,152 @@
       <c r="L104" s="135"/>
     </row>
     <row r="105" spans="4:12" s="112" customFormat="1">
-      <c r="D105" s="235"/>
+      <c r="D105" s="241"/>
       <c r="E105" s="136" t="s">
+        <v>42</v>
+      </c>
+      <c r="F105" s="133" t="s">
         <v>43</v>
-      </c>
-      <c r="F105" s="133" t="s">
-        <v>44</v>
       </c>
       <c r="G105" s="133" t="s">
         <v>288</v>
       </c>
       <c r="H105" s="134" t="s">
+        <v>45</v>
+      </c>
+      <c r="I105" s="134" t="s">
         <v>46</v>
       </c>
-      <c r="I105" s="134" t="s">
+      <c r="J105" s="133" t="s">
         <v>47</v>
-      </c>
-      <c r="J105" s="133" t="s">
-        <v>48</v>
       </c>
       <c r="K105" s="133"/>
       <c r="L105" s="135"/>
     </row>
     <row r="106" spans="4:12" s="112" customFormat="1" ht="28.5" customHeight="1">
-      <c r="D106" s="235"/>
+      <c r="D106" s="241"/>
       <c r="E106" s="178" t="s">
+        <v>48</v>
+      </c>
+      <c r="F106" s="179" t="s">
         <v>49</v>
-      </c>
-      <c r="F106" s="179" t="s">
-        <v>50</v>
       </c>
       <c r="G106" s="179" t="s">
         <v>289</v>
       </c>
       <c r="H106" s="180" t="s">
+        <v>51</v>
+      </c>
+      <c r="I106" s="180" t="s">
         <v>52</v>
       </c>
-      <c r="I106" s="180" t="s">
+      <c r="J106" s="180" t="s">
         <v>53</v>
-      </c>
-      <c r="J106" s="180" t="s">
-        <v>54</v>
       </c>
       <c r="K106" s="179"/>
       <c r="L106" s="181"/>
     </row>
     <row r="107" spans="4:12" s="112" customFormat="1" ht="28.5" customHeight="1">
-      <c r="D107" s="235"/>
+      <c r="D107" s="241"/>
       <c r="E107" s="182" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F107" s="183" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G107" s="183" t="s">
         <v>290</v>
       </c>
       <c r="H107" s="176" t="s">
+        <v>56</v>
+      </c>
+      <c r="I107" s="177" t="s">
         <v>57</v>
       </c>
-      <c r="I107" s="177" t="s">
+      <c r="J107" s="177" t="s">
         <v>58</v>
-      </c>
-      <c r="J107" s="177" t="s">
-        <v>59</v>
       </c>
       <c r="K107" s="184"/>
       <c r="L107" s="184"/>
     </row>
     <row r="108" spans="4:12" s="112" customFormat="1">
-      <c r="D108" s="234"/>
+      <c r="D108" s="240"/>
       <c r="E108" s="132" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F108" s="113" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G108" s="113" t="s">
         <v>291</v>
       </c>
       <c r="H108" s="116" t="s">
+        <v>61</v>
+      </c>
+      <c r="I108" s="113" t="s">
         <v>62</v>
       </c>
-      <c r="I108" s="113" t="s">
+      <c r="J108" s="113" t="s">
         <v>63</v>
-      </c>
-      <c r="J108" s="113" t="s">
-        <v>64</v>
       </c>
       <c r="K108" s="113"/>
       <c r="L108" s="113"/>
     </row>
     <row r="109" spans="4:12" s="112" customFormat="1" ht="30">
-      <c r="D109" s="234"/>
+      <c r="D109" s="240"/>
       <c r="E109" s="75"/>
       <c r="F109" s="114" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G109" s="113" t="s">
         <v>292</v>
       </c>
       <c r="H109" s="117" t="s">
+        <v>66</v>
+      </c>
+      <c r="I109" s="117" t="s">
         <v>67</v>
       </c>
-      <c r="I109" s="117" t="s">
+      <c r="J109" s="118" t="s">
         <v>68</v>
-      </c>
-      <c r="J109" s="118" t="s">
-        <v>69</v>
       </c>
       <c r="K109" s="114"/>
       <c r="L109" s="114"/>
     </row>
     <row r="110" spans="4:12" s="112" customFormat="1">
-      <c r="D110" s="234"/>
+      <c r="D110" s="240"/>
       <c r="E110" s="75" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F110" s="114" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G110" s="114" t="s">
         <v>293</v>
       </c>
       <c r="H110" s="119" t="s">
+        <v>71</v>
+      </c>
+      <c r="I110" s="114" t="s">
         <v>72</v>
       </c>
-      <c r="I110" s="114" t="s">
+      <c r="J110" s="114" t="s">
         <v>73</v>
-      </c>
-      <c r="J110" s="114" t="s">
-        <v>74</v>
       </c>
       <c r="K110" s="114"/>
       <c r="L110" s="114"/>
     </row>
     <row r="111" spans="4:12" s="112" customFormat="1" ht="30">
-      <c r="D111" s="234"/>
+      <c r="D111" s="240"/>
       <c r="E111" s="75"/>
       <c r="F111" s="114" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G111" s="114" t="s">
         <v>294</v>
       </c>
       <c r="H111" s="119" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I111" s="114" t="s">
         <v>295</v>
@@ -6907,35 +6912,35 @@
       <c r="L111" s="114"/>
     </row>
     <row r="112" spans="4:12" s="112" customFormat="1">
-      <c r="D112" s="234"/>
+      <c r="D112" s="240"/>
       <c r="E112" s="75" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F112" s="114" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G112" s="114" t="s">
         <v>297</v>
       </c>
       <c r="H112" s="119" t="s">
+        <v>81</v>
+      </c>
+      <c r="I112" s="114" t="s">
         <v>82</v>
       </c>
-      <c r="I112" s="114" t="s">
+      <c r="J112" s="114" t="s">
         <v>83</v>
-      </c>
-      <c r="J112" s="114" t="s">
-        <v>84</v>
       </c>
       <c r="K112" s="114"/>
       <c r="L112" s="114"/>
     </row>
     <row r="113" spans="1:12" s="112" customFormat="1">
-      <c r="D113" s="234"/>
+      <c r="D113" s="240"/>
       <c r="E113" s="86" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F113" s="114" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G113" s="114" t="s">
         <v>298</v>
@@ -6953,35 +6958,35 @@
       <c r="L113" s="114"/>
     </row>
     <row r="114" spans="1:12" s="112" customFormat="1">
-      <c r="D114" s="234"/>
+      <c r="D114" s="240"/>
       <c r="E114" s="120" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F114" s="115" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G114" s="115" t="s">
         <v>299</v>
       </c>
       <c r="H114" s="121" t="s">
+        <v>88</v>
+      </c>
+      <c r="I114" s="115" t="s">
         <v>89</v>
       </c>
-      <c r="I114" s="115" t="s">
+      <c r="J114" s="115" t="s">
         <v>90</v>
-      </c>
-      <c r="J114" s="115" t="s">
-        <v>91</v>
       </c>
       <c r="K114" s="115"/>
       <c r="L114" s="115"/>
     </row>
     <row r="115" spans="1:12" s="112" customFormat="1" ht="30">
-      <c r="D115" s="234"/>
+      <c r="D115" s="240"/>
       <c r="E115" s="89" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F115" s="107" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G115" s="108" t="s">
         <v>300</v>
@@ -6993,28 +6998,28 @@
       <c r="L115" s="108"/>
     </row>
     <row r="116" spans="1:12" s="112" customFormat="1">
-      <c r="D116" s="234"/>
+      <c r="D116" s="240"/>
       <c r="E116" s="143"/>
       <c r="F116" s="144" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G116" s="145" t="s">
         <v>301</v>
       </c>
       <c r="H116" s="122" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I116" s="122" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J116" s="122" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K116" s="108"/>
       <c r="L116" s="108"/>
     </row>
     <row r="117" spans="1:12" s="138" customFormat="1">
-      <c r="D117" s="235"/>
+      <c r="D117" s="241"/>
       <c r="E117" s="146"/>
       <c r="F117" s="124" t="s">
         <v>302</v>
@@ -7023,10 +7028,10 @@
         <v>303</v>
       </c>
       <c r="H117" s="141" t="s">
+        <v>98</v>
+      </c>
+      <c r="I117" s="141" t="s">
         <v>99</v>
-      </c>
-      <c r="I117" s="141" t="s">
-        <v>100</v>
       </c>
       <c r="J117" s="141" t="s">
         <v>304</v>
@@ -7035,7 +7040,7 @@
       <c r="L117" s="139"/>
     </row>
     <row r="118" spans="1:12" s="138" customFormat="1">
-      <c r="D118" s="235"/>
+      <c r="D118" s="241"/>
       <c r="E118" s="146"/>
       <c r="F118" s="124" t="s">
         <v>305</v>
@@ -7066,13 +7071,7 @@
   <autoFilter ref="A9:O119" xr:uid="{FC96D3DE-56F6-4E60-B012-339ED5333B2B}">
     <filterColumn colId="0" showButton="0"/>
   </autoFilter>
-  <mergeCells count="14">
-    <mergeCell ref="J2:O4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
+  <mergeCells count="15">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D14:D25"/>
     <mergeCell ref="D11:D13"/>
@@ -7081,6 +7080,13 @@
     <mergeCell ref="D27:D33"/>
     <mergeCell ref="D34:D40"/>
     <mergeCell ref="A5:F5"/>
+    <mergeCell ref="J2:O4"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D27">
@@ -7372,8 +7378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E39679EB-3E9B-472F-B5A5-82E3B98361DA}">
   <dimension ref="A1:EV352"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="E5" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -7393,19 +7399,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:152" ht="18.75">
-      <c r="A1" s="229" t="s">
+      <c r="A1" s="231" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="229"/>
+      <c r="B1" s="231"/>
       <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:152" s="1" customFormat="1" ht="18.75">
-      <c r="A2" s="229" t="s">
+      <c r="A2" s="231" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="229"/>
+      <c r="B2" s="231"/>
       <c r="C2" t="s">
         <v>311</v>
       </c>
@@ -7415,14 +7421,14 @@
       <c r="I2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="240" t="s">
+      <c r="J2" s="229" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="240"/>
-      <c r="L2" s="240"/>
-      <c r="M2" s="240"/>
-      <c r="N2" s="240"/>
-      <c r="O2" s="240"/>
+      <c r="K2" s="229"/>
+      <c r="L2" s="229"/>
+      <c r="M2" s="229"/>
+      <c r="N2" s="229"/>
+      <c r="O2" s="229"/>
       <c r="P2" s="218"/>
       <c r="Q2" s="218"/>
       <c r="R2" s="218"/>
@@ -7562,22 +7568,22 @@
       <c r="EV2" s="218"/>
     </row>
     <row r="3" spans="1:152" s="1" customFormat="1" ht="18.75">
-      <c r="A3" s="229" t="s">
+      <c r="A3" s="231" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="229"/>
+      <c r="B3" s="231"/>
       <c r="C3" t="s">
         <v>312</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3"/>
       <c r="H3" s="7"/>
-      <c r="J3" s="240"/>
-      <c r="K3" s="240"/>
-      <c r="L3" s="240"/>
-      <c r="M3" s="240"/>
-      <c r="N3" s="240"/>
-      <c r="O3" s="240"/>
+      <c r="J3" s="229"/>
+      <c r="K3" s="229"/>
+      <c r="L3" s="229"/>
+      <c r="M3" s="229"/>
+      <c r="N3" s="229"/>
+      <c r="O3" s="229"/>
       <c r="P3" s="218"/>
       <c r="Q3" s="218"/>
       <c r="R3" s="218"/>
@@ -7717,22 +7723,22 @@
       <c r="EV3" s="218"/>
     </row>
     <row r="4" spans="1:152" s="1" customFormat="1" ht="18.75">
-      <c r="A4" s="229" t="s">
+      <c r="A4" s="231" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="229"/>
+      <c r="B4" s="231"/>
       <c r="C4" t="s">
         <v>313</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4"/>
       <c r="H4" s="7"/>
-      <c r="J4" s="240"/>
-      <c r="K4" s="240"/>
-      <c r="L4" s="240"/>
-      <c r="M4" s="240"/>
-      <c r="N4" s="240"/>
-      <c r="O4" s="240"/>
+      <c r="J4" s="229"/>
+      <c r="K4" s="229"/>
+      <c r="L4" s="229"/>
+      <c r="M4" s="229"/>
+      <c r="N4" s="229"/>
+      <c r="O4" s="229"/>
       <c r="P4" s="218"/>
       <c r="Q4" s="218"/>
       <c r="R4" s="218"/>
@@ -7872,12 +7878,12 @@
       <c r="EV4" s="218"/>
     </row>
     <row r="5" spans="1:152" s="1" customFormat="1" ht="18.75">
-      <c r="A5" s="245" t="s">
+      <c r="A5" s="246" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="245"/>
-      <c r="C5" s="245"/>
-      <c r="D5" s="245"/>
+      <c r="B5" s="246"/>
+      <c r="C5" s="246"/>
+      <c r="D5" s="246"/>
       <c r="E5" s="5"/>
       <c r="F5"/>
       <c r="H5" s="7"/>
@@ -8026,12 +8032,12 @@
       <c r="EV5" s="218"/>
     </row>
     <row r="6" spans="1:152" s="1" customFormat="1" ht="18.75">
-      <c r="A6" s="241" t="s">
+      <c r="A6" s="232" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="242"/>
-      <c r="C6" s="242"/>
-      <c r="D6" s="243"/>
+      <c r="B6" s="233"/>
+      <c r="C6" s="233"/>
+      <c r="D6" s="234"/>
       <c r="E6" s="5"/>
       <c r="F6" t="s">
         <v>11</v>
@@ -8182,12 +8188,12 @@
       <c r="EV6" s="218"/>
     </row>
     <row r="7" spans="1:152" s="1" customFormat="1" ht="18.75">
-      <c r="A7" s="244" t="s">
+      <c r="A7" s="235" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="244"/>
-      <c r="C7" s="244"/>
-      <c r="D7" s="244"/>
+      <c r="B7" s="235"/>
+      <c r="C7" s="235"/>
+      <c r="D7" s="235"/>
       <c r="E7" s="10"/>
       <c r="F7" t="s">
         <v>13</v>
@@ -8493,37 +8499,37 @@
         <v>14</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>15</v>
+        <v>314</v>
       </c>
       <c r="C9" s="163" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="F9" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="G9" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="H9" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="I9" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="18" t="s">
+      <c r="J9" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="18" t="s">
+      <c r="K9" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="18" t="s">
+      <c r="L9" s="18" t="s">
         <v>23</v>
-      </c>
-      <c r="L9" s="18" t="s">
-        <v>24</v>
       </c>
       <c r="M9" s="221"/>
       <c r="N9" s="221"/>
@@ -8668,16 +8674,16 @@
     </row>
     <row r="10" spans="1:152">
       <c r="A10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="109" t="s">
+      <c r="D10" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="E10" s="34"/>
       <c r="F10" s="25"/>
@@ -8690,142 +8696,142 @@
     </row>
     <row r="11" spans="1:152" ht="16.5" customHeight="1">
       <c r="A11" s="167"/>
-      <c r="D11" s="230" t="s">
-        <v>29</v>
+      <c r="D11" s="236" t="s">
+        <v>28</v>
       </c>
       <c r="E11" s="74"/>
       <c r="F11" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="13" t="s">
-        <v>31</v>
-      </c>
       <c r="H11" s="14" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K11" s="46"/>
       <c r="L11" s="46"/>
     </row>
     <row r="12" spans="1:152">
       <c r="A12" s="2"/>
-      <c r="D12" s="231"/>
+      <c r="D12" s="237"/>
       <c r="E12" s="74"/>
       <c r="F12" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="13" t="s">
-        <v>36</v>
-      </c>
       <c r="H12" s="14" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K12" s="46"/>
       <c r="L12" s="46"/>
     </row>
     <row r="13" spans="1:152">
       <c r="A13" s="2"/>
-      <c r="D13" s="232"/>
+      <c r="D13" s="238"/>
       <c r="E13" s="74"/>
       <c r="F13" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="13" t="s">
-        <v>39</v>
-      </c>
       <c r="H13" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K13" s="46"/>
       <c r="L13" s="46"/>
     </row>
     <row r="14" spans="1:152">
       <c r="A14" s="2"/>
-      <c r="D14" s="230" t="s">
+      <c r="D14" s="236" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="74" t="s">
+      <c r="F14" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="G14" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="15" t="s">
-        <v>45</v>
-      </c>
       <c r="H14" s="16" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
     </row>
     <row r="15" spans="1:152" ht="28.5" customHeight="1">
       <c r="A15" s="2"/>
-      <c r="D15" s="231"/>
+      <c r="D15" s="237"/>
       <c r="E15" s="84" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="148" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="148" t="s">
+      <c r="G15" s="148" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="148" t="s">
-        <v>51</v>
-      </c>
       <c r="H15" s="149" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I15" s="149" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J15" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
     </row>
     <row r="16" spans="1:152" s="112" customFormat="1" ht="28.5" customHeight="1">
       <c r="A16" s="215"/>
-      <c r="D16" s="231"/>
+      <c r="D16" s="237"/>
       <c r="E16" s="186" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F16" s="187" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="199" t="s">
         <v>55</v>
       </c>
-      <c r="G16" s="199" t="s">
-        <v>56</v>
-      </c>
       <c r="H16" s="159" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I16" s="160" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="J16" s="160" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K16" s="187"/>
       <c r="L16" s="187"/>
@@ -8972,46 +8978,46 @@
     </row>
     <row r="17" spans="1:152">
       <c r="A17" s="2"/>
-      <c r="D17" s="231"/>
+      <c r="D17" s="237"/>
       <c r="E17" s="85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F17" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="G17" s="42" t="s">
-        <v>61</v>
-      </c>
       <c r="H17" s="43" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I17" s="42" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="J17" s="43" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K17" s="42"/>
       <c r="L17" s="42"/>
     </row>
     <row r="18" spans="1:152" s="112" customFormat="1" ht="30">
       <c r="A18" s="2"/>
-      <c r="D18" s="231"/>
+      <c r="D18" s="237"/>
       <c r="E18" s="75"/>
       <c r="F18" s="109" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" s="109" t="s">
         <v>65</v>
       </c>
-      <c r="G18" s="109" t="s">
-        <v>66</v>
-      </c>
       <c r="H18" s="110" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="I18" s="110" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="J18" s="110" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K18" s="109"/>
       <c r="L18" s="109"/>
@@ -9158,85 +9164,85 @@
     </row>
     <row r="19" spans="1:152">
       <c r="A19" s="2"/>
-      <c r="D19" s="231"/>
+      <c r="D19" s="237"/>
       <c r="E19" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F19" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="G19" s="44" t="s">
-        <v>71</v>
-      </c>
       <c r="H19" s="45" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I19" s="45" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="J19" s="44" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K19" s="44"/>
       <c r="L19" s="44"/>
     </row>
     <row r="20" spans="1:152">
       <c r="A20" s="2"/>
-      <c r="D20" s="231"/>
+      <c r="D20" s="237"/>
       <c r="E20" s="34"/>
       <c r="F20" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="G20" s="20" t="s">
-        <v>76</v>
-      </c>
       <c r="H20" s="21" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I20" s="21" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J20" s="53" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K20" s="20"/>
       <c r="L20" s="20"/>
     </row>
     <row r="21" spans="1:152">
       <c r="A21" s="2"/>
-      <c r="D21" s="231"/>
+      <c r="D21" s="237"/>
       <c r="E21" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F21" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="G21" s="20" t="s">
-        <v>81</v>
-      </c>
       <c r="H21" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I21" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="J21" s="20" t="s">
         <v>83</v>
-      </c>
-      <c r="J21" s="20" t="s">
-        <v>84</v>
       </c>
       <c r="K21" s="20"/>
       <c r="L21" s="20"/>
     </row>
     <row r="22" spans="1:152">
       <c r="A22" s="2"/>
-      <c r="D22" s="231"/>
+      <c r="D22" s="237"/>
       <c r="E22" s="85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F22" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="G22" s="20" t="s">
         <v>85</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>86</v>
       </c>
       <c r="H22" s="22">
         <v>1</v>
@@ -9245,31 +9251,31 @@
         <v>1</v>
       </c>
       <c r="J22" s="54" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K22" s="20"/>
       <c r="L22" s="20"/>
     </row>
     <row r="23" spans="1:152">
       <c r="A23" s="2"/>
-      <c r="D23" s="231"/>
+      <c r="D23" s="237"/>
       <c r="E23" s="87" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F23" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="G23" s="29" t="s">
+      <c r="H23" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="H23" s="55" t="s">
+      <c r="I23" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="J23" s="29" t="s">
         <v>89</v>
-      </c>
-      <c r="I23" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="J23" s="29" t="s">
-        <v>90</v>
       </c>
       <c r="K23" s="29"/>
       <c r="L23" s="29"/>
@@ -9278,15 +9284,15 @@
       <c r="A24" s="2"/>
       <c r="B24"/>
       <c r="C24"/>
-      <c r="D24" s="231"/>
+      <c r="D24" s="237"/>
       <c r="E24" s="189" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F24" s="190" t="s">
+        <v>91</v>
+      </c>
+      <c r="G24" s="190" t="s">
         <v>92</v>
-      </c>
-      <c r="G24" s="190" t="s">
-        <v>93</v>
       </c>
       <c r="H24" s="174"/>
       <c r="I24" s="175"/>
@@ -9296,22 +9302,22 @@
     </row>
     <row r="25" spans="1:152">
       <c r="A25" s="2"/>
-      <c r="D25" s="232"/>
+      <c r="D25" s="238"/>
       <c r="E25" s="89"/>
       <c r="F25" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="G25" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="G25" s="35" t="s">
+      <c r="H25" s="91" t="s">
         <v>95</v>
       </c>
-      <c r="H25" s="91" t="s">
-        <v>96</v>
-      </c>
       <c r="I25" s="91" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J25" s="91" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K25" s="35"/>
       <c r="L25" s="35"/>
@@ -9319,97 +9325,97 @@
     <row r="26" spans="1:152">
       <c r="A26" s="2"/>
       <c r="D26" s="88" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="G26" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="E26" s="80" t="s">
-        <v>43</v>
-      </c>
-      <c r="F26" s="57" t="s">
-        <v>97</v>
-      </c>
-      <c r="G26" s="57" t="s">
-        <v>98</v>
-      </c>
       <c r="H26" s="58" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="I26" s="58" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="J26" s="58" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K26" s="59"/>
       <c r="L26" s="59"/>
     </row>
     <row r="27" spans="1:152">
       <c r="A27" s="2"/>
-      <c r="D27" s="236" t="s">
-        <v>102</v>
+      <c r="D27" s="242" t="s">
+        <v>101</v>
       </c>
       <c r="E27" s="76"/>
       <c r="F27" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="G27" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="G27" s="23" t="s">
-        <v>104</v>
-      </c>
       <c r="H27" s="24" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I27" s="24" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="J27" s="24" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K27" s="20"/>
       <c r="L27" s="20"/>
     </row>
     <row r="28" spans="1:152">
       <c r="A28" s="2"/>
-      <c r="D28" s="237"/>
+      <c r="D28" s="243"/>
       <c r="E28" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F28" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="G28" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="G28" s="20" t="s">
-        <v>109</v>
-      </c>
       <c r="H28" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I28" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J28" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K28" s="20"/>
       <c r="L28" s="20"/>
     </row>
     <row r="29" spans="1:152" s="69" customFormat="1">
       <c r="A29" s="2"/>
-      <c r="D29" s="237"/>
+      <c r="D29" s="243"/>
       <c r="E29" s="87" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F29" s="68" t="s">
+        <v>112</v>
+      </c>
+      <c r="G29" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="G29" s="20" t="s">
-        <v>114</v>
-      </c>
       <c r="H29" s="68" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="I29" s="68" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="J29" s="68" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K29" s="68"/>
       <c r="L29" s="68"/>
@@ -9556,31 +9562,31 @@
     </row>
     <row r="30" spans="1:152">
       <c r="A30" s="2"/>
-      <c r="D30" s="237"/>
+      <c r="D30" s="243"/>
       <c r="E30" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F30" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="G30" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="G30" s="20" t="s">
-        <v>118</v>
-      </c>
       <c r="H30" s="21" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I30" s="20" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J30" s="20" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K30" s="20"/>
       <c r="L30" s="20"/>
     </row>
     <row r="31" spans="1:152">
       <c r="A31" s="2"/>
-      <c r="D31" s="237"/>
+      <c r="D31" s="243"/>
       <c r="E31" s="34"/>
       <c r="F31" s="20" t="s">
         <v>121</v>
@@ -9589,20 +9595,20 @@
         <v>122</v>
       </c>
       <c r="H31" s="21" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="I31" s="20" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="J31" s="20" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K31" s="20"/>
       <c r="L31" s="20"/>
     </row>
     <row r="32" spans="1:152">
       <c r="A32" s="2"/>
-      <c r="D32" s="237"/>
+      <c r="D32" s="243"/>
       <c r="E32" s="34"/>
       <c r="F32" s="20" t="s">
         <v>125</v>
@@ -9611,22 +9617,22 @@
         <v>126</v>
       </c>
       <c r="H32" s="21" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="I32" s="20" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="J32" s="20" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K32" s="20"/>
       <c r="L32" s="20"/>
     </row>
     <row r="33" spans="1:152">
       <c r="A33" s="2"/>
-      <c r="D33" s="237"/>
+      <c r="D33" s="243"/>
       <c r="E33" s="87" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F33" s="29" t="s">
         <v>129</v>
@@ -9635,25 +9641,25 @@
         <v>130</v>
       </c>
       <c r="H33" s="55" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="I33" s="29" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J33" s="29" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K33" s="29"/>
       <c r="L33" s="29"/>
     </row>
     <row r="34" spans="1:152">
       <c r="A34" s="2"/>
-      <c r="D34" s="236" t="s">
+      <c r="D34" s="242" t="s">
         <v>134</v>
       </c>
       <c r="E34" s="78"/>
       <c r="F34" s="60" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G34" s="23" t="s">
         <v>135</v>
@@ -9666,10 +9672,10 @@
     </row>
     <row r="35" spans="1:152">
       <c r="A35" s="2"/>
-      <c r="D35" s="237"/>
+      <c r="D35" s="243"/>
       <c r="E35" s="34"/>
       <c r="F35" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G35" s="20" t="s">
         <v>136</v>
@@ -9677,17 +9683,17 @@
       <c r="H35" s="21"/>
       <c r="I35" s="20"/>
       <c r="J35" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K35" s="20"/>
       <c r="L35" s="64"/>
     </row>
     <row r="36" spans="1:152">
       <c r="A36" s="2"/>
-      <c r="D36" s="237"/>
+      <c r="D36" s="243"/>
       <c r="E36" s="34"/>
       <c r="F36" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G36" s="20" t="s">
         <v>137</v>
@@ -9695,17 +9701,17 @@
       <c r="H36" s="21"/>
       <c r="I36" s="169"/>
       <c r="J36" s="68" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K36" s="20"/>
       <c r="L36" s="64"/>
     </row>
     <row r="37" spans="1:152">
       <c r="A37" s="2"/>
-      <c r="D37" s="237"/>
+      <c r="D37" s="243"/>
       <c r="E37" s="34"/>
       <c r="F37" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G37" s="20" t="s">
         <v>138</v>
@@ -9713,14 +9719,14 @@
       <c r="H37" s="21"/>
       <c r="I37" s="20"/>
       <c r="J37" s="20" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K37" s="20"/>
       <c r="L37" s="64"/>
     </row>
     <row r="38" spans="1:152">
       <c r="A38" s="2"/>
-      <c r="D38" s="237"/>
+      <c r="D38" s="243"/>
       <c r="E38" s="34"/>
       <c r="F38" s="20" t="s">
         <v>121</v>
@@ -9731,14 +9737,14 @@
       <c r="H38" s="21"/>
       <c r="I38" s="20"/>
       <c r="J38" s="20" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K38" s="20"/>
       <c r="L38" s="64"/>
     </row>
     <row r="39" spans="1:152">
       <c r="A39" s="2"/>
-      <c r="D39" s="237"/>
+      <c r="D39" s="243"/>
       <c r="E39" s="34"/>
       <c r="F39" s="20" t="s">
         <v>125</v>
@@ -9749,14 +9755,14 @@
       <c r="H39" s="21"/>
       <c r="I39" s="20"/>
       <c r="J39" s="20" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K39" s="20"/>
       <c r="L39" s="64"/>
     </row>
     <row r="40" spans="1:152">
       <c r="A40" s="2"/>
-      <c r="D40" s="238"/>
+      <c r="D40" s="244"/>
       <c r="E40" s="79"/>
       <c r="F40" s="65" t="s">
         <v>129</v>
@@ -9767,14 +9773,14 @@
       <c r="H40" s="66"/>
       <c r="I40" s="65"/>
       <c r="J40" s="65" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K40" s="65"/>
       <c r="L40" s="67"/>
     </row>
     <row r="41" spans="1:152">
       <c r="A41" s="2"/>
-      <c r="D41" s="230" t="s">
+      <c r="D41" s="236" t="s">
         <v>142</v>
       </c>
       <c r="E41" s="80"/>
@@ -9785,22 +9791,22 @@
         <v>144</v>
       </c>
       <c r="H41" s="58" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I41" s="58" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="J41" s="58" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K41" s="59"/>
       <c r="L41" s="59"/>
     </row>
     <row r="42" spans="1:152">
       <c r="A42" s="2"/>
-      <c r="D42" s="231"/>
+      <c r="D42" s="237"/>
       <c r="E42" s="147" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F42" s="148" t="s">
         <v>148</v>
@@ -9822,7 +9828,7 @@
     </row>
     <row r="43" spans="1:152" s="38" customFormat="1">
       <c r="A43" s="2"/>
-      <c r="D43" s="233"/>
+      <c r="D43" s="239"/>
       <c r="E43" s="152"/>
       <c r="F43" s="153" t="s">
         <v>151</v>
@@ -9831,7 +9837,7 @@
         <v>152</v>
       </c>
       <c r="H43" s="154" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="I43" s="154"/>
       <c r="J43" s="154"/>
@@ -9980,9 +9986,9 @@
     </row>
     <row r="44" spans="1:152">
       <c r="A44" s="2"/>
-      <c r="D44" s="231"/>
+      <c r="D44" s="237"/>
       <c r="E44" s="151" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F44" s="30" t="s">
         <v>154</v>
@@ -9991,22 +9997,22 @@
         <v>155</v>
       </c>
       <c r="H44" s="31" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="I44" s="31" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="J44" s="31" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K44" s="27"/>
       <c r="L44" s="27"/>
     </row>
     <row r="45" spans="1:152">
       <c r="A45" s="2"/>
-      <c r="D45" s="231"/>
+      <c r="D45" s="237"/>
       <c r="E45" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F45" s="20" t="s">
         <v>159</v>
@@ -10015,22 +10021,22 @@
         <v>160</v>
       </c>
       <c r="H45" s="21" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I45" s="20" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="J45" s="20" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K45" s="20"/>
       <c r="L45" s="20"/>
     </row>
     <row r="46" spans="1:152">
       <c r="A46" s="2"/>
-      <c r="D46" s="231"/>
+      <c r="D46" s="237"/>
       <c r="E46" s="85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F46" s="20" t="s">
         <v>164</v>
@@ -10052,9 +10058,9 @@
     </row>
     <row r="47" spans="1:152">
       <c r="A47" s="2"/>
-      <c r="D47" s="231"/>
+      <c r="D47" s="237"/>
       <c r="E47" s="85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F47" s="20" t="s">
         <v>166</v>
@@ -10074,9 +10080,9 @@
     </row>
     <row r="48" spans="1:152">
       <c r="A48" s="2"/>
-      <c r="D48" s="231"/>
+      <c r="D48" s="237"/>
       <c r="E48" s="85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F48" s="20" t="s">
         <v>168</v>
@@ -10091,9 +10097,9 @@
     </row>
     <row r="49" spans="1:152">
       <c r="A49" s="2"/>
-      <c r="D49" s="231"/>
+      <c r="D49" s="237"/>
       <c r="E49" s="85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F49" s="20" t="s">
         <v>170</v>
@@ -10102,10 +10108,10 @@
         <v>171</v>
       </c>
       <c r="H49" s="20" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="I49" s="20" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="J49" s="20"/>
       <c r="K49" s="20"/>
@@ -10113,9 +10119,9 @@
     </row>
     <row r="50" spans="1:152">
       <c r="A50" s="2"/>
-      <c r="D50" s="231"/>
+      <c r="D50" s="237"/>
       <c r="E50" s="85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F50" s="20" t="s">
         <v>172</v>
@@ -10131,9 +10137,9 @@
     </row>
     <row r="51" spans="1:152">
       <c r="A51" s="2"/>
-      <c r="D51" s="231"/>
+      <c r="D51" s="237"/>
       <c r="E51" s="85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F51" s="20" t="s">
         <v>174</v>
@@ -10142,7 +10148,7 @@
         <v>169</v>
       </c>
       <c r="H51" s="20" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="I51" s="20"/>
       <c r="J51" s="20"/>
@@ -10151,9 +10157,9 @@
     </row>
     <row r="52" spans="1:152">
       <c r="A52" s="2"/>
-      <c r="D52" s="231"/>
+      <c r="D52" s="237"/>
       <c r="E52" s="85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F52" s="20" t="s">
         <v>176</v>
@@ -10162,7 +10168,7 @@
         <v>177</v>
       </c>
       <c r="H52" s="20" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="I52" s="20"/>
       <c r="J52" s="20"/>
@@ -10171,9 +10177,9 @@
     </row>
     <row r="53" spans="1:152">
       <c r="A53" s="2"/>
-      <c r="D53" s="231"/>
+      <c r="D53" s="237"/>
       <c r="E53" s="85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F53" s="20" t="s">
         <v>179</v>
@@ -10191,9 +10197,9 @@
     </row>
     <row r="54" spans="1:152">
       <c r="A54" s="2"/>
-      <c r="D54" s="231"/>
+      <c r="D54" s="237"/>
       <c r="E54" s="85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F54" s="20" t="s">
         <v>181</v>
@@ -10202,7 +10208,7 @@
         <v>182</v>
       </c>
       <c r="H54" s="20" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I54" s="20"/>
       <c r="J54" s="20"/>
@@ -10211,9 +10217,9 @@
     </row>
     <row r="55" spans="1:152">
       <c r="A55" s="2"/>
-      <c r="D55" s="231"/>
+      <c r="D55" s="237"/>
       <c r="E55" s="85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F55" s="29" t="s">
         <v>183</v>
@@ -10232,9 +10238,9 @@
     </row>
     <row r="56" spans="1:152" s="38" customFormat="1">
       <c r="A56" s="2"/>
-      <c r="D56" s="231"/>
+      <c r="D56" s="237"/>
       <c r="E56" s="81" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F56" s="41" t="s">
         <v>185</v>
@@ -10244,7 +10250,7 @@
       </c>
       <c r="H56" s="41"/>
       <c r="I56" s="41" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="J56" s="39"/>
       <c r="K56" s="40"/>
@@ -10392,7 +10398,7 @@
     </row>
     <row r="57" spans="1:152">
       <c r="A57" s="2"/>
-      <c r="D57" s="231"/>
+      <c r="D57" s="237"/>
       <c r="E57" s="82"/>
       <c r="F57" s="47" t="s">
         <v>190</v>
@@ -10414,7 +10420,7 @@
     </row>
     <row r="58" spans="1:152">
       <c r="A58" s="2"/>
-      <c r="D58" s="231"/>
+      <c r="D58" s="237"/>
       <c r="E58" s="82"/>
       <c r="F58" s="48" t="s">
         <v>193</v>
@@ -10423,20 +10429,20 @@
         <v>194</v>
       </c>
       <c r="H58" s="48" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I58" s="48" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="J58" s="48" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="K58" s="44"/>
       <c r="L58" s="44"/>
     </row>
     <row r="59" spans="1:152">
       <c r="A59" s="2"/>
-      <c r="D59" s="231"/>
+      <c r="D59" s="237"/>
       <c r="E59" s="82"/>
       <c r="F59" s="48" t="s">
         <v>198</v>
@@ -10445,20 +10451,20 @@
         <v>199</v>
       </c>
       <c r="H59" s="48" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I59" s="204" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="J59" s="204" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K59" s="44"/>
       <c r="L59" s="44"/>
     </row>
     <row r="60" spans="1:152">
       <c r="A60" s="2"/>
-      <c r="D60" s="231"/>
+      <c r="D60" s="237"/>
       <c r="E60" s="34"/>
       <c r="F60" s="27" t="s">
         <v>203</v>
@@ -10474,7 +10480,7 @@
     </row>
     <row r="61" spans="1:152">
       <c r="A61" s="2"/>
-      <c r="D61" s="231"/>
+      <c r="D61" s="237"/>
       <c r="E61" s="34"/>
       <c r="F61" s="20" t="s">
         <v>205</v>
@@ -10490,7 +10496,7 @@
     </row>
     <row r="62" spans="1:152">
       <c r="A62" s="2"/>
-      <c r="D62" s="231"/>
+      <c r="D62" s="237"/>
       <c r="E62" s="34"/>
       <c r="F62" s="29" t="s">
         <v>207</v>
@@ -10506,7 +10512,7 @@
     </row>
     <row r="63" spans="1:152">
       <c r="A63" s="2"/>
-      <c r="D63" s="232"/>
+      <c r="D63" s="238"/>
       <c r="E63" s="82"/>
       <c r="F63" s="48" t="s">
         <v>209</v>
@@ -10528,7 +10534,7 @@
     </row>
     <row r="64" spans="1:152">
       <c r="A64" s="2"/>
-      <c r="D64" s="234" t="s">
+      <c r="D64" s="240" t="s">
         <v>212</v>
       </c>
       <c r="E64" s="82"/>
@@ -10539,20 +10545,20 @@
         <v>214</v>
       </c>
       <c r="H64" s="50" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I64" s="50" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="J64" s="50" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K64" s="44"/>
       <c r="L64" s="44"/>
     </row>
     <row r="65" spans="1:152">
       <c r="A65" s="2"/>
-      <c r="D65" s="234"/>
+      <c r="D65" s="240"/>
       <c r="E65" s="82"/>
       <c r="F65" s="51" t="s">
         <v>218</v>
@@ -10561,20 +10567,20 @@
         <v>219</v>
       </c>
       <c r="H65" s="52" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I65" s="52" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J65" s="52" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K65" s="44"/>
       <c r="L65" s="44"/>
     </row>
     <row r="66" spans="1:152">
       <c r="A66" s="2"/>
-      <c r="D66" s="234"/>
+      <c r="D66" s="240"/>
       <c r="E66" s="81"/>
       <c r="F66" s="51" t="s">
         <v>220</v>
@@ -10598,9 +10604,9 @@
       <c r="A67" s="2"/>
       <c r="B67"/>
       <c r="C67"/>
-      <c r="D67" s="234"/>
+      <c r="D67" s="240"/>
       <c r="E67" s="192" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F67" s="174" t="s">
         <v>223</v>
@@ -10616,9 +10622,9 @@
     </row>
     <row r="68" spans="1:152">
       <c r="A68" s="2"/>
-      <c r="D68" s="234"/>
+      <c r="D68" s="240"/>
       <c r="E68" s="81" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F68" s="35" t="s">
         <v>225</v>
@@ -10640,9 +10646,9 @@
     </row>
     <row r="69" spans="1:152" s="69" customFormat="1">
       <c r="A69" s="2"/>
-      <c r="D69" s="234"/>
+      <c r="D69" s="240"/>
       <c r="E69" s="83" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F69" s="71" t="s">
         <v>228</v>
@@ -10654,10 +10660,10 @@
         <v>607080928</v>
       </c>
       <c r="I69" s="140" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="J69" s="140" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K69" s="68"/>
       <c r="L69" s="68"/>
@@ -10804,9 +10810,9 @@
     </row>
     <row r="70" spans="1:152">
       <c r="A70" s="2"/>
-      <c r="D70" s="234"/>
+      <c r="D70" s="240"/>
       <c r="E70" s="85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F70" s="27" t="s">
         <v>230</v>
@@ -10824,9 +10830,9 @@
     </row>
     <row r="71" spans="1:152" s="69" customFormat="1">
       <c r="A71" s="2"/>
-      <c r="D71" s="234"/>
+      <c r="D71" s="240"/>
       <c r="E71" s="85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F71" s="68" t="s">
         <v>232</v>
@@ -10984,7 +10990,7 @@
     </row>
     <row r="72" spans="1:152" s="69" customFormat="1">
       <c r="A72" s="2"/>
-      <c r="D72" s="234"/>
+      <c r="D72" s="240"/>
       <c r="E72" s="85"/>
       <c r="F72" s="95" t="s">
         <v>234</v>
@@ -11142,9 +11148,9 @@
     </row>
     <row r="73" spans="1:152">
       <c r="A73" s="2"/>
-      <c r="D73" s="234"/>
+      <c r="D73" s="240"/>
       <c r="E73" s="85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F73" s="29" t="s">
         <v>236</v>
@@ -11166,7 +11172,7 @@
     </row>
     <row r="74" spans="1:152">
       <c r="A74" s="2"/>
-      <c r="D74" s="234"/>
+      <c r="D74" s="240"/>
       <c r="E74" s="97"/>
       <c r="F74" s="35" t="s">
         <v>240</v>
@@ -11182,9 +11188,9 @@
     </row>
     <row r="75" spans="1:152">
       <c r="A75" s="2"/>
-      <c r="D75" s="234"/>
+      <c r="D75" s="240"/>
       <c r="E75" s="85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F75" s="98" t="s">
         <v>242</v>
@@ -11193,22 +11199,22 @@
         <v>243</v>
       </c>
       <c r="H75" s="36" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="I75" s="35" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="J75" s="35" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K75" s="32"/>
       <c r="L75" s="20"/>
     </row>
     <row r="76" spans="1:152">
       <c r="A76" s="2"/>
-      <c r="D76" s="234"/>
+      <c r="D76" s="240"/>
       <c r="E76" s="82" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F76" s="23" t="s">
         <v>245</v>
@@ -11217,20 +11223,20 @@
         <v>246</v>
       </c>
       <c r="H76" s="165" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I76" s="165" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="J76" s="27" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K76" s="20"/>
       <c r="L76" s="20"/>
     </row>
     <row r="77" spans="1:152">
       <c r="A77" s="2"/>
-      <c r="D77" s="234"/>
+      <c r="D77" s="240"/>
       <c r="E77" s="34"/>
       <c r="F77" s="20" t="s">
         <v>250</v>
@@ -11239,20 +11245,20 @@
         <v>251</v>
       </c>
       <c r="H77" s="165" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="I77" s="165" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="J77" s="20" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K77" s="20"/>
       <c r="L77" s="20"/>
     </row>
     <row r="78" spans="1:152">
       <c r="A78" s="2"/>
-      <c r="D78" s="234"/>
+      <c r="D78" s="240"/>
       <c r="E78" s="77"/>
       <c r="F78" s="29" t="s">
         <v>255</v>
@@ -11261,20 +11267,20 @@
         <v>256</v>
       </c>
       <c r="H78" s="165" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="I78" s="165" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="J78" s="29" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="K78" s="29"/>
       <c r="L78" s="29"/>
     </row>
     <row r="79" spans="1:152">
       <c r="A79" s="2"/>
-      <c r="D79" s="234"/>
+      <c r="D79" s="240"/>
       <c r="E79" s="129"/>
       <c r="F79" s="124" t="s">
         <v>259</v>
@@ -11296,7 +11302,7 @@
     </row>
     <row r="80" spans="1:152">
       <c r="A80" s="2"/>
-      <c r="D80" s="234"/>
+      <c r="D80" s="240"/>
       <c r="E80" s="129"/>
       <c r="F80" s="124" t="s">
         <v>262</v>
@@ -11318,7 +11324,7 @@
     </row>
     <row r="81" spans="1:152">
       <c r="A81" s="2"/>
-      <c r="D81" s="234"/>
+      <c r="D81" s="240"/>
       <c r="E81" s="129"/>
       <c r="F81" s="124" t="s">
         <v>264</v>
@@ -11330,17 +11336,17 @@
         <v>607080928</v>
       </c>
       <c r="I81" s="217" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="J81" s="217" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K81" s="124"/>
       <c r="L81" s="124"/>
     </row>
     <row r="82" spans="1:152">
       <c r="A82" s="2"/>
-      <c r="D82" s="234"/>
+      <c r="D82" s="240"/>
       <c r="E82" s="128"/>
       <c r="F82" s="127" t="s">
         <v>143</v>
@@ -11362,9 +11368,9 @@
     </row>
     <row r="83" spans="1:152">
       <c r="A83" s="2"/>
-      <c r="D83" s="234"/>
+      <c r="D83" s="240"/>
       <c r="E83" s="82" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F83" s="124" t="s">
         <v>148</v>
@@ -11388,7 +11394,7 @@
       <c r="A84" s="2"/>
       <c r="B84"/>
       <c r="C84"/>
-      <c r="D84" s="234"/>
+      <c r="D84" s="240"/>
       <c r="E84" s="212"/>
       <c r="F84" s="213" t="s">
         <v>151</v>
@@ -11397,7 +11403,7 @@
         <v>268</v>
       </c>
       <c r="H84" s="214" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="I84" s="214"/>
       <c r="J84" s="214"/>
@@ -11546,9 +11552,9 @@
     </row>
     <row r="85" spans="1:152">
       <c r="A85" s="2"/>
-      <c r="D85" s="234"/>
+      <c r="D85" s="240"/>
       <c r="E85" s="76" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F85" s="100" t="s">
         <v>154</v>
@@ -11557,22 +11563,22 @@
         <v>269</v>
       </c>
       <c r="H85" s="101" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="I85" s="101" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="J85" s="101" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K85" s="42"/>
       <c r="L85" s="42"/>
     </row>
     <row r="86" spans="1:152">
       <c r="A86" s="2"/>
-      <c r="D86" s="234"/>
+      <c r="D86" s="240"/>
       <c r="E86" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F86" s="44" t="s">
         <v>159</v>
@@ -11581,22 +11587,22 @@
         <v>270</v>
       </c>
       <c r="H86" s="45" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I86" s="44" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="J86" s="44" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K86" s="44"/>
       <c r="L86" s="44"/>
     </row>
     <row r="87" spans="1:152">
       <c r="A87" s="2"/>
-      <c r="D87" s="234"/>
+      <c r="D87" s="240"/>
       <c r="E87" s="85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F87" s="44" t="s">
         <v>164</v>
@@ -11618,9 +11624,9 @@
     </row>
     <row r="88" spans="1:152">
       <c r="A88" s="2"/>
-      <c r="D88" s="234"/>
+      <c r="D88" s="240"/>
       <c r="E88" s="85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F88" s="44" t="s">
         <v>166</v>
@@ -11640,9 +11646,9 @@
     </row>
     <row r="89" spans="1:152">
       <c r="A89" s="2"/>
-      <c r="D89" s="234"/>
+      <c r="D89" s="240"/>
       <c r="E89" s="85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F89" s="44" t="s">
         <v>168</v>
@@ -11658,9 +11664,9 @@
     </row>
     <row r="90" spans="1:152">
       <c r="A90" s="2"/>
-      <c r="D90" s="234"/>
+      <c r="D90" s="240"/>
       <c r="E90" s="85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F90" s="44" t="s">
         <v>170</v>
@@ -11669,10 +11675,10 @@
         <v>274</v>
       </c>
       <c r="H90" s="44" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="I90" s="44" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="J90" s="44"/>
       <c r="K90" s="44"/>
@@ -11680,9 +11686,9 @@
     </row>
     <row r="91" spans="1:152">
       <c r="A91" s="2"/>
-      <c r="D91" s="234"/>
+      <c r="D91" s="240"/>
       <c r="E91" s="85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F91" s="44" t="s">
         <v>172</v>
@@ -11698,9 +11704,9 @@
     </row>
     <row r="92" spans="1:152">
       <c r="A92" s="2"/>
-      <c r="D92" s="234"/>
+      <c r="D92" s="240"/>
       <c r="E92" s="85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F92" s="44" t="s">
         <v>174</v>
@@ -11709,7 +11715,7 @@
         <v>273</v>
       </c>
       <c r="H92" s="44" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="I92" s="44"/>
       <c r="J92" s="44"/>
@@ -11718,9 +11724,9 @@
     </row>
     <row r="93" spans="1:152">
       <c r="A93" s="2"/>
-      <c r="D93" s="234"/>
+      <c r="D93" s="240"/>
       <c r="E93" s="85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F93" s="44" t="s">
         <v>176</v>
@@ -11729,7 +11735,7 @@
         <v>276</v>
       </c>
       <c r="H93" s="44" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="I93" s="44"/>
       <c r="J93" s="44"/>
@@ -11738,9 +11744,9 @@
     </row>
     <row r="94" spans="1:152">
       <c r="A94" s="2"/>
-      <c r="D94" s="234"/>
+      <c r="D94" s="240"/>
       <c r="E94" s="85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F94" s="44" t="s">
         <v>179</v>
@@ -11758,9 +11764,9 @@
     </row>
     <row r="95" spans="1:152">
       <c r="A95" s="2"/>
-      <c r="D95" s="234"/>
+      <c r="D95" s="240"/>
       <c r="E95" s="85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F95" s="44" t="s">
         <v>181</v>
@@ -11769,7 +11775,7 @@
         <v>278</v>
       </c>
       <c r="H95" s="44" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I95" s="44"/>
       <c r="J95" s="44"/>
@@ -11778,9 +11784,9 @@
     </row>
     <row r="96" spans="1:152">
       <c r="A96" s="2"/>
-      <c r="D96" s="234"/>
+      <c r="D96" s="240"/>
       <c r="E96" s="85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F96" s="44" t="s">
         <v>183</v>
@@ -11798,9 +11804,9 @@
     </row>
     <row r="97" spans="1:152" s="38" customFormat="1">
       <c r="A97" s="2"/>
-      <c r="D97" s="234"/>
+      <c r="D97" s="240"/>
       <c r="E97" s="81" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F97" s="44" t="s">
         <v>185</v>
@@ -11810,7 +11816,7 @@
       </c>
       <c r="H97" s="44"/>
       <c r="I97" s="44" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="J97" s="173"/>
       <c r="K97" s="44"/>
@@ -11958,7 +11964,7 @@
     </row>
     <row r="98" spans="1:152">
       <c r="A98" s="2"/>
-      <c r="D98" s="234"/>
+      <c r="D98" s="240"/>
       <c r="E98" s="82"/>
       <c r="F98" s="47" t="s">
         <v>190</v>
@@ -11980,7 +11986,7 @@
     </row>
     <row r="99" spans="1:152">
       <c r="A99" s="2"/>
-      <c r="D99" s="234"/>
+      <c r="D99" s="240"/>
       <c r="E99" s="82"/>
       <c r="F99" s="48" t="s">
         <v>193</v>
@@ -11989,20 +11995,20 @@
         <v>282</v>
       </c>
       <c r="H99" s="48" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I99" s="48" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="J99" s="48" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="K99" s="44"/>
       <c r="L99" s="44"/>
     </row>
     <row r="100" spans="1:152">
       <c r="A100" s="2"/>
-      <c r="D100" s="234"/>
+      <c r="D100" s="240"/>
       <c r="E100" s="82"/>
       <c r="F100" s="48" t="s">
         <v>198</v>
@@ -12011,20 +12017,20 @@
         <v>283</v>
       </c>
       <c r="H100" s="48" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I100" s="204" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="J100" s="204" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K100" s="44"/>
       <c r="L100" s="44"/>
     </row>
     <row r="101" spans="1:152" s="112" customFormat="1">
       <c r="A101" s="2"/>
-      <c r="D101" s="234"/>
+      <c r="D101" s="240"/>
       <c r="E101" s="75"/>
       <c r="F101" s="113" t="s">
         <v>203</v>
@@ -12180,7 +12186,7 @@
     </row>
     <row r="102" spans="1:152" s="112" customFormat="1">
       <c r="A102" s="2"/>
-      <c r="D102" s="234"/>
+      <c r="D102" s="240"/>
       <c r="E102" s="75"/>
       <c r="F102" s="114" t="s">
         <v>205</v>
@@ -12336,7 +12342,7 @@
     </row>
     <row r="103" spans="1:152" s="112" customFormat="1">
       <c r="A103" s="2"/>
-      <c r="D103" s="234"/>
+      <c r="D103" s="240"/>
       <c r="E103" s="130"/>
       <c r="F103" s="115" t="s">
         <v>207</v>
@@ -12492,7 +12498,7 @@
     </row>
     <row r="104" spans="1:152" s="112" customFormat="1">
       <c r="A104" s="2"/>
-      <c r="D104" s="235"/>
+      <c r="D104" s="241"/>
       <c r="E104" s="136"/>
       <c r="F104" s="133" t="s">
         <v>209</v>
@@ -12654,24 +12660,24 @@
     </row>
     <row r="105" spans="1:152" s="112" customFormat="1">
       <c r="A105" s="2"/>
-      <c r="D105" s="235"/>
+      <c r="D105" s="241"/>
       <c r="E105" s="136" t="s">
+        <v>42</v>
+      </c>
+      <c r="F105" s="133" t="s">
         <v>43</v>
-      </c>
-      <c r="F105" s="133" t="s">
-        <v>44</v>
       </c>
       <c r="G105" s="133" t="s">
         <v>288</v>
       </c>
       <c r="H105" s="134" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I105" s="134" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="J105" s="134" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K105" s="133"/>
       <c r="L105" s="135"/>
@@ -12818,24 +12824,24 @@
     </row>
     <row r="106" spans="1:152" s="112" customFormat="1" ht="28.5" customHeight="1">
       <c r="A106" s="2"/>
-      <c r="D106" s="235"/>
+      <c r="D106" s="241"/>
       <c r="E106" s="137" t="s">
+        <v>48</v>
+      </c>
+      <c r="F106" s="133" t="s">
         <v>49</v>
-      </c>
-      <c r="F106" s="133" t="s">
-        <v>50</v>
       </c>
       <c r="G106" s="133" t="s">
         <v>289</v>
       </c>
       <c r="H106" s="134" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I106" s="134" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J106" s="134" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K106" s="133"/>
       <c r="L106" s="135"/>
@@ -12982,24 +12988,24 @@
     </row>
     <row r="107" spans="1:152" s="112" customFormat="1" ht="28.5" customHeight="1">
       <c r="A107" s="2"/>
-      <c r="D107" s="235"/>
+      <c r="D107" s="241"/>
       <c r="E107" s="197" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F107" s="135" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G107" s="135" t="s">
         <v>290</v>
       </c>
       <c r="H107" s="198" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I107" s="161" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="J107" s="161" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K107" s="108"/>
       <c r="L107" s="108"/>
@@ -13146,24 +13152,24 @@
     </row>
     <row r="108" spans="1:152" s="112" customFormat="1">
       <c r="A108" s="2"/>
-      <c r="D108" s="234"/>
+      <c r="D108" s="240"/>
       <c r="E108" s="132" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F108" s="113" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G108" s="113" t="s">
         <v>291</v>
       </c>
       <c r="H108" s="116" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I108" s="42" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="J108" s="43" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K108" s="113"/>
       <c r="L108" s="113"/>
@@ -13310,22 +13316,22 @@
     </row>
     <row r="109" spans="1:152" s="112" customFormat="1" ht="30">
       <c r="A109" s="2"/>
-      <c r="D109" s="234"/>
+      <c r="D109" s="240"/>
       <c r="E109" s="75"/>
       <c r="F109" s="114" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G109" s="113" t="s">
         <v>292</v>
       </c>
       <c r="H109" s="117" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="I109" s="117" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="J109" s="117" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K109" s="114"/>
       <c r="L109" s="114"/>
@@ -13472,24 +13478,24 @@
     </row>
     <row r="110" spans="1:152" s="112" customFormat="1">
       <c r="A110" s="2"/>
-      <c r="D110" s="234"/>
+      <c r="D110" s="240"/>
       <c r="E110" s="75" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F110" s="114" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G110" s="114" t="s">
         <v>293</v>
       </c>
       <c r="H110" s="119" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I110" s="45" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="J110" s="44" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K110" s="114"/>
       <c r="L110" s="114"/>
@@ -13636,22 +13642,22 @@
     </row>
     <row r="111" spans="1:152" s="112" customFormat="1">
       <c r="A111" s="2"/>
-      <c r="D111" s="234"/>
+      <c r="D111" s="240"/>
       <c r="E111" s="75"/>
       <c r="F111" s="114" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G111" s="114" t="s">
         <v>294</v>
       </c>
       <c r="H111" s="119" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I111" s="119" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J111" s="119" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K111" s="114"/>
       <c r="L111" s="114"/>
@@ -13798,24 +13804,24 @@
     </row>
     <row r="112" spans="1:152" s="112" customFormat="1">
       <c r="A112" s="2"/>
-      <c r="D112" s="234"/>
+      <c r="D112" s="240"/>
       <c r="E112" s="75" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F112" s="114" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G112" s="114" t="s">
         <v>297</v>
       </c>
       <c r="H112" s="119" t="s">
+        <v>81</v>
+      </c>
+      <c r="I112" s="119" t="s">
         <v>82</v>
       </c>
-      <c r="I112" s="119" t="s">
+      <c r="J112" s="119" t="s">
         <v>83</v>
-      </c>
-      <c r="J112" s="119" t="s">
-        <v>84</v>
       </c>
       <c r="K112" s="114"/>
       <c r="L112" s="114"/>
@@ -13962,12 +13968,12 @@
     </row>
     <row r="113" spans="1:152" s="112" customFormat="1">
       <c r="A113" s="2"/>
-      <c r="D113" s="234"/>
+      <c r="D113" s="240"/>
       <c r="E113" s="86" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F113" s="114" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G113" s="114" t="s">
         <v>298</v>
@@ -13979,7 +13985,7 @@
         <v>1</v>
       </c>
       <c r="J113" s="117" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K113" s="114"/>
       <c r="L113" s="114"/>
@@ -14126,24 +14132,24 @@
     </row>
     <row r="114" spans="1:152" s="112" customFormat="1">
       <c r="A114" s="2"/>
-      <c r="D114" s="234"/>
+      <c r="D114" s="240"/>
       <c r="E114" s="120" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F114" s="115" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G114" s="115" t="s">
         <v>299</v>
       </c>
       <c r="H114" s="121" t="s">
+        <v>88</v>
+      </c>
+      <c r="I114" s="121" t="s">
+        <v>90</v>
+      </c>
+      <c r="J114" s="121" t="s">
         <v>89</v>
-      </c>
-      <c r="I114" s="121" t="s">
-        <v>91</v>
-      </c>
-      <c r="J114" s="121" t="s">
-        <v>90</v>
       </c>
       <c r="K114" s="115"/>
       <c r="L114" s="115"/>
@@ -14290,12 +14296,12 @@
     </row>
     <row r="115" spans="1:152" s="194" customFormat="1" ht="30">
       <c r="A115" s="196"/>
-      <c r="D115" s="234"/>
+      <c r="D115" s="240"/>
       <c r="E115" s="195" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F115" s="122" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G115" s="122" t="s">
         <v>300</v>
@@ -14448,22 +14454,22 @@
     </row>
     <row r="116" spans="1:152" s="112" customFormat="1">
       <c r="A116" s="2"/>
-      <c r="D116" s="234"/>
+      <c r="D116" s="240"/>
       <c r="E116" s="143"/>
       <c r="F116" s="144" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G116" s="145" t="s">
         <v>301</v>
       </c>
       <c r="H116" s="122" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I116" s="122" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J116" s="122" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K116" s="108"/>
       <c r="L116" s="108"/>
@@ -14610,7 +14616,7 @@
     </row>
     <row r="117" spans="1:152" s="138" customFormat="1">
       <c r="A117" s="2"/>
-      <c r="D117" s="235"/>
+      <c r="D117" s="241"/>
       <c r="E117" s="146"/>
       <c r="F117" s="124" t="s">
         <v>302</v>
@@ -14619,13 +14625,13 @@
         <v>303</v>
       </c>
       <c r="H117" s="141" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I117" s="141" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="J117" s="141" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="K117" s="139"/>
       <c r="L117" s="139"/>
@@ -14772,7 +14778,7 @@
     </row>
     <row r="118" spans="1:152" s="138" customFormat="1">
       <c r="A118" s="2"/>
-      <c r="D118" s="235"/>
+      <c r="D118" s="241"/>
       <c r="E118" s="146"/>
       <c r="F118" s="124" t="s">
         <v>305</v>
@@ -14784,10 +14790,10 @@
         <v>308</v>
       </c>
       <c r="I118" s="142" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="J118" s="142" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K118" s="139"/>
       <c r="L118" s="139"/>
@@ -14934,20 +14940,20 @@
     </row>
     <row r="119" spans="1:152">
       <c r="A119" s="4" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C119" s="109" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E119" s="34"/>
       <c r="F119" s="228" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G119" s="25"/>
       <c r="H119" s="26"/>
@@ -14958,142 +14964,142 @@
     </row>
     <row r="120" spans="1:152" ht="16.5" customHeight="1">
       <c r="A120" s="167"/>
-      <c r="D120" s="230" t="s">
-        <v>29</v>
+      <c r="D120" s="236" t="s">
+        <v>28</v>
       </c>
       <c r="E120" s="74"/>
       <c r="F120" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G120" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G120" s="13" t="s">
-        <v>31</v>
-      </c>
       <c r="H120" s="14" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I120" s="14" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="J120" s="14" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K120" s="46"/>
       <c r="L120" s="46"/>
     </row>
     <row r="121" spans="1:152">
       <c r="A121" s="2"/>
-      <c r="D121" s="231"/>
+      <c r="D121" s="237"/>
       <c r="E121" s="74"/>
       <c r="F121" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G121" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G121" s="13" t="s">
-        <v>36</v>
-      </c>
       <c r="H121" s="14" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I121" s="14" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J121" s="14" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K121" s="46"/>
       <c r="L121" s="46"/>
     </row>
     <row r="122" spans="1:152">
       <c r="A122" s="2"/>
-      <c r="D122" s="232"/>
+      <c r="D122" s="238"/>
       <c r="E122" s="74"/>
       <c r="F122" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G122" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G122" s="13" t="s">
-        <v>39</v>
-      </c>
       <c r="H122" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I122" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J122" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K122" s="46"/>
       <c r="L122" s="46"/>
     </row>
     <row r="123" spans="1:152">
       <c r="A123" s="2"/>
-      <c r="D123" s="230" t="s">
+      <c r="D123" s="236" t="s">
+        <v>41</v>
+      </c>
+      <c r="E123" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="E123" s="74" t="s">
+      <c r="F123" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F123" s="15" t="s">
+      <c r="G123" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="G123" s="15" t="s">
-        <v>45</v>
-      </c>
       <c r="H123" s="16" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I123" s="16" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="J123" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K123" s="12"/>
       <c r="L123" s="12"/>
     </row>
     <row r="124" spans="1:152" ht="28.5" customHeight="1">
       <c r="A124" s="2"/>
-      <c r="D124" s="231"/>
+      <c r="D124" s="237"/>
       <c r="E124" s="84" t="s">
+        <v>48</v>
+      </c>
+      <c r="F124" s="148" t="s">
         <v>49</v>
       </c>
-      <c r="F124" s="148" t="s">
+      <c r="G124" s="148" t="s">
         <v>50</v>
       </c>
-      <c r="G124" s="148" t="s">
-        <v>51</v>
-      </c>
       <c r="H124" s="149" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I124" s="149" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J124" s="149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K124" s="12"/>
       <c r="L124" s="12"/>
     </row>
     <row r="125" spans="1:152" s="112" customFormat="1" ht="28.5" customHeight="1">
       <c r="A125" s="215"/>
-      <c r="D125" s="231"/>
+      <c r="D125" s="237"/>
       <c r="E125" s="186" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F125" s="187" t="s">
+        <v>54</v>
+      </c>
+      <c r="G125" s="199" t="s">
         <v>55</v>
       </c>
-      <c r="G125" s="199" t="s">
-        <v>56</v>
-      </c>
       <c r="H125" s="159" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I125" s="160" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="J125" s="160" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K125" s="187"/>
       <c r="L125" s="187"/>
@@ -15240,46 +15246,46 @@
     </row>
     <row r="126" spans="1:152">
       <c r="A126" s="2"/>
-      <c r="D126" s="231"/>
+      <c r="D126" s="237"/>
       <c r="E126" s="85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F126" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="G126" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="G126" s="42" t="s">
-        <v>61</v>
-      </c>
       <c r="H126" s="43" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I126" s="42" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="J126" s="43" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K126" s="42"/>
       <c r="L126" s="42"/>
     </row>
     <row r="127" spans="1:152" s="112" customFormat="1" ht="30">
       <c r="A127" s="2"/>
-      <c r="D127" s="231"/>
+      <c r="D127" s="237"/>
       <c r="E127" s="75"/>
       <c r="F127" s="109" t="s">
+        <v>64</v>
+      </c>
+      <c r="G127" s="109" t="s">
         <v>65</v>
       </c>
-      <c r="G127" s="109" t="s">
-        <v>66</v>
-      </c>
       <c r="H127" s="110" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="I127" s="110" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="J127" s="110" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K127" s="109"/>
       <c r="L127" s="109"/>
@@ -15426,85 +15432,85 @@
     </row>
     <row r="128" spans="1:152">
       <c r="A128" s="2"/>
-      <c r="D128" s="231"/>
+      <c r="D128" s="237"/>
       <c r="E128" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F128" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="G128" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="G128" s="44" t="s">
-        <v>71</v>
-      </c>
       <c r="H128" s="45" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I128" s="45" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="J128" s="44" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K128" s="44"/>
       <c r="L128" s="44"/>
     </row>
     <row r="129" spans="1:152">
       <c r="A129" s="2"/>
-      <c r="D129" s="231"/>
+      <c r="D129" s="237"/>
       <c r="E129" s="34"/>
       <c r="F129" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="G129" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="G129" s="20" t="s">
-        <v>76</v>
-      </c>
       <c r="H129" s="21" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I129" s="21" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J129" s="53" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K129" s="20"/>
       <c r="L129" s="20"/>
     </row>
     <row r="130" spans="1:152">
       <c r="A130" s="2"/>
-      <c r="D130" s="231"/>
+      <c r="D130" s="237"/>
       <c r="E130" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F130" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="G130" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="G130" s="20" t="s">
-        <v>81</v>
-      </c>
       <c r="H130" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I130" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="J130" s="20" t="s">
         <v>83</v>
-      </c>
-      <c r="J130" s="20" t="s">
-        <v>84</v>
       </c>
       <c r="K130" s="20"/>
       <c r="L130" s="20"/>
     </row>
     <row r="131" spans="1:152">
       <c r="A131" s="2"/>
-      <c r="D131" s="231"/>
+      <c r="D131" s="237"/>
       <c r="E131" s="85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F131" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="G131" s="20" t="s">
         <v>85</v>
-      </c>
-      <c r="G131" s="20" t="s">
-        <v>86</v>
       </c>
       <c r="H131" s="22">
         <v>1</v>
@@ -15513,31 +15519,31 @@
         <v>1</v>
       </c>
       <c r="J131" s="54" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K131" s="20"/>
       <c r="L131" s="20"/>
     </row>
     <row r="132" spans="1:152">
       <c r="A132" s="2"/>
-      <c r="D132" s="231"/>
+      <c r="D132" s="237"/>
       <c r="E132" s="87" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F132" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="G132" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="G132" s="29" t="s">
+      <c r="H132" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="H132" s="55" t="s">
+      <c r="I132" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="J132" s="29" t="s">
         <v>89</v>
-      </c>
-      <c r="I132" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="J132" s="29" t="s">
-        <v>90</v>
       </c>
       <c r="K132" s="29"/>
       <c r="L132" s="29"/>
@@ -15546,15 +15552,15 @@
       <c r="A133" s="2"/>
       <c r="B133"/>
       <c r="C133"/>
-      <c r="D133" s="231"/>
+      <c r="D133" s="237"/>
       <c r="E133" s="189" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F133" s="190" t="s">
+        <v>91</v>
+      </c>
+      <c r="G133" s="190" t="s">
         <v>92</v>
-      </c>
-      <c r="G133" s="190" t="s">
-        <v>93</v>
       </c>
       <c r="H133" s="174"/>
       <c r="I133" s="175"/>
@@ -15564,22 +15570,22 @@
     </row>
     <row r="134" spans="1:152">
       <c r="A134" s="2"/>
-      <c r="D134" s="232"/>
+      <c r="D134" s="238"/>
       <c r="E134" s="89"/>
       <c r="F134" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="G134" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="G134" s="35" t="s">
+      <c r="H134" s="91" t="s">
         <v>95</v>
       </c>
-      <c r="H134" s="91" t="s">
-        <v>96</v>
-      </c>
       <c r="I134" s="91" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J134" s="91" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K134" s="35"/>
       <c r="L134" s="35"/>
@@ -15587,97 +15593,97 @@
     <row r="135" spans="1:152">
       <c r="A135" s="2"/>
       <c r="D135" s="88" t="s">
+        <v>96</v>
+      </c>
+      <c r="E135" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="F135" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="G135" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="E135" s="80" t="s">
-        <v>43</v>
-      </c>
-      <c r="F135" s="57" t="s">
-        <v>97</v>
-      </c>
-      <c r="G135" s="57" t="s">
-        <v>98</v>
-      </c>
       <c r="H135" s="58" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="I135" s="58" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="J135" s="58" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K135" s="59"/>
       <c r="L135" s="59"/>
     </row>
     <row r="136" spans="1:152">
       <c r="A136" s="2"/>
-      <c r="D136" s="236" t="s">
-        <v>102</v>
+      <c r="D136" s="242" t="s">
+        <v>101</v>
       </c>
       <c r="E136" s="76"/>
       <c r="F136" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="G136" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="G136" s="23" t="s">
-        <v>104</v>
-      </c>
       <c r="H136" s="24" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I136" s="24" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="J136" s="24" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K136" s="20"/>
       <c r="L136" s="20"/>
     </row>
     <row r="137" spans="1:152">
       <c r="A137" s="2"/>
-      <c r="D137" s="237"/>
+      <c r="D137" s="243"/>
       <c r="E137" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F137" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="G137" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="G137" s="20" t="s">
-        <v>109</v>
-      </c>
       <c r="H137" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I137" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J137" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K137" s="20"/>
       <c r="L137" s="20"/>
     </row>
     <row r="138" spans="1:152" s="69" customFormat="1">
       <c r="A138" s="2"/>
-      <c r="D138" s="237"/>
+      <c r="D138" s="243"/>
       <c r="E138" s="87" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F138" s="68" t="s">
+        <v>112</v>
+      </c>
+      <c r="G138" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="G138" s="20" t="s">
-        <v>114</v>
-      </c>
       <c r="H138" s="68" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="I138" s="68" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="J138" s="68" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K138" s="68"/>
       <c r="L138" s="68"/>
@@ -15824,31 +15830,31 @@
     </row>
     <row r="139" spans="1:152">
       <c r="A139" s="2"/>
-      <c r="D139" s="237"/>
+      <c r="D139" s="243"/>
       <c r="E139" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F139" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="G139" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="G139" s="20" t="s">
-        <v>118</v>
-      </c>
       <c r="H139" s="21" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I139" s="20" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J139" s="20" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K139" s="20"/>
       <c r="L139" s="20"/>
     </row>
     <row r="140" spans="1:152">
       <c r="A140" s="2"/>
-      <c r="D140" s="237"/>
+      <c r="D140" s="243"/>
       <c r="E140" s="34"/>
       <c r="F140" s="20" t="s">
         <v>121</v>
@@ -15857,20 +15863,20 @@
         <v>122</v>
       </c>
       <c r="H140" s="21" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="I140" s="20" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="J140" s="20" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K140" s="20"/>
       <c r="L140" s="20"/>
     </row>
     <row r="141" spans="1:152">
       <c r="A141" s="2"/>
-      <c r="D141" s="237"/>
+      <c r="D141" s="243"/>
       <c r="E141" s="34"/>
       <c r="F141" s="20" t="s">
         <v>125</v>
@@ -15879,22 +15885,22 @@
         <v>126</v>
       </c>
       <c r="H141" s="21" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="I141" s="20" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="J141" s="20" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K141" s="20"/>
       <c r="L141" s="20"/>
     </row>
     <row r="142" spans="1:152">
       <c r="A142" s="2"/>
-      <c r="D142" s="237"/>
+      <c r="D142" s="243"/>
       <c r="E142" s="87" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F142" s="29" t="s">
         <v>129</v>
@@ -15903,25 +15909,25 @@
         <v>130</v>
       </c>
       <c r="H142" s="55" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="I142" s="29" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J142" s="29" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K142" s="29"/>
       <c r="L142" s="29"/>
     </row>
     <row r="143" spans="1:152">
       <c r="A143" s="2"/>
-      <c r="D143" s="236" t="s">
+      <c r="D143" s="242" t="s">
         <v>134</v>
       </c>
       <c r="E143" s="78"/>
       <c r="F143" s="60" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G143" s="23" t="s">
         <v>135</v>
@@ -15934,10 +15940,10 @@
     </row>
     <row r="144" spans="1:152">
       <c r="A144" s="2"/>
-      <c r="D144" s="237"/>
+      <c r="D144" s="243"/>
       <c r="E144" s="34"/>
       <c r="F144" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G144" s="20" t="s">
         <v>136</v>
@@ -15945,17 +15951,17 @@
       <c r="H144" s="21"/>
       <c r="I144" s="20"/>
       <c r="J144" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K144" s="20"/>
       <c r="L144" s="64"/>
     </row>
     <row r="145" spans="1:152">
       <c r="A145" s="2"/>
-      <c r="D145" s="237"/>
+      <c r="D145" s="243"/>
       <c r="E145" s="34"/>
       <c r="F145" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G145" s="20" t="s">
         <v>137</v>
@@ -15963,17 +15969,17 @@
       <c r="H145" s="21"/>
       <c r="I145" s="169"/>
       <c r="J145" s="68" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K145" s="20"/>
       <c r="L145" s="64"/>
     </row>
     <row r="146" spans="1:152">
       <c r="A146" s="2"/>
-      <c r="D146" s="237"/>
+      <c r="D146" s="243"/>
       <c r="E146" s="34"/>
       <c r="F146" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G146" s="20" t="s">
         <v>138</v>
@@ -15981,14 +15987,14 @@
       <c r="H146" s="21"/>
       <c r="I146" s="20"/>
       <c r="J146" s="20" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K146" s="20"/>
       <c r="L146" s="64"/>
     </row>
     <row r="147" spans="1:152">
       <c r="A147" s="2"/>
-      <c r="D147" s="237"/>
+      <c r="D147" s="243"/>
       <c r="E147" s="34"/>
       <c r="F147" s="20" t="s">
         <v>121</v>
@@ -15999,14 +16005,14 @@
       <c r="H147" s="21"/>
       <c r="I147" s="20"/>
       <c r="J147" s="20" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K147" s="20"/>
       <c r="L147" s="64"/>
     </row>
     <row r="148" spans="1:152">
       <c r="A148" s="2"/>
-      <c r="D148" s="237"/>
+      <c r="D148" s="243"/>
       <c r="E148" s="34"/>
       <c r="F148" s="20" t="s">
         <v>125</v>
@@ -16017,14 +16023,14 @@
       <c r="H148" s="21"/>
       <c r="I148" s="20"/>
       <c r="J148" s="20" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K148" s="20"/>
       <c r="L148" s="64"/>
     </row>
     <row r="149" spans="1:152">
       <c r="A149" s="2"/>
-      <c r="D149" s="238"/>
+      <c r="D149" s="244"/>
       <c r="E149" s="79"/>
       <c r="F149" s="65" t="s">
         <v>129</v>
@@ -16035,14 +16041,14 @@
       <c r="H149" s="66"/>
       <c r="I149" s="65"/>
       <c r="J149" s="65" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K149" s="65"/>
       <c r="L149" s="67"/>
     </row>
     <row r="150" spans="1:152">
       <c r="A150" s="2"/>
-      <c r="D150" s="230" t="s">
+      <c r="D150" s="236" t="s">
         <v>142</v>
       </c>
       <c r="E150" s="80"/>
@@ -16053,22 +16059,22 @@
         <v>144</v>
       </c>
       <c r="H150" s="58" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I150" s="58" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="J150" s="58" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K150" s="59"/>
       <c r="L150" s="59"/>
     </row>
     <row r="151" spans="1:152">
       <c r="A151" s="2"/>
-      <c r="D151" s="231"/>
+      <c r="D151" s="237"/>
       <c r="E151" s="147" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F151" s="148" t="s">
         <v>148</v>
@@ -16090,7 +16096,7 @@
     </row>
     <row r="152" spans="1:152" s="38" customFormat="1">
       <c r="A152" s="2"/>
-      <c r="D152" s="233"/>
+      <c r="D152" s="239"/>
       <c r="E152" s="152"/>
       <c r="F152" s="153" t="s">
         <v>151</v>
@@ -16099,7 +16105,7 @@
         <v>152</v>
       </c>
       <c r="H152" s="154" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="I152" s="154"/>
       <c r="J152" s="154"/>
@@ -16248,9 +16254,9 @@
     </row>
     <row r="153" spans="1:152">
       <c r="A153" s="2"/>
-      <c r="D153" s="231"/>
+      <c r="D153" s="237"/>
       <c r="E153" s="151" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F153" s="30" t="s">
         <v>154</v>
@@ -16259,22 +16265,22 @@
         <v>155</v>
       </c>
       <c r="H153" s="31" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="I153" s="31" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="J153" s="31" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K153" s="27"/>
       <c r="L153" s="27"/>
     </row>
     <row r="154" spans="1:152">
       <c r="A154" s="2"/>
-      <c r="D154" s="231"/>
+      <c r="D154" s="237"/>
       <c r="E154" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F154" s="20" t="s">
         <v>159</v>
@@ -16283,22 +16289,22 @@
         <v>160</v>
       </c>
       <c r="H154" s="21" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I154" s="20" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="J154" s="20" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K154" s="20"/>
       <c r="L154" s="20"/>
     </row>
     <row r="155" spans="1:152">
       <c r="A155" s="2"/>
-      <c r="D155" s="231"/>
+      <c r="D155" s="237"/>
       <c r="E155" s="85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F155" s="20" t="s">
         <v>164</v>
@@ -16320,9 +16326,9 @@
     </row>
     <row r="156" spans="1:152">
       <c r="A156" s="2"/>
-      <c r="D156" s="231"/>
+      <c r="D156" s="237"/>
       <c r="E156" s="85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F156" s="20" t="s">
         <v>166</v>
@@ -16342,9 +16348,9 @@
     </row>
     <row r="157" spans="1:152">
       <c r="A157" s="2"/>
-      <c r="D157" s="231"/>
+      <c r="D157" s="237"/>
       <c r="E157" s="85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F157" s="20" t="s">
         <v>168</v>
@@ -16359,9 +16365,9 @@
     </row>
     <row r="158" spans="1:152">
       <c r="A158" s="2"/>
-      <c r="D158" s="231"/>
+      <c r="D158" s="237"/>
       <c r="E158" s="85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F158" s="20" t="s">
         <v>170</v>
@@ -16370,10 +16376,10 @@
         <v>171</v>
       </c>
       <c r="H158" s="20" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="I158" s="20" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="J158" s="20"/>
       <c r="K158" s="20"/>
@@ -16381,9 +16387,9 @@
     </row>
     <row r="159" spans="1:152">
       <c r="A159" s="2"/>
-      <c r="D159" s="231"/>
+      <c r="D159" s="237"/>
       <c r="E159" s="85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F159" s="20" t="s">
         <v>172</v>
@@ -16399,9 +16405,9 @@
     </row>
     <row r="160" spans="1:152">
       <c r="A160" s="2"/>
-      <c r="D160" s="231"/>
+      <c r="D160" s="237"/>
       <c r="E160" s="85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F160" s="20" t="s">
         <v>174</v>
@@ -16410,7 +16416,7 @@
         <v>169</v>
       </c>
       <c r="H160" s="20" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="I160" s="20"/>
       <c r="J160" s="20"/>
@@ -16419,9 +16425,9 @@
     </row>
     <row r="161" spans="1:152">
       <c r="A161" s="2"/>
-      <c r="D161" s="231"/>
+      <c r="D161" s="237"/>
       <c r="E161" s="85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F161" s="20" t="s">
         <v>176</v>
@@ -16430,7 +16436,7 @@
         <v>177</v>
       </c>
       <c r="H161" s="20" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="I161" s="20"/>
       <c r="J161" s="20"/>
@@ -16439,9 +16445,9 @@
     </row>
     <row r="162" spans="1:152">
       <c r="A162" s="2"/>
-      <c r="D162" s="231"/>
+      <c r="D162" s="237"/>
       <c r="E162" s="85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F162" s="20" t="s">
         <v>179</v>
@@ -16459,9 +16465,9 @@
     </row>
     <row r="163" spans="1:152">
       <c r="A163" s="2"/>
-      <c r="D163" s="231"/>
+      <c r="D163" s="237"/>
       <c r="E163" s="85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F163" s="20" t="s">
         <v>181</v>
@@ -16470,7 +16476,7 @@
         <v>182</v>
       </c>
       <c r="H163" s="20" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I163" s="20"/>
       <c r="J163" s="20"/>
@@ -16479,9 +16485,9 @@
     </row>
     <row r="164" spans="1:152">
       <c r="A164" s="2"/>
-      <c r="D164" s="231"/>
+      <c r="D164" s="237"/>
       <c r="E164" s="85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F164" s="29" t="s">
         <v>183</v>
@@ -16500,9 +16506,9 @@
     </row>
     <row r="165" spans="1:152" s="38" customFormat="1">
       <c r="A165" s="2"/>
-      <c r="D165" s="231"/>
+      <c r="D165" s="237"/>
       <c r="E165" s="81" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F165" s="41" t="s">
         <v>185</v>
@@ -16512,7 +16518,7 @@
       </c>
       <c r="H165" s="41"/>
       <c r="I165" s="41" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="J165" s="39"/>
       <c r="K165" s="40"/>
@@ -16660,7 +16666,7 @@
     </row>
     <row r="166" spans="1:152">
       <c r="A166" s="2"/>
-      <c r="D166" s="231"/>
+      <c r="D166" s="237"/>
       <c r="E166" s="82"/>
       <c r="F166" s="47" t="s">
         <v>190</v>
@@ -16682,7 +16688,7 @@
     </row>
     <row r="167" spans="1:152">
       <c r="A167" s="2"/>
-      <c r="D167" s="231"/>
+      <c r="D167" s="237"/>
       <c r="E167" s="82"/>
       <c r="F167" s="48" t="s">
         <v>193</v>
@@ -16691,20 +16697,20 @@
         <v>194</v>
       </c>
       <c r="H167" s="48" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I167" s="48" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="J167" s="48" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="K167" s="44"/>
       <c r="L167" s="44"/>
     </row>
     <row r="168" spans="1:152">
       <c r="A168" s="2"/>
-      <c r="D168" s="231"/>
+      <c r="D168" s="237"/>
       <c r="E168" s="82"/>
       <c r="F168" s="48" t="s">
         <v>198</v>
@@ -16713,20 +16719,20 @@
         <v>199</v>
       </c>
       <c r="H168" s="48" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I168" s="204" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="J168" s="204" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K168" s="44"/>
       <c r="L168" s="44"/>
     </row>
     <row r="169" spans="1:152">
       <c r="A169" s="2"/>
-      <c r="D169" s="231"/>
+      <c r="D169" s="237"/>
       <c r="E169" s="34"/>
       <c r="F169" s="27" t="s">
         <v>203</v>
@@ -16742,7 +16748,7 @@
     </row>
     <row r="170" spans="1:152">
       <c r="A170" s="2"/>
-      <c r="D170" s="231"/>
+      <c r="D170" s="237"/>
       <c r="E170" s="34"/>
       <c r="F170" s="20" t="s">
         <v>205</v>
@@ -16758,7 +16764,7 @@
     </row>
     <row r="171" spans="1:152">
       <c r="A171" s="2"/>
-      <c r="D171" s="231"/>
+      <c r="D171" s="237"/>
       <c r="E171" s="34"/>
       <c r="F171" s="29" t="s">
         <v>207</v>
@@ -16774,7 +16780,7 @@
     </row>
     <row r="172" spans="1:152">
       <c r="A172" s="2"/>
-      <c r="D172" s="232"/>
+      <c r="D172" s="238"/>
       <c r="E172" s="82"/>
       <c r="F172" s="48" t="s">
         <v>209</v>
@@ -16796,7 +16802,7 @@
     </row>
     <row r="173" spans="1:152">
       <c r="A173" s="2"/>
-      <c r="D173" s="234" t="s">
+      <c r="D173" s="240" t="s">
         <v>212</v>
       </c>
       <c r="E173" s="82"/>
@@ -16807,20 +16813,20 @@
         <v>214</v>
       </c>
       <c r="H173" s="50" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I173" s="50" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="J173" s="50" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K173" s="44"/>
       <c r="L173" s="44"/>
     </row>
     <row r="174" spans="1:152">
       <c r="A174" s="2"/>
-      <c r="D174" s="234"/>
+      <c r="D174" s="240"/>
       <c r="E174" s="82"/>
       <c r="F174" s="51" t="s">
         <v>218</v>
@@ -16829,20 +16835,20 @@
         <v>219</v>
       </c>
       <c r="H174" s="52" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I174" s="52" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J174" s="52" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K174" s="44"/>
       <c r="L174" s="44"/>
     </row>
     <row r="175" spans="1:152">
       <c r="A175" s="2"/>
-      <c r="D175" s="234"/>
+      <c r="D175" s="240"/>
       <c r="E175" s="81"/>
       <c r="F175" s="51" t="s">
         <v>220</v>
@@ -16866,9 +16872,9 @@
       <c r="A176" s="2"/>
       <c r="B176"/>
       <c r="C176"/>
-      <c r="D176" s="234"/>
+      <c r="D176" s="240"/>
       <c r="E176" s="192" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F176" s="174" t="s">
         <v>223</v>
@@ -16884,9 +16890,9 @@
     </row>
     <row r="177" spans="1:152">
       <c r="A177" s="2"/>
-      <c r="D177" s="234"/>
+      <c r="D177" s="240"/>
       <c r="E177" s="81" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F177" s="35" t="s">
         <v>225</v>
@@ -16908,9 +16914,9 @@
     </row>
     <row r="178" spans="1:152" s="69" customFormat="1">
       <c r="A178" s="2"/>
-      <c r="D178" s="234"/>
+      <c r="D178" s="240"/>
       <c r="E178" s="83" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F178" s="71" t="s">
         <v>228</v>
@@ -16922,10 +16928,10 @@
         <v>607080928</v>
       </c>
       <c r="I178" s="140" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="J178" s="140" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K178" s="68"/>
       <c r="L178" s="68"/>
@@ -17072,9 +17078,9 @@
     </row>
     <row r="179" spans="1:152">
       <c r="A179" s="2"/>
-      <c r="D179" s="234"/>
+      <c r="D179" s="240"/>
       <c r="E179" s="85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F179" s="27" t="s">
         <v>230</v>
@@ -17092,9 +17098,9 @@
     </row>
     <row r="180" spans="1:152" s="69" customFormat="1">
       <c r="A180" s="2"/>
-      <c r="D180" s="234"/>
+      <c r="D180" s="240"/>
       <c r="E180" s="85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F180" s="68" t="s">
         <v>232</v>
@@ -17252,7 +17258,7 @@
     </row>
     <row r="181" spans="1:152" s="69" customFormat="1">
       <c r="A181" s="2"/>
-      <c r="D181" s="234"/>
+      <c r="D181" s="240"/>
       <c r="E181" s="85"/>
       <c r="F181" s="95" t="s">
         <v>234</v>
@@ -17410,9 +17416,9 @@
     </row>
     <row r="182" spans="1:152">
       <c r="A182" s="2"/>
-      <c r="D182" s="234"/>
+      <c r="D182" s="240"/>
       <c r="E182" s="85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F182" s="29" t="s">
         <v>236</v>
@@ -17434,7 +17440,7 @@
     </row>
     <row r="183" spans="1:152">
       <c r="A183" s="2"/>
-      <c r="D183" s="234"/>
+      <c r="D183" s="240"/>
       <c r="E183" s="97"/>
       <c r="F183" s="35" t="s">
         <v>240</v>
@@ -17450,9 +17456,9 @@
     </row>
     <row r="184" spans="1:152">
       <c r="A184" s="2"/>
-      <c r="D184" s="234"/>
+      <c r="D184" s="240"/>
       <c r="E184" s="85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F184" s="98" t="s">
         <v>242</v>
@@ -17461,22 +17467,22 @@
         <v>243</v>
       </c>
       <c r="H184" s="36" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="I184" s="35" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="J184" s="35" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K184" s="32"/>
       <c r="L184" s="20"/>
     </row>
     <row r="185" spans="1:152">
       <c r="A185" s="2"/>
-      <c r="D185" s="234"/>
+      <c r="D185" s="240"/>
       <c r="E185" s="82" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F185" s="23" t="s">
         <v>245</v>
@@ -17485,20 +17491,20 @@
         <v>246</v>
       </c>
       <c r="H185" s="165" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I185" s="165" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="J185" s="27" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K185" s="20"/>
       <c r="L185" s="20"/>
     </row>
     <row r="186" spans="1:152">
       <c r="A186" s="2"/>
-      <c r="D186" s="234"/>
+      <c r="D186" s="240"/>
       <c r="E186" s="34"/>
       <c r="F186" s="20" t="s">
         <v>250</v>
@@ -17507,20 +17513,20 @@
         <v>251</v>
       </c>
       <c r="H186" s="165" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="I186" s="165" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="J186" s="20" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K186" s="20"/>
       <c r="L186" s="20"/>
     </row>
     <row r="187" spans="1:152">
       <c r="A187" s="2"/>
-      <c r="D187" s="234"/>
+      <c r="D187" s="240"/>
       <c r="E187" s="77"/>
       <c r="F187" s="29" t="s">
         <v>255</v>
@@ -17529,20 +17535,20 @@
         <v>256</v>
       </c>
       <c r="H187" s="165" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="I187" s="165" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="J187" s="29" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="K187" s="29"/>
       <c r="L187" s="29"/>
     </row>
     <row r="188" spans="1:152">
       <c r="A188" s="2"/>
-      <c r="D188" s="234"/>
+      <c r="D188" s="240"/>
       <c r="E188" s="129"/>
       <c r="F188" s="124" t="s">
         <v>259</v>
@@ -17564,7 +17570,7 @@
     </row>
     <row r="189" spans="1:152">
       <c r="A189" s="2"/>
-      <c r="D189" s="234"/>
+      <c r="D189" s="240"/>
       <c r="E189" s="129"/>
       <c r="F189" s="124" t="s">
         <v>262</v>
@@ -17586,7 +17592,7 @@
     </row>
     <row r="190" spans="1:152">
       <c r="A190" s="2"/>
-      <c r="D190" s="234"/>
+      <c r="D190" s="240"/>
       <c r="E190" s="129"/>
       <c r="F190" s="124" t="s">
         <v>264</v>
@@ -17608,7 +17614,7 @@
     </row>
     <row r="191" spans="1:152">
       <c r="A191" s="2"/>
-      <c r="D191" s="234"/>
+      <c r="D191" s="240"/>
       <c r="E191" s="128"/>
       <c r="F191" s="127" t="s">
         <v>143</v>
@@ -17630,9 +17636,9 @@
     </row>
     <row r="192" spans="1:152">
       <c r="A192" s="2"/>
-      <c r="D192" s="234"/>
+      <c r="D192" s="240"/>
       <c r="E192" s="82" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F192" s="124" t="s">
         <v>148</v>
@@ -17656,7 +17662,7 @@
       <c r="A193" s="2"/>
       <c r="B193"/>
       <c r="C193"/>
-      <c r="D193" s="234"/>
+      <c r="D193" s="240"/>
       <c r="E193" s="212"/>
       <c r="F193" s="213" t="s">
         <v>151</v>
@@ -17665,7 +17671,7 @@
         <v>268</v>
       </c>
       <c r="H193" s="214" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="I193" s="214"/>
       <c r="J193" s="214"/>
@@ -17814,9 +17820,9 @@
     </row>
     <row r="194" spans="1:152">
       <c r="A194" s="2"/>
-      <c r="D194" s="234"/>
+      <c r="D194" s="240"/>
       <c r="E194" s="76" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F194" s="100" t="s">
         <v>154</v>
@@ -17825,22 +17831,22 @@
         <v>269</v>
       </c>
       <c r="H194" s="101" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="I194" s="101" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="J194" s="101" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K194" s="42"/>
       <c r="L194" s="42"/>
     </row>
     <row r="195" spans="1:152">
       <c r="A195" s="2"/>
-      <c r="D195" s="234"/>
+      <c r="D195" s="240"/>
       <c r="E195" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F195" s="44" t="s">
         <v>159</v>
@@ -17849,22 +17855,22 @@
         <v>270</v>
       </c>
       <c r="H195" s="45" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I195" s="44" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="J195" s="44" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K195" s="44"/>
       <c r="L195" s="44"/>
     </row>
     <row r="196" spans="1:152">
       <c r="A196" s="2"/>
-      <c r="D196" s="234"/>
+      <c r="D196" s="240"/>
       <c r="E196" s="85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F196" s="44" t="s">
         <v>164</v>
@@ -17886,9 +17892,9 @@
     </row>
     <row r="197" spans="1:152">
       <c r="A197" s="2"/>
-      <c r="D197" s="234"/>
+      <c r="D197" s="240"/>
       <c r="E197" s="85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F197" s="44" t="s">
         <v>166</v>
@@ -17908,9 +17914,9 @@
     </row>
     <row r="198" spans="1:152">
       <c r="A198" s="2"/>
-      <c r="D198" s="234"/>
+      <c r="D198" s="240"/>
       <c r="E198" s="85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F198" s="44" t="s">
         <v>168</v>
@@ -17926,9 +17932,9 @@
     </row>
     <row r="199" spans="1:152">
       <c r="A199" s="2"/>
-      <c r="D199" s="234"/>
+      <c r="D199" s="240"/>
       <c r="E199" s="85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F199" s="44" t="s">
         <v>170</v>
@@ -17937,10 +17943,10 @@
         <v>274</v>
       </c>
       <c r="H199" s="44" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="I199" s="44" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="J199" s="44"/>
       <c r="K199" s="44"/>
@@ -17948,9 +17954,9 @@
     </row>
     <row r="200" spans="1:152">
       <c r="A200" s="2"/>
-      <c r="D200" s="234"/>
+      <c r="D200" s="240"/>
       <c r="E200" s="85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F200" s="44" t="s">
         <v>172</v>
@@ -17966,9 +17972,9 @@
     </row>
     <row r="201" spans="1:152">
       <c r="A201" s="2"/>
-      <c r="D201" s="234"/>
+      <c r="D201" s="240"/>
       <c r="E201" s="85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F201" s="44" t="s">
         <v>174</v>
@@ -17977,7 +17983,7 @@
         <v>273</v>
       </c>
       <c r="H201" s="44" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="I201" s="44"/>
       <c r="J201" s="44"/>
@@ -17986,9 +17992,9 @@
     </row>
     <row r="202" spans="1:152">
       <c r="A202" s="2"/>
-      <c r="D202" s="234"/>
+      <c r="D202" s="240"/>
       <c r="E202" s="85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F202" s="44" t="s">
         <v>176</v>
@@ -17997,7 +18003,7 @@
         <v>276</v>
       </c>
       <c r="H202" s="44" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="I202" s="44"/>
       <c r="J202" s="44"/>
@@ -18006,9 +18012,9 @@
     </row>
     <row r="203" spans="1:152">
       <c r="A203" s="2"/>
-      <c r="D203" s="234"/>
+      <c r="D203" s="240"/>
       <c r="E203" s="85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F203" s="44" t="s">
         <v>179</v>
@@ -18026,9 +18032,9 @@
     </row>
     <row r="204" spans="1:152">
       <c r="A204" s="2"/>
-      <c r="D204" s="234"/>
+      <c r="D204" s="240"/>
       <c r="E204" s="85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F204" s="44" t="s">
         <v>181</v>
@@ -18037,7 +18043,7 @@
         <v>278</v>
       </c>
       <c r="H204" s="44" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I204" s="44"/>
       <c r="J204" s="44"/>
@@ -18046,9 +18052,9 @@
     </row>
     <row r="205" spans="1:152">
       <c r="A205" s="2"/>
-      <c r="D205" s="234"/>
+      <c r="D205" s="240"/>
       <c r="E205" s="85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F205" s="44" t="s">
         <v>183</v>
@@ -18066,9 +18072,9 @@
     </row>
     <row r="206" spans="1:152" s="38" customFormat="1">
       <c r="A206" s="2"/>
-      <c r="D206" s="234"/>
+      <c r="D206" s="240"/>
       <c r="E206" s="81" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F206" s="44" t="s">
         <v>185</v>
@@ -18078,7 +18084,7 @@
       </c>
       <c r="H206" s="44"/>
       <c r="I206" s="44" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="J206" s="173"/>
       <c r="K206" s="44"/>
@@ -18226,7 +18232,7 @@
     </row>
     <row r="207" spans="1:152">
       <c r="A207" s="2"/>
-      <c r="D207" s="234"/>
+      <c r="D207" s="240"/>
       <c r="E207" s="82"/>
       <c r="F207" s="47" t="s">
         <v>190</v>
@@ -18248,7 +18254,7 @@
     </row>
     <row r="208" spans="1:152">
       <c r="A208" s="2"/>
-      <c r="D208" s="234"/>
+      <c r="D208" s="240"/>
       <c r="E208" s="82"/>
       <c r="F208" s="48" t="s">
         <v>193</v>
@@ -18257,20 +18263,20 @@
         <v>282</v>
       </c>
       <c r="H208" s="48" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I208" s="48" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="J208" s="48" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="K208" s="44"/>
       <c r="L208" s="44"/>
     </row>
     <row r="209" spans="1:152">
       <c r="A209" s="2"/>
-      <c r="D209" s="234"/>
+      <c r="D209" s="240"/>
       <c r="E209" s="82"/>
       <c r="F209" s="48" t="s">
         <v>198</v>
@@ -18279,20 +18285,20 @@
         <v>283</v>
       </c>
       <c r="H209" s="48" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I209" s="204" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="J209" s="204" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K209" s="44"/>
       <c r="L209" s="44"/>
     </row>
     <row r="210" spans="1:152" s="112" customFormat="1">
       <c r="A210" s="2"/>
-      <c r="D210" s="234"/>
+      <c r="D210" s="240"/>
       <c r="E210" s="75"/>
       <c r="F210" s="113" t="s">
         <v>203</v>
@@ -18448,7 +18454,7 @@
     </row>
     <row r="211" spans="1:152" s="112" customFormat="1">
       <c r="A211" s="2"/>
-      <c r="D211" s="234"/>
+      <c r="D211" s="240"/>
       <c r="E211" s="75"/>
       <c r="F211" s="114" t="s">
         <v>205</v>
@@ -18604,7 +18610,7 @@
     </row>
     <row r="212" spans="1:152" s="112" customFormat="1">
       <c r="A212" s="2"/>
-      <c r="D212" s="234"/>
+      <c r="D212" s="240"/>
       <c r="E212" s="130"/>
       <c r="F212" s="115" t="s">
         <v>207</v>
@@ -18760,7 +18766,7 @@
     </row>
     <row r="213" spans="1:152" s="112" customFormat="1">
       <c r="A213" s="2"/>
-      <c r="D213" s="235"/>
+      <c r="D213" s="241"/>
       <c r="E213" s="136"/>
       <c r="F213" s="133" t="s">
         <v>209</v>
@@ -18922,24 +18928,24 @@
     </row>
     <row r="214" spans="1:152" s="112" customFormat="1">
       <c r="A214" s="2"/>
-      <c r="D214" s="235"/>
+      <c r="D214" s="241"/>
       <c r="E214" s="136" t="s">
+        <v>42</v>
+      </c>
+      <c r="F214" s="133" t="s">
         <v>43</v>
-      </c>
-      <c r="F214" s="133" t="s">
-        <v>44</v>
       </c>
       <c r="G214" s="133" t="s">
         <v>288</v>
       </c>
       <c r="H214" s="134" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I214" s="134" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="J214" s="134" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K214" s="133"/>
       <c r="L214" s="135"/>
@@ -19086,24 +19092,24 @@
     </row>
     <row r="215" spans="1:152" s="112" customFormat="1" ht="28.5" customHeight="1">
       <c r="A215" s="2"/>
-      <c r="D215" s="235"/>
+      <c r="D215" s="241"/>
       <c r="E215" s="137" t="s">
+        <v>48</v>
+      </c>
+      <c r="F215" s="133" t="s">
         <v>49</v>
-      </c>
-      <c r="F215" s="133" t="s">
-        <v>50</v>
       </c>
       <c r="G215" s="133" t="s">
         <v>289</v>
       </c>
       <c r="H215" s="134" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I215" s="134" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J215" s="134" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K215" s="133"/>
       <c r="L215" s="135"/>
@@ -19250,24 +19256,24 @@
     </row>
     <row r="216" spans="1:152" s="112" customFormat="1" ht="28.5" customHeight="1">
       <c r="A216" s="2"/>
-      <c r="D216" s="235"/>
+      <c r="D216" s="241"/>
       <c r="E216" s="197" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F216" s="135" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G216" s="135" t="s">
         <v>290</v>
       </c>
       <c r="H216" s="198" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I216" s="161" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="J216" s="161" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K216" s="108"/>
       <c r="L216" s="108"/>
@@ -19414,24 +19420,24 @@
     </row>
     <row r="217" spans="1:152" s="112" customFormat="1">
       <c r="A217" s="2"/>
-      <c r="D217" s="234"/>
+      <c r="D217" s="240"/>
       <c r="E217" s="132" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F217" s="113" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G217" s="113" t="s">
         <v>291</v>
       </c>
       <c r="H217" s="116" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I217" s="42" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="J217" s="43" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K217" s="113"/>
       <c r="L217" s="113"/>
@@ -19578,22 +19584,22 @@
     </row>
     <row r="218" spans="1:152" s="112" customFormat="1" ht="30">
       <c r="A218" s="2"/>
-      <c r="D218" s="234"/>
+      <c r="D218" s="240"/>
       <c r="E218" s="75"/>
       <c r="F218" s="114" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G218" s="113" t="s">
         <v>292</v>
       </c>
       <c r="H218" s="117" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="I218" s="117" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="J218" s="117" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K218" s="114"/>
       <c r="L218" s="114"/>
@@ -19740,24 +19746,24 @@
     </row>
     <row r="219" spans="1:152" s="112" customFormat="1">
       <c r="A219" s="2"/>
-      <c r="D219" s="234"/>
+      <c r="D219" s="240"/>
       <c r="E219" s="75" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F219" s="114" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G219" s="114" t="s">
         <v>293</v>
       </c>
       <c r="H219" s="119" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I219" s="45" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="J219" s="44" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K219" s="114"/>
       <c r="L219" s="114"/>
@@ -19904,22 +19910,22 @@
     </row>
     <row r="220" spans="1:152" s="112" customFormat="1">
       <c r="A220" s="2"/>
-      <c r="D220" s="234"/>
+      <c r="D220" s="240"/>
       <c r="E220" s="75"/>
       <c r="F220" s="114" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G220" s="114" t="s">
         <v>294</v>
       </c>
       <c r="H220" s="119" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I220" s="119" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J220" s="119" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K220" s="114"/>
       <c r="L220" s="114"/>
@@ -20066,24 +20072,24 @@
     </row>
     <row r="221" spans="1:152" s="112" customFormat="1">
       <c r="A221" s="2"/>
-      <c r="D221" s="234"/>
+      <c r="D221" s="240"/>
       <c r="E221" s="75" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F221" s="114" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G221" s="114" t="s">
         <v>297</v>
       </c>
       <c r="H221" s="119" t="s">
+        <v>81</v>
+      </c>
+      <c r="I221" s="119" t="s">
         <v>82</v>
       </c>
-      <c r="I221" s="119" t="s">
+      <c r="J221" s="119" t="s">
         <v>83</v>
-      </c>
-      <c r="J221" s="119" t="s">
-        <v>84</v>
       </c>
       <c r="K221" s="114"/>
       <c r="L221" s="114"/>
@@ -20230,12 +20236,12 @@
     </row>
     <row r="222" spans="1:152" s="112" customFormat="1">
       <c r="A222" s="2"/>
-      <c r="D222" s="234"/>
+      <c r="D222" s="240"/>
       <c r="E222" s="86" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F222" s="114" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G222" s="114" t="s">
         <v>298</v>
@@ -20247,7 +20253,7 @@
         <v>1</v>
       </c>
       <c r="J222" s="117" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K222" s="114"/>
       <c r="L222" s="114"/>
@@ -20394,24 +20400,24 @@
     </row>
     <row r="223" spans="1:152" s="112" customFormat="1">
       <c r="A223" s="2"/>
-      <c r="D223" s="234"/>
+      <c r="D223" s="240"/>
       <c r="E223" s="120" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F223" s="115" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G223" s="115" t="s">
         <v>299</v>
       </c>
       <c r="H223" s="121" t="s">
+        <v>88</v>
+      </c>
+      <c r="I223" s="121" t="s">
+        <v>90</v>
+      </c>
+      <c r="J223" s="121" t="s">
         <v>89</v>
-      </c>
-      <c r="I223" s="121" t="s">
-        <v>91</v>
-      </c>
-      <c r="J223" s="121" t="s">
-        <v>90</v>
       </c>
       <c r="K223" s="115"/>
       <c r="L223" s="115"/>
@@ -20558,12 +20564,12 @@
     </row>
     <row r="224" spans="1:152" s="194" customFormat="1" ht="30">
       <c r="A224" s="196"/>
-      <c r="D224" s="234"/>
+      <c r="D224" s="240"/>
       <c r="E224" s="195" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F224" s="122" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G224" s="122" t="s">
         <v>300</v>
@@ -20716,22 +20722,22 @@
     </row>
     <row r="225" spans="1:152" s="112" customFormat="1">
       <c r="A225" s="2"/>
-      <c r="D225" s="234"/>
+      <c r="D225" s="240"/>
       <c r="E225" s="143"/>
       <c r="F225" s="144" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G225" s="145" t="s">
         <v>301</v>
       </c>
       <c r="H225" s="122" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I225" s="122" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J225" s="122" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K225" s="108"/>
       <c r="L225" s="108"/>
@@ -20878,7 +20884,7 @@
     </row>
     <row r="226" spans="1:152" s="138" customFormat="1">
       <c r="A226" s="2"/>
-      <c r="D226" s="235"/>
+      <c r="D226" s="241"/>
       <c r="E226" s="146"/>
       <c r="F226" s="124" t="s">
         <v>302</v>
@@ -20887,13 +20893,13 @@
         <v>303</v>
       </c>
       <c r="H226" s="141" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I226" s="141" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="J226" s="141" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="K226" s="139"/>
       <c r="L226" s="139"/>
@@ -21040,7 +21046,7 @@
     </row>
     <row r="227" spans="1:152" s="138" customFormat="1">
       <c r="A227" s="2"/>
-      <c r="D227" s="235"/>
+      <c r="D227" s="241"/>
       <c r="E227" s="146"/>
       <c r="F227" s="124" t="s">
         <v>305</v>
@@ -21052,10 +21058,10 @@
         <v>308</v>
       </c>
       <c r="I227" s="142" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="J227" s="142" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K227" s="139"/>
       <c r="L227" s="139"/>
@@ -21721,6 +21727,18 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D173:D227"/>
+    <mergeCell ref="D120:D122"/>
+    <mergeCell ref="D123:D134"/>
+    <mergeCell ref="D136:D142"/>
+    <mergeCell ref="D143:D149"/>
+    <mergeCell ref="D150:D172"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="D41:D63"/>
+    <mergeCell ref="D64:D118"/>
+    <mergeCell ref="D14:D25"/>
+    <mergeCell ref="D27:D33"/>
+    <mergeCell ref="D34:D40"/>
     <mergeCell ref="J2:O4"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="A6:D6"/>
@@ -21729,18 +21747,6 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="D41:D63"/>
-    <mergeCell ref="D64:D118"/>
-    <mergeCell ref="D14:D25"/>
-    <mergeCell ref="D27:D33"/>
-    <mergeCell ref="D34:D40"/>
-    <mergeCell ref="D173:D227"/>
-    <mergeCell ref="D120:D122"/>
-    <mergeCell ref="D123:D134"/>
-    <mergeCell ref="D136:D142"/>
-    <mergeCell ref="D143:D149"/>
-    <mergeCell ref="D150:D172"/>
   </mergeCells>
   <conditionalFormatting sqref="D27">
     <cfRule type="expression" dxfId="171" priority="439">
@@ -22335,6 +22341,67 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ModificateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <f8b6baa267c0456bbf6a8d18c49a130b xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </f8b6baa267c0456bbf6a8d18c49a130b>
+    <eef0f6fc4ed046399a9d01fd3a7d6a6a xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </eef0f6fc4ed046399a9d01fd3a7d6a6a>
+    <Référence_x0020_Bon_x0020_de_x0020_Commande xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <Référence_x0020_Documentaire xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <Chantier xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <p671c8df16a44846939d278d4958f62c xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </p671c8df16a44846939d278d4958f62c>
+    <Durée_x0020_d_x0027_Utilité_x0020_Administrative_x0020__x0028_DUA_x0029_ xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <Environnement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <b2804ef99be44b9e8166e80a6c2eb9f1 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </b2804ef99be44b9e8166e80a6c2eb9f1>
+    <_ExtendedDescription xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <mc4aa6e782e045f6bb87dab01c971b56 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </mc4aa6e782e045f6bb87dab01c971b56>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <m312bc62cb0243b6a873cbbf4dace6b2 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </m312bc62cb0243b6a873cbbf4dace6b2>
+    <b084a4cb34a444d7969136255594d2f3 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </b084a4cb34a444d7969136255594d2f3>
+    <CreateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <g30fb2d8061a4d40b63138f91c1a832e xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </g30fb2d8061a4d40b63138f91c1a832e>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <m9a76db3058146ae844db6599c9d7036 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </m9a76db3058146ae844db6599c9d7036>
+    <Ticket_x0020_Changement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <l0a6b4600f484920bbceae0813174244 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l0a6b4600f484920bbceae0813174244>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document - Suivi de projet" ma:contentTypeID="0x010100333226B5D6902549BFE4A72F45A4400B0100E98F8C089710A74CA077FC6D601326A8" ma:contentTypeVersion="52" ma:contentTypeDescription="Type de contenu - Documentation de suivi de projet" ma:contentTypeScope="" ma:versionID="b3317a165cd10de70dc68851db9884d1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xmlns:ns3="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b8430278eece82d06f551ff77398a68" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -22748,69 +22815,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ModificateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <f8b6baa267c0456bbf6a8d18c49a130b xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </f8b6baa267c0456bbf6a8d18c49a130b>
-    <eef0f6fc4ed046399a9d01fd3a7d6a6a xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </eef0f6fc4ed046399a9d01fd3a7d6a6a>
-    <Référence_x0020_Bon_x0020_de_x0020_Commande xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <Référence_x0020_Documentaire xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <Chantier xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <p671c8df16a44846939d278d4958f62c xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </p671c8df16a44846939d278d4958f62c>
-    <Durée_x0020_d_x0027_Utilité_x0020_Administrative_x0020__x0028_DUA_x0029_ xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <Environnement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <b2804ef99be44b9e8166e80a6c2eb9f1 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </b2804ef99be44b9e8166e80a6c2eb9f1>
-    <_ExtendedDescription xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <mc4aa6e782e045f6bb87dab01c971b56 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </mc4aa6e782e045f6bb87dab01c971b56>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <m312bc62cb0243b6a873cbbf4dace6b2 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </m312bc62cb0243b6a873cbbf4dace6b2>
-    <b084a4cb34a444d7969136255594d2f3 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </b084a4cb34a444d7969136255594d2f3>
-    <CreateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <g30fb2d8061a4d40b63138f91c1a832e xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </g30fb2d8061a4d40b63138f91c1a832e>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <m9a76db3058146ae844db6599c9d7036 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </m9a76db3058146ae844db6599c9d7036>
-    <Ticket_x0020_Changement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <l0a6b4600f484920bbceae0813174244 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </l0a6b4600f484920bbceae0813174244>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AEC75D3-A67D-4574-BB93-839AC9299105}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381C76DC-CEF1-461E-A76F-551B50E93033}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -22818,5 +22824,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381C76DC-CEF1-461E-A76F-551B50E93033}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AEC75D3-A67D-4574-BB93-839AC9299105}"/>
 </file>
--- a/csv_parser/test-cases-15-15.xlsx
+++ b/csv_parser/test-cases-15-15.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://esantegouv.sharepoint.com/sites/GED-Calypso/espace-projets/Espace Programme SISAMU/01 - Equipe projet/07 - Innovation et prospectif/12 - Hub Santé/13 - 15-15/04 - Pilotes 15-15/04 - JDD recette/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CE541BF-9526-4E38-974F-7B617D7C786F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{37CBDD18-F898-4AE2-ADFF-25E932A447CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" xr2:uid="{8E95E427-60E8-4C01-A0F5-EF6B52DBDF48}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="401">
   <si>
     <t>Périmètre</t>
   </si>
@@ -135,6 +135,9 @@
     <t>Pas de test</t>
   </si>
   <si>
+    <t>Modèle</t>
+  </si>
+  <si>
     <t>Déroulé métier</t>
   </si>
   <si>
@@ -1030,9 +1033,6 @@
   </si>
   <si>
     <t>Envoi d'un message RS-EDA avec demande de prise en charge, réception d'une réponse RS-EDA d'acceptation</t>
-  </si>
-  <si>
-    <t>Modèle</t>
   </si>
   <si>
     <t>fr.health.samu950-DRFR159502401000233</t>
@@ -2496,9 +2496,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2546,6 +2543,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4662,8 +4660,8 @@
   <dimension ref="A1:O119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="10" topLeftCell="G26" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="I32" sqref="I32"/>
+      <pane xSplit="6" ySplit="10" topLeftCell="G11" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
     </sheetView>
@@ -4684,19 +4682,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75">
-      <c r="A1" s="231" t="s">
+      <c r="A1" s="230" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="231"/>
+      <c r="B1" s="230"/>
       <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="18.75">
-      <c r="A2" s="231" t="s">
+      <c r="A2" s="230" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="231"/>
+      <c r="B2" s="230"/>
       <c r="C2" t="s">
         <v>3</v>
       </c>
@@ -4716,10 +4714,10 @@
       <c r="O2" s="229"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="18.75">
-      <c r="A3" s="231" t="s">
+      <c r="A3" s="230" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="231"/>
+      <c r="B3" s="230"/>
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -4734,10 +4732,10 @@
       <c r="O3" s="229"/>
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1" ht="18.75">
-      <c r="A4" s="231" t="s">
+      <c r="A4" s="230" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="231"/>
+      <c r="B4" s="230"/>
       <c r="C4" t="s">
         <v>8</v>
       </c>
@@ -4752,14 +4750,14 @@
       <c r="O4" s="229"/>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" ht="18.75">
-      <c r="A5" s="245" t="s">
+      <c r="A5" s="244" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="245"/>
-      <c r="C5" s="245"/>
-      <c r="D5" s="245"/>
-      <c r="E5" s="245"/>
-      <c r="F5" s="245"/>
+      <c r="B5" s="244"/>
+      <c r="C5" s="244"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="F5" s="244"/>
       <c r="H5" s="7"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -4769,12 +4767,12 @@
       <c r="O5" s="8"/>
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1" ht="18.75">
-      <c r="A6" s="232" t="s">
+      <c r="A6" s="231" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="233"/>
-      <c r="C6" s="233"/>
-      <c r="D6" s="234"/>
+      <c r="B6" s="232"/>
+      <c r="C6" s="232"/>
+      <c r="D6" s="233"/>
       <c r="E6" s="5"/>
       <c r="F6" t="s">
         <v>11</v>
@@ -4788,12 +4786,12 @@
       <c r="O6" s="8"/>
     </row>
     <row r="7" spans="1:15" s="1" customFormat="1" ht="18.75">
-      <c r="A7" s="235" t="s">
+      <c r="A7" s="234" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="235"/>
-      <c r="C7" s="235"/>
-      <c r="D7" s="235"/>
+      <c r="B7" s="234"/>
+      <c r="C7" s="234"/>
+      <c r="D7" s="234"/>
       <c r="E7" s="10"/>
       <c r="F7" t="s">
         <v>13</v>
@@ -4815,53 +4813,55 @@
       <c r="L8" s="9"/>
     </row>
     <row r="9" spans="1:15" s="4" customFormat="1" ht="18.75">
-      <c r="A9" s="230" t="s">
+      <c r="A9" s="246" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="230"/>
+      <c r="B9" s="246" t="s">
+        <v>15</v>
+      </c>
       <c r="C9" s="163" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L9" s="18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="109" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E10" s="34"/>
       <c r="F10" s="25"/>
@@ -4873,260 +4873,260 @@
       <c r="L10" s="25"/>
     </row>
     <row r="11" spans="1:15" ht="16.5" customHeight="1">
-      <c r="D11" s="236" t="s">
-        <v>28</v>
+      <c r="D11" s="235" t="s">
+        <v>29</v>
       </c>
       <c r="E11" s="74"/>
       <c r="F11" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K11" s="46"/>
       <c r="L11" s="46"/>
     </row>
     <row r="12" spans="1:15">
-      <c r="D12" s="237"/>
+      <c r="D12" s="236"/>
       <c r="E12" s="74"/>
       <c r="F12" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K12" s="46"/>
       <c r="L12" s="46"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="D13" s="238"/>
+      <c r="D13" s="237"/>
       <c r="E13" s="74"/>
       <c r="F13" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K13" s="46"/>
       <c r="L13" s="46"/>
     </row>
     <row r="14" spans="1:15">
-      <c r="D14" s="236" t="s">
-        <v>41</v>
+      <c r="D14" s="235" t="s">
+        <v>42</v>
       </c>
       <c r="E14" s="74" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
     </row>
     <row r="15" spans="1:15" ht="28.5" customHeight="1">
-      <c r="D15" s="237"/>
+      <c r="D15" s="236"/>
       <c r="E15" s="84" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J15" s="73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
     </row>
     <row r="16" spans="1:15" s="112" customFormat="1" ht="28.5" customHeight="1">
-      <c r="D16" s="237"/>
+      <c r="D16" s="236"/>
       <c r="E16" s="75" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F16" s="109" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G16" s="185" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H16" s="160" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I16" s="160" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J16" s="160" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="4:12">
-      <c r="D17" s="237"/>
+      <c r="D17" s="236"/>
       <c r="E17" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F17" s="42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G17" s="42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H17" s="43" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I17" s="42" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J17" s="42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K17" s="42"/>
       <c r="L17" s="42"/>
     </row>
     <row r="18" spans="4:12" s="112" customFormat="1" ht="30">
-      <c r="D18" s="237"/>
+      <c r="D18" s="236"/>
       <c r="E18" s="75"/>
       <c r="F18" s="109" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G18" s="109" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H18" s="110" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I18" s="110" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J18" s="111" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K18" s="109"/>
       <c r="L18" s="109"/>
     </row>
     <row r="19" spans="4:12">
-      <c r="D19" s="237"/>
+      <c r="D19" s="236"/>
       <c r="E19" s="34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F19" s="44" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G19" s="44" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H19" s="45" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I19" s="44" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J19" s="44" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K19" s="44"/>
       <c r="L19" s="44"/>
     </row>
     <row r="20" spans="4:12" ht="30.75" customHeight="1">
-      <c r="D20" s="237"/>
+      <c r="D20" s="236"/>
       <c r="E20" s="34"/>
       <c r="F20" s="20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H20" s="21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I20" s="53" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J20" s="53" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K20" s="20"/>
       <c r="L20" s="20"/>
     </row>
     <row r="21" spans="4:12">
-      <c r="D21" s="237"/>
+      <c r="D21" s="236"/>
       <c r="E21" s="34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I21" s="20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J21" s="20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K21" s="20"/>
       <c r="L21" s="20"/>
     </row>
     <row r="22" spans="4:12" s="203" customFormat="1">
-      <c r="D22" s="237"/>
+      <c r="D22" s="236"/>
       <c r="E22" s="200" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F22" s="201" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G22" s="201" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H22" s="202">
         <v>1</v>
@@ -5141,36 +5141,36 @@
       <c r="L22" s="201"/>
     </row>
     <row r="23" spans="4:12">
-      <c r="D23" s="237"/>
+      <c r="D23" s="236"/>
       <c r="E23" s="87" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F23" s="29" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G23" s="29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H23" s="55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I23" s="29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J23" s="29" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K23" s="29"/>
       <c r="L23" s="29"/>
     </row>
     <row r="24" spans="4:12" ht="30">
-      <c r="D24" s="237"/>
+      <c r="D24" s="236"/>
       <c r="E24" s="89"/>
       <c r="F24" s="162" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G24" s="158" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H24" s="174"/>
       <c r="I24" s="175"/>
@@ -5179,212 +5179,212 @@
       <c r="L24" s="35"/>
     </row>
     <row r="25" spans="4:12">
-      <c r="D25" s="238"/>
+      <c r="D25" s="237"/>
       <c r="E25" s="89"/>
       <c r="F25" s="90" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G25" s="35" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H25" s="91" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I25" s="91" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J25" s="91" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K25" s="35"/>
       <c r="L25" s="35"/>
     </row>
     <row r="26" spans="4:12">
       <c r="D26" s="88" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E26" s="80" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F26" s="57" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G26" s="57" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H26" s="58" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I26" s="58" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J26" s="58" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K26" s="59"/>
       <c r="L26" s="59"/>
     </row>
     <row r="27" spans="4:12">
-      <c r="D27" s="242" t="s">
-        <v>101</v>
+      <c r="D27" s="241" t="s">
+        <v>102</v>
       </c>
       <c r="E27" s="76"/>
       <c r="F27" s="23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H27" s="24" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I27" s="24" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J27" s="24" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K27" s="20"/>
       <c r="L27" s="20"/>
     </row>
     <row r="28" spans="4:12">
-      <c r="D28" s="243"/>
+      <c r="D28" s="242"/>
       <c r="E28" s="34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I28" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J28" s="20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K28" s="20"/>
       <c r="L28" s="20"/>
     </row>
     <row r="29" spans="4:12" s="69" customFormat="1">
-      <c r="D29" s="243"/>
+      <c r="D29" s="242"/>
       <c r="E29" s="87" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F29" s="68" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H29" s="68" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I29" s="68" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J29" s="68"/>
       <c r="K29" s="68"/>
       <c r="L29" s="68"/>
     </row>
     <row r="30" spans="4:12">
-      <c r="D30" s="243"/>
+      <c r="D30" s="242"/>
       <c r="E30" s="34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H30" s="21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I30" s="20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J30" s="20" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K30" s="20"/>
       <c r="L30" s="20"/>
     </row>
     <row r="31" spans="4:12">
-      <c r="D31" s="243"/>
+      <c r="D31" s="242"/>
       <c r="E31" s="34"/>
       <c r="F31" s="20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H31" s="21" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I31" s="20" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J31" s="20"/>
       <c r="K31" s="20"/>
       <c r="L31" s="20"/>
     </row>
     <row r="32" spans="4:12">
-      <c r="D32" s="243"/>
+      <c r="D32" s="242"/>
       <c r="E32" s="34"/>
       <c r="F32" s="20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H32" s="21" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I32" s="20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J32" s="20"/>
       <c r="K32" s="20"/>
       <c r="L32" s="20"/>
     </row>
     <row r="33" spans="4:12" s="203" customFormat="1">
-      <c r="D33" s="243"/>
+      <c r="D33" s="242"/>
       <c r="E33" s="205" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F33" s="206" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G33" s="201" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H33" s="207" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I33" s="206" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J33" s="206" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K33" s="206"/>
       <c r="L33" s="206"/>
     </row>
     <row r="34" spans="4:12">
-      <c r="D34" s="242" t="s">
-        <v>134</v>
+      <c r="D34" s="241" t="s">
+        <v>135</v>
       </c>
       <c r="E34" s="78"/>
       <c r="F34" s="60" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G34" s="23" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H34" s="61"/>
       <c r="I34" s="61"/>
@@ -5393,13 +5393,13 @@
       <c r="L34" s="63"/>
     </row>
     <row r="35" spans="4:12">
-      <c r="D35" s="243"/>
+      <c r="D35" s="242"/>
       <c r="E35" s="34"/>
       <c r="F35" s="20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H35" s="21"/>
       <c r="I35" s="20"/>
@@ -5408,13 +5408,13 @@
       <c r="L35" s="64"/>
     </row>
     <row r="36" spans="4:12">
-      <c r="D36" s="243"/>
+      <c r="D36" s="242"/>
       <c r="E36" s="34"/>
       <c r="F36" s="20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H36" s="21"/>
       <c r="I36" s="20"/>
@@ -5423,13 +5423,13 @@
       <c r="L36" s="64"/>
     </row>
     <row r="37" spans="4:12">
-      <c r="D37" s="243"/>
+      <c r="D37" s="242"/>
       <c r="E37" s="34"/>
       <c r="F37" s="20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H37" s="21"/>
       <c r="I37" s="20"/>
@@ -5438,13 +5438,13 @@
       <c r="L37" s="64"/>
     </row>
     <row r="38" spans="4:12">
-      <c r="D38" s="243"/>
+      <c r="D38" s="242"/>
       <c r="E38" s="34"/>
       <c r="F38" s="20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G38" s="20" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H38" s="21"/>
       <c r="I38" s="20"/>
@@ -5453,13 +5453,13 @@
       <c r="L38" s="64"/>
     </row>
     <row r="39" spans="4:12">
-      <c r="D39" s="243"/>
+      <c r="D39" s="242"/>
       <c r="E39" s="34"/>
       <c r="F39" s="20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G39" s="20" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H39" s="21"/>
       <c r="I39" s="20"/>
@@ -5468,13 +5468,13 @@
       <c r="L39" s="64"/>
     </row>
     <row r="40" spans="4:12">
-      <c r="D40" s="244"/>
+      <c r="D40" s="243"/>
       <c r="E40" s="79"/>
       <c r="F40" s="65" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G40" s="20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H40" s="66"/>
       <c r="I40" s="65"/>
@@ -5483,124 +5483,124 @@
       <c r="L40" s="67"/>
     </row>
     <row r="41" spans="4:12">
-      <c r="D41" s="236" t="s">
-        <v>142</v>
+      <c r="D41" s="235" t="s">
+        <v>143</v>
       </c>
       <c r="E41" s="80"/>
       <c r="F41" s="56" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G41" s="57" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H41" s="58" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I41" s="58" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J41" s="58" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K41" s="59"/>
       <c r="L41" s="59"/>
     </row>
     <row r="42" spans="4:12">
-      <c r="D42" s="237"/>
+      <c r="D42" s="236"/>
       <c r="E42" s="147" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F42" s="148" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G42" s="148" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H42" s="149" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I42" s="149" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J42" s="149" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K42" s="150"/>
       <c r="L42" s="150"/>
     </row>
     <row r="43" spans="4:12" s="38" customFormat="1">
-      <c r="D43" s="239"/>
+      <c r="D43" s="238"/>
       <c r="E43" s="152"/>
       <c r="F43" s="153" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G43" s="20" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H43" s="154"/>
       <c r="I43" s="154"/>
       <c r="J43" s="154" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K43" s="153"/>
       <c r="L43" s="153"/>
     </row>
     <row r="44" spans="4:12">
-      <c r="D44" s="237"/>
+      <c r="D44" s="236"/>
       <c r="E44" s="151" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F44" s="30" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G44" s="30" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H44" s="31" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I44" s="31" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J44" s="27" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K44" s="27"/>
       <c r="L44" s="27"/>
     </row>
     <row r="45" spans="4:12">
-      <c r="D45" s="237"/>
+      <c r="D45" s="236"/>
       <c r="E45" s="34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F45" s="20" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G45" s="20" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H45" s="21" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I45" s="20" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J45" s="20" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K45" s="20"/>
       <c r="L45" s="20"/>
     </row>
     <row r="46" spans="4:12">
-      <c r="D46" s="237"/>
+      <c r="D46" s="236"/>
       <c r="E46" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F46" s="20" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G46" s="20" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H46" s="22">
         <v>77479</v>
@@ -5615,15 +5615,15 @@
       <c r="L46" s="22"/>
     </row>
     <row r="47" spans="4:12">
-      <c r="D47" s="237"/>
+      <c r="D47" s="236"/>
       <c r="E47" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F47" s="20" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G47" s="20" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H47" s="20"/>
       <c r="I47" s="70">
@@ -5634,15 +5634,15 @@
       <c r="L47" s="20"/>
     </row>
     <row r="48" spans="4:12">
-      <c r="D48" s="237"/>
+      <c r="D48" s="236"/>
       <c r="E48" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F48" s="20" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G48" s="20" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H48" s="20"/>
       <c r="J48" s="20"/>
@@ -5650,34 +5650,34 @@
       <c r="L48" s="20"/>
     </row>
     <row r="49" spans="4:12">
-      <c r="D49" s="237"/>
+      <c r="D49" s="236"/>
       <c r="E49" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F49" s="20" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G49" s="20" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H49" s="20"/>
       <c r="I49" s="20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J49" s="20"/>
       <c r="K49" s="20"/>
       <c r="L49" s="20"/>
     </row>
     <row r="50" spans="4:12">
-      <c r="D50" s="237"/>
+      <c r="D50" s="236"/>
       <c r="E50" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F50" s="20" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G50" s="20" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H50" s="20"/>
       <c r="I50" s="54">
@@ -5688,53 +5688,53 @@
       <c r="L50" s="20"/>
     </row>
     <row r="51" spans="4:12">
-      <c r="D51" s="237"/>
+      <c r="D51" s="236"/>
       <c r="E51" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F51" s="20" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G51" s="20" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H51" s="20"/>
       <c r="I51" s="20" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J51" s="20"/>
       <c r="K51" s="20"/>
       <c r="L51" s="20"/>
     </row>
     <row r="52" spans="4:12">
-      <c r="D52" s="237"/>
+      <c r="D52" s="236"/>
       <c r="E52" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F52" s="20" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G52" s="20" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H52" s="20"/>
       <c r="I52" s="20" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J52" s="20"/>
       <c r="K52" s="20"/>
       <c r="L52" s="20"/>
     </row>
     <row r="53" spans="4:12">
-      <c r="D53" s="237"/>
+      <c r="D53" s="236"/>
       <c r="E53" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F53" s="20" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G53" s="20" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H53" s="20"/>
       <c r="I53" s="20"/>
@@ -5743,15 +5743,15 @@
       <c r="L53" s="20"/>
     </row>
     <row r="54" spans="4:12">
-      <c r="D54" s="237"/>
+      <c r="D54" s="236"/>
       <c r="E54" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F54" s="20" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G54" s="20" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H54" s="20"/>
       <c r="I54" s="20"/>
@@ -5760,15 +5760,15 @@
       <c r="L54" s="20"/>
     </row>
     <row r="55" spans="4:12">
-      <c r="D55" s="237"/>
+      <c r="D55" s="236"/>
       <c r="E55" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F55" s="29" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G55" s="20" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H55" s="29"/>
       <c r="I55" s="29"/>
@@ -5779,99 +5779,99 @@
       <c r="L55" s="20"/>
     </row>
     <row r="56" spans="4:12" s="38" customFormat="1">
-      <c r="D56" s="237"/>
+      <c r="D56" s="236"/>
       <c r="E56" s="81" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F56" s="41" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G56" s="20" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H56" s="41" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I56" s="41" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J56" s="39" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K56" s="40"/>
       <c r="L56" s="40"/>
     </row>
     <row r="57" spans="4:12">
-      <c r="D57" s="237"/>
+      <c r="D57" s="236"/>
       <c r="E57" s="82"/>
       <c r="F57" s="47" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G57" s="47" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H57" s="47" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I57" s="208" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J57" s="47" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K57" s="44"/>
       <c r="L57" s="44"/>
     </row>
     <row r="58" spans="4:12">
-      <c r="D58" s="237"/>
+      <c r="D58" s="236"/>
       <c r="E58" s="82"/>
       <c r="F58" s="48" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G58" s="47" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H58" s="48" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I58" s="209" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J58" s="48" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K58" s="44"/>
       <c r="L58" s="44"/>
     </row>
     <row r="59" spans="4:12">
-      <c r="D59" s="237"/>
+      <c r="D59" s="236"/>
       <c r="E59" s="82"/>
       <c r="F59" s="48" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G59" s="47" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H59" s="48" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I59" s="209" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J59" s="48" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K59" s="44"/>
       <c r="L59" s="44"/>
     </row>
     <row r="60" spans="4:12">
-      <c r="D60" s="237"/>
+      <c r="D60" s="236"/>
       <c r="E60" s="34"/>
       <c r="F60" s="27" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G60" s="27" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H60" s="27"/>
       <c r="I60" s="20"/>
@@ -5880,13 +5880,13 @@
       <c r="L60" s="20"/>
     </row>
     <row r="61" spans="4:12">
-      <c r="D61" s="237"/>
+      <c r="D61" s="236"/>
       <c r="E61" s="34"/>
       <c r="F61" s="20" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G61" s="27" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H61" s="20"/>
       <c r="I61" s="20"/>
@@ -5895,13 +5895,13 @@
       <c r="L61" s="20"/>
     </row>
     <row r="62" spans="4:12">
-      <c r="D62" s="237"/>
+      <c r="D62" s="236"/>
       <c r="E62" s="34"/>
       <c r="F62" s="29" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G62" s="27" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H62" s="29"/>
       <c r="I62" s="20"/>
@@ -5910,101 +5910,101 @@
       <c r="L62" s="20"/>
     </row>
     <row r="63" spans="4:12">
-      <c r="D63" s="238"/>
+      <c r="D63" s="237"/>
       <c r="E63" s="82"/>
       <c r="F63" s="48" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G63" s="47" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H63" s="50" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I63" s="50" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J63" s="50" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K63" s="44"/>
       <c r="L63" s="44"/>
     </row>
     <row r="64" spans="4:12">
-      <c r="D64" s="240" t="s">
-        <v>212</v>
+      <c r="D64" s="239" t="s">
+        <v>213</v>
       </c>
       <c r="E64" s="82"/>
       <c r="F64" s="49" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G64" s="47" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H64" s="50" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I64" s="50" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J64" s="50" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K64" s="44"/>
       <c r="L64" s="44"/>
     </row>
     <row r="65" spans="4:12">
-      <c r="D65" s="240"/>
+      <c r="D65" s="239"/>
       <c r="E65" s="82"/>
       <c r="F65" s="51" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G65" s="47" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H65" s="52" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I65" s="52" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J65" s="52" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K65" s="44"/>
       <c r="L65" s="44"/>
     </row>
     <row r="66" spans="4:12">
-      <c r="D66" s="240"/>
+      <c r="D66" s="239"/>
       <c r="E66" s="81"/>
       <c r="F66" s="51" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G66" s="47" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H66" s="52" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I66" s="52" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J66" s="52" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K66" s="44"/>
       <c r="L66" s="44"/>
     </row>
     <row r="67" spans="4:12" ht="15" customHeight="1">
-      <c r="D67" s="240"/>
+      <c r="D67" s="239"/>
       <c r="E67" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F67" s="37" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G67" s="37" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H67" s="174"/>
       <c r="I67" s="175"/>
@@ -6013,38 +6013,38 @@
       <c r="L67" s="20"/>
     </row>
     <row r="68" spans="4:12">
-      <c r="D68" s="240"/>
+      <c r="D68" s="239"/>
       <c r="E68" s="81" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F68" s="35" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G68" s="37" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H68" s="36" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I68" s="36" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J68" s="36" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K68" s="20"/>
       <c r="L68" s="20"/>
     </row>
     <row r="69" spans="4:12" s="69" customFormat="1">
-      <c r="D69" s="240"/>
+      <c r="D69" s="239"/>
       <c r="E69" s="83" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F69" s="71" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G69" s="37" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H69" s="140">
         <v>607080915</v>
@@ -6059,38 +6059,38 @@
       <c r="L69" s="68"/>
     </row>
     <row r="70" spans="4:12">
-      <c r="D70" s="240"/>
+      <c r="D70" s="239"/>
       <c r="E70" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F70" s="27" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G70" s="37" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H70" s="28" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I70" s="36" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J70" s="36" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K70" s="20"/>
       <c r="L70" s="20"/>
     </row>
     <row r="71" spans="4:12" s="69" customFormat="1">
-      <c r="D71" s="240"/>
+      <c r="D71" s="239"/>
       <c r="E71" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F71" s="68" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G71" s="37" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H71" s="140">
         <v>607080915</v>
@@ -6105,55 +6105,55 @@
       <c r="L71" s="68"/>
     </row>
     <row r="72" spans="4:12" s="69" customFormat="1">
-      <c r="D72" s="240"/>
+      <c r="D72" s="239"/>
       <c r="E72" s="85"/>
       <c r="F72" s="95" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G72" s="37" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H72" s="210"/>
       <c r="I72" s="72" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J72" s="72" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K72" s="68"/>
       <c r="L72" s="68"/>
     </row>
     <row r="73" spans="4:12">
-      <c r="D73" s="240"/>
+      <c r="D73" s="239"/>
       <c r="E73" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F73" s="29" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G73" s="37" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H73" s="33" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I73" s="20" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J73" s="20" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K73" s="20"/>
       <c r="L73" s="20"/>
     </row>
     <row r="74" spans="4:12">
-      <c r="D74" s="240"/>
+      <c r="D74" s="239"/>
       <c r="E74" s="97"/>
       <c r="F74" s="35" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G74" s="37" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H74" s="99"/>
       <c r="I74" s="32"/>
@@ -6162,138 +6162,138 @@
       <c r="L74" s="20"/>
     </row>
     <row r="75" spans="4:12">
-      <c r="D75" s="240"/>
+      <c r="D75" s="239"/>
       <c r="E75" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F75" s="98" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G75" s="37" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H75" s="36" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J75" s="20"/>
       <c r="K75" s="20"/>
       <c r="L75" s="20"/>
     </row>
     <row r="76" spans="4:12">
-      <c r="D76" s="240"/>
+      <c r="D76" s="239"/>
       <c r="E76" s="82" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F76" s="23" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G76" s="37" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H76" s="31" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I76" s="24" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J76" s="23" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K76" s="20"/>
       <c r="L76" s="20"/>
     </row>
     <row r="77" spans="4:12">
-      <c r="D77" s="240"/>
+      <c r="D77" s="239"/>
       <c r="E77" s="34"/>
       <c r="F77" s="20" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G77" s="37" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H77" s="21" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I77" s="20" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J77" s="20" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K77" s="20"/>
       <c r="L77" s="20"/>
     </row>
     <row r="78" spans="4:12">
-      <c r="D78" s="240"/>
+      <c r="D78" s="239"/>
       <c r="E78" s="77"/>
       <c r="F78" s="29" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G78" s="123" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H78" s="55" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I78" s="29" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J78" s="29" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K78" s="29"/>
       <c r="L78" s="29"/>
     </row>
     <row r="79" spans="4:12">
-      <c r="D79" s="240"/>
+      <c r="D79" s="239"/>
       <c r="E79" s="129"/>
       <c r="F79" s="124" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G79" s="124" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H79" s="126" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I79" s="126" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J79" s="126" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K79" s="124"/>
       <c r="L79" s="124"/>
     </row>
     <row r="80" spans="4:12">
-      <c r="D80" s="240"/>
+      <c r="D80" s="239"/>
       <c r="E80" s="129"/>
       <c r="F80" s="124" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G80" s="124" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H80" s="216" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I80" s="216" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J80" s="216" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K80" s="124"/>
       <c r="L80" s="124"/>
     </row>
     <row r="81" spans="4:12">
-      <c r="D81" s="240"/>
+      <c r="D81" s="239"/>
       <c r="E81" s="129"/>
       <c r="F81" s="124" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G81" s="124" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H81" s="217">
         <v>607080915</v>
@@ -6308,122 +6308,122 @@
       <c r="L81" s="124"/>
     </row>
     <row r="82" spans="4:12">
-      <c r="D82" s="240"/>
+      <c r="D82" s="239"/>
       <c r="E82" s="128"/>
       <c r="F82" s="127" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G82" s="124" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H82" s="126" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I82" s="126" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J82" s="126" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K82" s="124"/>
       <c r="L82" s="124"/>
     </row>
     <row r="83" spans="4:12">
-      <c r="D83" s="240"/>
+      <c r="D83" s="239"/>
       <c r="E83" s="82" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F83" s="124" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G83" s="124" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H83" s="126" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I83" s="126" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J83" s="126" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K83" s="124"/>
       <c r="L83" s="124"/>
     </row>
     <row r="84" spans="4:12">
-      <c r="D84" s="240"/>
+      <c r="D84" s="239"/>
       <c r="E84" s="82"/>
       <c r="F84" s="44" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G84" s="44" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H84" s="44"/>
       <c r="I84" s="44"/>
       <c r="J84" s="44" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K84" s="211"/>
       <c r="L84" s="211"/>
     </row>
     <row r="85" spans="4:12">
-      <c r="D85" s="240"/>
+      <c r="D85" s="239"/>
       <c r="E85" s="76" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F85" s="100" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G85" s="100" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H85" s="101" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I85" s="101" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J85" s="102" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K85" s="42"/>
       <c r="L85" s="42"/>
     </row>
     <row r="86" spans="4:12">
-      <c r="D86" s="240"/>
+      <c r="D86" s="239"/>
       <c r="E86" s="34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F86" s="44" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G86" s="44" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H86" s="45" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I86" s="44" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J86" s="102" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K86" s="44"/>
       <c r="L86" s="44"/>
     </row>
     <row r="87" spans="4:12">
-      <c r="D87" s="240"/>
+      <c r="D87" s="239"/>
       <c r="E87" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F87" s="44" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G87" s="44" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H87" s="102">
         <v>77479</v>
@@ -6438,15 +6438,15 @@
       <c r="L87" s="102"/>
     </row>
     <row r="88" spans="4:12">
-      <c r="D88" s="240"/>
+      <c r="D88" s="239"/>
       <c r="E88" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F88" s="44" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G88" s="44" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H88" s="44"/>
       <c r="I88" s="103">
@@ -6457,15 +6457,15 @@
       <c r="L88" s="44"/>
     </row>
     <row r="89" spans="4:12">
-      <c r="D89" s="240"/>
+      <c r="D89" s="239"/>
       <c r="E89" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F89" s="44" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G89" s="44" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H89" s="44"/>
       <c r="I89" s="104"/>
@@ -6474,34 +6474,34 @@
       <c r="L89" s="44"/>
     </row>
     <row r="90" spans="4:12">
-      <c r="D90" s="240"/>
+      <c r="D90" s="239"/>
       <c r="E90" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F90" s="44" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G90" s="44" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H90" s="44"/>
       <c r="I90" s="44" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J90" s="102"/>
       <c r="K90" s="44"/>
       <c r="L90" s="44"/>
     </row>
     <row r="91" spans="4:12">
-      <c r="D91" s="240"/>
+      <c r="D91" s="239"/>
       <c r="E91" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F91" s="44" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G91" s="44" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H91" s="44"/>
       <c r="I91" s="105">
@@ -6512,53 +6512,53 @@
       <c r="L91" s="44"/>
     </row>
     <row r="92" spans="4:12">
-      <c r="D92" s="240"/>
+      <c r="D92" s="239"/>
       <c r="E92" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F92" s="44" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G92" s="44" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H92" s="44"/>
       <c r="I92" s="44" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J92" s="102"/>
       <c r="K92" s="44"/>
       <c r="L92" s="44"/>
     </row>
     <row r="93" spans="4:12">
-      <c r="D93" s="240"/>
+      <c r="D93" s="239"/>
       <c r="E93" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F93" s="44" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G93" s="44" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H93" s="44"/>
       <c r="I93" s="44" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J93" s="102"/>
       <c r="K93" s="44"/>
       <c r="L93" s="44"/>
     </row>
     <row r="94" spans="4:12">
-      <c r="D94" s="240"/>
+      <c r="D94" s="239"/>
       <c r="E94" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F94" s="44" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G94" s="44" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H94" s="44"/>
       <c r="I94" s="44"/>
@@ -6567,15 +6567,15 @@
       <c r="L94" s="44"/>
     </row>
     <row r="95" spans="4:12">
-      <c r="D95" s="240"/>
+      <c r="D95" s="239"/>
       <c r="E95" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F95" s="44" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G95" s="44" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H95" s="44"/>
       <c r="I95" s="44"/>
@@ -6584,15 +6584,15 @@
       <c r="L95" s="44"/>
     </row>
     <row r="96" spans="4:12">
-      <c r="D96" s="240"/>
+      <c r="D96" s="239"/>
       <c r="E96" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F96" s="44" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G96" s="44" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H96" s="44"/>
       <c r="I96" s="44"/>
@@ -6603,99 +6603,99 @@
       <c r="L96" s="44"/>
     </row>
     <row r="97" spans="4:12" s="38" customFormat="1">
-      <c r="D97" s="240"/>
+      <c r="D97" s="239"/>
       <c r="E97" s="81" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F97" s="44" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G97" s="44" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H97" s="44" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I97" s="44" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J97" s="44" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K97" s="44"/>
       <c r="L97" s="106"/>
     </row>
     <row r="98" spans="4:12">
-      <c r="D98" s="240"/>
+      <c r="D98" s="239"/>
       <c r="E98" s="82"/>
       <c r="F98" s="47" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G98" s="47" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H98" s="47" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I98" s="47" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J98" s="47" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K98" s="44"/>
       <c r="L98" s="44"/>
     </row>
     <row r="99" spans="4:12">
-      <c r="D99" s="240"/>
+      <c r="D99" s="239"/>
       <c r="E99" s="82"/>
       <c r="F99" s="48" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G99" s="47" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H99" s="48" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I99" s="48" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J99" s="48" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K99" s="44"/>
       <c r="L99" s="44"/>
     </row>
     <row r="100" spans="4:12">
-      <c r="D100" s="240"/>
+      <c r="D100" s="239"/>
       <c r="E100" s="82"/>
       <c r="F100" s="48" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G100" s="47" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H100" s="48" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I100" s="48" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J100" s="48" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K100" s="44"/>
       <c r="L100" s="44"/>
     </row>
     <row r="101" spans="4:12" s="112" customFormat="1">
-      <c r="D101" s="240"/>
+      <c r="D101" s="239"/>
       <c r="E101" s="75"/>
       <c r="F101" s="113" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G101" s="113" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H101" s="113"/>
       <c r="I101" s="114"/>
@@ -6704,13 +6704,13 @@
       <c r="L101" s="114"/>
     </row>
     <row r="102" spans="4:12" s="112" customFormat="1">
-      <c r="D102" s="240"/>
+      <c r="D102" s="239"/>
       <c r="E102" s="75"/>
       <c r="F102" s="114" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G102" s="113" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H102" s="114"/>
       <c r="I102" s="114"/>
@@ -6719,13 +6719,13 @@
       <c r="L102" s="114"/>
     </row>
     <row r="103" spans="4:12" s="112" customFormat="1">
-      <c r="D103" s="240"/>
+      <c r="D103" s="239"/>
       <c r="E103" s="130"/>
       <c r="F103" s="115" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G103" s="131" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H103" s="115"/>
       <c r="I103" s="115"/>
@@ -6734,216 +6734,216 @@
       <c r="L103" s="115"/>
     </row>
     <row r="104" spans="4:12" s="112" customFormat="1">
-      <c r="D104" s="241"/>
+      <c r="D104" s="240"/>
       <c r="E104" s="136"/>
       <c r="F104" s="133" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G104" s="125" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H104" s="134" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I104" s="134" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J104" s="134" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K104" s="133"/>
       <c r="L104" s="135"/>
     </row>
     <row r="105" spans="4:12" s="112" customFormat="1">
-      <c r="D105" s="241"/>
+      <c r="D105" s="240"/>
       <c r="E105" s="136" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F105" s="133" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G105" s="133" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H105" s="134" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I105" s="134" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J105" s="133" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K105" s="133"/>
       <c r="L105" s="135"/>
     </row>
     <row r="106" spans="4:12" s="112" customFormat="1" ht="28.5" customHeight="1">
-      <c r="D106" s="241"/>
+      <c r="D106" s="240"/>
       <c r="E106" s="178" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F106" s="179" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G106" s="179" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H106" s="180" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I106" s="180" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J106" s="180" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K106" s="179"/>
       <c r="L106" s="181"/>
     </row>
     <row r="107" spans="4:12" s="112" customFormat="1" ht="28.5" customHeight="1">
-      <c r="D107" s="241"/>
+      <c r="D107" s="240"/>
       <c r="E107" s="182" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F107" s="183" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G107" s="183" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H107" s="176" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I107" s="177" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J107" s="177" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K107" s="184"/>
       <c r="L107" s="184"/>
     </row>
     <row r="108" spans="4:12" s="112" customFormat="1">
-      <c r="D108" s="240"/>
+      <c r="D108" s="239"/>
       <c r="E108" s="132" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F108" s="113" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G108" s="113" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H108" s="116" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I108" s="113" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J108" s="113" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K108" s="113"/>
       <c r="L108" s="113"/>
     </row>
     <row r="109" spans="4:12" s="112" customFormat="1" ht="30">
-      <c r="D109" s="240"/>
+      <c r="D109" s="239"/>
       <c r="E109" s="75"/>
       <c r="F109" s="114" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G109" s="113" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H109" s="117" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I109" s="117" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J109" s="118" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K109" s="114"/>
       <c r="L109" s="114"/>
     </row>
     <row r="110" spans="4:12" s="112" customFormat="1">
-      <c r="D110" s="240"/>
+      <c r="D110" s="239"/>
       <c r="E110" s="75" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F110" s="114" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G110" s="114" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H110" s="119" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I110" s="114" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J110" s="114" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K110" s="114"/>
       <c r="L110" s="114"/>
     </row>
     <row r="111" spans="4:12" s="112" customFormat="1" ht="30">
-      <c r="D111" s="240"/>
+      <c r="D111" s="239"/>
       <c r="E111" s="75"/>
       <c r="F111" s="114" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G111" s="114" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H111" s="119" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I111" s="114" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="J111" s="114" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K111" s="114"/>
       <c r="L111" s="114"/>
     </row>
     <row r="112" spans="4:12" s="112" customFormat="1">
-      <c r="D112" s="240"/>
+      <c r="D112" s="239"/>
       <c r="E112" s="75" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F112" s="114" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G112" s="114" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H112" s="119" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I112" s="114" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J112" s="114" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K112" s="114"/>
       <c r="L112" s="114"/>
     </row>
     <row r="113" spans="1:12" s="112" customFormat="1">
-      <c r="D113" s="240"/>
+      <c r="D113" s="239"/>
       <c r="E113" s="86" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F113" s="114" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G113" s="114" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H113" s="117">
         <v>1</v>
@@ -6958,38 +6958,38 @@
       <c r="L113" s="114"/>
     </row>
     <row r="114" spans="1:12" s="112" customFormat="1">
-      <c r="D114" s="240"/>
+      <c r="D114" s="239"/>
       <c r="E114" s="120" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F114" s="115" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G114" s="115" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H114" s="121" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I114" s="115" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J114" s="115" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K114" s="115"/>
       <c r="L114" s="115"/>
     </row>
     <row r="115" spans="1:12" s="112" customFormat="1" ht="30">
-      <c r="D115" s="240"/>
+      <c r="D115" s="239"/>
       <c r="E115" s="89" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F115" s="107" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G115" s="108" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H115" s="108"/>
       <c r="I115" s="108"/>
@@ -6998,71 +6998,71 @@
       <c r="L115" s="108"/>
     </row>
     <row r="116" spans="1:12" s="112" customFormat="1">
-      <c r="D116" s="240"/>
+      <c r="D116" s="239"/>
       <c r="E116" s="143"/>
       <c r="F116" s="144" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G116" s="145" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H116" s="122" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I116" s="122" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J116" s="122" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K116" s="108"/>
       <c r="L116" s="108"/>
     </row>
     <row r="117" spans="1:12" s="138" customFormat="1">
-      <c r="D117" s="241"/>
+      <c r="D117" s="240"/>
       <c r="E117" s="146"/>
       <c r="F117" s="124" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G117" s="133" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H117" s="141" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I117" s="141" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J117" s="141" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K117" s="139"/>
       <c r="L117" s="139"/>
     </row>
     <row r="118" spans="1:12" s="138" customFormat="1">
-      <c r="D118" s="241"/>
+      <c r="D118" s="240"/>
       <c r="E118" s="146"/>
       <c r="F118" s="124" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G118" s="133" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H118" s="142" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I118" s="142" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="J118" s="142" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K118" s="139"/>
       <c r="L118" s="139"/>
     </row>
     <row r="119" spans="1:12" s="92" customFormat="1">
       <c r="A119" s="92" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E119" s="93"/>
       <c r="H119" s="94"/>
@@ -7071,7 +7071,7 @@
   <autoFilter ref="A9:O119" xr:uid="{FC96D3DE-56F6-4E60-B012-339ED5333B2B}">
     <filterColumn colId="0" showButton="0"/>
   </autoFilter>
-  <mergeCells count="15">
+  <mergeCells count="14">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D14:D25"/>
     <mergeCell ref="D11:D13"/>
@@ -7081,7 +7081,6 @@
     <mergeCell ref="D34:D40"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="J2:O4"/>
-    <mergeCell ref="A9:B9"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A2:B2"/>
@@ -7378,7 +7377,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E39679EB-3E9B-472F-B5A5-82E3B98361DA}">
   <dimension ref="A1:EV352"/>
   <sheetViews>
-    <sheetView topLeftCell="E5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -7399,21 +7398,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:152" ht="18.75">
-      <c r="A1" s="231" t="s">
+      <c r="A1" s="230" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="231"/>
+      <c r="B1" s="230"/>
       <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:152" s="1" customFormat="1" ht="18.75">
-      <c r="A2" s="231" t="s">
+      <c r="A2" s="230" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="231"/>
+      <c r="B2" s="230"/>
       <c r="C2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2"/>
@@ -7568,12 +7567,12 @@
       <c r="EV2" s="218"/>
     </row>
     <row r="3" spans="1:152" s="1" customFormat="1" ht="18.75">
-      <c r="A3" s="231" t="s">
+      <c r="A3" s="230" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="231"/>
+      <c r="B3" s="230"/>
       <c r="C3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3"/>
@@ -7723,12 +7722,12 @@
       <c r="EV3" s="218"/>
     </row>
     <row r="4" spans="1:152" s="1" customFormat="1" ht="18.75">
-      <c r="A4" s="231" t="s">
+      <c r="A4" s="230" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="231"/>
+      <c r="B4" s="230"/>
       <c r="C4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4"/>
@@ -7878,12 +7877,12 @@
       <c r="EV4" s="218"/>
     </row>
     <row r="5" spans="1:152" s="1" customFormat="1" ht="18.75">
-      <c r="A5" s="246" t="s">
+      <c r="A5" s="245" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="246"/>
-      <c r="C5" s="246"/>
-      <c r="D5" s="246"/>
+      <c r="B5" s="245"/>
+      <c r="C5" s="245"/>
+      <c r="D5" s="245"/>
       <c r="E5" s="5"/>
       <c r="F5"/>
       <c r="H5" s="7"/>
@@ -8032,12 +8031,12 @@
       <c r="EV5" s="218"/>
     </row>
     <row r="6" spans="1:152" s="1" customFormat="1" ht="18.75">
-      <c r="A6" s="232" t="s">
+      <c r="A6" s="231" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="233"/>
-      <c r="C6" s="233"/>
-      <c r="D6" s="234"/>
+      <c r="B6" s="232"/>
+      <c r="C6" s="232"/>
+      <c r="D6" s="233"/>
       <c r="E6" s="5"/>
       <c r="F6" t="s">
         <v>11</v>
@@ -8188,12 +8187,12 @@
       <c r="EV6" s="218"/>
     </row>
     <row r="7" spans="1:152" s="1" customFormat="1" ht="18.75">
-      <c r="A7" s="235" t="s">
+      <c r="A7" s="234" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="235"/>
-      <c r="C7" s="235"/>
-      <c r="D7" s="235"/>
+      <c r="B7" s="234"/>
+      <c r="C7" s="234"/>
+      <c r="D7" s="234"/>
       <c r="E7" s="10"/>
       <c r="F7" t="s">
         <v>13</v>
@@ -8499,37 +8498,37 @@
         <v>14</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>314</v>
+        <v>15</v>
       </c>
       <c r="C9" s="163" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L9" s="18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M9" s="221"/>
       <c r="N9" s="221"/>
@@ -8674,16 +8673,16 @@
     </row>
     <row r="10" spans="1:152">
       <c r="A10" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="109" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E10" s="34"/>
       <c r="F10" s="25"/>
@@ -8696,15 +8695,15 @@
     </row>
     <row r="11" spans="1:152" ht="16.5" customHeight="1">
       <c r="A11" s="167"/>
-      <c r="D11" s="236" t="s">
-        <v>28</v>
+      <c r="D11" s="235" t="s">
+        <v>29</v>
       </c>
       <c r="E11" s="74"/>
       <c r="F11" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H11" s="14" t="s">
         <v>315</v>
@@ -8720,13 +8719,13 @@
     </row>
     <row r="12" spans="1:152">
       <c r="A12" s="2"/>
-      <c r="D12" s="237"/>
+      <c r="D12" s="236"/>
       <c r="E12" s="74"/>
       <c r="F12" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H12" s="14" t="s">
         <v>318</v>
@@ -8742,39 +8741,39 @@
     </row>
     <row r="13" spans="1:152">
       <c r="A13" s="2"/>
-      <c r="D13" s="238"/>
+      <c r="D13" s="237"/>
       <c r="E13" s="74"/>
       <c r="F13" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K13" s="46"/>
       <c r="L13" s="46"/>
     </row>
     <row r="14" spans="1:152">
       <c r="A14" s="2"/>
-      <c r="D14" s="236" t="s">
-        <v>41</v>
+      <c r="D14" s="235" t="s">
+        <v>42</v>
       </c>
       <c r="E14" s="74" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H14" s="16" t="s">
         <v>319</v>
@@ -8783,22 +8782,22 @@
         <v>319</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
     </row>
     <row r="15" spans="1:152" ht="28.5" customHeight="1">
       <c r="A15" s="2"/>
-      <c r="D15" s="237"/>
+      <c r="D15" s="236"/>
       <c r="E15" s="84" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F15" s="148" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G15" s="148" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H15" s="149" t="s">
         <v>320</v>
@@ -8807,22 +8806,22 @@
         <v>320</v>
       </c>
       <c r="J15" s="149" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
     </row>
     <row r="16" spans="1:152" s="112" customFormat="1" ht="28.5" customHeight="1">
       <c r="A16" s="215"/>
-      <c r="D16" s="237"/>
+      <c r="D16" s="236"/>
       <c r="E16" s="186" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F16" s="187" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G16" s="199" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H16" s="159" t="s">
         <v>321</v>
@@ -8978,15 +8977,15 @@
     </row>
     <row r="17" spans="1:152">
       <c r="A17" s="2"/>
-      <c r="D17" s="237"/>
+      <c r="D17" s="236"/>
       <c r="E17" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F17" s="42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G17" s="42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H17" s="43" t="s">
         <v>324</v>
@@ -9002,13 +9001,13 @@
     </row>
     <row r="18" spans="1:152" s="112" customFormat="1" ht="30">
       <c r="A18" s="2"/>
-      <c r="D18" s="237"/>
+      <c r="D18" s="236"/>
       <c r="E18" s="75"/>
       <c r="F18" s="109" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G18" s="109" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H18" s="110" t="s">
         <v>327</v>
@@ -9164,15 +9163,15 @@
     </row>
     <row r="19" spans="1:152">
       <c r="A19" s="2"/>
-      <c r="D19" s="237"/>
+      <c r="D19" s="236"/>
       <c r="E19" s="34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F19" s="44" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G19" s="44" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H19" s="45" t="s">
         <v>330</v>
@@ -9181,20 +9180,20 @@
         <v>331</v>
       </c>
       <c r="J19" s="44" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K19" s="44"/>
       <c r="L19" s="44"/>
     </row>
     <row r="20" spans="1:152">
       <c r="A20" s="2"/>
-      <c r="D20" s="237"/>
+      <c r="D20" s="236"/>
       <c r="E20" s="34"/>
       <c r="F20" s="20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H20" s="21" t="s">
         <v>332</v>
@@ -9203,46 +9202,46 @@
         <v>333</v>
       </c>
       <c r="J20" s="53" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K20" s="20"/>
       <c r="L20" s="20"/>
     </row>
     <row r="21" spans="1:152">
       <c r="A21" s="2"/>
-      <c r="D21" s="237"/>
+      <c r="D21" s="236"/>
       <c r="E21" s="34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H21" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="I21" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="I21" s="20" t="s">
-        <v>82</v>
-      </c>
       <c r="J21" s="20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K21" s="20"/>
       <c r="L21" s="20"/>
     </row>
     <row r="22" spans="1:152">
       <c r="A22" s="2"/>
-      <c r="D22" s="237"/>
+      <c r="D22" s="236"/>
       <c r="E22" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H22" s="22">
         <v>1</v>
@@ -9258,24 +9257,24 @@
     </row>
     <row r="23" spans="1:152">
       <c r="A23" s="2"/>
-      <c r="D23" s="237"/>
+      <c r="D23" s="236"/>
       <c r="E23" s="87" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F23" s="29" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G23" s="29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H23" s="55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I23" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="J23" s="29" t="s">
         <v>90</v>
-      </c>
-      <c r="J23" s="29" t="s">
-        <v>89</v>
       </c>
       <c r="K23" s="29"/>
       <c r="L23" s="29"/>
@@ -9284,15 +9283,15 @@
       <c r="A24" s="2"/>
       <c r="B24"/>
       <c r="C24"/>
-      <c r="D24" s="237"/>
+      <c r="D24" s="236"/>
       <c r="E24" s="189" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F24" s="190" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G24" s="190" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H24" s="174"/>
       <c r="I24" s="175"/>
@@ -9302,22 +9301,22 @@
     </row>
     <row r="25" spans="1:152">
       <c r="A25" s="2"/>
-      <c r="D25" s="238"/>
+      <c r="D25" s="237"/>
       <c r="E25" s="89"/>
       <c r="F25" s="90" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G25" s="35" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H25" s="91" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I25" s="91" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J25" s="91" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K25" s="35"/>
       <c r="L25" s="35"/>
@@ -9325,16 +9324,16 @@
     <row r="26" spans="1:152">
       <c r="A26" s="2"/>
       <c r="D26" s="88" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E26" s="80" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F26" s="57" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G26" s="57" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H26" s="58" t="s">
         <v>335</v>
@@ -9350,15 +9349,15 @@
     </row>
     <row r="27" spans="1:152">
       <c r="A27" s="2"/>
-      <c r="D27" s="242" t="s">
-        <v>101</v>
+      <c r="D27" s="241" t="s">
+        <v>102</v>
       </c>
       <c r="E27" s="76"/>
       <c r="F27" s="23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H27" s="24" t="s">
         <v>338</v>
@@ -9374,39 +9373,39 @@
     </row>
     <row r="28" spans="1:152">
       <c r="A28" s="2"/>
-      <c r="D28" s="243"/>
+      <c r="D28" s="242"/>
       <c r="E28" s="34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I28" s="21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J28" s="21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K28" s="20"/>
       <c r="L28" s="20"/>
     </row>
     <row r="29" spans="1:152" s="69" customFormat="1">
       <c r="A29" s="2"/>
-      <c r="D29" s="243"/>
+      <c r="D29" s="242"/>
       <c r="E29" s="87" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F29" s="68" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H29" s="68" t="s">
         <v>341</v>
@@ -9562,15 +9561,15 @@
     </row>
     <row r="30" spans="1:152">
       <c r="A30" s="2"/>
-      <c r="D30" s="243"/>
+      <c r="D30" s="242"/>
       <c r="E30" s="34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H30" s="21" t="s">
         <v>344</v>
@@ -9586,13 +9585,13 @@
     </row>
     <row r="31" spans="1:152">
       <c r="A31" s="2"/>
-      <c r="D31" s="243"/>
+      <c r="D31" s="242"/>
       <c r="E31" s="34"/>
       <c r="F31" s="20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H31" s="21" t="s">
         <v>347</v>
@@ -9608,13 +9607,13 @@
     </row>
     <row r="32" spans="1:152">
       <c r="A32" s="2"/>
-      <c r="D32" s="243"/>
+      <c r="D32" s="242"/>
       <c r="E32" s="34"/>
       <c r="F32" s="20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H32" s="21" t="s">
         <v>350</v>
@@ -9630,15 +9629,15 @@
     </row>
     <row r="33" spans="1:152">
       <c r="A33" s="2"/>
-      <c r="D33" s="243"/>
+      <c r="D33" s="242"/>
       <c r="E33" s="87" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F33" s="29" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H33" s="55" t="s">
         <v>353</v>
@@ -9654,15 +9653,15 @@
     </row>
     <row r="34" spans="1:152">
       <c r="A34" s="2"/>
-      <c r="D34" s="242" t="s">
-        <v>134</v>
+      <c r="D34" s="241" t="s">
+        <v>135</v>
       </c>
       <c r="E34" s="78"/>
       <c r="F34" s="60" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G34" s="23" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H34" s="61"/>
       <c r="I34" s="61"/>
@@ -9672,31 +9671,31 @@
     </row>
     <row r="35" spans="1:152">
       <c r="A35" s="2"/>
-      <c r="D35" s="243"/>
+      <c r="D35" s="242"/>
       <c r="E35" s="34"/>
       <c r="F35" s="20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H35" s="21"/>
       <c r="I35" s="20"/>
       <c r="J35" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K35" s="20"/>
       <c r="L35" s="64"/>
     </row>
     <row r="36" spans="1:152">
       <c r="A36" s="2"/>
-      <c r="D36" s="243"/>
+      <c r="D36" s="242"/>
       <c r="E36" s="34"/>
       <c r="F36" s="20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H36" s="21"/>
       <c r="I36" s="169"/>
@@ -9708,13 +9707,13 @@
     </row>
     <row r="37" spans="1:152">
       <c r="A37" s="2"/>
-      <c r="D37" s="243"/>
+      <c r="D37" s="242"/>
       <c r="E37" s="34"/>
       <c r="F37" s="20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H37" s="21"/>
       <c r="I37" s="20"/>
@@ -9726,13 +9725,13 @@
     </row>
     <row r="38" spans="1:152">
       <c r="A38" s="2"/>
-      <c r="D38" s="243"/>
+      <c r="D38" s="242"/>
       <c r="E38" s="34"/>
       <c r="F38" s="20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G38" s="20" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H38" s="21"/>
       <c r="I38" s="20"/>
@@ -9744,13 +9743,13 @@
     </row>
     <row r="39" spans="1:152">
       <c r="A39" s="2"/>
-      <c r="D39" s="243"/>
+      <c r="D39" s="242"/>
       <c r="E39" s="34"/>
       <c r="F39" s="20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G39" s="20" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H39" s="21"/>
       <c r="I39" s="20"/>
@@ -9762,13 +9761,13 @@
     </row>
     <row r="40" spans="1:152">
       <c r="A40" s="2"/>
-      <c r="D40" s="244"/>
+      <c r="D40" s="243"/>
       <c r="E40" s="79"/>
       <c r="F40" s="65" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G40" s="20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H40" s="66"/>
       <c r="I40" s="65"/>
@@ -9780,15 +9779,15 @@
     </row>
     <row r="41" spans="1:152">
       <c r="A41" s="2"/>
-      <c r="D41" s="236" t="s">
-        <v>142</v>
+      <c r="D41" s="235" t="s">
+        <v>143</v>
       </c>
       <c r="E41" s="80"/>
       <c r="F41" s="56" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G41" s="57" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H41" s="58" t="s">
         <v>360</v>
@@ -9804,37 +9803,37 @@
     </row>
     <row r="42" spans="1:152">
       <c r="A42" s="2"/>
-      <c r="D42" s="237"/>
+      <c r="D42" s="236"/>
       <c r="E42" s="147" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F42" s="148" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G42" s="148" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H42" s="149" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I42" s="149" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J42" s="149" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K42" s="150"/>
       <c r="L42" s="150"/>
     </row>
     <row r="43" spans="1:152" s="38" customFormat="1">
       <c r="A43" s="2"/>
-      <c r="D43" s="239"/>
+      <c r="D43" s="238"/>
       <c r="E43" s="152"/>
       <c r="F43" s="153" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G43" s="20" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H43" s="154" t="s">
         <v>361</v>
@@ -9986,15 +9985,15 @@
     </row>
     <row r="44" spans="1:152">
       <c r="A44" s="2"/>
-      <c r="D44" s="237"/>
+      <c r="D44" s="236"/>
       <c r="E44" s="151" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F44" s="30" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G44" s="30" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H44" s="31" t="s">
         <v>362</v>
@@ -10010,15 +10009,15 @@
     </row>
     <row r="45" spans="1:152">
       <c r="A45" s="2"/>
-      <c r="D45" s="237"/>
+      <c r="D45" s="236"/>
       <c r="E45" s="34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F45" s="20" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G45" s="20" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H45" s="21" t="s">
         <v>365</v>
@@ -10034,15 +10033,15 @@
     </row>
     <row r="46" spans="1:152">
       <c r="A46" s="2"/>
-      <c r="D46" s="237"/>
+      <c r="D46" s="236"/>
       <c r="E46" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F46" s="20" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G46" s="20" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H46" s="22">
         <v>78586</v>
@@ -10058,15 +10057,15 @@
     </row>
     <row r="47" spans="1:152">
       <c r="A47" s="2"/>
-      <c r="D47" s="237"/>
+      <c r="D47" s="236"/>
       <c r="E47" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F47" s="20" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G47" s="20" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H47" s="54">
         <v>4</v>
@@ -10080,15 +10079,15 @@
     </row>
     <row r="48" spans="1:152">
       <c r="A48" s="2"/>
-      <c r="D48" s="237"/>
+      <c r="D48" s="236"/>
       <c r="E48" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F48" s="20" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G48" s="20" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H48" s="20"/>
       <c r="J48" s="20"/>
@@ -10097,15 +10096,15 @@
     </row>
     <row r="49" spans="1:152">
       <c r="A49" s="2"/>
-      <c r="D49" s="237"/>
+      <c r="D49" s="236"/>
       <c r="E49" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F49" s="20" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G49" s="20" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H49" s="20" t="s">
         <v>361</v>
@@ -10119,15 +10118,15 @@
     </row>
     <row r="50" spans="1:152">
       <c r="A50" s="2"/>
-      <c r="D50" s="237"/>
+      <c r="D50" s="236"/>
       <c r="E50" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F50" s="20" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G50" s="20" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H50" s="20"/>
       <c r="I50" s="54"/>
@@ -10137,15 +10136,15 @@
     </row>
     <row r="51" spans="1:152">
       <c r="A51" s="2"/>
-      <c r="D51" s="237"/>
+      <c r="D51" s="236"/>
       <c r="E51" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F51" s="20" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G51" s="20" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H51" s="20" t="s">
         <v>369</v>
@@ -10157,15 +10156,15 @@
     </row>
     <row r="52" spans="1:152">
       <c r="A52" s="2"/>
-      <c r="D52" s="237"/>
+      <c r="D52" s="236"/>
       <c r="E52" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F52" s="20" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G52" s="20" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H52" s="20" t="s">
         <v>370</v>
@@ -10177,19 +10176,19 @@
     </row>
     <row r="53" spans="1:152">
       <c r="A53" s="2"/>
-      <c r="D53" s="237"/>
+      <c r="D53" s="236"/>
       <c r="E53" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F53" s="20" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G53" s="20" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H53" s="20"/>
       <c r="I53" s="20" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J53" s="20"/>
       <c r="K53" s="20"/>
@@ -10197,15 +10196,15 @@
     </row>
     <row r="54" spans="1:152">
       <c r="A54" s="2"/>
-      <c r="D54" s="237"/>
+      <c r="D54" s="236"/>
       <c r="E54" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F54" s="20" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G54" s="20" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H54" s="20" t="s">
         <v>371</v>
@@ -10217,15 +10216,15 @@
     </row>
     <row r="55" spans="1:152">
       <c r="A55" s="2"/>
-      <c r="D55" s="237"/>
+      <c r="D55" s="236"/>
       <c r="E55" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F55" s="29" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G55" s="20" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H55" s="164">
         <v>156789456</v>
@@ -10238,15 +10237,15 @@
     </row>
     <row r="56" spans="1:152" s="38" customFormat="1">
       <c r="A56" s="2"/>
-      <c r="D56" s="237"/>
+      <c r="D56" s="236"/>
       <c r="E56" s="81" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F56" s="41" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G56" s="20" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H56" s="41"/>
       <c r="I56" s="41" t="s">
@@ -10398,35 +10397,35 @@
     </row>
     <row r="57" spans="1:152">
       <c r="A57" s="2"/>
-      <c r="D57" s="237"/>
+      <c r="D57" s="236"/>
       <c r="E57" s="82"/>
       <c r="F57" s="47" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G57" s="47" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H57" s="47" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I57" s="47" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J57" s="47" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K57" s="44"/>
       <c r="L57" s="44"/>
     </row>
     <row r="58" spans="1:152">
       <c r="A58" s="2"/>
-      <c r="D58" s="237"/>
+      <c r="D58" s="236"/>
       <c r="E58" s="82"/>
       <c r="F58" s="48" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G58" s="47" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H58" s="48" t="s">
         <v>373</v>
@@ -10442,13 +10441,13 @@
     </row>
     <row r="59" spans="1:152">
       <c r="A59" s="2"/>
-      <c r="D59" s="237"/>
+      <c r="D59" s="236"/>
       <c r="E59" s="82"/>
       <c r="F59" s="48" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G59" s="47" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H59" s="48" t="s">
         <v>376</v>
@@ -10464,13 +10463,13 @@
     </row>
     <row r="60" spans="1:152">
       <c r="A60" s="2"/>
-      <c r="D60" s="237"/>
+      <c r="D60" s="236"/>
       <c r="E60" s="34"/>
       <c r="F60" s="27" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G60" s="27" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H60" s="27"/>
       <c r="I60" s="20"/>
@@ -10480,13 +10479,13 @@
     </row>
     <row r="61" spans="1:152">
       <c r="A61" s="2"/>
-      <c r="D61" s="237"/>
+      <c r="D61" s="236"/>
       <c r="E61" s="34"/>
       <c r="F61" s="20" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G61" s="27" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H61" s="20"/>
       <c r="I61" s="20"/>
@@ -10496,13 +10495,13 @@
     </row>
     <row r="62" spans="1:152">
       <c r="A62" s="2"/>
-      <c r="D62" s="237"/>
+      <c r="D62" s="236"/>
       <c r="E62" s="34"/>
       <c r="F62" s="29" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G62" s="27" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H62" s="29"/>
       <c r="I62" s="20"/>
@@ -10512,37 +10511,37 @@
     </row>
     <row r="63" spans="1:152">
       <c r="A63" s="2"/>
-      <c r="D63" s="238"/>
+      <c r="D63" s="237"/>
       <c r="E63" s="82"/>
       <c r="F63" s="48" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G63" s="47" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H63" s="50" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I63" s="50" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J63" s="50" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K63" s="44"/>
       <c r="L63" s="44"/>
     </row>
     <row r="64" spans="1:152">
       <c r="A64" s="2"/>
-      <c r="D64" s="240" t="s">
-        <v>212</v>
+      <c r="D64" s="239" t="s">
+        <v>213</v>
       </c>
       <c r="E64" s="82"/>
       <c r="F64" s="49" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G64" s="47" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H64" s="50" t="s">
         <v>379</v>
@@ -10558,13 +10557,13 @@
     </row>
     <row r="65" spans="1:152">
       <c r="A65" s="2"/>
-      <c r="D65" s="240"/>
+      <c r="D65" s="239"/>
       <c r="E65" s="82"/>
       <c r="F65" s="51" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G65" s="47" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H65" s="52" t="s">
         <v>318</v>
@@ -10580,22 +10579,22 @@
     </row>
     <row r="66" spans="1:152">
       <c r="A66" s="2"/>
-      <c r="D66" s="240"/>
+      <c r="D66" s="239"/>
       <c r="E66" s="81"/>
       <c r="F66" s="51" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G66" s="47" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H66" s="52" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I66" s="52" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J66" s="52" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K66" s="44"/>
       <c r="L66" s="44"/>
@@ -10604,15 +10603,15 @@
       <c r="A67" s="2"/>
       <c r="B67"/>
       <c r="C67"/>
-      <c r="D67" s="240"/>
+      <c r="D67" s="239"/>
       <c r="E67" s="192" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F67" s="174" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G67" s="174" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H67" s="174"/>
       <c r="I67" s="175"/>
@@ -10622,39 +10621,39 @@
     </row>
     <row r="68" spans="1:152">
       <c r="A68" s="2"/>
-      <c r="D68" s="240"/>
+      <c r="D68" s="239"/>
       <c r="E68" s="81" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F68" s="35" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G68" s="37" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H68" s="36" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I68" s="36" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J68" s="36" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K68" s="20"/>
       <c r="L68" s="20"/>
     </row>
     <row r="69" spans="1:152" s="69" customFormat="1">
       <c r="A69" s="2"/>
-      <c r="D69" s="240"/>
+      <c r="D69" s="239"/>
       <c r="E69" s="83" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F69" s="71" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G69" s="37" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H69" s="140">
         <v>607080928</v>
@@ -10810,18 +10809,18 @@
     </row>
     <row r="70" spans="1:152">
       <c r="A70" s="2"/>
-      <c r="D70" s="240"/>
+      <c r="D70" s="239"/>
       <c r="E70" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F70" s="27" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G70" s="37" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H70" s="28" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I70" s="36"/>
       <c r="J70" s="36"/>
@@ -10830,15 +10829,15 @@
     </row>
     <row r="71" spans="1:152" s="69" customFormat="1">
       <c r="A71" s="2"/>
-      <c r="D71" s="240"/>
+      <c r="D71" s="239"/>
       <c r="E71" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F71" s="68" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G71" s="37" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H71" s="164">
         <v>156789456</v>
@@ -10990,16 +10989,16 @@
     </row>
     <row r="72" spans="1:152" s="69" customFormat="1">
       <c r="A72" s="2"/>
-      <c r="D72" s="240"/>
+      <c r="D72" s="239"/>
       <c r="E72" s="85"/>
       <c r="F72" s="95" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G72" s="37" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H72" s="96" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I72" s="72"/>
       <c r="J72" s="72"/>
@@ -11148,37 +11147,37 @@
     </row>
     <row r="73" spans="1:152">
       <c r="A73" s="2"/>
-      <c r="D73" s="240"/>
+      <c r="D73" s="239"/>
       <c r="E73" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F73" s="29" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G73" s="37" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H73" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="I73" s="168" t="s">
         <v>239</v>
       </c>
-      <c r="I73" s="168" t="s">
-        <v>238</v>
-      </c>
       <c r="J73" s="168" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K73" s="20"/>
       <c r="L73" s="20"/>
     </row>
     <row r="74" spans="1:152">
       <c r="A74" s="2"/>
-      <c r="D74" s="240"/>
+      <c r="D74" s="239"/>
       <c r="E74" s="97"/>
       <c r="F74" s="35" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G74" s="37" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H74" s="170"/>
       <c r="I74" s="171"/>
@@ -11188,15 +11187,15 @@
     </row>
     <row r="75" spans="1:152">
       <c r="A75" s="2"/>
-      <c r="D75" s="240"/>
+      <c r="D75" s="239"/>
       <c r="E75" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F75" s="98" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G75" s="37" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H75" s="36" t="s">
         <v>382</v>
@@ -11212,15 +11211,15 @@
     </row>
     <row r="76" spans="1:152">
       <c r="A76" s="2"/>
-      <c r="D76" s="240"/>
+      <c r="D76" s="239"/>
       <c r="E76" s="82" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F76" s="23" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G76" s="37" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H76" s="165" t="s">
         <v>385</v>
@@ -11236,13 +11235,13 @@
     </row>
     <row r="77" spans="1:152">
       <c r="A77" s="2"/>
-      <c r="D77" s="240"/>
+      <c r="D77" s="239"/>
       <c r="E77" s="34"/>
       <c r="F77" s="20" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G77" s="37" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H77" s="165" t="s">
         <v>388</v>
@@ -11258,13 +11257,13 @@
     </row>
     <row r="78" spans="1:152">
       <c r="A78" s="2"/>
-      <c r="D78" s="240"/>
+      <c r="D78" s="239"/>
       <c r="E78" s="77"/>
       <c r="F78" s="29" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G78" s="123" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H78" s="165" t="s">
         <v>390</v>
@@ -11280,57 +11279,57 @@
     </row>
     <row r="79" spans="1:152">
       <c r="A79" s="2"/>
-      <c r="D79" s="240"/>
+      <c r="D79" s="239"/>
       <c r="E79" s="129"/>
       <c r="F79" s="124" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G79" s="124" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H79" s="126" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I79" s="126" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J79" s="126" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K79" s="124"/>
       <c r="L79" s="124"/>
     </row>
     <row r="80" spans="1:152">
       <c r="A80" s="2"/>
-      <c r="D80" s="240"/>
+      <c r="D80" s="239"/>
       <c r="E80" s="129"/>
       <c r="F80" s="124" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G80" s="124" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H80" s="216" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I80" s="216" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J80" s="216" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K80" s="124"/>
       <c r="L80" s="124"/>
     </row>
     <row r="81" spans="1:152">
       <c r="A81" s="2"/>
-      <c r="D81" s="240"/>
+      <c r="D81" s="239"/>
       <c r="E81" s="129"/>
       <c r="F81" s="124" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G81" s="124" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H81" s="217">
         <v>607080928</v>
@@ -11346,46 +11345,46 @@
     </row>
     <row r="82" spans="1:152">
       <c r="A82" s="2"/>
-      <c r="D82" s="240"/>
+      <c r="D82" s="239"/>
       <c r="E82" s="128"/>
       <c r="F82" s="127" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G82" s="124" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H82" s="126" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I82" s="126" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J82" s="126" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K82" s="124"/>
       <c r="L82" s="124"/>
     </row>
     <row r="83" spans="1:152">
       <c r="A83" s="2"/>
-      <c r="D83" s="240"/>
+      <c r="D83" s="239"/>
       <c r="E83" s="82" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F83" s="124" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G83" s="124" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H83" s="126" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I83" s="126" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J83" s="126" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K83" s="124"/>
       <c r="L83" s="124"/>
@@ -11394,13 +11393,13 @@
       <c r="A84" s="2"/>
       <c r="B84"/>
       <c r="C84"/>
-      <c r="D84" s="240"/>
+      <c r="D84" s="239"/>
       <c r="E84" s="212"/>
       <c r="F84" s="213" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G84" s="44" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H84" s="214" t="s">
         <v>361</v>
@@ -11552,15 +11551,15 @@
     </row>
     <row r="85" spans="1:152">
       <c r="A85" s="2"/>
-      <c r="D85" s="240"/>
+      <c r="D85" s="239"/>
       <c r="E85" s="76" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F85" s="100" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G85" s="100" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H85" s="101" t="s">
         <v>362</v>
@@ -11576,15 +11575,15 @@
     </row>
     <row r="86" spans="1:152">
       <c r="A86" s="2"/>
-      <c r="D86" s="240"/>
+      <c r="D86" s="239"/>
       <c r="E86" s="34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F86" s="44" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G86" s="44" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H86" s="45" t="s">
         <v>365</v>
@@ -11600,15 +11599,15 @@
     </row>
     <row r="87" spans="1:152">
       <c r="A87" s="2"/>
-      <c r="D87" s="240"/>
+      <c r="D87" s="239"/>
       <c r="E87" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F87" s="44" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G87" s="44" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H87" s="102">
         <v>78586</v>
@@ -11624,15 +11623,15 @@
     </row>
     <row r="88" spans="1:152">
       <c r="A88" s="2"/>
-      <c r="D88" s="240"/>
+      <c r="D88" s="239"/>
       <c r="E88" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F88" s="44" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G88" s="44" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H88" s="105">
         <v>4</v>
@@ -11646,15 +11645,15 @@
     </row>
     <row r="89" spans="1:152">
       <c r="A89" s="2"/>
-      <c r="D89" s="240"/>
+      <c r="D89" s="239"/>
       <c r="E89" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F89" s="44" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G89" s="44" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H89" s="44"/>
       <c r="I89" s="104"/>
@@ -11664,15 +11663,15 @@
     </row>
     <row r="90" spans="1:152">
       <c r="A90" s="2"/>
-      <c r="D90" s="240"/>
+      <c r="D90" s="239"/>
       <c r="E90" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F90" s="44" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G90" s="44" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H90" s="44" t="s">
         <v>361</v>
@@ -11686,15 +11685,15 @@
     </row>
     <row r="91" spans="1:152">
       <c r="A91" s="2"/>
-      <c r="D91" s="240"/>
+      <c r="D91" s="239"/>
       <c r="E91" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F91" s="44" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G91" s="44" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H91" s="44"/>
       <c r="I91" s="105"/>
@@ -11704,15 +11703,15 @@
     </row>
     <row r="92" spans="1:152">
       <c r="A92" s="2"/>
-      <c r="D92" s="240"/>
+      <c r="D92" s="239"/>
       <c r="E92" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F92" s="44" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G92" s="44" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H92" s="44" t="s">
         <v>393</v>
@@ -11724,15 +11723,15 @@
     </row>
     <row r="93" spans="1:152">
       <c r="A93" s="2"/>
-      <c r="D93" s="240"/>
+      <c r="D93" s="239"/>
       <c r="E93" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F93" s="44" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G93" s="44" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H93" s="44" t="s">
         <v>370</v>
@@ -11744,19 +11743,19 @@
     </row>
     <row r="94" spans="1:152">
       <c r="A94" s="2"/>
-      <c r="D94" s="240"/>
+      <c r="D94" s="239"/>
       <c r="E94" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F94" s="44" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G94" s="44" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H94" s="44"/>
       <c r="I94" s="44" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J94" s="44"/>
       <c r="K94" s="44"/>
@@ -11764,15 +11763,15 @@
     </row>
     <row r="95" spans="1:152">
       <c r="A95" s="2"/>
-      <c r="D95" s="240"/>
+      <c r="D95" s="239"/>
       <c r="E95" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F95" s="44" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G95" s="44" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H95" s="44" t="s">
         <v>371</v>
@@ -11784,15 +11783,15 @@
     </row>
     <row r="96" spans="1:152">
       <c r="A96" s="2"/>
-      <c r="D96" s="240"/>
+      <c r="D96" s="239"/>
       <c r="E96" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F96" s="44" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G96" s="44" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H96" s="166">
         <v>156789456</v>
@@ -11804,15 +11803,15 @@
     </row>
     <row r="97" spans="1:152" s="38" customFormat="1">
       <c r="A97" s="2"/>
-      <c r="D97" s="240"/>
+      <c r="D97" s="239"/>
       <c r="E97" s="81" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F97" s="44" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G97" s="44" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H97" s="44"/>
       <c r="I97" s="44" t="s">
@@ -11964,35 +11963,35 @@
     </row>
     <row r="98" spans="1:152">
       <c r="A98" s="2"/>
-      <c r="D98" s="240"/>
+      <c r="D98" s="239"/>
       <c r="E98" s="82"/>
       <c r="F98" s="47" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G98" s="47" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H98" s="47" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I98" s="48" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J98" s="47" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K98" s="44"/>
       <c r="L98" s="44"/>
     </row>
     <row r="99" spans="1:152">
       <c r="A99" s="2"/>
-      <c r="D99" s="240"/>
+      <c r="D99" s="239"/>
       <c r="E99" s="82"/>
       <c r="F99" s="48" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G99" s="47" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H99" s="48" t="s">
         <v>373</v>
@@ -12008,13 +12007,13 @@
     </row>
     <row r="100" spans="1:152">
       <c r="A100" s="2"/>
-      <c r="D100" s="240"/>
+      <c r="D100" s="239"/>
       <c r="E100" s="82"/>
       <c r="F100" s="48" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G100" s="47" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H100" s="48" t="s">
         <v>376</v>
@@ -12030,13 +12029,13 @@
     </row>
     <row r="101" spans="1:152" s="112" customFormat="1">
       <c r="A101" s="2"/>
-      <c r="D101" s="240"/>
+      <c r="D101" s="239"/>
       <c r="E101" s="75"/>
       <c r="F101" s="113" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G101" s="113" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H101" s="113"/>
       <c r="I101" s="114"/>
@@ -12186,13 +12185,13 @@
     </row>
     <row r="102" spans="1:152" s="112" customFormat="1">
       <c r="A102" s="2"/>
-      <c r="D102" s="240"/>
+      <c r="D102" s="239"/>
       <c r="E102" s="75"/>
       <c r="F102" s="114" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G102" s="113" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H102" s="114"/>
       <c r="I102" s="114"/>
@@ -12342,13 +12341,13 @@
     </row>
     <row r="103" spans="1:152" s="112" customFormat="1">
       <c r="A103" s="2"/>
-      <c r="D103" s="240"/>
+      <c r="D103" s="239"/>
       <c r="E103" s="130"/>
       <c r="F103" s="115" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G103" s="131" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H103" s="115"/>
       <c r="I103" s="115"/>
@@ -12498,22 +12497,22 @@
     </row>
     <row r="104" spans="1:152" s="112" customFormat="1">
       <c r="A104" s="2"/>
-      <c r="D104" s="241"/>
+      <c r="D104" s="240"/>
       <c r="E104" s="136"/>
       <c r="F104" s="133" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G104" s="125" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H104" s="134" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I104" s="133" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J104" s="50" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K104" s="133"/>
       <c r="L104" s="135"/>
@@ -12660,15 +12659,15 @@
     </row>
     <row r="105" spans="1:152" s="112" customFormat="1">
       <c r="A105" s="2"/>
-      <c r="D105" s="241"/>
+      <c r="D105" s="240"/>
       <c r="E105" s="136" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F105" s="133" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G105" s="133" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H105" s="134" t="s">
         <v>319</v>
@@ -12677,7 +12676,7 @@
         <v>319</v>
       </c>
       <c r="J105" s="134" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K105" s="133"/>
       <c r="L105" s="135"/>
@@ -12824,15 +12823,15 @@
     </row>
     <row r="106" spans="1:152" s="112" customFormat="1" ht="28.5" customHeight="1">
       <c r="A106" s="2"/>
-      <c r="D106" s="241"/>
+      <c r="D106" s="240"/>
       <c r="E106" s="137" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F106" s="133" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G106" s="133" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H106" s="134" t="s">
         <v>320</v>
@@ -12841,7 +12840,7 @@
         <v>320</v>
       </c>
       <c r="J106" s="134" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K106" s="133"/>
       <c r="L106" s="135"/>
@@ -12988,15 +12987,15 @@
     </row>
     <row r="107" spans="1:152" s="112" customFormat="1" ht="28.5" customHeight="1">
       <c r="A107" s="2"/>
-      <c r="D107" s="241"/>
+      <c r="D107" s="240"/>
       <c r="E107" s="197" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F107" s="135" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G107" s="135" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H107" s="198" t="s">
         <v>321</v>
@@ -13152,15 +13151,15 @@
     </row>
     <row r="108" spans="1:152" s="112" customFormat="1">
       <c r="A108" s="2"/>
-      <c r="D108" s="240"/>
+      <c r="D108" s="239"/>
       <c r="E108" s="132" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F108" s="113" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G108" s="113" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H108" s="116" t="s">
         <v>324</v>
@@ -13316,13 +13315,13 @@
     </row>
     <row r="109" spans="1:152" s="112" customFormat="1" ht="30">
       <c r="A109" s="2"/>
-      <c r="D109" s="240"/>
+      <c r="D109" s="239"/>
       <c r="E109" s="75"/>
       <c r="F109" s="114" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G109" s="113" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H109" s="117" t="s">
         <v>327</v>
@@ -13478,15 +13477,15 @@
     </row>
     <row r="110" spans="1:152" s="112" customFormat="1">
       <c r="A110" s="2"/>
-      <c r="D110" s="240"/>
+      <c r="D110" s="239"/>
       <c r="E110" s="75" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F110" s="114" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G110" s="114" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H110" s="119" t="s">
         <v>330</v>
@@ -13495,7 +13494,7 @@
         <v>331</v>
       </c>
       <c r="J110" s="44" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K110" s="114"/>
       <c r="L110" s="114"/>
@@ -13642,13 +13641,13 @@
     </row>
     <row r="111" spans="1:152" s="112" customFormat="1">
       <c r="A111" s="2"/>
-      <c r="D111" s="240"/>
+      <c r="D111" s="239"/>
       <c r="E111" s="75"/>
       <c r="F111" s="114" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G111" s="114" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H111" s="119" t="s">
         <v>332</v>
@@ -13657,7 +13656,7 @@
         <v>333</v>
       </c>
       <c r="J111" s="119" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K111" s="114"/>
       <c r="L111" s="114"/>
@@ -13804,24 +13803,24 @@
     </row>
     <row r="112" spans="1:152" s="112" customFormat="1">
       <c r="A112" s="2"/>
-      <c r="D112" s="240"/>
+      <c r="D112" s="239"/>
       <c r="E112" s="75" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F112" s="114" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G112" s="114" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H112" s="119" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I112" s="119" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J112" s="119" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K112" s="114"/>
       <c r="L112" s="114"/>
@@ -13968,15 +13967,15 @@
     </row>
     <row r="113" spans="1:152" s="112" customFormat="1">
       <c r="A113" s="2"/>
-      <c r="D113" s="240"/>
+      <c r="D113" s="239"/>
       <c r="E113" s="86" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F113" s="114" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G113" s="114" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H113" s="117">
         <v>1</v>
@@ -14132,24 +14131,24 @@
     </row>
     <row r="114" spans="1:152" s="112" customFormat="1">
       <c r="A114" s="2"/>
-      <c r="D114" s="240"/>
+      <c r="D114" s="239"/>
       <c r="E114" s="120" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F114" s="115" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G114" s="115" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H114" s="121" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I114" s="121" t="s">
+        <v>91</v>
+      </c>
+      <c r="J114" s="121" t="s">
         <v>90</v>
-      </c>
-      <c r="J114" s="121" t="s">
-        <v>89</v>
       </c>
       <c r="K114" s="115"/>
       <c r="L114" s="115"/>
@@ -14296,15 +14295,15 @@
     </row>
     <row r="115" spans="1:152" s="194" customFormat="1" ht="30">
       <c r="A115" s="196"/>
-      <c r="D115" s="240"/>
+      <c r="D115" s="239"/>
       <c r="E115" s="195" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F115" s="122" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G115" s="122" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H115" s="122"/>
       <c r="I115" s="107"/>
@@ -14454,22 +14453,22 @@
     </row>
     <row r="116" spans="1:152" s="112" customFormat="1">
       <c r="A116" s="2"/>
-      <c r="D116" s="240"/>
+      <c r="D116" s="239"/>
       <c r="E116" s="143"/>
       <c r="F116" s="144" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G116" s="145" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H116" s="122" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I116" s="122" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J116" s="122" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K116" s="108"/>
       <c r="L116" s="108"/>
@@ -14616,16 +14615,16 @@
     </row>
     <row r="117" spans="1:152" s="138" customFormat="1">
       <c r="A117" s="2"/>
-      <c r="D117" s="241"/>
+      <c r="D117" s="240"/>
       <c r="E117" s="146"/>
       <c r="F117" s="124" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G117" s="133" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H117" s="141" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I117" s="141" t="s">
         <v>394</v>
@@ -14778,16 +14777,16 @@
     </row>
     <row r="118" spans="1:152" s="138" customFormat="1">
       <c r="A118" s="2"/>
-      <c r="D118" s="241"/>
+      <c r="D118" s="240"/>
       <c r="E118" s="146"/>
       <c r="F118" s="124" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G118" s="133" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H118" s="142" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I118" s="142" t="s">
         <v>396</v>
@@ -14943,13 +14942,13 @@
         <v>398</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C119" s="109" t="s">
         <v>399</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E119" s="34"/>
       <c r="F119" s="228" t="s">
@@ -14964,15 +14963,15 @@
     </row>
     <row r="120" spans="1:152" ht="16.5" customHeight="1">
       <c r="A120" s="167"/>
-      <c r="D120" s="236" t="s">
-        <v>28</v>
+      <c r="D120" s="235" t="s">
+        <v>29</v>
       </c>
       <c r="E120" s="74"/>
       <c r="F120" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G120" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H120" s="14" t="s">
         <v>315</v>
@@ -14988,13 +14987,13 @@
     </row>
     <row r="121" spans="1:152">
       <c r="A121" s="2"/>
-      <c r="D121" s="237"/>
+      <c r="D121" s="236"/>
       <c r="E121" s="74"/>
       <c r="F121" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G121" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H121" s="14" t="s">
         <v>318</v>
@@ -15010,39 +15009,39 @@
     </row>
     <row r="122" spans="1:152">
       <c r="A122" s="2"/>
-      <c r="D122" s="238"/>
+      <c r="D122" s="237"/>
       <c r="E122" s="74"/>
       <c r="F122" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G122" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H122" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I122" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J122" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K122" s="46"/>
       <c r="L122" s="46"/>
     </row>
     <row r="123" spans="1:152">
       <c r="A123" s="2"/>
-      <c r="D123" s="236" t="s">
-        <v>41</v>
+      <c r="D123" s="235" t="s">
+        <v>42</v>
       </c>
       <c r="E123" s="74" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F123" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G123" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H123" s="16" t="s">
         <v>319</v>
@@ -15051,22 +15050,22 @@
         <v>319</v>
       </c>
       <c r="J123" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K123" s="12"/>
       <c r="L123" s="12"/>
     </row>
     <row r="124" spans="1:152" ht="28.5" customHeight="1">
       <c r="A124" s="2"/>
-      <c r="D124" s="237"/>
+      <c r="D124" s="236"/>
       <c r="E124" s="84" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F124" s="148" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G124" s="148" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H124" s="149" t="s">
         <v>320</v>
@@ -15075,22 +15074,22 @@
         <v>320</v>
       </c>
       <c r="J124" s="149" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K124" s="12"/>
       <c r="L124" s="12"/>
     </row>
     <row r="125" spans="1:152" s="112" customFormat="1" ht="28.5" customHeight="1">
       <c r="A125" s="215"/>
-      <c r="D125" s="237"/>
+      <c r="D125" s="236"/>
       <c r="E125" s="186" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F125" s="187" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G125" s="199" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H125" s="159" t="s">
         <v>321</v>
@@ -15246,15 +15245,15 @@
     </row>
     <row r="126" spans="1:152">
       <c r="A126" s="2"/>
-      <c r="D126" s="237"/>
+      <c r="D126" s="236"/>
       <c r="E126" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F126" s="42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G126" s="42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H126" s="43" t="s">
         <v>324</v>
@@ -15270,13 +15269,13 @@
     </row>
     <row r="127" spans="1:152" s="112" customFormat="1" ht="30">
       <c r="A127" s="2"/>
-      <c r="D127" s="237"/>
+      <c r="D127" s="236"/>
       <c r="E127" s="75"/>
       <c r="F127" s="109" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G127" s="109" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H127" s="110" t="s">
         <v>327</v>
@@ -15432,15 +15431,15 @@
     </row>
     <row r="128" spans="1:152">
       <c r="A128" s="2"/>
-      <c r="D128" s="237"/>
+      <c r="D128" s="236"/>
       <c r="E128" s="34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F128" s="44" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G128" s="44" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H128" s="45" t="s">
         <v>330</v>
@@ -15449,20 +15448,20 @@
         <v>331</v>
       </c>
       <c r="J128" s="44" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K128" s="44"/>
       <c r="L128" s="44"/>
     </row>
     <row r="129" spans="1:152">
       <c r="A129" s="2"/>
-      <c r="D129" s="237"/>
+      <c r="D129" s="236"/>
       <c r="E129" s="34"/>
       <c r="F129" s="20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G129" s="20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H129" s="21" t="s">
         <v>332</v>
@@ -15471,46 +15470,46 @@
         <v>333</v>
       </c>
       <c r="J129" s="53" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K129" s="20"/>
       <c r="L129" s="20"/>
     </row>
     <row r="130" spans="1:152">
       <c r="A130" s="2"/>
-      <c r="D130" s="237"/>
+      <c r="D130" s="236"/>
       <c r="E130" s="34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F130" s="20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G130" s="20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H130" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="I130" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="I130" s="20" t="s">
-        <v>82</v>
-      </c>
       <c r="J130" s="20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K130" s="20"/>
       <c r="L130" s="20"/>
     </row>
     <row r="131" spans="1:152">
       <c r="A131" s="2"/>
-      <c r="D131" s="237"/>
+      <c r="D131" s="236"/>
       <c r="E131" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F131" s="20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G131" s="20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H131" s="22">
         <v>1</v>
@@ -15526,24 +15525,24 @@
     </row>
     <row r="132" spans="1:152">
       <c r="A132" s="2"/>
-      <c r="D132" s="237"/>
+      <c r="D132" s="236"/>
       <c r="E132" s="87" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F132" s="29" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G132" s="29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H132" s="55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I132" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="J132" s="29" t="s">
         <v>90</v>
-      </c>
-      <c r="J132" s="29" t="s">
-        <v>89</v>
       </c>
       <c r="K132" s="29"/>
       <c r="L132" s="29"/>
@@ -15552,15 +15551,15 @@
       <c r="A133" s="2"/>
       <c r="B133"/>
       <c r="C133"/>
-      <c r="D133" s="237"/>
+      <c r="D133" s="236"/>
       <c r="E133" s="189" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F133" s="190" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G133" s="190" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H133" s="174"/>
       <c r="I133" s="175"/>
@@ -15570,22 +15569,22 @@
     </row>
     <row r="134" spans="1:152">
       <c r="A134" s="2"/>
-      <c r="D134" s="238"/>
+      <c r="D134" s="237"/>
       <c r="E134" s="89"/>
       <c r="F134" s="90" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G134" s="35" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H134" s="91" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I134" s="91" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J134" s="91" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K134" s="35"/>
       <c r="L134" s="35"/>
@@ -15593,16 +15592,16 @@
     <row r="135" spans="1:152">
       <c r="A135" s="2"/>
       <c r="D135" s="88" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E135" s="80" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F135" s="57" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G135" s="57" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H135" s="58" t="s">
         <v>335</v>
@@ -15618,15 +15617,15 @@
     </row>
     <row r="136" spans="1:152">
       <c r="A136" s="2"/>
-      <c r="D136" s="242" t="s">
-        <v>101</v>
+      <c r="D136" s="241" t="s">
+        <v>102</v>
       </c>
       <c r="E136" s="76"/>
       <c r="F136" s="23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G136" s="23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H136" s="24" t="s">
         <v>338</v>
@@ -15642,39 +15641,39 @@
     </row>
     <row r="137" spans="1:152">
       <c r="A137" s="2"/>
-      <c r="D137" s="243"/>
+      <c r="D137" s="242"/>
       <c r="E137" s="34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F137" s="20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G137" s="20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H137" s="21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I137" s="21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J137" s="21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K137" s="20"/>
       <c r="L137" s="20"/>
     </row>
     <row r="138" spans="1:152" s="69" customFormat="1">
       <c r="A138" s="2"/>
-      <c r="D138" s="243"/>
+      <c r="D138" s="242"/>
       <c r="E138" s="87" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F138" s="68" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G138" s="20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H138" s="68" t="s">
         <v>341</v>
@@ -15830,15 +15829,15 @@
     </row>
     <row r="139" spans="1:152">
       <c r="A139" s="2"/>
-      <c r="D139" s="243"/>
+      <c r="D139" s="242"/>
       <c r="E139" s="34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F139" s="20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G139" s="20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H139" s="21" t="s">
         <v>344</v>
@@ -15854,13 +15853,13 @@
     </row>
     <row r="140" spans="1:152">
       <c r="A140" s="2"/>
-      <c r="D140" s="243"/>
+      <c r="D140" s="242"/>
       <c r="E140" s="34"/>
       <c r="F140" s="20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G140" s="20" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H140" s="21" t="s">
         <v>347</v>
@@ -15876,13 +15875,13 @@
     </row>
     <row r="141" spans="1:152">
       <c r="A141" s="2"/>
-      <c r="D141" s="243"/>
+      <c r="D141" s="242"/>
       <c r="E141" s="34"/>
       <c r="F141" s="20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G141" s="20" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H141" s="21" t="s">
         <v>350</v>
@@ -15898,15 +15897,15 @@
     </row>
     <row r="142" spans="1:152">
       <c r="A142" s="2"/>
-      <c r="D142" s="243"/>
+      <c r="D142" s="242"/>
       <c r="E142" s="87" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F142" s="29" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G142" s="20" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H142" s="55" t="s">
         <v>353</v>
@@ -15922,15 +15921,15 @@
     </row>
     <row r="143" spans="1:152">
       <c r="A143" s="2"/>
-      <c r="D143" s="242" t="s">
-        <v>134</v>
+      <c r="D143" s="241" t="s">
+        <v>135</v>
       </c>
       <c r="E143" s="78"/>
       <c r="F143" s="60" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G143" s="23" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H143" s="61"/>
       <c r="I143" s="61"/>
@@ -15940,31 +15939,31 @@
     </row>
     <row r="144" spans="1:152">
       <c r="A144" s="2"/>
-      <c r="D144" s="243"/>
+      <c r="D144" s="242"/>
       <c r="E144" s="34"/>
       <c r="F144" s="20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G144" s="20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H144" s="21"/>
       <c r="I144" s="20"/>
       <c r="J144" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K144" s="20"/>
       <c r="L144" s="64"/>
     </row>
     <row r="145" spans="1:152">
       <c r="A145" s="2"/>
-      <c r="D145" s="243"/>
+      <c r="D145" s="242"/>
       <c r="E145" s="34"/>
       <c r="F145" s="20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G145" s="20" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H145" s="21"/>
       <c r="I145" s="169"/>
@@ -15976,13 +15975,13 @@
     </row>
     <row r="146" spans="1:152">
       <c r="A146" s="2"/>
-      <c r="D146" s="243"/>
+      <c r="D146" s="242"/>
       <c r="E146" s="34"/>
       <c r="F146" s="20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G146" s="20" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H146" s="21"/>
       <c r="I146" s="20"/>
@@ -15994,13 +15993,13 @@
     </row>
     <row r="147" spans="1:152">
       <c r="A147" s="2"/>
-      <c r="D147" s="243"/>
+      <c r="D147" s="242"/>
       <c r="E147" s="34"/>
       <c r="F147" s="20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G147" s="20" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H147" s="21"/>
       <c r="I147" s="20"/>
@@ -16012,13 +16011,13 @@
     </row>
     <row r="148" spans="1:152">
       <c r="A148" s="2"/>
-      <c r="D148" s="243"/>
+      <c r="D148" s="242"/>
       <c r="E148" s="34"/>
       <c r="F148" s="20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G148" s="20" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H148" s="21"/>
       <c r="I148" s="20"/>
@@ -16030,13 +16029,13 @@
     </row>
     <row r="149" spans="1:152">
       <c r="A149" s="2"/>
-      <c r="D149" s="244"/>
+      <c r="D149" s="243"/>
       <c r="E149" s="79"/>
       <c r="F149" s="65" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G149" s="20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H149" s="66"/>
       <c r="I149" s="65"/>
@@ -16048,15 +16047,15 @@
     </row>
     <row r="150" spans="1:152">
       <c r="A150" s="2"/>
-      <c r="D150" s="236" t="s">
-        <v>142</v>
+      <c r="D150" s="235" t="s">
+        <v>143</v>
       </c>
       <c r="E150" s="80"/>
       <c r="F150" s="56" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G150" s="57" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H150" s="58" t="s">
         <v>360</v>
@@ -16072,37 +16071,37 @@
     </row>
     <row r="151" spans="1:152">
       <c r="A151" s="2"/>
-      <c r="D151" s="237"/>
+      <c r="D151" s="236"/>
       <c r="E151" s="147" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F151" s="148" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G151" s="148" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H151" s="149" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I151" s="149" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J151" s="149" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K151" s="150"/>
       <c r="L151" s="150"/>
     </row>
     <row r="152" spans="1:152" s="38" customFormat="1">
       <c r="A152" s="2"/>
-      <c r="D152" s="239"/>
+      <c r="D152" s="238"/>
       <c r="E152" s="152"/>
       <c r="F152" s="153" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G152" s="20" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H152" s="154" t="s">
         <v>361</v>
@@ -16254,15 +16253,15 @@
     </row>
     <row r="153" spans="1:152">
       <c r="A153" s="2"/>
-      <c r="D153" s="237"/>
+      <c r="D153" s="236"/>
       <c r="E153" s="151" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F153" s="30" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G153" s="30" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H153" s="31" t="s">
         <v>362</v>
@@ -16278,15 +16277,15 @@
     </row>
     <row r="154" spans="1:152">
       <c r="A154" s="2"/>
-      <c r="D154" s="237"/>
+      <c r="D154" s="236"/>
       <c r="E154" s="34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F154" s="20" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G154" s="20" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H154" s="21" t="s">
         <v>365</v>
@@ -16302,15 +16301,15 @@
     </row>
     <row r="155" spans="1:152">
       <c r="A155" s="2"/>
-      <c r="D155" s="237"/>
+      <c r="D155" s="236"/>
       <c r="E155" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F155" s="20" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G155" s="20" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H155" s="22">
         <v>78586</v>
@@ -16326,15 +16325,15 @@
     </row>
     <row r="156" spans="1:152">
       <c r="A156" s="2"/>
-      <c r="D156" s="237"/>
+      <c r="D156" s="236"/>
       <c r="E156" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F156" s="20" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G156" s="20" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H156" s="54">
         <v>4</v>
@@ -16348,15 +16347,15 @@
     </row>
     <row r="157" spans="1:152">
       <c r="A157" s="2"/>
-      <c r="D157" s="237"/>
+      <c r="D157" s="236"/>
       <c r="E157" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F157" s="20" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G157" s="20" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H157" s="20"/>
       <c r="J157" s="20"/>
@@ -16365,15 +16364,15 @@
     </row>
     <row r="158" spans="1:152">
       <c r="A158" s="2"/>
-      <c r="D158" s="237"/>
+      <c r="D158" s="236"/>
       <c r="E158" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F158" s="20" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G158" s="20" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H158" s="20" t="s">
         <v>361</v>
@@ -16387,15 +16386,15 @@
     </row>
     <row r="159" spans="1:152">
       <c r="A159" s="2"/>
-      <c r="D159" s="237"/>
+      <c r="D159" s="236"/>
       <c r="E159" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F159" s="20" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G159" s="20" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H159" s="20"/>
       <c r="I159" s="54"/>
@@ -16405,15 +16404,15 @@
     </row>
     <row r="160" spans="1:152">
       <c r="A160" s="2"/>
-      <c r="D160" s="237"/>
+      <c r="D160" s="236"/>
       <c r="E160" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F160" s="20" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G160" s="20" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H160" s="20" t="s">
         <v>369</v>
@@ -16425,15 +16424,15 @@
     </row>
     <row r="161" spans="1:152">
       <c r="A161" s="2"/>
-      <c r="D161" s="237"/>
+      <c r="D161" s="236"/>
       <c r="E161" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F161" s="20" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G161" s="20" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H161" s="20" t="s">
         <v>370</v>
@@ -16445,19 +16444,19 @@
     </row>
     <row r="162" spans="1:152">
       <c r="A162" s="2"/>
-      <c r="D162" s="237"/>
+      <c r="D162" s="236"/>
       <c r="E162" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F162" s="20" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G162" s="20" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H162" s="20"/>
       <c r="I162" s="20" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J162" s="20"/>
       <c r="K162" s="20"/>
@@ -16465,15 +16464,15 @@
     </row>
     <row r="163" spans="1:152">
       <c r="A163" s="2"/>
-      <c r="D163" s="237"/>
+      <c r="D163" s="236"/>
       <c r="E163" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F163" s="20" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G163" s="20" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H163" s="20" t="s">
         <v>371</v>
@@ -16485,15 +16484,15 @@
     </row>
     <row r="164" spans="1:152">
       <c r="A164" s="2"/>
-      <c r="D164" s="237"/>
+      <c r="D164" s="236"/>
       <c r="E164" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F164" s="29" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G164" s="20" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H164" s="164">
         <v>156789456</v>
@@ -16506,15 +16505,15 @@
     </row>
     <row r="165" spans="1:152" s="38" customFormat="1">
       <c r="A165" s="2"/>
-      <c r="D165" s="237"/>
+      <c r="D165" s="236"/>
       <c r="E165" s="81" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F165" s="41" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G165" s="20" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H165" s="41"/>
       <c r="I165" s="41" t="s">
@@ -16666,35 +16665,35 @@
     </row>
     <row r="166" spans="1:152">
       <c r="A166" s="2"/>
-      <c r="D166" s="237"/>
+      <c r="D166" s="236"/>
       <c r="E166" s="82"/>
       <c r="F166" s="47" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G166" s="47" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H166" s="47" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I166" s="47" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J166" s="47" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K166" s="44"/>
       <c r="L166" s="44"/>
     </row>
     <row r="167" spans="1:152">
       <c r="A167" s="2"/>
-      <c r="D167" s="237"/>
+      <c r="D167" s="236"/>
       <c r="E167" s="82"/>
       <c r="F167" s="48" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G167" s="47" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H167" s="48" t="s">
         <v>373</v>
@@ -16710,13 +16709,13 @@
     </row>
     <row r="168" spans="1:152">
       <c r="A168" s="2"/>
-      <c r="D168" s="237"/>
+      <c r="D168" s="236"/>
       <c r="E168" s="82"/>
       <c r="F168" s="48" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G168" s="47" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H168" s="48" t="s">
         <v>376</v>
@@ -16732,13 +16731,13 @@
     </row>
     <row r="169" spans="1:152">
       <c r="A169" s="2"/>
-      <c r="D169" s="237"/>
+      <c r="D169" s="236"/>
       <c r="E169" s="34"/>
       <c r="F169" s="27" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G169" s="27" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H169" s="27"/>
       <c r="I169" s="20"/>
@@ -16748,13 +16747,13 @@
     </row>
     <row r="170" spans="1:152">
       <c r="A170" s="2"/>
-      <c r="D170" s="237"/>
+      <c r="D170" s="236"/>
       <c r="E170" s="34"/>
       <c r="F170" s="20" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G170" s="27" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H170" s="20"/>
       <c r="I170" s="20"/>
@@ -16764,13 +16763,13 @@
     </row>
     <row r="171" spans="1:152">
       <c r="A171" s="2"/>
-      <c r="D171" s="237"/>
+      <c r="D171" s="236"/>
       <c r="E171" s="34"/>
       <c r="F171" s="29" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G171" s="27" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H171" s="29"/>
       <c r="I171" s="20"/>
@@ -16780,37 +16779,37 @@
     </row>
     <row r="172" spans="1:152">
       <c r="A172" s="2"/>
-      <c r="D172" s="238"/>
+      <c r="D172" s="237"/>
       <c r="E172" s="82"/>
       <c r="F172" s="48" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G172" s="47" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H172" s="50" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I172" s="50" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J172" s="50" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K172" s="44"/>
       <c r="L172" s="44"/>
     </row>
     <row r="173" spans="1:152">
       <c r="A173" s="2"/>
-      <c r="D173" s="240" t="s">
-        <v>212</v>
+      <c r="D173" s="239" t="s">
+        <v>213</v>
       </c>
       <c r="E173" s="82"/>
       <c r="F173" s="49" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G173" s="47" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H173" s="50" t="s">
         <v>379</v>
@@ -16826,13 +16825,13 @@
     </row>
     <row r="174" spans="1:152">
       <c r="A174" s="2"/>
-      <c r="D174" s="240"/>
+      <c r="D174" s="239"/>
       <c r="E174" s="82"/>
       <c r="F174" s="51" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G174" s="47" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H174" s="52" t="s">
         <v>318</v>
@@ -16848,22 +16847,22 @@
     </row>
     <row r="175" spans="1:152">
       <c r="A175" s="2"/>
-      <c r="D175" s="240"/>
+      <c r="D175" s="239"/>
       <c r="E175" s="81"/>
       <c r="F175" s="51" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G175" s="47" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H175" s="52" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I175" s="52" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J175" s="52" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K175" s="44"/>
       <c r="L175" s="44"/>
@@ -16872,15 +16871,15 @@
       <c r="A176" s="2"/>
       <c r="B176"/>
       <c r="C176"/>
-      <c r="D176" s="240"/>
+      <c r="D176" s="239"/>
       <c r="E176" s="192" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F176" s="174" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G176" s="174" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H176" s="174"/>
       <c r="I176" s="175"/>
@@ -16890,39 +16889,39 @@
     </row>
     <row r="177" spans="1:152">
       <c r="A177" s="2"/>
-      <c r="D177" s="240"/>
+      <c r="D177" s="239"/>
       <c r="E177" s="81" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F177" s="35" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G177" s="37" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H177" s="36" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I177" s="36" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J177" s="36" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K177" s="20"/>
       <c r="L177" s="20"/>
     </row>
     <row r="178" spans="1:152" s="69" customFormat="1">
       <c r="A178" s="2"/>
-      <c r="D178" s="240"/>
+      <c r="D178" s="239"/>
       <c r="E178" s="83" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F178" s="71" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G178" s="37" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H178" s="140">
         <v>607080928</v>
@@ -17078,18 +17077,18 @@
     </row>
     <row r="179" spans="1:152">
       <c r="A179" s="2"/>
-      <c r="D179" s="240"/>
+      <c r="D179" s="239"/>
       <c r="E179" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F179" s="27" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G179" s="37" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H179" s="28" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I179" s="36"/>
       <c r="J179" s="36"/>
@@ -17098,15 +17097,15 @@
     </row>
     <row r="180" spans="1:152" s="69" customFormat="1">
       <c r="A180" s="2"/>
-      <c r="D180" s="240"/>
+      <c r="D180" s="239"/>
       <c r="E180" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F180" s="68" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G180" s="37" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H180" s="164">
         <v>156789456</v>
@@ -17258,16 +17257,16 @@
     </row>
     <row r="181" spans="1:152" s="69" customFormat="1">
       <c r="A181" s="2"/>
-      <c r="D181" s="240"/>
+      <c r="D181" s="239"/>
       <c r="E181" s="85"/>
       <c r="F181" s="95" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G181" s="37" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H181" s="96" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I181" s="72"/>
       <c r="J181" s="72"/>
@@ -17416,37 +17415,37 @@
     </row>
     <row r="182" spans="1:152">
       <c r="A182" s="2"/>
-      <c r="D182" s="240"/>
+      <c r="D182" s="239"/>
       <c r="E182" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F182" s="29" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G182" s="37" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H182" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="I182" s="168" t="s">
         <v>239</v>
       </c>
-      <c r="I182" s="168" t="s">
-        <v>238</v>
-      </c>
       <c r="J182" s="168" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K182" s="20"/>
       <c r="L182" s="20"/>
     </row>
     <row r="183" spans="1:152">
       <c r="A183" s="2"/>
-      <c r="D183" s="240"/>
+      <c r="D183" s="239"/>
       <c r="E183" s="97"/>
       <c r="F183" s="35" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G183" s="37" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H183" s="170"/>
       <c r="I183" s="171"/>
@@ -17456,15 +17455,15 @@
     </row>
     <row r="184" spans="1:152">
       <c r="A184" s="2"/>
-      <c r="D184" s="240"/>
+      <c r="D184" s="239"/>
       <c r="E184" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F184" s="98" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G184" s="37" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H184" s="36" t="s">
         <v>382</v>
@@ -17480,15 +17479,15 @@
     </row>
     <row r="185" spans="1:152">
       <c r="A185" s="2"/>
-      <c r="D185" s="240"/>
+      <c r="D185" s="239"/>
       <c r="E185" s="82" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F185" s="23" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G185" s="37" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H185" s="165" t="s">
         <v>385</v>
@@ -17504,13 +17503,13 @@
     </row>
     <row r="186" spans="1:152">
       <c r="A186" s="2"/>
-      <c r="D186" s="240"/>
+      <c r="D186" s="239"/>
       <c r="E186" s="34"/>
       <c r="F186" s="20" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G186" s="37" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H186" s="165" t="s">
         <v>388</v>
@@ -17526,13 +17525,13 @@
     </row>
     <row r="187" spans="1:152">
       <c r="A187" s="2"/>
-      <c r="D187" s="240"/>
+      <c r="D187" s="239"/>
       <c r="E187" s="77"/>
       <c r="F187" s="29" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G187" s="123" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H187" s="165" t="s">
         <v>390</v>
@@ -17548,57 +17547,57 @@
     </row>
     <row r="188" spans="1:152">
       <c r="A188" s="2"/>
-      <c r="D188" s="240"/>
+      <c r="D188" s="239"/>
       <c r="E188" s="129"/>
       <c r="F188" s="124" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G188" s="124" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H188" s="126" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I188" s="126" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J188" s="126" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K188" s="124"/>
       <c r="L188" s="124"/>
     </row>
     <row r="189" spans="1:152">
       <c r="A189" s="2"/>
-      <c r="D189" s="240"/>
+      <c r="D189" s="239"/>
       <c r="E189" s="129"/>
       <c r="F189" s="124" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G189" s="124" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H189" s="126" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I189" s="126" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J189" s="126" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K189" s="124"/>
       <c r="L189" s="124"/>
     </row>
     <row r="190" spans="1:152">
       <c r="A190" s="2"/>
-      <c r="D190" s="240"/>
+      <c r="D190" s="239"/>
       <c r="E190" s="129"/>
       <c r="F190" s="124" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G190" s="124" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H190" s="156">
         <v>102030504</v>
@@ -17614,46 +17613,46 @@
     </row>
     <row r="191" spans="1:152">
       <c r="A191" s="2"/>
-      <c r="D191" s="240"/>
+      <c r="D191" s="239"/>
       <c r="E191" s="128"/>
       <c r="F191" s="127" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G191" s="124" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H191" s="126" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I191" s="126" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J191" s="126" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K191" s="124"/>
       <c r="L191" s="124"/>
     </row>
     <row r="192" spans="1:152">
       <c r="A192" s="2"/>
-      <c r="D192" s="240"/>
+      <c r="D192" s="239"/>
       <c r="E192" s="82" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F192" s="124" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G192" s="124" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H192" s="126" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I192" s="126" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J192" s="126" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K192" s="124"/>
       <c r="L192" s="124"/>
@@ -17662,13 +17661,13 @@
       <c r="A193" s="2"/>
       <c r="B193"/>
       <c r="C193"/>
-      <c r="D193" s="240"/>
+      <c r="D193" s="239"/>
       <c r="E193" s="212"/>
       <c r="F193" s="213" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G193" s="44" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H193" s="214" t="s">
         <v>361</v>
@@ -17820,15 +17819,15 @@
     </row>
     <row r="194" spans="1:152">
       <c r="A194" s="2"/>
-      <c r="D194" s="240"/>
+      <c r="D194" s="239"/>
       <c r="E194" s="76" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F194" s="100" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G194" s="100" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H194" s="101" t="s">
         <v>362</v>
@@ -17844,15 +17843,15 @@
     </row>
     <row r="195" spans="1:152">
       <c r="A195" s="2"/>
-      <c r="D195" s="240"/>
+      <c r="D195" s="239"/>
       <c r="E195" s="34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F195" s="44" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G195" s="44" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H195" s="45" t="s">
         <v>365</v>
@@ -17868,15 +17867,15 @@
     </row>
     <row r="196" spans="1:152">
       <c r="A196" s="2"/>
-      <c r="D196" s="240"/>
+      <c r="D196" s="239"/>
       <c r="E196" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F196" s="44" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G196" s="44" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H196" s="102">
         <v>78586</v>
@@ -17892,15 +17891,15 @@
     </row>
     <row r="197" spans="1:152">
       <c r="A197" s="2"/>
-      <c r="D197" s="240"/>
+      <c r="D197" s="239"/>
       <c r="E197" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F197" s="44" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G197" s="44" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H197" s="105">
         <v>4</v>
@@ -17914,15 +17913,15 @@
     </row>
     <row r="198" spans="1:152">
       <c r="A198" s="2"/>
-      <c r="D198" s="240"/>
+      <c r="D198" s="239"/>
       <c r="E198" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F198" s="44" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G198" s="44" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H198" s="44"/>
       <c r="I198" s="104"/>
@@ -17932,15 +17931,15 @@
     </row>
     <row r="199" spans="1:152">
       <c r="A199" s="2"/>
-      <c r="D199" s="240"/>
+      <c r="D199" s="239"/>
       <c r="E199" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F199" s="44" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G199" s="44" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H199" s="44" t="s">
         <v>361</v>
@@ -17954,15 +17953,15 @@
     </row>
     <row r="200" spans="1:152">
       <c r="A200" s="2"/>
-      <c r="D200" s="240"/>
+      <c r="D200" s="239"/>
       <c r="E200" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F200" s="44" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G200" s="44" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H200" s="44"/>
       <c r="I200" s="105"/>
@@ -17972,15 +17971,15 @@
     </row>
     <row r="201" spans="1:152">
       <c r="A201" s="2"/>
-      <c r="D201" s="240"/>
+      <c r="D201" s="239"/>
       <c r="E201" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F201" s="44" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G201" s="44" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H201" s="44" t="s">
         <v>393</v>
@@ -17992,15 +17991,15 @@
     </row>
     <row r="202" spans="1:152">
       <c r="A202" s="2"/>
-      <c r="D202" s="240"/>
+      <c r="D202" s="239"/>
       <c r="E202" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F202" s="44" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G202" s="44" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H202" s="44" t="s">
         <v>370</v>
@@ -18012,19 +18011,19 @@
     </row>
     <row r="203" spans="1:152">
       <c r="A203" s="2"/>
-      <c r="D203" s="240"/>
+      <c r="D203" s="239"/>
       <c r="E203" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F203" s="44" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G203" s="44" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H203" s="44"/>
       <c r="I203" s="44" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J203" s="44"/>
       <c r="K203" s="44"/>
@@ -18032,15 +18031,15 @@
     </row>
     <row r="204" spans="1:152">
       <c r="A204" s="2"/>
-      <c r="D204" s="240"/>
+      <c r="D204" s="239"/>
       <c r="E204" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F204" s="44" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G204" s="44" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H204" s="44" t="s">
         <v>371</v>
@@ -18052,15 +18051,15 @@
     </row>
     <row r="205" spans="1:152">
       <c r="A205" s="2"/>
-      <c r="D205" s="240"/>
+      <c r="D205" s="239"/>
       <c r="E205" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F205" s="44" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G205" s="44" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H205" s="166">
         <v>156789456</v>
@@ -18072,15 +18071,15 @@
     </row>
     <row r="206" spans="1:152" s="38" customFormat="1">
       <c r="A206" s="2"/>
-      <c r="D206" s="240"/>
+      <c r="D206" s="239"/>
       <c r="E206" s="81" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F206" s="44" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G206" s="44" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H206" s="44"/>
       <c r="I206" s="44" t="s">
@@ -18232,35 +18231,35 @@
     </row>
     <row r="207" spans="1:152">
       <c r="A207" s="2"/>
-      <c r="D207" s="240"/>
+      <c r="D207" s="239"/>
       <c r="E207" s="82"/>
       <c r="F207" s="47" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G207" s="47" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H207" s="47" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I207" s="48" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J207" s="47" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K207" s="44"/>
       <c r="L207" s="44"/>
     </row>
     <row r="208" spans="1:152">
       <c r="A208" s="2"/>
-      <c r="D208" s="240"/>
+      <c r="D208" s="239"/>
       <c r="E208" s="82"/>
       <c r="F208" s="48" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G208" s="47" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H208" s="48" t="s">
         <v>373</v>
@@ -18276,13 +18275,13 @@
     </row>
     <row r="209" spans="1:152">
       <c r="A209" s="2"/>
-      <c r="D209" s="240"/>
+      <c r="D209" s="239"/>
       <c r="E209" s="82"/>
       <c r="F209" s="48" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G209" s="47" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H209" s="48" t="s">
         <v>376</v>
@@ -18298,13 +18297,13 @@
     </row>
     <row r="210" spans="1:152" s="112" customFormat="1">
       <c r="A210" s="2"/>
-      <c r="D210" s="240"/>
+      <c r="D210" s="239"/>
       <c r="E210" s="75"/>
       <c r="F210" s="113" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G210" s="113" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H210" s="113"/>
       <c r="I210" s="114"/>
@@ -18454,13 +18453,13 @@
     </row>
     <row r="211" spans="1:152" s="112" customFormat="1">
       <c r="A211" s="2"/>
-      <c r="D211" s="240"/>
+      <c r="D211" s="239"/>
       <c r="E211" s="75"/>
       <c r="F211" s="114" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G211" s="113" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H211" s="114"/>
       <c r="I211" s="114"/>
@@ -18610,13 +18609,13 @@
     </row>
     <row r="212" spans="1:152" s="112" customFormat="1">
       <c r="A212" s="2"/>
-      <c r="D212" s="240"/>
+      <c r="D212" s="239"/>
       <c r="E212" s="130"/>
       <c r="F212" s="115" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G212" s="131" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H212" s="115"/>
       <c r="I212" s="115"/>
@@ -18766,22 +18765,22 @@
     </row>
     <row r="213" spans="1:152" s="112" customFormat="1">
       <c r="A213" s="2"/>
-      <c r="D213" s="241"/>
+      <c r="D213" s="240"/>
       <c r="E213" s="136"/>
       <c r="F213" s="133" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G213" s="125" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H213" s="134" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I213" s="133" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J213" s="50" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K213" s="133"/>
       <c r="L213" s="135"/>
@@ -18928,15 +18927,15 @@
     </row>
     <row r="214" spans="1:152" s="112" customFormat="1">
       <c r="A214" s="2"/>
-      <c r="D214" s="241"/>
+      <c r="D214" s="240"/>
       <c r="E214" s="136" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F214" s="133" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G214" s="133" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H214" s="134" t="s">
         <v>319</v>
@@ -18945,7 +18944,7 @@
         <v>319</v>
       </c>
       <c r="J214" s="134" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K214" s="133"/>
       <c r="L214" s="135"/>
@@ -19092,15 +19091,15 @@
     </row>
     <row r="215" spans="1:152" s="112" customFormat="1" ht="28.5" customHeight="1">
       <c r="A215" s="2"/>
-      <c r="D215" s="241"/>
+      <c r="D215" s="240"/>
       <c r="E215" s="137" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F215" s="133" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G215" s="133" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H215" s="134" t="s">
         <v>320</v>
@@ -19109,7 +19108,7 @@
         <v>320</v>
       </c>
       <c r="J215" s="134" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K215" s="133"/>
       <c r="L215" s="135"/>
@@ -19256,15 +19255,15 @@
     </row>
     <row r="216" spans="1:152" s="112" customFormat="1" ht="28.5" customHeight="1">
       <c r="A216" s="2"/>
-      <c r="D216" s="241"/>
+      <c r="D216" s="240"/>
       <c r="E216" s="197" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F216" s="135" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G216" s="135" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H216" s="198" t="s">
         <v>321</v>
@@ -19420,15 +19419,15 @@
     </row>
     <row r="217" spans="1:152" s="112" customFormat="1">
       <c r="A217" s="2"/>
-      <c r="D217" s="240"/>
+      <c r="D217" s="239"/>
       <c r="E217" s="132" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F217" s="113" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G217" s="113" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H217" s="116" t="s">
         <v>324</v>
@@ -19584,13 +19583,13 @@
     </row>
     <row r="218" spans="1:152" s="112" customFormat="1" ht="30">
       <c r="A218" s="2"/>
-      <c r="D218" s="240"/>
+      <c r="D218" s="239"/>
       <c r="E218" s="75"/>
       <c r="F218" s="114" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G218" s="113" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H218" s="117" t="s">
         <v>327</v>
@@ -19746,15 +19745,15 @@
     </row>
     <row r="219" spans="1:152" s="112" customFormat="1">
       <c r="A219" s="2"/>
-      <c r="D219" s="240"/>
+      <c r="D219" s="239"/>
       <c r="E219" s="75" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F219" s="114" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G219" s="114" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H219" s="119" t="s">
         <v>330</v>
@@ -19763,7 +19762,7 @@
         <v>331</v>
       </c>
       <c r="J219" s="44" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K219" s="114"/>
       <c r="L219" s="114"/>
@@ -19910,13 +19909,13 @@
     </row>
     <row r="220" spans="1:152" s="112" customFormat="1">
       <c r="A220" s="2"/>
-      <c r="D220" s="240"/>
+      <c r="D220" s="239"/>
       <c r="E220" s="75"/>
       <c r="F220" s="114" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G220" s="114" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H220" s="119" t="s">
         <v>332</v>
@@ -19925,7 +19924,7 @@
         <v>333</v>
       </c>
       <c r="J220" s="119" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K220" s="114"/>
       <c r="L220" s="114"/>
@@ -20072,24 +20071,24 @@
     </row>
     <row r="221" spans="1:152" s="112" customFormat="1">
       <c r="A221" s="2"/>
-      <c r="D221" s="240"/>
+      <c r="D221" s="239"/>
       <c r="E221" s="75" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F221" s="114" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G221" s="114" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H221" s="119" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I221" s="119" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J221" s="119" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K221" s="114"/>
       <c r="L221" s="114"/>
@@ -20236,15 +20235,15 @@
     </row>
     <row r="222" spans="1:152" s="112" customFormat="1">
       <c r="A222" s="2"/>
-      <c r="D222" s="240"/>
+      <c r="D222" s="239"/>
       <c r="E222" s="86" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F222" s="114" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G222" s="114" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H222" s="117">
         <v>1</v>
@@ -20400,24 +20399,24 @@
     </row>
     <row r="223" spans="1:152" s="112" customFormat="1">
       <c r="A223" s="2"/>
-      <c r="D223" s="240"/>
+      <c r="D223" s="239"/>
       <c r="E223" s="120" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F223" s="115" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G223" s="115" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H223" s="121" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I223" s="121" t="s">
+        <v>91</v>
+      </c>
+      <c r="J223" s="121" t="s">
         <v>90</v>
-      </c>
-      <c r="J223" s="121" t="s">
-        <v>89</v>
       </c>
       <c r="K223" s="115"/>
       <c r="L223" s="115"/>
@@ -20564,15 +20563,15 @@
     </row>
     <row r="224" spans="1:152" s="194" customFormat="1" ht="30">
       <c r="A224" s="196"/>
-      <c r="D224" s="240"/>
+      <c r="D224" s="239"/>
       <c r="E224" s="195" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F224" s="122" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G224" s="122" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H224" s="122"/>
       <c r="I224" s="107"/>
@@ -20722,22 +20721,22 @@
     </row>
     <row r="225" spans="1:152" s="112" customFormat="1">
       <c r="A225" s="2"/>
-      <c r="D225" s="240"/>
+      <c r="D225" s="239"/>
       <c r="E225" s="143"/>
       <c r="F225" s="144" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G225" s="145" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H225" s="122" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I225" s="122" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J225" s="122" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K225" s="108"/>
       <c r="L225" s="108"/>
@@ -20884,16 +20883,16 @@
     </row>
     <row r="226" spans="1:152" s="138" customFormat="1">
       <c r="A226" s="2"/>
-      <c r="D226" s="241"/>
+      <c r="D226" s="240"/>
       <c r="E226" s="146"/>
       <c r="F226" s="124" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G226" s="133" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H226" s="141" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I226" s="141" t="s">
         <v>394</v>
@@ -21046,16 +21045,16 @@
     </row>
     <row r="227" spans="1:152" s="138" customFormat="1">
       <c r="A227" s="2"/>
-      <c r="D227" s="241"/>
+      <c r="D227" s="240"/>
       <c r="E227" s="146"/>
       <c r="F227" s="124" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G227" s="133" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H227" s="142" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I227" s="142" t="s">
         <v>396</v>
@@ -21208,7 +21207,7 @@
     </row>
     <row r="228" spans="1:152" s="92" customFormat="1">
       <c r="A228" s="92" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E228" s="93"/>
       <c r="H228" s="94"/>

--- a/csv_parser/test-cases-15-15.xlsx
+++ b/csv_parser/test-cases-15-15.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27706"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27720"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://esantegouv.sharepoint.com/sites/GED-Calypso/espace-projets/Espace Programme SISAMU/01 - Equipe projet/07 - Innovation et prospectif/12 - Hub Santé/13 - 15-15/04 - Pilotes 15-15/04 - JDD recette/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8D81BC8-351B-4126-B23D-9F9187B77075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1278B07-6484-469B-8F79-FF14A8A87C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="5130" yWindow="180" windowWidth="22815" windowHeight="14580" firstSheet="1" xr2:uid="{8E95E427-60E8-4C01-A0F5-EF6B52DBDF48}"/>
+    <workbookView minimized="1" xWindow="3195" yWindow="165" windowWidth="25575" windowHeight="12990" firstSheet="1" activeTab="1" xr2:uid="{8E95E427-60E8-4C01-A0F5-EF6B52DBDF48}"/>
   </bookViews>
   <sheets>
     <sheet name="Partage de dossier simple" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="404">
   <si>
     <t>Périmètre</t>
   </si>
@@ -408,7 +408,7 @@
     <t>ID patient partagé</t>
   </si>
   <si>
-    <t>$.createCaseHealth.patient.[0].id</t>
+    <t>$.createCaseHealth.patient[0].id</t>
   </si>
   <si>
     <t>fr.health.samu770-DRFR157702400400055.P167</t>
@@ -423,7 +423,7 @@
     <t>Sexe</t>
   </si>
   <si>
-    <t>$.createCaseHealth.patient.[0].identity.strictFeatures.sex</t>
+    <t>$.createCaseHealth.patient[0].identity.strictFeatures.sex</t>
   </si>
   <si>
     <t>MASC</t>
@@ -438,7 +438,7 @@
     <t>Date de naissance</t>
   </si>
   <si>
-    <t>$.createCaseHealth.patient.[0].identity.strictFeatures.birthDate</t>
+    <t>$.createCaseHealth.patient[0].identity.strictFeatures.birthDate</t>
   </si>
   <si>
     <t>1959-02-01</t>
@@ -450,7 +450,7 @@
     <t>Prénom et nom</t>
   </si>
   <si>
-    <t>$.createCaseHealth.patient.[0].identity.nonstrictFeatures.complete</t>
+    <t>$.createCaseHealth.patient[0].identity.nonstrictFeatures.complete</t>
   </si>
   <si>
     <t>Didier Morel</t>
@@ -462,7 +462,7 @@
     <t>Prénom</t>
   </si>
   <si>
-    <t>$.createCaseHealth.patient.[0].identity.nonstrictFeatures.firstName</t>
+    <t>$.createCaseHealth.patient[0].identity.nonstrictFeatures.firstName</t>
   </si>
   <si>
     <t xml:space="preserve">Didier </t>
@@ -474,7 +474,7 @@
     <t>Nom</t>
   </si>
   <si>
-    <t>$.createCaseHealth.patient.[0].identity.nonstrictFeatures.lastName</t>
+    <t>$.createCaseHealth.patient[0].identity.nonstrictFeatures.lastName</t>
   </si>
   <si>
     <t>Morel</t>
@@ -486,7 +486,7 @@
     <t>Age</t>
   </si>
   <si>
-    <t>$.createCaseHealth.patient.[0].detail.age</t>
+    <t>$.createCaseHealth.patient[0].detail.age</t>
   </si>
   <si>
     <t>P65Y</t>
@@ -501,25 +501,25 @@
     <t>Patient / victime n°2</t>
   </si>
   <si>
-    <t>$.createCaseHealth.patient.[1].id</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.patient.[1].identity.strictFeatures.sex</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.patient.[1].identity.strictFeatures.birthDate</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.patient.[1].identity.nonstrictFeatures.complete</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.patient.[1].identity.nonstrictFeatures.firstName</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.patient.[1].identity.nonstrictFeatures.lastName</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.patient.[1].detail.age</t>
+    <t>$.createCaseHealth.patient[1].id</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.patient[1].identity.strictFeatures.sex</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.patient[1].identity.strictFeatures.birthDate</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.patient[1].identity.nonstrictFeatures.complete</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.patient[1].identity.nonstrictFeatures.firstName</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.patient[1].identity.nonstrictFeatures.lastName</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.patient[1].detail.age</t>
   </si>
   <si>
     <t>Localisation de l'affaire/dossier</t>
@@ -1297,9 +1297,6 @@
   </si>
   <si>
     <t>Réception</t>
-  </si>
-  <si>
-    <t>Recevoir un message RS-EDA d'acceptation de la demande de prise en charge, saisir et valider les valeurs spécifiées dans le message reçu dans le cadre à droite puis envoyer un aquittement du message</t>
   </si>
   <si>
     <t>RS-EDA/RS-EDA-usecase-PartageDossier-1.json</t>
@@ -2517,8 +2514,20 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2553,18 +2562,6 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2576,6 +2573,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFE1FF"/>
         </patternFill>
       </fill>
@@ -2583,6 +2587,62 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF58383"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF58383"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -2590,6 +2650,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFE1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFF58383"/>
         </patternFill>
       </fill>
@@ -2597,6 +2664,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -2604,6 +2685,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -2611,6 +2713,55 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF58383"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF58383"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="6"/>
         </patternFill>
       </fill>
@@ -2618,6 +2769,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFE1FF"/>
         </patternFill>
       </fill>
@@ -2660,6 +2832,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFE1FF"/>
         </patternFill>
       </fill>
@@ -2681,6 +2867,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFE1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -2702,6 +2902,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFF58383"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFE1FF"/>
         </patternFill>
       </fill>
@@ -2737,6 +2951,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF58383"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="6"/>
         </patternFill>
       </fill>
@@ -2744,6 +2986,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFE1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="6"/>
         </patternFill>
       </fill>
@@ -2751,6 +3000,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF58383"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFE1FF"/>
         </patternFill>
       </fill>
@@ -2758,6 +3035,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -2779,6 +3077,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -2786,6 +3091,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF58383"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFE1FF"/>
         </patternFill>
       </fill>
@@ -2793,6 +3119,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF58383"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -2800,6 +3154,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFE1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFF58383"/>
         </patternFill>
       </fill>
@@ -2828,6 +3203,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFE1FF"/>
         </patternFill>
       </fill>
@@ -2856,6 +3245,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF58383"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -2863,6 +3273,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="6"/>
         </patternFill>
       </fill>
@@ -2870,6 +3287,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFF58383"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFE1FF"/>
         </patternFill>
       </fill>
@@ -2884,6 +3322,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFF58383"/>
         </patternFill>
       </fill>
@@ -2919,6 +3371,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF58383"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -2926,6 +3406,41 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFE1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFF58383"/>
         </patternFill>
       </fill>
@@ -2940,6 +3455,41 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF58383"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -2947,6 +3497,321 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF58383"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF58383"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF58383"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF58383"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF58383"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF58383"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF58383"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF58383"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF58383"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="6"/>
         </patternFill>
       </fill>
@@ -2961,6 +3826,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF58383"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFE1FF"/>
         </patternFill>
       </fill>
@@ -2968,6 +3861,41 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFE1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF58383"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -2975,6 +3903,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFF58383"/>
         </patternFill>
       </fill>
@@ -2989,6 +3945,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -2996,6 +3959,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF58383"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFE1FF"/>
         </patternFill>
       </fill>
@@ -3003,6 +3987,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -3031,6 +4029,41 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFE1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF58383"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="6"/>
         </patternFill>
       </fill>
@@ -3038,6 +4071,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFE1FF"/>
         </patternFill>
       </fill>
@@ -3045,6 +4092,55 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF58383"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF58383"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -3052,6 +4148,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFE1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFF58383"/>
         </patternFill>
       </fill>
@@ -3059,6 +4183,41 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF58383"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -3066,6 +4225,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF58383"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -3073,13 +4253,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFE1FF"/>
         </patternFill>
       </fill>
@@ -3087,6 +4260,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -3094,1204 +4281,14 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFE1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFF58383"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE1FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF58383"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE1FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF58383"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE1FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF58383"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE1FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF58383"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE1FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF58383"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE1FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF58383"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE1FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF58383"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE1FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF58383"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE1FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF58383"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE1FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF58383"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE1FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF58383"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE1FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF58383"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE1FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF58383"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE1FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF58383"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE1FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF58383"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE1FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF58383"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE1FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF58383"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE1FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF58383"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE1FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF58383"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE1FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF58383"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE1FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF58383"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE1FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF58383"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE1FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF58383"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE1FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF58383"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE1FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF58383"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE1FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF58383"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE1FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF58383"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE1FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF58383"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE1FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF58383"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE1FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF58383"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4641,9 +4638,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC96D3DE-56F6-4E60-B012-339ED5333B2B}">
   <dimension ref="A1:O120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="10" topLeftCell="BO11" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="6" ySplit="10" topLeftCell="G11" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="H30" sqref="H30"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
     </sheetView>
@@ -4664,19 +4661,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75">
-      <c r="A1" s="234" t="s">
+      <c r="A1" s="235" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="234"/>
+      <c r="B1" s="235"/>
       <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="18.75">
-      <c r="A2" s="234" t="s">
+      <c r="A2" s="235" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="234"/>
+      <c r="B2" s="235"/>
       <c r="C2" t="s">
         <v>3</v>
       </c>
@@ -4686,60 +4683,60 @@
       <c r="I2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="246" t="s">
+      <c r="J2" s="234" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="246"/>
-      <c r="L2" s="246"/>
-      <c r="M2" s="246"/>
-      <c r="N2" s="246"/>
-      <c r="O2" s="246"/>
+      <c r="K2" s="234"/>
+      <c r="L2" s="234"/>
+      <c r="M2" s="234"/>
+      <c r="N2" s="234"/>
+      <c r="O2" s="234"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="18.75">
-      <c r="A3" s="234" t="s">
+      <c r="A3" s="235" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="234"/>
+      <c r="B3" s="235"/>
       <c r="C3" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3"/>
       <c r="H3" s="7"/>
-      <c r="J3" s="246"/>
-      <c r="K3" s="246"/>
-      <c r="L3" s="246"/>
-      <c r="M3" s="246"/>
-      <c r="N3" s="246"/>
-      <c r="O3" s="246"/>
+      <c r="J3" s="234"/>
+      <c r="K3" s="234"/>
+      <c r="L3" s="234"/>
+      <c r="M3" s="234"/>
+      <c r="N3" s="234"/>
+      <c r="O3" s="234"/>
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1" ht="18.75">
-      <c r="A4" s="234" t="s">
+      <c r="A4" s="235" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="234"/>
+      <c r="B4" s="235"/>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4"/>
       <c r="H4" s="7"/>
-      <c r="J4" s="246"/>
-      <c r="K4" s="246"/>
-      <c r="L4" s="246"/>
-      <c r="M4" s="246"/>
-      <c r="N4" s="246"/>
-      <c r="O4" s="246"/>
+      <c r="J4" s="234"/>
+      <c r="K4" s="234"/>
+      <c r="L4" s="234"/>
+      <c r="M4" s="234"/>
+      <c r="N4" s="234"/>
+      <c r="O4" s="234"/>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" ht="18.75">
-      <c r="A5" s="244" t="s">
+      <c r="A5" s="248" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="244"/>
-      <c r="C5" s="244"/>
-      <c r="D5" s="244"/>
-      <c r="E5" s="244"/>
-      <c r="F5" s="244"/>
+      <c r="B5" s="248"/>
+      <c r="C5" s="248"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="248"/>
       <c r="H5" s="7"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -4749,12 +4746,12 @@
       <c r="O5" s="8"/>
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1" ht="18.75">
-      <c r="A6" s="247" t="s">
+      <c r="A6" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="248"/>
-      <c r="C6" s="248"/>
-      <c r="D6" s="249"/>
+      <c r="B6" s="237"/>
+      <c r="C6" s="237"/>
+      <c r="D6" s="238"/>
       <c r="E6" s="5"/>
       <c r="F6" t="s">
         <v>11</v>
@@ -4768,12 +4765,12 @@
       <c r="O6" s="8"/>
     </row>
     <row r="7" spans="1:15" s="1" customFormat="1" ht="18.75">
-      <c r="A7" s="245" t="s">
+      <c r="A7" s="249" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="245"/>
-      <c r="C7" s="245"/>
-      <c r="D7" s="245"/>
+      <c r="B7" s="249"/>
+      <c r="C7" s="249"/>
+      <c r="D7" s="249"/>
       <c r="E7" s="10"/>
       <c r="F7" t="s">
         <v>13</v>
@@ -4852,7 +4849,7 @@
       <c r="L10" s="25"/>
     </row>
     <row r="11" spans="1:15" ht="16.5" customHeight="1">
-      <c r="D11" s="235" t="s">
+      <c r="D11" s="239" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="74"/>
@@ -4875,7 +4872,7 @@
       <c r="L11" s="46"/>
     </row>
     <row r="12" spans="1:15">
-      <c r="D12" s="236"/>
+      <c r="D12" s="240"/>
       <c r="E12" s="74"/>
       <c r="F12" s="13" t="s">
         <v>36</v>
@@ -4896,7 +4893,7 @@
       <c r="L12" s="46"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="D13" s="237"/>
+      <c r="D13" s="241"/>
       <c r="E13" s="74"/>
       <c r="F13" s="13" t="s">
         <v>39</v>
@@ -4942,7 +4939,7 @@
       <c r="L14" s="231"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="D15" s="235" t="s">
+      <c r="D15" s="239" t="s">
         <v>49</v>
       </c>
       <c r="E15" s="74">
@@ -4967,7 +4964,7 @@
       <c r="L15" s="12"/>
     </row>
     <row r="16" spans="1:15" ht="28.5" customHeight="1">
-      <c r="D16" s="236"/>
+      <c r="D16" s="240"/>
       <c r="E16" s="84">
         <v>3</v>
       </c>
@@ -4990,7 +4987,7 @@
       <c r="L16" s="12"/>
     </row>
     <row r="17" spans="4:12" s="112" customFormat="1">
-      <c r="D17" s="236"/>
+      <c r="D17" s="240"/>
       <c r="E17" s="75"/>
       <c r="F17" s="109" t="s">
         <v>60</v>
@@ -5000,7 +4997,7 @@
       </c>
     </row>
     <row r="18" spans="4:12">
-      <c r="D18" s="236"/>
+      <c r="D18" s="240"/>
       <c r="E18" s="85">
         <v>2</v>
       </c>
@@ -5023,7 +5020,7 @@
       <c r="L18" s="42"/>
     </row>
     <row r="19" spans="4:12" s="112" customFormat="1" ht="30">
-      <c r="D19" s="236"/>
+      <c r="D19" s="240"/>
       <c r="E19" s="228">
         <v>3</v>
       </c>
@@ -5046,7 +5043,7 @@
       <c r="L19" s="109"/>
     </row>
     <row r="20" spans="4:12">
-      <c r="D20" s="236"/>
+      <c r="D20" s="240"/>
       <c r="E20" s="34">
         <v>1</v>
       </c>
@@ -5069,7 +5066,7 @@
       <c r="L20" s="44"/>
     </row>
     <row r="21" spans="4:12" ht="30.75" customHeight="1">
-      <c r="D21" s="236"/>
+      <c r="D21" s="240"/>
       <c r="E21" s="228">
         <v>3</v>
       </c>
@@ -5092,7 +5089,7 @@
       <c r="L21" s="20"/>
     </row>
     <row r="22" spans="4:12">
-      <c r="D22" s="236"/>
+      <c r="D22" s="240"/>
       <c r="E22" s="34">
         <v>1</v>
       </c>
@@ -5115,7 +5112,7 @@
       <c r="L22" s="20"/>
     </row>
     <row r="23" spans="4:12" s="202" customFormat="1">
-      <c r="D23" s="236"/>
+      <c r="D23" s="240"/>
       <c r="E23" s="87">
         <v>3</v>
       </c>
@@ -5138,7 +5135,7 @@
       <c r="L23" s="200"/>
     </row>
     <row r="24" spans="4:12">
-      <c r="D24" s="236"/>
+      <c r="D24" s="240"/>
       <c r="E24" s="87">
         <v>3</v>
       </c>
@@ -5161,7 +5158,7 @@
       <c r="L24" s="29"/>
     </row>
     <row r="25" spans="4:12" ht="30">
-      <c r="D25" s="236"/>
+      <c r="D25" s="240"/>
       <c r="E25" s="89"/>
       <c r="F25" s="162" t="s">
         <v>94</v>
@@ -5176,7 +5173,7 @@
       <c r="L25" s="35"/>
     </row>
     <row r="26" spans="4:12">
-      <c r="D26" s="237"/>
+      <c r="D26" s="241"/>
       <c r="E26" s="89">
         <v>3</v>
       </c>
@@ -5224,7 +5221,7 @@
       <c r="L27" s="59"/>
     </row>
     <row r="28" spans="4:12">
-      <c r="D28" s="241" t="s">
+      <c r="D28" s="245" t="s">
         <v>104</v>
       </c>
       <c r="E28" s="76"/>
@@ -5247,7 +5244,7 @@
       <c r="L28" s="20"/>
     </row>
     <row r="29" spans="4:12">
-      <c r="D29" s="242"/>
+      <c r="D29" s="246"/>
       <c r="E29" s="34">
         <v>1</v>
       </c>
@@ -5270,7 +5267,7 @@
       <c r="L29" s="20"/>
     </row>
     <row r="30" spans="4:12" s="69" customFormat="1">
-      <c r="D30" s="242"/>
+      <c r="D30" s="246"/>
       <c r="E30" s="87">
         <v>2</v>
       </c>
@@ -5291,7 +5288,7 @@
       <c r="L30" s="68"/>
     </row>
     <row r="31" spans="4:12">
-      <c r="D31" s="242"/>
+      <c r="D31" s="246"/>
       <c r="E31" s="34">
         <v>1</v>
       </c>
@@ -5312,7 +5309,7 @@
       <c r="L31" s="20"/>
     </row>
     <row r="32" spans="4:12">
-      <c r="D32" s="242"/>
+      <c r="D32" s="246"/>
       <c r="E32" s="34"/>
       <c r="F32" s="20" t="s">
         <v>123</v>
@@ -5331,7 +5328,7 @@
       <c r="L32" s="20"/>
     </row>
     <row r="33" spans="4:12">
-      <c r="D33" s="242"/>
+      <c r="D33" s="246"/>
       <c r="E33" s="34"/>
       <c r="F33" s="20" t="s">
         <v>127</v>
@@ -5350,7 +5347,7 @@
       <c r="L33" s="20"/>
     </row>
     <row r="34" spans="4:12" s="202" customFormat="1">
-      <c r="D34" s="242"/>
+      <c r="D34" s="246"/>
       <c r="E34" s="87">
         <v>2</v>
       </c>
@@ -5373,7 +5370,7 @@
       <c r="L34" s="204"/>
     </row>
     <row r="35" spans="4:12">
-      <c r="D35" s="241" t="s">
+      <c r="D35" s="245" t="s">
         <v>136</v>
       </c>
       <c r="E35" s="78"/>
@@ -5390,7 +5387,7 @@
       <c r="L35" s="63"/>
     </row>
     <row r="36" spans="4:12">
-      <c r="D36" s="242"/>
+      <c r="D36" s="246"/>
       <c r="E36" s="34"/>
       <c r="F36" s="20" t="s">
         <v>110</v>
@@ -5405,7 +5402,7 @@
       <c r="L36" s="64"/>
     </row>
     <row r="37" spans="4:12">
-      <c r="D37" s="242"/>
+      <c r="D37" s="246"/>
       <c r="E37" s="34"/>
       <c r="F37" s="20" t="s">
         <v>115</v>
@@ -5420,7 +5417,7 @@
       <c r="L37" s="64"/>
     </row>
     <row r="38" spans="4:12">
-      <c r="D38" s="242"/>
+      <c r="D38" s="246"/>
       <c r="E38" s="34"/>
       <c r="F38" s="20" t="s">
         <v>119</v>
@@ -5435,7 +5432,7 @@
       <c r="L38" s="64"/>
     </row>
     <row r="39" spans="4:12">
-      <c r="D39" s="242"/>
+      <c r="D39" s="246"/>
       <c r="E39" s="34"/>
       <c r="F39" s="20" t="s">
         <v>123</v>
@@ -5450,7 +5447,7 @@
       <c r="L39" s="64"/>
     </row>
     <row r="40" spans="4:12">
-      <c r="D40" s="242"/>
+      <c r="D40" s="246"/>
       <c r="E40" s="34"/>
       <c r="F40" s="20" t="s">
         <v>127</v>
@@ -5465,7 +5462,7 @@
       <c r="L40" s="64"/>
     </row>
     <row r="41" spans="4:12">
-      <c r="D41" s="243"/>
+      <c r="D41" s="247"/>
       <c r="E41" s="79"/>
       <c r="F41" s="65" t="s">
         <v>131</v>
@@ -5480,7 +5477,7 @@
       <c r="L41" s="67"/>
     </row>
     <row r="42" spans="4:12">
-      <c r="D42" s="235" t="s">
+      <c r="D42" s="239" t="s">
         <v>144</v>
       </c>
       <c r="E42" s="80"/>
@@ -5503,7 +5500,7 @@
       <c r="L42" s="59"/>
     </row>
     <row r="43" spans="4:12">
-      <c r="D43" s="236"/>
+      <c r="D43" s="240"/>
       <c r="E43" s="87">
         <v>2</v>
       </c>
@@ -5526,7 +5523,7 @@
       <c r="L43" s="150"/>
     </row>
     <row r="44" spans="4:12" s="38" customFormat="1">
-      <c r="D44" s="238"/>
+      <c r="D44" s="242"/>
       <c r="E44" s="152"/>
       <c r="F44" s="153" t="s">
         <v>153</v>
@@ -5543,7 +5540,7 @@
       <c r="L44" s="153"/>
     </row>
     <row r="45" spans="4:12">
-      <c r="D45" s="236"/>
+      <c r="D45" s="240"/>
       <c r="E45" s="151">
         <v>1</v>
       </c>
@@ -5566,7 +5563,7 @@
       <c r="L45" s="27"/>
     </row>
     <row r="46" spans="4:12">
-      <c r="D46" s="236"/>
+      <c r="D46" s="240"/>
       <c r="E46" s="34">
         <v>1</v>
       </c>
@@ -5589,7 +5586,7 @@
       <c r="L46" s="20"/>
     </row>
     <row r="47" spans="4:12">
-      <c r="D47" s="236"/>
+      <c r="D47" s="240"/>
       <c r="E47" s="87">
         <v>3</v>
       </c>
@@ -5612,7 +5609,7 @@
       <c r="L47" s="22"/>
     </row>
     <row r="48" spans="4:12">
-      <c r="D48" s="236"/>
+      <c r="D48" s="240"/>
       <c r="E48" s="87">
         <v>2</v>
       </c>
@@ -5631,7 +5628,7 @@
       <c r="L48" s="20"/>
     </row>
     <row r="49" spans="4:12">
-      <c r="D49" s="236"/>
+      <c r="D49" s="240"/>
       <c r="E49" s="87">
         <v>2</v>
       </c>
@@ -5647,7 +5644,7 @@
       <c r="L49" s="20"/>
     </row>
     <row r="50" spans="4:12">
-      <c r="D50" s="236"/>
+      <c r="D50" s="240"/>
       <c r="E50" s="87">
         <v>2</v>
       </c>
@@ -5666,7 +5663,7 @@
       <c r="L50" s="20"/>
     </row>
     <row r="51" spans="4:12">
-      <c r="D51" s="236"/>
+      <c r="D51" s="240"/>
       <c r="E51" s="87">
         <v>2</v>
       </c>
@@ -5685,7 +5682,7 @@
       <c r="L51" s="20"/>
     </row>
     <row r="52" spans="4:12">
-      <c r="D52" s="236"/>
+      <c r="D52" s="240"/>
       <c r="E52" s="87">
         <v>2</v>
       </c>
@@ -5704,7 +5701,7 @@
       <c r="L52" s="20"/>
     </row>
     <row r="53" spans="4:12">
-      <c r="D53" s="236"/>
+      <c r="D53" s="240"/>
       <c r="E53" s="87">
         <v>2</v>
       </c>
@@ -5723,7 +5720,7 @@
       <c r="L53" s="20"/>
     </row>
     <row r="54" spans="4:12">
-      <c r="D54" s="236"/>
+      <c r="D54" s="240"/>
       <c r="E54" s="87">
         <v>2</v>
       </c>
@@ -5740,7 +5737,7 @@
       <c r="L54" s="20"/>
     </row>
     <row r="55" spans="4:12">
-      <c r="D55" s="236"/>
+      <c r="D55" s="240"/>
       <c r="E55" s="87">
         <v>2</v>
       </c>
@@ -5757,7 +5754,7 @@
       <c r="L55" s="20"/>
     </row>
     <row r="56" spans="4:12">
-      <c r="D56" s="236"/>
+      <c r="D56" s="240"/>
       <c r="E56" s="87">
         <v>2</v>
       </c>
@@ -5776,7 +5773,7 @@
       <c r="L56" s="20"/>
     </row>
     <row r="57" spans="4:12" s="38" customFormat="1">
-      <c r="D57" s="236"/>
+      <c r="D57" s="240"/>
       <c r="E57" s="87">
         <v>2</v>
       </c>
@@ -5799,7 +5796,7 @@
       <c r="L57" s="40"/>
     </row>
     <row r="58" spans="4:12">
-      <c r="D58" s="236"/>
+      <c r="D58" s="240"/>
       <c r="E58" s="82"/>
       <c r="F58" s="47" t="s">
         <v>192</v>
@@ -5818,7 +5815,7 @@
       <c r="L58" s="44"/>
     </row>
     <row r="59" spans="4:12">
-      <c r="D59" s="236"/>
+      <c r="D59" s="240"/>
       <c r="E59" s="229">
         <v>3</v>
       </c>
@@ -5839,7 +5836,7 @@
       <c r="L59" s="44"/>
     </row>
     <row r="60" spans="4:12">
-      <c r="D60" s="236"/>
+      <c r="D60" s="240"/>
       <c r="E60" s="229">
         <v>3</v>
       </c>
@@ -5860,7 +5857,7 @@
       <c r="L60" s="44"/>
     </row>
     <row r="61" spans="4:12">
-      <c r="D61" s="236"/>
+      <c r="D61" s="240"/>
       <c r="E61" s="34"/>
       <c r="F61" s="27" t="s">
         <v>203</v>
@@ -5875,7 +5872,7 @@
       <c r="L61" s="20"/>
     </row>
     <row r="62" spans="4:12">
-      <c r="D62" s="236"/>
+      <c r="D62" s="240"/>
       <c r="E62" s="34"/>
       <c r="F62" s="20" t="s">
         <v>205</v>
@@ -5890,7 +5887,7 @@
       <c r="L62" s="20"/>
     </row>
     <row r="63" spans="4:12">
-      <c r="D63" s="236"/>
+      <c r="D63" s="240"/>
       <c r="E63" s="34"/>
       <c r="F63" s="29" t="s">
         <v>207</v>
@@ -5905,7 +5902,7 @@
       <c r="L63" s="20"/>
     </row>
     <row r="64" spans="4:12">
-      <c r="D64" s="237"/>
+      <c r="D64" s="241"/>
       <c r="E64" s="82"/>
       <c r="F64" s="48" t="s">
         <v>209</v>
@@ -5924,7 +5921,7 @@
       <c r="L64" s="44"/>
     </row>
     <row r="65" spans="4:12">
-      <c r="D65" s="239" t="s">
+      <c r="D65" s="243" t="s">
         <v>212</v>
       </c>
       <c r="E65" s="82"/>
@@ -5947,7 +5944,7 @@
       <c r="L65" s="44"/>
     </row>
     <row r="66" spans="4:12">
-      <c r="D66" s="239"/>
+      <c r="D66" s="243"/>
       <c r="E66" s="82"/>
       <c r="F66" s="51" t="s">
         <v>218</v>
@@ -5968,7 +5965,7 @@
       <c r="L66" s="44"/>
     </row>
     <row r="67" spans="4:12">
-      <c r="D67" s="239"/>
+      <c r="D67" s="243"/>
       <c r="E67" s="81"/>
       <c r="F67" s="51" t="s">
         <v>220</v>
@@ -5989,7 +5986,7 @@
       <c r="L67" s="44"/>
     </row>
     <row r="68" spans="4:12" ht="15" customHeight="1">
-      <c r="D68" s="239"/>
+      <c r="D68" s="243"/>
       <c r="E68" s="87">
         <v>2</v>
       </c>
@@ -6006,7 +6003,7 @@
       <c r="L68" s="20"/>
     </row>
     <row r="69" spans="4:12">
-      <c r="D69" s="239"/>
+      <c r="D69" s="243"/>
       <c r="E69" s="81">
         <v>1</v>
       </c>
@@ -6029,7 +6026,7 @@
       <c r="L69" s="20"/>
     </row>
     <row r="70" spans="4:12" s="69" customFormat="1">
-      <c r="D70" s="239"/>
+      <c r="D70" s="243"/>
       <c r="E70" s="83" t="s">
         <v>228</v>
       </c>
@@ -6052,7 +6049,7 @@
       <c r="L70" s="68"/>
     </row>
     <row r="71" spans="4:12">
-      <c r="D71" s="239"/>
+      <c r="D71" s="243"/>
       <c r="E71" s="87">
         <v>2</v>
       </c>
@@ -6075,7 +6072,7 @@
       <c r="L71" s="20"/>
     </row>
     <row r="72" spans="4:12" s="69" customFormat="1">
-      <c r="D72" s="239"/>
+      <c r="D72" s="243"/>
       <c r="E72" s="87">
         <v>2</v>
       </c>
@@ -6098,7 +6095,7 @@
       <c r="L72" s="68"/>
     </row>
     <row r="73" spans="4:12" s="69" customFormat="1">
-      <c r="D73" s="239"/>
+      <c r="D73" s="243"/>
       <c r="E73" s="85"/>
       <c r="F73" s="95" t="s">
         <v>235</v>
@@ -6117,7 +6114,7 @@
       <c r="L73" s="68"/>
     </row>
     <row r="74" spans="4:12">
-      <c r="D74" s="239"/>
+      <c r="D74" s="243"/>
       <c r="E74" s="87">
         <v>3</v>
       </c>
@@ -6140,7 +6137,7 @@
       <c r="L74" s="20"/>
     </row>
     <row r="75" spans="4:12">
-      <c r="D75" s="239"/>
+      <c r="D75" s="243"/>
       <c r="E75" s="97"/>
       <c r="F75" s="35" t="s">
         <v>241</v>
@@ -6155,7 +6152,7 @@
       <c r="L75" s="20"/>
     </row>
     <row r="76" spans="4:12">
-      <c r="D76" s="239"/>
+      <c r="D76" s="243"/>
       <c r="E76" s="87"/>
       <c r="F76" s="98" t="s">
         <v>243</v>
@@ -6171,7 +6168,7 @@
       <c r="L76" s="20"/>
     </row>
     <row r="77" spans="4:12">
-      <c r="D77" s="239"/>
+      <c r="D77" s="243"/>
       <c r="E77" s="83" t="s">
         <v>228</v>
       </c>
@@ -6194,7 +6191,7 @@
       <c r="L77" s="20"/>
     </row>
     <row r="78" spans="4:12">
-      <c r="D78" s="239"/>
+      <c r="D78" s="243"/>
       <c r="E78" s="34"/>
       <c r="F78" s="20" t="s">
         <v>251</v>
@@ -6215,7 +6212,7 @@
       <c r="L78" s="20"/>
     </row>
     <row r="79" spans="4:12">
-      <c r="D79" s="239"/>
+      <c r="D79" s="243"/>
       <c r="E79" s="77"/>
       <c r="F79" s="29" t="s">
         <v>256</v>
@@ -6236,7 +6233,7 @@
       <c r="L79" s="29"/>
     </row>
     <row r="80" spans="4:12">
-      <c r="D80" s="239"/>
+      <c r="D80" s="243"/>
       <c r="E80" s="129"/>
       <c r="F80" s="124" t="s">
         <v>260</v>
@@ -6257,7 +6254,7 @@
       <c r="L80" s="124"/>
     </row>
     <row r="81" spans="4:12">
-      <c r="D81" s="239"/>
+      <c r="D81" s="243"/>
       <c r="E81" s="129"/>
       <c r="F81" s="124" t="s">
         <v>263</v>
@@ -6278,7 +6275,7 @@
       <c r="L81" s="124"/>
     </row>
     <row r="82" spans="4:12">
-      <c r="D82" s="239"/>
+      <c r="D82" s="243"/>
       <c r="E82" s="129"/>
       <c r="F82" s="124" t="s">
         <v>265</v>
@@ -6299,7 +6296,7 @@
       <c r="L82" s="124"/>
     </row>
     <row r="83" spans="4:12">
-      <c r="D83" s="239"/>
+      <c r="D83" s="243"/>
       <c r="E83" s="128"/>
       <c r="F83" s="127" t="s">
         <v>145</v>
@@ -6320,7 +6317,7 @@
       <c r="L83" s="124"/>
     </row>
     <row r="84" spans="4:12">
-      <c r="D84" s="239"/>
+      <c r="D84" s="243"/>
       <c r="E84" s="85"/>
       <c r="F84" s="124" t="s">
         <v>150</v>
@@ -6341,7 +6338,7 @@
       <c r="L84" s="124"/>
     </row>
     <row r="85" spans="4:12">
-      <c r="D85" s="239"/>
+      <c r="D85" s="243"/>
       <c r="E85" s="82"/>
       <c r="F85" s="44" t="s">
         <v>153</v>
@@ -6358,7 +6355,7 @@
       <c r="L85" s="209"/>
     </row>
     <row r="86" spans="4:12">
-      <c r="D86" s="239"/>
+      <c r="D86" s="243"/>
       <c r="E86" s="76"/>
       <c r="F86" s="100" t="s">
         <v>156</v>
@@ -6379,7 +6376,7 @@
       <c r="L86" s="42"/>
     </row>
     <row r="87" spans="4:12">
-      <c r="D87" s="239"/>
+      <c r="D87" s="243"/>
       <c r="E87" s="34"/>
       <c r="F87" s="44" t="s">
         <v>161</v>
@@ -6400,7 +6397,7 @@
       <c r="L87" s="44"/>
     </row>
     <row r="88" spans="4:12">
-      <c r="D88" s="239"/>
+      <c r="D88" s="243"/>
       <c r="E88" s="85"/>
       <c r="F88" s="44" t="s">
         <v>166</v>
@@ -6421,7 +6418,7 @@
       <c r="L88" s="102"/>
     </row>
     <row r="89" spans="4:12">
-      <c r="D89" s="239"/>
+      <c r="D89" s="243"/>
       <c r="E89" s="85"/>
       <c r="F89" s="44" t="s">
         <v>168</v>
@@ -6438,7 +6435,7 @@
       <c r="L89" s="44"/>
     </row>
     <row r="90" spans="4:12">
-      <c r="D90" s="239"/>
+      <c r="D90" s="243"/>
       <c r="E90" s="85"/>
       <c r="F90" s="44" t="s">
         <v>170</v>
@@ -6453,7 +6450,7 @@
       <c r="L90" s="44"/>
     </row>
     <row r="91" spans="4:12">
-      <c r="D91" s="239"/>
+      <c r="D91" s="243"/>
       <c r="E91" s="85"/>
       <c r="F91" s="44" t="s">
         <v>172</v>
@@ -6470,7 +6467,7 @@
       <c r="L91" s="44"/>
     </row>
     <row r="92" spans="4:12">
-      <c r="D92" s="239"/>
+      <c r="D92" s="243"/>
       <c r="E92" s="85"/>
       <c r="F92" s="44" t="s">
         <v>174</v>
@@ -6487,7 +6484,7 @@
       <c r="L92" s="44"/>
     </row>
     <row r="93" spans="4:12">
-      <c r="D93" s="239"/>
+      <c r="D93" s="243"/>
       <c r="E93" s="85"/>
       <c r="F93" s="44" t="s">
         <v>176</v>
@@ -6504,7 +6501,7 @@
       <c r="L93" s="44"/>
     </row>
     <row r="94" spans="4:12">
-      <c r="D94" s="239"/>
+      <c r="D94" s="243"/>
       <c r="E94" s="85"/>
       <c r="F94" s="44" t="s">
         <v>178</v>
@@ -6521,7 +6518,7 @@
       <c r="L94" s="44"/>
     </row>
     <row r="95" spans="4:12">
-      <c r="D95" s="239"/>
+      <c r="D95" s="243"/>
       <c r="E95" s="85"/>
       <c r="F95" s="44" t="s">
         <v>181</v>
@@ -6536,7 +6533,7 @@
       <c r="L95" s="44"/>
     </row>
     <row r="96" spans="4:12">
-      <c r="D96" s="239"/>
+      <c r="D96" s="243"/>
       <c r="E96" s="85"/>
       <c r="F96" s="44" t="s">
         <v>183</v>
@@ -6551,7 +6548,7 @@
       <c r="L96" s="44"/>
     </row>
     <row r="97" spans="4:12">
-      <c r="D97" s="239"/>
+      <c r="D97" s="243"/>
       <c r="E97" s="85"/>
       <c r="F97" s="44" t="s">
         <v>185</v>
@@ -6568,7 +6565,7 @@
       <c r="L97" s="44"/>
     </row>
     <row r="98" spans="4:12" s="38" customFormat="1">
-      <c r="D98" s="239"/>
+      <c r="D98" s="243"/>
       <c r="E98" s="81"/>
       <c r="F98" s="44" t="s">
         <v>187</v>
@@ -6589,7 +6586,7 @@
       <c r="L98" s="106"/>
     </row>
     <row r="99" spans="4:12">
-      <c r="D99" s="239"/>
+      <c r="D99" s="243"/>
       <c r="E99" s="82"/>
       <c r="F99" s="47" t="s">
         <v>192</v>
@@ -6608,7 +6605,7 @@
       <c r="L99" s="44"/>
     </row>
     <row r="100" spans="4:12">
-      <c r="D100" s="239"/>
+      <c r="D100" s="243"/>
       <c r="E100" s="82"/>
       <c r="F100" s="48" t="s">
         <v>195</v>
@@ -6627,7 +6624,7 @@
       <c r="L100" s="44"/>
     </row>
     <row r="101" spans="4:12">
-      <c r="D101" s="239"/>
+      <c r="D101" s="243"/>
       <c r="E101" s="82"/>
       <c r="F101" s="48" t="s">
         <v>199</v>
@@ -6646,7 +6643,7 @@
       <c r="L101" s="44"/>
     </row>
     <row r="102" spans="4:12" s="112" customFormat="1">
-      <c r="D102" s="239"/>
+      <c r="D102" s="243"/>
       <c r="E102" s="75"/>
       <c r="F102" s="113" t="s">
         <v>203</v>
@@ -6661,7 +6658,7 @@
       <c r="L102" s="114"/>
     </row>
     <row r="103" spans="4:12" s="112" customFormat="1">
-      <c r="D103" s="239"/>
+      <c r="D103" s="243"/>
       <c r="E103" s="75"/>
       <c r="F103" s="114" t="s">
         <v>205</v>
@@ -6676,7 +6673,7 @@
       <c r="L103" s="114"/>
     </row>
     <row r="104" spans="4:12" s="112" customFormat="1">
-      <c r="D104" s="239"/>
+      <c r="D104" s="243"/>
       <c r="E104" s="130"/>
       <c r="F104" s="115" t="s">
         <v>207</v>
@@ -6691,7 +6688,7 @@
       <c r="L104" s="115"/>
     </row>
     <row r="105" spans="4:12" s="112" customFormat="1">
-      <c r="D105" s="240"/>
+      <c r="D105" s="244"/>
       <c r="E105" s="136"/>
       <c r="F105" s="133" t="s">
         <v>209</v>
@@ -6710,7 +6707,7 @@
       <c r="L105" s="135"/>
     </row>
     <row r="106" spans="4:12" s="112" customFormat="1">
-      <c r="D106" s="240"/>
+      <c r="D106" s="244"/>
       <c r="E106" s="136"/>
       <c r="F106" s="133" t="s">
         <v>50</v>
@@ -6731,7 +6728,7 @@
       <c r="L106" s="135"/>
     </row>
     <row r="107" spans="4:12" s="112" customFormat="1" ht="28.5" customHeight="1">
-      <c r="D107" s="240"/>
+      <c r="D107" s="244"/>
       <c r="E107" s="178"/>
       <c r="F107" s="179" t="s">
         <v>55</v>
@@ -6752,7 +6749,7 @@
       <c r="L107" s="181"/>
     </row>
     <row r="108" spans="4:12" s="112" customFormat="1" ht="28.5" customHeight="1">
-      <c r="D108" s="240"/>
+      <c r="D108" s="244"/>
       <c r="E108" s="182"/>
       <c r="F108" s="183" t="s">
         <v>60</v>
@@ -6767,7 +6764,7 @@
       <c r="L108" s="184"/>
     </row>
     <row r="109" spans="4:12" s="112" customFormat="1">
-      <c r="D109" s="239"/>
+      <c r="D109" s="243"/>
       <c r="E109" s="132"/>
       <c r="F109" s="113" t="s">
         <v>62</v>
@@ -6788,7 +6785,7 @@
       <c r="L109" s="113"/>
     </row>
     <row r="110" spans="4:12" s="112" customFormat="1" ht="30">
-      <c r="D110" s="239"/>
+      <c r="D110" s="243"/>
       <c r="E110" s="75"/>
       <c r="F110" s="114" t="s">
         <v>67</v>
@@ -6809,7 +6806,7 @@
       <c r="L110" s="114"/>
     </row>
     <row r="111" spans="4:12" s="112" customFormat="1">
-      <c r="D111" s="239"/>
+      <c r="D111" s="243"/>
       <c r="E111" s="75"/>
       <c r="F111" s="114" t="s">
         <v>72</v>
@@ -6830,7 +6827,7 @@
       <c r="L111" s="114"/>
     </row>
     <row r="112" spans="4:12" s="112" customFormat="1" ht="30">
-      <c r="D112" s="239"/>
+      <c r="D112" s="243"/>
       <c r="E112" s="75"/>
       <c r="F112" s="114" t="s">
         <v>77</v>
@@ -6851,7 +6848,7 @@
       <c r="L112" s="114"/>
     </row>
     <row r="113" spans="1:12" s="112" customFormat="1">
-      <c r="D113" s="239"/>
+      <c r="D113" s="243"/>
       <c r="E113" s="75"/>
       <c r="F113" s="114" t="s">
         <v>82</v>
@@ -6872,7 +6869,7 @@
       <c r="L113" s="114"/>
     </row>
     <row r="114" spans="1:12" s="112" customFormat="1">
-      <c r="D114" s="239"/>
+      <c r="D114" s="243"/>
       <c r="E114" s="86"/>
       <c r="F114" s="114" t="s">
         <v>87</v>
@@ -6893,7 +6890,7 @@
       <c r="L114" s="114"/>
     </row>
     <row r="115" spans="1:12" s="112" customFormat="1">
-      <c r="D115" s="239"/>
+      <c r="D115" s="243"/>
       <c r="E115" s="120"/>
       <c r="F115" s="115" t="s">
         <v>89</v>
@@ -6914,7 +6911,7 @@
       <c r="L115" s="115"/>
     </row>
     <row r="116" spans="1:12" s="112" customFormat="1" ht="30">
-      <c r="D116" s="239"/>
+      <c r="D116" s="243"/>
       <c r="E116" s="89"/>
       <c r="F116" s="107" t="s">
         <v>94</v>
@@ -6929,7 +6926,7 @@
       <c r="L116" s="108"/>
     </row>
     <row r="117" spans="1:12" s="112" customFormat="1">
-      <c r="D117" s="239"/>
+      <c r="D117" s="243"/>
       <c r="E117" s="143"/>
       <c r="F117" s="144" t="s">
         <v>96</v>
@@ -6950,7 +6947,7 @@
       <c r="L117" s="108"/>
     </row>
     <row r="118" spans="1:12" s="138" customFormat="1">
-      <c r="D118" s="240"/>
+      <c r="D118" s="244"/>
       <c r="E118" s="146"/>
       <c r="F118" s="124" t="s">
         <v>303</v>
@@ -6971,7 +6968,7 @@
       <c r="L118" s="139"/>
     </row>
     <row r="119" spans="1:12" s="138" customFormat="1">
-      <c r="D119" s="240"/>
+      <c r="D119" s="244"/>
       <c r="E119" s="146"/>
       <c r="F119" s="124" t="s">
         <v>306</v>
@@ -7003,11 +7000,6 @@
     <filterColumn colId="0" showButton="0"/>
   </autoFilter>
   <mergeCells count="14">
-    <mergeCell ref="J2:O4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A6:D6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D15:D26"/>
     <mergeCell ref="D11:D13"/>
@@ -7017,111 +7009,116 @@
     <mergeCell ref="D35:D41"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A7:D7"/>
+    <mergeCell ref="J2:O4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A6:D6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D28">
-    <cfRule type="expression" dxfId="245" priority="93">
+    <cfRule type="expression" dxfId="245" priority="95">
+      <formula>OR($AD28="X",$AC28="X")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="244" priority="97">
+      <formula>AND(NOT(ISBLANK($W28)),ISBLANK($AC28),ISBLANK($AD28))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="243" priority="96">
+      <formula>$AC28=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="242" priority="94">
+      <formula>$AD28=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="241" priority="93">
       <formula>AND($AD28=1,$AC28=1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="244" priority="94">
-      <formula>$AD28=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="243" priority="95">
-      <formula>OR($AD28="X",$AC28="X")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="242" priority="96">
-      <formula>$AC28=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="241" priority="97">
-      <formula>AND(NOT(ISBLANK($W28)),ISBLANK($AC28),ISBLANK($AD28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="expression" dxfId="240" priority="53">
+    <cfRule type="expression" dxfId="240" priority="57">
+      <formula>AND(NOT(ISBLANK($W35)),ISBLANK($AC35),ISBLANK($AD35))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="239" priority="53">
       <formula>AND($AD35=1,$AC35=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="239" priority="54">
+    <cfRule type="expression" dxfId="238" priority="54">
       <formula>$AD35=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="238" priority="55">
+    <cfRule type="expression" dxfId="237" priority="55">
       <formula>OR($AD35="X",$AC35="X")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="237" priority="56">
+    <cfRule type="expression" dxfId="236" priority="56">
       <formula>$AC35=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="236" priority="57">
-      <formula>AND(NOT(ISBLANK($W35)),ISBLANK($AC35),ISBLANK($AD35))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="expression" dxfId="235" priority="88">
+    <cfRule type="expression" dxfId="235" priority="89">
+      <formula>#REF!=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="234" priority="88">
       <formula>AND(#REF!=1,#REF!=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="234" priority="89">
-      <formula>#REF!=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="233" priority="90">
-      <formula>OR(#REF!="X",#REF!="X")</formula>
+    <cfRule type="expression" dxfId="233" priority="92">
+      <formula>AND(NOT(ISBLANK(#REF!)),ISBLANK(#REF!),ISBLANK(#REF!))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="232" priority="91">
       <formula>#REF!=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="231" priority="92">
-      <formula>AND(NOT(ISBLANK(#REF!)),ISBLANK(#REF!),ISBLANK(#REF!))</formula>
+    <cfRule type="expression" dxfId="231" priority="90">
+      <formula>OR(#REF!="X",#REF!="X")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83">
     <cfRule type="expression" dxfId="230" priority="24">
       <formula>AND(#REF!=1,#REF!=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="229" priority="25">
+    <cfRule type="expression" dxfId="229" priority="26">
+      <formula>OR(#REF!="X",#REF!="X")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="228" priority="27">
       <formula>#REF!=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="228" priority="26">
-      <formula>OR(#REF!="X",#REF!="X")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="227" priority="27">
+    <cfRule type="expression" dxfId="227" priority="28">
+      <formula>AND(NOT(ISBLANK(#REF!)),ISBLANK(#REF!),ISBLANK(#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="226" priority="25">
       <formula>#REF!=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="226" priority="28">
-      <formula>AND(NOT(ISBLANK(#REF!)),ISBLANK(#REF!),ISBLANK(#REF!))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="expression" dxfId="225" priority="104">
+    <cfRule type="expression" dxfId="225" priority="109">
+      <formula>AND(NOT(ISBLANK($W42)),ISBLANK($AC42),ISBLANK($AD42))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="224" priority="108">
+      <formula>$AC42=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="223" priority="107">
+      <formula>OR($AD42="X",$AC42="X")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="222" priority="104">
       <formula>AND($R42="X",$B42&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="224" priority="105">
+    <cfRule type="expression" dxfId="221" priority="105">
       <formula>AND($AD42=1,$AC42=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="223" priority="106">
+    <cfRule type="expression" dxfId="220" priority="106">
       <formula>$AD42=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="222" priority="107">
-      <formula>OR($AD42="X",$AC42="X")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="221" priority="108">
-      <formula>$AC42=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="220" priority="109">
-      <formula>AND(NOT(ISBLANK($W42)),ISBLANK($AC42),ISBLANK($AD42))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F65:F68 G68:G79">
-    <cfRule type="expression" dxfId="219" priority="77">
-      <formula>AND($AD65=1,$AC65=1)</formula>
+    <cfRule type="expression" dxfId="219" priority="79">
+      <formula>OR($AD65="X",$AC65="X")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="218" priority="78">
       <formula>$AD65=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="217" priority="79">
-      <formula>OR($AD65="X",$AC65="X")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="216" priority="80">
+    <cfRule type="expression" dxfId="217" priority="77">
+      <formula>AND($AD65=1,$AC65=1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="216" priority="81">
+      <formula>AND(NOT(ISBLANK($W65)),ISBLANK($AC65),ISBLANK($AD65))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="215" priority="80">
       <formula>$AC65=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="215" priority="81">
-      <formula>AND(NOT(ISBLANK($W65)),ISBLANK($AC65),ISBLANK($AD65))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="214" priority="110">
       <formula>AND($R65="X",$B65&lt;&gt;"")</formula>
@@ -7148,123 +7145,123 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F58:J58">
-    <cfRule type="expression" dxfId="207" priority="58">
+    <cfRule type="expression" dxfId="207" priority="59">
+      <formula>AND($AE58=1,$AD58=1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="206" priority="60">
+      <formula>$AE58=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="205" priority="61">
+      <formula>OR($AE58="X",$AD58="X")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="204" priority="62">
+      <formula>$AD58=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="203" priority="63">
+      <formula>AND(NOT(ISBLANK($X58)),ISBLANK($AD58),ISBLANK($AE58))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="202" priority="58">
       <formula>AND($S58="X",OR($B58&lt;&gt;"",$D58&lt;&gt;""))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="206" priority="59">
-      <formula>AND($AE58=1,$AD58=1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="205" priority="60">
-      <formula>$AE58=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="204" priority="61">
-      <formula>OR($AE58="X",$AD58="X")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="203" priority="62">
-      <formula>$AD58=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="202" priority="63">
-      <formula>AND(NOT(ISBLANK($X58)),ISBLANK($AD58),ISBLANK($AE58))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F99:J99">
-    <cfRule type="expression" dxfId="201" priority="18">
+    <cfRule type="expression" dxfId="201" priority="23">
+      <formula>AND(NOT(ISBLANK($X99)),ISBLANK($AD99),ISBLANK($AE99))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="200" priority="22">
+      <formula>$AD99=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="199" priority="21">
+      <formula>OR($AE99="X",$AD99="X")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="198" priority="20">
+      <formula>$AE99=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="197" priority="19">
+      <formula>AND($AE99=1,$AD99=1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="196" priority="18">
       <formula>AND($S99="X",OR($B99&lt;&gt;"",$D99&lt;&gt;""))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="200" priority="19">
-      <formula>AND($AE99=1,$AD99=1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="199" priority="20">
-      <formula>$AE99=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="198" priority="21">
-      <formula>OR($AE99="X",$AD99="X")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="197" priority="22">
-      <formula>$AD99=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="196" priority="23">
-      <formula>AND(NOT(ISBLANK($X99)),ISBLANK($AD99),ISBLANK($AE99))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G59:G60">
-    <cfRule type="expression" dxfId="195" priority="47">
+    <cfRule type="expression" dxfId="195" priority="49">
+      <formula>$AE59=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="194" priority="50">
+      <formula>OR($AE59="X",$AD59="X")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="193" priority="51">
+      <formula>$AD59=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="192" priority="52">
+      <formula>AND(NOT(ISBLANK($X59)),ISBLANK($AD59),ISBLANK($AE59))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="191" priority="48">
+      <formula>AND($AE59=1,$AD59=1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="190" priority="47">
       <formula>AND($S59="X",OR($B59&lt;&gt;"",$D59&lt;&gt;""))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="194" priority="48">
-      <formula>AND($AE59=1,$AD59=1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="193" priority="49">
-      <formula>$AE59=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="192" priority="50">
-      <formula>OR($AE59="X",$AD59="X")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="191" priority="51">
-      <formula>$AD59=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="190" priority="52">
-      <formula>AND(NOT(ISBLANK($X59)),ISBLANK($AD59),ISBLANK($AE59))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G64:G67">
-    <cfRule type="expression" dxfId="189" priority="41">
-      <formula>AND($S64="X",OR($B64&lt;&gt;"",$D64&lt;&gt;""))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="188" priority="42">
-      <formula>AND($AE64=1,$AD64=1)</formula>
+    <cfRule type="expression" dxfId="189" priority="45">
+      <formula>$AD64=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="188" priority="44">
+      <formula>OR($AE64="X",$AD64="X")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="187" priority="43">
       <formula>$AE64=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="44">
-      <formula>OR($AE64="X",$AD64="X")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="185" priority="45">
-      <formula>$AD64=1</formula>
+    <cfRule type="expression" dxfId="186" priority="42">
+      <formula>AND($AE64=1,$AD64=1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="185" priority="41">
+      <formula>AND($S64="X",OR($B64&lt;&gt;"",$D64&lt;&gt;""))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="184" priority="46">
       <formula>AND(NOT(ISBLANK($X64)),ISBLANK($AD64),ISBLANK($AE64))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G100:G101">
-    <cfRule type="expression" dxfId="183" priority="12">
+    <cfRule type="expression" dxfId="183" priority="17">
+      <formula>AND(NOT(ISBLANK($X100)),ISBLANK($AD100),ISBLANK($AE100))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="182" priority="16">
+      <formula>$AD100=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="181" priority="15">
+      <formula>OR($AE100="X",$AD100="X")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="180" priority="14">
+      <formula>$AE100=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="179" priority="13">
+      <formula>AND($AE100=1,$AD100=1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="178" priority="12">
       <formula>AND($S100="X",OR($B100&lt;&gt;"",$D100&lt;&gt;""))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="182" priority="13">
-      <formula>AND($AE100=1,$AD100=1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="181" priority="14">
-      <formula>$AE100=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="180" priority="15">
-      <formula>OR($AE100="X",$AD100="X")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="179" priority="16">
-      <formula>$AD100=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="178" priority="17">
-      <formula>AND(NOT(ISBLANK($X100)),ISBLANK($AD100),ISBLANK($AE100))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G105">
     <cfRule type="expression" dxfId="177" priority="6">
       <formula>AND($S105="X",OR($B105&lt;&gt;"",$D105&lt;&gt;""))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="176" priority="7">
-      <formula>AND($AE105=1,$AD105=1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="175" priority="8">
-      <formula>$AE105=1</formula>
+    <cfRule type="expression" dxfId="176" priority="11">
+      <formula>AND(NOT(ISBLANK($X105)),ISBLANK($AD105),ISBLANK($AE105))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="175" priority="10">
+      <formula>$AD105=1</formula>
     </cfRule>
     <cfRule type="expression" dxfId="174" priority="9">
       <formula>OR($AE105="X",$AD105="X")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="173" priority="10">
-      <formula>$AD105=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="172" priority="11">
-      <formula>AND(NOT(ISBLANK($X105)),ISBLANK($AD105),ISBLANK($AE105))</formula>
+    <cfRule type="expression" dxfId="173" priority="8">
+      <formula>$AE105=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="172" priority="7">
+      <formula>AND($AE105=1,$AD105=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
@@ -7288,8 +7285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E39679EB-3E9B-472F-B5A5-82E3B98361DA}">
   <dimension ref="A1:EV352"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -7309,19 +7306,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:152" ht="18.75">
-      <c r="A1" s="234" t="s">
+      <c r="A1" s="235" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="234"/>
+      <c r="B1" s="235"/>
       <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:152" s="1" customFormat="1" ht="18.75">
-      <c r="A2" s="234" t="s">
+      <c r="A2" s="235" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="234"/>
+      <c r="B2" s="235"/>
       <c r="C2" t="s">
         <v>312</v>
       </c>
@@ -7331,14 +7328,14 @@
       <c r="I2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="246" t="s">
+      <c r="J2" s="234" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="246"/>
-      <c r="L2" s="246"/>
-      <c r="M2" s="246"/>
-      <c r="N2" s="246"/>
-      <c r="O2" s="246"/>
+      <c r="K2" s="234"/>
+      <c r="L2" s="234"/>
+      <c r="M2" s="234"/>
+      <c r="N2" s="234"/>
+      <c r="O2" s="234"/>
       <c r="P2" s="216"/>
       <c r="Q2" s="216"/>
       <c r="R2" s="216"/>
@@ -7478,22 +7475,22 @@
       <c r="EV2" s="216"/>
     </row>
     <row r="3" spans="1:152" s="1" customFormat="1" ht="18.75">
-      <c r="A3" s="234" t="s">
+      <c r="A3" s="235" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="234"/>
+      <c r="B3" s="235"/>
       <c r="C3" t="s">
         <v>313</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3"/>
       <c r="H3" s="7"/>
-      <c r="J3" s="246"/>
-      <c r="K3" s="246"/>
-      <c r="L3" s="246"/>
-      <c r="M3" s="246"/>
-      <c r="N3" s="246"/>
-      <c r="O3" s="246"/>
+      <c r="J3" s="234"/>
+      <c r="K3" s="234"/>
+      <c r="L3" s="234"/>
+      <c r="M3" s="234"/>
+      <c r="N3" s="234"/>
+      <c r="O3" s="234"/>
       <c r="P3" s="216"/>
       <c r="Q3" s="216"/>
       <c r="R3" s="216"/>
@@ -7633,22 +7630,22 @@
       <c r="EV3" s="216"/>
     </row>
     <row r="4" spans="1:152" s="1" customFormat="1" ht="18.75">
-      <c r="A4" s="234" t="s">
+      <c r="A4" s="235" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="234"/>
+      <c r="B4" s="235"/>
       <c r="C4" t="s">
         <v>314</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4"/>
       <c r="H4" s="7"/>
-      <c r="J4" s="246"/>
-      <c r="K4" s="246"/>
-      <c r="L4" s="246"/>
-      <c r="M4" s="246"/>
-      <c r="N4" s="246"/>
-      <c r="O4" s="246"/>
+      <c r="J4" s="234"/>
+      <c r="K4" s="234"/>
+      <c r="L4" s="234"/>
+      <c r="M4" s="234"/>
+      <c r="N4" s="234"/>
+      <c r="O4" s="234"/>
       <c r="P4" s="216"/>
       <c r="Q4" s="216"/>
       <c r="R4" s="216"/>
@@ -7942,12 +7939,12 @@
       <c r="EV5" s="216"/>
     </row>
     <row r="6" spans="1:152" s="1" customFormat="1" ht="18.75">
-      <c r="A6" s="247" t="s">
+      <c r="A6" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="248"/>
-      <c r="C6" s="248"/>
-      <c r="D6" s="249"/>
+      <c r="B6" s="237"/>
+      <c r="C6" s="237"/>
+      <c r="D6" s="238"/>
       <c r="E6" s="5"/>
       <c r="F6" t="s">
         <v>315</v>
@@ -8098,12 +8095,12 @@
       <c r="EV6" s="216"/>
     </row>
     <row r="7" spans="1:152" s="1" customFormat="1" ht="18.75">
-      <c r="A7" s="245" t="s">
+      <c r="A7" s="249" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="245"/>
-      <c r="C7" s="245"/>
-      <c r="D7" s="245"/>
+      <c r="B7" s="249"/>
+      <c r="C7" s="249"/>
+      <c r="D7" s="249"/>
       <c r="E7" s="10"/>
       <c r="F7" t="s">
         <v>316</v>
@@ -8606,7 +8603,7 @@
     </row>
     <row r="11" spans="1:152" ht="16.5" customHeight="1">
       <c r="A11" s="167"/>
-      <c r="D11" s="235" t="s">
+      <c r="D11" s="239" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="74"/>
@@ -8630,7 +8627,7 @@
     </row>
     <row r="12" spans="1:152">
       <c r="A12" s="2"/>
-      <c r="D12" s="236"/>
+      <c r="D12" s="240"/>
       <c r="E12" s="74"/>
       <c r="F12" s="13" t="s">
         <v>36</v>
@@ -8652,13 +8649,13 @@
     </row>
     <row r="13" spans="1:152">
       <c r="A13" s="2"/>
-      <c r="D13" s="237"/>
+      <c r="D13" s="241"/>
       <c r="E13" s="74"/>
       <c r="F13" s="13" t="s">
         <v>39</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H13" s="14" t="s">
         <v>42</v>
@@ -8674,7 +8671,7 @@
     </row>
     <row r="14" spans="1:152">
       <c r="A14" s="2"/>
-      <c r="D14" s="235" t="s">
+      <c r="D14" s="239" t="s">
         <v>49</v>
       </c>
       <c r="E14" s="74" t="s">
@@ -8700,7 +8697,7 @@
     </row>
     <row r="15" spans="1:152" ht="28.5" customHeight="1">
       <c r="A15" s="2"/>
-      <c r="D15" s="236"/>
+      <c r="D15" s="240"/>
       <c r="E15" s="84" t="s">
         <v>323</v>
       </c>
@@ -8724,7 +8721,7 @@
     </row>
     <row r="16" spans="1:152" s="112" customFormat="1" ht="28.5" customHeight="1">
       <c r="A16" s="213"/>
-      <c r="D16" s="236"/>
+      <c r="D16" s="240"/>
       <c r="E16" s="186" t="s">
         <v>321</v>
       </c>
@@ -8888,7 +8885,7 @@
     </row>
     <row r="17" spans="1:152">
       <c r="A17" s="2"/>
-      <c r="D17" s="236"/>
+      <c r="D17" s="240"/>
       <c r="E17" s="85" t="s">
         <v>323</v>
       </c>
@@ -8912,7 +8909,7 @@
     </row>
     <row r="18" spans="1:152" s="112" customFormat="1" ht="30">
       <c r="A18" s="2"/>
-      <c r="D18" s="236"/>
+      <c r="D18" s="240"/>
       <c r="E18" s="75"/>
       <c r="F18" s="109" t="s">
         <v>67</v>
@@ -9074,7 +9071,7 @@
     </row>
     <row r="19" spans="1:152">
       <c r="A19" s="2"/>
-      <c r="D19" s="236"/>
+      <c r="D19" s="240"/>
       <c r="E19" s="34" t="s">
         <v>321</v>
       </c>
@@ -9098,7 +9095,7 @@
     </row>
     <row r="20" spans="1:152">
       <c r="A20" s="2"/>
-      <c r="D20" s="236"/>
+      <c r="D20" s="240"/>
       <c r="E20" s="34"/>
       <c r="F20" s="20" t="s">
         <v>77</v>
@@ -9120,7 +9117,7 @@
     </row>
     <row r="21" spans="1:152">
       <c r="A21" s="2"/>
-      <c r="D21" s="236"/>
+      <c r="D21" s="240"/>
       <c r="E21" s="34" t="s">
         <v>321</v>
       </c>
@@ -9144,7 +9141,7 @@
     </row>
     <row r="22" spans="1:152">
       <c r="A22" s="2"/>
-      <c r="D22" s="236"/>
+      <c r="D22" s="240"/>
       <c r="E22" s="85" t="s">
         <v>323</v>
       </c>
@@ -9168,7 +9165,7 @@
     </row>
     <row r="23" spans="1:152">
       <c r="A23" s="2"/>
-      <c r="D23" s="236"/>
+      <c r="D23" s="240"/>
       <c r="E23" s="87" t="s">
         <v>323</v>
       </c>
@@ -9194,7 +9191,7 @@
       <c r="A24" s="2"/>
       <c r="B24"/>
       <c r="C24"/>
-      <c r="D24" s="236"/>
+      <c r="D24" s="240"/>
       <c r="E24" s="189" t="s">
         <v>323</v>
       </c>
@@ -9212,7 +9209,7 @@
     </row>
     <row r="25" spans="1:152">
       <c r="A25" s="2"/>
-      <c r="D25" s="237"/>
+      <c r="D25" s="241"/>
       <c r="E25" s="89"/>
       <c r="F25" s="90" t="s">
         <v>96</v>
@@ -9260,7 +9257,7 @@
     </row>
     <row r="27" spans="1:152">
       <c r="A27" s="2"/>
-      <c r="D27" s="241" t="s">
+      <c r="D27" s="245" t="s">
         <v>104</v>
       </c>
       <c r="E27" s="76"/>
@@ -9284,7 +9281,7 @@
     </row>
     <row r="28" spans="1:152">
       <c r="A28" s="2"/>
-      <c r="D28" s="242"/>
+      <c r="D28" s="246"/>
       <c r="E28" s="34" t="s">
         <v>321</v>
       </c>
@@ -9308,7 +9305,7 @@
     </row>
     <row r="29" spans="1:152" s="69" customFormat="1">
       <c r="A29" s="2"/>
-      <c r="D29" s="242"/>
+      <c r="D29" s="246"/>
       <c r="E29" s="87" t="s">
         <v>323</v>
       </c>
@@ -9472,7 +9469,7 @@
     </row>
     <row r="30" spans="1:152">
       <c r="A30" s="2"/>
-      <c r="D30" s="242"/>
+      <c r="D30" s="246"/>
       <c r="E30" s="34" t="s">
         <v>321</v>
       </c>
@@ -9496,7 +9493,7 @@
     </row>
     <row r="31" spans="1:152">
       <c r="A31" s="2"/>
-      <c r="D31" s="242"/>
+      <c r="D31" s="246"/>
       <c r="E31" s="34"/>
       <c r="F31" s="20" t="s">
         <v>123</v>
@@ -9518,7 +9515,7 @@
     </row>
     <row r="32" spans="1:152">
       <c r="A32" s="2"/>
-      <c r="D32" s="242"/>
+      <c r="D32" s="246"/>
       <c r="E32" s="34"/>
       <c r="F32" s="20" t="s">
         <v>127</v>
@@ -9540,7 +9537,7 @@
     </row>
     <row r="33" spans="1:152">
       <c r="A33" s="2"/>
-      <c r="D33" s="242"/>
+      <c r="D33" s="246"/>
       <c r="E33" s="87" t="s">
         <v>323</v>
       </c>
@@ -9564,7 +9561,7 @@
     </row>
     <row r="34" spans="1:152">
       <c r="A34" s="2"/>
-      <c r="D34" s="241" t="s">
+      <c r="D34" s="245" t="s">
         <v>136</v>
       </c>
       <c r="E34" s="78"/>
@@ -9582,7 +9579,7 @@
     </row>
     <row r="35" spans="1:152">
       <c r="A35" s="2"/>
-      <c r="D35" s="242"/>
+      <c r="D35" s="246"/>
       <c r="E35" s="34"/>
       <c r="F35" s="20" t="s">
         <v>110</v>
@@ -9600,7 +9597,7 @@
     </row>
     <row r="36" spans="1:152">
       <c r="A36" s="2"/>
-      <c r="D36" s="242"/>
+      <c r="D36" s="246"/>
       <c r="E36" s="34"/>
       <c r="F36" s="20" t="s">
         <v>115</v>
@@ -9618,7 +9615,7 @@
     </row>
     <row r="37" spans="1:152">
       <c r="A37" s="2"/>
-      <c r="D37" s="242"/>
+      <c r="D37" s="246"/>
       <c r="E37" s="34"/>
       <c r="F37" s="20" t="s">
         <v>119</v>
@@ -9636,7 +9633,7 @@
     </row>
     <row r="38" spans="1:152">
       <c r="A38" s="2"/>
-      <c r="D38" s="242"/>
+      <c r="D38" s="246"/>
       <c r="E38" s="34"/>
       <c r="F38" s="20" t="s">
         <v>123</v>
@@ -9654,7 +9651,7 @@
     </row>
     <row r="39" spans="1:152">
       <c r="A39" s="2"/>
-      <c r="D39" s="242"/>
+      <c r="D39" s="246"/>
       <c r="E39" s="34"/>
       <c r="F39" s="20" t="s">
         <v>127</v>
@@ -9672,7 +9669,7 @@
     </row>
     <row r="40" spans="1:152">
       <c r="A40" s="2"/>
-      <c r="D40" s="243"/>
+      <c r="D40" s="247"/>
       <c r="E40" s="79"/>
       <c r="F40" s="65" t="s">
         <v>131</v>
@@ -9690,7 +9687,7 @@
     </row>
     <row r="41" spans="1:152">
       <c r="A41" s="2"/>
-      <c r="D41" s="235" t="s">
+      <c r="D41" s="239" t="s">
         <v>144</v>
       </c>
       <c r="E41" s="80"/>
@@ -9714,7 +9711,7 @@
     </row>
     <row r="42" spans="1:152">
       <c r="A42" s="2"/>
-      <c r="D42" s="236"/>
+      <c r="D42" s="240"/>
       <c r="E42" s="147" t="s">
         <v>321</v>
       </c>
@@ -9738,7 +9735,7 @@
     </row>
     <row r="43" spans="1:152" s="38" customFormat="1">
       <c r="A43" s="2"/>
-      <c r="D43" s="238"/>
+      <c r="D43" s="242"/>
       <c r="E43" s="152"/>
       <c r="F43" s="153" t="s">
         <v>153</v>
@@ -9896,7 +9893,7 @@
     </row>
     <row r="44" spans="1:152">
       <c r="A44" s="2"/>
-      <c r="D44" s="236"/>
+      <c r="D44" s="240"/>
       <c r="E44" s="151" t="s">
         <v>321</v>
       </c>
@@ -9920,7 +9917,7 @@
     </row>
     <row r="45" spans="1:152">
       <c r="A45" s="2"/>
-      <c r="D45" s="236"/>
+      <c r="D45" s="240"/>
       <c r="E45" s="34" t="s">
         <v>321</v>
       </c>
@@ -9944,7 +9941,7 @@
     </row>
     <row r="46" spans="1:152">
       <c r="A46" s="2"/>
-      <c r="D46" s="236"/>
+      <c r="D46" s="240"/>
       <c r="E46" s="85" t="s">
         <v>323</v>
       </c>
@@ -9968,7 +9965,7 @@
     </row>
     <row r="47" spans="1:152">
       <c r="A47" s="2"/>
-      <c r="D47" s="236"/>
+      <c r="D47" s="240"/>
       <c r="E47" s="85" t="s">
         <v>323</v>
       </c>
@@ -9990,7 +9987,7 @@
     </row>
     <row r="48" spans="1:152">
       <c r="A48" s="2"/>
-      <c r="D48" s="236"/>
+      <c r="D48" s="240"/>
       <c r="E48" s="85" t="s">
         <v>323</v>
       </c>
@@ -10007,7 +10004,7 @@
     </row>
     <row r="49" spans="1:152">
       <c r="A49" s="2"/>
-      <c r="D49" s="236"/>
+      <c r="D49" s="240"/>
       <c r="E49" s="85" t="s">
         <v>323</v>
       </c>
@@ -10029,7 +10026,7 @@
     </row>
     <row r="50" spans="1:152">
       <c r="A50" s="2"/>
-      <c r="D50" s="236"/>
+      <c r="D50" s="240"/>
       <c r="E50" s="85" t="s">
         <v>323</v>
       </c>
@@ -10047,7 +10044,7 @@
     </row>
     <row r="51" spans="1:152">
       <c r="A51" s="2"/>
-      <c r="D51" s="236"/>
+      <c r="D51" s="240"/>
       <c r="E51" s="85" t="s">
         <v>323</v>
       </c>
@@ -10067,7 +10064,7 @@
     </row>
     <row r="52" spans="1:152">
       <c r="A52" s="2"/>
-      <c r="D52" s="236"/>
+      <c r="D52" s="240"/>
       <c r="E52" s="85" t="s">
         <v>323</v>
       </c>
@@ -10087,7 +10084,7 @@
     </row>
     <row r="53" spans="1:152">
       <c r="A53" s="2"/>
-      <c r="D53" s="236"/>
+      <c r="D53" s="240"/>
       <c r="E53" s="85" t="s">
         <v>323</v>
       </c>
@@ -10107,7 +10104,7 @@
     </row>
     <row r="54" spans="1:152">
       <c r="A54" s="2"/>
-      <c r="D54" s="236"/>
+      <c r="D54" s="240"/>
       <c r="E54" s="85" t="s">
         <v>323</v>
       </c>
@@ -10127,7 +10124,7 @@
     </row>
     <row r="55" spans="1:152">
       <c r="A55" s="2"/>
-      <c r="D55" s="236"/>
+      <c r="D55" s="240"/>
       <c r="E55" s="85" t="s">
         <v>323</v>
       </c>
@@ -10148,7 +10145,7 @@
     </row>
     <row r="56" spans="1:152" s="38" customFormat="1">
       <c r="A56" s="2"/>
-      <c r="D56" s="236"/>
+      <c r="D56" s="240"/>
       <c r="E56" s="81" t="s">
         <v>321</v>
       </c>
@@ -10308,7 +10305,7 @@
     </row>
     <row r="57" spans="1:152">
       <c r="A57" s="2"/>
-      <c r="D57" s="236"/>
+      <c r="D57" s="240"/>
       <c r="E57" s="82"/>
       <c r="F57" s="47" t="s">
         <v>192</v>
@@ -10330,7 +10327,7 @@
     </row>
     <row r="58" spans="1:152">
       <c r="A58" s="2"/>
-      <c r="D58" s="236"/>
+      <c r="D58" s="240"/>
       <c r="E58" s="82"/>
       <c r="F58" s="48" t="s">
         <v>195</v>
@@ -10352,7 +10349,7 @@
     </row>
     <row r="59" spans="1:152">
       <c r="A59" s="2"/>
-      <c r="D59" s="236"/>
+      <c r="D59" s="240"/>
       <c r="E59" s="82"/>
       <c r="F59" s="48" t="s">
         <v>199</v>
@@ -10374,7 +10371,7 @@
     </row>
     <row r="60" spans="1:152">
       <c r="A60" s="2"/>
-      <c r="D60" s="236"/>
+      <c r="D60" s="240"/>
       <c r="E60" s="34"/>
       <c r="F60" s="27" t="s">
         <v>203</v>
@@ -10390,7 +10387,7 @@
     </row>
     <row r="61" spans="1:152">
       <c r="A61" s="2"/>
-      <c r="D61" s="236"/>
+      <c r="D61" s="240"/>
       <c r="E61" s="34"/>
       <c r="F61" s="20" t="s">
         <v>205</v>
@@ -10406,7 +10403,7 @@
     </row>
     <row r="62" spans="1:152">
       <c r="A62" s="2"/>
-      <c r="D62" s="236"/>
+      <c r="D62" s="240"/>
       <c r="E62" s="34"/>
       <c r="F62" s="29" t="s">
         <v>207</v>
@@ -10422,7 +10419,7 @@
     </row>
     <row r="63" spans="1:152">
       <c r="A63" s="2"/>
-      <c r="D63" s="237"/>
+      <c r="D63" s="241"/>
       <c r="E63" s="82"/>
       <c r="F63" s="48" t="s">
         <v>209</v>
@@ -10444,7 +10441,7 @@
     </row>
     <row r="64" spans="1:152">
       <c r="A64" s="2"/>
-      <c r="D64" s="239" t="s">
+      <c r="D64" s="243" t="s">
         <v>212</v>
       </c>
       <c r="E64" s="82"/>
@@ -10468,7 +10465,7 @@
     </row>
     <row r="65" spans="1:152">
       <c r="A65" s="2"/>
-      <c r="D65" s="239"/>
+      <c r="D65" s="243"/>
       <c r="E65" s="82"/>
       <c r="F65" s="51" t="s">
         <v>218</v>
@@ -10490,7 +10487,7 @@
     </row>
     <row r="66" spans="1:152">
       <c r="A66" s="2"/>
-      <c r="D66" s="239"/>
+      <c r="D66" s="243"/>
       <c r="E66" s="81"/>
       <c r="F66" s="51" t="s">
         <v>220</v>
@@ -10514,7 +10511,7 @@
       <c r="A67" s="2"/>
       <c r="B67"/>
       <c r="C67"/>
-      <c r="D67" s="239"/>
+      <c r="D67" s="243"/>
       <c r="E67" s="192" t="s">
         <v>323</v>
       </c>
@@ -10538,7 +10535,7 @@
     </row>
     <row r="68" spans="1:152">
       <c r="A68" s="2"/>
-      <c r="D68" s="239"/>
+      <c r="D68" s="243"/>
       <c r="E68" s="81" t="s">
         <v>321</v>
       </c>
@@ -10562,7 +10559,7 @@
     </row>
     <row r="69" spans="1:152" s="69" customFormat="1">
       <c r="A69" s="2"/>
-      <c r="D69" s="239"/>
+      <c r="D69" s="243"/>
       <c r="E69" s="83" t="s">
         <v>321</v>
       </c>
@@ -10726,7 +10723,7 @@
     </row>
     <row r="70" spans="1:152">
       <c r="A70" s="2"/>
-      <c r="D70" s="239"/>
+      <c r="D70" s="243"/>
       <c r="E70" s="85" t="s">
         <v>323</v>
       </c>
@@ -10746,7 +10743,7 @@
     </row>
     <row r="71" spans="1:152" s="69" customFormat="1">
       <c r="A71" s="2"/>
-      <c r="D71" s="239"/>
+      <c r="D71" s="243"/>
       <c r="E71" s="85" t="s">
         <v>323</v>
       </c>
@@ -10906,7 +10903,7 @@
     </row>
     <row r="72" spans="1:152" s="69" customFormat="1">
       <c r="A72" s="2"/>
-      <c r="D72" s="239"/>
+      <c r="D72" s="243"/>
       <c r="E72" s="85"/>
       <c r="F72" s="95" t="s">
         <v>235</v>
@@ -11064,7 +11061,7 @@
     </row>
     <row r="73" spans="1:152">
       <c r="A73" s="2"/>
-      <c r="D73" s="239"/>
+      <c r="D73" s="243"/>
       <c r="E73" s="85" t="s">
         <v>323</v>
       </c>
@@ -11088,7 +11085,7 @@
     </row>
     <row r="74" spans="1:152">
       <c r="A74" s="2"/>
-      <c r="D74" s="239"/>
+      <c r="D74" s="243"/>
       <c r="E74" s="97"/>
       <c r="F74" s="35" t="s">
         <v>241</v>
@@ -11104,7 +11101,7 @@
     </row>
     <row r="75" spans="1:152">
       <c r="A75" s="2"/>
-      <c r="D75" s="239"/>
+      <c r="D75" s="243"/>
       <c r="E75" s="85" t="s">
         <v>323</v>
       </c>
@@ -11128,7 +11125,7 @@
     </row>
     <row r="76" spans="1:152">
       <c r="A76" s="2"/>
-      <c r="D76" s="239"/>
+      <c r="D76" s="243"/>
       <c r="E76" s="82" t="s">
         <v>321</v>
       </c>
@@ -11152,7 +11149,7 @@
     </row>
     <row r="77" spans="1:152">
       <c r="A77" s="2"/>
-      <c r="D77" s="239"/>
+      <c r="D77" s="243"/>
       <c r="E77" s="34"/>
       <c r="F77" s="20" t="s">
         <v>251</v>
@@ -11174,7 +11171,7 @@
     </row>
     <row r="78" spans="1:152">
       <c r="A78" s="2"/>
-      <c r="D78" s="239"/>
+      <c r="D78" s="243"/>
       <c r="E78" s="77"/>
       <c r="F78" s="29" t="s">
         <v>256</v>
@@ -11196,7 +11193,7 @@
     </row>
     <row r="79" spans="1:152">
       <c r="A79" s="2"/>
-      <c r="D79" s="239"/>
+      <c r="D79" s="243"/>
       <c r="E79" s="129"/>
       <c r="F79" s="124" t="s">
         <v>260</v>
@@ -11218,7 +11215,7 @@
     </row>
     <row r="80" spans="1:152">
       <c r="A80" s="2"/>
-      <c r="D80" s="239"/>
+      <c r="D80" s="243"/>
       <c r="E80" s="129"/>
       <c r="F80" s="124" t="s">
         <v>263</v>
@@ -11240,7 +11237,7 @@
     </row>
     <row r="81" spans="1:152">
       <c r="A81" s="2"/>
-      <c r="D81" s="239"/>
+      <c r="D81" s="243"/>
       <c r="E81" s="129"/>
       <c r="F81" s="124" t="s">
         <v>265</v>
@@ -11262,7 +11259,7 @@
     </row>
     <row r="82" spans="1:152">
       <c r="A82" s="2"/>
-      <c r="D82" s="239"/>
+      <c r="D82" s="243"/>
       <c r="E82" s="128"/>
       <c r="F82" s="127" t="s">
         <v>145</v>
@@ -11284,7 +11281,7 @@
     </row>
     <row r="83" spans="1:152">
       <c r="A83" s="2"/>
-      <c r="D83" s="239"/>
+      <c r="D83" s="243"/>
       <c r="E83" s="82" t="s">
         <v>321</v>
       </c>
@@ -11310,7 +11307,7 @@
       <c r="A84" s="2"/>
       <c r="B84"/>
       <c r="C84"/>
-      <c r="D84" s="239"/>
+      <c r="D84" s="243"/>
       <c r="E84" s="210"/>
       <c r="F84" s="211" t="s">
         <v>153</v>
@@ -11468,7 +11465,7 @@
     </row>
     <row r="85" spans="1:152">
       <c r="A85" s="2"/>
-      <c r="D85" s="239"/>
+      <c r="D85" s="243"/>
       <c r="E85" s="76" t="s">
         <v>321</v>
       </c>
@@ -11492,7 +11489,7 @@
     </row>
     <row r="86" spans="1:152">
       <c r="A86" s="2"/>
-      <c r="D86" s="239"/>
+      <c r="D86" s="243"/>
       <c r="E86" s="34" t="s">
         <v>321</v>
       </c>
@@ -11516,7 +11513,7 @@
     </row>
     <row r="87" spans="1:152">
       <c r="A87" s="2"/>
-      <c r="D87" s="239"/>
+      <c r="D87" s="243"/>
       <c r="E87" s="85" t="s">
         <v>323</v>
       </c>
@@ -11540,7 +11537,7 @@
     </row>
     <row r="88" spans="1:152">
       <c r="A88" s="2"/>
-      <c r="D88" s="239"/>
+      <c r="D88" s="243"/>
       <c r="E88" s="85" t="s">
         <v>323</v>
       </c>
@@ -11562,7 +11559,7 @@
     </row>
     <row r="89" spans="1:152">
       <c r="A89" s="2"/>
-      <c r="D89" s="239"/>
+      <c r="D89" s="243"/>
       <c r="E89" s="85" t="s">
         <v>323</v>
       </c>
@@ -11580,7 +11577,7 @@
     </row>
     <row r="90" spans="1:152">
       <c r="A90" s="2"/>
-      <c r="D90" s="239"/>
+      <c r="D90" s="243"/>
       <c r="E90" s="85" t="s">
         <v>323</v>
       </c>
@@ -11602,7 +11599,7 @@
     </row>
     <row r="91" spans="1:152">
       <c r="A91" s="2"/>
-      <c r="D91" s="239"/>
+      <c r="D91" s="243"/>
       <c r="E91" s="85" t="s">
         <v>323</v>
       </c>
@@ -11620,7 +11617,7 @@
     </row>
     <row r="92" spans="1:152">
       <c r="A92" s="2"/>
-      <c r="D92" s="239"/>
+      <c r="D92" s="243"/>
       <c r="E92" s="85" t="s">
         <v>323</v>
       </c>
@@ -11640,7 +11637,7 @@
     </row>
     <row r="93" spans="1:152">
       <c r="A93" s="2"/>
-      <c r="D93" s="239"/>
+      <c r="D93" s="243"/>
       <c r="E93" s="85" t="s">
         <v>323</v>
       </c>
@@ -11660,7 +11657,7 @@
     </row>
     <row r="94" spans="1:152">
       <c r="A94" s="2"/>
-      <c r="D94" s="239"/>
+      <c r="D94" s="243"/>
       <c r="E94" s="85" t="s">
         <v>323</v>
       </c>
@@ -11680,7 +11677,7 @@
     </row>
     <row r="95" spans="1:152">
       <c r="A95" s="2"/>
-      <c r="D95" s="239"/>
+      <c r="D95" s="243"/>
       <c r="E95" s="85" t="s">
         <v>323</v>
       </c>
@@ -11700,7 +11697,7 @@
     </row>
     <row r="96" spans="1:152">
       <c r="A96" s="2"/>
-      <c r="D96" s="239"/>
+      <c r="D96" s="243"/>
       <c r="E96" s="85" t="s">
         <v>323</v>
       </c>
@@ -11720,7 +11717,7 @@
     </row>
     <row r="97" spans="1:152" s="38" customFormat="1">
       <c r="A97" s="2"/>
-      <c r="D97" s="239"/>
+      <c r="D97" s="243"/>
       <c r="E97" s="81" t="s">
         <v>321</v>
       </c>
@@ -11880,7 +11877,7 @@
     </row>
     <row r="98" spans="1:152">
       <c r="A98" s="2"/>
-      <c r="D98" s="239"/>
+      <c r="D98" s="243"/>
       <c r="E98" s="82"/>
       <c r="F98" s="47" t="s">
         <v>192</v>
@@ -11902,7 +11899,7 @@
     </row>
     <row r="99" spans="1:152">
       <c r="A99" s="2"/>
-      <c r="D99" s="239"/>
+      <c r="D99" s="243"/>
       <c r="E99" s="82"/>
       <c r="F99" s="48" t="s">
         <v>195</v>
@@ -11924,7 +11921,7 @@
     </row>
     <row r="100" spans="1:152">
       <c r="A100" s="2"/>
-      <c r="D100" s="239"/>
+      <c r="D100" s="243"/>
       <c r="E100" s="82"/>
       <c r="F100" s="48" t="s">
         <v>199</v>
@@ -11946,7 +11943,7 @@
     </row>
     <row r="101" spans="1:152" s="112" customFormat="1">
       <c r="A101" s="2"/>
-      <c r="D101" s="239"/>
+      <c r="D101" s="243"/>
       <c r="E101" s="75"/>
       <c r="F101" s="113" t="s">
         <v>203</v>
@@ -12102,7 +12099,7 @@
     </row>
     <row r="102" spans="1:152" s="112" customFormat="1">
       <c r="A102" s="2"/>
-      <c r="D102" s="239"/>
+      <c r="D102" s="243"/>
       <c r="E102" s="75"/>
       <c r="F102" s="114" t="s">
         <v>205</v>
@@ -12258,7 +12255,7 @@
     </row>
     <row r="103" spans="1:152" s="112" customFormat="1">
       <c r="A103" s="2"/>
-      <c r="D103" s="239"/>
+      <c r="D103" s="243"/>
       <c r="E103" s="130"/>
       <c r="F103" s="115" t="s">
         <v>207</v>
@@ -12414,7 +12411,7 @@
     </row>
     <row r="104" spans="1:152" s="112" customFormat="1">
       <c r="A104" s="2"/>
-      <c r="D104" s="240"/>
+      <c r="D104" s="244"/>
       <c r="E104" s="136"/>
       <c r="F104" s="133" t="s">
         <v>209</v>
@@ -12576,7 +12573,7 @@
     </row>
     <row r="105" spans="1:152" s="112" customFormat="1">
       <c r="A105" s="2"/>
-      <c r="D105" s="240"/>
+      <c r="D105" s="244"/>
       <c r="E105" s="136" t="s">
         <v>321</v>
       </c>
@@ -12740,7 +12737,7 @@
     </row>
     <row r="106" spans="1:152" s="112" customFormat="1" ht="28.5" customHeight="1">
       <c r="A106" s="2"/>
-      <c r="D106" s="240"/>
+      <c r="D106" s="244"/>
       <c r="E106" s="137" t="s">
         <v>323</v>
       </c>
@@ -12904,7 +12901,7 @@
     </row>
     <row r="107" spans="1:152" s="112" customFormat="1" ht="28.5" customHeight="1">
       <c r="A107" s="2"/>
-      <c r="D107" s="240"/>
+      <c r="D107" s="244"/>
       <c r="E107" s="197" t="s">
         <v>321</v>
       </c>
@@ -13062,7 +13059,7 @@
     </row>
     <row r="108" spans="1:152" s="112" customFormat="1">
       <c r="A108" s="2"/>
-      <c r="D108" s="239"/>
+      <c r="D108" s="243"/>
       <c r="E108" s="132" t="s">
         <v>323</v>
       </c>
@@ -13226,7 +13223,7 @@
     </row>
     <row r="109" spans="1:152" s="112" customFormat="1" ht="30">
       <c r="A109" s="2"/>
-      <c r="D109" s="239"/>
+      <c r="D109" s="243"/>
       <c r="E109" s="75"/>
       <c r="F109" s="114" t="s">
         <v>67</v>
@@ -13388,7 +13385,7 @@
     </row>
     <row r="110" spans="1:152" s="112" customFormat="1">
       <c r="A110" s="2"/>
-      <c r="D110" s="239"/>
+      <c r="D110" s="243"/>
       <c r="E110" s="75" t="s">
         <v>321</v>
       </c>
@@ -13552,7 +13549,7 @@
     </row>
     <row r="111" spans="1:152" s="112" customFormat="1">
       <c r="A111" s="2"/>
-      <c r="D111" s="239"/>
+      <c r="D111" s="243"/>
       <c r="E111" s="75"/>
       <c r="F111" s="114" t="s">
         <v>77</v>
@@ -13714,7 +13711,7 @@
     </row>
     <row r="112" spans="1:152" s="112" customFormat="1">
       <c r="A112" s="2"/>
-      <c r="D112" s="239"/>
+      <c r="D112" s="243"/>
       <c r="E112" s="75" t="s">
         <v>321</v>
       </c>
@@ -13878,7 +13875,7 @@
     </row>
     <row r="113" spans="1:152" s="112" customFormat="1">
       <c r="A113" s="2"/>
-      <c r="D113" s="239"/>
+      <c r="D113" s="243"/>
       <c r="E113" s="86" t="s">
         <v>323</v>
       </c>
@@ -14042,7 +14039,7 @@
     </row>
     <row r="114" spans="1:152" s="112" customFormat="1">
       <c r="A114" s="2"/>
-      <c r="D114" s="239"/>
+      <c r="D114" s="243"/>
       <c r="E114" s="120" t="s">
         <v>323</v>
       </c>
@@ -14206,7 +14203,7 @@
     </row>
     <row r="115" spans="1:152" s="194" customFormat="1" ht="30">
       <c r="A115" s="196"/>
-      <c r="D115" s="239"/>
+      <c r="D115" s="243"/>
       <c r="E115" s="195" t="s">
         <v>323</v>
       </c>
@@ -14364,7 +14361,7 @@
     </row>
     <row r="116" spans="1:152" s="112" customFormat="1">
       <c r="A116" s="2"/>
-      <c r="D116" s="239"/>
+      <c r="D116" s="243"/>
       <c r="E116" s="143"/>
       <c r="F116" s="144" t="s">
         <v>96</v>
@@ -14526,7 +14523,7 @@
     </row>
     <row r="117" spans="1:152" s="138" customFormat="1">
       <c r="A117" s="2"/>
-      <c r="D117" s="240"/>
+      <c r="D117" s="244"/>
       <c r="E117" s="146"/>
       <c r="F117" s="124" t="s">
         <v>303</v>
@@ -14688,7 +14685,7 @@
     </row>
     <row r="118" spans="1:152" s="138" customFormat="1">
       <c r="A118" s="2"/>
-      <c r="D118" s="240"/>
+      <c r="D118" s="244"/>
       <c r="E118" s="146"/>
       <c r="F118" s="124" t="s">
         <v>306</v>
@@ -14855,15 +14852,15 @@
       <c r="B119" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C119" s="109" t="s">
-        <v>403</v>
+      <c r="C119" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E119" s="34"/>
       <c r="F119" s="226" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G119" s="25"/>
       <c r="H119" s="26"/>
@@ -14874,7 +14871,7 @@
     </row>
     <row r="120" spans="1:152" ht="16.5" customHeight="1">
       <c r="A120" s="167"/>
-      <c r="D120" s="235" t="s">
+      <c r="D120" s="239" t="s">
         <v>30</v>
       </c>
       <c r="E120" s="74"/>
@@ -14898,7 +14895,7 @@
     </row>
     <row r="121" spans="1:152">
       <c r="A121" s="2"/>
-      <c r="D121" s="236"/>
+      <c r="D121" s="240"/>
       <c r="E121" s="74"/>
       <c r="F121" s="13" t="s">
         <v>36</v>
@@ -14920,7 +14917,7 @@
     </row>
     <row r="122" spans="1:152">
       <c r="A122" s="2"/>
-      <c r="D122" s="237"/>
+      <c r="D122" s="241"/>
       <c r="E122" s="74"/>
       <c r="F122" s="13" t="s">
         <v>39</v>
@@ -14942,7 +14939,7 @@
     </row>
     <row r="123" spans="1:152">
       <c r="A123" s="2"/>
-      <c r="D123" s="235" t="s">
+      <c r="D123" s="239" t="s">
         <v>49</v>
       </c>
       <c r="E123" s="74" t="s">
@@ -14968,7 +14965,7 @@
     </row>
     <row r="124" spans="1:152" ht="28.5" customHeight="1">
       <c r="A124" s="2"/>
-      <c r="D124" s="236"/>
+      <c r="D124" s="240"/>
       <c r="E124" s="84" t="s">
         <v>323</v>
       </c>
@@ -14992,7 +14989,7 @@
     </row>
     <row r="125" spans="1:152" s="112" customFormat="1" ht="28.5" customHeight="1">
       <c r="A125" s="213"/>
-      <c r="D125" s="236"/>
+      <c r="D125" s="240"/>
       <c r="E125" s="186" t="s">
         <v>321</v>
       </c>
@@ -15147,7 +15144,7 @@
     </row>
     <row r="126" spans="1:152">
       <c r="A126" s="2"/>
-      <c r="D126" s="236"/>
+      <c r="D126" s="240"/>
       <c r="E126" s="85" t="s">
         <v>323</v>
       </c>
@@ -15171,7 +15168,7 @@
     </row>
     <row r="127" spans="1:152" s="112" customFormat="1" ht="30">
       <c r="A127" s="2"/>
-      <c r="D127" s="236"/>
+      <c r="D127" s="240"/>
       <c r="E127" s="75"/>
       <c r="F127" s="109" t="s">
         <v>67</v>
@@ -15333,7 +15330,7 @@
     </row>
     <row r="128" spans="1:152">
       <c r="A128" s="2"/>
-      <c r="D128" s="236"/>
+      <c r="D128" s="240"/>
       <c r="E128" s="34" t="s">
         <v>321</v>
       </c>
@@ -15357,7 +15354,7 @@
     </row>
     <row r="129" spans="1:152">
       <c r="A129" s="2"/>
-      <c r="D129" s="236"/>
+      <c r="D129" s="240"/>
       <c r="E129" s="34"/>
       <c r="F129" s="20" t="s">
         <v>77</v>
@@ -15379,7 +15376,7 @@
     </row>
     <row r="130" spans="1:152">
       <c r="A130" s="2"/>
-      <c r="D130" s="236"/>
+      <c r="D130" s="240"/>
       <c r="E130" s="34" t="s">
         <v>321</v>
       </c>
@@ -15403,7 +15400,7 @@
     </row>
     <row r="131" spans="1:152">
       <c r="A131" s="2"/>
-      <c r="D131" s="236"/>
+      <c r="D131" s="240"/>
       <c r="E131" s="85" t="s">
         <v>323</v>
       </c>
@@ -15427,7 +15424,7 @@
     </row>
     <row r="132" spans="1:152">
       <c r="A132" s="2"/>
-      <c r="D132" s="236"/>
+      <c r="D132" s="240"/>
       <c r="E132" s="87" t="s">
         <v>323</v>
       </c>
@@ -15453,7 +15450,7 @@
       <c r="A133" s="2"/>
       <c r="B133"/>
       <c r="C133"/>
-      <c r="D133" s="236"/>
+      <c r="D133" s="240"/>
       <c r="E133" s="189" t="s">
         <v>323</v>
       </c>
@@ -15471,7 +15468,7 @@
     </row>
     <row r="134" spans="1:152">
       <c r="A134" s="2"/>
-      <c r="D134" s="237"/>
+      <c r="D134" s="241"/>
       <c r="E134" s="89"/>
       <c r="F134" s="90" t="s">
         <v>96</v>
@@ -15519,7 +15516,7 @@
     </row>
     <row r="136" spans="1:152">
       <c r="A136" s="2"/>
-      <c r="D136" s="241" t="s">
+      <c r="D136" s="245" t="s">
         <v>104</v>
       </c>
       <c r="E136" s="76"/>
@@ -15543,7 +15540,7 @@
     </row>
     <row r="137" spans="1:152">
       <c r="A137" s="2"/>
-      <c r="D137" s="242"/>
+      <c r="D137" s="246"/>
       <c r="E137" s="34" t="s">
         <v>321</v>
       </c>
@@ -15567,7 +15564,7 @@
     </row>
     <row r="138" spans="1:152" s="69" customFormat="1">
       <c r="A138" s="2"/>
-      <c r="D138" s="242"/>
+      <c r="D138" s="246"/>
       <c r="E138" s="87" t="s">
         <v>323</v>
       </c>
@@ -15731,7 +15728,7 @@
     </row>
     <row r="139" spans="1:152">
       <c r="A139" s="2"/>
-      <c r="D139" s="242"/>
+      <c r="D139" s="246"/>
       <c r="E139" s="34" t="s">
         <v>321</v>
       </c>
@@ -15755,7 +15752,7 @@
     </row>
     <row r="140" spans="1:152">
       <c r="A140" s="2"/>
-      <c r="D140" s="242"/>
+      <c r="D140" s="246"/>
       <c r="E140" s="34"/>
       <c r="F140" s="20" t="s">
         <v>123</v>
@@ -15777,7 +15774,7 @@
     </row>
     <row r="141" spans="1:152">
       <c r="A141" s="2"/>
-      <c r="D141" s="242"/>
+      <c r="D141" s="246"/>
       <c r="E141" s="34"/>
       <c r="F141" s="20" t="s">
         <v>127</v>
@@ -15799,7 +15796,7 @@
     </row>
     <row r="142" spans="1:152">
       <c r="A142" s="2"/>
-      <c r="D142" s="242"/>
+      <c r="D142" s="246"/>
       <c r="E142" s="87" t="s">
         <v>323</v>
       </c>
@@ -15823,7 +15820,7 @@
     </row>
     <row r="143" spans="1:152">
       <c r="A143" s="2"/>
-      <c r="D143" s="241" t="s">
+      <c r="D143" s="245" t="s">
         <v>136</v>
       </c>
       <c r="E143" s="78"/>
@@ -15841,7 +15838,7 @@
     </row>
     <row r="144" spans="1:152">
       <c r="A144" s="2"/>
-      <c r="D144" s="242"/>
+      <c r="D144" s="246"/>
       <c r="E144" s="34"/>
       <c r="F144" s="20" t="s">
         <v>110</v>
@@ -15859,7 +15856,7 @@
     </row>
     <row r="145" spans="1:152">
       <c r="A145" s="2"/>
-      <c r="D145" s="242"/>
+      <c r="D145" s="246"/>
       <c r="E145" s="34"/>
       <c r="F145" s="20" t="s">
         <v>115</v>
@@ -15877,7 +15874,7 @@
     </row>
     <row r="146" spans="1:152">
       <c r="A146" s="2"/>
-      <c r="D146" s="242"/>
+      <c r="D146" s="246"/>
       <c r="E146" s="34"/>
       <c r="F146" s="20" t="s">
         <v>119</v>
@@ -15895,7 +15892,7 @@
     </row>
     <row r="147" spans="1:152">
       <c r="A147" s="2"/>
-      <c r="D147" s="242"/>
+      <c r="D147" s="246"/>
       <c r="E147" s="34"/>
       <c r="F147" s="20" t="s">
         <v>123</v>
@@ -15913,7 +15910,7 @@
     </row>
     <row r="148" spans="1:152">
       <c r="A148" s="2"/>
-      <c r="D148" s="242"/>
+      <c r="D148" s="246"/>
       <c r="E148" s="34"/>
       <c r="F148" s="20" t="s">
         <v>127</v>
@@ -15931,7 +15928,7 @@
     </row>
     <row r="149" spans="1:152">
       <c r="A149" s="2"/>
-      <c r="D149" s="243"/>
+      <c r="D149" s="247"/>
       <c r="E149" s="79"/>
       <c r="F149" s="65" t="s">
         <v>131</v>
@@ -15949,7 +15946,7 @@
     </row>
     <row r="150" spans="1:152">
       <c r="A150" s="2"/>
-      <c r="D150" s="235" t="s">
+      <c r="D150" s="239" t="s">
         <v>144</v>
       </c>
       <c r="E150" s="80"/>
@@ -15973,7 +15970,7 @@
     </row>
     <row r="151" spans="1:152">
       <c r="A151" s="2"/>
-      <c r="D151" s="236"/>
+      <c r="D151" s="240"/>
       <c r="E151" s="147" t="s">
         <v>321</v>
       </c>
@@ -15997,7 +15994,7 @@
     </row>
     <row r="152" spans="1:152" s="38" customFormat="1">
       <c r="A152" s="2"/>
-      <c r="D152" s="238"/>
+      <c r="D152" s="242"/>
       <c r="E152" s="152"/>
       <c r="F152" s="153" t="s">
         <v>153</v>
@@ -16155,7 +16152,7 @@
     </row>
     <row r="153" spans="1:152">
       <c r="A153" s="2"/>
-      <c r="D153" s="236"/>
+      <c r="D153" s="240"/>
       <c r="E153" s="151" t="s">
         <v>321</v>
       </c>
@@ -16179,7 +16176,7 @@
     </row>
     <row r="154" spans="1:152">
       <c r="A154" s="2"/>
-      <c r="D154" s="236"/>
+      <c r="D154" s="240"/>
       <c r="E154" s="34" t="s">
         <v>321</v>
       </c>
@@ -16203,7 +16200,7 @@
     </row>
     <row r="155" spans="1:152">
       <c r="A155" s="2"/>
-      <c r="D155" s="236"/>
+      <c r="D155" s="240"/>
       <c r="E155" s="85" t="s">
         <v>323</v>
       </c>
@@ -16227,7 +16224,7 @@
     </row>
     <row r="156" spans="1:152">
       <c r="A156" s="2"/>
-      <c r="D156" s="236"/>
+      <c r="D156" s="240"/>
       <c r="E156" s="85" t="s">
         <v>323</v>
       </c>
@@ -16249,7 +16246,7 @@
     </row>
     <row r="157" spans="1:152">
       <c r="A157" s="2"/>
-      <c r="D157" s="236"/>
+      <c r="D157" s="240"/>
       <c r="E157" s="85" t="s">
         <v>323</v>
       </c>
@@ -16266,7 +16263,7 @@
     </row>
     <row r="158" spans="1:152">
       <c r="A158" s="2"/>
-      <c r="D158" s="236"/>
+      <c r="D158" s="240"/>
       <c r="E158" s="85" t="s">
         <v>323</v>
       </c>
@@ -16288,7 +16285,7 @@
     </row>
     <row r="159" spans="1:152">
       <c r="A159" s="2"/>
-      <c r="D159" s="236"/>
+      <c r="D159" s="240"/>
       <c r="E159" s="85" t="s">
         <v>323</v>
       </c>
@@ -16306,7 +16303,7 @@
     </row>
     <row r="160" spans="1:152">
       <c r="A160" s="2"/>
-      <c r="D160" s="236"/>
+      <c r="D160" s="240"/>
       <c r="E160" s="85" t="s">
         <v>323</v>
       </c>
@@ -16326,7 +16323,7 @@
     </row>
     <row r="161" spans="1:152">
       <c r="A161" s="2"/>
-      <c r="D161" s="236"/>
+      <c r="D161" s="240"/>
       <c r="E161" s="85" t="s">
         <v>323</v>
       </c>
@@ -16346,7 +16343,7 @@
     </row>
     <row r="162" spans="1:152">
       <c r="A162" s="2"/>
-      <c r="D162" s="236"/>
+      <c r="D162" s="240"/>
       <c r="E162" s="85" t="s">
         <v>323</v>
       </c>
@@ -16366,7 +16363,7 @@
     </row>
     <row r="163" spans="1:152">
       <c r="A163" s="2"/>
-      <c r="D163" s="236"/>
+      <c r="D163" s="240"/>
       <c r="E163" s="85" t="s">
         <v>323</v>
       </c>
@@ -16386,7 +16383,7 @@
     </row>
     <row r="164" spans="1:152">
       <c r="A164" s="2"/>
-      <c r="D164" s="236"/>
+      <c r="D164" s="240"/>
       <c r="E164" s="85" t="s">
         <v>323</v>
       </c>
@@ -16407,7 +16404,7 @@
     </row>
     <row r="165" spans="1:152" s="38" customFormat="1">
       <c r="A165" s="2"/>
-      <c r="D165" s="236"/>
+      <c r="D165" s="240"/>
       <c r="E165" s="81" t="s">
         <v>321</v>
       </c>
@@ -16567,7 +16564,7 @@
     </row>
     <row r="166" spans="1:152">
       <c r="A166" s="2"/>
-      <c r="D166" s="236"/>
+      <c r="D166" s="240"/>
       <c r="E166" s="82"/>
       <c r="F166" s="47" t="s">
         <v>192</v>
@@ -16589,7 +16586,7 @@
     </row>
     <row r="167" spans="1:152">
       <c r="A167" s="2"/>
-      <c r="D167" s="236"/>
+      <c r="D167" s="240"/>
       <c r="E167" s="82"/>
       <c r="F167" s="48" t="s">
         <v>195</v>
@@ -16611,7 +16608,7 @@
     </row>
     <row r="168" spans="1:152">
       <c r="A168" s="2"/>
-      <c r="D168" s="236"/>
+      <c r="D168" s="240"/>
       <c r="E168" s="82"/>
       <c r="F168" s="48" t="s">
         <v>199</v>
@@ -16633,7 +16630,7 @@
     </row>
     <row r="169" spans="1:152">
       <c r="A169" s="2"/>
-      <c r="D169" s="236"/>
+      <c r="D169" s="240"/>
       <c r="E169" s="34"/>
       <c r="F169" s="27" t="s">
         <v>203</v>
@@ -16649,7 +16646,7 @@
     </row>
     <row r="170" spans="1:152">
       <c r="A170" s="2"/>
-      <c r="D170" s="236"/>
+      <c r="D170" s="240"/>
       <c r="E170" s="34"/>
       <c r="F170" s="20" t="s">
         <v>205</v>
@@ -16665,7 +16662,7 @@
     </row>
     <row r="171" spans="1:152">
       <c r="A171" s="2"/>
-      <c r="D171" s="236"/>
+      <c r="D171" s="240"/>
       <c r="E171" s="34"/>
       <c r="F171" s="29" t="s">
         <v>207</v>
@@ -16681,7 +16678,7 @@
     </row>
     <row r="172" spans="1:152">
       <c r="A172" s="2"/>
-      <c r="D172" s="237"/>
+      <c r="D172" s="241"/>
       <c r="E172" s="82"/>
       <c r="F172" s="48" t="s">
         <v>209</v>
@@ -16703,7 +16700,7 @@
     </row>
     <row r="173" spans="1:152">
       <c r="A173" s="2"/>
-      <c r="D173" s="239" t="s">
+      <c r="D173" s="243" t="s">
         <v>212</v>
       </c>
       <c r="E173" s="82"/>
@@ -16727,7 +16724,7 @@
     </row>
     <row r="174" spans="1:152">
       <c r="A174" s="2"/>
-      <c r="D174" s="239"/>
+      <c r="D174" s="243"/>
       <c r="E174" s="82"/>
       <c r="F174" s="51" t="s">
         <v>218</v>
@@ -16749,7 +16746,7 @@
     </row>
     <row r="175" spans="1:152">
       <c r="A175" s="2"/>
-      <c r="D175" s="239"/>
+      <c r="D175" s="243"/>
       <c r="E175" s="81"/>
       <c r="F175" s="51" t="s">
         <v>220</v>
@@ -16773,7 +16770,7 @@
       <c r="A176" s="2"/>
       <c r="B176"/>
       <c r="C176"/>
-      <c r="D176" s="239"/>
+      <c r="D176" s="243"/>
       <c r="E176" s="192" t="s">
         <v>323</v>
       </c>
@@ -16797,7 +16794,7 @@
     </row>
     <row r="177" spans="1:152">
       <c r="A177" s="2"/>
-      <c r="D177" s="239"/>
+      <c r="D177" s="243"/>
       <c r="E177" s="81" t="s">
         <v>321</v>
       </c>
@@ -16821,7 +16818,7 @@
     </row>
     <row r="178" spans="1:152" s="69" customFormat="1">
       <c r="A178" s="2"/>
-      <c r="D178" s="239"/>
+      <c r="D178" s="243"/>
       <c r="E178" s="83" t="s">
         <v>321</v>
       </c>
@@ -16985,7 +16982,7 @@
     </row>
     <row r="179" spans="1:152">
       <c r="A179" s="2"/>
-      <c r="D179" s="239"/>
+      <c r="D179" s="243"/>
       <c r="E179" s="85" t="s">
         <v>323</v>
       </c>
@@ -17005,7 +17002,7 @@
     </row>
     <row r="180" spans="1:152" s="69" customFormat="1">
       <c r="A180" s="2"/>
-      <c r="D180" s="239"/>
+      <c r="D180" s="243"/>
       <c r="E180" s="85" t="s">
         <v>323</v>
       </c>
@@ -17165,7 +17162,7 @@
     </row>
     <row r="181" spans="1:152" s="69" customFormat="1">
       <c r="A181" s="2"/>
-      <c r="D181" s="239"/>
+      <c r="D181" s="243"/>
       <c r="E181" s="85"/>
       <c r="F181" s="95" t="s">
         <v>235</v>
@@ -17323,7 +17320,7 @@
     </row>
     <row r="182" spans="1:152">
       <c r="A182" s="2"/>
-      <c r="D182" s="239"/>
+      <c r="D182" s="243"/>
       <c r="E182" s="85" t="s">
         <v>323</v>
       </c>
@@ -17347,7 +17344,7 @@
     </row>
     <row r="183" spans="1:152">
       <c r="A183" s="2"/>
-      <c r="D183" s="239"/>
+      <c r="D183" s="243"/>
       <c r="E183" s="97"/>
       <c r="F183" s="35" t="s">
         <v>241</v>
@@ -17363,7 +17360,7 @@
     </row>
     <row r="184" spans="1:152">
       <c r="A184" s="2"/>
-      <c r="D184" s="239"/>
+      <c r="D184" s="243"/>
       <c r="E184" s="85" t="s">
         <v>323</v>
       </c>
@@ -17387,7 +17384,7 @@
     </row>
     <row r="185" spans="1:152">
       <c r="A185" s="2"/>
-      <c r="D185" s="239"/>
+      <c r="D185" s="243"/>
       <c r="E185" s="82" t="s">
         <v>321</v>
       </c>
@@ -17411,7 +17408,7 @@
     </row>
     <row r="186" spans="1:152">
       <c r="A186" s="2"/>
-      <c r="D186" s="239"/>
+      <c r="D186" s="243"/>
       <c r="E186" s="34"/>
       <c r="F186" s="20" t="s">
         <v>251</v>
@@ -17433,7 +17430,7 @@
     </row>
     <row r="187" spans="1:152">
       <c r="A187" s="2"/>
-      <c r="D187" s="239"/>
+      <c r="D187" s="243"/>
       <c r="E187" s="77"/>
       <c r="F187" s="29" t="s">
         <v>256</v>
@@ -17455,7 +17452,7 @@
     </row>
     <row r="188" spans="1:152">
       <c r="A188" s="2"/>
-      <c r="D188" s="239"/>
+      <c r="D188" s="243"/>
       <c r="E188" s="129"/>
       <c r="F188" s="124" t="s">
         <v>260</v>
@@ -17477,7 +17474,7 @@
     </row>
     <row r="189" spans="1:152">
       <c r="A189" s="2"/>
-      <c r="D189" s="239"/>
+      <c r="D189" s="243"/>
       <c r="E189" s="129"/>
       <c r="F189" s="124" t="s">
         <v>263</v>
@@ -17499,7 +17496,7 @@
     </row>
     <row r="190" spans="1:152">
       <c r="A190" s="2"/>
-      <c r="D190" s="239"/>
+      <c r="D190" s="243"/>
       <c r="E190" s="129"/>
       <c r="F190" s="124" t="s">
         <v>265</v>
@@ -17521,7 +17518,7 @@
     </row>
     <row r="191" spans="1:152">
       <c r="A191" s="2"/>
-      <c r="D191" s="239"/>
+      <c r="D191" s="243"/>
       <c r="E191" s="128"/>
       <c r="F191" s="127" t="s">
         <v>145</v>
@@ -17543,7 +17540,7 @@
     </row>
     <row r="192" spans="1:152">
       <c r="A192" s="2"/>
-      <c r="D192" s="239"/>
+      <c r="D192" s="243"/>
       <c r="E192" s="82" t="s">
         <v>321</v>
       </c>
@@ -17569,7 +17566,7 @@
       <c r="A193" s="2"/>
       <c r="B193"/>
       <c r="C193"/>
-      <c r="D193" s="239"/>
+      <c r="D193" s="243"/>
       <c r="E193" s="210"/>
       <c r="F193" s="211" t="s">
         <v>153</v>
@@ -17727,7 +17724,7 @@
     </row>
     <row r="194" spans="1:152">
       <c r="A194" s="2"/>
-      <c r="D194" s="239"/>
+      <c r="D194" s="243"/>
       <c r="E194" s="76" t="s">
         <v>321</v>
       </c>
@@ -17751,7 +17748,7 @@
     </row>
     <row r="195" spans="1:152">
       <c r="A195" s="2"/>
-      <c r="D195" s="239"/>
+      <c r="D195" s="243"/>
       <c r="E195" s="34" t="s">
         <v>321</v>
       </c>
@@ -17775,7 +17772,7 @@
     </row>
     <row r="196" spans="1:152">
       <c r="A196" s="2"/>
-      <c r="D196" s="239"/>
+      <c r="D196" s="243"/>
       <c r="E196" s="85" t="s">
         <v>323</v>
       </c>
@@ -17799,7 +17796,7 @@
     </row>
     <row r="197" spans="1:152">
       <c r="A197" s="2"/>
-      <c r="D197" s="239"/>
+      <c r="D197" s="243"/>
       <c r="E197" s="85" t="s">
         <v>323</v>
       </c>
@@ -17821,7 +17818,7 @@
     </row>
     <row r="198" spans="1:152">
       <c r="A198" s="2"/>
-      <c r="D198" s="239"/>
+      <c r="D198" s="243"/>
       <c r="E198" s="85" t="s">
         <v>323</v>
       </c>
@@ -17839,7 +17836,7 @@
     </row>
     <row r="199" spans="1:152">
       <c r="A199" s="2"/>
-      <c r="D199" s="239"/>
+      <c r="D199" s="243"/>
       <c r="E199" s="85" t="s">
         <v>323</v>
       </c>
@@ -17861,7 +17858,7 @@
     </row>
     <row r="200" spans="1:152">
       <c r="A200" s="2"/>
-      <c r="D200" s="239"/>
+      <c r="D200" s="243"/>
       <c r="E200" s="85" t="s">
         <v>323</v>
       </c>
@@ -17879,7 +17876,7 @@
     </row>
     <row r="201" spans="1:152">
       <c r="A201" s="2"/>
-      <c r="D201" s="239"/>
+      <c r="D201" s="243"/>
       <c r="E201" s="85" t="s">
         <v>323</v>
       </c>
@@ -17899,7 +17896,7 @@
     </row>
     <row r="202" spans="1:152">
       <c r="A202" s="2"/>
-      <c r="D202" s="239"/>
+      <c r="D202" s="243"/>
       <c r="E202" s="85" t="s">
         <v>323</v>
       </c>
@@ -17919,7 +17916,7 @@
     </row>
     <row r="203" spans="1:152">
       <c r="A203" s="2"/>
-      <c r="D203" s="239"/>
+      <c r="D203" s="243"/>
       <c r="E203" s="85" t="s">
         <v>323</v>
       </c>
@@ -17939,7 +17936,7 @@
     </row>
     <row r="204" spans="1:152">
       <c r="A204" s="2"/>
-      <c r="D204" s="239"/>
+      <c r="D204" s="243"/>
       <c r="E204" s="85" t="s">
         <v>323</v>
       </c>
@@ -17959,7 +17956,7 @@
     </row>
     <row r="205" spans="1:152">
       <c r="A205" s="2"/>
-      <c r="D205" s="239"/>
+      <c r="D205" s="243"/>
       <c r="E205" s="85" t="s">
         <v>323</v>
       </c>
@@ -17979,7 +17976,7 @@
     </row>
     <row r="206" spans="1:152" s="38" customFormat="1">
       <c r="A206" s="2"/>
-      <c r="D206" s="239"/>
+      <c r="D206" s="243"/>
       <c r="E206" s="81" t="s">
         <v>321</v>
       </c>
@@ -18139,7 +18136,7 @@
     </row>
     <row r="207" spans="1:152">
       <c r="A207" s="2"/>
-      <c r="D207" s="239"/>
+      <c r="D207" s="243"/>
       <c r="E207" s="82"/>
       <c r="F207" s="47" t="s">
         <v>192</v>
@@ -18161,7 +18158,7 @@
     </row>
     <row r="208" spans="1:152">
       <c r="A208" s="2"/>
-      <c r="D208" s="239"/>
+      <c r="D208" s="243"/>
       <c r="E208" s="82"/>
       <c r="F208" s="48" t="s">
         <v>195</v>
@@ -18183,7 +18180,7 @@
     </row>
     <row r="209" spans="1:152">
       <c r="A209" s="2"/>
-      <c r="D209" s="239"/>
+      <c r="D209" s="243"/>
       <c r="E209" s="82"/>
       <c r="F209" s="48" t="s">
         <v>199</v>
@@ -18205,7 +18202,7 @@
     </row>
     <row r="210" spans="1:152" s="112" customFormat="1">
       <c r="A210" s="2"/>
-      <c r="D210" s="239"/>
+      <c r="D210" s="243"/>
       <c r="E210" s="75"/>
       <c r="F210" s="113" t="s">
         <v>203</v>
@@ -18361,7 +18358,7 @@
     </row>
     <row r="211" spans="1:152" s="112" customFormat="1">
       <c r="A211" s="2"/>
-      <c r="D211" s="239"/>
+      <c r="D211" s="243"/>
       <c r="E211" s="75"/>
       <c r="F211" s="114" t="s">
         <v>205</v>
@@ -18517,7 +18514,7 @@
     </row>
     <row r="212" spans="1:152" s="112" customFormat="1">
       <c r="A212" s="2"/>
-      <c r="D212" s="239"/>
+      <c r="D212" s="243"/>
       <c r="E212" s="130"/>
       <c r="F212" s="115" t="s">
         <v>207</v>
@@ -18673,7 +18670,7 @@
     </row>
     <row r="213" spans="1:152" s="112" customFormat="1">
       <c r="A213" s="2"/>
-      <c r="D213" s="240"/>
+      <c r="D213" s="244"/>
       <c r="E213" s="136"/>
       <c r="F213" s="133" t="s">
         <v>209</v>
@@ -18835,7 +18832,7 @@
     </row>
     <row r="214" spans="1:152" s="112" customFormat="1">
       <c r="A214" s="2"/>
-      <c r="D214" s="240"/>
+      <c r="D214" s="244"/>
       <c r="E214" s="136" t="s">
         <v>321</v>
       </c>
@@ -18999,7 +18996,7 @@
     </row>
     <row r="215" spans="1:152" s="112" customFormat="1" ht="28.5" customHeight="1">
       <c r="A215" s="2"/>
-      <c r="D215" s="240"/>
+      <c r="D215" s="244"/>
       <c r="E215" s="137" t="s">
         <v>323</v>
       </c>
@@ -19163,7 +19160,7 @@
     </row>
     <row r="216" spans="1:152" s="112" customFormat="1" ht="28.5" customHeight="1">
       <c r="A216" s="2"/>
-      <c r="D216" s="240"/>
+      <c r="D216" s="244"/>
       <c r="E216" s="197" t="s">
         <v>321</v>
       </c>
@@ -19321,7 +19318,7 @@
     </row>
     <row r="217" spans="1:152" s="112" customFormat="1">
       <c r="A217" s="2"/>
-      <c r="D217" s="239"/>
+      <c r="D217" s="243"/>
       <c r="E217" s="132" t="s">
         <v>323</v>
       </c>
@@ -19485,7 +19482,7 @@
     </row>
     <row r="218" spans="1:152" s="112" customFormat="1" ht="30">
       <c r="A218" s="2"/>
-      <c r="D218" s="239"/>
+      <c r="D218" s="243"/>
       <c r="E218" s="75"/>
       <c r="F218" s="114" t="s">
         <v>67</v>
@@ -19647,7 +19644,7 @@
     </row>
     <row r="219" spans="1:152" s="112" customFormat="1">
       <c r="A219" s="2"/>
-      <c r="D219" s="239"/>
+      <c r="D219" s="243"/>
       <c r="E219" s="75" t="s">
         <v>321</v>
       </c>
@@ -19811,7 +19808,7 @@
     </row>
     <row r="220" spans="1:152" s="112" customFormat="1">
       <c r="A220" s="2"/>
-      <c r="D220" s="239"/>
+      <c r="D220" s="243"/>
       <c r="E220" s="75"/>
       <c r="F220" s="114" t="s">
         <v>77</v>
@@ -19973,7 +19970,7 @@
     </row>
     <row r="221" spans="1:152" s="112" customFormat="1">
       <c r="A221" s="2"/>
-      <c r="D221" s="239"/>
+      <c r="D221" s="243"/>
       <c r="E221" s="75" t="s">
         <v>321</v>
       </c>
@@ -20137,7 +20134,7 @@
     </row>
     <row r="222" spans="1:152" s="112" customFormat="1">
       <c r="A222" s="2"/>
-      <c r="D222" s="239"/>
+      <c r="D222" s="243"/>
       <c r="E222" s="86" t="s">
         <v>323</v>
       </c>
@@ -20301,7 +20298,7 @@
     </row>
     <row r="223" spans="1:152" s="112" customFormat="1">
       <c r="A223" s="2"/>
-      <c r="D223" s="239"/>
+      <c r="D223" s="243"/>
       <c r="E223" s="120" t="s">
         <v>323</v>
       </c>
@@ -20465,7 +20462,7 @@
     </row>
     <row r="224" spans="1:152" s="194" customFormat="1" ht="30">
       <c r="A224" s="196"/>
-      <c r="D224" s="239"/>
+      <c r="D224" s="243"/>
       <c r="E224" s="195" t="s">
         <v>323</v>
       </c>
@@ -20623,7 +20620,7 @@
     </row>
     <row r="225" spans="1:152" s="112" customFormat="1">
       <c r="A225" s="2"/>
-      <c r="D225" s="239"/>
+      <c r="D225" s="243"/>
       <c r="E225" s="143"/>
       <c r="F225" s="144" t="s">
         <v>96</v>
@@ -20785,7 +20782,7 @@
     </row>
     <row r="226" spans="1:152" s="138" customFormat="1">
       <c r="A226" s="2"/>
-      <c r="D226" s="240"/>
+      <c r="D226" s="244"/>
       <c r="E226" s="146"/>
       <c r="F226" s="124" t="s">
         <v>303</v>
@@ -20947,7 +20944,7 @@
     </row>
     <row r="227" spans="1:152" s="138" customFormat="1">
       <c r="A227" s="2"/>
-      <c r="D227" s="240"/>
+      <c r="D227" s="244"/>
       <c r="E227" s="146"/>
       <c r="F227" s="124" t="s">
         <v>306</v>
@@ -21628,6 +21625,18 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D173:D227"/>
+    <mergeCell ref="D120:D122"/>
+    <mergeCell ref="D123:D134"/>
+    <mergeCell ref="D136:D142"/>
+    <mergeCell ref="D143:D149"/>
+    <mergeCell ref="D150:D172"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="D41:D63"/>
+    <mergeCell ref="D64:D118"/>
+    <mergeCell ref="D14:D25"/>
+    <mergeCell ref="D27:D33"/>
+    <mergeCell ref="D34:D40"/>
     <mergeCell ref="J2:O4"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="A6:D6"/>
@@ -21636,34 +21645,22 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="D41:D63"/>
-    <mergeCell ref="D64:D118"/>
-    <mergeCell ref="D14:D25"/>
-    <mergeCell ref="D27:D33"/>
-    <mergeCell ref="D34:D40"/>
-    <mergeCell ref="D173:D227"/>
-    <mergeCell ref="D120:D122"/>
-    <mergeCell ref="D123:D134"/>
-    <mergeCell ref="D136:D142"/>
-    <mergeCell ref="D143:D149"/>
-    <mergeCell ref="D150:D172"/>
   </mergeCells>
   <conditionalFormatting sqref="D27">
-    <cfRule type="expression" dxfId="171" priority="437">
+    <cfRule type="expression" dxfId="171" priority="439">
+      <formula>OR($AD27="X",$AC27="X")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="170" priority="441">
+      <formula>AND(NOT(ISBLANK($W27)),ISBLANK($AC27),ISBLANK($AD27))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="169" priority="440">
+      <formula>$AC27=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="168" priority="438">
+      <formula>$AD27=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="167" priority="437">
       <formula>AND($AD27=1,$AC27=1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="170" priority="438">
-      <formula>$AD27=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="169" priority="439">
-      <formula>OR($AD27="X",$AC27="X")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="168" priority="440">
-      <formula>$AC27=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="167" priority="441">
-      <formula>AND(NOT(ISBLANK($W27)),ISBLANK($AC27),ISBLANK($AD27))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
@@ -21684,20 +21681,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41">
-    <cfRule type="expression" dxfId="161" priority="432">
+    <cfRule type="expression" dxfId="161" priority="433">
+      <formula>#REF!=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="160" priority="432">
       <formula>AND(#REF!=1,#REF!=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="433">
-      <formula>#REF!=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="159" priority="434">
-      <formula>OR(#REF!="X",#REF!="X")</formula>
+    <cfRule type="expression" dxfId="159" priority="436">
+      <formula>AND(NOT(ISBLANK(#REF!)),ISBLANK(#REF!),ISBLANK(#REF!))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="158" priority="435">
       <formula>#REF!=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="436">
-      <formula>AND(NOT(ISBLANK(#REF!)),ISBLANK(#REF!),ISBLANK(#REF!))</formula>
+    <cfRule type="expression" dxfId="157" priority="434">
+      <formula>OR(#REF!="X",#REF!="X")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D82">
@@ -21718,45 +21715,45 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D136">
-    <cfRule type="expression" dxfId="151" priority="75">
-      <formula>AND($AD136=1,$AC136=1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="150" priority="76">
-      <formula>$AD136=1</formula>
+    <cfRule type="expression" dxfId="151" priority="78">
+      <formula>$AC136=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="150" priority="79">
+      <formula>AND(NOT(ISBLANK($W136)),ISBLANK($AC136),ISBLANK($AD136))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="149" priority="77">
       <formula>OR($AD136="X",$AC136="X")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="78">
-      <formula>$AC136=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="147" priority="79">
-      <formula>AND(NOT(ISBLANK($W136)),ISBLANK($AC136),ISBLANK($AD136))</formula>
+    <cfRule type="expression" dxfId="148" priority="76">
+      <formula>$AD136=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="147" priority="75">
+      <formula>AND($AD136=1,$AC136=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D143">
-    <cfRule type="expression" dxfId="146" priority="54">
+    <cfRule type="expression" dxfId="146" priority="55">
+      <formula>$AD143=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="145" priority="56">
+      <formula>OR($AD143="X",$AC143="X")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="144" priority="57">
+      <formula>$AC143=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="143" priority="58">
+      <formula>AND(NOT(ISBLANK($W143)),ISBLANK($AC143),ISBLANK($AD143))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="142" priority="54">
       <formula>AND($AD143=1,$AC143=1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="145" priority="55">
-      <formula>$AD143=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="144" priority="56">
-      <formula>OR($AD143="X",$AC143="X")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="143" priority="57">
-      <formula>$AC143=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="142" priority="58">
-      <formula>AND(NOT(ISBLANK($W143)),ISBLANK($AC143),ISBLANK($AD143))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D150">
-    <cfRule type="expression" dxfId="141" priority="70">
+    <cfRule type="expression" dxfId="141" priority="71">
+      <formula>#REF!=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="140" priority="70">
       <formula>AND(#REF!=1,#REF!=1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="140" priority="71">
-      <formula>#REF!=1</formula>
     </cfRule>
     <cfRule type="expression" dxfId="139" priority="72">
       <formula>OR(#REF!="X",#REF!="X")</formula>
@@ -21778,151 +21775,151 @@
     <cfRule type="expression" dxfId="134" priority="33">
       <formula>OR(#REF!="X",#REF!="X")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="34">
+    <cfRule type="expression" dxfId="133" priority="35">
+      <formula>AND(NOT(ISBLANK(#REF!)),ISBLANK(#REF!),ISBLANK(#REF!))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="132" priority="34">
       <formula>#REF!=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="132" priority="35">
-      <formula>AND(NOT(ISBLANK(#REF!)),ISBLANK(#REF!),ISBLANK(#REF!))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41">
-    <cfRule type="expression" dxfId="131" priority="442">
-      <formula>AND($R41="X",$B41&lt;&gt;"")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="130" priority="443">
+    <cfRule type="expression" dxfId="131" priority="443">
       <formula>AND($AD41=1,$AC41=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="444">
-      <formula>$AD41=1</formula>
+    <cfRule type="expression" dxfId="130" priority="447">
+      <formula>AND(NOT(ISBLANK($W41)),ISBLANK($AC41),ISBLANK($AD41))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="129" priority="446">
+      <formula>$AC41=1</formula>
     </cfRule>
     <cfRule type="expression" dxfId="128" priority="445">
       <formula>OR($AD41="X",$AC41="X")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="446">
-      <formula>$AC41=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="126" priority="447">
-      <formula>AND(NOT(ISBLANK($W41)),ISBLANK($AC41),ISBLANK($AD41))</formula>
+    <cfRule type="expression" dxfId="127" priority="444">
+      <formula>$AD41=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="126" priority="442">
+      <formula>AND($R41="X",$B41&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F64:F66">
-    <cfRule type="expression" dxfId="125" priority="427">
+    <cfRule type="expression" dxfId="125" priority="428">
+      <formula>$AD64=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="124" priority="429">
+      <formula>OR($AD64="X",$AC64="X")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="123" priority="430">
+      <formula>$AC64=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="122" priority="431">
+      <formula>AND(NOT(ISBLANK($W64)),ISBLANK($AC64),ISBLANK($AD64))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="121" priority="427">
       <formula>AND($AD64=1,$AC64=1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="124" priority="428">
-      <formula>$AD64=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="123" priority="429">
-      <formula>OR($AD64="X",$AC64="X")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="122" priority="430">
-      <formula>$AC64=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="121" priority="431">
-      <formula>AND(NOT(ISBLANK($W64)),ISBLANK($AC64),ISBLANK($AD64))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="120" priority="448">
       <formula>AND($R64="X",$B64&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F82">
-    <cfRule type="expression" dxfId="119" priority="392">
+    <cfRule type="expression" dxfId="119" priority="397">
+      <formula>AND(NOT(ISBLANK($W82)),ISBLANK($AC82),ISBLANK($AD82))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="118" priority="396">
+      <formula>$AC82=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="117" priority="395">
+      <formula>OR($AD82="X",$AC82="X")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="116" priority="394">
+      <formula>$AD82=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="115" priority="392">
       <formula>AND($R82="X",$B82&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="393">
+    <cfRule type="expression" dxfId="114" priority="393">
       <formula>AND($AD82=1,$AC82=1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="117" priority="394">
-      <formula>$AD82=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="116" priority="395">
-      <formula>OR($AD82="X",$AC82="X")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="115" priority="396">
-      <formula>$AC82=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="114" priority="397">
-      <formula>AND(NOT(ISBLANK($W82)),ISBLANK($AC82),ISBLANK($AD82))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F150">
-    <cfRule type="expression" dxfId="113" priority="80">
+    <cfRule type="expression" dxfId="113" priority="85">
+      <formula>AND(NOT(ISBLANK($W150)),ISBLANK($AC150),ISBLANK($AD150))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="112" priority="80">
       <formula>AND($R150="X",$B150&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="81">
+    <cfRule type="expression" dxfId="111" priority="81">
       <formula>AND($AD150=1,$AC150=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="82">
+    <cfRule type="expression" dxfId="110" priority="82">
       <formula>$AD150=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="83">
+    <cfRule type="expression" dxfId="109" priority="83">
       <formula>OR($AD150="X",$AC150="X")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="84">
+    <cfRule type="expression" dxfId="108" priority="84">
       <formula>$AC150=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="108" priority="85">
-      <formula>AND(NOT(ISBLANK($W150)),ISBLANK($AC150),ISBLANK($AD150))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F173:F175">
     <cfRule type="expression" dxfId="107" priority="65">
       <formula>AND($AD173=1,$AC173=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="66">
+    <cfRule type="expression" dxfId="106" priority="68">
+      <formula>$AC173=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="105" priority="69">
+      <formula>AND(NOT(ISBLANK($W173)),ISBLANK($AC173),ISBLANK($AD173))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="104" priority="66">
       <formula>$AD173=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="67">
+    <cfRule type="expression" dxfId="103" priority="86">
+      <formula>AND($R173="X",$B173&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="102" priority="67">
       <formula>OR($AD173="X",$AC173="X")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="104" priority="68">
-      <formula>$AC173=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="103" priority="69">
-      <formula>AND(NOT(ISBLANK($W173)),ISBLANK($AC173),ISBLANK($AD173))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="102" priority="86">
-      <formula>AND($R173="X",$B173&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F191">
     <cfRule type="expression" dxfId="101" priority="36">
       <formula>AND($R191="X",$B191&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="37">
+    <cfRule type="expression" dxfId="100" priority="40">
+      <formula>$AC191=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="99" priority="37">
       <formula>AND($AD191=1,$AC191=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="38">
+    <cfRule type="expression" dxfId="98" priority="41">
+      <formula>AND(NOT(ISBLANK($W191)),ISBLANK($AC191),ISBLANK($AD191))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="97" priority="39">
+      <formula>OR($AD191="X",$AC191="X")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="96" priority="38">
       <formula>$AD191=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="98" priority="39">
-      <formula>OR($AD191="X",$AC191="X")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="97" priority="40">
-      <formula>$AC191=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="96" priority="41">
-      <formula>AND(NOT(ISBLANK($W191)),ISBLANK($AC191),ISBLANK($AD191))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F98:H98">
-    <cfRule type="expression" dxfId="95" priority="173">
+    <cfRule type="expression" dxfId="95" priority="175">
+      <formula>$AE98=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="94" priority="176">
+      <formula>OR($AE98="X",$AD98="X")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="93" priority="177">
+      <formula>$AD98=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="92" priority="178">
+      <formula>AND(NOT(ISBLANK($X98)),ISBLANK($AD98),ISBLANK($AE98))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="91" priority="173">
       <formula>AND($S98="X",OR($B98&lt;&gt;"",$D98&lt;&gt;""))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="174">
+    <cfRule type="expression" dxfId="90" priority="174">
       <formula>AND($AE98=1,$AD98=1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="93" priority="175">
-      <formula>$AE98=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="92" priority="176">
-      <formula>OR($AE98="X",$AD98="X")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="91" priority="177">
-      <formula>$AD98=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="90" priority="178">
-      <formula>AND(NOT(ISBLANK($X98)),ISBLANK($AD98),ISBLANK($AE98))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F207:H207">
@@ -21946,137 +21943,137 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57:J57">
-    <cfRule type="expression" dxfId="83" priority="421">
+    <cfRule type="expression" dxfId="83" priority="426">
+      <formula>AND(NOT(ISBLANK($X57)),ISBLANK($AD57),ISBLANK($AE57))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="82" priority="425">
+      <formula>$AD57=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="81" priority="424">
+      <formula>OR($AE57="X",$AD57="X")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="80" priority="423">
+      <formula>$AE57=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="79" priority="422">
+      <formula>AND($AE57=1,$AD57=1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="78" priority="421">
       <formula>AND($S57="X",OR($B57&lt;&gt;"",$D57&lt;&gt;""))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="82" priority="422">
-      <formula>AND($AE57=1,$AD57=1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="81" priority="423">
-      <formula>$AE57=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="80" priority="424">
-      <formula>OR($AE57="X",$AD57="X")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="79" priority="425">
-      <formula>$AD57=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="78" priority="426">
-      <formula>AND(NOT(ISBLANK($X57)),ISBLANK($AD57),ISBLANK($AE57))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F166:J166">
-    <cfRule type="expression" dxfId="77" priority="59">
+    <cfRule type="expression" dxfId="77" priority="64">
+      <formula>AND(NOT(ISBLANK($X166)),ISBLANK($AD166),ISBLANK($AE166))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="76" priority="63">
+      <formula>$AD166=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="75" priority="62">
+      <formula>OR($AE166="X",$AD166="X")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="74" priority="61">
+      <formula>$AE166=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="73" priority="60">
+      <formula>AND($AE166=1,$AD166=1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="59">
       <formula>AND($S166="X",OR($B166&lt;&gt;"",$D166&lt;&gt;""))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="76" priority="60">
-      <formula>AND($AE166=1,$AD166=1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="75" priority="61">
-      <formula>$AE166=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="74" priority="62">
-      <formula>OR($AE166="X",$AD166="X")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="73" priority="63">
-      <formula>$AD166=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="72" priority="64">
-      <formula>AND(NOT(ISBLANK($X166)),ISBLANK($AD166),ISBLANK($AE166))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G58:G59">
-    <cfRule type="expression" dxfId="71" priority="381">
+    <cfRule type="expression" dxfId="71" priority="383">
+      <formula>$AE58=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="384">
+      <formula>OR($AE58="X",$AD58="X")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="69" priority="385">
+      <formula>$AD58=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="68" priority="386">
+      <formula>AND(NOT(ISBLANK($X58)),ISBLANK($AD58),ISBLANK($AE58))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="67" priority="381">
       <formula>AND($S58="X",OR($B58&lt;&gt;"",$D58&lt;&gt;""))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="382">
+    <cfRule type="expression" dxfId="66" priority="382">
       <formula>AND($AE58=1,$AD58=1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="69" priority="383">
-      <formula>$AE58=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="68" priority="384">
-      <formula>OR($AE58="X",$AD58="X")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="67" priority="385">
-      <formula>$AD58=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="66" priority="386">
-      <formula>AND(NOT(ISBLANK($X58)),ISBLANK($AD58),ISBLANK($AE58))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G63:G66">
-    <cfRule type="expression" dxfId="65" priority="404">
+    <cfRule type="expression" dxfId="65" priority="409">
+      <formula>AND(NOT(ISBLANK($X63)),ISBLANK($AD63),ISBLANK($AE63))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="408">
+      <formula>$AD63=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="63" priority="407">
+      <formula>OR($AE63="X",$AD63="X")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="406">
+      <formula>$AE63=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="61" priority="405">
+      <formula>AND($AE63=1,$AD63=1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="404">
       <formula>AND($S63="X",OR($B63&lt;&gt;"",$D63&lt;&gt;""))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="64" priority="405">
-      <formula>AND($AE63=1,$AD63=1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="63" priority="406">
-      <formula>$AE63=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="62" priority="407">
-      <formula>OR($AE63="X",$AD63="X")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="61" priority="408">
-      <formula>$AD63=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="60" priority="409">
-      <formula>AND(NOT(ISBLANK($X63)),ISBLANK($AD63),ISBLANK($AE63))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G68:G78">
-    <cfRule type="expression" dxfId="59" priority="398">
+    <cfRule type="expression" dxfId="59" priority="402">
+      <formula>AND(NOT(ISBLANK($W68)),ISBLANK($AC68),ISBLANK($AD68))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="403">
+      <formula>AND($R68="X",$B68&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="398">
       <formula>AND($AD68=1,$AC68=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="399">
+    <cfRule type="expression" dxfId="56" priority="400">
+      <formula>OR($AD68="X",$AC68="X")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="55" priority="399">
       <formula>$AD68=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="400">
-      <formula>OR($AD68="X",$AC68="X")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="56" priority="401">
+    <cfRule type="expression" dxfId="54" priority="401">
       <formula>$AC68=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="55" priority="402">
-      <formula>AND(NOT(ISBLANK($W68)),ISBLANK($AC68),ISBLANK($AD68))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="403">
-      <formula>AND($R68="X",$B68&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G99:G100">
-    <cfRule type="expression" dxfId="53" priority="375">
+    <cfRule type="expression" dxfId="53" priority="376">
+      <formula>AND($AE99=1,$AD99=1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="377">
+      <formula>$AE99=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="378">
+      <formula>OR($AE99="X",$AD99="X")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="379">
+      <formula>$AD99=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="380">
+      <formula>AND(NOT(ISBLANK($X99)),ISBLANK($AD99),ISBLANK($AE99))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="375">
       <formula>AND($S99="X",OR($B99&lt;&gt;"",$D99&lt;&gt;""))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="52" priority="376">
-      <formula>AND($AE99=1,$AD99=1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="51" priority="377">
-      <formula>$AE99=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="50" priority="378">
-      <formula>OR($AE99="X",$AD99="X")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="49" priority="379">
-      <formula>$AD99=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="48" priority="380">
-      <formula>AND(NOT(ISBLANK($X99)),ISBLANK($AD99),ISBLANK($AE99))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G104">
-    <cfRule type="expression" dxfId="47" priority="369">
+    <cfRule type="expression" dxfId="47" priority="372">
+      <formula>OR($AE104="X",$AD104="X")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="369">
       <formula>AND($S104="X",OR($B104&lt;&gt;"",$D104&lt;&gt;""))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="370">
+    <cfRule type="expression" dxfId="45" priority="370">
       <formula>AND($AE104=1,$AD104=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="371">
+    <cfRule type="expression" dxfId="44" priority="371">
       <formula>$AE104=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="44" priority="372">
-      <formula>OR($AE104="X",$AD104="X")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="43" priority="373">
       <formula>$AD104=1</formula>
@@ -22086,43 +22083,43 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G167:G168">
-    <cfRule type="expression" dxfId="41" priority="25">
+    <cfRule type="expression" dxfId="41" priority="28">
+      <formula>OR($AE167="X",$AD167="X")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="29">
+      <formula>$AD167=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="30">
+      <formula>AND(NOT(ISBLANK($X167)),ISBLANK($AD167),ISBLANK($AE167))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="27">
+      <formula>$AE167=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="26">
+      <formula>AND($AE167=1,$AD167=1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="25">
       <formula>AND($S167="X",OR($B167&lt;&gt;"",$D167&lt;&gt;""))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="26">
-      <formula>AND($AE167=1,$AD167=1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="39" priority="27">
-      <formula>$AE167=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="28">
-      <formula>OR($AE167="X",$AD167="X")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="37" priority="29">
-      <formula>$AD167=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="30">
-      <formula>AND(NOT(ISBLANK($X167)),ISBLANK($AD167),ISBLANK($AE167))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G172:G175">
-    <cfRule type="expression" dxfId="35" priority="48">
+    <cfRule type="expression" dxfId="35" priority="49">
+      <formula>AND($AE172=1,$AD172=1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="50">
+      <formula>$AE172=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="51">
+      <formula>OR($AE172="X",$AD172="X")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="52">
+      <formula>$AD172=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="53">
+      <formula>AND(NOT(ISBLANK($X172)),ISBLANK($AD172),ISBLANK($AE172))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="48">
       <formula>AND($S172="X",OR($B172&lt;&gt;"",$D172&lt;&gt;""))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="49">
-      <formula>AND($AE172=1,$AD172=1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="50">
-      <formula>$AE172=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="51">
-      <formula>OR($AE172="X",$AD172="X")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="31" priority="52">
-      <formula>$AD172=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="53">
-      <formula>AND(NOT(ISBLANK($X172)),ISBLANK($AD172),ISBLANK($AE172))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G177:G187">
@@ -22132,104 +22129,104 @@
     <cfRule type="expression" dxfId="28" priority="43">
       <formula>$AD177=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="44">
+    <cfRule type="expression" dxfId="27" priority="47">
+      <formula>AND($R177="X",$B177&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="46">
+      <formula>AND(NOT(ISBLANK($W177)),ISBLANK($AC177),ISBLANK($AD177))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="45">
+      <formula>$AC177=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="44">
       <formula>OR($AD177="X",$AC177="X")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="45">
-      <formula>$AC177=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="46">
-      <formula>AND(NOT(ISBLANK($W177)),ISBLANK($AC177),ISBLANK($AD177))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="47">
-      <formula>AND($R177="X",$B177&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G208:G209">
-    <cfRule type="expression" dxfId="23" priority="19">
+    <cfRule type="expression" dxfId="23" priority="22">
+      <formula>OR($AE208="X",$AD208="X")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="24">
+      <formula>AND(NOT(ISBLANK($X208)),ISBLANK($AD208),ISBLANK($AE208))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="23">
+      <formula>$AD208=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="21">
+      <formula>$AE208=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="20">
+      <formula>AND($AE208=1,$AD208=1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="19">
       <formula>AND($S208="X",OR($B208&lt;&gt;"",$D208&lt;&gt;""))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="20">
-      <formula>AND($AE208=1,$AD208=1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="21">
-      <formula>$AE208=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="22">
-      <formula>OR($AE208="X",$AD208="X")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="23">
-      <formula>$AD208=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="24">
-      <formula>AND(NOT(ISBLANK($X208)),ISBLANK($AD208),ISBLANK($AE208))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G213">
-    <cfRule type="expression" dxfId="17" priority="13">
-      <formula>AND($S213="X",OR($B213&lt;&gt;"",$D213&lt;&gt;""))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="14">
-      <formula>AND($AE213=1,$AD213=1)</formula>
+    <cfRule type="expression" dxfId="17" priority="18">
+      <formula>AND(NOT(ISBLANK($X213)),ISBLANK($AD213),ISBLANK($AE213))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="17">
+      <formula>$AD213=1</formula>
     </cfRule>
     <cfRule type="expression" dxfId="15" priority="15">
       <formula>$AE213=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="16">
+    <cfRule type="expression" dxfId="14" priority="14">
+      <formula>AND($AE213=1,$AD213=1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="13">
+      <formula>AND($S213="X",OR($B213&lt;&gt;"",$D213&lt;&gt;""))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="16">
       <formula>OR($AE213="X",$AD213="X")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="17">
-      <formula>$AD213=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="18">
-      <formula>AND(NOT(ISBLANK($X213)),ISBLANK($AD213),ISBLANK($AE213))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J98">
-    <cfRule type="expression" dxfId="11" priority="277">
+    <cfRule type="expression" dxfId="11" priority="282">
+      <formula>AND(NOT(ISBLANK($X98)),ISBLANK($AD98),ISBLANK($AE98))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="281">
+      <formula>$AD98=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="278">
+      <formula>AND($AE98=1,$AD98=1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="279">
+      <formula>$AE98=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="277">
       <formula>AND($S98="X",OR($B98&lt;&gt;"",$D98&lt;&gt;""))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="278">
-      <formula>AND($AE98=1,$AD98=1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="279">
-      <formula>$AE98=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="280">
+    <cfRule type="expression" dxfId="6" priority="280">
       <formula>OR($AE98="X",$AD98="X")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="281">
-      <formula>$AD98=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="282">
-      <formula>AND(NOT(ISBLANK($X98)),ISBLANK($AD98),ISBLANK($AE98))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J207">
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="5" priority="8">
+      <formula>AND($AE207=1,$AD207=1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="7">
       <formula>AND($S207="X",OR($B207&lt;&gt;"",$D207&lt;&gt;""))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="8">
-      <formula>AND($AE207=1,$AD207=1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="9">
+    <cfRule type="expression" dxfId="3" priority="10">
+      <formula>OR($AE207="X",$AD207="X")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="9">
       <formula>$AE207=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="10">
-      <formula>OR($AE207="X",$AD207="X")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="11">
+    <cfRule type="expression" dxfId="1" priority="12">
+      <formula>AND(NOT(ISBLANK($X207)),ISBLANK($AD207),ISBLANK($AE207))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="11">
       <formula>$AD207=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="12">
-      <formula>AND(NOT(ISBLANK($X207)),ISBLANK($AD207),ISBLANK($AE207))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A229:A386" xr:uid="{5CAF355E-6065-4942-B2C1-F3FE2DA89EA8}">
       <formula1>"Envoi,Réception"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11:C118 B10:B227 B228:C384 C120:C227" xr:uid="{3482F6D6-936D-48F2-9412-FA0845C1CA76}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:B227 B228:C384 C11:C227" xr:uid="{3482F6D6-936D-48F2-9412-FA0845C1CA76}">
       <formula1>"RC-EDA,RS-EDA,EMSI,EMSI-DC,EMSI-RDC,EMSI-EO"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10:A228" xr:uid="{A44C969D-C616-497B-B0FC-806DF046EB28}">
@@ -22242,6 +22239,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <ModificateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
@@ -22291,15 +22297,6 @@
     </l0a6b4600f484920bbceae0813174244>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -22717,11 +22714,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33493A62-AC11-48A7-B6C8-0591C55C368B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381C76DC-CEF1-461E-A76F-551B50E93033}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381C76DC-CEF1-461E-A76F-551B50E93033}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33493A62-AC11-48A7-B6C8-0591C55C368B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/csv_parser/test-cases-15-15.xlsx
+++ b/csv_parser/test-cases-15-15.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://esantegouv.sharepoint.com/sites/GED-Calypso/espace-projets/Espace Programme SISAMU/01 - Equipe projet/07 - Innovation et prospectif/12 - Hub Santé/13 - 15-15/04 - Pilotes 15-15/04 - JDD recette/JSON pour interface LRM/03 - Automodel tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F493ED0D-4C71-4ACF-BB58-0D0A70BD1F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{115534B0-474F-4C8F-8240-A23B39D2858F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3285" yWindow="1590" windowWidth="22740" windowHeight="12930" xr2:uid="{8E95E427-60E8-4C01-A0F5-EF6B52DBDF48}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="284">
   <si>
     <t>Périmètre</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>V</t>
+  </si>
+  <si>
+    <t>Donnée</t>
   </si>
   <si>
     <t>path JSON</t>
@@ -2553,7 +2556,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="6" ySplit="10" topLeftCell="G11" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
     </sheetView>
@@ -2717,38 +2720,40 @@
       <c r="E9" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="13"/>
+      <c r="F9" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="G9" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="70" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E10" s="119"/>
       <c r="F10" s="20"/>
@@ -2761,23 +2766,23 @@
     </row>
     <row r="11" spans="1:15" ht="16.5" customHeight="1">
       <c r="D11" s="165" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E11" s="120"/>
       <c r="F11" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K11" s="38"/>
       <c r="L11" s="38"/>
@@ -2786,19 +2791,19 @@
       <c r="D12" s="165"/>
       <c r="E12" s="121"/>
       <c r="F12" s="103" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G12" s="103" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H12" s="104" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I12" s="104" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J12" s="104" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K12" s="105"/>
       <c r="L12" s="105"/>
@@ -2807,19 +2812,19 @@
       <c r="D13" s="165"/>
       <c r="E13" s="122"/>
       <c r="F13" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
@@ -2830,19 +2835,19 @@
         <v>3</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H14" s="66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I14" s="66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J14" s="66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K14" s="33"/>
       <c r="L14" s="33"/>
@@ -2853,33 +2858,33 @@
         <v>3</v>
       </c>
       <c r="F15" s="33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G15" s="33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" s="66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" s="66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J15" s="66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K15" s="33"/>
       <c r="L15" s="33"/>
     </row>
     <row r="16" spans="1:15">
       <c r="D16" s="96" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E16" s="148"/>
       <c r="F16" s="91" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G16" s="91" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H16" s="28"/>
       <c r="I16" s="27"/>
@@ -2889,14 +2894,14 @@
     </row>
     <row r="17" spans="4:12">
       <c r="D17" s="96" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E17" s="148"/>
       <c r="F17" s="91" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G17" s="91" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H17" s="28"/>
       <c r="I17" s="27"/>
@@ -2906,25 +2911,25 @@
     </row>
     <row r="18" spans="4:12">
       <c r="D18" s="154" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E18" s="123">
         <v>2</v>
       </c>
       <c r="F18" s="145" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G18" s="145" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H18" s="146" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I18" s="146" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J18" s="146" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K18" s="147"/>
       <c r="L18" s="147"/>
@@ -2935,19 +2940,19 @@
         <v>3</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J19" s="63" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
@@ -2958,19 +2963,19 @@
         <v>2</v>
       </c>
       <c r="F20" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G20" s="34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H20" s="35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I20" s="34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J20" s="34" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K20" s="34"/>
       <c r="L20" s="34"/>
@@ -2981,19 +2986,19 @@
         <v>3</v>
       </c>
       <c r="F21" s="70" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G21" s="70" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H21" s="71" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I21" s="71" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J21" s="72" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K21" s="70"/>
       <c r="L21" s="70"/>
@@ -3004,19 +3009,19 @@
         <v>1</v>
       </c>
       <c r="F22" s="36" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G22" s="36" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H22" s="37" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I22" s="36" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J22" s="36" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K22" s="36"/>
       <c r="L22" s="36"/>
@@ -3027,19 +3032,19 @@
         <v>3</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I23" s="45" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J23" s="45" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K23" s="15"/>
       <c r="L23" s="15"/>
@@ -3050,19 +3055,19 @@
         <v>1</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K24" s="15"/>
       <c r="L24" s="15"/>
@@ -3073,67 +3078,67 @@
         <v>3</v>
       </c>
       <c r="F25" s="65" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G25" s="27" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H25" s="66" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I25" s="66" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J25" s="66" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K25" s="27"/>
       <c r="L25" s="27"/>
     </row>
     <row r="26" spans="4:12">
       <c r="D26" s="64" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E26" s="123">
         <v>1</v>
       </c>
       <c r="F26" s="48" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G26" s="48" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H26" s="49" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I26" s="49" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J26" s="49" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K26" s="50"/>
       <c r="L26" s="50"/>
     </row>
     <row r="27" spans="4:12">
       <c r="D27" s="160" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E27" s="124"/>
       <c r="F27" s="18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H27" s="19" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I27" s="19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J27" s="19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K27" s="15"/>
       <c r="L27" s="15"/>
@@ -3144,19 +3149,19 @@
         <v>1</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K28" s="15"/>
       <c r="L28" s="15"/>
@@ -3167,16 +3172,16 @@
         <v>2</v>
       </c>
       <c r="F29" s="59" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H29" s="59" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I29" s="59" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J29" s="59"/>
       <c r="K29" s="59"/>
@@ -3188,16 +3193,16 @@
         <v>1</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J30" s="15"/>
       <c r="K30" s="15"/>
@@ -3207,16 +3212,16 @@
       <c r="D31" s="161"/>
       <c r="E31" s="119"/>
       <c r="F31" s="15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I31" s="15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J31" s="15"/>
       <c r="K31" s="15"/>
@@ -3226,16 +3231,16 @@
       <c r="D32" s="161"/>
       <c r="E32" s="119"/>
       <c r="F32" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H32" s="16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I32" s="15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J32" s="15"/>
       <c r="K32" s="15"/>
@@ -3247,33 +3252,33 @@
         <v>2</v>
       </c>
       <c r="F33" s="97" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G33" s="32" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H33" s="98" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I33" s="97" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J33" s="97" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K33" s="97"/>
       <c r="L33" s="97"/>
     </row>
     <row r="34" spans="4:12">
       <c r="D34" s="160" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E34" s="125"/>
       <c r="F34" s="51" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G34" s="18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H34" s="52"/>
       <c r="I34" s="52"/>
@@ -3285,10 +3290,10 @@
       <c r="D35" s="161"/>
       <c r="E35" s="119"/>
       <c r="F35" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H35" s="16"/>
       <c r="I35" s="15"/>
@@ -3300,10 +3305,10 @@
       <c r="D36" s="161"/>
       <c r="E36" s="119"/>
       <c r="F36" s="15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H36" s="16"/>
       <c r="I36" s="15"/>
@@ -3315,10 +3320,10 @@
       <c r="D37" s="161"/>
       <c r="E37" s="119"/>
       <c r="F37" s="15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H37" s="16"/>
       <c r="I37" s="15"/>
@@ -3330,10 +3335,10 @@
       <c r="D38" s="161"/>
       <c r="E38" s="119"/>
       <c r="F38" s="15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H38" s="16"/>
       <c r="I38" s="15"/>
@@ -3345,10 +3350,10 @@
       <c r="D39" s="161"/>
       <c r="E39" s="119"/>
       <c r="F39" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H39" s="16"/>
       <c r="I39" s="15"/>
@@ -3360,10 +3365,10 @@
       <c r="D40" s="162"/>
       <c r="E40" s="126"/>
       <c r="F40" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H40" s="57"/>
       <c r="I40" s="56"/>
@@ -3373,23 +3378,23 @@
     </row>
     <row r="41" spans="4:12">
       <c r="D41" s="154" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E41" s="123"/>
       <c r="F41" s="47" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G41" s="48" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H41" s="49" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I41" s="49" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J41" s="49" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K41" s="50"/>
       <c r="L41" s="50"/>
@@ -3400,19 +3405,19 @@
         <v>2</v>
       </c>
       <c r="F42" s="81" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G42" s="81" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H42" s="82" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I42" s="82" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J42" s="82" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K42" s="83"/>
       <c r="L42" s="83"/>
@@ -3421,15 +3426,15 @@
       <c r="D43" s="157"/>
       <c r="E43" s="84"/>
       <c r="F43" s="85" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G43" s="15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H43" s="86"/>
       <c r="I43" s="86"/>
       <c r="J43" s="86" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K43" s="85"/>
       <c r="L43" s="85"/>
@@ -3440,19 +3445,19 @@
         <v>1</v>
       </c>
       <c r="F44" s="24" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G44" s="24" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I44" s="25" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J44" s="22" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K44" s="22"/>
       <c r="L44" s="22"/>
@@ -3463,19 +3468,19 @@
         <v>1</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G45" s="15" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H45" s="16" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I45" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J45" s="15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K45" s="15"/>
       <c r="L45" s="15"/>
@@ -3486,10 +3491,10 @@
         <v>3</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G46" s="15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H46" s="17">
         <v>77479</v>
@@ -3509,10 +3514,10 @@
         <v>2</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G47" s="15" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H47" s="15"/>
       <c r="I47" s="61">
@@ -3528,10 +3533,10 @@
         <v>2</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G48" s="15" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H48" s="15"/>
       <c r="J48" s="15"/>
@@ -3544,14 +3549,14 @@
         <v>2</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G49" s="15" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H49" s="15"/>
       <c r="I49" s="15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J49" s="15"/>
       <c r="K49" s="15"/>
@@ -3563,10 +3568,10 @@
         <v>2</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G50" s="15" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H50" s="15"/>
       <c r="I50" s="46">
@@ -3582,14 +3587,14 @@
         <v>2</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G51" s="15" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H51" s="15"/>
       <c r="I51" s="15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J51" s="15"/>
       <c r="K51" s="15"/>
@@ -3601,14 +3606,14 @@
         <v>2</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G52" s="15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H52" s="15"/>
       <c r="I52" s="15" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J52" s="15"/>
       <c r="K52" s="15"/>
@@ -3620,10 +3625,10 @@
         <v>2</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G53" s="15" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H53" s="15"/>
       <c r="I53" s="15"/>
@@ -3637,10 +3642,10 @@
         <v>2</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G54" s="15" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H54" s="15"/>
       <c r="I54" s="15"/>
@@ -3654,10 +3659,10 @@
         <v>2</v>
       </c>
       <c r="F55" s="23" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G55" s="15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H55" s="23"/>
       <c r="I55" s="23"/>
@@ -3673,19 +3678,19 @@
         <v>2</v>
       </c>
       <c r="F56" s="33" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G56" s="15" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H56" s="33" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I56" s="33" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J56" s="31" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K56" s="32"/>
       <c r="L56" s="32"/>
@@ -3694,16 +3699,16 @@
       <c r="D57" s="155"/>
       <c r="E57" s="128"/>
       <c r="F57" s="39" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G57" s="39" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H57" s="39" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I57" s="93" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J57" s="39"/>
       <c r="K57" s="36"/>
@@ -3715,16 +3720,16 @@
         <v>3</v>
       </c>
       <c r="F58" s="40" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G58" s="39" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H58" s="40" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I58" s="94" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J58" s="40"/>
       <c r="K58" s="36"/>
@@ -3736,16 +3741,16 @@
         <v>3</v>
       </c>
       <c r="F59" s="40" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G59" s="39" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H59" s="40" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I59" s="94" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J59" s="40"/>
       <c r="K59" s="36"/>
@@ -3755,10 +3760,10 @@
       <c r="D60" s="155"/>
       <c r="E60" s="119"/>
       <c r="F60" s="22" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G60" s="22" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H60" s="22"/>
       <c r="I60" s="15"/>
@@ -3770,10 +3775,10 @@
       <c r="D61" s="155"/>
       <c r="E61" s="119"/>
       <c r="F61" s="15" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G61" s="22" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H61" s="15"/>
       <c r="I61" s="15"/>
@@ -3785,10 +3790,10 @@
       <c r="D62" s="155"/>
       <c r="E62" s="119"/>
       <c r="F62" s="23" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G62" s="22" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H62" s="23"/>
       <c r="I62" s="15"/>
@@ -3800,16 +3805,16 @@
       <c r="D63" s="156"/>
       <c r="E63" s="128"/>
       <c r="F63" s="40" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G63" s="39" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H63" s="42" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I63" s="42" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J63" s="42"/>
       <c r="K63" s="36"/>
@@ -3817,23 +3822,23 @@
     </row>
     <row r="64" spans="4:12">
       <c r="D64" s="158" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E64" s="128"/>
       <c r="F64" s="41" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G64" s="39" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H64" s="42" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I64" s="42" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J64" s="42" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K64" s="36"/>
       <c r="L64" s="36"/>
@@ -3842,19 +3847,19 @@
       <c r="D65" s="158"/>
       <c r="E65" s="128"/>
       <c r="F65" s="43" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G65" s="39" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H65" s="44" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I65" s="44" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J65" s="44" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K65" s="36"/>
       <c r="L65" s="36"/>
@@ -3863,19 +3868,19 @@
       <c r="D66" s="158"/>
       <c r="E66" s="129"/>
       <c r="F66" s="43" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G66" s="39" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H66" s="44" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I66" s="44" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J66" s="44" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K66" s="36"/>
       <c r="L66" s="36"/>
@@ -3886,10 +3891,10 @@
         <v>2</v>
       </c>
       <c r="F67" s="29" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G67" s="29" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H67" s="88"/>
       <c r="I67" s="88"/>
@@ -3903,19 +3908,19 @@
         <v>1</v>
       </c>
       <c r="F68" s="27" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G68" s="29" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H68" s="28" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I68" s="28" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J68" s="28" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K68" s="26"/>
       <c r="L68" s="15"/>
@@ -3923,13 +3928,13 @@
     <row r="69" spans="4:12" s="60" customFormat="1">
       <c r="D69" s="158"/>
       <c r="E69" s="130" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F69" s="62" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G69" s="29" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H69" s="139">
         <v>607080915</v>
@@ -3947,19 +3952,19 @@
       <c r="D70" s="158"/>
       <c r="E70" s="100"/>
       <c r="F70" s="140" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G70" s="101" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H70" s="141" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I70" s="141" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J70" s="141" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K70" s="138"/>
       <c r="L70" s="102"/>
@@ -3970,19 +3975,19 @@
         <v>2</v>
       </c>
       <c r="F71" s="27" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G71" s="29" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H71" s="28" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I71" s="28" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J71" s="28" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K71" s="26"/>
       <c r="L71" s="15"/>
@@ -3993,10 +3998,10 @@
         <v>2</v>
       </c>
       <c r="F72" s="62" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G72" s="29" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H72" s="139">
         <v>607080915</v>
@@ -4014,19 +4019,19 @@
       <c r="D73" s="158"/>
       <c r="E73" s="144"/>
       <c r="F73" s="140" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G73" s="101" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H73" s="141" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I73" s="141" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J73" s="141" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K73" s="138"/>
       <c r="L73" s="102"/>
@@ -4035,19 +4040,19 @@
       <c r="D74" s="158"/>
       <c r="E74" s="129"/>
       <c r="F74" s="62" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G74" s="29" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H74" s="142" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I74" s="143" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J74" s="143" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K74" s="137"/>
       <c r="L74" s="59"/>
@@ -4058,19 +4063,19 @@
         <v>3</v>
       </c>
       <c r="F75" s="27" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G75" s="29" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H75" s="69" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I75" s="27" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J75" s="27" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K75" s="26"/>
       <c r="L75" s="15"/>
@@ -4079,10 +4084,10 @@
       <c r="D76" s="158"/>
       <c r="E76" s="129"/>
       <c r="F76" s="27" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G76" s="29" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H76" s="69"/>
       <c r="I76" s="27"/>
@@ -4094,10 +4099,10 @@
       <c r="D77" s="158"/>
       <c r="E77" s="136"/>
       <c r="F77" s="27" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G77" s="29" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H77" s="28"/>
       <c r="I77" s="27"/>
@@ -4111,19 +4116,19 @@
         <v>2</v>
       </c>
       <c r="F78" s="27" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G78" s="29" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H78" s="106" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I78" s="106" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J78" s="106" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K78" s="27"/>
       <c r="L78" s="26"/>
@@ -4132,10 +4137,10 @@
       <c r="D79" s="158"/>
       <c r="E79" s="136"/>
       <c r="F79" s="27" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G79" s="29" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J79" s="27"/>
       <c r="K79" s="27"/>
@@ -4147,16 +4152,16 @@
         <v>2</v>
       </c>
       <c r="F80" s="27" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G80" s="29" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H80" s="28" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I80" s="27" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J80" s="108"/>
       <c r="K80" s="27"/>
@@ -4166,10 +4171,10 @@
       <c r="D81" s="158"/>
       <c r="E81" s="136"/>
       <c r="F81" s="27" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G81" s="29" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H81" s="28"/>
       <c r="I81" s="27"/>
@@ -4183,14 +4188,14 @@
         <v>2</v>
       </c>
       <c r="F82" s="27" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G82" s="29" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H82" s="28"/>
       <c r="I82" s="27" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="J82" s="109"/>
       <c r="K82" s="22"/>
@@ -4199,22 +4204,22 @@
     <row r="83" spans="1:12">
       <c r="D83" s="158"/>
       <c r="E83" s="130" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F83" s="114" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G83" s="29" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H83" s="115" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I83" s="115" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J83" s="110" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K83" s="15"/>
       <c r="L83" s="15"/>
@@ -4223,19 +4228,19 @@
       <c r="D84" s="158"/>
       <c r="E84" s="129"/>
       <c r="F84" s="27" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G84" s="29" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H84" s="28" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I84" s="27" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J84" s="26" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K84" s="15"/>
       <c r="L84" s="15"/>
@@ -4244,19 +4249,19 @@
       <c r="D85" s="158"/>
       <c r="E85" s="131"/>
       <c r="F85" s="111" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G85" s="112" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H85" s="113" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I85" s="111" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="J85" s="23" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K85" s="23"/>
       <c r="L85" s="23"/>
@@ -4265,19 +4270,19 @@
       <c r="D86" s="159"/>
       <c r="E86" s="132"/>
       <c r="F86" s="74" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G86" s="75" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H86" s="79" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I86" s="79" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J86" s="79" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K86" s="77"/>
       <c r="L86" s="77"/>
@@ -4286,26 +4291,26 @@
       <c r="D87" s="159"/>
       <c r="E87" s="132"/>
       <c r="F87" s="74" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G87" s="75" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H87" s="80" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I87" s="80" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J87" s="80" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K87" s="77"/>
       <c r="L87" s="77"/>
     </row>
     <row r="88" spans="1:12" s="67" customFormat="1">
       <c r="A88" s="67" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E88" s="133"/>
       <c r="H88" s="68"/>

--- a/csv_parser/test-cases-15-15.xlsx
+++ b/csv_parser/test-cases-15-15.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://esantegouv.sharepoint.com/sites/GED-Calypso/espace-projets/Espace Programme SISAMU/01 - Equipe projet/07 - Innovation et prospectif/12 - Hub Santé/13 - 15-15/04 - Pilotes 15-15/04 - JDD recette/JSON pour interface LRM/03 - Automodel tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{115534B0-474F-4C8F-8240-A23B39D2858F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{23F2E2D5-F3C9-41BD-A568-762E7BAA1BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3285" yWindow="1590" windowWidth="22740" windowHeight="12930" xr2:uid="{8E95E427-60E8-4C01-A0F5-EF6B52DBDF48}"/>
   </bookViews>
@@ -213,13 +213,13 @@
     <t>Description de l'affaire/dossier</t>
   </si>
   <si>
-    <t>$.createCaseHealth.[0].freetext</t>
+    <t>$.createCaseHealth[0].freetext</t>
   </si>
   <si>
     <t>Description du dossier 02</t>
   </si>
   <si>
-    <t>$.createCaseHealth.[1].freetext</t>
+    <t>$.createCaseHealth[1].freetext</t>
   </si>
   <si>
     <t>Qualification du dossier</t>
@@ -360,7 +360,7 @@
     <t>ID patient partagé</t>
   </si>
   <si>
-    <t>$.createCaseHealth.patient.[0].id</t>
+    <t>$.createCaseHealth.patient[0].id</t>
   </si>
   <si>
     <t>fr.health.samu770-DRFR157702400400055.P167</t>
@@ -375,7 +375,7 @@
     <t>Sexe</t>
   </si>
   <si>
-    <t>$.createCaseHealth.patient.[0].identity.strictFeatures.sex</t>
+    <t>$.createCaseHealth.patient[0].identity.strictFeatures.sex</t>
   </si>
   <si>
     <t>MASC</t>
@@ -390,7 +390,7 @@
     <t>Date de naissance</t>
   </si>
   <si>
-    <t>$.createCaseHealth.patient.[0].identity.strictFeatures.birthDate</t>
+    <t>$.createCaseHealth.patient[0].identity.strictFeatures.birthDate</t>
   </si>
   <si>
     <t>1959-02-01</t>
@@ -402,7 +402,7 @@
     <t>Prénom et nom</t>
   </si>
   <si>
-    <t>$.createCaseHealth.patient.[0].identity.nonstrictFeatures.complete</t>
+    <t>$.createCaseHealth.patient[0].identity.nonstrictFeatures.complete</t>
   </si>
   <si>
     <t>Didier Morel</t>
@@ -414,7 +414,7 @@
     <t>Prénom</t>
   </si>
   <si>
-    <t>$.createCaseHealth.patient.[0].identity.nonstrictFeatures.firstName</t>
+    <t>$.createCaseHealth.patient[0].identity.nonstrictFeatures.firstName</t>
   </si>
   <si>
     <t xml:space="preserve">Didier </t>
@@ -426,7 +426,7 @@
     <t>Nom</t>
   </si>
   <si>
-    <t>$.createCaseHealth.patient.[0].identity.nonstrictFeatures.lastName</t>
+    <t>$.createCaseHealth.patient[0].identity.nonstrictFeatures.lastName</t>
   </si>
   <si>
     <t>Morel</t>
@@ -438,7 +438,7 @@
     <t>Age</t>
   </si>
   <si>
-    <t>$.createCaseHealth.patient.[0].detail.age</t>
+    <t>$.createCaseHealth.patient[0].detail.age</t>
   </si>
   <si>
     <t>P65Y</t>
@@ -453,25 +453,25 @@
     <t>Patient / victime n°2</t>
   </si>
   <si>
-    <t>$.createCaseHealth.patient.[1].id</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.patient.[1].identity.strictFeatures.sex</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.patient.[1].identity.strictFeatures.birthDate</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.patient.[1].identity.nonstrictFeatures.complete</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.patient.[1].identity.nonstrictFeatures.firstName</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.patient.[1].identity.nonstrictFeatures.lastName</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.patient.[1].detail.age</t>
+    <t>$.createCaseHealth.patient[1].id</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.patient[1].identity.strictFeatures.sex</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.patient[1].identity.strictFeatures.birthDate</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.patient[1].identity.nonstrictFeatures.complete</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.patient[1].identity.nonstrictFeatures.firstName</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.patient[1].identity.nonstrictFeatures.lastName</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.patient[1].detail.age</t>
   </si>
   <si>
     <t>Localisation de l'affaire/dossier</t>
@@ -567,7 +567,7 @@
     <t>Digicode 01</t>
   </si>
   <si>
-    <t>$.createCaseHealth.location.access.[0].accessCode</t>
+    <t>$.createCaseHealth.location.access[0].accessCode</t>
   </si>
   <si>
     <t>Ascenseur/escalier</t>
@@ -792,13 +792,13 @@
     <t>datetime observations ARM 01</t>
   </si>
   <si>
-    <t>$.createCaseHealth.intialAlert.caller.notes.[0].creation</t>
+    <t>$.createCaseHealth.intialAlert.caller.notes[0].creation</t>
   </si>
   <si>
     <t>Infos / observations ARM 01</t>
   </si>
   <si>
-    <t>$.createCaseHealth.intialAlert.caller.notes.[0].freetext</t>
+    <t>$.createCaseHealth.intialAlert.caller.notes[0].freetext</t>
   </si>
   <si>
     <t xml:space="preserve">Coupure grave causée par une scie circulaire au niveau de la main; saigne beaucoup. </t>
@@ -813,13 +813,13 @@
     <t>datetime observations ARM 02</t>
   </si>
   <si>
-    <t>$.createCaseHealth.intialAlert.caller.notes.[1].creation</t>
+    <t>$.createCaseHealth.intialAlert.caller.notes[1].creation</t>
   </si>
   <si>
     <t>Infos / observations ARM 02</t>
   </si>
   <si>
-    <t>$.createCaseHealth.intialAlert.caller.notes.[1].freetext</t>
+    <t>$.createCaseHealth.intialAlert.caller.notes[1].freetext</t>
   </si>
   <si>
     <t>La victime est inconsciente (perte de connaissance).</t>
@@ -831,13 +831,13 @@
     <t>datetime observations ARM 03</t>
   </si>
   <si>
-    <t>$.createCaseHealth.intialAlert.caller.notes.[2].creation</t>
+    <t>$.createCaseHealth.intialAlert.caller.notes[2].creation</t>
   </si>
   <si>
     <t>Infos / observations ARM 03</t>
   </si>
   <si>
-    <t>$.createCaseHealth.intialAlert.caller.notes.[2].freetext</t>
+    <t>$.createCaseHealth.intialAlert.caller.notes[2].freetext</t>
   </si>
   <si>
     <t>Marche impossible.</t>

--- a/csv_parser/test-cases-15-15.xlsx
+++ b/csv_parser/test-cases-15-15.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://esantegouv.sharepoint.com/sites/GED-Calypso/espace-projets/Espace Programme SISAMU/01 - Equipe projet/07 - Innovation et prospectif/12 - Hub Santé/13 - 15-15/04 - Pilotes 15-15/04 - JDD recette/JSON pour interface LRM/03 - Automodel tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23F2E2D5-F3C9-41BD-A568-762E7BAA1BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{63720973-F15B-4882-8FCF-20D348E0D843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3285" yWindow="1590" windowWidth="22740" windowHeight="12930" xr2:uid="{8E95E427-60E8-4C01-A0F5-EF6B52DBDF48}"/>
   </bookViews>
@@ -174,7 +174,7 @@
     <t>$.createCaseHealth.creation</t>
   </si>
   <si>
-    <t>S2024-01-18T15:15:00+01:00</t>
+    <t>2024-01-18T15:15:00+01:00</t>
   </si>
   <si>
     <t>Version du référentiel CISU</t>
@@ -1850,12 +1850,48 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1864,42 +1900,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2555,8 +2555,8 @@
   <dimension ref="A1:O88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="6" ySplit="10" topLeftCell="G11" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <pane xSplit="6" ySplit="10" topLeftCell="H11" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
     </sheetView>
@@ -2577,19 +2577,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="150"/>
+      <c r="B1" s="149"/>
       <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="18.75">
-      <c r="A2" s="150" t="s">
+      <c r="A2" s="149" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="150"/>
+      <c r="B2" s="149"/>
       <c r="C2" t="s">
         <v>3</v>
       </c>
@@ -2599,60 +2599,60 @@
       <c r="I2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="149" t="s">
+      <c r="J2" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="149"/>
-      <c r="L2" s="149"/>
-      <c r="M2" s="149"/>
-      <c r="N2" s="149"/>
-      <c r="O2" s="149"/>
+      <c r="K2" s="162"/>
+      <c r="L2" s="162"/>
+      <c r="M2" s="162"/>
+      <c r="N2" s="162"/>
+      <c r="O2" s="162"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="18.75">
-      <c r="A3" s="150" t="s">
+      <c r="A3" s="149" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="150"/>
+      <c r="B3" s="149"/>
       <c r="C3" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="116"/>
       <c r="F3"/>
       <c r="H3" s="5"/>
-      <c r="J3" s="149"/>
-      <c r="K3" s="149"/>
-      <c r="L3" s="149"/>
-      <c r="M3" s="149"/>
-      <c r="N3" s="149"/>
-      <c r="O3" s="149"/>
+      <c r="J3" s="162"/>
+      <c r="K3" s="162"/>
+      <c r="L3" s="162"/>
+      <c r="M3" s="162"/>
+      <c r="N3" s="162"/>
+      <c r="O3" s="162"/>
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1" ht="18.75">
-      <c r="A4" s="150" t="s">
+      <c r="A4" s="149" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="150"/>
+      <c r="B4" s="149"/>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="116"/>
       <c r="F4"/>
       <c r="H4" s="5"/>
-      <c r="J4" s="149"/>
-      <c r="K4" s="149"/>
-      <c r="L4" s="149"/>
-      <c r="M4" s="149"/>
-      <c r="N4" s="149"/>
-      <c r="O4" s="149"/>
+      <c r="J4" s="162"/>
+      <c r="K4" s="162"/>
+      <c r="L4" s="162"/>
+      <c r="M4" s="162"/>
+      <c r="N4" s="162"/>
+      <c r="O4" s="162"/>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" ht="18.75">
-      <c r="A5" s="163" t="s">
+      <c r="A5" s="159" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="163"/>
-      <c r="C5" s="163"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="163"/>
+      <c r="B5" s="159"/>
+      <c r="C5" s="159"/>
+      <c r="D5" s="159"/>
+      <c r="E5" s="159"/>
+      <c r="F5" s="159"/>
       <c r="H5" s="5"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
@@ -2662,12 +2662,12 @@
       <c r="O5" s="6"/>
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1" ht="18.75">
-      <c r="A6" s="151" t="s">
+      <c r="A6" s="163" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="152"/>
-      <c r="C6" s="152"/>
-      <c r="D6" s="153"/>
+      <c r="B6" s="164"/>
+      <c r="C6" s="164"/>
+      <c r="D6" s="165"/>
       <c r="E6" s="116"/>
       <c r="F6" t="s">
         <v>11</v>
@@ -2681,12 +2681,12 @@
       <c r="O6" s="6"/>
     </row>
     <row r="7" spans="1:15" s="1" customFormat="1" ht="18.75">
-      <c r="A7" s="164" t="s">
+      <c r="A7" s="160" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="164"/>
-      <c r="C7" s="164"/>
-      <c r="D7" s="164"/>
+      <c r="B7" s="160"/>
+      <c r="C7" s="160"/>
+      <c r="D7" s="160"/>
       <c r="E7" s="117"/>
       <c r="F7" t="s">
         <v>13</v>
@@ -2765,7 +2765,7 @@
       <c r="L10" s="20"/>
     </row>
     <row r="11" spans="1:15" ht="16.5" customHeight="1">
-      <c r="D11" s="165" t="s">
+      <c r="D11" s="161" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="120"/>
@@ -2788,7 +2788,7 @@
       <c r="L11" s="38"/>
     </row>
     <row r="12" spans="1:15">
-      <c r="D12" s="165"/>
+      <c r="D12" s="161"/>
       <c r="E12" s="121"/>
       <c r="F12" s="103" t="s">
         <v>36</v>
@@ -2809,7 +2809,7 @@
       <c r="L12" s="105"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="D13" s="165"/>
+      <c r="D13" s="161"/>
       <c r="E13" s="122"/>
       <c r="F13" s="10" t="s">
         <v>39</v>
@@ -2830,7 +2830,7 @@
       <c r="L13" s="10"/>
     </row>
     <row r="14" spans="1:15" s="30" customFormat="1">
-      <c r="D14" s="165"/>
+      <c r="D14" s="161"/>
       <c r="E14" s="107">
         <v>3</v>
       </c>
@@ -2853,7 +2853,7 @@
       <c r="L14" s="33"/>
     </row>
     <row r="15" spans="1:15" s="30" customFormat="1">
-      <c r="D15" s="165"/>
+      <c r="D15" s="161"/>
       <c r="E15" s="107">
         <v>3</v>
       </c>
@@ -2910,7 +2910,7 @@
       <c r="L17" s="92"/>
     </row>
     <row r="18" spans="4:12">
-      <c r="D18" s="154" t="s">
+      <c r="D18" s="150" t="s">
         <v>54</v>
       </c>
       <c r="E18" s="123">
@@ -2935,7 +2935,7 @@
       <c r="L18" s="147"/>
     </row>
     <row r="19" spans="4:12" ht="28.5" customHeight="1">
-      <c r="D19" s="155"/>
+      <c r="D19" s="151"/>
       <c r="E19" s="120">
         <v>3</v>
       </c>
@@ -2958,7 +2958,7 @@
       <c r="L19" s="8"/>
     </row>
     <row r="20" spans="4:12">
-      <c r="D20" s="155"/>
+      <c r="D20" s="151"/>
       <c r="E20" s="119">
         <v>2</v>
       </c>
@@ -2981,7 +2981,7 @@
       <c r="L20" s="34"/>
     </row>
     <row r="21" spans="4:12" s="73" customFormat="1" ht="30">
-      <c r="D21" s="155"/>
+      <c r="D21" s="151"/>
       <c r="E21" s="134">
         <v>3</v>
       </c>
@@ -3004,7 +3004,7 @@
       <c r="L21" s="70"/>
     </row>
     <row r="22" spans="4:12">
-      <c r="D22" s="155"/>
+      <c r="D22" s="151"/>
       <c r="E22" s="119">
         <v>1</v>
       </c>
@@ -3027,7 +3027,7 @@
       <c r="L22" s="36"/>
     </row>
     <row r="23" spans="4:12" ht="30.75" customHeight="1">
-      <c r="D23" s="155"/>
+      <c r="D23" s="151"/>
       <c r="E23" s="134">
         <v>3</v>
       </c>
@@ -3050,7 +3050,7 @@
       <c r="L23" s="15"/>
     </row>
     <row r="24" spans="4:12">
-      <c r="D24" s="155"/>
+      <c r="D24" s="151"/>
       <c r="E24" s="119">
         <v>1</v>
       </c>
@@ -3073,7 +3073,7 @@
       <c r="L24" s="15"/>
     </row>
     <row r="25" spans="4:12">
-      <c r="D25" s="156"/>
+      <c r="D25" s="152"/>
       <c r="E25" s="135">
         <v>3</v>
       </c>
@@ -3121,7 +3121,7 @@
       <c r="L26" s="50"/>
     </row>
     <row r="27" spans="4:12">
-      <c r="D27" s="160" t="s">
+      <c r="D27" s="156" t="s">
         <v>98</v>
       </c>
       <c r="E27" s="124"/>
@@ -3144,7 +3144,7 @@
       <c r="L27" s="15"/>
     </row>
     <row r="28" spans="4:12">
-      <c r="D28" s="161"/>
+      <c r="D28" s="157"/>
       <c r="E28" s="119">
         <v>1</v>
       </c>
@@ -3167,7 +3167,7 @@
       <c r="L28" s="15"/>
     </row>
     <row r="29" spans="4:12" s="60" customFormat="1">
-      <c r="D29" s="161"/>
+      <c r="D29" s="157"/>
       <c r="E29" s="131">
         <v>2</v>
       </c>
@@ -3188,7 +3188,7 @@
       <c r="L29" s="59"/>
     </row>
     <row r="30" spans="4:12">
-      <c r="D30" s="161"/>
+      <c r="D30" s="157"/>
       <c r="E30" s="119">
         <v>1</v>
       </c>
@@ -3209,7 +3209,7 @@
       <c r="L30" s="15"/>
     </row>
     <row r="31" spans="4:12">
-      <c r="D31" s="161"/>
+      <c r="D31" s="157"/>
       <c r="E31" s="119"/>
       <c r="F31" s="15" t="s">
         <v>117</v>
@@ -3228,7 +3228,7 @@
       <c r="L31" s="15"/>
     </row>
     <row r="32" spans="4:12">
-      <c r="D32" s="161"/>
+      <c r="D32" s="157"/>
       <c r="E32" s="119"/>
       <c r="F32" s="15" t="s">
         <v>121</v>
@@ -3247,7 +3247,7 @@
       <c r="L32" s="15"/>
     </row>
     <row r="33" spans="4:12" s="30" customFormat="1">
-      <c r="D33" s="161"/>
+      <c r="D33" s="157"/>
       <c r="E33" s="131">
         <v>2</v>
       </c>
@@ -3270,7 +3270,7 @@
       <c r="L33" s="97"/>
     </row>
     <row r="34" spans="4:12">
-      <c r="D34" s="160" t="s">
+      <c r="D34" s="156" t="s">
         <v>130</v>
       </c>
       <c r="E34" s="125"/>
@@ -3287,7 +3287,7 @@
       <c r="L34" s="54"/>
     </row>
     <row r="35" spans="4:12">
-      <c r="D35" s="161"/>
+      <c r="D35" s="157"/>
       <c r="E35" s="119"/>
       <c r="F35" s="15" t="s">
         <v>104</v>
@@ -3302,7 +3302,7 @@
       <c r="L35" s="55"/>
     </row>
     <row r="36" spans="4:12">
-      <c r="D36" s="161"/>
+      <c r="D36" s="157"/>
       <c r="E36" s="119"/>
       <c r="F36" s="15" t="s">
         <v>109</v>
@@ -3317,7 +3317,7 @@
       <c r="L36" s="55"/>
     </row>
     <row r="37" spans="4:12">
-      <c r="D37" s="161"/>
+      <c r="D37" s="157"/>
       <c r="E37" s="119"/>
       <c r="F37" s="15" t="s">
         <v>113</v>
@@ -3332,7 +3332,7 @@
       <c r="L37" s="55"/>
     </row>
     <row r="38" spans="4:12">
-      <c r="D38" s="161"/>
+      <c r="D38" s="157"/>
       <c r="E38" s="119"/>
       <c r="F38" s="15" t="s">
         <v>117</v>
@@ -3347,7 +3347,7 @@
       <c r="L38" s="55"/>
     </row>
     <row r="39" spans="4:12">
-      <c r="D39" s="161"/>
+      <c r="D39" s="157"/>
       <c r="E39" s="119"/>
       <c r="F39" s="15" t="s">
         <v>121</v>
@@ -3362,7 +3362,7 @@
       <c r="L39" s="55"/>
     </row>
     <row r="40" spans="4:12">
-      <c r="D40" s="162"/>
+      <c r="D40" s="158"/>
       <c r="E40" s="126"/>
       <c r="F40" s="56" t="s">
         <v>125</v>
@@ -3377,7 +3377,7 @@
       <c r="L40" s="58"/>
     </row>
     <row r="41" spans="4:12">
-      <c r="D41" s="154" t="s">
+      <c r="D41" s="150" t="s">
         <v>138</v>
       </c>
       <c r="E41" s="123"/>
@@ -3400,7 +3400,7 @@
       <c r="L41" s="50"/>
     </row>
     <row r="42" spans="4:12">
-      <c r="D42" s="155"/>
+      <c r="D42" s="151"/>
       <c r="E42" s="131">
         <v>2</v>
       </c>
@@ -3423,7 +3423,7 @@
       <c r="L42" s="83"/>
     </row>
     <row r="43" spans="4:12" s="30" customFormat="1">
-      <c r="D43" s="157"/>
+      <c r="D43" s="153"/>
       <c r="E43" s="84"/>
       <c r="F43" s="85" t="s">
         <v>147</v>
@@ -3440,7 +3440,7 @@
       <c r="L43" s="85"/>
     </row>
     <row r="44" spans="4:12">
-      <c r="D44" s="155"/>
+      <c r="D44" s="151"/>
       <c r="E44" s="127">
         <v>1</v>
       </c>
@@ -3463,7 +3463,7 @@
       <c r="L44" s="22"/>
     </row>
     <row r="45" spans="4:12">
-      <c r="D45" s="155"/>
+      <c r="D45" s="151"/>
       <c r="E45" s="119">
         <v>1</v>
       </c>
@@ -3486,7 +3486,7 @@
       <c r="L45" s="15"/>
     </row>
     <row r="46" spans="4:12">
-      <c r="D46" s="155"/>
+      <c r="D46" s="151"/>
       <c r="E46" s="131">
         <v>3</v>
       </c>
@@ -3509,7 +3509,7 @@
       <c r="L46" s="17"/>
     </row>
     <row r="47" spans="4:12">
-      <c r="D47" s="155"/>
+      <c r="D47" s="151"/>
       <c r="E47" s="131">
         <v>2</v>
       </c>
@@ -3528,7 +3528,7 @@
       <c r="L47" s="15"/>
     </row>
     <row r="48" spans="4:12">
-      <c r="D48" s="155"/>
+      <c r="D48" s="151"/>
       <c r="E48" s="131">
         <v>2</v>
       </c>
@@ -3544,7 +3544,7 @@
       <c r="L48" s="15"/>
     </row>
     <row r="49" spans="4:12">
-      <c r="D49" s="155"/>
+      <c r="D49" s="151"/>
       <c r="E49" s="131">
         <v>2</v>
       </c>
@@ -3563,7 +3563,7 @@
       <c r="L49" s="15"/>
     </row>
     <row r="50" spans="4:12">
-      <c r="D50" s="155"/>
+      <c r="D50" s="151"/>
       <c r="E50" s="131">
         <v>2</v>
       </c>
@@ -3582,7 +3582,7 @@
       <c r="L50" s="15"/>
     </row>
     <row r="51" spans="4:12">
-      <c r="D51" s="155"/>
+      <c r="D51" s="151"/>
       <c r="E51" s="131">
         <v>2</v>
       </c>
@@ -3601,7 +3601,7 @@
       <c r="L51" s="15"/>
     </row>
     <row r="52" spans="4:12">
-      <c r="D52" s="155"/>
+      <c r="D52" s="151"/>
       <c r="E52" s="131">
         <v>2</v>
       </c>
@@ -3620,7 +3620,7 @@
       <c r="L52" s="15"/>
     </row>
     <row r="53" spans="4:12">
-      <c r="D53" s="155"/>
+      <c r="D53" s="151"/>
       <c r="E53" s="131">
         <v>2</v>
       </c>
@@ -3637,7 +3637,7 @@
       <c r="L53" s="15"/>
     </row>
     <row r="54" spans="4:12">
-      <c r="D54" s="155"/>
+      <c r="D54" s="151"/>
       <c r="E54" s="131">
         <v>2</v>
       </c>
@@ -3654,7 +3654,7 @@
       <c r="L54" s="15"/>
     </row>
     <row r="55" spans="4:12">
-      <c r="D55" s="155"/>
+      <c r="D55" s="151"/>
       <c r="E55" s="131">
         <v>2</v>
       </c>
@@ -3673,7 +3673,7 @@
       <c r="L55" s="15"/>
     </row>
     <row r="56" spans="4:12" s="30" customFormat="1">
-      <c r="D56" s="155"/>
+      <c r="D56" s="151"/>
       <c r="E56" s="131">
         <v>2</v>
       </c>
@@ -3696,7 +3696,7 @@
       <c r="L56" s="32"/>
     </row>
     <row r="57" spans="4:12">
-      <c r="D57" s="155"/>
+      <c r="D57" s="151"/>
       <c r="E57" s="128"/>
       <c r="F57" s="39" t="s">
         <v>187</v>
@@ -3715,7 +3715,7 @@
       <c r="L57" s="36"/>
     </row>
     <row r="58" spans="4:12">
-      <c r="D58" s="155"/>
+      <c r="D58" s="151"/>
       <c r="E58" s="128">
         <v>3</v>
       </c>
@@ -3736,7 +3736,7 @@
       <c r="L58" s="36"/>
     </row>
     <row r="59" spans="4:12">
-      <c r="D59" s="155"/>
+      <c r="D59" s="151"/>
       <c r="E59" s="128">
         <v>3</v>
       </c>
@@ -3757,7 +3757,7 @@
       <c r="L59" s="36"/>
     </row>
     <row r="60" spans="4:12">
-      <c r="D60" s="155"/>
+      <c r="D60" s="151"/>
       <c r="E60" s="119"/>
       <c r="F60" s="22" t="s">
         <v>198</v>
@@ -3772,7 +3772,7 @@
       <c r="L60" s="15"/>
     </row>
     <row r="61" spans="4:12">
-      <c r="D61" s="155"/>
+      <c r="D61" s="151"/>
       <c r="E61" s="119"/>
       <c r="F61" s="15" t="s">
         <v>200</v>
@@ -3787,7 +3787,7 @@
       <c r="L61" s="15"/>
     </row>
     <row r="62" spans="4:12">
-      <c r="D62" s="155"/>
+      <c r="D62" s="151"/>
       <c r="E62" s="119"/>
       <c r="F62" s="23" t="s">
         <v>202</v>
@@ -3802,7 +3802,7 @@
       <c r="L62" s="15"/>
     </row>
     <row r="63" spans="4:12">
-      <c r="D63" s="156"/>
+      <c r="D63" s="152"/>
       <c r="E63" s="128"/>
       <c r="F63" s="40" t="s">
         <v>204</v>
@@ -3821,7 +3821,7 @@
       <c r="L63" s="36"/>
     </row>
     <row r="64" spans="4:12">
-      <c r="D64" s="158" t="s">
+      <c r="D64" s="154" t="s">
         <v>207</v>
       </c>
       <c r="E64" s="128"/>
@@ -3844,7 +3844,7 @@
       <c r="L64" s="36"/>
     </row>
     <row r="65" spans="4:12">
-      <c r="D65" s="158"/>
+      <c r="D65" s="154"/>
       <c r="E65" s="128"/>
       <c r="F65" s="43" t="s">
         <v>213</v>
@@ -3865,7 +3865,7 @@
       <c r="L65" s="36"/>
     </row>
     <row r="66" spans="4:12">
-      <c r="D66" s="158"/>
+      <c r="D66" s="154"/>
       <c r="E66" s="129"/>
       <c r="F66" s="43" t="s">
         <v>215</v>
@@ -3886,7 +3886,7 @@
       <c r="L66" s="36"/>
     </row>
     <row r="67" spans="4:12" ht="15" customHeight="1">
-      <c r="D67" s="158"/>
+      <c r="D67" s="154"/>
       <c r="E67" s="131">
         <v>2</v>
       </c>
@@ -3903,7 +3903,7 @@
       <c r="L67" s="15"/>
     </row>
     <row r="68" spans="4:12">
-      <c r="D68" s="158"/>
+      <c r="D68" s="154"/>
       <c r="E68" s="129">
         <v>1</v>
       </c>
@@ -3926,7 +3926,7 @@
       <c r="L68" s="15"/>
     </row>
     <row r="69" spans="4:12" s="60" customFormat="1">
-      <c r="D69" s="158"/>
+      <c r="D69" s="154"/>
       <c r="E69" s="130" t="s">
         <v>223</v>
       </c>
@@ -3949,7 +3949,7 @@
       <c r="L69" s="59"/>
     </row>
     <row r="70" spans="4:12" s="99" customFormat="1">
-      <c r="D70" s="158"/>
+      <c r="D70" s="154"/>
       <c r="E70" s="100"/>
       <c r="F70" s="140" t="s">
         <v>226</v>
@@ -3970,7 +3970,7 @@
       <c r="L70" s="102"/>
     </row>
     <row r="71" spans="4:12">
-      <c r="D71" s="158"/>
+      <c r="D71" s="154"/>
       <c r="E71" s="136">
         <v>2</v>
       </c>
@@ -3993,7 +3993,7 @@
       <c r="L71" s="15"/>
     </row>
     <row r="72" spans="4:12" s="60" customFormat="1">
-      <c r="D72" s="158"/>
+      <c r="D72" s="154"/>
       <c r="E72" s="136">
         <v>2</v>
       </c>
@@ -4016,7 +4016,7 @@
       <c r="L72" s="59"/>
     </row>
     <row r="73" spans="4:12" s="99" customFormat="1">
-      <c r="D73" s="158"/>
+      <c r="D73" s="154"/>
       <c r="E73" s="144"/>
       <c r="F73" s="140" t="s">
         <v>233</v>
@@ -4037,7 +4037,7 @@
       <c r="L73" s="102"/>
     </row>
     <row r="74" spans="4:12" s="60" customFormat="1">
-      <c r="D74" s="158"/>
+      <c r="D74" s="154"/>
       <c r="E74" s="129"/>
       <c r="F74" s="62" t="s">
         <v>235</v>
@@ -4058,7 +4058,7 @@
       <c r="L74" s="59"/>
     </row>
     <row r="75" spans="4:12">
-      <c r="D75" s="158"/>
+      <c r="D75" s="154"/>
       <c r="E75" s="136">
         <v>3</v>
       </c>
@@ -4081,7 +4081,7 @@
       <c r="L75" s="15"/>
     </row>
     <row r="76" spans="4:12">
-      <c r="D76" s="158"/>
+      <c r="D76" s="154"/>
       <c r="E76" s="129"/>
       <c r="F76" s="27" t="s">
         <v>241</v>
@@ -4096,7 +4096,7 @@
       <c r="L76" s="15"/>
     </row>
     <row r="77" spans="4:12">
-      <c r="D77" s="158"/>
+      <c r="D77" s="154"/>
       <c r="E77" s="136"/>
       <c r="F77" s="27" t="s">
         <v>243</v>
@@ -4111,7 +4111,7 @@
       <c r="L77" s="26"/>
     </row>
     <row r="78" spans="4:12" ht="30">
-      <c r="D78" s="158"/>
+      <c r="D78" s="154"/>
       <c r="E78" s="136">
         <v>2</v>
       </c>
@@ -4134,7 +4134,7 @@
       <c r="L78" s="26"/>
     </row>
     <row r="79" spans="4:12">
-      <c r="D79" s="158"/>
+      <c r="D79" s="154"/>
       <c r="E79" s="136"/>
       <c r="F79" s="27" t="s">
         <v>250</v>
@@ -4147,7 +4147,7 @@
       <c r="L79" s="26"/>
     </row>
     <row r="80" spans="4:12">
-      <c r="D80" s="158"/>
+      <c r="D80" s="154"/>
       <c r="E80" s="136">
         <v>2</v>
       </c>
@@ -4168,7 +4168,7 @@
       <c r="L80" s="26"/>
     </row>
     <row r="81" spans="1:12">
-      <c r="D81" s="158"/>
+      <c r="D81" s="154"/>
       <c r="E81" s="136"/>
       <c r="F81" s="27" t="s">
         <v>256</v>
@@ -4183,7 +4183,7 @@
       <c r="L81" s="26"/>
     </row>
     <row r="82" spans="1:12">
-      <c r="D82" s="158"/>
+      <c r="D82" s="154"/>
       <c r="E82" s="136">
         <v>2</v>
       </c>
@@ -4202,7 +4202,7 @@
       <c r="L82" s="15"/>
     </row>
     <row r="83" spans="1:12">
-      <c r="D83" s="158"/>
+      <c r="D83" s="154"/>
       <c r="E83" s="130" t="s">
         <v>223</v>
       </c>
@@ -4225,7 +4225,7 @@
       <c r="L83" s="15"/>
     </row>
     <row r="84" spans="1:12">
-      <c r="D84" s="158"/>
+      <c r="D84" s="154"/>
       <c r="E84" s="129"/>
       <c r="F84" s="27" t="s">
         <v>266</v>
@@ -4246,7 +4246,7 @@
       <c r="L84" s="15"/>
     </row>
     <row r="85" spans="1:12">
-      <c r="D85" s="158"/>
+      <c r="D85" s="154"/>
       <c r="E85" s="131"/>
       <c r="F85" s="111" t="s">
         <v>271</v>
@@ -4267,7 +4267,7 @@
       <c r="L85" s="23"/>
     </row>
     <row r="86" spans="1:12" s="76" customFormat="1">
-      <c r="D86" s="159"/>
+      <c r="D86" s="155"/>
       <c r="E86" s="132"/>
       <c r="F86" s="74" t="s">
         <v>275</v>
@@ -4288,7 +4288,7 @@
       <c r="L86" s="77"/>
     </row>
     <row r="87" spans="1:12" s="76" customFormat="1">
-      <c r="D87" s="159"/>
+      <c r="D87" s="155"/>
       <c r="E87" s="132"/>
       <c r="F87" s="74" t="s">
         <v>278</v>
@@ -4320,6 +4320,11 @@
     <filterColumn colId="0" showButton="0"/>
   </autoFilter>
   <mergeCells count="14">
+    <mergeCell ref="J2:O4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A6:D6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D18:D25"/>
     <mergeCell ref="D41:D63"/>
@@ -4329,11 +4334,6 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="D11:D15"/>
-    <mergeCell ref="J2:O4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A6:D6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D27">
@@ -4505,55 +4505,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ModificateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <f8b6baa267c0456bbf6a8d18c49a130b xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </f8b6baa267c0456bbf6a8d18c49a130b>
-    <eef0f6fc4ed046399a9d01fd3a7d6a6a xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </eef0f6fc4ed046399a9d01fd3a7d6a6a>
-    <Référence_x0020_Bon_x0020_de_x0020_Commande xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <Référence_x0020_Documentaire xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <Chantier xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <p671c8df16a44846939d278d4958f62c xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </p671c8df16a44846939d278d4958f62c>
-    <Durée_x0020_d_x0027_Utilité_x0020_Administrative_x0020__x0028_DUA_x0029_ xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <Environnement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <b2804ef99be44b9e8166e80a6c2eb9f1 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </b2804ef99be44b9e8166e80a6c2eb9f1>
-    <_ExtendedDescription xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <mc4aa6e782e045f6bb87dab01c971b56 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </mc4aa6e782e045f6bb87dab01c971b56>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <m312bc62cb0243b6a873cbbf4dace6b2 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </m312bc62cb0243b6a873cbbf4dace6b2>
-    <b084a4cb34a444d7969136255594d2f3 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </b084a4cb34a444d7969136255594d2f3>
-    <CreateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <g30fb2d8061a4d40b63138f91c1a832e xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </g30fb2d8061a4d40b63138f91c1a832e>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <m9a76db3058146ae844db6599c9d7036 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </m9a76db3058146ae844db6599c9d7036>
-    <Ticket_x0020_Changement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <l0a6b4600f484920bbceae0813174244 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </l0a6b4600f484920bbceae0813174244>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4971,16 +4928,59 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ModificateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <f8b6baa267c0456bbf6a8d18c49a130b xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </f8b6baa267c0456bbf6a8d18c49a130b>
+    <eef0f6fc4ed046399a9d01fd3a7d6a6a xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </eef0f6fc4ed046399a9d01fd3a7d6a6a>
+    <Référence_x0020_Bon_x0020_de_x0020_Commande xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <Référence_x0020_Documentaire xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <Chantier xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <p671c8df16a44846939d278d4958f62c xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </p671c8df16a44846939d278d4958f62c>
+    <Durée_x0020_d_x0027_Utilité_x0020_Administrative_x0020__x0028_DUA_x0029_ xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <Environnement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <b2804ef99be44b9e8166e80a6c2eb9f1 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </b2804ef99be44b9e8166e80a6c2eb9f1>
+    <_ExtendedDescription xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <mc4aa6e782e045f6bb87dab01c971b56 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </mc4aa6e782e045f6bb87dab01c971b56>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <m312bc62cb0243b6a873cbbf4dace6b2 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </m312bc62cb0243b6a873cbbf4dace6b2>
+    <b084a4cb34a444d7969136255594d2f3 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </b084a4cb34a444d7969136255594d2f3>
+    <CreateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <g30fb2d8061a4d40b63138f91c1a832e xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </g30fb2d8061a4d40b63138f91c1a832e>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <m9a76db3058146ae844db6599c9d7036 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </m9a76db3058146ae844db6599c9d7036>
+    <Ticket_x0020_Changement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <l0a6b4600f484920bbceae0813174244 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l0a6b4600f484920bbceae0813174244>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33493A62-AC11-48A7-B6C8-0591C55C368B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381C76DC-CEF1-461E-A76F-551B50E93033}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4988,5 +4988,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381C76DC-CEF1-461E-A76F-551B50E93033}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33493A62-AC11-48A7-B6C8-0591C55C368B}"/>
 </file>
--- a/csv_parser/test-cases-15-15.xlsx
+++ b/csv_parser/test-cases-15-15.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://esantegouv.sharepoint.com/sites/GED-Calypso/espace-projets/Espace Programme SISAMU/01 - Equipe projet/07 - Innovation et prospectif/12 - Hub Santé/13 - 15-15/04 - Pilotes 15-15/04 - JDD recette/JSON pour interface LRM/03 - Automodel tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63720973-F15B-4882-8FCF-20D348E0D843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{86598866-B0CA-483B-BEF4-746274D73198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3285" yWindow="1590" windowWidth="22740" windowHeight="12930" xr2:uid="{8E95E427-60E8-4C01-A0F5-EF6B52DBDF48}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Partage de dossier simple" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Partage de dossier simple'!$A$9:$O$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Partage de dossier simple'!$A$9:$P$88</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -44,7 +44,7 @@
     <author>tc={FB75C0C9-7A43-4C0C-BF65-EEEEE383A568}</author>
   </authors>
   <commentList>
-    <comment ref="F65" authorId="0" shapeId="0" xr:uid="{FB75C0C9-7A43-4C0C-BF65-EEEEE383A568}">
+    <comment ref="G65" authorId="0" shapeId="0" xr:uid="{FB75C0C9-7A43-4C0C-BF65-EEEEE383A568}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="287">
   <si>
     <t>Périmètre</t>
   </si>
@@ -117,6 +117,9 @@
     <t>V</t>
   </si>
   <si>
+    <t>Type</t>
+  </si>
+  <si>
     <t>Donnée</t>
   </si>
   <si>
@@ -630,6 +633,9 @@
     <t>2024-01-04T00:05:00+01:00</t>
   </si>
   <si>
+    <t>number</t>
+  </si>
+  <si>
     <t>Géométrie Associée / Point / Latitude</t>
   </si>
   <si>
@@ -736,6 +742,9 @@
   </si>
   <si>
     <t>$.createCaseHealth.intialAlert.caller.callerContact.detail</t>
+  </si>
+  <si>
+    <t>0607080915</t>
   </si>
   <si>
     <t>Requérant contact canal</t>
@@ -916,11 +925,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0#&quot; &quot;##&quot; &quot;##&quot; &quot;##&quot; &quot;##"/>
-    <numFmt numFmtId="165" formatCode="00000"/>
-  </numFmts>
-  <fonts count="16">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1034,6 +1039,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1073,7 +1090,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -1225,17 +1242,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="2" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1305,15 +1311,6 @@
         <color theme="2" tint="-0.499984740745262"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="2" tint="-0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1492,15 +1489,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="2" tint="-0.499984740745262"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="5" tint="-0.249977111117893"/>
       </left>
@@ -1526,380 +1514,504 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="5" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="5" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="5" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="5" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF00B050"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF00B050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF00B050"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF00B050"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1909,77 +2021,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF58383"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFE1FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE1FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF58383"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2014,63 +2056,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFE1FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE1FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF58383"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2105,7 +2091,42 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF58383"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2119,35 +2140,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="6"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF58383"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE1FF"/>
+          <bgColor theme="6"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2210,6 +2210,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -2217,7 +2224,112 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF58383"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF58383"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF58383"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2543,7 +2655,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="F65" dT="2023-09-22T09:00:43.88" personId="{EC126A12-45AA-40A1-AD6A-8686E0786064}" id="{FB75C0C9-7A43-4C0C-BF65-EEEEE383A568}" done="1">
+  <threadedComment ref="G65" dT="2023-09-22T09:00:43.88" personId="{EC126A12-45AA-40A1-AD6A-8686E0786064}" id="{FB75C0C9-7A43-4C0C-BF65-EEEEE383A568}" done="1">
     <text>Pour savoir quelle alerte utiliser dans une affaire :
 =&gt; Regarder cette date de réception</text>
   </threadedComment>
@@ -2552,11 +2664,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC96D3DE-56F6-4E60-B012-339ED5333B2B}">
-  <dimension ref="A1:O88"/>
+  <dimension ref="A1:P88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="6" ySplit="10" topLeftCell="H11" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
+      <pane xSplit="7" ySplit="10" topLeftCell="H67" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="I77" sqref="I77"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
     </sheetView>
@@ -2567,1760 +2679,2348 @@
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="3.140625" style="116" customWidth="1"/>
-    <col min="6" max="6" width="47.140625" customWidth="1"/>
-    <col min="7" max="7" width="63.28515625" customWidth="1"/>
-    <col min="8" max="8" width="48.140625" style="4" customWidth="1"/>
-    <col min="9" max="10" width="48.140625" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="3.140625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="21" customWidth="1"/>
+    <col min="7" max="7" width="47.140625" customWidth="1"/>
+    <col min="8" max="8" width="63.28515625" customWidth="1"/>
+    <col min="9" max="9" width="48.140625" style="3" customWidth="1"/>
+    <col min="10" max="11" width="48.140625" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.75">
-      <c r="A1" s="149" t="s">
+    <row r="1" spans="1:16" ht="18.75">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" ht="18.75">
-      <c r="A2" s="149" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+    </row>
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="18.75">
+      <c r="A2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="149"/>
-      <c r="C2" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="116"/>
-      <c r="F2"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="7" t="s">
+      <c r="D2" s="28"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="162" t="s">
+      <c r="K2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="162"/>
-      <c r="L2" s="162"/>
-      <c r="M2" s="162"/>
-      <c r="N2" s="162"/>
-      <c r="O2" s="162"/>
-    </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" ht="18.75">
-      <c r="A3" s="149" t="s">
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+    </row>
+    <row r="3" spans="1:16" s="1" customFormat="1" ht="18.75">
+      <c r="A3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="149"/>
-      <c r="C3" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="116"/>
-      <c r="F3"/>
-      <c r="H3" s="5"/>
-      <c r="J3" s="162"/>
-      <c r="K3" s="162"/>
-      <c r="L3" s="162"/>
-      <c r="M3" s="162"/>
-      <c r="N3" s="162"/>
-      <c r="O3" s="162"/>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="18.75">
-      <c r="A4" s="149" t="s">
+      <c r="D3" s="28"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+    </row>
+    <row r="4" spans="1:16" s="1" customFormat="1" ht="18.75">
+      <c r="A4" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="149"/>
-      <c r="C4" t="s">
+      <c r="B4" s="24"/>
+      <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="116"/>
-      <c r="F4"/>
-      <c r="H4" s="5"/>
-      <c r="J4" s="162"/>
-      <c r="K4" s="162"/>
-      <c r="L4" s="162"/>
-      <c r="M4" s="162"/>
-      <c r="N4" s="162"/>
-      <c r="O4" s="162"/>
-    </row>
-    <row r="5" spans="1:15" s="1" customFormat="1" ht="18.75">
-      <c r="A5" s="159" t="s">
+      <c r="D4" s="28"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+    </row>
+    <row r="5" spans="1:16" s="1" customFormat="1" ht="18.75">
+      <c r="A5" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="159"/>
-      <c r="C5" s="159"/>
-      <c r="D5" s="159"/>
-      <c r="E5" s="159"/>
-      <c r="F5" s="159"/>
-      <c r="H5" s="5"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-    </row>
-    <row r="6" spans="1:15" s="1" customFormat="1" ht="18.75">
-      <c r="A6" s="163" t="s">
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+    </row>
+    <row r="6" spans="1:16" s="1" customFormat="1" ht="18.75">
+      <c r="A6" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="164"/>
-      <c r="C6" s="164"/>
-      <c r="D6" s="165"/>
-      <c r="E6" s="116"/>
-      <c r="F6" t="s">
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-    </row>
-    <row r="7" spans="1:15" s="1" customFormat="1" ht="18.75">
-      <c r="A7" s="160" t="s">
+      <c r="H6" s="28"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+    </row>
+    <row r="7" spans="1:16" s="1" customFormat="1" ht="18.75">
+      <c r="A7" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="160"/>
-      <c r="C7" s="160"/>
-      <c r="D7" s="160"/>
-      <c r="E7" s="117"/>
-      <c r="F7" t="s">
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:15" s="1" customFormat="1" ht="18.75">
-      <c r="A8" s="95"/>
-      <c r="B8" s="95"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="117"/>
-      <c r="F8" t="s">
+      <c r="H7" s="28"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+    </row>
+    <row r="8" spans="1:16" s="1" customFormat="1" ht="18.75">
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:15" s="3" customFormat="1" ht="18.75">
-      <c r="A9" s="2" t="s">
+      <c r="H8" s="28"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+    </row>
+    <row r="9" spans="1:16" s="2" customFormat="1" ht="18.75">
+      <c r="A9" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="89" t="s">
+      <c r="C9" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="118" t="s">
+      <c r="E9" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="J9" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="L9" s="13" t="s">
+      <c r="L9" s="46" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="3" t="s">
+      <c r="M9" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="48"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="70" t="s">
+      <c r="B10" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="C10" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="119"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-    </row>
-    <row r="11" spans="1:15" ht="16.5" customHeight="1">
-      <c r="D11" s="161" t="s">
+      <c r="D10" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="120"/>
-      <c r="F11" s="9" t="s">
+      <c r="E10" s="17"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+    </row>
+    <row r="11" spans="1:16" ht="16.5" customHeight="1">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="E11" s="55"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="D12" s="161"/>
-      <c r="E12" s="121"/>
-      <c r="F12" s="103" t="s">
+      <c r="K11" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="103" t="s">
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="104" t="s">
+      <c r="H12" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="I12" s="104" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="104" t="s">
-        <v>38</v>
-      </c>
-      <c r="K12" s="105"/>
-      <c r="L12" s="105"/>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="D13" s="161"/>
-      <c r="E13" s="122"/>
-      <c r="F13" s="10" t="s">
+      <c r="I12" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="J12" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="K12" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="L12" s="63"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="I13" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="J13" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-    </row>
-    <row r="14" spans="1:15" s="30" customFormat="1">
-      <c r="D14" s="161"/>
-      <c r="E14" s="107">
+      <c r="J13" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="L13" s="58"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+    </row>
+    <row r="14" spans="1:16" s="4" customFormat="1">
+      <c r="A14" s="65"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="17">
         <v>3</v>
       </c>
-      <c r="F14" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="33" t="s">
+      <c r="F14" s="22"/>
+      <c r="G14" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="H14" s="66" t="s">
+      <c r="H14" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="I14" s="66" t="s">
-        <v>45</v>
-      </c>
-      <c r="J14" s="66" t="s">
-        <v>45</v>
-      </c>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-    </row>
-    <row r="15" spans="1:15" s="30" customFormat="1">
-      <c r="D15" s="161"/>
-      <c r="E15" s="107">
+      <c r="I14" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="L14" s="67"/>
+      <c r="M14" s="67"/>
+      <c r="N14" s="65"/>
+      <c r="O14" s="65"/>
+      <c r="P14" s="65"/>
+    </row>
+    <row r="15" spans="1:16" s="4" customFormat="1">
+      <c r="A15" s="65"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="17">
         <v>3</v>
       </c>
-      <c r="F15" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" s="33" t="s">
+      <c r="F15" s="22"/>
+      <c r="G15" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="H15" s="66" t="s">
+      <c r="H15" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="I15" s="66" t="s">
-        <v>48</v>
-      </c>
-      <c r="J15" s="66" t="s">
-        <v>48</v>
-      </c>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="D16" s="96" t="s">
+      <c r="I15" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="148"/>
-      <c r="F16" s="91" t="s">
+      <c r="J15" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="K15" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="L15" s="67"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="65"/>
+      <c r="O15" s="65"/>
+      <c r="P15" s="65"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="91" t="s">
+      <c r="E16" s="70"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="H16" s="28"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="92"/>
-      <c r="L16" s="92"/>
-    </row>
-    <row r="17" spans="4:12">
-      <c r="D17" s="96" t="s">
+      <c r="H16" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="148"/>
-      <c r="F17" s="91" t="s">
-        <v>50</v>
-      </c>
-      <c r="G17" s="91" t="s">
+      <c r="I16" s="74"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="75"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="76"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="H17" s="28"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="92"/>
-      <c r="L17" s="92"/>
-    </row>
-    <row r="18" spans="4:12">
-      <c r="D18" s="150" t="s">
+      <c r="E17" s="70"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="123">
+      <c r="I17" s="74"/>
+      <c r="J17" s="75"/>
+      <c r="K17" s="75"/>
+      <c r="L17" s="76"/>
+      <c r="M17" s="76"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="77" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="55">
         <v>2</v>
       </c>
-      <c r="F18" s="145" t="s">
-        <v>55</v>
-      </c>
-      <c r="G18" s="145" t="s">
+      <c r="F18" s="22"/>
+      <c r="G18" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="H18" s="146" t="s">
+      <c r="H18" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="I18" s="146" t="s">
+      <c r="I18" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="J18" s="146" t="s">
+      <c r="J18" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="K18" s="147"/>
-      <c r="L18" s="147"/>
-    </row>
-    <row r="19" spans="4:12" ht="28.5" customHeight="1">
-      <c r="D19" s="151"/>
-      <c r="E19" s="120">
+      <c r="K18" s="80" t="s">
+        <v>60</v>
+      </c>
+      <c r="L18" s="81"/>
+      <c r="M18" s="81"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+    </row>
+    <row r="19" spans="1:16" ht="28.5" customHeight="1">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="55">
         <v>3</v>
       </c>
-      <c r="F19" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G19" s="11" t="s">
+      <c r="F19" s="22"/>
+      <c r="G19" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="H19" s="12" t="s">
+      <c r="H19" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="I19" s="12" t="s">
+      <c r="I19" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="J19" s="63" t="s">
+      <c r="J19" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-    </row>
-    <row r="20" spans="4:12">
-      <c r="D20" s="151"/>
-      <c r="E20" s="119">
+      <c r="K19" s="86" t="s">
+        <v>65</v>
+      </c>
+      <c r="L19" s="87"/>
+      <c r="M19" s="87"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="17">
         <v>2</v>
       </c>
-      <c r="F20" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="G20" s="34" t="s">
+      <c r="F20" s="22"/>
+      <c r="G20" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="H20" s="35" t="s">
+      <c r="H20" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="I20" s="34" t="s">
+      <c r="I20" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="J20" s="34" t="s">
+      <c r="J20" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-    </row>
-    <row r="21" spans="4:12" s="73" customFormat="1" ht="30">
-      <c r="D21" s="151"/>
-      <c r="E21" s="134">
+      <c r="K20" s="89" t="s">
+        <v>70</v>
+      </c>
+      <c r="L20" s="89"/>
+      <c r="M20" s="89"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+    </row>
+    <row r="21" spans="1:16" s="8" customFormat="1" ht="30.75">
+      <c r="A21" s="91"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="92">
         <v>3</v>
       </c>
-      <c r="F21" s="70" t="s">
-        <v>70</v>
-      </c>
-      <c r="G21" s="70" t="s">
+      <c r="F21" s="22"/>
+      <c r="G21" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="H21" s="71" t="s">
+      <c r="H21" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="I21" s="71" t="s">
+      <c r="I21" s="94" t="s">
         <v>73</v>
       </c>
-      <c r="J21" s="72" t="s">
+      <c r="J21" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="K21" s="70"/>
-      <c r="L21" s="70"/>
-    </row>
-    <row r="22" spans="4:12">
-      <c r="D22" s="151"/>
-      <c r="E22" s="119">
+      <c r="K21" s="95" t="s">
+        <v>75</v>
+      </c>
+      <c r="L21" s="49"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="91"/>
+      <c r="O21" s="91"/>
+      <c r="P21" s="91"/>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="17">
         <v>1</v>
       </c>
-      <c r="F22" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="G22" s="36" t="s">
+      <c r="F22" s="22"/>
+      <c r="G22" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="H22" s="37" t="s">
+      <c r="H22" s="97" t="s">
         <v>77</v>
       </c>
-      <c r="I22" s="36" t="s">
+      <c r="I22" s="98" t="s">
         <v>78</v>
       </c>
-      <c r="J22" s="36" t="s">
+      <c r="J22" s="97" t="s">
         <v>79</v>
       </c>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-    </row>
-    <row r="23" spans="4:12" ht="30.75" customHeight="1">
-      <c r="D23" s="151"/>
-      <c r="E23" s="134">
+      <c r="K22" s="97" t="s">
+        <v>80</v>
+      </c>
+      <c r="L22" s="97"/>
+      <c r="M22" s="97"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+    </row>
+    <row r="23" spans="1:16" ht="30.75" customHeight="1">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="92">
         <v>3</v>
       </c>
-      <c r="F23" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="G23" s="15" t="s">
+      <c r="F23" s="22"/>
+      <c r="G23" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="H23" s="16" t="s">
+      <c r="H23" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="I23" s="45" t="s">
+      <c r="I23" s="99" t="s">
         <v>83</v>
       </c>
-      <c r="J23" s="45" t="s">
+      <c r="J23" s="100" t="s">
         <v>84</v>
       </c>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-    </row>
-    <row r="24" spans="4:12">
-      <c r="D24" s="151"/>
-      <c r="E24" s="119">
+      <c r="K23" s="100" t="s">
+        <v>85</v>
+      </c>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="17">
         <v>1</v>
       </c>
-      <c r="F24" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="G24" s="15" t="s">
+      <c r="F24" s="22"/>
+      <c r="G24" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="H24" s="16" t="s">
+      <c r="H24" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="I24" s="15" t="s">
+      <c r="I24" s="99" t="s">
         <v>88</v>
       </c>
-      <c r="J24" s="15" t="s">
+      <c r="J24" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-    </row>
-    <row r="25" spans="4:12">
-      <c r="D25" s="152"/>
-      <c r="E25" s="135">
+      <c r="K24" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="102">
         <v>3</v>
       </c>
-      <c r="F25" s="65" t="s">
-        <v>90</v>
-      </c>
-      <c r="G25" s="27" t="s">
+      <c r="F25" s="71"/>
+      <c r="G25" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="H25" s="66" t="s">
+      <c r="H25" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="I25" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="J25" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-    </row>
-    <row r="26" spans="4:12">
-      <c r="D26" s="64" t="s">
+      <c r="I25" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="E26" s="123">
+      <c r="J25" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="K25" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="L25" s="75"/>
+      <c r="M25" s="75"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="104" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" s="55">
         <v>1</v>
       </c>
-      <c r="F26" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="G26" s="48" t="s">
+      <c r="F26" s="22"/>
+      <c r="G26" s="105" t="s">
         <v>94</v>
       </c>
-      <c r="H26" s="49" t="s">
+      <c r="H26" s="106" t="s">
         <v>95</v>
       </c>
-      <c r="I26" s="49" t="s">
+      <c r="I26" s="107" t="s">
         <v>96</v>
       </c>
-      <c r="J26" s="49" t="s">
+      <c r="J26" s="107" t="s">
         <v>97</v>
       </c>
-      <c r="K26" s="50"/>
-      <c r="L26" s="50"/>
-    </row>
-    <row r="27" spans="4:12">
-      <c r="D27" s="156" t="s">
+      <c r="K26" s="107" t="s">
         <v>98</v>
       </c>
-      <c r="E27" s="124"/>
-      <c r="F27" s="18" t="s">
+      <c r="L26" s="108"/>
+      <c r="M26" s="108"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="109" t="s">
         <v>99</v>
       </c>
-      <c r="G27" s="18" t="s">
+      <c r="E27" s="110"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="111" t="s">
         <v>100</v>
       </c>
-      <c r="H27" s="19" t="s">
+      <c r="H27" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="I27" s="19" t="s">
+      <c r="I27" s="113" t="s">
         <v>102</v>
       </c>
-      <c r="J27" s="19" t="s">
+      <c r="J27" s="113" t="s">
         <v>103</v>
       </c>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-    </row>
-    <row r="28" spans="4:12">
-      <c r="D28" s="157"/>
-      <c r="E28" s="119">
+      <c r="K27" s="113" t="s">
+        <v>104</v>
+      </c>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="17">
         <v>1</v>
       </c>
-      <c r="F28" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="G28" s="15" t="s">
+      <c r="F28" s="22"/>
+      <c r="G28" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="H28" s="16" t="s">
+      <c r="H28" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="I28" s="15" t="s">
+      <c r="I28" s="99" t="s">
         <v>107</v>
       </c>
-      <c r="J28" s="15" t="s">
+      <c r="J28" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-    </row>
-    <row r="29" spans="4:12" s="60" customFormat="1">
-      <c r="D29" s="157"/>
-      <c r="E29" s="131">
+      <c r="K28" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+    </row>
+    <row r="29" spans="1:16" s="6" customFormat="1">
+      <c r="D29" s="114"/>
+      <c r="E29" s="17">
         <v>2</v>
       </c>
-      <c r="F29" s="59" t="s">
-        <v>109</v>
-      </c>
-      <c r="G29" s="15" t="s">
+      <c r="F29" s="22"/>
+      <c r="G29" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="H29" s="59" t="s">
+      <c r="H29" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="I29" s="59" t="s">
+      <c r="I29" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="J29" s="59"/>
-      <c r="K29" s="59"/>
-      <c r="L29" s="59"/>
-    </row>
-    <row r="30" spans="4:12">
-      <c r="D30" s="157"/>
-      <c r="E30" s="119">
+      <c r="J29" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="114"/>
+      <c r="E30" s="17">
         <v>1</v>
       </c>
-      <c r="F30" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="G30" s="15" t="s">
+      <c r="F30" s="22"/>
+      <c r="G30" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="H30" s="16" t="s">
+      <c r="H30" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="I30" s="15" t="s">
+      <c r="I30" s="99" t="s">
         <v>116</v>
       </c>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-    </row>
-    <row r="31" spans="4:12">
-      <c r="D31" s="157"/>
-      <c r="E31" s="119"/>
-      <c r="F31" s="15" t="s">
+      <c r="J30" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G31" s="15" t="s">
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="114"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="H31" s="16" t="s">
+      <c r="H31" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="I31" s="15" t="s">
+      <c r="I31" s="99" t="s">
         <v>120</v>
       </c>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-    </row>
-    <row r="32" spans="4:12">
-      <c r="D32" s="157"/>
-      <c r="E32" s="119"/>
-      <c r="F32" s="15" t="s">
+      <c r="J31" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="G32" s="15" t="s">
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="114"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="H32" s="16" t="s">
+      <c r="H32" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="I32" s="15" t="s">
+      <c r="I32" s="99" t="s">
         <v>124</v>
       </c>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-    </row>
-    <row r="33" spans="4:12" s="30" customFormat="1">
-      <c r="D33" s="157"/>
-      <c r="E33" s="131">
+      <c r="J32" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+    </row>
+    <row r="33" spans="1:16" s="4" customFormat="1">
+      <c r="A33" s="65"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="114"/>
+      <c r="E33" s="17">
         <v>2</v>
       </c>
-      <c r="F33" s="97" t="s">
+      <c r="F33" s="22"/>
+      <c r="G33" s="115" t="s">
+        <v>126</v>
+      </c>
+      <c r="H33" s="116" t="s">
+        <v>127</v>
+      </c>
+      <c r="I33" s="117" t="s">
+        <v>128</v>
+      </c>
+      <c r="J33" s="118" t="s">
+        <v>129</v>
+      </c>
+      <c r="K33" s="118" t="s">
+        <v>130</v>
+      </c>
+      <c r="L33" s="118"/>
+      <c r="M33" s="118"/>
+      <c r="N33" s="65"/>
+      <c r="O33" s="65"/>
+      <c r="P33" s="65"/>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="109" t="s">
+        <v>131</v>
+      </c>
+      <c r="E34" s="110"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="119" t="s">
+        <v>100</v>
+      </c>
+      <c r="H34" s="112" t="s">
+        <v>132</v>
+      </c>
+      <c r="I34" s="120"/>
+      <c r="J34" s="120"/>
+      <c r="K34" s="121"/>
+      <c r="L34" s="121"/>
+      <c r="M34" s="122"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="114"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="I35" s="99"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="123"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="114"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="I36" s="99"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="123"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="114"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="I37" s="99"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="123"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="114"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="I38" s="99"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="123"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="114"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="I39" s="99"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="123"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="124"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="125" t="s">
+        <v>126</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="I40" s="126"/>
+      <c r="J40" s="127"/>
+      <c r="K40" s="127"/>
+      <c r="L40" s="127"/>
+      <c r="M40" s="128"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="77" t="s">
+        <v>139</v>
+      </c>
+      <c r="E41" s="55"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="129" t="s">
+        <v>140</v>
+      </c>
+      <c r="H41" s="106" t="s">
+        <v>141</v>
+      </c>
+      <c r="I41" s="107" t="s">
+        <v>142</v>
+      </c>
+      <c r="J41" s="107" t="s">
+        <v>143</v>
+      </c>
+      <c r="K41" s="107" t="s">
+        <v>144</v>
+      </c>
+      <c r="L41" s="108"/>
+      <c r="M41" s="108"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="82"/>
+      <c r="E42" s="17">
+        <v>2</v>
+      </c>
+      <c r="F42" s="22"/>
+      <c r="G42" s="130" t="s">
+        <v>145</v>
+      </c>
+      <c r="H42" s="131" t="s">
+        <v>146</v>
+      </c>
+      <c r="I42" s="132" t="s">
+        <v>147</v>
+      </c>
+      <c r="J42" s="132" t="s">
+        <v>147</v>
+      </c>
+      <c r="K42" s="132" t="s">
+        <v>147</v>
+      </c>
+      <c r="L42" s="133"/>
+      <c r="M42" s="133"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+    </row>
+    <row r="43" spans="1:16" s="4" customFormat="1">
+      <c r="A43" s="65"/>
+      <c r="B43" s="65"/>
+      <c r="C43" s="65"/>
+      <c r="D43" s="82"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="134" t="s">
+        <v>148</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="I43" s="135"/>
+      <c r="J43" s="135"/>
+      <c r="K43" s="135" t="s">
+        <v>150</v>
+      </c>
+      <c r="L43" s="136"/>
+      <c r="M43" s="136"/>
+      <c r="N43" s="65"/>
+      <c r="O43" s="65"/>
+      <c r="P43" s="65"/>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="82"/>
+      <c r="E44" s="110">
+        <v>1</v>
+      </c>
+      <c r="F44" s="22"/>
+      <c r="G44" s="137" t="s">
+        <v>151</v>
+      </c>
+      <c r="H44" s="138" t="s">
+        <v>152</v>
+      </c>
+      <c r="I44" s="139" t="s">
+        <v>153</v>
+      </c>
+      <c r="J44" s="139" t="s">
+        <v>154</v>
+      </c>
+      <c r="K44" s="140" t="s">
+        <v>155</v>
+      </c>
+      <c r="L44" s="140"/>
+      <c r="M44" s="140"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="82"/>
+      <c r="E45" s="17">
+        <v>1</v>
+      </c>
+      <c r="F45" s="22"/>
+      <c r="G45" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I45" s="99" t="s">
+        <v>158</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="82"/>
+      <c r="E46" s="17">
+        <v>3</v>
+      </c>
+      <c r="F46" s="22"/>
+      <c r="G46" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="I46" s="141">
+        <v>77479</v>
+      </c>
+      <c r="J46" s="141">
+        <v>95063</v>
+      </c>
+      <c r="K46" s="141">
+        <v>9029</v>
+      </c>
+      <c r="L46" s="141"/>
+      <c r="M46" s="141"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="82"/>
+      <c r="E47" s="17">
+        <v>2</v>
+      </c>
+      <c r="F47" s="22"/>
+      <c r="G47" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="I47" s="5"/>
+      <c r="J47" s="142">
+        <v>3</v>
+      </c>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="82"/>
+      <c r="E48" s="17">
+        <v>2</v>
+      </c>
+      <c r="F48" s="22"/>
+      <c r="G48" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="I48" s="5"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="82"/>
+      <c r="E49" s="17">
+        <v>2</v>
+      </c>
+      <c r="F49" s="22"/>
+      <c r="G49" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="G33" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="H33" s="98" t="s">
-        <v>127</v>
-      </c>
-      <c r="I33" s="97" t="s">
-        <v>128</v>
-      </c>
-      <c r="J33" s="97" t="s">
-        <v>129</v>
-      </c>
-      <c r="K33" s="97"/>
-      <c r="L33" s="97"/>
-    </row>
-    <row r="34" spans="4:12">
-      <c r="D34" s="156" t="s">
-        <v>130</v>
-      </c>
-      <c r="E34" s="125"/>
-      <c r="F34" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="G34" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="H34" s="52"/>
-      <c r="I34" s="52"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="54"/>
-    </row>
-    <row r="35" spans="4:12">
-      <c r="D35" s="157"/>
-      <c r="E35" s="119"/>
-      <c r="F35" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="G35" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="H35" s="16"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="55"/>
-    </row>
-    <row r="36" spans="4:12">
-      <c r="D36" s="157"/>
-      <c r="E36" s="119"/>
-      <c r="F36" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="G36" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="H36" s="16"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="55"/>
-    </row>
-    <row r="37" spans="4:12">
-      <c r="D37" s="157"/>
-      <c r="E37" s="119"/>
-      <c r="F37" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="G37" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="H37" s="16"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="55"/>
-    </row>
-    <row r="38" spans="4:12">
-      <c r="D38" s="157"/>
-      <c r="E38" s="119"/>
-      <c r="F38" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="G38" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="H38" s="16"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="55"/>
-    </row>
-    <row r="39" spans="4:12">
-      <c r="D39" s="157"/>
-      <c r="E39" s="119"/>
-      <c r="F39" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="G39" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="H39" s="16"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="55"/>
-    </row>
-    <row r="40" spans="4:12">
-      <c r="D40" s="158"/>
-      <c r="E40" s="126"/>
-      <c r="F40" s="56" t="s">
-        <v>125</v>
-      </c>
-      <c r="G40" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="H40" s="57"/>
-      <c r="I40" s="56"/>
-      <c r="J40" s="56"/>
-      <c r="K40" s="56"/>
-      <c r="L40" s="58"/>
-    </row>
-    <row r="41" spans="4:12">
-      <c r="D41" s="150" t="s">
-        <v>138</v>
-      </c>
-      <c r="E41" s="123"/>
-      <c r="F41" s="47" t="s">
-        <v>139</v>
-      </c>
-      <c r="G41" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="H41" s="49" t="s">
-        <v>141</v>
-      </c>
-      <c r="I41" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="J41" s="49" t="s">
-        <v>143</v>
-      </c>
-      <c r="K41" s="50"/>
-      <c r="L41" s="50"/>
-    </row>
-    <row r="42" spans="4:12">
-      <c r="D42" s="151"/>
-      <c r="E42" s="131">
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="82"/>
+      <c r="E50" s="17">
         <v>2</v>
       </c>
-      <c r="F42" s="81" t="s">
-        <v>144</v>
-      </c>
-      <c r="G42" s="81" t="s">
-        <v>145</v>
-      </c>
-      <c r="H42" s="82" t="s">
-        <v>146</v>
-      </c>
-      <c r="I42" s="82" t="s">
-        <v>146</v>
-      </c>
-      <c r="J42" s="82" t="s">
-        <v>146</v>
-      </c>
-      <c r="K42" s="83"/>
-      <c r="L42" s="83"/>
-    </row>
-    <row r="43" spans="4:12" s="30" customFormat="1">
-      <c r="D43" s="153"/>
-      <c r="E43" s="84"/>
-      <c r="F43" s="85" t="s">
+      <c r="F50" s="22"/>
+      <c r="G50" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="I50" s="5"/>
+      <c r="J50" s="143">
+        <v>5678</v>
+      </c>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="6"/>
+      <c r="P50" s="6"/>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="82"/>
+      <c r="E51" s="17">
+        <v>2</v>
+      </c>
+      <c r="F51" s="22"/>
+      <c r="G51" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6"/>
+      <c r="P51" s="6"/>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="82"/>
+      <c r="E52" s="17">
+        <v>2</v>
+      </c>
+      <c r="F52" s="22"/>
+      <c r="G52" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="6"/>
+      <c r="P52" s="6"/>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="82"/>
+      <c r="E53" s="17">
+        <v>2</v>
+      </c>
+      <c r="F53" s="22"/>
+      <c r="G53" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="6"/>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="82"/>
+      <c r="E54" s="17">
+        <v>2</v>
+      </c>
+      <c r="F54" s="22"/>
+      <c r="G54" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="6"/>
+      <c r="O54" s="6"/>
+      <c r="P54" s="6"/>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="82"/>
+      <c r="E55" s="17">
+        <v>2</v>
+      </c>
+      <c r="F55" s="22"/>
+      <c r="G55" s="144" t="s">
+        <v>181</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="I55" s="145"/>
+      <c r="J55" s="145"/>
+      <c r="K55" s="143">
+        <v>561964589</v>
+      </c>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="6"/>
+      <c r="O55" s="6"/>
+      <c r="P55" s="6"/>
+    </row>
+    <row r="56" spans="1:16" s="4" customFormat="1">
+      <c r="A56" s="65"/>
+      <c r="B56" s="65"/>
+      <c r="C56" s="65"/>
+      <c r="D56" s="82"/>
+      <c r="E56" s="17">
+        <v>2</v>
+      </c>
+      <c r="F56" s="22"/>
+      <c r="G56" s="66" t="s">
+        <v>183</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="I56" s="67" t="s">
+        <v>185</v>
+      </c>
+      <c r="J56" s="67" t="s">
+        <v>186</v>
+      </c>
+      <c r="K56" s="146" t="s">
+        <v>187</v>
+      </c>
+      <c r="L56" s="116"/>
+      <c r="M56" s="116"/>
+      <c r="N56" s="65"/>
+      <c r="O56" s="65"/>
+      <c r="P56" s="65"/>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="82"/>
+      <c r="E57" s="110"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="147" t="s">
+        <v>188</v>
+      </c>
+      <c r="H57" s="148" t="s">
+        <v>189</v>
+      </c>
+      <c r="I57" s="148" t="s">
+        <v>190</v>
+      </c>
+      <c r="J57" s="149" t="s">
+        <v>190</v>
+      </c>
+      <c r="K57" s="148"/>
+      <c r="L57" s="97"/>
+      <c r="M57" s="97"/>
+      <c r="N57" s="6"/>
+      <c r="O57" s="6"/>
+      <c r="P57" s="6"/>
+    </row>
+    <row r="58" spans="1:16">
+      <c r="A58" s="6"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="82"/>
+      <c r="E58" s="110">
+        <v>3</v>
+      </c>
+      <c r="F58" s="150" t="s">
+        <v>191</v>
+      </c>
+      <c r="G58" s="151" t="s">
+        <v>192</v>
+      </c>
+      <c r="H58" s="148" t="s">
+        <v>193</v>
+      </c>
+      <c r="I58" s="152" t="s">
+        <v>194</v>
+      </c>
+      <c r="J58" s="153" t="s">
+        <v>195</v>
+      </c>
+      <c r="K58" s="152"/>
+      <c r="L58" s="97"/>
+      <c r="M58" s="97"/>
+      <c r="N58" s="6"/>
+      <c r="O58" s="6"/>
+      <c r="P58" s="6"/>
+    </row>
+    <row r="59" spans="1:16">
+      <c r="A59" s="6"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="82"/>
+      <c r="E59" s="110">
+        <v>3</v>
+      </c>
+      <c r="F59" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="G59" s="151" t="s">
+        <v>196</v>
+      </c>
+      <c r="H59" s="148" t="s">
+        <v>197</v>
+      </c>
+      <c r="I59" s="152" t="s">
+        <v>198</v>
+      </c>
+      <c r="J59" s="153" t="s">
+        <v>199</v>
+      </c>
+      <c r="K59" s="152"/>
+      <c r="L59" s="97"/>
+      <c r="M59" s="97"/>
+      <c r="N59" s="6"/>
+      <c r="O59" s="6"/>
+      <c r="P59" s="6"/>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="A60" s="6"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="82"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="G60" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="H60" s="140" t="s">
+        <v>201</v>
+      </c>
+      <c r="I60" s="140"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="6"/>
+      <c r="O60" s="6"/>
+      <c r="P60" s="6"/>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="A61" s="6"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="82"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="G61" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="H61" s="140" t="s">
+        <v>203</v>
+      </c>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="5"/>
+      <c r="N61" s="6"/>
+      <c r="O61" s="6"/>
+      <c r="P61" s="6"/>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="A62" s="6"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="82"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="G62" s="144" t="s">
+        <v>204</v>
+      </c>
+      <c r="H62" s="140" t="s">
+        <v>205</v>
+      </c>
+      <c r="I62" s="145"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="6"/>
+      <c r="O62" s="6"/>
+      <c r="P62" s="6"/>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="A63" s="6"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="101"/>
+      <c r="E63" s="110"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="151" t="s">
+        <v>206</v>
+      </c>
+      <c r="H63" s="148" t="s">
+        <v>207</v>
+      </c>
+      <c r="I63" s="155" t="s">
+        <v>208</v>
+      </c>
+      <c r="J63" s="155" t="s">
+        <v>208</v>
+      </c>
+      <c r="K63" s="155"/>
+      <c r="L63" s="97"/>
+      <c r="M63" s="97"/>
+      <c r="N63" s="6"/>
+      <c r="O63" s="6"/>
+      <c r="P63" s="6"/>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="A64" s="6"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="156" t="s">
+        <v>209</v>
+      </c>
+      <c r="E64" s="110"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="157" t="s">
+        <v>210</v>
+      </c>
+      <c r="H64" s="148" t="s">
+        <v>211</v>
+      </c>
+      <c r="I64" s="155" t="s">
+        <v>212</v>
+      </c>
+      <c r="J64" s="155" t="s">
+        <v>213</v>
+      </c>
+      <c r="K64" s="155" t="s">
+        <v>214</v>
+      </c>
+      <c r="L64" s="97"/>
+      <c r="M64" s="97"/>
+      <c r="N64" s="6"/>
+      <c r="O64" s="6"/>
+      <c r="P64" s="6"/>
+    </row>
+    <row r="65" spans="1:16">
+      <c r="A65" s="6"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="156"/>
+      <c r="E65" s="110"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="158" t="s">
+        <v>215</v>
+      </c>
+      <c r="H65" s="148" t="s">
+        <v>216</v>
+      </c>
+      <c r="I65" s="159" t="s">
+        <v>39</v>
+      </c>
+      <c r="J65" s="159" t="s">
+        <v>39</v>
+      </c>
+      <c r="K65" s="159" t="s">
+        <v>39</v>
+      </c>
+      <c r="L65" s="97"/>
+      <c r="M65" s="97"/>
+      <c r="N65" s="6"/>
+      <c r="O65" s="6"/>
+      <c r="P65" s="6"/>
+    </row>
+    <row r="66" spans="1:16">
+      <c r="A66" s="6"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="156"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="158" t="s">
+        <v>217</v>
+      </c>
+      <c r="H66" s="148" t="s">
+        <v>218</v>
+      </c>
+      <c r="I66" s="159" t="s">
+        <v>219</v>
+      </c>
+      <c r="J66" s="159" t="s">
+        <v>219</v>
+      </c>
+      <c r="K66" s="159" t="s">
+        <v>219</v>
+      </c>
+      <c r="L66" s="97"/>
+      <c r="M66" s="97"/>
+      <c r="N66" s="6"/>
+      <c r="O66" s="6"/>
+      <c r="P66" s="6"/>
+    </row>
+    <row r="67" spans="1:16" ht="15" customHeight="1">
+      <c r="A67" s="6"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="156"/>
+      <c r="E67" s="17">
+        <v>2</v>
+      </c>
+      <c r="F67" s="22"/>
+      <c r="G67" s="160" t="s">
+        <v>220</v>
+      </c>
+      <c r="H67" s="161" t="s">
+        <v>221</v>
+      </c>
+      <c r="I67" s="162"/>
+      <c r="J67" s="162"/>
+      <c r="K67" s="162"/>
+      <c r="L67" s="5"/>
+      <c r="M67" s="5"/>
+      <c r="N67" s="6"/>
+      <c r="O67" s="6"/>
+      <c r="P67" s="6"/>
+    </row>
+    <row r="68" spans="1:16">
+      <c r="A68" s="6"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="156"/>
+      <c r="E68" s="17">
+        <v>1</v>
+      </c>
+      <c r="F68" s="22"/>
+      <c r="G68" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H68" s="161" t="s">
+        <v>223</v>
+      </c>
+      <c r="I68" s="74" t="s">
+        <v>224</v>
+      </c>
+      <c r="J68" s="74" t="s">
+        <v>224</v>
+      </c>
+      <c r="K68" s="74" t="s">
+        <v>224</v>
+      </c>
+      <c r="L68" s="13"/>
+      <c r="M68" s="5"/>
+      <c r="N68" s="6"/>
+      <c r="O68" s="6"/>
+      <c r="P68" s="6"/>
+    </row>
+    <row r="69" spans="1:16" s="6" customFormat="1">
+      <c r="D69" s="156"/>
+      <c r="E69" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="F69" s="22"/>
+      <c r="G69" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="H69" s="161" t="s">
+        <v>227</v>
+      </c>
+      <c r="I69" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="J69" s="16">
+        <v>702880946</v>
+      </c>
+      <c r="K69" s="16">
+        <v>632085528</v>
+      </c>
+      <c r="L69" s="13"/>
+      <c r="M69" s="5"/>
+    </row>
+    <row r="70" spans="1:16" s="10" customFormat="1">
+      <c r="D70" s="156"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="23"/>
+      <c r="G70" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="H70" s="163" t="s">
+        <v>230</v>
+      </c>
+      <c r="I70" s="164" t="s">
+        <v>231</v>
+      </c>
+      <c r="J70" s="164" t="s">
+        <v>231</v>
+      </c>
+      <c r="K70" s="164" t="s">
+        <v>231</v>
+      </c>
+      <c r="L70" s="14"/>
+      <c r="M70" s="11"/>
+    </row>
+    <row r="71" spans="1:16">
+      <c r="A71" s="6"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="156"/>
+      <c r="E71" s="17">
+        <v>2</v>
+      </c>
+      <c r="F71" s="22"/>
+      <c r="G71" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="H71" s="161" t="s">
+        <v>233</v>
+      </c>
+      <c r="I71" s="74" t="s">
+        <v>224</v>
+      </c>
+      <c r="J71" s="74" t="s">
+        <v>224</v>
+      </c>
+      <c r="K71" s="74" t="s">
+        <v>224</v>
+      </c>
+      <c r="L71" s="13"/>
+      <c r="M71" s="5"/>
+      <c r="N71" s="6"/>
+      <c r="O71" s="6"/>
+      <c r="P71" s="6"/>
+    </row>
+    <row r="72" spans="1:16" s="6" customFormat="1">
+      <c r="D72" s="156"/>
+      <c r="E72" s="17">
+        <v>2</v>
+      </c>
+      <c r="F72" s="22"/>
+      <c r="G72" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="H72" s="161" t="s">
+        <v>235</v>
+      </c>
+      <c r="I72" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="J72" s="16">
+        <v>702880946</v>
+      </c>
+      <c r="K72" s="16">
+        <v>561964589</v>
+      </c>
+      <c r="L72" s="13"/>
+      <c r="M72" s="5"/>
+    </row>
+    <row r="73" spans="1:16" s="10" customFormat="1">
+      <c r="D73" s="156"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="H73" s="163" t="s">
+        <v>237</v>
+      </c>
+      <c r="I73" s="164" t="s">
+        <v>231</v>
+      </c>
+      <c r="J73" s="164" t="s">
+        <v>231</v>
+      </c>
+      <c r="K73" s="164" t="s">
+        <v>231</v>
+      </c>
+      <c r="L73" s="14"/>
+      <c r="M73" s="11"/>
+    </row>
+    <row r="74" spans="1:16" s="6" customFormat="1">
+      <c r="D74" s="156"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="22"/>
+      <c r="G74" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="H74" s="161" t="s">
+        <v>239</v>
+      </c>
+      <c r="I74" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="G43" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="H43" s="86"/>
-      <c r="I43" s="86"/>
-      <c r="J43" s="86" t="s">
-        <v>149</v>
-      </c>
-      <c r="K43" s="85"/>
-      <c r="L43" s="85"/>
-    </row>
-    <row r="44" spans="4:12">
-      <c r="D44" s="151"/>
-      <c r="E44" s="127">
-        <v>1</v>
-      </c>
-      <c r="F44" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="G44" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="H44" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="I44" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="J44" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="K44" s="22"/>
-      <c r="L44" s="22"/>
-    </row>
-    <row r="45" spans="4:12">
-      <c r="D45" s="151"/>
-      <c r="E45" s="119">
-        <v>1</v>
-      </c>
-      <c r="F45" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="G45" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="H45" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="I45" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="J45" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="K45" s="15"/>
-      <c r="L45" s="15"/>
-    </row>
-    <row r="46" spans="4:12">
-      <c r="D46" s="151"/>
-      <c r="E46" s="131">
+      <c r="J74" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="K74" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="L74" s="13"/>
+      <c r="M74" s="5"/>
+    </row>
+    <row r="75" spans="1:16">
+      <c r="A75" s="6"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="156"/>
+      <c r="E75" s="17">
         <v>3</v>
       </c>
-      <c r="F46" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="G46" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="H46" s="17">
-        <v>77479</v>
-      </c>
-      <c r="I46" s="17">
-        <v>95063</v>
-      </c>
-      <c r="J46" s="87">
-        <v>9029</v>
-      </c>
-      <c r="K46" s="17"/>
-      <c r="L46" s="17"/>
-    </row>
-    <row r="47" spans="4:12">
-      <c r="D47" s="151"/>
-      <c r="E47" s="131">
+      <c r="F75" s="22"/>
+      <c r="G75" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="H75" s="161" t="s">
+        <v>241</v>
+      </c>
+      <c r="I75" s="165" t="s">
+        <v>242</v>
+      </c>
+      <c r="J75" s="75" t="s">
+        <v>243</v>
+      </c>
+      <c r="K75" s="75" t="s">
+        <v>243</v>
+      </c>
+      <c r="L75" s="13"/>
+      <c r="M75" s="5"/>
+      <c r="N75" s="6"/>
+      <c r="O75" s="6"/>
+      <c r="P75" s="6"/>
+    </row>
+    <row r="76" spans="1:16">
+      <c r="A76" s="6"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="156"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="H76" s="161" t="s">
+        <v>245</v>
+      </c>
+      <c r="I76" s="165"/>
+      <c r="J76" s="75"/>
+      <c r="K76" s="75"/>
+      <c r="L76" s="144"/>
+      <c r="M76" s="5"/>
+      <c r="N76" s="6"/>
+      <c r="O76" s="6"/>
+      <c r="P76" s="6"/>
+    </row>
+    <row r="77" spans="1:16">
+      <c r="A77" s="6"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="156"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="H77" s="161" t="s">
+        <v>247</v>
+      </c>
+      <c r="I77" s="74"/>
+      <c r="J77" s="75"/>
+      <c r="K77" s="75"/>
+      <c r="L77" s="19"/>
+      <c r="M77" s="13"/>
+      <c r="N77" s="6"/>
+      <c r="O77" s="6"/>
+      <c r="P77" s="6"/>
+    </row>
+    <row r="78" spans="1:16" ht="30.75">
+      <c r="A78" s="6"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="156"/>
+      <c r="E78" s="17">
         <v>2</v>
       </c>
-      <c r="F47" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="G47" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="H47" s="15"/>
-      <c r="I47" s="61">
-        <v>3</v>
-      </c>
-      <c r="J47" s="15"/>
-      <c r="K47" s="15"/>
-      <c r="L47" s="15"/>
-    </row>
-    <row r="48" spans="4:12">
-      <c r="D48" s="151"/>
-      <c r="E48" s="131">
+      <c r="F78" s="22"/>
+      <c r="G78" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="H78" s="161" t="s">
+        <v>249</v>
+      </c>
+      <c r="I78" s="166" t="s">
+        <v>250</v>
+      </c>
+      <c r="J78" s="166" t="s">
+        <v>251</v>
+      </c>
+      <c r="K78" s="166" t="s">
+        <v>252</v>
+      </c>
+      <c r="L78" s="75"/>
+      <c r="M78" s="13"/>
+      <c r="N78" s="6"/>
+      <c r="O78" s="6"/>
+      <c r="P78" s="6"/>
+    </row>
+    <row r="79" spans="1:16">
+      <c r="A79" s="6"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="156"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="22"/>
+      <c r="G79" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="H79" s="161" t="s">
+        <v>254</v>
+      </c>
+      <c r="I79" s="27"/>
+      <c r="J79" s="6"/>
+      <c r="K79" s="75"/>
+      <c r="L79" s="75"/>
+      <c r="M79" s="13"/>
+      <c r="N79" s="6"/>
+      <c r="O79" s="6"/>
+      <c r="P79" s="6"/>
+    </row>
+    <row r="80" spans="1:16">
+      <c r="A80" s="6"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="156"/>
+      <c r="E80" s="17">
         <v>2</v>
       </c>
-      <c r="F48" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="G48" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="H48" s="15"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="15"/>
-      <c r="L48" s="15"/>
-    </row>
-    <row r="49" spans="4:12">
-      <c r="D49" s="151"/>
-      <c r="E49" s="131">
+      <c r="F80" s="22"/>
+      <c r="G80" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="H80" s="161" t="s">
+        <v>256</v>
+      </c>
+      <c r="I80" s="74" t="s">
+        <v>257</v>
+      </c>
+      <c r="J80" s="75" t="s">
+        <v>258</v>
+      </c>
+      <c r="K80" s="19"/>
+      <c r="L80" s="75"/>
+      <c r="M80" s="13"/>
+      <c r="N80" s="6"/>
+      <c r="O80" s="6"/>
+      <c r="P80" s="6"/>
+    </row>
+    <row r="81" spans="1:16">
+      <c r="A81" s="6"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="156"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="22"/>
+      <c r="G81" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="H81" s="161" t="s">
+        <v>260</v>
+      </c>
+      <c r="I81" s="74"/>
+      <c r="J81" s="75"/>
+      <c r="K81" s="19"/>
+      <c r="L81" s="75"/>
+      <c r="M81" s="13"/>
+      <c r="N81" s="6"/>
+      <c r="O81" s="6"/>
+      <c r="P81" s="6"/>
+    </row>
+    <row r="82" spans="1:16">
+      <c r="A82" s="6"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="156"/>
+      <c r="E82" s="17">
         <v>2</v>
       </c>
-      <c r="F49" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="G49" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15" t="s">
+      <c r="F82" s="22"/>
+      <c r="G82" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="H82" s="161" t="s">
+        <v>262</v>
+      </c>
+      <c r="I82" s="74"/>
+      <c r="J82" s="75" t="s">
+        <v>263</v>
+      </c>
+      <c r="K82" s="154"/>
+      <c r="L82" s="140"/>
+      <c r="M82" s="5"/>
+      <c r="N82" s="6"/>
+      <c r="O82" s="6"/>
+      <c r="P82" s="6"/>
+    </row>
+    <row r="83" spans="1:16">
+      <c r="A83" s="6"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="156"/>
+      <c r="E83" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="F83" s="22"/>
+      <c r="G83" s="167" t="s">
+        <v>264</v>
+      </c>
+      <c r="H83" s="161" t="s">
+        <v>265</v>
+      </c>
+      <c r="I83" s="168" t="s">
+        <v>266</v>
+      </c>
+      <c r="J83" s="168" t="s">
+        <v>267</v>
+      </c>
+      <c r="K83" s="111" t="s">
+        <v>268</v>
+      </c>
+      <c r="L83" s="5"/>
+      <c r="M83" s="5"/>
+      <c r="N83" s="6"/>
+      <c r="O83" s="6"/>
+      <c r="P83" s="6"/>
+    </row>
+    <row r="84" spans="1:16">
+      <c r="A84" s="6"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="156"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="22"/>
+      <c r="G84" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="H84" s="161" t="s">
+        <v>270</v>
+      </c>
+      <c r="I84" s="74" t="s">
+        <v>271</v>
+      </c>
+      <c r="J84" s="75" t="s">
+        <v>272</v>
+      </c>
+      <c r="K84" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="L84" s="5"/>
+      <c r="M84" s="5"/>
+      <c r="N84" s="6"/>
+      <c r="O84" s="6"/>
+      <c r="P84" s="6"/>
+    </row>
+    <row r="85" spans="1:16">
+      <c r="A85" s="6"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="156"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="22"/>
+      <c r="G85" s="169" t="s">
+        <v>274</v>
+      </c>
+      <c r="H85" s="170" t="s">
+        <v>275</v>
+      </c>
+      <c r="I85" s="171" t="s">
         <v>124</v>
       </c>
-      <c r="J49" s="15"/>
-      <c r="K49" s="15"/>
-      <c r="L49" s="15"/>
-    </row>
-    <row r="50" spans="4:12">
-      <c r="D50" s="151"/>
-      <c r="E50" s="131">
-        <v>2</v>
-      </c>
-      <c r="F50" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="G50" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="H50" s="15"/>
-      <c r="I50" s="46">
-        <v>5678</v>
-      </c>
-      <c r="J50" s="15"/>
-      <c r="K50" s="15"/>
-      <c r="L50" s="15"/>
-    </row>
-    <row r="51" spans="4:12">
-      <c r="D51" s="151"/>
-      <c r="E51" s="131">
-        <v>2</v>
-      </c>
-      <c r="F51" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="G51" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="J51" s="15"/>
-      <c r="K51" s="15"/>
-      <c r="L51" s="15"/>
-    </row>
-    <row r="52" spans="4:12">
-      <c r="D52" s="151"/>
-      <c r="E52" s="131">
-        <v>2</v>
-      </c>
-      <c r="F52" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="G52" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="J52" s="15"/>
-      <c r="K52" s="15"/>
-      <c r="L52" s="15"/>
-    </row>
-    <row r="53" spans="4:12">
-      <c r="D53" s="151"/>
-      <c r="E53" s="131">
-        <v>2</v>
-      </c>
-      <c r="F53" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="G53" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="15"/>
-      <c r="K53" s="15"/>
-      <c r="L53" s="15"/>
-    </row>
-    <row r="54" spans="4:12">
-      <c r="D54" s="151"/>
-      <c r="E54" s="131">
-        <v>2</v>
-      </c>
-      <c r="F54" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="G54" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="15"/>
-      <c r="K54" s="15"/>
-      <c r="L54" s="15"/>
-    </row>
-    <row r="55" spans="4:12">
-      <c r="D55" s="151"/>
-      <c r="E55" s="131">
-        <v>2</v>
-      </c>
-      <c r="F55" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="G55" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="H55" s="23"/>
-      <c r="I55" s="23"/>
-      <c r="J55" s="78">
-        <v>561964589</v>
-      </c>
-      <c r="K55" s="15"/>
-      <c r="L55" s="15"/>
-    </row>
-    <row r="56" spans="4:12" s="30" customFormat="1">
-      <c r="D56" s="151"/>
-      <c r="E56" s="131">
-        <v>2</v>
-      </c>
-      <c r="F56" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="G56" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="H56" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="I56" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="J56" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="K56" s="32"/>
-      <c r="L56" s="32"/>
-    </row>
-    <row r="57" spans="4:12">
-      <c r="D57" s="151"/>
-      <c r="E57" s="128"/>
-      <c r="F57" s="39" t="s">
-        <v>187</v>
-      </c>
-      <c r="G57" s="39" t="s">
-        <v>188</v>
-      </c>
-      <c r="H57" s="39" t="s">
-        <v>189</v>
-      </c>
-      <c r="I57" s="93" t="s">
-        <v>189</v>
-      </c>
-      <c r="J57" s="39"/>
-      <c r="K57" s="36"/>
-      <c r="L57" s="36"/>
-    </row>
-    <row r="58" spans="4:12">
-      <c r="D58" s="151"/>
-      <c r="E58" s="128">
-        <v>3</v>
-      </c>
-      <c r="F58" s="40" t="s">
-        <v>190</v>
-      </c>
-      <c r="G58" s="39" t="s">
-        <v>191</v>
-      </c>
-      <c r="H58" s="40" t="s">
-        <v>192</v>
-      </c>
-      <c r="I58" s="94" t="s">
-        <v>193</v>
-      </c>
-      <c r="J58" s="40"/>
-      <c r="K58" s="36"/>
-      <c r="L58" s="36"/>
-    </row>
-    <row r="59" spans="4:12">
-      <c r="D59" s="151"/>
-      <c r="E59" s="128">
-        <v>3</v>
-      </c>
-      <c r="F59" s="40" t="s">
-        <v>194</v>
-      </c>
-      <c r="G59" s="39" t="s">
-        <v>195</v>
-      </c>
-      <c r="H59" s="40" t="s">
-        <v>196</v>
-      </c>
-      <c r="I59" s="94" t="s">
-        <v>197</v>
-      </c>
-      <c r="J59" s="40"/>
-      <c r="K59" s="36"/>
-      <c r="L59" s="36"/>
-    </row>
-    <row r="60" spans="4:12">
-      <c r="D60" s="151"/>
-      <c r="E60" s="119"/>
-      <c r="F60" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="G60" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="H60" s="22"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="15"/>
-      <c r="K60" s="15"/>
-      <c r="L60" s="15"/>
-    </row>
-    <row r="61" spans="4:12">
-      <c r="D61" s="151"/>
-      <c r="E61" s="119"/>
-      <c r="F61" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="G61" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="15"/>
-      <c r="K61" s="15"/>
-      <c r="L61" s="15"/>
-    </row>
-    <row r="62" spans="4:12">
-      <c r="D62" s="151"/>
-      <c r="E62" s="119"/>
-      <c r="F62" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="G62" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="H62" s="23"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="15"/>
-      <c r="K62" s="15"/>
-      <c r="L62" s="15"/>
-    </row>
-    <row r="63" spans="4:12">
-      <c r="D63" s="152"/>
-      <c r="E63" s="128"/>
-      <c r="F63" s="40" t="s">
-        <v>204</v>
-      </c>
-      <c r="G63" s="39" t="s">
-        <v>205</v>
-      </c>
-      <c r="H63" s="42" t="s">
-        <v>206</v>
-      </c>
-      <c r="I63" s="42" t="s">
-        <v>206</v>
-      </c>
-      <c r="J63" s="42"/>
-      <c r="K63" s="36"/>
-      <c r="L63" s="36"/>
-    </row>
-    <row r="64" spans="4:12">
-      <c r="D64" s="154" t="s">
-        <v>207</v>
-      </c>
-      <c r="E64" s="128"/>
-      <c r="F64" s="41" t="s">
-        <v>208</v>
-      </c>
-      <c r="G64" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="H64" s="42" t="s">
-        <v>210</v>
-      </c>
-      <c r="I64" s="42" t="s">
-        <v>211</v>
-      </c>
-      <c r="J64" s="42" t="s">
-        <v>212</v>
-      </c>
-      <c r="K64" s="36"/>
-      <c r="L64" s="36"/>
-    </row>
-    <row r="65" spans="4:12">
-      <c r="D65" s="154"/>
-      <c r="E65" s="128"/>
-      <c r="F65" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="G65" s="39" t="s">
-        <v>214</v>
-      </c>
-      <c r="H65" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="I65" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="J65" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="K65" s="36"/>
-      <c r="L65" s="36"/>
-    </row>
-    <row r="66" spans="4:12">
-      <c r="D66" s="154"/>
-      <c r="E66" s="129"/>
-      <c r="F66" s="43" t="s">
-        <v>215</v>
-      </c>
-      <c r="G66" s="39" t="s">
-        <v>216</v>
-      </c>
-      <c r="H66" s="44" t="s">
-        <v>217</v>
-      </c>
-      <c r="I66" s="44" t="s">
-        <v>217</v>
-      </c>
-      <c r="J66" s="44" t="s">
-        <v>217</v>
-      </c>
-      <c r="K66" s="36"/>
-      <c r="L66" s="36"/>
-    </row>
-    <row r="67" spans="4:12" ht="15" customHeight="1">
-      <c r="D67" s="154"/>
-      <c r="E67" s="131">
-        <v>2</v>
-      </c>
-      <c r="F67" s="29" t="s">
-        <v>218</v>
-      </c>
-      <c r="G67" s="29" t="s">
-        <v>219</v>
-      </c>
-      <c r="H67" s="88"/>
-      <c r="I67" s="88"/>
-      <c r="J67" s="88"/>
-      <c r="K67" s="15"/>
-      <c r="L67" s="15"/>
-    </row>
-    <row r="68" spans="4:12">
-      <c r="D68" s="154"/>
-      <c r="E68" s="129">
-        <v>1</v>
-      </c>
-      <c r="F68" s="27" t="s">
-        <v>220</v>
-      </c>
-      <c r="G68" s="29" t="s">
-        <v>221</v>
-      </c>
-      <c r="H68" s="28" t="s">
-        <v>222</v>
-      </c>
-      <c r="I68" s="28" t="s">
-        <v>222</v>
-      </c>
-      <c r="J68" s="28" t="s">
-        <v>222</v>
-      </c>
-      <c r="K68" s="26"/>
-      <c r="L68" s="15"/>
-    </row>
-    <row r="69" spans="4:12" s="60" customFormat="1">
-      <c r="D69" s="154"/>
-      <c r="E69" s="130" t="s">
-        <v>223</v>
-      </c>
-      <c r="F69" s="62" t="s">
-        <v>224</v>
-      </c>
-      <c r="G69" s="29" t="s">
-        <v>225</v>
-      </c>
-      <c r="H69" s="139">
-        <v>607080915</v>
-      </c>
-      <c r="I69" s="139">
-        <v>702880946</v>
-      </c>
-      <c r="J69" s="139">
-        <v>632085528</v>
-      </c>
-      <c r="K69" s="137"/>
-      <c r="L69" s="59"/>
-    </row>
-    <row r="70" spans="4:12" s="99" customFormat="1">
-      <c r="D70" s="154"/>
-      <c r="E70" s="100"/>
-      <c r="F70" s="140" t="s">
-        <v>226</v>
-      </c>
-      <c r="G70" s="101" t="s">
-        <v>227</v>
-      </c>
-      <c r="H70" s="141" t="s">
-        <v>228</v>
-      </c>
-      <c r="I70" s="141" t="s">
-        <v>228</v>
-      </c>
-      <c r="J70" s="141" t="s">
-        <v>228</v>
-      </c>
-      <c r="K70" s="138"/>
-      <c r="L70" s="102"/>
-    </row>
-    <row r="71" spans="4:12">
-      <c r="D71" s="154"/>
-      <c r="E71" s="136">
-        <v>2</v>
-      </c>
-      <c r="F71" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="G71" s="29" t="s">
-        <v>230</v>
-      </c>
-      <c r="H71" s="28" t="s">
-        <v>222</v>
-      </c>
-      <c r="I71" s="28" t="s">
-        <v>222</v>
-      </c>
-      <c r="J71" s="28" t="s">
-        <v>222</v>
-      </c>
-      <c r="K71" s="26"/>
-      <c r="L71" s="15"/>
-    </row>
-    <row r="72" spans="4:12" s="60" customFormat="1">
-      <c r="D72" s="154"/>
-      <c r="E72" s="136">
-        <v>2</v>
-      </c>
-      <c r="F72" s="62" t="s">
-        <v>231</v>
-      </c>
-      <c r="G72" s="29" t="s">
-        <v>232</v>
-      </c>
-      <c r="H72" s="139">
-        <v>607080915</v>
-      </c>
-      <c r="I72" s="139">
-        <v>702880946</v>
-      </c>
-      <c r="J72" s="139">
-        <v>561964589</v>
-      </c>
-      <c r="K72" s="137"/>
-      <c r="L72" s="59"/>
-    </row>
-    <row r="73" spans="4:12" s="99" customFormat="1">
-      <c r="D73" s="154"/>
-      <c r="E73" s="144"/>
-      <c r="F73" s="140" t="s">
-        <v>233</v>
-      </c>
-      <c r="G73" s="101" t="s">
-        <v>234</v>
-      </c>
-      <c r="H73" s="141" t="s">
-        <v>228</v>
-      </c>
-      <c r="I73" s="141" t="s">
-        <v>228</v>
-      </c>
-      <c r="J73" s="141" t="s">
-        <v>228</v>
-      </c>
-      <c r="K73" s="138"/>
-      <c r="L73" s="102"/>
-    </row>
-    <row r="74" spans="4:12" s="60" customFormat="1">
-      <c r="D74" s="154"/>
-      <c r="E74" s="129"/>
-      <c r="F74" s="62" t="s">
-        <v>235</v>
-      </c>
-      <c r="G74" s="29" t="s">
-        <v>236</v>
-      </c>
-      <c r="H74" s="142" t="s">
-        <v>146</v>
-      </c>
-      <c r="I74" s="143" t="s">
-        <v>146</v>
-      </c>
-      <c r="J74" s="143" t="s">
-        <v>146</v>
-      </c>
-      <c r="K74" s="137"/>
-      <c r="L74" s="59"/>
-    </row>
-    <row r="75" spans="4:12">
-      <c r="D75" s="154"/>
-      <c r="E75" s="136">
-        <v>3</v>
-      </c>
-      <c r="F75" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="G75" s="29" t="s">
-        <v>238</v>
-      </c>
-      <c r="H75" s="69" t="s">
-        <v>239</v>
-      </c>
-      <c r="I75" s="27" t="s">
-        <v>240</v>
-      </c>
-      <c r="J75" s="27" t="s">
-        <v>240</v>
-      </c>
-      <c r="K75" s="26"/>
-      <c r="L75" s="15"/>
-    </row>
-    <row r="76" spans="4:12">
-      <c r="D76" s="154"/>
-      <c r="E76" s="129"/>
-      <c r="F76" s="27" t="s">
-        <v>241</v>
-      </c>
-      <c r="G76" s="29" t="s">
-        <v>242</v>
-      </c>
-      <c r="H76" s="69"/>
-      <c r="I76" s="27"/>
-      <c r="J76" s="27"/>
-      <c r="K76" s="90"/>
-      <c r="L76" s="15"/>
-    </row>
-    <row r="77" spans="4:12">
-      <c r="D77" s="154"/>
-      <c r="E77" s="136"/>
-      <c r="F77" s="27" t="s">
-        <v>243</v>
-      </c>
-      <c r="G77" s="29" t="s">
-        <v>244</v>
-      </c>
-      <c r="H77" s="28"/>
-      <c r="I77" s="27"/>
-      <c r="J77" s="27"/>
-      <c r="K77" s="108"/>
-      <c r="L77" s="26"/>
-    </row>
-    <row r="78" spans="4:12" ht="30">
-      <c r="D78" s="154"/>
-      <c r="E78" s="136">
-        <v>2</v>
-      </c>
-      <c r="F78" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="G78" s="29" t="s">
-        <v>246</v>
-      </c>
-      <c r="H78" s="106" t="s">
-        <v>247</v>
-      </c>
-      <c r="I78" s="106" t="s">
-        <v>248</v>
-      </c>
-      <c r="J78" s="106" t="s">
-        <v>249</v>
-      </c>
-      <c r="K78" s="27"/>
-      <c r="L78" s="26"/>
-    </row>
-    <row r="79" spans="4:12">
-      <c r="D79" s="154"/>
-      <c r="E79" s="136"/>
-      <c r="F79" s="27" t="s">
-        <v>250</v>
-      </c>
-      <c r="G79" s="29" t="s">
-        <v>251</v>
-      </c>
-      <c r="J79" s="27"/>
-      <c r="K79" s="27"/>
-      <c r="L79" s="26"/>
-    </row>
-    <row r="80" spans="4:12">
-      <c r="D80" s="154"/>
-      <c r="E80" s="136">
-        <v>2</v>
-      </c>
-      <c r="F80" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="G80" s="29" t="s">
-        <v>253</v>
-      </c>
-      <c r="H80" s="28" t="s">
-        <v>254</v>
-      </c>
-      <c r="I80" s="27" t="s">
-        <v>255</v>
-      </c>
-      <c r="J80" s="108"/>
-      <c r="K80" s="27"/>
-      <c r="L80" s="26"/>
-    </row>
-    <row r="81" spans="1:12">
-      <c r="D81" s="154"/>
-      <c r="E81" s="136"/>
-      <c r="F81" s="27" t="s">
-        <v>256</v>
-      </c>
-      <c r="G81" s="29" t="s">
-        <v>257</v>
-      </c>
-      <c r="H81" s="28"/>
-      <c r="I81" s="27"/>
-      <c r="J81" s="108"/>
-      <c r="K81" s="27"/>
-      <c r="L81" s="26"/>
-    </row>
-    <row r="82" spans="1:12">
-      <c r="D82" s="154"/>
-      <c r="E82" s="136">
-        <v>2</v>
-      </c>
-      <c r="F82" s="27" t="s">
-        <v>258</v>
-      </c>
-      <c r="G82" s="29" t="s">
-        <v>259</v>
-      </c>
-      <c r="H82" s="28"/>
-      <c r="I82" s="27" t="s">
-        <v>260</v>
-      </c>
-      <c r="J82" s="109"/>
-      <c r="K82" s="22"/>
-      <c r="L82" s="15"/>
-    </row>
-    <row r="83" spans="1:12">
-      <c r="D83" s="154"/>
-      <c r="E83" s="130" t="s">
-        <v>223</v>
-      </c>
-      <c r="F83" s="114" t="s">
-        <v>261</v>
-      </c>
-      <c r="G83" s="29" t="s">
-        <v>262</v>
-      </c>
-      <c r="H83" s="115" t="s">
-        <v>263</v>
-      </c>
-      <c r="I83" s="115" t="s">
-        <v>264</v>
-      </c>
-      <c r="J83" s="110" t="s">
-        <v>265</v>
-      </c>
-      <c r="K83" s="15"/>
-      <c r="L83" s="15"/>
-    </row>
-    <row r="84" spans="1:12">
-      <c r="D84" s="154"/>
-      <c r="E84" s="129"/>
-      <c r="F84" s="27" t="s">
-        <v>266</v>
-      </c>
-      <c r="G84" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="H84" s="28" t="s">
-        <v>268</v>
-      </c>
-      <c r="I84" s="27" t="s">
-        <v>269</v>
-      </c>
-      <c r="J84" s="26" t="s">
-        <v>270</v>
-      </c>
-      <c r="K84" s="15"/>
-      <c r="L84" s="15"/>
-    </row>
-    <row r="85" spans="1:12">
-      <c r="D85" s="154"/>
-      <c r="E85" s="131"/>
-      <c r="F85" s="111" t="s">
-        <v>271</v>
-      </c>
-      <c r="G85" s="112" t="s">
-        <v>272</v>
-      </c>
-      <c r="H85" s="113" t="s">
-        <v>123</v>
-      </c>
-      <c r="I85" s="111" t="s">
-        <v>273</v>
-      </c>
-      <c r="J85" s="23" t="s">
-        <v>274</v>
-      </c>
-      <c r="K85" s="23"/>
-      <c r="L85" s="23"/>
-    </row>
-    <row r="86" spans="1:12" s="76" customFormat="1">
-      <c r="D86" s="155"/>
-      <c r="E86" s="132"/>
-      <c r="F86" s="74" t="s">
-        <v>275</v>
-      </c>
-      <c r="G86" s="75" t="s">
+      <c r="J85" s="172" t="s">
         <v>276</v>
       </c>
-      <c r="H86" s="79" t="s">
-        <v>95</v>
-      </c>
-      <c r="I86" s="79" t="s">
+      <c r="K85" s="145" t="s">
+        <v>277</v>
+      </c>
+      <c r="L85" s="145"/>
+      <c r="M85" s="145"/>
+      <c r="N85" s="6"/>
+      <c r="O85" s="6"/>
+      <c r="P85" s="6"/>
+    </row>
+    <row r="86" spans="1:16" s="9" customFormat="1">
+      <c r="A86" s="173"/>
+      <c r="B86" s="173"/>
+      <c r="C86" s="173"/>
+      <c r="D86" s="156"/>
+      <c r="E86" s="110"/>
+      <c r="F86" s="22"/>
+      <c r="G86" s="174" t="s">
+        <v>278</v>
+      </c>
+      <c r="H86" s="175" t="s">
+        <v>279</v>
+      </c>
+      <c r="I86" s="151" t="s">
         <v>96</v>
       </c>
-      <c r="J86" s="79" t="s">
-        <v>277</v>
-      </c>
-      <c r="K86" s="77"/>
-      <c r="L86" s="77"/>
-    </row>
-    <row r="87" spans="1:12" s="76" customFormat="1">
-      <c r="D87" s="155"/>
-      <c r="E87" s="132"/>
-      <c r="F87" s="74" t="s">
-        <v>278</v>
-      </c>
-      <c r="G87" s="75" t="s">
-        <v>279</v>
-      </c>
-      <c r="H87" s="80" t="s">
+      <c r="J86" s="151" t="s">
+        <v>97</v>
+      </c>
+      <c r="K86" s="151" t="s">
         <v>280</v>
       </c>
-      <c r="I87" s="80" t="s">
+      <c r="L86" s="176"/>
+      <c r="M86" s="176"/>
+      <c r="N86" s="173"/>
+      <c r="O86" s="173"/>
+      <c r="P86" s="173"/>
+    </row>
+    <row r="87" spans="1:16" s="9" customFormat="1">
+      <c r="A87" s="173"/>
+      <c r="B87" s="173"/>
+      <c r="C87" s="173"/>
+      <c r="D87" s="156"/>
+      <c r="E87" s="110"/>
+      <c r="F87" s="22"/>
+      <c r="G87" s="174" t="s">
         <v>281</v>
       </c>
-      <c r="J87" s="80" t="s">
+      <c r="H87" s="175" t="s">
         <v>282</v>
       </c>
-      <c r="K87" s="77"/>
-      <c r="L87" s="77"/>
-    </row>
-    <row r="88" spans="1:12" s="67" customFormat="1">
-      <c r="A88" s="67" t="s">
+      <c r="I87" s="177" t="s">
         <v>283</v>
       </c>
-      <c r="E88" s="133"/>
-      <c r="H88" s="68"/>
+      <c r="J87" s="177" t="s">
+        <v>284</v>
+      </c>
+      <c r="K87" s="177" t="s">
+        <v>285</v>
+      </c>
+      <c r="L87" s="176"/>
+      <c r="M87" s="176"/>
+      <c r="N87" s="173"/>
+      <c r="O87" s="173"/>
+      <c r="P87" s="173"/>
+    </row>
+    <row r="88" spans="1:16" s="7" customFormat="1">
+      <c r="A88" s="178" t="s">
+        <v>286</v>
+      </c>
+      <c r="B88" s="178"/>
+      <c r="C88" s="178"/>
+      <c r="D88" s="178"/>
+      <c r="E88" s="179"/>
+      <c r="F88" s="180"/>
+      <c r="G88" s="178"/>
+      <c r="H88" s="178"/>
+      <c r="I88" s="181"/>
+      <c r="J88" s="178"/>
+      <c r="K88" s="178"/>
+      <c r="L88" s="178"/>
+      <c r="M88" s="178"/>
+      <c r="N88" s="178"/>
+      <c r="O88" s="178"/>
+      <c r="P88" s="178"/>
     </row>
   </sheetData>
-  <autoFilter ref="A9:O88" xr:uid="{FC96D3DE-56F6-4E60-B012-339ED5333B2B}">
+  <autoFilter ref="A9:P88" xr:uid="{FC96D3DE-56F6-4E60-B012-339ED5333B2B}">
     <filterColumn colId="0" showButton="0"/>
   </autoFilter>
   <mergeCells count="14">
-    <mergeCell ref="J2:O4"/>
+    <mergeCell ref="K2:P4"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A2:B2"/>
@@ -4331,160 +5031,160 @@
     <mergeCell ref="D64:D87"/>
     <mergeCell ref="D27:D33"/>
     <mergeCell ref="D34:D40"/>
-    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A5:G5"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="D11:D15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D27">
-    <cfRule type="expression" dxfId="44" priority="94">
+    <cfRule type="expression" dxfId="44" priority="93">
+      <formula>AND($AE27=1,$AD27=1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="94">
+      <formula>$AE27=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="95">
+      <formula>OR($AE27="X",$AD27="X")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="41" priority="96">
       <formula>$AD27=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="93">
-      <formula>AND($AD27=1,$AC27=1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="95">
-      <formula>OR($AD27="X",$AC27="X")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="41" priority="96">
-      <formula>$AC27=1</formula>
-    </cfRule>
     <cfRule type="expression" dxfId="40" priority="97">
-      <formula>AND(NOT(ISBLANK($W27)),ISBLANK($AC27),ISBLANK($AD27))</formula>
+      <formula>AND(NOT(ISBLANK($X27)),ISBLANK($AD27),ISBLANK($AE27))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
     <cfRule type="expression" dxfId="39" priority="53">
-      <formula>AND($AD34=1,$AC34=1)</formula>
+      <formula>AND($AE34=1,$AD34=1)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="38" priority="54">
+      <formula>$AE34=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="55">
+      <formula>OR($AE34="X",$AD34="X")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="56">
       <formula>$AD34=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="55">
-      <formula>OR($AD34="X",$AC34="X")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="56">
-      <formula>$AC34=1</formula>
-    </cfRule>
     <cfRule type="expression" dxfId="35" priority="57">
-      <formula>AND(NOT(ISBLANK($W34)),ISBLANK($AC34),ISBLANK($AD34))</formula>
+      <formula>AND(NOT(ISBLANK($X34)),ISBLANK($AD34),ISBLANK($AE34))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41">
-    <cfRule type="expression" dxfId="34" priority="92">
-      <formula>AND(NOT(ISBLANK(#REF!)),ISBLANK(#REF!),ISBLANK(#REF!))</formula>
+    <cfRule type="expression" dxfId="34" priority="88">
+      <formula>AND(#REF!=1,#REF!=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="91">
+    <cfRule type="expression" dxfId="33" priority="89">
       <formula>#REF!=1</formula>
     </cfRule>
     <cfRule type="expression" dxfId="32" priority="90">
       <formula>OR(#REF!="X",#REF!="X")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="89">
+    <cfRule type="expression" dxfId="31" priority="91">
       <formula>#REF!=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="88">
-      <formula>AND(#REF!=1,#REF!=1)</formula>
+    <cfRule type="expression" dxfId="30" priority="92">
+      <formula>AND(NOT(ISBLANK(#REF!)),ISBLANK(#REF!),ISBLANK(#REF!))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41">
-    <cfRule type="expression" dxfId="29" priority="105">
-      <formula>AND($AD41=1,$AC41=1)</formula>
+  <conditionalFormatting sqref="G41">
+    <cfRule type="expression" dxfId="29" priority="104">
+      <formula>AND($S41="X",$B41&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="104">
-      <formula>AND($R41="X",$B41&lt;&gt;"")</formula>
+    <cfRule type="expression" dxfId="28" priority="105">
+      <formula>AND($AE41=1,$AD41=1)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="27" priority="106">
+      <formula>$AE41=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="107">
+      <formula>OR($AE41="X",$AD41="X")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="108">
       <formula>$AD41=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="107">
-      <formula>OR($AD41="X",$AC41="X")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="108">
-      <formula>$AC41=1</formula>
-    </cfRule>
     <cfRule type="expression" dxfId="24" priority="109">
-      <formula>AND(NOT(ISBLANK($W41)),ISBLANK($AC41),ISBLANK($AD41))</formula>
+      <formula>AND(NOT(ISBLANK($X41)),ISBLANK($AD41),ISBLANK($AE41))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F64:F67 G67:G85">
-    <cfRule type="expression" dxfId="23" priority="80">
-      <formula>$AC64=1</formula>
+  <conditionalFormatting sqref="G64:G67 H67:H85">
+    <cfRule type="expression" dxfId="23" priority="77">
+      <formula>AND($AE64=1,$AD64=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="79">
-      <formula>OR($AD64="X",$AC64="X")</formula>
+    <cfRule type="expression" dxfId="22" priority="78">
+      <formula>$AE64=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="78">
+    <cfRule type="expression" dxfId="21" priority="79">
+      <formula>OR($AE64="X",$AD64="X")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="80">
       <formula>$AD64=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="77">
-      <formula>AND($AD64=1,$AC64=1)</formula>
-    </cfRule>
     <cfRule type="expression" dxfId="19" priority="81">
-      <formula>AND(NOT(ISBLANK($W64)),ISBLANK($AC64),ISBLANK($AD64))</formula>
+      <formula>AND(NOT(ISBLANK($X64)),ISBLANK($AD64),ISBLANK($AE64))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="18" priority="110">
-      <formula>AND($R64="X",$B64&lt;&gt;"")</formula>
+      <formula>AND($S64="X",$B64&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F57:J57">
-    <cfRule type="expression" dxfId="17" priority="62">
-      <formula>$AD57=1</formula>
+  <conditionalFormatting sqref="G57:K57">
+    <cfRule type="expression" dxfId="17" priority="58">
+      <formula>AND($T57="X",OR($B57&lt;&gt;"",$D57&lt;&gt;""))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="58">
-      <formula>AND($S57="X",OR($B57&lt;&gt;"",$D57&lt;&gt;""))</formula>
+    <cfRule type="expression" dxfId="16" priority="59">
+      <formula>AND($AF57=1,$AE57=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="63">
-      <formula>AND(NOT(ISBLANK($X57)),ISBLANK($AD57),ISBLANK($AE57))</formula>
+    <cfRule type="expression" dxfId="15" priority="60">
+      <formula>$AF57=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="59">
-      <formula>AND($AE57=1,$AD57=1)</formula>
+    <cfRule type="expression" dxfId="14" priority="61">
+      <formula>OR($AF57="X",$AE57="X")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="60">
+    <cfRule type="expression" dxfId="13" priority="62">
       <formula>$AE57=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="61">
-      <formula>OR($AE57="X",$AD57="X")</formula>
+    <cfRule type="expression" dxfId="12" priority="63">
+      <formula>AND(NOT(ISBLANK($Y57)),ISBLANK($AE57),ISBLANK($AF57))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G58:G59">
-    <cfRule type="expression" dxfId="11" priority="51">
-      <formula>$AD58=1</formula>
+  <conditionalFormatting sqref="H58:H59">
+    <cfRule type="expression" dxfId="11" priority="47">
+      <formula>AND($T58="X",OR($B58&lt;&gt;"",$D58&lt;&gt;""))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="50">
-      <formula>OR($AE58="X",$AD58="X")</formula>
+    <cfRule type="expression" dxfId="10" priority="48">
+      <formula>AND($AF58=1,$AE58=1)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="9" priority="49">
+      <formula>$AF58=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="50">
+      <formula>OR($AF58="X",$AE58="X")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="51">
       <formula>$AE58=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="52">
-      <formula>AND(NOT(ISBLANK($X58)),ISBLANK($AD58),ISBLANK($AE58))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="48">
-      <formula>AND($AE58=1,$AD58=1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="47">
-      <formula>AND($S58="X",OR($B58&lt;&gt;"",$D58&lt;&gt;""))</formula>
+    <cfRule type="expression" dxfId="6" priority="52">
+      <formula>AND(NOT(ISBLANK($Y58)),ISBLANK($AE58),ISBLANK($AF58))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G63:G66">
-    <cfRule type="expression" dxfId="5" priority="42">
-      <formula>AND($AE63=1,$AD63=1)</formula>
+  <conditionalFormatting sqref="H63:H66">
+    <cfRule type="expression" dxfId="5" priority="41">
+      <formula>AND($T63="X",OR($B63&lt;&gt;"",$D63&lt;&gt;""))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="46">
-      <formula>AND(NOT(ISBLANK($X63)),ISBLANK($AD63),ISBLANK($AE63))</formula>
+    <cfRule type="expression" dxfId="4" priority="42">
+      <formula>AND($AF63=1,$AE63=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="41">
-      <formula>AND($S63="X",OR($B63&lt;&gt;"",$D63&lt;&gt;""))</formula>
+    <cfRule type="expression" dxfId="3" priority="43">
+      <formula>$AF63=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="45">
-      <formula>$AD63=1</formula>
+    <cfRule type="expression" dxfId="2" priority="44">
+      <formula>OR($AF63="X",$AE63="X")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="44">
-      <formula>OR($AE63="X",$AD63="X")</formula>
+    <cfRule type="expression" dxfId="1" priority="45">
+      <formula>$AE63=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="43">
-      <formula>$AE63=1</formula>
+    <cfRule type="expression" dxfId="0" priority="46">
+      <formula>AND(NOT(ISBLANK($Y63)),ISBLANK($AE63),ISBLANK($AF63))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
@@ -4505,6 +5205,58 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ModificateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <f8b6baa267c0456bbf6a8d18c49a130b xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </f8b6baa267c0456bbf6a8d18c49a130b>
+    <eef0f6fc4ed046399a9d01fd3a7d6a6a xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </eef0f6fc4ed046399a9d01fd3a7d6a6a>
+    <Référence_x0020_Bon_x0020_de_x0020_Commande xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <Référence_x0020_Documentaire xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <Chantier xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <p671c8df16a44846939d278d4958f62c xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </p671c8df16a44846939d278d4958f62c>
+    <Durée_x0020_d_x0027_Utilité_x0020_Administrative_x0020__x0028_DUA_x0029_ xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <Environnement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <b2804ef99be44b9e8166e80a6c2eb9f1 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </b2804ef99be44b9e8166e80a6c2eb9f1>
+    <_ExtendedDescription xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <mc4aa6e782e045f6bb87dab01c971b56 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </mc4aa6e782e045f6bb87dab01c971b56>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <m312bc62cb0243b6a873cbbf4dace6b2 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </m312bc62cb0243b6a873cbbf4dace6b2>
+    <b084a4cb34a444d7969136255594d2f3 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </b084a4cb34a444d7969136255594d2f3>
+    <CreateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <g30fb2d8061a4d40b63138f91c1a832e xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </g30fb2d8061a4d40b63138f91c1a832e>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <m9a76db3058146ae844db6599c9d7036 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </m9a76db3058146ae844db6599c9d7036>
+    <Ticket_x0020_Changement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <l0a6b4600f484920bbceae0813174244 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l0a6b4600f484920bbceae0813174244>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -4513,7 +5265,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document - Suivi de projet" ma:contentTypeID="0x010100333226B5D6902549BFE4A72F45A4400B0100E98F8C089710A74CA077FC6D601326A8" ma:contentTypeVersion="52" ma:contentTypeDescription="Type de contenu - Documentation de suivi de projet" ma:contentTypeScope="" ma:versionID="b3317a165cd10de70dc68851db9884d1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xmlns:ns3="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b8430278eece82d06f551ff77398a68" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4927,66 +5679,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ModificateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <f8b6baa267c0456bbf6a8d18c49a130b xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </f8b6baa267c0456bbf6a8d18c49a130b>
-    <eef0f6fc4ed046399a9d01fd3a7d6a6a xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </eef0f6fc4ed046399a9d01fd3a7d6a6a>
-    <Référence_x0020_Bon_x0020_de_x0020_Commande xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <Référence_x0020_Documentaire xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <Chantier xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <p671c8df16a44846939d278d4958f62c xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </p671c8df16a44846939d278d4958f62c>
-    <Durée_x0020_d_x0027_Utilité_x0020_Administrative_x0020__x0028_DUA_x0029_ xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <Environnement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <b2804ef99be44b9e8166e80a6c2eb9f1 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </b2804ef99be44b9e8166e80a6c2eb9f1>
-    <_ExtendedDescription xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <mc4aa6e782e045f6bb87dab01c971b56 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </mc4aa6e782e045f6bb87dab01c971b56>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <m312bc62cb0243b6a873cbbf4dace6b2 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </m312bc62cb0243b6a873cbbf4dace6b2>
-    <b084a4cb34a444d7969136255594d2f3 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </b084a4cb34a444d7969136255594d2f3>
-    <CreateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <g30fb2d8061a4d40b63138f91c1a832e xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </g30fb2d8061a4d40b63138f91c1a832e>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <m9a76db3058146ae844db6599c9d7036 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </m9a76db3058146ae844db6599c9d7036>
-    <Ticket_x0020_Changement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <l0a6b4600f484920bbceae0813174244 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </l0a6b4600f484920bbceae0813174244>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33493A62-AC11-48A7-B6C8-0591C55C368B}"/>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381C76DC-CEF1-461E-A76F-551B50E93033}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AEC75D3-A67D-4574-BB93-839AC9299105}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33493A62-AC11-48A7-B6C8-0591C55C368B}"/>
 </file>
--- a/csv_parser/test-cases-15-15.xlsx
+++ b/csv_parser/test-cases-15-15.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27720"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://esantegouv.sharepoint.com/sites/GED-Calypso/espace-projets/Espace Programme SISAMU/01 - Equipe projet/07 - Innovation et prospectif/12 - Hub Santé/13 - 15-15/04 - Pilotes 15-15/04 - JDD recette/JSON pour interface LRM/03 - Automodel tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86598866-B0CA-483B-BEF4-746274D73198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EC48BF3-E648-457F-A3F9-F3C403454E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3285" yWindow="1590" windowWidth="22740" windowHeight="12930" xr2:uid="{8E95E427-60E8-4C01-A0F5-EF6B52DBDF48}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Partage de dossier simple" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Partage de dossier simple'!$A$9:$P$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Partage de dossier simple'!$A$9:$O$88</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -44,7 +44,7 @@
     <author>tc={FB75C0C9-7A43-4C0C-BF65-EEEEE383A568}</author>
   </authors>
   <commentList>
-    <comment ref="G65" authorId="0" shapeId="0" xr:uid="{FB75C0C9-7A43-4C0C-BF65-EEEEE383A568}">
+    <comment ref="F65" authorId="0" shapeId="0" xr:uid="{FB75C0C9-7A43-4C0C-BF65-EEEEE383A568}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="285">
   <si>
     <t>Périmètre</t>
   </si>
@@ -117,9 +117,6 @@
     <t>V</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>Donnée</t>
   </si>
   <si>
@@ -631,9 +628,6 @@
   </si>
   <si>
     <t>2024-01-04T00:05:00+01:00</t>
-  </si>
-  <si>
-    <t>number</t>
   </si>
   <si>
     <t>Géométrie Associée / Point / Latitude</t>
@@ -925,7 +919,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1034,18 +1028,6 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="14"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1634,7 +1616,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1670,22 +1652,7 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1699,28 +1666,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1749,9 +1695,6 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="12" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1782,9 +1725,6 @@
     <xf numFmtId="49" fontId="12" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1796,18 +1736,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1848,9 +1782,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1864,9 +1795,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="12" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1875,9 +1803,6 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1891,9 +1816,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1940,9 +1862,6 @@
     </xf>
     <xf numFmtId="49" fontId="13" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1951,9 +1870,6 @@
     <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2007,101 +1923,59 @@
     <xf numFmtId="49" fontId="12" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="45">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE1FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF58383"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE1FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF58383"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="33">
     <dxf>
       <fill>
         <patternFill>
@@ -2655,7 +2529,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="G65" dT="2023-09-22T09:00:43.88" personId="{EC126A12-45AA-40A1-AD6A-8686E0786064}" id="{FB75C0C9-7A43-4C0C-BF65-EEEEE383A568}" done="1">
+  <threadedComment ref="F65" dT="2023-09-22T09:00:43.88" personId="{EC126A12-45AA-40A1-AD6A-8686E0786064}" id="{FB75C0C9-7A43-4C0C-BF65-EEEEE383A568}" done="1">
     <text>Pour savoir quelle alerte utiliser dans une affaire :
 =&gt; Regarder cette date de réception</text>
   </threadedComment>
@@ -2664,11 +2538,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC96D3DE-56F6-4E60-B012-339ED5333B2B}">
-  <dimension ref="A1:P88"/>
+  <dimension ref="A1:O88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="7" ySplit="10" topLeftCell="H67" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="I77" sqref="I77"/>
+      <pane xSplit="6" ySplit="10" topLeftCell="G37" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1:F1048576"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
     </sheetView>
@@ -2680,796 +2554,767 @@
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
     <col min="5" max="5" width="3.140625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" style="21" customWidth="1"/>
-    <col min="7" max="7" width="47.140625" customWidth="1"/>
-    <col min="8" max="8" width="63.28515625" customWidth="1"/>
-    <col min="9" max="9" width="48.140625" style="3" customWidth="1"/>
-    <col min="10" max="11" width="48.140625" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="47.140625" customWidth="1"/>
+    <col min="7" max="7" width="63.28515625" customWidth="1"/>
+    <col min="8" max="8" width="48.140625" style="3" customWidth="1"/>
+    <col min="9" max="10" width="48.140625" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18.75">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:15" ht="18.75">
+      <c r="A1" s="160" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="160"/>
       <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="6"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="26"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="6"/>
       <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="27"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-    </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" ht="18.75">
-      <c r="A2" s="24" t="s">
+    </row>
+    <row r="2" spans="1:15" s="1" customFormat="1" ht="18.75">
+      <c r="A2" s="160" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="24"/>
+      <c r="B2" s="160"/>
       <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30" t="s">
+      <c r="D2" s="23"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="31" t="s">
+      <c r="J2" s="159" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-    </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" ht="18.75">
-      <c r="A3" s="24" t="s">
+      <c r="K2" s="159"/>
+      <c r="L2" s="159"/>
+      <c r="M2" s="159"/>
+      <c r="N2" s="159"/>
+      <c r="O2" s="159"/>
+    </row>
+    <row r="3" spans="1:15" s="1" customFormat="1" ht="18.75">
+      <c r="A3" s="160" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="24"/>
+      <c r="B3" s="160"/>
       <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-    </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" ht="18.75">
-      <c r="A4" s="24" t="s">
+      <c r="D3" s="23"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="159"/>
+      <c r="M3" s="159"/>
+      <c r="N3" s="159"/>
+      <c r="O3" s="159"/>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="18.75">
+      <c r="A4" s="160" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="24"/>
+      <c r="B4" s="160"/>
       <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-    </row>
-    <row r="5" spans="1:16" s="1" customFormat="1" ht="18.75">
-      <c r="A5" s="32" t="s">
+      <c r="D4" s="23"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="159"/>
+      <c r="K4" s="159"/>
+      <c r="L4" s="159"/>
+      <c r="M4" s="159"/>
+      <c r="N4" s="159"/>
+      <c r="O4" s="159"/>
+    </row>
+    <row r="5" spans="1:15" s="1" customFormat="1" ht="18.75">
+      <c r="A5" s="171" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-    </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" ht="18.75">
-      <c r="A6" s="34" t="s">
+      <c r="B5" s="171"/>
+      <c r="C5" s="171"/>
+      <c r="D5" s="171"/>
+      <c r="E5" s="171"/>
+      <c r="F5" s="171"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+    </row>
+    <row r="6" spans="1:15" s="1" customFormat="1" ht="18.75">
+      <c r="A6" s="161" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="6" t="s">
+      <c r="B6" s="162"/>
+      <c r="C6" s="162"/>
+      <c r="D6" s="163"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-    </row>
-    <row r="7" spans="1:16" s="1" customFormat="1" ht="18.75">
-      <c r="A7" s="37" t="s">
+      <c r="G6" s="23"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+    </row>
+    <row r="7" spans="1:15" s="1" customFormat="1" ht="18.75">
+      <c r="A7" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="6" t="s">
+      <c r="B7" s="172"/>
+      <c r="C7" s="172"/>
+      <c r="D7" s="172"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-    </row>
-    <row r="8" spans="1:16" s="1" customFormat="1" ht="18.75">
-      <c r="A8" s="40"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="6" t="s">
+      <c r="G7" s="23"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+    </row>
+    <row r="8" spans="1:15" s="1" customFormat="1" ht="18.75">
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-    </row>
-    <row r="9" spans="1:16" s="2" customFormat="1" ht="18.75">
-      <c r="A9" s="41" t="s">
+      <c r="G8" s="23"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+    </row>
+    <row r="9" spans="1:15" s="2" customFormat="1" ht="18.75">
+      <c r="A9" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="44" t="s">
+      <c r="E9" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="44" t="s">
+      <c r="F9" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="45" t="s">
+      <c r="G9" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="46" t="s">
+      <c r="H9" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="47" t="s">
+      <c r="I9" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="46" t="s">
+      <c r="J9" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="46" t="s">
+      <c r="K9" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="L9" s="46" t="s">
+      <c r="L9" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="46" t="s">
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="48" t="s">
+      <c r="B10" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="C10" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="D10" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="50" t="s">
-        <v>30</v>
-      </c>
       <c r="E10" s="17"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-    </row>
-    <row r="11" spans="1:16" ht="16.5" customHeight="1">
+    </row>
+    <row r="11" spans="1:15" ht="16.5" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="54" t="s">
+      <c r="D11" s="173" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="42"/>
+      <c r="F11" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="55"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="56" t="s">
+      <c r="G11" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="57" t="s">
+      <c r="H11" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="58" t="s">
+      <c r="I11" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="58" t="s">
+      <c r="J11" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="K11" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-    </row>
-    <row r="12" spans="1:16">
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="60" t="s">
+      <c r="D12" s="173"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="61" t="s">
+      <c r="H12" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="I12" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="J12" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="K12" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="L12" s="63"/>
-      <c r="M12" s="63"/>
+      <c r="I12" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-    </row>
-    <row r="13" spans="1:16">
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="64" t="s">
+      <c r="D13" s="173"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="58" t="s">
+      <c r="H13" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="I13" s="58" t="s">
+      <c r="I13" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="J13" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="K13" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="L13" s="58"/>
-      <c r="M13" s="58"/>
+      <c r="J13" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-    </row>
-    <row r="14" spans="1:16" s="4" customFormat="1">
-      <c r="A14" s="65"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="54"/>
+    </row>
+    <row r="14" spans="1:15" s="4" customFormat="1">
+      <c r="A14" s="52"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="173"/>
       <c r="E14" s="17">
         <v>3</v>
       </c>
-      <c r="F14" s="22"/>
-      <c r="G14" s="66" t="s">
+      <c r="F14" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="H14" s="67" t="s">
+      <c r="H14" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="I14" s="68" t="s">
-        <v>46</v>
-      </c>
-      <c r="J14" s="68" t="s">
-        <v>46</v>
-      </c>
-      <c r="K14" s="68" t="s">
-        <v>46</v>
-      </c>
-      <c r="L14" s="67"/>
-      <c r="M14" s="67"/>
-      <c r="N14" s="65"/>
-      <c r="O14" s="65"/>
-      <c r="P14" s="65"/>
-    </row>
-    <row r="15" spans="1:16" s="4" customFormat="1">
-      <c r="A15" s="65"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="54"/>
+      <c r="I14" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+    </row>
+    <row r="15" spans="1:15" s="4" customFormat="1">
+      <c r="A15" s="52"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="173"/>
       <c r="E15" s="17">
         <v>3</v>
       </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="66" t="s">
+      <c r="F15" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="H15" s="67" t="s">
+      <c r="H15" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="I15" s="68" t="s">
-        <v>49</v>
-      </c>
-      <c r="J15" s="68" t="s">
-        <v>49</v>
-      </c>
-      <c r="K15" s="68" t="s">
-        <v>49</v>
-      </c>
-      <c r="L15" s="67"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="65"/>
-      <c r="O15" s="65"/>
-      <c r="P15" s="65"/>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="I15" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="J15" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="69" t="s">
+      <c r="D16" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="57"/>
+      <c r="F16" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="70"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="72" t="s">
+      <c r="G16" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="H16" s="73" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="74"/>
-      <c r="J16" s="75"/>
-      <c r="K16" s="75"/>
-      <c r="L16" s="76"/>
-      <c r="M16" s="76"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="6"/>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-    </row>
-    <row r="17" spans="1:16">
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
-      <c r="D17" s="69" t="s">
+      <c r="D17" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="57"/>
+      <c r="F17" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="70"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="72" t="s">
-        <v>51</v>
-      </c>
-      <c r="H17" s="73" t="s">
-        <v>54</v>
-      </c>
-      <c r="I17" s="74"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="75"/>
-      <c r="L17" s="76"/>
-      <c r="M17" s="76"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="6"/>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-    </row>
-    <row r="18" spans="1:16">
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
-      <c r="D18" s="77" t="s">
+      <c r="D18" s="164" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="42">
+        <v>2</v>
+      </c>
+      <c r="F18" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="55">
-        <v>2</v>
-      </c>
-      <c r="F18" s="22"/>
-      <c r="G18" s="78" t="s">
+      <c r="G18" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="H18" s="79" t="s">
+      <c r="H18" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="I18" s="80" t="s">
+      <c r="I18" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="J18" s="80" t="s">
+      <c r="J18" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="K18" s="80" t="s">
-        <v>60</v>
-      </c>
-      <c r="L18" s="81"/>
-      <c r="M18" s="81"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="6"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-    </row>
-    <row r="19" spans="1:16" ht="28.5" customHeight="1">
+    </row>
+    <row r="19" spans="1:15" ht="28.5" customHeight="1">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="55">
+      <c r="D19" s="165"/>
+      <c r="E19" s="42">
         <v>3</v>
       </c>
-      <c r="F19" s="22"/>
-      <c r="G19" s="83" t="s">
+      <c r="F19" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="H19" s="84" t="s">
+      <c r="H19" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="I19" s="85" t="s">
+      <c r="I19" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="J19" s="85" t="s">
+      <c r="J19" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="K19" s="86" t="s">
-        <v>65</v>
-      </c>
-      <c r="L19" s="87"/>
-      <c r="M19" s="87"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="6"/>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-    </row>
-    <row r="20" spans="1:16">
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
-      <c r="D20" s="82"/>
+      <c r="D20" s="165"/>
       <c r="E20" s="17">
         <v>2</v>
       </c>
-      <c r="F20" s="22"/>
-      <c r="G20" s="88" t="s">
+      <c r="F20" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="H20" s="89" t="s">
+      <c r="H20" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="I20" s="90" t="s">
+      <c r="I20" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="J20" s="89" t="s">
+      <c r="J20" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="K20" s="89" t="s">
-        <v>70</v>
-      </c>
-      <c r="L20" s="89"/>
-      <c r="M20" s="89"/>
+      <c r="K20" s="73"/>
+      <c r="L20" s="73"/>
+      <c r="M20" s="6"/>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-    </row>
-    <row r="21" spans="1:16" s="8" customFormat="1" ht="30.75">
-      <c r="A21" s="91"/>
-      <c r="B21" s="91"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="92">
+    </row>
+    <row r="21" spans="1:15" s="8" customFormat="1" ht="30.75">
+      <c r="A21" s="75"/>
+      <c r="B21" s="75"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="165"/>
+      <c r="E21" s="76">
         <v>3</v>
       </c>
-      <c r="F21" s="22"/>
-      <c r="G21" s="93" t="s">
+      <c r="F21" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="H21" s="49" t="s">
+      <c r="H21" s="78" t="s">
         <v>72</v>
       </c>
-      <c r="I21" s="94" t="s">
+      <c r="I21" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="J21" s="94" t="s">
+      <c r="J21" s="79" t="s">
         <v>74</v>
       </c>
-      <c r="K21" s="95" t="s">
-        <v>75</v>
-      </c>
-      <c r="L21" s="49"/>
-      <c r="M21" s="49"/>
-      <c r="N21" s="91"/>
-      <c r="O21" s="91"/>
-      <c r="P21" s="91"/>
-    </row>
-    <row r="22" spans="1:16">
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="75"/>
+      <c r="N21" s="75"/>
+      <c r="O21" s="75"/>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
-      <c r="D22" s="82"/>
+      <c r="D22" s="165"/>
       <c r="E22" s="17">
         <v>1</v>
       </c>
-      <c r="F22" s="22"/>
-      <c r="G22" s="96" t="s">
+      <c r="F22" s="80" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="H22" s="97" t="s">
+      <c r="H22" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="I22" s="98" t="s">
+      <c r="I22" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="J22" s="97" t="s">
+      <c r="J22" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="K22" s="97" t="s">
-        <v>80</v>
-      </c>
-      <c r="L22" s="97"/>
-      <c r="M22" s="97"/>
+      <c r="K22" s="81"/>
+      <c r="L22" s="81"/>
+      <c r="M22" s="6"/>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-    </row>
-    <row r="23" spans="1:16" ht="30.75" customHeight="1">
+    </row>
+    <row r="23" spans="1:15" ht="30.75" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="92">
+      <c r="D23" s="165"/>
+      <c r="E23" s="76">
         <v>3</v>
       </c>
-      <c r="F23" s="22"/>
-      <c r="G23" s="13" t="s">
+      <c r="F23" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="83" t="s">
         <v>82</v>
       </c>
-      <c r="I23" s="99" t="s">
+      <c r="I23" s="84" t="s">
         <v>83</v>
       </c>
-      <c r="J23" s="100" t="s">
+      <c r="J23" s="84" t="s">
         <v>84</v>
       </c>
-      <c r="K23" s="100" t="s">
-        <v>85</v>
-      </c>
+      <c r="K23" s="5"/>
       <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
+      <c r="M23" s="6"/>
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-    </row>
-    <row r="24" spans="1:16">
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
-      <c r="D24" s="82"/>
+      <c r="D24" s="165"/>
       <c r="E24" s="17">
         <v>1</v>
       </c>
-      <c r="F24" s="22"/>
-      <c r="G24" s="13" t="s">
+      <c r="F24" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="I24" s="99" t="s">
+      <c r="I24" s="5" t="s">
         <v>88</v>
       </c>
       <c r="J24" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="K24" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="K24" s="5"/>
       <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
+      <c r="M24" s="6"/>
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-    </row>
-    <row r="25" spans="1:16">
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
-      <c r="D25" s="101"/>
-      <c r="E25" s="102">
+      <c r="D25" s="166"/>
+      <c r="E25" s="85">
         <v>3</v>
       </c>
-      <c r="F25" s="71"/>
-      <c r="G25" s="103" t="s">
+      <c r="F25" s="86" t="s">
+        <v>90</v>
+      </c>
+      <c r="G25" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="H25" s="75" t="s">
+      <c r="H25" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="I25" s="68" t="s">
-        <v>93</v>
-      </c>
-      <c r="J25" s="68" t="s">
-        <v>93</v>
-      </c>
-      <c r="K25" s="68" t="s">
-        <v>93</v>
-      </c>
-      <c r="L25" s="75"/>
-      <c r="M25" s="75"/>
+      <c r="I25" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="J25" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="K25" s="61"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="6"/>
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-    </row>
-    <row r="26" spans="1:16">
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
-      <c r="D26" s="104" t="s">
+      <c r="D26" s="87" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="42">
+        <v>1</v>
+      </c>
+      <c r="F26" s="88" t="s">
+        <v>93</v>
+      </c>
+      <c r="G26" s="89" t="s">
         <v>94</v>
       </c>
-      <c r="E26" s="55">
-        <v>1</v>
-      </c>
-      <c r="F26" s="22"/>
-      <c r="G26" s="105" t="s">
-        <v>94</v>
-      </c>
-      <c r="H26" s="106" t="s">
+      <c r="H26" s="90" t="s">
         <v>95</v>
       </c>
-      <c r="I26" s="107" t="s">
+      <c r="I26" s="90" t="s">
         <v>96</v>
       </c>
-      <c r="J26" s="107" t="s">
+      <c r="J26" s="90" t="s">
         <v>97</v>
       </c>
-      <c r="K26" s="107" t="s">
-        <v>98</v>
-      </c>
-      <c r="L26" s="108"/>
-      <c r="M26" s="108"/>
+      <c r="K26" s="91"/>
+      <c r="L26" s="91"/>
+      <c r="M26" s="6"/>
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-    </row>
-    <row r="27" spans="1:16">
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
-      <c r="D27" s="109" t="s">
+      <c r="D27" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="E27" s="92"/>
+      <c r="F27" s="93" t="s">
         <v>99</v>
       </c>
-      <c r="E27" s="110"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="111" t="s">
+      <c r="G27" s="94" t="s">
         <v>100</v>
       </c>
-      <c r="H27" s="112" t="s">
+      <c r="H27" s="95" t="s">
         <v>101</v>
       </c>
-      <c r="I27" s="113" t="s">
+      <c r="I27" s="95" t="s">
         <v>102</v>
       </c>
-      <c r="J27" s="113" t="s">
+      <c r="J27" s="95" t="s">
         <v>103</v>
       </c>
-      <c r="K27" s="113" t="s">
-        <v>104</v>
-      </c>
+      <c r="K27" s="5"/>
       <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
+      <c r="M27" s="6"/>
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-    </row>
-    <row r="28" spans="1:16">
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
-      <c r="D28" s="114"/>
+      <c r="D28" s="169"/>
       <c r="E28" s="17">
         <v>1</v>
       </c>
-      <c r="F28" s="22"/>
-      <c r="G28" s="13" t="s">
+      <c r="F28" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G28" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H28" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="I28" s="99" t="s">
+      <c r="I28" s="5" t="s">
         <v>107</v>
       </c>
       <c r="J28" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="K28" s="5" t="s">
-        <v>109</v>
-      </c>
+      <c r="K28" s="5"/>
       <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
+      <c r="M28" s="6"/>
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-    </row>
-    <row r="29" spans="1:16" s="6" customFormat="1">
-      <c r="D29" s="114"/>
+    </row>
+    <row r="29" spans="1:15" s="6" customFormat="1">
+      <c r="D29" s="169"/>
       <c r="E29" s="17">
         <v>2</v>
       </c>
-      <c r="F29" s="22"/>
-      <c r="G29" s="13" t="s">
+      <c r="F29" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="G29" s="5" t="s">
         <v>110</v>
       </c>
       <c r="H29" s="5" t="s">
@@ -3478,1713 +3323,1601 @@
       <c r="I29" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="J29" s="5" t="s">
-        <v>113</v>
-      </c>
+      <c r="J29" s="5"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-    </row>
-    <row r="30" spans="1:16">
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
-      <c r="D30" s="114"/>
+      <c r="D30" s="169"/>
       <c r="E30" s="17">
         <v>1</v>
       </c>
-      <c r="F30" s="22"/>
-      <c r="G30" s="13" t="s">
+      <c r="F30" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="G30" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="H30" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="I30" s="99" t="s">
+      <c r="I30" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="J30" s="5" t="s">
-        <v>117</v>
-      </c>
+      <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
+      <c r="M30" s="6"/>
       <c r="N30" s="6"/>
       <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-    </row>
-    <row r="31" spans="1:16">
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
-      <c r="D31" s="114"/>
+      <c r="D31" s="169"/>
       <c r="E31" s="17"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="13" t="s">
+      <c r="F31" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="G31" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="H31" s="83" t="s">
         <v>119</v>
       </c>
-      <c r="I31" s="99" t="s">
+      <c r="I31" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="J31" s="5" t="s">
-        <v>121</v>
-      </c>
+      <c r="J31" s="5"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
+      <c r="M31" s="6"/>
       <c r="N31" s="6"/>
       <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-    </row>
-    <row r="32" spans="1:16">
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
-      <c r="D32" s="114"/>
+      <c r="D32" s="169"/>
       <c r="E32" s="17"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="13" t="s">
+      <c r="F32" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="G32" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="H32" s="83" t="s">
         <v>123</v>
       </c>
-      <c r="I32" s="99" t="s">
+      <c r="I32" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="J32" s="5" t="s">
-        <v>125</v>
-      </c>
+      <c r="J32" s="5"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
+      <c r="M32" s="6"/>
       <c r="N32" s="6"/>
       <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
-    </row>
-    <row r="33" spans="1:16" s="4" customFormat="1">
-      <c r="A33" s="65"/>
-      <c r="B33" s="65"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="114"/>
+    </row>
+    <row r="33" spans="1:15" s="4" customFormat="1">
+      <c r="A33" s="52"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="169"/>
       <c r="E33" s="17">
         <v>2</v>
       </c>
-      <c r="F33" s="22"/>
-      <c r="G33" s="115" t="s">
+      <c r="F33" s="96" t="s">
+        <v>125</v>
+      </c>
+      <c r="G33" s="97" t="s">
         <v>126</v>
       </c>
-      <c r="H33" s="116" t="s">
+      <c r="H33" s="98" t="s">
         <v>127</v>
       </c>
-      <c r="I33" s="117" t="s">
+      <c r="I33" s="99" t="s">
         <v>128</v>
       </c>
-      <c r="J33" s="118" t="s">
+      <c r="J33" s="99" t="s">
         <v>129</v>
       </c>
-      <c r="K33" s="118" t="s">
-        <v>130</v>
-      </c>
-      <c r="L33" s="118"/>
-      <c r="M33" s="118"/>
-      <c r="N33" s="65"/>
-      <c r="O33" s="65"/>
-      <c r="P33" s="65"/>
-    </row>
-    <row r="34" spans="1:16">
+      <c r="K33" s="99"/>
+      <c r="L33" s="99"/>
+      <c r="M33" s="52"/>
+      <c r="N33" s="52"/>
+      <c r="O33" s="52"/>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
-      <c r="D34" s="109" t="s">
+      <c r="D34" s="168" t="s">
+        <v>130</v>
+      </c>
+      <c r="E34" s="92"/>
+      <c r="F34" s="100" t="s">
+        <v>99</v>
+      </c>
+      <c r="G34" s="94" t="s">
         <v>131</v>
       </c>
-      <c r="E34" s="110"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="119" t="s">
-        <v>100</v>
-      </c>
-      <c r="H34" s="112" t="s">
-        <v>132</v>
-      </c>
-      <c r="I34" s="120"/>
-      <c r="J34" s="120"/>
-      <c r="K34" s="121"/>
-      <c r="L34" s="121"/>
-      <c r="M34" s="122"/>
+      <c r="H34" s="101"/>
+      <c r="I34" s="101"/>
+      <c r="J34" s="102"/>
+      <c r="K34" s="102"/>
+      <c r="L34" s="103"/>
+      <c r="M34" s="6"/>
       <c r="N34" s="6"/>
       <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
-    </row>
-    <row r="35" spans="1:16">
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
-      <c r="D35" s="114"/>
+      <c r="D35" s="169"/>
       <c r="E35" s="17"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="I35" s="99"/>
+      <c r="F35" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H35" s="83"/>
+      <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="123"/>
+      <c r="L35" s="104"/>
+      <c r="M35" s="6"/>
       <c r="N35" s="6"/>
       <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-    </row>
-    <row r="36" spans="1:16">
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
-      <c r="D36" s="114"/>
+      <c r="D36" s="169"/>
       <c r="E36" s="17"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="I36" s="99"/>
+      <c r="F36" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H36" s="83"/>
+      <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="123"/>
+      <c r="L36" s="104"/>
+      <c r="M36" s="6"/>
       <c r="N36" s="6"/>
       <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
-    </row>
-    <row r="37" spans="1:16">
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
-      <c r="D37" s="114"/>
+      <c r="D37" s="169"/>
       <c r="E37" s="17"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="I37" s="99"/>
+      <c r="F37" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="H37" s="83"/>
+      <c r="I37" s="5"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="123"/>
+      <c r="L37" s="104"/>
+      <c r="M37" s="6"/>
       <c r="N37" s="6"/>
       <c r="O37" s="6"/>
-      <c r="P37" s="6"/>
-    </row>
-    <row r="38" spans="1:16">
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="114"/>
+      <c r="D38" s="169"/>
       <c r="E38" s="17"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="I38" s="99"/>
+      <c r="F38" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H38" s="83"/>
+      <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="123"/>
+      <c r="L38" s="104"/>
+      <c r="M38" s="6"/>
       <c r="N38" s="6"/>
       <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
-    </row>
-    <row r="39" spans="1:16">
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
-      <c r="D39" s="114"/>
+      <c r="D39" s="169"/>
       <c r="E39" s="17"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="I39" s="99"/>
+      <c r="F39" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="H39" s="83"/>
+      <c r="I39" s="5"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="123"/>
+      <c r="L39" s="104"/>
+      <c r="M39" s="6"/>
       <c r="N39" s="6"/>
       <c r="O39" s="6"/>
-      <c r="P39" s="6"/>
-    </row>
-    <row r="40" spans="1:16">
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
-      <c r="D40" s="124"/>
+      <c r="D40" s="170"/>
       <c r="E40" s="17"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="125" t="s">
-        <v>126</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="I40" s="126"/>
-      <c r="J40" s="127"/>
-      <c r="K40" s="127"/>
-      <c r="L40" s="127"/>
-      <c r="M40" s="128"/>
+      <c r="F40" s="105" t="s">
+        <v>125</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="H40" s="106"/>
+      <c r="I40" s="107"/>
+      <c r="J40" s="107"/>
+      <c r="K40" s="107"/>
+      <c r="L40" s="108"/>
+      <c r="M40" s="6"/>
       <c r="N40" s="6"/>
       <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-    </row>
-    <row r="41" spans="1:16">
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
-      <c r="D41" s="77" t="s">
+      <c r="D41" s="164" t="s">
+        <v>138</v>
+      </c>
+      <c r="E41" s="42"/>
+      <c r="F41" s="109" t="s">
         <v>139</v>
       </c>
-      <c r="E41" s="55"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="129" t="s">
+      <c r="G41" s="89" t="s">
         <v>140</v>
       </c>
-      <c r="H41" s="106" t="s">
+      <c r="H41" s="90" t="s">
         <v>141</v>
       </c>
-      <c r="I41" s="107" t="s">
+      <c r="I41" s="90" t="s">
         <v>142</v>
       </c>
-      <c r="J41" s="107" t="s">
+      <c r="J41" s="90" t="s">
         <v>143</v>
       </c>
-      <c r="K41" s="107" t="s">
-        <v>144</v>
-      </c>
-      <c r="L41" s="108"/>
-      <c r="M41" s="108"/>
+      <c r="K41" s="91"/>
+      <c r="L41" s="91"/>
+      <c r="M41" s="6"/>
       <c r="N41" s="6"/>
       <c r="O41" s="6"/>
-      <c r="P41" s="6"/>
-    </row>
-    <row r="42" spans="1:16">
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
-      <c r="D42" s="82"/>
+      <c r="D42" s="165"/>
       <c r="E42" s="17">
         <v>2</v>
       </c>
-      <c r="F42" s="22"/>
-      <c r="G42" s="130" t="s">
+      <c r="F42" s="110" t="s">
+        <v>144</v>
+      </c>
+      <c r="G42" s="111" t="s">
         <v>145</v>
       </c>
-      <c r="H42" s="131" t="s">
+      <c r="H42" s="112" t="s">
         <v>146</v>
       </c>
-      <c r="I42" s="132" t="s">
-        <v>147</v>
-      </c>
-      <c r="J42" s="132" t="s">
-        <v>147</v>
-      </c>
-      <c r="K42" s="132" t="s">
-        <v>147</v>
-      </c>
-      <c r="L42" s="133"/>
-      <c r="M42" s="133"/>
+      <c r="I42" s="112" t="s">
+        <v>146</v>
+      </c>
+      <c r="J42" s="112" t="s">
+        <v>146</v>
+      </c>
+      <c r="K42" s="113"/>
+      <c r="L42" s="113"/>
+      <c r="M42" s="6"/>
       <c r="N42" s="6"/>
       <c r="O42" s="6"/>
-      <c r="P42" s="6"/>
-    </row>
-    <row r="43" spans="1:16" s="4" customFormat="1">
-      <c r="A43" s="65"/>
-      <c r="B43" s="65"/>
-      <c r="C43" s="65"/>
-      <c r="D43" s="82"/>
+    </row>
+    <row r="43" spans="1:15" s="4" customFormat="1">
+      <c r="A43" s="52"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="165"/>
       <c r="E43" s="17"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="134" t="s">
+      <c r="F43" s="114" t="s">
+        <v>147</v>
+      </c>
+      <c r="G43" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="H43" s="5" t="s">
+      <c r="H43" s="115"/>
+      <c r="I43" s="115"/>
+      <c r="J43" s="115" t="s">
         <v>149</v>
       </c>
-      <c r="I43" s="135"/>
-      <c r="J43" s="135"/>
-      <c r="K43" s="135" t="s">
-        <v>150</v>
-      </c>
-      <c r="L43" s="136"/>
-      <c r="M43" s="136"/>
-      <c r="N43" s="65"/>
-      <c r="O43" s="65"/>
-      <c r="P43" s="65"/>
-    </row>
-    <row r="44" spans="1:16">
+      <c r="K43" s="116"/>
+      <c r="L43" s="116"/>
+      <c r="M43" s="52"/>
+      <c r="N43" s="52"/>
+      <c r="O43" s="52"/>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
-      <c r="D44" s="82"/>
-      <c r="E44" s="110">
+      <c r="D44" s="165"/>
+      <c r="E44" s="92">
         <v>1</v>
       </c>
-      <c r="F44" s="22"/>
-      <c r="G44" s="137" t="s">
+      <c r="F44" s="117" t="s">
+        <v>150</v>
+      </c>
+      <c r="G44" s="118" t="s">
         <v>151</v>
       </c>
-      <c r="H44" s="138" t="s">
+      <c r="H44" s="119" t="s">
         <v>152</v>
       </c>
-      <c r="I44" s="139" t="s">
+      <c r="I44" s="119" t="s">
         <v>153</v>
       </c>
-      <c r="J44" s="139" t="s">
+      <c r="J44" s="120" t="s">
         <v>154</v>
       </c>
-      <c r="K44" s="140" t="s">
-        <v>155</v>
-      </c>
-      <c r="L44" s="140"/>
-      <c r="M44" s="140"/>
+      <c r="K44" s="120"/>
+      <c r="L44" s="120"/>
+      <c r="M44" s="6"/>
       <c r="N44" s="6"/>
       <c r="O44" s="6"/>
-      <c r="P44" s="6"/>
-    </row>
-    <row r="45" spans="1:16">
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
-      <c r="D45" s="82"/>
+      <c r="D45" s="165"/>
       <c r="E45" s="17">
         <v>1</v>
       </c>
-      <c r="F45" s="22"/>
-      <c r="G45" s="13" t="s">
+      <c r="F45" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="G45" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="H45" s="5" t="s">
+      <c r="H45" s="83" t="s">
         <v>157</v>
       </c>
-      <c r="I45" s="99" t="s">
+      <c r="I45" s="5" t="s">
         <v>158</v>
       </c>
       <c r="J45" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="K45" s="5" t="s">
-        <v>160</v>
-      </c>
+      <c r="K45" s="5"/>
       <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
+      <c r="M45" s="6"/>
       <c r="N45" s="6"/>
       <c r="O45" s="6"/>
-      <c r="P45" s="6"/>
-    </row>
-    <row r="46" spans="1:16">
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
-      <c r="D46" s="82"/>
+      <c r="D46" s="165"/>
       <c r="E46" s="17">
         <v>3</v>
       </c>
-      <c r="F46" s="22"/>
-      <c r="G46" s="13" t="s">
+      <c r="F46" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="G46" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="H46" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="I46" s="141">
+      <c r="H46" s="121">
         <v>77479</v>
       </c>
-      <c r="J46" s="141">
+      <c r="I46" s="121">
         <v>95063</v>
       </c>
-      <c r="K46" s="141">
+      <c r="J46" s="121">
         <v>9029</v>
       </c>
-      <c r="L46" s="141"/>
-      <c r="M46" s="141"/>
+      <c r="K46" s="121"/>
+      <c r="L46" s="121"/>
+      <c r="M46" s="6"/>
       <c r="N46" s="6"/>
       <c r="O46" s="6"/>
-      <c r="P46" s="6"/>
-    </row>
-    <row r="47" spans="1:16">
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
-      <c r="D47" s="82"/>
+      <c r="D47" s="165"/>
       <c r="E47" s="17">
         <v>2</v>
       </c>
-      <c r="F47" s="22"/>
-      <c r="G47" s="13" t="s">
+      <c r="F47" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="G47" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="H47" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="I47" s="5"/>
-      <c r="J47" s="142">
+      <c r="H47" s="5"/>
+      <c r="I47" s="122">
         <v>3</v>
       </c>
+      <c r="J47" s="5"/>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
+      <c r="M47" s="6"/>
       <c r="N47" s="6"/>
       <c r="O47" s="6"/>
-      <c r="P47" s="6"/>
-    </row>
-    <row r="48" spans="1:16">
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
-      <c r="D48" s="82"/>
+      <c r="D48" s="165"/>
       <c r="E48" s="17">
         <v>2</v>
       </c>
-      <c r="F48" s="22"/>
-      <c r="G48" s="13" t="s">
+      <c r="F48" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="G48" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="H48" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="I48" s="5"/>
-      <c r="J48" s="6"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="5"/>
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
+      <c r="M48" s="6"/>
       <c r="N48" s="6"/>
       <c r="O48" s="6"/>
-      <c r="P48" s="6"/>
-    </row>
-    <row r="49" spans="1:16">
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
-      <c r="D49" s="82"/>
+      <c r="D49" s="165"/>
       <c r="E49" s="17">
         <v>2</v>
       </c>
-      <c r="F49" s="22"/>
-      <c r="G49" s="13" t="s">
+      <c r="F49" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="G49" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="H49" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5" t="s">
-        <v>125</v>
-      </c>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="J49" s="5"/>
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
-      <c r="M49" s="5"/>
+      <c r="M49" s="6"/>
       <c r="N49" s="6"/>
       <c r="O49" s="6"/>
-      <c r="P49" s="6"/>
-    </row>
-    <row r="50" spans="1:16">
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
-      <c r="D50" s="82"/>
+      <c r="D50" s="165"/>
       <c r="E50" s="17">
         <v>2</v>
       </c>
-      <c r="F50" s="22"/>
-      <c r="G50" s="13" t="s">
+      <c r="F50" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="G50" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="H50" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="I50" s="5"/>
-      <c r="J50" s="143">
+      <c r="H50" s="5"/>
+      <c r="I50" s="123">
         <v>5678</v>
       </c>
+      <c r="J50" s="5"/>
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
-      <c r="M50" s="5"/>
+      <c r="M50" s="6"/>
       <c r="N50" s="6"/>
       <c r="O50" s="6"/>
-      <c r="P50" s="6"/>
-    </row>
-    <row r="51" spans="1:16">
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
-      <c r="D51" s="82"/>
+      <c r="D51" s="165"/>
       <c r="E51" s="17">
         <v>2</v>
       </c>
-      <c r="F51" s="22"/>
-      <c r="G51" s="13" t="s">
+      <c r="F51" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="G51" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="H51" s="5" t="s">
+      <c r="H51" s="5"/>
+      <c r="I51" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5" t="s">
-        <v>173</v>
-      </c>
+      <c r="J51" s="5"/>
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
+      <c r="M51" s="6"/>
       <c r="N51" s="6"/>
       <c r="O51" s="6"/>
-      <c r="P51" s="6"/>
-    </row>
-    <row r="52" spans="1:16">
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
-      <c r="D52" s="82"/>
+      <c r="D52" s="165"/>
       <c r="E52" s="17">
         <v>2</v>
       </c>
-      <c r="F52" s="22"/>
-      <c r="G52" s="13" t="s">
+      <c r="F52" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="G52" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="H52" s="5" t="s">
+      <c r="H52" s="5"/>
+      <c r="I52" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5" t="s">
-        <v>176</v>
-      </c>
+      <c r="J52" s="5"/>
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
+      <c r="M52" s="6"/>
       <c r="N52" s="6"/>
       <c r="O52" s="6"/>
-      <c r="P52" s="6"/>
-    </row>
-    <row r="53" spans="1:16">
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
-      <c r="D53" s="82"/>
+      <c r="D53" s="165"/>
       <c r="E53" s="17">
         <v>2</v>
       </c>
-      <c r="F53" s="22"/>
-      <c r="G53" s="13" t="s">
+      <c r="F53" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="G53" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="H53" s="5" t="s">
-        <v>178</v>
-      </c>
+      <c r="H53" s="5"/>
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
+      <c r="M53" s="6"/>
       <c r="N53" s="6"/>
       <c r="O53" s="6"/>
-      <c r="P53" s="6"/>
-    </row>
-    <row r="54" spans="1:16">
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
-      <c r="D54" s="82"/>
+      <c r="D54" s="165"/>
       <c r="E54" s="17">
         <v>2</v>
       </c>
-      <c r="F54" s="22"/>
-      <c r="G54" s="13" t="s">
+      <c r="F54" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="G54" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="H54" s="5" t="s">
-        <v>180</v>
-      </c>
+      <c r="H54" s="5"/>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
-      <c r="M54" s="5"/>
+      <c r="M54" s="6"/>
       <c r="N54" s="6"/>
       <c r="O54" s="6"/>
-      <c r="P54" s="6"/>
-    </row>
-    <row r="55" spans="1:16">
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
-      <c r="D55" s="82"/>
+      <c r="D55" s="165"/>
       <c r="E55" s="17">
         <v>2</v>
       </c>
-      <c r="F55" s="22"/>
-      <c r="G55" s="144" t="s">
+      <c r="F55" s="124" t="s">
+        <v>180</v>
+      </c>
+      <c r="G55" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="H55" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="I55" s="145"/>
-      <c r="J55" s="145"/>
-      <c r="K55" s="143">
+      <c r="H55" s="125"/>
+      <c r="I55" s="125"/>
+      <c r="J55" s="123">
         <v>561964589</v>
       </c>
+      <c r="K55" s="5"/>
       <c r="L55" s="5"/>
-      <c r="M55" s="5"/>
+      <c r="M55" s="6"/>
       <c r="N55" s="6"/>
       <c r="O55" s="6"/>
-      <c r="P55" s="6"/>
-    </row>
-    <row r="56" spans="1:16" s="4" customFormat="1">
-      <c r="A56" s="65"/>
-      <c r="B56" s="65"/>
-      <c r="C56" s="65"/>
-      <c r="D56" s="82"/>
+    </row>
+    <row r="56" spans="1:15" s="4" customFormat="1">
+      <c r="A56" s="52"/>
+      <c r="B56" s="52"/>
+      <c r="C56" s="52"/>
+      <c r="D56" s="165"/>
       <c r="E56" s="17">
         <v>2</v>
       </c>
-      <c r="F56" s="22"/>
-      <c r="G56" s="66" t="s">
+      <c r="F56" s="53" t="s">
+        <v>182</v>
+      </c>
+      <c r="G56" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="H56" s="5" t="s">
+      <c r="H56" s="54" t="s">
         <v>184</v>
       </c>
-      <c r="I56" s="67" t="s">
+      <c r="I56" s="54" t="s">
         <v>185</v>
       </c>
-      <c r="J56" s="67" t="s">
+      <c r="J56" s="126" t="s">
         <v>186</v>
       </c>
-      <c r="K56" s="146" t="s">
-        <v>187</v>
-      </c>
-      <c r="L56" s="116"/>
-      <c r="M56" s="116"/>
-      <c r="N56" s="65"/>
-      <c r="O56" s="65"/>
-      <c r="P56" s="65"/>
-    </row>
-    <row r="57" spans="1:16">
+      <c r="K56" s="97"/>
+      <c r="L56" s="97"/>
+      <c r="M56" s="52"/>
+      <c r="N56" s="52"/>
+      <c r="O56" s="52"/>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
-      <c r="D57" s="82"/>
-      <c r="E57" s="110"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="147" t="s">
+      <c r="D57" s="165"/>
+      <c r="E57" s="92"/>
+      <c r="F57" s="127" t="s">
+        <v>187</v>
+      </c>
+      <c r="G57" s="128" t="s">
         <v>188</v>
       </c>
-      <c r="H57" s="148" t="s">
+      <c r="H57" s="128" t="s">
         <v>189</v>
       </c>
-      <c r="I57" s="148" t="s">
-        <v>190</v>
-      </c>
-      <c r="J57" s="149" t="s">
-        <v>190</v>
-      </c>
-      <c r="K57" s="148"/>
-      <c r="L57" s="97"/>
-      <c r="M57" s="97"/>
+      <c r="I57" s="129" t="s">
+        <v>189</v>
+      </c>
+      <c r="J57" s="128"/>
+      <c r="K57" s="81"/>
+      <c r="L57" s="81"/>
+      <c r="M57" s="6"/>
       <c r="N57" s="6"/>
       <c r="O57" s="6"/>
-      <c r="P57" s="6"/>
-    </row>
-    <row r="58" spans="1:16">
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
-      <c r="D58" s="82"/>
-      <c r="E58" s="110">
+      <c r="D58" s="165"/>
+      <c r="E58" s="92">
         <v>3</v>
       </c>
-      <c r="F58" s="150" t="s">
+      <c r="F58" s="130" t="s">
+        <v>190</v>
+      </c>
+      <c r="G58" s="128" t="s">
         <v>191</v>
       </c>
-      <c r="G58" s="151" t="s">
+      <c r="H58" s="131" t="s">
         <v>192</v>
       </c>
-      <c r="H58" s="148" t="s">
+      <c r="I58" s="132" t="s">
         <v>193</v>
       </c>
-      <c r="I58" s="152" t="s">
-        <v>194</v>
-      </c>
-      <c r="J58" s="153" t="s">
-        <v>195</v>
-      </c>
-      <c r="K58" s="152"/>
-      <c r="L58" s="97"/>
-      <c r="M58" s="97"/>
+      <c r="J58" s="131"/>
+      <c r="K58" s="81"/>
+      <c r="L58" s="81"/>
+      <c r="M58" s="6"/>
       <c r="N58" s="6"/>
       <c r="O58" s="6"/>
-      <c r="P58" s="6"/>
-    </row>
-    <row r="59" spans="1:16">
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
-      <c r="D59" s="82"/>
-      <c r="E59" s="110">
+      <c r="D59" s="165"/>
+      <c r="E59" s="92">
         <v>3</v>
       </c>
-      <c r="F59" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="G59" s="151" t="s">
+      <c r="F59" s="130" t="s">
+        <v>194</v>
+      </c>
+      <c r="G59" s="128" t="s">
+        <v>195</v>
+      </c>
+      <c r="H59" s="131" t="s">
         <v>196</v>
       </c>
-      <c r="H59" s="148" t="s">
+      <c r="I59" s="132" t="s">
         <v>197</v>
       </c>
-      <c r="I59" s="152" t="s">
-        <v>198</v>
-      </c>
-      <c r="J59" s="153" t="s">
-        <v>199</v>
-      </c>
-      <c r="K59" s="152"/>
-      <c r="L59" s="97"/>
-      <c r="M59" s="97"/>
+      <c r="J59" s="131"/>
+      <c r="K59" s="81"/>
+      <c r="L59" s="81"/>
+      <c r="M59" s="6"/>
       <c r="N59" s="6"/>
       <c r="O59" s="6"/>
-      <c r="P59" s="6"/>
-    </row>
-    <row r="60" spans="1:16">
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
-      <c r="D60" s="82"/>
+      <c r="D60" s="165"/>
       <c r="E60" s="17"/>
-      <c r="F60" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="G60" s="154" t="s">
-        <v>200</v>
-      </c>
-      <c r="H60" s="140" t="s">
-        <v>201</v>
-      </c>
-      <c r="I60" s="140"/>
+      <c r="F60" s="133" t="s">
+        <v>198</v>
+      </c>
+      <c r="G60" s="120" t="s">
+        <v>199</v>
+      </c>
+      <c r="H60" s="120"/>
+      <c r="I60" s="5"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
-      <c r="M60" s="5"/>
+      <c r="M60" s="6"/>
       <c r="N60" s="6"/>
       <c r="O60" s="6"/>
-      <c r="P60" s="6"/>
-    </row>
-    <row r="61" spans="1:16">
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
-      <c r="D61" s="82"/>
+      <c r="D61" s="165"/>
       <c r="E61" s="17"/>
-      <c r="F61" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="G61" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="H61" s="140" t="s">
-        <v>203</v>
-      </c>
+      <c r="F61" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="G61" s="120" t="s">
+        <v>201</v>
+      </c>
+      <c r="H61" s="5"/>
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
-      <c r="M61" s="5"/>
+      <c r="M61" s="6"/>
       <c r="N61" s="6"/>
       <c r="O61" s="6"/>
-      <c r="P61" s="6"/>
-    </row>
-    <row r="62" spans="1:16">
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
-      <c r="D62" s="82"/>
+      <c r="D62" s="165"/>
       <c r="E62" s="17"/>
-      <c r="F62" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="G62" s="144" t="s">
-        <v>204</v>
-      </c>
-      <c r="H62" s="140" t="s">
-        <v>205</v>
-      </c>
-      <c r="I62" s="145"/>
+      <c r="F62" s="124" t="s">
+        <v>202</v>
+      </c>
+      <c r="G62" s="120" t="s">
+        <v>203</v>
+      </c>
+      <c r="H62" s="125"/>
+      <c r="I62" s="5"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
-      <c r="M62" s="5"/>
+      <c r="M62" s="6"/>
       <c r="N62" s="6"/>
       <c r="O62" s="6"/>
-      <c r="P62" s="6"/>
-    </row>
-    <row r="63" spans="1:16">
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
-      <c r="D63" s="101"/>
-      <c r="E63" s="110"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="151" t="s">
+      <c r="D63" s="166"/>
+      <c r="E63" s="92"/>
+      <c r="F63" s="130" t="s">
+        <v>204</v>
+      </c>
+      <c r="G63" s="128" t="s">
+        <v>205</v>
+      </c>
+      <c r="H63" s="134" t="s">
         <v>206</v>
       </c>
-      <c r="H63" s="148" t="s">
-        <v>207</v>
-      </c>
-      <c r="I63" s="155" t="s">
-        <v>208</v>
-      </c>
-      <c r="J63" s="155" t="s">
-        <v>208</v>
-      </c>
-      <c r="K63" s="155"/>
-      <c r="L63" s="97"/>
-      <c r="M63" s="97"/>
+      <c r="I63" s="134" t="s">
+        <v>206</v>
+      </c>
+      <c r="J63" s="134"/>
+      <c r="K63" s="81"/>
+      <c r="L63" s="81"/>
+      <c r="M63" s="6"/>
       <c r="N63" s="6"/>
       <c r="O63" s="6"/>
-      <c r="P63" s="6"/>
-    </row>
-    <row r="64" spans="1:16">
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
-      <c r="D64" s="156" t="s">
+      <c r="D64" s="167" t="s">
+        <v>207</v>
+      </c>
+      <c r="E64" s="92"/>
+      <c r="F64" s="135" t="s">
+        <v>208</v>
+      </c>
+      <c r="G64" s="128" t="s">
         <v>209</v>
       </c>
-      <c r="E64" s="110"/>
-      <c r="F64" s="22"/>
-      <c r="G64" s="157" t="s">
+      <c r="H64" s="134" t="s">
         <v>210</v>
       </c>
-      <c r="H64" s="148" t="s">
+      <c r="I64" s="134" t="s">
         <v>211</v>
       </c>
-      <c r="I64" s="155" t="s">
+      <c r="J64" s="134" t="s">
         <v>212</v>
       </c>
-      <c r="J64" s="155" t="s">
-        <v>213</v>
-      </c>
-      <c r="K64" s="155" t="s">
-        <v>214</v>
-      </c>
-      <c r="L64" s="97"/>
-      <c r="M64" s="97"/>
+      <c r="K64" s="81"/>
+      <c r="L64" s="81"/>
+      <c r="M64" s="6"/>
       <c r="N64" s="6"/>
       <c r="O64" s="6"/>
-      <c r="P64" s="6"/>
-    </row>
-    <row r="65" spans="1:16">
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
-      <c r="D65" s="156"/>
-      <c r="E65" s="110"/>
-      <c r="F65" s="22"/>
-      <c r="G65" s="158" t="s">
-        <v>215</v>
-      </c>
-      <c r="H65" s="148" t="s">
-        <v>216</v>
-      </c>
-      <c r="I65" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="J65" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="K65" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="L65" s="97"/>
-      <c r="M65" s="97"/>
+      <c r="D65" s="167"/>
+      <c r="E65" s="92"/>
+      <c r="F65" s="136" t="s">
+        <v>213</v>
+      </c>
+      <c r="G65" s="128" t="s">
+        <v>214</v>
+      </c>
+      <c r="H65" s="137" t="s">
+        <v>38</v>
+      </c>
+      <c r="I65" s="137" t="s">
+        <v>38</v>
+      </c>
+      <c r="J65" s="137" t="s">
+        <v>38</v>
+      </c>
+      <c r="K65" s="81"/>
+      <c r="L65" s="81"/>
+      <c r="M65" s="6"/>
       <c r="N65" s="6"/>
       <c r="O65" s="6"/>
-      <c r="P65" s="6"/>
-    </row>
-    <row r="66" spans="1:16">
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
-      <c r="D66" s="156"/>
+      <c r="D66" s="167"/>
       <c r="E66" s="17"/>
-      <c r="F66" s="22"/>
-      <c r="G66" s="158" t="s">
+      <c r="F66" s="136" t="s">
+        <v>215</v>
+      </c>
+      <c r="G66" s="128" t="s">
+        <v>216</v>
+      </c>
+      <c r="H66" s="137" t="s">
         <v>217</v>
       </c>
-      <c r="H66" s="148" t="s">
-        <v>218</v>
-      </c>
-      <c r="I66" s="159" t="s">
-        <v>219</v>
-      </c>
-      <c r="J66" s="159" t="s">
-        <v>219</v>
-      </c>
-      <c r="K66" s="159" t="s">
-        <v>219</v>
-      </c>
-      <c r="L66" s="97"/>
-      <c r="M66" s="97"/>
+      <c r="I66" s="137" t="s">
+        <v>217</v>
+      </c>
+      <c r="J66" s="137" t="s">
+        <v>217</v>
+      </c>
+      <c r="K66" s="81"/>
+      <c r="L66" s="81"/>
+      <c r="M66" s="6"/>
       <c r="N66" s="6"/>
       <c r="O66" s="6"/>
-      <c r="P66" s="6"/>
-    </row>
-    <row r="67" spans="1:16" ht="15" customHeight="1">
+    </row>
+    <row r="67" spans="1:15" ht="15" customHeight="1">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
-      <c r="D67" s="156"/>
+      <c r="D67" s="167"/>
       <c r="E67" s="17">
         <v>2</v>
       </c>
-      <c r="F67" s="22"/>
-      <c r="G67" s="160" t="s">
-        <v>220</v>
-      </c>
-      <c r="H67" s="161" t="s">
-        <v>221</v>
-      </c>
-      <c r="I67" s="162"/>
-      <c r="J67" s="162"/>
-      <c r="K67" s="162"/>
+      <c r="F67" s="138" t="s">
+        <v>218</v>
+      </c>
+      <c r="G67" s="139" t="s">
+        <v>219</v>
+      </c>
+      <c r="H67" s="140"/>
+      <c r="I67" s="140"/>
+      <c r="J67" s="140"/>
+      <c r="K67" s="5"/>
       <c r="L67" s="5"/>
-      <c r="M67" s="5"/>
+      <c r="M67" s="6"/>
       <c r="N67" s="6"/>
       <c r="O67" s="6"/>
-      <c r="P67" s="6"/>
-    </row>
-    <row r="68" spans="1:16">
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
-      <c r="D68" s="156"/>
+      <c r="D68" s="167"/>
       <c r="E68" s="17">
         <v>1</v>
       </c>
-      <c r="F68" s="22"/>
-      <c r="G68" s="19" t="s">
+      <c r="F68" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="G68" s="139" t="s">
+        <v>221</v>
+      </c>
+      <c r="H68" s="60" t="s">
         <v>222</v>
       </c>
-      <c r="H68" s="161" t="s">
-        <v>223</v>
-      </c>
-      <c r="I68" s="74" t="s">
-        <v>224</v>
-      </c>
-      <c r="J68" s="74" t="s">
-        <v>224</v>
-      </c>
-      <c r="K68" s="74" t="s">
-        <v>224</v>
-      </c>
-      <c r="L68" s="13"/>
-      <c r="M68" s="5"/>
+      <c r="I68" s="60" t="s">
+        <v>222</v>
+      </c>
+      <c r="J68" s="60" t="s">
+        <v>222</v>
+      </c>
+      <c r="K68" s="13"/>
+      <c r="L68" s="5"/>
+      <c r="M68" s="6"/>
       <c r="N68" s="6"/>
       <c r="O68" s="6"/>
-      <c r="P68" s="6"/>
-    </row>
-    <row r="69" spans="1:16" s="6" customFormat="1">
-      <c r="D69" s="156"/>
+    </row>
+    <row r="69" spans="1:15" s="6" customFormat="1">
+      <c r="D69" s="167"/>
       <c r="E69" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="F69" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="G69" s="139" t="s">
         <v>225</v>
       </c>
-      <c r="F69" s="22"/>
-      <c r="G69" s="19" t="s">
+      <c r="H69" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="H69" s="161" t="s">
+      <c r="I69" s="16">
+        <v>702880946</v>
+      </c>
+      <c r="J69" s="16">
+        <v>632085528</v>
+      </c>
+      <c r="K69" s="13"/>
+      <c r="L69" s="5"/>
+    </row>
+    <row r="70" spans="1:15" s="10" customFormat="1">
+      <c r="D70" s="167"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="20" t="s">
         <v>227</v>
       </c>
-      <c r="I69" s="16" t="s">
+      <c r="G70" s="141" t="s">
         <v>228</v>
       </c>
-      <c r="J69" s="16">
-        <v>702880946</v>
-      </c>
-      <c r="K69" s="16">
-        <v>632085528</v>
-      </c>
-      <c r="L69" s="13"/>
-      <c r="M69" s="5"/>
-    </row>
-    <row r="70" spans="1:16" s="10" customFormat="1">
-      <c r="D70" s="156"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="23"/>
-      <c r="G70" s="20" t="s">
+      <c r="H70" s="142" t="s">
         <v>229</v>
       </c>
-      <c r="H70" s="163" t="s">
-        <v>230</v>
-      </c>
-      <c r="I70" s="164" t="s">
-        <v>231</v>
-      </c>
-      <c r="J70" s="164" t="s">
-        <v>231</v>
-      </c>
-      <c r="K70" s="164" t="s">
-        <v>231</v>
-      </c>
-      <c r="L70" s="14"/>
-      <c r="M70" s="11"/>
-    </row>
-    <row r="71" spans="1:16">
+      <c r="I70" s="142" t="s">
+        <v>229</v>
+      </c>
+      <c r="J70" s="142" t="s">
+        <v>229</v>
+      </c>
+      <c r="K70" s="14"/>
+      <c r="L70" s="11"/>
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
-      <c r="D71" s="156"/>
+      <c r="D71" s="167"/>
       <c r="E71" s="17">
         <v>2</v>
       </c>
-      <c r="F71" s="22"/>
-      <c r="G71" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="H71" s="161" t="s">
-        <v>233</v>
-      </c>
-      <c r="I71" s="74" t="s">
-        <v>224</v>
-      </c>
-      <c r="J71" s="74" t="s">
-        <v>224</v>
-      </c>
-      <c r="K71" s="74" t="s">
-        <v>224</v>
-      </c>
-      <c r="L71" s="13"/>
-      <c r="M71" s="5"/>
+      <c r="F71" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="G71" s="139" t="s">
+        <v>231</v>
+      </c>
+      <c r="H71" s="60" t="s">
+        <v>222</v>
+      </c>
+      <c r="I71" s="60" t="s">
+        <v>222</v>
+      </c>
+      <c r="J71" s="60" t="s">
+        <v>222</v>
+      </c>
+      <c r="K71" s="13"/>
+      <c r="L71" s="5"/>
+      <c r="M71" s="6"/>
       <c r="N71" s="6"/>
       <c r="O71" s="6"/>
-      <c r="P71" s="6"/>
-    </row>
-    <row r="72" spans="1:16" s="6" customFormat="1">
-      <c r="D72" s="156"/>
+    </row>
+    <row r="72" spans="1:15" s="6" customFormat="1">
+      <c r="D72" s="167"/>
       <c r="E72" s="17">
         <v>2</v>
       </c>
-      <c r="F72" s="22"/>
-      <c r="G72" s="19" t="s">
+      <c r="F72" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="G72" s="139" t="s">
+        <v>233</v>
+      </c>
+      <c r="H72" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="I72" s="16">
+        <v>702880946</v>
+      </c>
+      <c r="J72" s="16">
+        <v>561964589</v>
+      </c>
+      <c r="K72" s="13"/>
+      <c r="L72" s="5"/>
+    </row>
+    <row r="73" spans="1:15" s="10" customFormat="1">
+      <c r="D73" s="167"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="H72" s="161" t="s">
+      <c r="G73" s="141" t="s">
         <v>235</v>
       </c>
-      <c r="I72" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="J72" s="16">
-        <v>702880946</v>
-      </c>
-      <c r="K72" s="16">
-        <v>561964589</v>
-      </c>
-      <c r="L72" s="13"/>
-      <c r="M72" s="5"/>
-    </row>
-    <row r="73" spans="1:16" s="10" customFormat="1">
-      <c r="D73" s="156"/>
-      <c r="E73" s="18"/>
-      <c r="F73" s="23"/>
-      <c r="G73" s="20" t="s">
+      <c r="H73" s="142" t="s">
+        <v>229</v>
+      </c>
+      <c r="I73" s="142" t="s">
+        <v>229</v>
+      </c>
+      <c r="J73" s="142" t="s">
+        <v>229</v>
+      </c>
+      <c r="K73" s="14"/>
+      <c r="L73" s="11"/>
+    </row>
+    <row r="74" spans="1:15" s="6" customFormat="1">
+      <c r="D74" s="167"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="H73" s="163" t="s">
+      <c r="G74" s="139" t="s">
         <v>237</v>
       </c>
-      <c r="I73" s="164" t="s">
-        <v>231</v>
-      </c>
-      <c r="J73" s="164" t="s">
-        <v>231</v>
-      </c>
-      <c r="K73" s="164" t="s">
-        <v>231</v>
-      </c>
-      <c r="L73" s="14"/>
-      <c r="M73" s="11"/>
-    </row>
-    <row r="74" spans="1:16" s="6" customFormat="1">
-      <c r="D74" s="156"/>
-      <c r="E74" s="17"/>
-      <c r="F74" s="22"/>
-      <c r="G74" s="19" t="s">
-        <v>238</v>
-      </c>
-      <c r="H74" s="161" t="s">
-        <v>239</v>
-      </c>
-      <c r="I74" s="15" t="s">
-        <v>147</v>
+      <c r="H74" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="I74" s="16" t="s">
+        <v>146</v>
       </c>
       <c r="J74" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="K74" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="L74" s="13"/>
-      <c r="M74" s="5"/>
-    </row>
-    <row r="75" spans="1:16">
+        <v>146</v>
+      </c>
+      <c r="K74" s="13"/>
+      <c r="L74" s="5"/>
+    </row>
+    <row r="75" spans="1:15">
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
-      <c r="D75" s="156"/>
+      <c r="D75" s="167"/>
       <c r="E75" s="17">
         <v>3</v>
       </c>
-      <c r="F75" s="22"/>
-      <c r="G75" s="19" t="s">
+      <c r="F75" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="G75" s="139" t="s">
+        <v>239</v>
+      </c>
+      <c r="H75" s="143" t="s">
         <v>240</v>
       </c>
-      <c r="H75" s="161" t="s">
+      <c r="I75" s="61" t="s">
         <v>241</v>
       </c>
-      <c r="I75" s="165" t="s">
-        <v>242</v>
-      </c>
-      <c r="J75" s="75" t="s">
-        <v>243</v>
-      </c>
-      <c r="K75" s="75" t="s">
-        <v>243</v>
-      </c>
-      <c r="L75" s="13"/>
-      <c r="M75" s="5"/>
+      <c r="J75" s="61" t="s">
+        <v>241</v>
+      </c>
+      <c r="K75" s="13"/>
+      <c r="L75" s="5"/>
+      <c r="M75" s="6"/>
       <c r="N75" s="6"/>
       <c r="O75" s="6"/>
-      <c r="P75" s="6"/>
-    </row>
-    <row r="76" spans="1:16">
+    </row>
+    <row r="76" spans="1:15">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
-      <c r="D76" s="156"/>
+      <c r="D76" s="167"/>
       <c r="E76" s="17"/>
-      <c r="F76" s="22"/>
-      <c r="G76" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="H76" s="161" t="s">
-        <v>245</v>
-      </c>
-      <c r="I76" s="165"/>
-      <c r="J76" s="75"/>
-      <c r="K76" s="75"/>
-      <c r="L76" s="144"/>
-      <c r="M76" s="5"/>
+      <c r="F76" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G76" s="139" t="s">
+        <v>243</v>
+      </c>
+      <c r="H76" s="143"/>
+      <c r="I76" s="61"/>
+      <c r="J76" s="61"/>
+      <c r="K76" s="124"/>
+      <c r="L76" s="5"/>
+      <c r="M76" s="6"/>
       <c r="N76" s="6"/>
       <c r="O76" s="6"/>
-      <c r="P76" s="6"/>
-    </row>
-    <row r="77" spans="1:16">
+    </row>
+    <row r="77" spans="1:15">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
-      <c r="D77" s="156"/>
+      <c r="D77" s="167"/>
       <c r="E77" s="17"/>
-      <c r="F77" s="22"/>
-      <c r="G77" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="H77" s="161" t="s">
-        <v>247</v>
-      </c>
-      <c r="I77" s="74"/>
-      <c r="J77" s="75"/>
-      <c r="K77" s="75"/>
-      <c r="L77" s="19"/>
-      <c r="M77" s="13"/>
+      <c r="F77" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="G77" s="139" t="s">
+        <v>245</v>
+      </c>
+      <c r="H77" s="60"/>
+      <c r="I77" s="61"/>
+      <c r="J77" s="61"/>
+      <c r="K77" s="19"/>
+      <c r="L77" s="13"/>
+      <c r="M77" s="6"/>
       <c r="N77" s="6"/>
       <c r="O77" s="6"/>
-      <c r="P77" s="6"/>
-    </row>
-    <row r="78" spans="1:16" ht="30.75">
+    </row>
+    <row r="78" spans="1:15" ht="30.75">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
-      <c r="D78" s="156"/>
+      <c r="D78" s="167"/>
       <c r="E78" s="17">
         <v>2</v>
       </c>
-      <c r="F78" s="22"/>
-      <c r="G78" s="19" t="s">
+      <c r="F78" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="G78" s="139" t="s">
+        <v>247</v>
+      </c>
+      <c r="H78" s="144" t="s">
         <v>248</v>
       </c>
-      <c r="H78" s="161" t="s">
+      <c r="I78" s="144" t="s">
         <v>249</v>
       </c>
-      <c r="I78" s="166" t="s">
+      <c r="J78" s="144" t="s">
         <v>250</v>
       </c>
-      <c r="J78" s="166" t="s">
-        <v>251</v>
-      </c>
-      <c r="K78" s="166" t="s">
-        <v>252</v>
-      </c>
-      <c r="L78" s="75"/>
-      <c r="M78" s="13"/>
+      <c r="K78" s="61"/>
+      <c r="L78" s="13"/>
+      <c r="M78" s="6"/>
       <c r="N78" s="6"/>
       <c r="O78" s="6"/>
-      <c r="P78" s="6"/>
-    </row>
-    <row r="79" spans="1:16">
+    </row>
+    <row r="79" spans="1:15">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
-      <c r="D79" s="156"/>
+      <c r="D79" s="167"/>
       <c r="E79" s="17"/>
-      <c r="F79" s="22"/>
-      <c r="G79" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="H79" s="161" t="s">
-        <v>254</v>
-      </c>
-      <c r="I79" s="27"/>
-      <c r="J79" s="6"/>
-      <c r="K79" s="75"/>
-      <c r="L79" s="75"/>
-      <c r="M79" s="13"/>
+      <c r="F79" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="G79" s="139" t="s">
+        <v>252</v>
+      </c>
+      <c r="H79" s="22"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="61"/>
+      <c r="K79" s="61"/>
+      <c r="L79" s="13"/>
+      <c r="M79" s="6"/>
       <c r="N79" s="6"/>
       <c r="O79" s="6"/>
-      <c r="P79" s="6"/>
-    </row>
-    <row r="80" spans="1:16">
+    </row>
+    <row r="80" spans="1:15">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
-      <c r="D80" s="156"/>
+      <c r="D80" s="167"/>
       <c r="E80" s="17">
         <v>2</v>
       </c>
-      <c r="F80" s="22"/>
-      <c r="G80" s="19" t="s">
+      <c r="F80" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="G80" s="139" t="s">
+        <v>254</v>
+      </c>
+      <c r="H80" s="60" t="s">
         <v>255</v>
       </c>
-      <c r="H80" s="161" t="s">
+      <c r="I80" s="61" t="s">
         <v>256</v>
       </c>
-      <c r="I80" s="74" t="s">
-        <v>257</v>
-      </c>
-      <c r="J80" s="75" t="s">
-        <v>258</v>
-      </c>
-      <c r="K80" s="19"/>
-      <c r="L80" s="75"/>
-      <c r="M80" s="13"/>
+      <c r="J80" s="19"/>
+      <c r="K80" s="61"/>
+      <c r="L80" s="13"/>
+      <c r="M80" s="6"/>
       <c r="N80" s="6"/>
       <c r="O80" s="6"/>
-      <c r="P80" s="6"/>
-    </row>
-    <row r="81" spans="1:16">
+    </row>
+    <row r="81" spans="1:15">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
-      <c r="D81" s="156"/>
+      <c r="D81" s="167"/>
       <c r="E81" s="17"/>
-      <c r="F81" s="22"/>
-      <c r="G81" s="19" t="s">
-        <v>259</v>
-      </c>
-      <c r="H81" s="161" t="s">
-        <v>260</v>
-      </c>
-      <c r="I81" s="74"/>
-      <c r="J81" s="75"/>
-      <c r="K81" s="19"/>
-      <c r="L81" s="75"/>
-      <c r="M81" s="13"/>
+      <c r="F81" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="G81" s="139" t="s">
+        <v>258</v>
+      </c>
+      <c r="H81" s="60"/>
+      <c r="I81" s="61"/>
+      <c r="J81" s="19"/>
+      <c r="K81" s="61"/>
+      <c r="L81" s="13"/>
+      <c r="M81" s="6"/>
       <c r="N81" s="6"/>
       <c r="O81" s="6"/>
-      <c r="P81" s="6"/>
-    </row>
-    <row r="82" spans="1:16">
+    </row>
+    <row r="82" spans="1:15">
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
-      <c r="D82" s="156"/>
+      <c r="D82" s="167"/>
       <c r="E82" s="17">
         <v>2</v>
       </c>
-      <c r="F82" s="22"/>
-      <c r="G82" s="19" t="s">
+      <c r="F82" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="G82" s="139" t="s">
+        <v>260</v>
+      </c>
+      <c r="H82" s="60"/>
+      <c r="I82" s="61" t="s">
         <v>261</v>
       </c>
-      <c r="H82" s="161" t="s">
-        <v>262</v>
-      </c>
-      <c r="I82" s="74"/>
-      <c r="J82" s="75" t="s">
-        <v>263</v>
-      </c>
-      <c r="K82" s="154"/>
-      <c r="L82" s="140"/>
-      <c r="M82" s="5"/>
+      <c r="J82" s="133"/>
+      <c r="K82" s="120"/>
+      <c r="L82" s="5"/>
+      <c r="M82" s="6"/>
       <c r="N82" s="6"/>
       <c r="O82" s="6"/>
-      <c r="P82" s="6"/>
-    </row>
-    <row r="83" spans="1:16">
+    </row>
+    <row r="83" spans="1:15">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
-      <c r="D83" s="156"/>
+      <c r="D83" s="167"/>
       <c r="E83" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="F83" s="22"/>
-      <c r="G83" s="167" t="s">
+        <v>223</v>
+      </c>
+      <c r="F83" s="145" t="s">
+        <v>262</v>
+      </c>
+      <c r="G83" s="139" t="s">
+        <v>263</v>
+      </c>
+      <c r="H83" s="146" t="s">
         <v>264</v>
       </c>
-      <c r="H83" s="161" t="s">
+      <c r="I83" s="146" t="s">
         <v>265</v>
       </c>
-      <c r="I83" s="168" t="s">
+      <c r="J83" s="93" t="s">
         <v>266</v>
       </c>
-      <c r="J83" s="168" t="s">
-        <v>267</v>
-      </c>
-      <c r="K83" s="111" t="s">
-        <v>268</v>
-      </c>
+      <c r="K83" s="5"/>
       <c r="L83" s="5"/>
-      <c r="M83" s="5"/>
+      <c r="M83" s="6"/>
       <c r="N83" s="6"/>
       <c r="O83" s="6"/>
-      <c r="P83" s="6"/>
-    </row>
-    <row r="84" spans="1:16">
+    </row>
+    <row r="84" spans="1:15">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
-      <c r="D84" s="156"/>
+      <c r="D84" s="167"/>
       <c r="E84" s="17"/>
-      <c r="F84" s="22"/>
-      <c r="G84" s="19" t="s">
+      <c r="F84" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="G84" s="139" t="s">
+        <v>268</v>
+      </c>
+      <c r="H84" s="60" t="s">
         <v>269</v>
       </c>
-      <c r="H84" s="161" t="s">
+      <c r="I84" s="61" t="s">
         <v>270</v>
       </c>
-      <c r="I84" s="74" t="s">
+      <c r="J84" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="J84" s="75" t="s">
-        <v>272</v>
-      </c>
-      <c r="K84" s="13" t="s">
-        <v>273</v>
-      </c>
+      <c r="K84" s="5"/>
       <c r="L84" s="5"/>
-      <c r="M84" s="5"/>
+      <c r="M84" s="6"/>
       <c r="N84" s="6"/>
       <c r="O84" s="6"/>
-      <c r="P84" s="6"/>
-    </row>
-    <row r="85" spans="1:16">
+    </row>
+    <row r="85" spans="1:15">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
-      <c r="D85" s="156"/>
+      <c r="D85" s="167"/>
       <c r="E85" s="17"/>
-      <c r="F85" s="22"/>
-      <c r="G85" s="169" t="s">
+      <c r="F85" s="147" t="s">
+        <v>272</v>
+      </c>
+      <c r="G85" s="148" t="s">
+        <v>273</v>
+      </c>
+      <c r="H85" s="149" t="s">
+        <v>123</v>
+      </c>
+      <c r="I85" s="150" t="s">
         <v>274</v>
       </c>
-      <c r="H85" s="170" t="s">
+      <c r="J85" s="125" t="s">
         <v>275</v>
       </c>
-      <c r="I85" s="171" t="s">
-        <v>124</v>
-      </c>
-      <c r="J85" s="172" t="s">
-        <v>276</v>
-      </c>
-      <c r="K85" s="145" t="s">
-        <v>277</v>
-      </c>
-      <c r="L85" s="145"/>
-      <c r="M85" s="145"/>
+      <c r="K85" s="125"/>
+      <c r="L85" s="125"/>
+      <c r="M85" s="6"/>
       <c r="N85" s="6"/>
       <c r="O85" s="6"/>
-      <c r="P85" s="6"/>
-    </row>
-    <row r="86" spans="1:16" s="9" customFormat="1">
-      <c r="A86" s="173"/>
-      <c r="B86" s="173"/>
-      <c r="C86" s="173"/>
-      <c r="D86" s="156"/>
-      <c r="E86" s="110"/>
-      <c r="F86" s="22"/>
-      <c r="G86" s="174" t="s">
+    </row>
+    <row r="86" spans="1:15" s="9" customFormat="1">
+      <c r="A86" s="151"/>
+      <c r="B86" s="151"/>
+      <c r="C86" s="151"/>
+      <c r="D86" s="167"/>
+      <c r="E86" s="92"/>
+      <c r="F86" s="152" t="s">
+        <v>276</v>
+      </c>
+      <c r="G86" s="153" t="s">
+        <v>277</v>
+      </c>
+      <c r="H86" s="130" t="s">
+        <v>95</v>
+      </c>
+      <c r="I86" s="130" t="s">
+        <v>96</v>
+      </c>
+      <c r="J86" s="130" t="s">
         <v>278</v>
       </c>
-      <c r="H86" s="175" t="s">
+      <c r="K86" s="154"/>
+      <c r="L86" s="154"/>
+      <c r="M86" s="151"/>
+      <c r="N86" s="151"/>
+      <c r="O86" s="151"/>
+    </row>
+    <row r="87" spans="1:15" s="9" customFormat="1">
+      <c r="A87" s="151"/>
+      <c r="B87" s="151"/>
+      <c r="C87" s="151"/>
+      <c r="D87" s="167"/>
+      <c r="E87" s="92"/>
+      <c r="F87" s="152" t="s">
         <v>279</v>
       </c>
-      <c r="I86" s="151" t="s">
-        <v>96</v>
-      </c>
-      <c r="J86" s="151" t="s">
-        <v>97</v>
-      </c>
-      <c r="K86" s="151" t="s">
+      <c r="G87" s="153" t="s">
         <v>280</v>
       </c>
-      <c r="L86" s="176"/>
-      <c r="M86" s="176"/>
-      <c r="N86" s="173"/>
-      <c r="O86" s="173"/>
-      <c r="P86" s="173"/>
-    </row>
-    <row r="87" spans="1:16" s="9" customFormat="1">
-      <c r="A87" s="173"/>
-      <c r="B87" s="173"/>
-      <c r="C87" s="173"/>
-      <c r="D87" s="156"/>
-      <c r="E87" s="110"/>
-      <c r="F87" s="22"/>
-      <c r="G87" s="174" t="s">
+      <c r="H87" s="155" t="s">
         <v>281</v>
       </c>
-      <c r="H87" s="175" t="s">
+      <c r="I87" s="155" t="s">
         <v>282</v>
       </c>
-      <c r="I87" s="177" t="s">
+      <c r="J87" s="155" t="s">
         <v>283</v>
       </c>
-      <c r="J87" s="177" t="s">
+      <c r="K87" s="154"/>
+      <c r="L87" s="154"/>
+      <c r="M87" s="151"/>
+      <c r="N87" s="151"/>
+      <c r="O87" s="151"/>
+    </row>
+    <row r="88" spans="1:15" s="7" customFormat="1">
+      <c r="A88" s="156" t="s">
         <v>284</v>
       </c>
-      <c r="K87" s="177" t="s">
-        <v>285</v>
-      </c>
-      <c r="L87" s="176"/>
-      <c r="M87" s="176"/>
-      <c r="N87" s="173"/>
-      <c r="O87" s="173"/>
-      <c r="P87" s="173"/>
-    </row>
-    <row r="88" spans="1:16" s="7" customFormat="1">
-      <c r="A88" s="178" t="s">
-        <v>286</v>
-      </c>
-      <c r="B88" s="178"/>
-      <c r="C88" s="178"/>
-      <c r="D88" s="178"/>
-      <c r="E88" s="179"/>
-      <c r="F88" s="180"/>
-      <c r="G88" s="178"/>
-      <c r="H88" s="178"/>
-      <c r="I88" s="181"/>
-      <c r="J88" s="178"/>
-      <c r="K88" s="178"/>
-      <c r="L88" s="178"/>
-      <c r="M88" s="178"/>
-      <c r="N88" s="178"/>
-      <c r="O88" s="178"/>
-      <c r="P88" s="178"/>
+      <c r="B88" s="156"/>
+      <c r="C88" s="156"/>
+      <c r="D88" s="156"/>
+      <c r="E88" s="157"/>
+      <c r="F88" s="156"/>
+      <c r="G88" s="156"/>
+      <c r="H88" s="158"/>
+      <c r="I88" s="156"/>
+      <c r="J88" s="156"/>
+      <c r="K88" s="156"/>
+      <c r="L88" s="156"/>
+      <c r="M88" s="156"/>
+      <c r="N88" s="156"/>
+      <c r="O88" s="156"/>
     </row>
   </sheetData>
-  <autoFilter ref="A9:P88" xr:uid="{FC96D3DE-56F6-4E60-B012-339ED5333B2B}">
+  <autoFilter ref="A9:O88" xr:uid="{FC96D3DE-56F6-4E60-B012-339ED5333B2B}">
     <filterColumn colId="0" showButton="0"/>
   </autoFilter>
   <mergeCells count="14">
-    <mergeCell ref="K2:P4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A6:D6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D18:D25"/>
     <mergeCell ref="D41:D63"/>
     <mergeCell ref="D64:D87"/>
     <mergeCell ref="D27:D33"/>
     <mergeCell ref="D34:D40"/>
-    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="D11:D15"/>
+    <mergeCell ref="J2:O4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A6:D6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D27">
-    <cfRule type="expression" dxfId="44" priority="93">
-      <formula>AND($AE27=1,$AD27=1)</formula>
+    <cfRule type="expression" dxfId="32" priority="93">
+      <formula>AND($AD27=1,$AC27=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="94">
-      <formula>$AE27=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="95">
-      <formula>OR($AE27="X",$AD27="X")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="41" priority="96">
+    <cfRule type="expression" dxfId="31" priority="94">
       <formula>$AD27=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="97">
-      <formula>AND(NOT(ISBLANK($X27)),ISBLANK($AD27),ISBLANK($AE27))</formula>
+    <cfRule type="expression" dxfId="30" priority="95">
+      <formula>OR($AD27="X",$AC27="X")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="29" priority="96">
+      <formula>$AC27=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="97">
+      <formula>AND(NOT(ISBLANK($W27)),ISBLANK($AC27),ISBLANK($AD27))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="expression" dxfId="39" priority="53">
-      <formula>AND($AE34=1,$AD34=1)</formula>
+    <cfRule type="expression" dxfId="27" priority="53">
+      <formula>AND($AD34=1,$AC34=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="54">
-      <formula>$AE34=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="37" priority="55">
-      <formula>OR($AE34="X",$AD34="X")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="56">
+    <cfRule type="expression" dxfId="26" priority="54">
       <formula>$AD34=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="57">
-      <formula>AND(NOT(ISBLANK($X34)),ISBLANK($AD34),ISBLANK($AE34))</formula>
+    <cfRule type="expression" dxfId="25" priority="55">
+      <formula>OR($AD34="X",$AC34="X")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="56">
+      <formula>$AC34=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="23" priority="57">
+      <formula>AND(NOT(ISBLANK($W34)),ISBLANK($AC34),ISBLANK($AD34))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41">
-    <cfRule type="expression" dxfId="34" priority="88">
+    <cfRule type="expression" dxfId="22" priority="88">
       <formula>AND(#REF!=1,#REF!=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="89">
+    <cfRule type="expression" dxfId="21" priority="89">
       <formula>#REF!=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="90">
+    <cfRule type="expression" dxfId="20" priority="90">
       <formula>OR(#REF!="X",#REF!="X")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="91">
+    <cfRule type="expression" dxfId="19" priority="91">
       <formula>#REF!=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="92">
+    <cfRule type="expression" dxfId="18" priority="92">
       <formula>AND(NOT(ISBLANK(#REF!)),ISBLANK(#REF!),ISBLANK(#REF!))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G41">
-    <cfRule type="expression" dxfId="29" priority="104">
-      <formula>AND($S41="X",$B41&lt;&gt;"")</formula>
+  <conditionalFormatting sqref="F41">
+    <cfRule type="expression" dxfId="17" priority="111">
+      <formula>AND($R41="X",$B41&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="105">
-      <formula>AND($AE41=1,$AD41=1)</formula>
+    <cfRule type="expression" dxfId="16" priority="112">
+      <formula>AND($AD41=1,$AC41=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="106">
-      <formula>$AE41=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="107">
-      <formula>OR($AE41="X",$AD41="X")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="108">
+    <cfRule type="expression" dxfId="15" priority="113">
       <formula>$AD41=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="109">
-      <formula>AND(NOT(ISBLANK($X41)),ISBLANK($AD41),ISBLANK($AE41))</formula>
+    <cfRule type="expression" dxfId="14" priority="114">
+      <formula>OR($AD41="X",$AC41="X")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="115">
+      <formula>$AC41=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="116">
+      <formula>AND(NOT(ISBLANK($W41)),ISBLANK($AC41),ISBLANK($AD41))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G64:G67 H67:H85">
-    <cfRule type="expression" dxfId="23" priority="77">
-      <formula>AND($AE64=1,$AD64=1)</formula>
+  <conditionalFormatting sqref="F64:F67 G67:G85">
+    <cfRule type="expression" dxfId="11" priority="117">
+      <formula>AND($AD64=1,$AC64=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="78">
-      <formula>$AE64=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="79">
-      <formula>OR($AE64="X",$AD64="X")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="80">
+    <cfRule type="expression" dxfId="10" priority="118">
       <formula>$AD64=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="81">
-      <formula>AND(NOT(ISBLANK($X64)),ISBLANK($AD64),ISBLANK($AE64))</formula>
+    <cfRule type="expression" dxfId="9" priority="119">
+      <formula>OR($AD64="X",$AC64="X")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="110">
-      <formula>AND($S64="X",$B64&lt;&gt;"")</formula>
+    <cfRule type="expression" dxfId="8" priority="120">
+      <formula>$AC64=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="121">
+      <formula>AND(NOT(ISBLANK($W64)),ISBLANK($AC64),ISBLANK($AD64))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="122">
+      <formula>AND($R64="X",$B64&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G57:K57">
-    <cfRule type="expression" dxfId="17" priority="58">
-      <formula>AND($T57="X",OR($B57&lt;&gt;"",$D57&lt;&gt;""))</formula>
+  <conditionalFormatting sqref="F57:J57 G58:G59 G63:G66">
+    <cfRule type="expression" dxfId="5" priority="129">
+      <formula>AND($S57="X",OR($B57&lt;&gt;"",$D57&lt;&gt;""))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="59">
-      <formula>AND($AF57=1,$AE57=1)</formula>
+    <cfRule type="expression" dxfId="4" priority="130">
+      <formula>AND($AE57=1,$AD57=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="60">
-      <formula>$AF57=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="61">
-      <formula>OR($AF57="X",$AE57="X")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="62">
+    <cfRule type="expression" dxfId="3" priority="131">
       <formula>$AE57=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="63">
-      <formula>AND(NOT(ISBLANK($Y57)),ISBLANK($AE57),ISBLANK($AF57))</formula>
+    <cfRule type="expression" dxfId="2" priority="132">
+      <formula>OR($AE57="X",$AD57="X")</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H58:H59">
-    <cfRule type="expression" dxfId="11" priority="47">
-      <formula>AND($T58="X",OR($B58&lt;&gt;"",$D58&lt;&gt;""))</formula>
+    <cfRule type="expression" dxfId="1" priority="133">
+      <formula>$AD57=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="48">
-      <formula>AND($AF58=1,$AE58=1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="49">
-      <formula>$AF58=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="50">
-      <formula>OR($AF58="X",$AE58="X")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="51">
-      <formula>$AE58=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="52">
-      <formula>AND(NOT(ISBLANK($Y58)),ISBLANK($AE58),ISBLANK($AF58))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H63:H66">
-    <cfRule type="expression" dxfId="5" priority="41">
-      <formula>AND($T63="X",OR($B63&lt;&gt;"",$D63&lt;&gt;""))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="42">
-      <formula>AND($AF63=1,$AE63=1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="43">
-      <formula>$AF63=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="44">
-      <formula>OR($AF63="X",$AE63="X")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="45">
-      <formula>$AE63=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="46">
-      <formula>AND(NOT(ISBLANK($Y63)),ISBLANK($AE63),ISBLANK($AF63))</formula>
+    <cfRule type="expression" dxfId="0" priority="134">
+      <formula>AND(NOT(ISBLANK($X57)),ISBLANK($AD57),ISBLANK($AE57))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
@@ -5205,67 +4938,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ModificateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <f8b6baa267c0456bbf6a8d18c49a130b xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </f8b6baa267c0456bbf6a8d18c49a130b>
-    <eef0f6fc4ed046399a9d01fd3a7d6a6a xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </eef0f6fc4ed046399a9d01fd3a7d6a6a>
-    <Référence_x0020_Bon_x0020_de_x0020_Commande xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <Référence_x0020_Documentaire xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <Chantier xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <p671c8df16a44846939d278d4958f62c xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </p671c8df16a44846939d278d4958f62c>
-    <Durée_x0020_d_x0027_Utilité_x0020_Administrative_x0020__x0028_DUA_x0029_ xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <Environnement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <b2804ef99be44b9e8166e80a6c2eb9f1 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </b2804ef99be44b9e8166e80a6c2eb9f1>
-    <_ExtendedDescription xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <mc4aa6e782e045f6bb87dab01c971b56 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </mc4aa6e782e045f6bb87dab01c971b56>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <m312bc62cb0243b6a873cbbf4dace6b2 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </m312bc62cb0243b6a873cbbf4dace6b2>
-    <b084a4cb34a444d7969136255594d2f3 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </b084a4cb34a444d7969136255594d2f3>
-    <CreateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <g30fb2d8061a4d40b63138f91c1a832e xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </g30fb2d8061a4d40b63138f91c1a832e>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <m9a76db3058146ae844db6599c9d7036 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </m9a76db3058146ae844db6599c9d7036>
-    <Ticket_x0020_Changement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <l0a6b4600f484920bbceae0813174244 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </l0a6b4600f484920bbceae0813174244>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document - Suivi de projet" ma:contentTypeID="0x010100333226B5D6902549BFE4A72F45A4400B0100E98F8C089710A74CA077FC6D601326A8" ma:contentTypeVersion="52" ma:contentTypeDescription="Type de contenu - Documentation de suivi de projet" ma:contentTypeScope="" ma:versionID="b3317a165cd10de70dc68851db9884d1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xmlns:ns3="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b8430278eece82d06f551ff77398a68" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5679,8 +5351,69 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ModificateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <f8b6baa267c0456bbf6a8d18c49a130b xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </f8b6baa267c0456bbf6a8d18c49a130b>
+    <eef0f6fc4ed046399a9d01fd3a7d6a6a xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </eef0f6fc4ed046399a9d01fd3a7d6a6a>
+    <Référence_x0020_Bon_x0020_de_x0020_Commande xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <Référence_x0020_Documentaire xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <Chantier xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <p671c8df16a44846939d278d4958f62c xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </p671c8df16a44846939d278d4958f62c>
+    <Durée_x0020_d_x0027_Utilité_x0020_Administrative_x0020__x0028_DUA_x0029_ xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <Environnement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <b2804ef99be44b9e8166e80a6c2eb9f1 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </b2804ef99be44b9e8166e80a6c2eb9f1>
+    <_ExtendedDescription xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <mc4aa6e782e045f6bb87dab01c971b56 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </mc4aa6e782e045f6bb87dab01c971b56>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <m312bc62cb0243b6a873cbbf4dace6b2 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </m312bc62cb0243b6a873cbbf4dace6b2>
+    <b084a4cb34a444d7969136255594d2f3 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </b084a4cb34a444d7969136255594d2f3>
+    <CreateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <g30fb2d8061a4d40b63138f91c1a832e xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </g30fb2d8061a4d40b63138f91c1a832e>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <m9a76db3058146ae844db6599c9d7036 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </m9a76db3058146ae844db6599c9d7036>
+    <Ticket_x0020_Changement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <l0a6b4600f484920bbceae0813174244 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l0a6b4600f484920bbceae0813174244>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33493A62-AC11-48A7-B6C8-0591C55C368B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AEC75D3-A67D-4574-BB93-839AC9299105}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5688,5 +5421,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AEC75D3-A67D-4574-BB93-839AC9299105}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33493A62-AC11-48A7-B6C8-0591C55C368B}"/>
 </file>
--- a/csv_parser/test-cases-15-15.xlsx
+++ b/csv_parser/test-cases-15-15.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://esantegouv.sharepoint.com/sites/GED-Calypso/espace-projets/Espace Programme SISAMU/01 - Equipe projet/07 - Innovation et prospectif/12 - Hub Santé/13 - 15-15/04 - Pilotes 15-15/04 - JDD recette/JSON pour interface LRM/03 - Automodel tracker/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ans-repos\SAMU-Hub-Modeles\csv_parser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EC48BF3-E648-457F-A3F9-F3C403454E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D507A43C-1400-417F-A71E-05F498B52338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3285" yWindow="1590" windowWidth="22740" windowHeight="12930" xr2:uid="{8E95E427-60E8-4C01-A0F5-EF6B52DBDF48}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8E95E427-60E8-4C01-A0F5-EF6B52DBDF48}"/>
   </bookViews>
   <sheets>
     <sheet name="Partage de dossier simple" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Partage de dossier simple'!$A$9:$O$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Partage de dossier simple'!$A$9:$O$82</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -46,9 +46,9 @@
   <commentList>
     <comment ref="F65" authorId="0" shapeId="0" xr:uid="{FB75C0C9-7A43-4C0C-BF65-EEEEE383A568}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
     Pour savoir quelle alerte utiliser dans une affaire :
 =&gt; Regarder cette date de réception</t>
       </text>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="267">
   <si>
     <t>Périmètre</t>
   </si>
@@ -402,7 +402,7 @@
     <t>Prénom et nom</t>
   </si>
   <si>
-    <t>$.createCaseHealth.patient[0].identity.nonstrictFeatures.complete</t>
+    <t>$.createCaseHealth.patient[0].identity.nonStrictFeatures.complete</t>
   </si>
   <si>
     <t>Didier Morel</t>
@@ -414,7 +414,7 @@
     <t>Prénom</t>
   </si>
   <si>
-    <t>$.createCaseHealth.patient[0].identity.nonstrictFeatures.firstName</t>
+    <t>$.createCaseHealth.patient[0].identity.nonStrictFeatures.firstName</t>
   </si>
   <si>
     <t xml:space="preserve">Didier </t>
@@ -426,7 +426,7 @@
     <t>Nom</t>
   </si>
   <si>
-    <t>$.createCaseHealth.patient[0].identity.nonstrictFeatures.lastName</t>
+    <t>$.createCaseHealth.patient[0].identity.nonStrictFeatures.lastName</t>
   </si>
   <si>
     <t>Morel</t>
@@ -462,13 +462,13 @@
     <t>$.createCaseHealth.patient[1].identity.strictFeatures.birthDate</t>
   </si>
   <si>
-    <t>$.createCaseHealth.patient[1].identity.nonstrictFeatures.complete</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.patient[1].identity.nonstrictFeatures.firstName</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.patient[1].identity.nonstrictFeatures.lastName</t>
+    <t>$.createCaseHealth.patient[1].identity.nonStrictFeatures.complete</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.patient[1].identity.nonStrictFeatures.firstName</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.patient[1].identity.nonStrictFeatures.lastName</t>
   </si>
   <si>
     <t>$.createCaseHealth.patient[1].detail.age</t>
@@ -687,7 +687,7 @@
     <t>Identifiant alerte</t>
   </si>
   <si>
-    <t>$.createCaseHealth.intialAlert.id</t>
+    <t>$.createCaseHealth.initialAlert.id</t>
   </si>
   <si>
     <t>ALRT-2024-ABC123</t>
@@ -702,13 +702,13 @@
     <t>Date de réception de l'alerte</t>
   </si>
   <si>
-    <t>$.createCaseHealth.intialAlert.reception</t>
+    <t>$.createCaseHealth.initialAlert.reception</t>
   </si>
   <si>
     <t>Signalement</t>
   </si>
   <si>
-    <t>$.createCaseHealth.intialAlert.reporting</t>
+    <t>$.createCaseHealth.initialAlert.reporting</t>
   </si>
   <si>
     <t>STANDARD</t>
@@ -717,13 +717,13 @@
     <t>Informations complémentaires sur l'alerte</t>
   </si>
   <si>
-    <t>$.createCaseHealth.intialAlert.freetext</t>
+    <t>$.createCaseHealth.initialAlert.freetext</t>
   </si>
   <si>
     <t>Requérant contact type</t>
   </si>
   <si>
-    <t>$.createCaseHealth.intialAlert.caller.callerContact.type</t>
+    <t>$.createCaseHealth.initialAlert.caller.callerContact.type</t>
   </si>
   <si>
     <t>PHNADD</t>
@@ -735,7 +735,7 @@
     <t>Requérant contact numéro</t>
   </si>
   <si>
-    <t>$.createCaseHealth.intialAlert.caller.callerContact.detail</t>
+    <t>$.createCaseHealth.initialAlert.caller.callerContact.detail</t>
   </si>
   <si>
     <t>0607080915</t>
@@ -744,7 +744,7 @@
     <t>Requérant contact canal</t>
   </si>
   <si>
-    <t>$.createCaseHealth.intialAlert.caller.callerContact.channel</t>
+    <t>$.createCaseHealth.initialAlert.caller.callerContact.channel</t>
   </si>
   <si>
     <t>Personne</t>
@@ -753,31 +753,31 @@
     <t>Requérant contact de contre appel type</t>
   </si>
   <si>
-    <t>$.createCaseHealth.intialAlert.caller.callbackContact.type</t>
+    <t>$.createCaseHealth.initialAlert.caller.callbackContact.type</t>
   </si>
   <si>
     <t>Requérant contact de contre appel numéro</t>
   </si>
   <si>
-    <t>$.createCaseHealth.intialAlert.caller.callbackContact.detail</t>
+    <t>$.createCaseHealth.initialAlert.caller.callbackContact.detail</t>
   </si>
   <si>
     <t>Requérant contact de contre appel canal</t>
   </si>
   <si>
-    <t>$.createCaseHealth.intialAlert.caller.callbackContact.channel</t>
+    <t>$.createCaseHealth.initialAlert.caller.callbackContact.channel</t>
   </si>
   <si>
     <t>Langue parlée</t>
   </si>
   <si>
-    <t>$.createCaseHealth.intialAlert.caller.language</t>
+    <t>$.createCaseHealth.initialAlert.caller.language</t>
   </si>
   <si>
     <t>Type de réquérant</t>
   </si>
   <si>
-    <t>$.createCaseHealth.intialAlert.caller.type</t>
+    <t>$.createCaseHealth.initialAlert.caller.type</t>
   </si>
   <si>
     <t>FAMILLE</t>
@@ -789,67 +789,13 @@
     <t>Difficulté de communication</t>
   </si>
   <si>
-    <t>$.createCaseHealth.intialAlert.caller.communication</t>
-  </si>
-  <si>
-    <t>datetime observations ARM 01</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.intialAlert.caller.notes[0].creation</t>
-  </si>
-  <si>
-    <t>Infos / observations ARM 01</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.intialAlert.caller.notes[0].freetext</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coupure grave causée par une scie circulaire au niveau de la main; saigne beaucoup. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entorse de la cheville, avec possible fracture. </t>
-  </si>
-  <si>
-    <t>Confusion, étourdissements, s’exprime difficilement</t>
-  </si>
-  <si>
-    <t>datetime observations ARM 02</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.intialAlert.caller.notes[1].creation</t>
-  </si>
-  <si>
-    <t>Infos / observations ARM 02</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.intialAlert.caller.notes[1].freetext</t>
-  </si>
-  <si>
-    <t>La victime est inconsciente (perte de connaissance).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cheville gonflée et douloureuse. </t>
-  </si>
-  <si>
-    <t>datetime observations ARM 03</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.intialAlert.caller.notes[2].creation</t>
-  </si>
-  <si>
-    <t>Infos / observations ARM 03</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.intialAlert.caller.notes[2].freetext</t>
-  </si>
-  <si>
-    <t>Marche impossible.</t>
+    <t>$.createCaseHealth.initialAlert.caller.communication</t>
   </si>
   <si>
     <t>Prénom et nom du requérant</t>
   </si>
   <si>
-    <t>$.createCaseHealth.intialAlert.caller.detailedName.complete</t>
+    <t>$.createCaseHealth.initialAlert.caller.detailedName.complete</t>
   </si>
   <si>
     <t>Sébastien Morel</t>
@@ -864,7 +810,7 @@
     <t>Prénom du requérant</t>
   </si>
   <si>
-    <t>$.createCaseHealth.intialAlert.caller.detailedName.firstName</t>
+    <t>$.createCaseHealth.initialAlert.caller.detailedName.firstName</t>
   </si>
   <si>
     <t>Sébastien</t>
@@ -879,7 +825,7 @@
     <t>Nom du requérant</t>
   </si>
   <si>
-    <t>$.createCaseHealth.intialAlert.caller.detailedName.lastName</t>
+    <t>$.createCaseHealth.initialAlert.caller.detailedName.lastName</t>
   </si>
   <si>
     <t xml:space="preserve">BERTRAND  </t>
@@ -891,16 +837,13 @@
     <t>Agent/service d'urgence</t>
   </si>
   <si>
-    <t>$.createCaseHealth.initialalert.callTaker.organisation</t>
-  </si>
-  <si>
     <t>fr.health.samu090</t>
   </si>
   <si>
     <t>Agent/centre d'appel</t>
   </si>
   <si>
-    <t>$.createCaseHealth.initialalert.callTaker.controlRoom</t>
+    <t>$.createCaseHealth.initialAlert.callTaker.controlRoom</t>
   </si>
   <si>
     <t>CRRA 77</t>
@@ -913,13 +856,16 @@
   </si>
   <si>
     <t>End</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.initialAlert.callTaker.organization</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1072,7 +1018,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -1232,19 +1178,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1616,7 +1549,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1644,14 +1577,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1676,11 +1609,11 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1689,43 +1622,43 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1736,13 +1669,13 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1751,7 +1684,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1759,7 +1692,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="6" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1782,20 +1715,20 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="12" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="12" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1803,40 +1736,40 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1851,35 +1784,35 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1895,32 +1828,29 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1941,34 +1871,34 @@
     <xf numFmtId="49" fontId="7" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2233,9 +2163,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2273,7 +2203,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2379,7 +2309,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2521,7 +2451,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2538,16 +2468,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC96D3DE-56F6-4E60-B012-339ED5333B2B}">
-  <dimension ref="A1:O88"/>
+  <dimension ref="A1:O82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="6" ySplit="10" topLeftCell="G37" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1:F1048576"/>
+      <pane xSplit="6" ySplit="10" topLeftCell="G61" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomRight" activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
@@ -2562,11 +2492,11 @@
     <col min="12" max="12" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.75">
-      <c r="A1" s="160" t="s">
+    <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="159" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="160"/>
+      <c r="B1" s="159"/>
       <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
@@ -2583,11 +2513,11 @@
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
     </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" ht="18.75">
-      <c r="A2" s="160" t="s">
+    <row r="2" spans="1:15" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="159" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="160"/>
+      <c r="B2" s="159"/>
       <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
@@ -2599,20 +2529,20 @@
       <c r="I2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="159" t="s">
+      <c r="J2" s="158" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="159"/>
-      <c r="L2" s="159"/>
-      <c r="M2" s="159"/>
-      <c r="N2" s="159"/>
-      <c r="O2" s="159"/>
-    </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" ht="18.75">
-      <c r="A3" s="160" t="s">
+      <c r="K2" s="158"/>
+      <c r="L2" s="158"/>
+      <c r="M2" s="158"/>
+      <c r="N2" s="158"/>
+      <c r="O2" s="158"/>
+    </row>
+    <row r="3" spans="1:15" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="159" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="160"/>
+      <c r="B3" s="159"/>
       <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
@@ -2622,18 +2552,18 @@
       <c r="G3" s="23"/>
       <c r="H3" s="24"/>
       <c r="I3" s="23"/>
-      <c r="J3" s="159"/>
-      <c r="K3" s="159"/>
-      <c r="L3" s="159"/>
-      <c r="M3" s="159"/>
-      <c r="N3" s="159"/>
-      <c r="O3" s="159"/>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="18.75">
-      <c r="A4" s="160" t="s">
+      <c r="J3" s="158"/>
+      <c r="K3" s="158"/>
+      <c r="L3" s="158"/>
+      <c r="M3" s="158"/>
+      <c r="N3" s="158"/>
+      <c r="O3" s="158"/>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="159" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="160"/>
+      <c r="B4" s="159"/>
       <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
@@ -2643,22 +2573,22 @@
       <c r="G4" s="23"/>
       <c r="H4" s="24"/>
       <c r="I4" s="23"/>
-      <c r="J4" s="159"/>
-      <c r="K4" s="159"/>
-      <c r="L4" s="159"/>
-      <c r="M4" s="159"/>
-      <c r="N4" s="159"/>
-      <c r="O4" s="159"/>
-    </row>
-    <row r="5" spans="1:15" s="1" customFormat="1" ht="18.75">
-      <c r="A5" s="171" t="s">
+      <c r="J4" s="158"/>
+      <c r="K4" s="158"/>
+      <c r="L4" s="158"/>
+      <c r="M4" s="158"/>
+      <c r="N4" s="158"/>
+      <c r="O4" s="158"/>
+    </row>
+    <row r="5" spans="1:15" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="170" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="171"/>
-      <c r="C5" s="171"/>
-      <c r="D5" s="171"/>
-      <c r="E5" s="171"/>
-      <c r="F5" s="171"/>
+      <c r="B5" s="170"/>
+      <c r="C5" s="170"/>
+      <c r="D5" s="170"/>
+      <c r="E5" s="170"/>
+      <c r="F5" s="170"/>
       <c r="G5" s="23"/>
       <c r="H5" s="24"/>
       <c r="I5" s="23"/>
@@ -2669,13 +2599,13 @@
       <c r="N5" s="26"/>
       <c r="O5" s="26"/>
     </row>
-    <row r="6" spans="1:15" s="1" customFormat="1" ht="18.75">
-      <c r="A6" s="161" t="s">
+    <row r="6" spans="1:15" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="160" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="162"/>
-      <c r="C6" s="162"/>
-      <c r="D6" s="163"/>
+      <c r="B6" s="161"/>
+      <c r="C6" s="161"/>
+      <c r="D6" s="162"/>
       <c r="E6" s="21"/>
       <c r="F6" s="6" t="s">
         <v>11</v>
@@ -2690,13 +2620,13 @@
       <c r="N6" s="26"/>
       <c r="O6" s="26"/>
     </row>
-    <row r="7" spans="1:15" s="1" customFormat="1" ht="18.75">
-      <c r="A7" s="172" t="s">
+    <row r="7" spans="1:15" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="171" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="172"/>
-      <c r="C7" s="172"/>
-      <c r="D7" s="172"/>
+      <c r="B7" s="171"/>
+      <c r="C7" s="171"/>
+      <c r="D7" s="171"/>
       <c r="E7" s="27"/>
       <c r="F7" s="6" t="s">
         <v>13</v>
@@ -2711,7 +2641,7 @@
       <c r="N7" s="23"/>
       <c r="O7" s="23"/>
     </row>
-    <row r="8" spans="1:15" s="1" customFormat="1" ht="18.75">
+    <row r="8" spans="1:15" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="28"/>
       <c r="B8" s="28"/>
       <c r="C8" s="28"/>
@@ -2730,7 +2660,7 @@
       <c r="N8" s="23"/>
       <c r="O8" s="23"/>
     </row>
-    <row r="9" spans="1:15" s="2" customFormat="1" ht="18.75">
+    <row r="9" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>15</v>
       </c>
@@ -2771,7 +2701,7 @@
       <c r="N9" s="36"/>
       <c r="O9" s="36"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
         <v>26</v>
       </c>
@@ -2796,11 +2726,11 @@
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
     </row>
-    <row r="11" spans="1:15" ht="16.5" customHeight="1">
+    <row r="11" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="173" t="s">
+      <c r="D11" s="172" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="42"/>
@@ -2825,11 +2755,11 @@
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="173"/>
+      <c r="D12" s="172"/>
       <c r="E12" s="42"/>
       <c r="F12" s="47" t="s">
         <v>36</v>
@@ -2852,11 +2782,11 @@
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
-      <c r="D13" s="173"/>
+      <c r="D13" s="172"/>
       <c r="E13" s="42"/>
       <c r="F13" s="51" t="s">
         <v>39</v>
@@ -2879,11 +2809,11 @@
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
     </row>
-    <row r="14" spans="1:15" s="4" customFormat="1">
+    <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="52"/>
       <c r="B14" s="52"/>
       <c r="C14" s="52"/>
-      <c r="D14" s="173"/>
+      <c r="D14" s="172"/>
       <c r="E14" s="17">
         <v>3</v>
       </c>
@@ -2908,11 +2838,11 @@
       <c r="N14" s="52"/>
       <c r="O14" s="52"/>
     </row>
-    <row r="15" spans="1:15" s="4" customFormat="1">
+    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="52"/>
       <c r="B15" s="52"/>
       <c r="C15" s="52"/>
-      <c r="D15" s="173"/>
+      <c r="D15" s="172"/>
       <c r="E15" s="17">
         <v>3</v>
       </c>
@@ -2937,7 +2867,7 @@
       <c r="N15" s="52"/>
       <c r="O15" s="52"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -2960,7 +2890,7 @@
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -2983,11 +2913,11 @@
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
-      <c r="D18" s="164" t="s">
+      <c r="D18" s="163" t="s">
         <v>54</v>
       </c>
       <c r="E18" s="42">
@@ -3014,11 +2944,11 @@
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
     </row>
-    <row r="19" spans="1:15" ht="28.5" customHeight="1">
+    <row r="19" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
-      <c r="D19" s="165"/>
+      <c r="D19" s="164"/>
       <c r="E19" s="42">
         <v>3</v>
       </c>
@@ -3043,11 +2973,11 @@
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
-      <c r="D20" s="165"/>
+      <c r="D20" s="164"/>
       <c r="E20" s="17">
         <v>2</v>
       </c>
@@ -3072,11 +3002,11 @@
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
     </row>
-    <row r="21" spans="1:15" s="8" customFormat="1" ht="30.75">
+    <row r="21" spans="1:15" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="75"/>
       <c r="B21" s="75"/>
       <c r="C21" s="75"/>
-      <c r="D21" s="165"/>
+      <c r="D21" s="164"/>
       <c r="E21" s="76">
         <v>3</v>
       </c>
@@ -3101,11 +3031,11 @@
       <c r="N21" s="75"/>
       <c r="O21" s="75"/>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
-      <c r="D22" s="165"/>
+      <c r="D22" s="164"/>
       <c r="E22" s="17">
         <v>1</v>
       </c>
@@ -3130,11 +3060,11 @@
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
     </row>
-    <row r="23" spans="1:15" ht="30.75" customHeight="1">
+    <row r="23" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="165"/>
+      <c r="D23" s="164"/>
       <c r="E23" s="76">
         <v>3</v>
       </c>
@@ -3159,11 +3089,11 @@
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
-      <c r="D24" s="165"/>
+      <c r="D24" s="164"/>
       <c r="E24" s="17">
         <v>1</v>
       </c>
@@ -3188,11 +3118,11 @@
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
-      <c r="D25" s="166"/>
+      <c r="D25" s="165"/>
       <c r="E25" s="85">
         <v>3</v>
       </c>
@@ -3217,7 +3147,7 @@
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -3248,11 +3178,11 @@
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
-      <c r="D27" s="168" t="s">
+      <c r="D27" s="167" t="s">
         <v>98</v>
       </c>
       <c r="E27" s="92"/>
@@ -3277,11 +3207,11 @@
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
-      <c r="D28" s="169"/>
+      <c r="D28" s="168"/>
       <c r="E28" s="17">
         <v>1</v>
       </c>
@@ -3306,8 +3236,8 @@
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
     </row>
-    <row r="29" spans="1:15" s="6" customFormat="1">
-      <c r="D29" s="169"/>
+    <row r="29" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="168"/>
       <c r="E29" s="17">
         <v>2</v>
       </c>
@@ -3327,11 +3257,11 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
-      <c r="D30" s="169"/>
+      <c r="D30" s="168"/>
       <c r="E30" s="17">
         <v>1</v>
       </c>
@@ -3354,11 +3284,11 @@
       <c r="N30" s="6"/>
       <c r="O30" s="6"/>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
-      <c r="D31" s="169"/>
+      <c r="D31" s="168"/>
       <c r="E31" s="17"/>
       <c r="F31" s="13" t="s">
         <v>117</v>
@@ -3379,11 +3309,11 @@
       <c r="N31" s="6"/>
       <c r="O31" s="6"/>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
-      <c r="D32" s="169"/>
+      <c r="D32" s="168"/>
       <c r="E32" s="17"/>
       <c r="F32" s="13" t="s">
         <v>121</v>
@@ -3404,11 +3334,11 @@
       <c r="N32" s="6"/>
       <c r="O32" s="6"/>
     </row>
-    <row r="33" spans="1:15" s="4" customFormat="1">
+    <row r="33" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="52"/>
       <c r="B33" s="52"/>
       <c r="C33" s="52"/>
-      <c r="D33" s="169"/>
+      <c r="D33" s="168"/>
       <c r="E33" s="17">
         <v>2</v>
       </c>
@@ -3433,11 +3363,11 @@
       <c r="N33" s="52"/>
       <c r="O33" s="52"/>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
-      <c r="D34" s="168" t="s">
+      <c r="D34" s="167" t="s">
         <v>130</v>
       </c>
       <c r="E34" s="92"/>
@@ -3456,11 +3386,11 @@
       <c r="N34" s="6"/>
       <c r="O34" s="6"/>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
-      <c r="D35" s="169"/>
+      <c r="D35" s="168"/>
       <c r="E35" s="17"/>
       <c r="F35" s="13" t="s">
         <v>104</v>
@@ -3477,11 +3407,11 @@
       <c r="N35" s="6"/>
       <c r="O35" s="6"/>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
-      <c r="D36" s="169"/>
+      <c r="D36" s="168"/>
       <c r="E36" s="17"/>
       <c r="F36" s="13" t="s">
         <v>109</v>
@@ -3498,11 +3428,11 @@
       <c r="N36" s="6"/>
       <c r="O36" s="6"/>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
-      <c r="D37" s="169"/>
+      <c r="D37" s="168"/>
       <c r="E37" s="17"/>
       <c r="F37" s="13" t="s">
         <v>113</v>
@@ -3519,11 +3449,11 @@
       <c r="N37" s="6"/>
       <c r="O37" s="6"/>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="169"/>
+      <c r="D38" s="168"/>
       <c r="E38" s="17"/>
       <c r="F38" s="13" t="s">
         <v>117</v>
@@ -3540,11 +3470,11 @@
       <c r="N38" s="6"/>
       <c r="O38" s="6"/>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
-      <c r="D39" s="169"/>
+      <c r="D39" s="168"/>
       <c r="E39" s="17"/>
       <c r="F39" s="13" t="s">
         <v>121</v>
@@ -3561,11 +3491,11 @@
       <c r="N39" s="6"/>
       <c r="O39" s="6"/>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
-      <c r="D40" s="170"/>
+      <c r="D40" s="169"/>
       <c r="E40" s="17"/>
       <c r="F40" s="105" t="s">
         <v>125</v>
@@ -3582,11 +3512,11 @@
       <c r="N40" s="6"/>
       <c r="O40" s="6"/>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
-      <c r="D41" s="164" t="s">
+      <c r="D41" s="163" t="s">
         <v>138</v>
       </c>
       <c r="E41" s="42"/>
@@ -3611,11 +3541,11 @@
       <c r="N41" s="6"/>
       <c r="O41" s="6"/>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
-      <c r="D42" s="165"/>
+      <c r="D42" s="164"/>
       <c r="E42" s="17">
         <v>2</v>
       </c>
@@ -3640,11 +3570,11 @@
       <c r="N42" s="6"/>
       <c r="O42" s="6"/>
     </row>
-    <row r="43" spans="1:15" s="4" customFormat="1">
+    <row r="43" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="52"/>
       <c r="B43" s="52"/>
       <c r="C43" s="52"/>
-      <c r="D43" s="165"/>
+      <c r="D43" s="164"/>
       <c r="E43" s="17"/>
       <c r="F43" s="114" t="s">
         <v>147</v>
@@ -3663,11 +3593,11 @@
       <c r="N43" s="52"/>
       <c r="O43" s="52"/>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
-      <c r="D44" s="165"/>
+      <c r="D44" s="164"/>
       <c r="E44" s="92">
         <v>1</v>
       </c>
@@ -3692,11 +3622,11 @@
       <c r="N44" s="6"/>
       <c r="O44" s="6"/>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
-      <c r="D45" s="165"/>
+      <c r="D45" s="164"/>
       <c r="E45" s="17">
         <v>1</v>
       </c>
@@ -3721,11 +3651,11 @@
       <c r="N45" s="6"/>
       <c r="O45" s="6"/>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
-      <c r="D46" s="165"/>
+      <c r="D46" s="164"/>
       <c r="E46" s="17">
         <v>3</v>
       </c>
@@ -3750,11 +3680,11 @@
       <c r="N46" s="6"/>
       <c r="O46" s="6"/>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
-      <c r="D47" s="165"/>
+      <c r="D47" s="164"/>
       <c r="E47" s="17">
         <v>2</v>
       </c>
@@ -3775,11 +3705,11 @@
       <c r="N47" s="6"/>
       <c r="O47" s="6"/>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
-      <c r="D48" s="165"/>
+      <c r="D48" s="164"/>
       <c r="E48" s="17">
         <v>2</v>
       </c>
@@ -3798,11 +3728,11 @@
       <c r="N48" s="6"/>
       <c r="O48" s="6"/>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
-      <c r="D49" s="165"/>
+      <c r="D49" s="164"/>
       <c r="E49" s="17">
         <v>2</v>
       </c>
@@ -3823,11 +3753,11 @@
       <c r="N49" s="6"/>
       <c r="O49" s="6"/>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
-      <c r="D50" s="165"/>
+      <c r="D50" s="164"/>
       <c r="E50" s="17">
         <v>2</v>
       </c>
@@ -3848,11 +3778,11 @@
       <c r="N50" s="6"/>
       <c r="O50" s="6"/>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
-      <c r="D51" s="165"/>
+      <c r="D51" s="164"/>
       <c r="E51" s="17">
         <v>2</v>
       </c>
@@ -3873,11 +3803,11 @@
       <c r="N51" s="6"/>
       <c r="O51" s="6"/>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
-      <c r="D52" s="165"/>
+      <c r="D52" s="164"/>
       <c r="E52" s="17">
         <v>2</v>
       </c>
@@ -3898,11 +3828,11 @@
       <c r="N52" s="6"/>
       <c r="O52" s="6"/>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
-      <c r="D53" s="165"/>
+      <c r="D53" s="164"/>
       <c r="E53" s="17">
         <v>2</v>
       </c>
@@ -3921,11 +3851,11 @@
       <c r="N53" s="6"/>
       <c r="O53" s="6"/>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
-      <c r="D54" s="165"/>
+      <c r="D54" s="164"/>
       <c r="E54" s="17">
         <v>2</v>
       </c>
@@ -3944,11 +3874,11 @@
       <c r="N54" s="6"/>
       <c r="O54" s="6"/>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
-      <c r="D55" s="165"/>
+      <c r="D55" s="164"/>
       <c r="E55" s="17">
         <v>2</v>
       </c>
@@ -3969,11 +3899,11 @@
       <c r="N55" s="6"/>
       <c r="O55" s="6"/>
     </row>
-    <row r="56" spans="1:15" s="4" customFormat="1">
+    <row r="56" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="52"/>
       <c r="B56" s="52"/>
       <c r="C56" s="52"/>
-      <c r="D56" s="165"/>
+      <c r="D56" s="164"/>
       <c r="E56" s="17">
         <v>2</v>
       </c>
@@ -3998,11 +3928,11 @@
       <c r="N56" s="52"/>
       <c r="O56" s="52"/>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
-      <c r="D57" s="165"/>
+      <c r="D57" s="164"/>
       <c r="E57" s="92"/>
       <c r="F57" s="127" t="s">
         <v>187</v>
@@ -4023,11 +3953,11 @@
       <c r="N57" s="6"/>
       <c r="O57" s="6"/>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
-      <c r="D58" s="165"/>
+      <c r="D58" s="164"/>
       <c r="E58" s="92">
         <v>3</v>
       </c>
@@ -4050,11 +3980,11 @@
       <c r="N58" s="6"/>
       <c r="O58" s="6"/>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
-      <c r="D59" s="165"/>
+      <c r="D59" s="164"/>
       <c r="E59" s="92">
         <v>3</v>
       </c>
@@ -4077,11 +4007,11 @@
       <c r="N59" s="6"/>
       <c r="O59" s="6"/>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
-      <c r="D60" s="165"/>
+      <c r="D60" s="164"/>
       <c r="E60" s="17"/>
       <c r="F60" s="133" t="s">
         <v>198</v>
@@ -4098,11 +4028,11 @@
       <c r="N60" s="6"/>
       <c r="O60" s="6"/>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
-      <c r="D61" s="165"/>
+      <c r="D61" s="164"/>
       <c r="E61" s="17"/>
       <c r="F61" s="13" t="s">
         <v>200</v>
@@ -4119,11 +4049,11 @@
       <c r="N61" s="6"/>
       <c r="O61" s="6"/>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
-      <c r="D62" s="165"/>
+      <c r="D62" s="164"/>
       <c r="E62" s="17"/>
       <c r="F62" s="124" t="s">
         <v>202</v>
@@ -4140,11 +4070,11 @@
       <c r="N62" s="6"/>
       <c r="O62" s="6"/>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
-      <c r="D63" s="166"/>
+      <c r="D63" s="165"/>
       <c r="E63" s="92"/>
       <c r="F63" s="130" t="s">
         <v>204</v>
@@ -4165,11 +4095,11 @@
       <c r="N63" s="6"/>
       <c r="O63" s="6"/>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
-      <c r="D64" s="167" t="s">
+      <c r="D64" s="166" t="s">
         <v>207</v>
       </c>
       <c r="E64" s="92"/>
@@ -4194,11 +4124,11 @@
       <c r="N64" s="6"/>
       <c r="O64" s="6"/>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
-      <c r="D65" s="167"/>
+      <c r="D65" s="166"/>
       <c r="E65" s="92"/>
       <c r="F65" s="136" t="s">
         <v>213</v>
@@ -4221,11 +4151,11 @@
       <c r="N65" s="6"/>
       <c r="O65" s="6"/>
     </row>
-    <row r="66" spans="1:15">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
-      <c r="D66" s="167"/>
+      <c r="D66" s="166"/>
       <c r="E66" s="17"/>
       <c r="F66" s="136" t="s">
         <v>215</v>
@@ -4248,11 +4178,11 @@
       <c r="N66" s="6"/>
       <c r="O66" s="6"/>
     </row>
-    <row r="67" spans="1:15" ht="15" customHeight="1">
+    <row r="67" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
-      <c r="D67" s="167"/>
+      <c r="D67" s="166"/>
       <c r="E67" s="17">
         <v>2</v>
       </c>
@@ -4271,11 +4201,11 @@
       <c r="N67" s="6"/>
       <c r="O67" s="6"/>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
-      <c r="D68" s="167"/>
+      <c r="D68" s="166"/>
       <c r="E68" s="17">
         <v>1</v>
       </c>
@@ -4300,8 +4230,8 @@
       <c r="N68" s="6"/>
       <c r="O68" s="6"/>
     </row>
-    <row r="69" spans="1:15" s="6" customFormat="1">
-      <c r="D69" s="167"/>
+    <row r="69" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D69" s="166"/>
       <c r="E69" s="17" t="s">
         <v>223</v>
       </c>
@@ -4323,8 +4253,8 @@
       <c r="K69" s="13"/>
       <c r="L69" s="5"/>
     </row>
-    <row r="70" spans="1:15" s="10" customFormat="1">
-      <c r="D70" s="167"/>
+    <row r="70" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D70" s="166"/>
       <c r="E70" s="18"/>
       <c r="F70" s="20" t="s">
         <v>227</v>
@@ -4344,11 +4274,11 @@
       <c r="K70" s="14"/>
       <c r="L70" s="11"/>
     </row>
-    <row r="71" spans="1:15">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
-      <c r="D71" s="167"/>
+      <c r="D71" s="166"/>
       <c r="E71" s="17">
         <v>2</v>
       </c>
@@ -4373,8 +4303,8 @@
       <c r="N71" s="6"/>
       <c r="O71" s="6"/>
     </row>
-    <row r="72" spans="1:15" s="6" customFormat="1">
-      <c r="D72" s="167"/>
+    <row r="72" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D72" s="166"/>
       <c r="E72" s="17">
         <v>2</v>
       </c>
@@ -4396,8 +4326,8 @@
       <c r="K72" s="13"/>
       <c r="L72" s="5"/>
     </row>
-    <row r="73" spans="1:15" s="10" customFormat="1">
-      <c r="D73" s="167"/>
+    <row r="73" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D73" s="166"/>
       <c r="E73" s="18"/>
       <c r="F73" s="20" t="s">
         <v>234</v>
@@ -4417,8 +4347,8 @@
       <c r="K73" s="14"/>
       <c r="L73" s="11"/>
     </row>
-    <row r="74" spans="1:15" s="6" customFormat="1">
-      <c r="D74" s="167"/>
+    <row r="74" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D74" s="166"/>
       <c r="E74" s="17"/>
       <c r="F74" s="19" t="s">
         <v>236</v>
@@ -4438,11 +4368,11 @@
       <c r="K74" s="13"/>
       <c r="L74" s="5"/>
     </row>
-    <row r="75" spans="1:15">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
-      <c r="D75" s="167"/>
+      <c r="D75" s="166"/>
       <c r="E75" s="17">
         <v>3</v>
       </c>
@@ -4467,11 +4397,11 @@
       <c r="N75" s="6"/>
       <c r="O75" s="6"/>
     </row>
-    <row r="76" spans="1:15">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
-      <c r="D76" s="167"/>
+      <c r="D76" s="166"/>
       <c r="E76" s="17"/>
       <c r="F76" s="19" t="s">
         <v>242</v>
@@ -4488,315 +4418,171 @@
       <c r="N76" s="6"/>
       <c r="O76" s="6"/>
     </row>
-    <row r="77" spans="1:15">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
-      <c r="D77" s="167"/>
-      <c r="E77" s="17"/>
-      <c r="F77" s="19" t="s">
+      <c r="D77" s="166"/>
+      <c r="E77" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="F77" s="144" t="s">
         <v>244</v>
       </c>
       <c r="G77" s="139" t="s">
         <v>245</v>
       </c>
-      <c r="H77" s="60"/>
-      <c r="I77" s="61"/>
-      <c r="J77" s="61"/>
-      <c r="K77" s="19"/>
-      <c r="L77" s="13"/>
+      <c r="H77" s="145" t="s">
+        <v>246</v>
+      </c>
+      <c r="I77" s="145" t="s">
+        <v>247</v>
+      </c>
+      <c r="J77" s="93" t="s">
+        <v>248</v>
+      </c>
+      <c r="K77" s="5"/>
+      <c r="L77" s="5"/>
       <c r="M77" s="6"/>
       <c r="N77" s="6"/>
       <c r="O77" s="6"/>
     </row>
-    <row r="78" spans="1:15" ht="30.75">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
-      <c r="D78" s="167"/>
-      <c r="E78" s="17">
-        <v>2</v>
-      </c>
+      <c r="D78" s="166"/>
+      <c r="E78" s="17"/>
       <c r="F78" s="19" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="G78" s="139" t="s">
-        <v>247</v>
-      </c>
-      <c r="H78" s="144" t="s">
-        <v>248</v>
-      </c>
-      <c r="I78" s="144" t="s">
-        <v>249</v>
-      </c>
-      <c r="J78" s="144" t="s">
         <v>250</v>
       </c>
-      <c r="K78" s="61"/>
-      <c r="L78" s="13"/>
+      <c r="H78" s="60" t="s">
+        <v>251</v>
+      </c>
+      <c r="I78" s="61" t="s">
+        <v>252</v>
+      </c>
+      <c r="J78" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="K78" s="5"/>
+      <c r="L78" s="5"/>
       <c r="M78" s="6"/>
       <c r="N78" s="6"/>
       <c r="O78" s="6"/>
     </row>
-    <row r="79" spans="1:15">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
-      <c r="D79" s="167"/>
+      <c r="D79" s="166"/>
       <c r="E79" s="17"/>
-      <c r="F79" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="G79" s="139" t="s">
-        <v>252</v>
-      </c>
-      <c r="H79" s="22"/>
-      <c r="I79" s="6"/>
-      <c r="J79" s="61"/>
-      <c r="K79" s="61"/>
-      <c r="L79" s="13"/>
+      <c r="F79" s="146" t="s">
+        <v>254</v>
+      </c>
+      <c r="G79" s="147" t="s">
+        <v>255</v>
+      </c>
+      <c r="H79" s="148" t="s">
+        <v>123</v>
+      </c>
+      <c r="I79" s="149" t="s">
+        <v>256</v>
+      </c>
+      <c r="J79" s="125" t="s">
+        <v>257</v>
+      </c>
+      <c r="K79" s="125"/>
+      <c r="L79" s="125"/>
       <c r="M79" s="6"/>
       <c r="N79" s="6"/>
       <c r="O79" s="6"/>
     </row>
-    <row r="80" spans="1:15">
-      <c r="A80" s="6"/>
-      <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="167"/>
-      <c r="E80" s="17">
-        <v>2</v>
-      </c>
-      <c r="F80" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="G80" s="139" t="s">
-        <v>254</v>
-      </c>
-      <c r="H80" s="60" t="s">
-        <v>255</v>
-      </c>
-      <c r="I80" s="61" t="s">
-        <v>256</v>
-      </c>
-      <c r="J80" s="19"/>
-      <c r="K80" s="61"/>
-      <c r="L80" s="13"/>
-      <c r="M80" s="6"/>
-      <c r="N80" s="6"/>
-      <c r="O80" s="6"/>
-    </row>
-    <row r="81" spans="1:15">
-      <c r="A81" s="6"/>
-      <c r="B81" s="6"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="167"/>
-      <c r="E81" s="17"/>
-      <c r="F81" s="19" t="s">
-        <v>257</v>
-      </c>
-      <c r="G81" s="139" t="s">
+    <row r="80" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="150"/>
+      <c r="B80" s="150"/>
+      <c r="C80" s="150"/>
+      <c r="D80" s="166"/>
+      <c r="E80" s="92"/>
+      <c r="F80" s="151" t="s">
         <v>258</v>
       </c>
-      <c r="H81" s="60"/>
-      <c r="I81" s="61"/>
-      <c r="J81" s="19"/>
-      <c r="K81" s="61"/>
-      <c r="L81" s="13"/>
-      <c r="M81" s="6"/>
-      <c r="N81" s="6"/>
-      <c r="O81" s="6"/>
-    </row>
-    <row r="82" spans="1:15">
-      <c r="A82" s="6"/>
-      <c r="B82" s="6"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="167"/>
-      <c r="E82" s="17">
-        <v>2</v>
-      </c>
-      <c r="F82" s="19" t="s">
+      <c r="G80" s="152" t="s">
+        <v>266</v>
+      </c>
+      <c r="H80" s="130" t="s">
+        <v>95</v>
+      </c>
+      <c r="I80" s="130" t="s">
+        <v>96</v>
+      </c>
+      <c r="J80" s="130" t="s">
         <v>259</v>
       </c>
-      <c r="G82" s="139" t="s">
+      <c r="K80" s="153"/>
+      <c r="L80" s="153"/>
+      <c r="M80" s="150"/>
+      <c r="N80" s="150"/>
+      <c r="O80" s="150"/>
+    </row>
+    <row r="81" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="150"/>
+      <c r="B81" s="150"/>
+      <c r="C81" s="150"/>
+      <c r="D81" s="166"/>
+      <c r="E81" s="92"/>
+      <c r="F81" s="151" t="s">
         <v>260</v>
       </c>
-      <c r="H82" s="60"/>
-      <c r="I82" s="61" t="s">
+      <c r="G81" s="152" t="s">
         <v>261</v>
       </c>
-      <c r="J82" s="133"/>
-      <c r="K82" s="120"/>
-      <c r="L82" s="5"/>
-      <c r="M82" s="6"/>
-      <c r="N82" s="6"/>
-      <c r="O82" s="6"/>
-    </row>
-    <row r="83" spans="1:15">
-      <c r="A83" s="6"/>
-      <c r="B83" s="6"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="167"/>
-      <c r="E83" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="F83" s="145" t="s">
+      <c r="H81" s="154" t="s">
         <v>262</v>
       </c>
-      <c r="G83" s="139" t="s">
+      <c r="I81" s="154" t="s">
         <v>263</v>
       </c>
-      <c r="H83" s="146" t="s">
+      <c r="J81" s="154" t="s">
         <v>264</v>
       </c>
-      <c r="I83" s="146" t="s">
+      <c r="K81" s="153"/>
+      <c r="L81" s="153"/>
+      <c r="M81" s="150"/>
+      <c r="N81" s="150"/>
+      <c r="O81" s="150"/>
+    </row>
+    <row r="82" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="155" t="s">
         <v>265</v>
       </c>
-      <c r="J83" s="93" t="s">
-        <v>266</v>
-      </c>
-      <c r="K83" s="5"/>
-      <c r="L83" s="5"/>
-      <c r="M83" s="6"/>
-      <c r="N83" s="6"/>
-      <c r="O83" s="6"/>
-    </row>
-    <row r="84" spans="1:15">
-      <c r="A84" s="6"/>
-      <c r="B84" s="6"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="167"/>
-      <c r="E84" s="17"/>
-      <c r="F84" s="19" t="s">
-        <v>267</v>
-      </c>
-      <c r="G84" s="139" t="s">
-        <v>268</v>
-      </c>
-      <c r="H84" s="60" t="s">
-        <v>269</v>
-      </c>
-      <c r="I84" s="61" t="s">
-        <v>270</v>
-      </c>
-      <c r="J84" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="K84" s="5"/>
-      <c r="L84" s="5"/>
-      <c r="M84" s="6"/>
-      <c r="N84" s="6"/>
-      <c r="O84" s="6"/>
-    </row>
-    <row r="85" spans="1:15">
-      <c r="A85" s="6"/>
-      <c r="B85" s="6"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="167"/>
-      <c r="E85" s="17"/>
-      <c r="F85" s="147" t="s">
-        <v>272</v>
-      </c>
-      <c r="G85" s="148" t="s">
-        <v>273</v>
-      </c>
-      <c r="H85" s="149" t="s">
-        <v>123</v>
-      </c>
-      <c r="I85" s="150" t="s">
-        <v>274</v>
-      </c>
-      <c r="J85" s="125" t="s">
-        <v>275</v>
-      </c>
-      <c r="K85" s="125"/>
-      <c r="L85" s="125"/>
-      <c r="M85" s="6"/>
-      <c r="N85" s="6"/>
-      <c r="O85" s="6"/>
-    </row>
-    <row r="86" spans="1:15" s="9" customFormat="1">
-      <c r="A86" s="151"/>
-      <c r="B86" s="151"/>
-      <c r="C86" s="151"/>
-      <c r="D86" s="167"/>
-      <c r="E86" s="92"/>
-      <c r="F86" s="152" t="s">
-        <v>276</v>
-      </c>
-      <c r="G86" s="153" t="s">
-        <v>277</v>
-      </c>
-      <c r="H86" s="130" t="s">
-        <v>95</v>
-      </c>
-      <c r="I86" s="130" t="s">
-        <v>96</v>
-      </c>
-      <c r="J86" s="130" t="s">
-        <v>278</v>
-      </c>
-      <c r="K86" s="154"/>
-      <c r="L86" s="154"/>
-      <c r="M86" s="151"/>
-      <c r="N86" s="151"/>
-      <c r="O86" s="151"/>
-    </row>
-    <row r="87" spans="1:15" s="9" customFormat="1">
-      <c r="A87" s="151"/>
-      <c r="B87" s="151"/>
-      <c r="C87" s="151"/>
-      <c r="D87" s="167"/>
-      <c r="E87" s="92"/>
-      <c r="F87" s="152" t="s">
-        <v>279</v>
-      </c>
-      <c r="G87" s="153" t="s">
-        <v>280</v>
-      </c>
-      <c r="H87" s="155" t="s">
-        <v>281</v>
-      </c>
-      <c r="I87" s="155" t="s">
-        <v>282</v>
-      </c>
-      <c r="J87" s="155" t="s">
-        <v>283</v>
-      </c>
-      <c r="K87" s="154"/>
-      <c r="L87" s="154"/>
-      <c r="M87" s="151"/>
-      <c r="N87" s="151"/>
-      <c r="O87" s="151"/>
-    </row>
-    <row r="88" spans="1:15" s="7" customFormat="1">
-      <c r="A88" s="156" t="s">
-        <v>284</v>
-      </c>
-      <c r="B88" s="156"/>
-      <c r="C88" s="156"/>
-      <c r="D88" s="156"/>
-      <c r="E88" s="157"/>
-      <c r="F88" s="156"/>
-      <c r="G88" s="156"/>
-      <c r="H88" s="158"/>
-      <c r="I88" s="156"/>
-      <c r="J88" s="156"/>
-      <c r="K88" s="156"/>
-      <c r="L88" s="156"/>
-      <c r="M88" s="156"/>
-      <c r="N88" s="156"/>
-      <c r="O88" s="156"/>
+      <c r="B82" s="155"/>
+      <c r="C82" s="155"/>
+      <c r="D82" s="155"/>
+      <c r="E82" s="156"/>
+      <c r="F82" s="155"/>
+      <c r="G82" s="155"/>
+      <c r="H82" s="157"/>
+      <c r="I82" s="155"/>
+      <c r="J82" s="155"/>
+      <c r="K82" s="155"/>
+      <c r="L82" s="155"/>
+      <c r="M82" s="155"/>
+      <c r="N82" s="155"/>
+      <c r="O82" s="155"/>
     </row>
   </sheetData>
-  <autoFilter ref="A9:O88" xr:uid="{FC96D3DE-56F6-4E60-B012-339ED5333B2B}">
+  <autoFilter ref="A9:O82" xr:uid="{FC96D3DE-56F6-4E60-B012-339ED5333B2B}">
     <filterColumn colId="0" showButton="0"/>
   </autoFilter>
   <mergeCells count="14">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D18:D25"/>
     <mergeCell ref="D41:D63"/>
-    <mergeCell ref="D64:D87"/>
+    <mergeCell ref="D64:D81"/>
     <mergeCell ref="D27:D33"/>
     <mergeCell ref="D34:D40"/>
     <mergeCell ref="A5:F5"/>
@@ -4880,7 +4666,7 @@
       <formula>AND(NOT(ISBLANK($W41)),ISBLANK($AC41),ISBLANK($AD41))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F64:F67 G67:G85">
+  <conditionalFormatting sqref="F64:F67 G67:G79">
     <cfRule type="expression" dxfId="11" priority="117">
       <formula>AND($AD64=1,$AC64=1)</formula>
     </cfRule>
@@ -4921,13 +4707,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A101:A355" xr:uid="{F02B2F4C-E685-4FCA-8AD1-5712751D5727}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A95:A349" xr:uid="{F02B2F4C-E685-4FCA-8AD1-5712751D5727}">
       <formula1>"Envoi,Réception"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24:C353 B10:B23 C11:C23" xr:uid="{8AC62251-BDC4-4625-9564-FBEF29BC725C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:B23 C11:C23 B24:C347" xr:uid="{8AC62251-BDC4-4625-9564-FBEF29BC725C}">
       <formula1>"RC-EDA,RS-EDA,EMSI,EMSI-DC,EMSI-RDC,EMSI-EO"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10:A100" xr:uid="{22861EF6-4B68-4661-88F5-5CBBDF015C50}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10:A94" xr:uid="{22861EF6-4B68-4661-88F5-5CBBDF015C50}">
       <formula1>"Envoi,Réception,End"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4938,6 +4724,58 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ModificateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <f8b6baa267c0456bbf6a8d18c49a130b xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </f8b6baa267c0456bbf6a8d18c49a130b>
+    <eef0f6fc4ed046399a9d01fd3a7d6a6a xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </eef0f6fc4ed046399a9d01fd3a7d6a6a>
+    <Référence_x0020_Bon_x0020_de_x0020_Commande xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <Référence_x0020_Documentaire xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <Chantier xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <p671c8df16a44846939d278d4958f62c xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </p671c8df16a44846939d278d4958f62c>
+    <Durée_x0020_d_x0027_Utilité_x0020_Administrative_x0020__x0028_DUA_x0029_ xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <Environnement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <b2804ef99be44b9e8166e80a6c2eb9f1 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </b2804ef99be44b9e8166e80a6c2eb9f1>
+    <_ExtendedDescription xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <mc4aa6e782e045f6bb87dab01c971b56 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </mc4aa6e782e045f6bb87dab01c971b56>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <m312bc62cb0243b6a873cbbf4dace6b2 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </m312bc62cb0243b6a873cbbf4dace6b2>
+    <b084a4cb34a444d7969136255594d2f3 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </b084a4cb34a444d7969136255594d2f3>
+    <CreateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <g30fb2d8061a4d40b63138f91c1a832e xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </g30fb2d8061a4d40b63138f91c1a832e>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <m9a76db3058146ae844db6599c9d7036 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </m9a76db3058146ae844db6599c9d7036>
+    <Ticket_x0020_Changement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <l0a6b4600f484920bbceae0813174244 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l0a6b4600f484920bbceae0813174244>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document - Suivi de projet" ma:contentTypeID="0x010100333226B5D6902549BFE4A72F45A4400B0100E98F8C089710A74CA077FC6D601326A8" ma:contentTypeVersion="52" ma:contentTypeDescription="Type de contenu - Documentation de suivi de projet" ma:contentTypeScope="" ma:versionID="b3317a165cd10de70dc68851db9884d1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xmlns:ns3="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b8430278eece82d06f551ff77398a68" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5351,7 +5189,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -5360,66 +5198,42 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ModificateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <f8b6baa267c0456bbf6a8d18c49a130b xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </f8b6baa267c0456bbf6a8d18c49a130b>
-    <eef0f6fc4ed046399a9d01fd3a7d6a6a xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </eef0f6fc4ed046399a9d01fd3a7d6a6a>
-    <Référence_x0020_Bon_x0020_de_x0020_Commande xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <Référence_x0020_Documentaire xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <Chantier xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <p671c8df16a44846939d278d4958f62c xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </p671c8df16a44846939d278d4958f62c>
-    <Durée_x0020_d_x0027_Utilité_x0020_Administrative_x0020__x0028_DUA_x0029_ xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <Environnement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <b2804ef99be44b9e8166e80a6c2eb9f1 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </b2804ef99be44b9e8166e80a6c2eb9f1>
-    <_ExtendedDescription xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <mc4aa6e782e045f6bb87dab01c971b56 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </mc4aa6e782e045f6bb87dab01c971b56>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <m312bc62cb0243b6a873cbbf4dace6b2 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </m312bc62cb0243b6a873cbbf4dace6b2>
-    <b084a4cb34a444d7969136255594d2f3 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </b084a4cb34a444d7969136255594d2f3>
-    <CreateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <g30fb2d8061a4d40b63138f91c1a832e xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </g30fb2d8061a4d40b63138f91c1a832e>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <m9a76db3058146ae844db6599c9d7036 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </m9a76db3058146ae844db6599c9d7036>
-    <Ticket_x0020_Changement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <l0a6b4600f484920bbceae0813174244 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </l0a6b4600f484920bbceae0813174244>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AEC75D3-A67D-4574-BB93-839AC9299105}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33493A62-AC11-48A7-B6C8-0591C55C368B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f6ca01e7-bd19-41f1-999c-e032ef5104c3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381C76DC-CEF1-461E-A76F-551B50E93033}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AEC75D3-A67D-4574-BB93-839AC9299105}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="f6ca01e7-bd19-41f1-999c-e032ef5104c3"/>
+    <ds:schemaRef ds:uri="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33493A62-AC11-48A7-B6C8-0591C55C368B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381C76DC-CEF1-461E-A76F-551B50E93033}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/csv_parser/test-cases-15-15.xlsx
+++ b/csv_parser/test-cases-15-15.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ans-repos\SAMU-Hub-Modeles\csv_parser\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://esantegouv.sharepoint.com/sites/GED-Calypso/espace-projets/Espace Programme SISAMU/01 - Equipe projet/07 - Innovation et prospectif/12 - Hub Santé/13 - 15-15/04 - Pilotes 15-15/04 - JDD recette/JSON pour interface LRM/03 - Automodel tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D507A43C-1400-417F-A71E-05F498B52338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE9CDEF5-7CDC-46F5-B434-661C7097DB7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8E95E427-60E8-4C01-A0F5-EF6B52DBDF48}"/>
+    <workbookView xWindow="3285" yWindow="1590" windowWidth="22740" windowHeight="12930" xr2:uid="{8E95E427-60E8-4C01-A0F5-EF6B52DBDF48}"/>
   </bookViews>
   <sheets>
     <sheet name="Partage de dossier simple" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Partage de dossier simple'!$A$9:$O$82</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Partage de dossier simple'!$A$9:$O$88</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -46,9 +46,9 @@
   <commentList>
     <comment ref="F65" authorId="0" shapeId="0" xr:uid="{FB75C0C9-7A43-4C0C-BF65-EEEEE383A568}">
       <text>
-        <t>[Commentaire à thread]
-Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
-Commentaire :
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Pour savoir quelle alerte utiliser dans une affaire :
 =&gt; Regarder cette date de réception</t>
       </text>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="285">
   <si>
     <t>Périmètre</t>
   </si>
@@ -792,6 +792,60 @@
     <t>$.createCaseHealth.initialAlert.caller.communication</t>
   </si>
   <si>
+    <t>datetime observations ARM 01</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.initialAlert.notes[0].creation</t>
+  </si>
+  <si>
+    <t>Infos / observations ARM 01</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.initialAlert.notes[0].freetext</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coupure grave causée par une scie circulaire au niveau de la main; saigne beaucoup. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entorse de la cheville, avec possible fracture. </t>
+  </si>
+  <si>
+    <t>Confusion, étourdissements, s’exprime difficilement</t>
+  </si>
+  <si>
+    <t>datetime observations ARM 02</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.initialAlert.notes[1].creation</t>
+  </si>
+  <si>
+    <t>Infos / observations ARM 02</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.initialAlert.notes[1].freetext</t>
+  </si>
+  <si>
+    <t>La victime est inconsciente (perte de connaissance).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cheville gonflée et douloureuse. </t>
+  </si>
+  <si>
+    <t>datetime observations ARM 03</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.initialAlert.notes[2].creation</t>
+  </si>
+  <si>
+    <t>Infos / observations ARM 03</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.initialAlert.notes[2].freetext</t>
+  </si>
+  <si>
+    <t>Marche impossible.</t>
+  </si>
+  <si>
     <t>Prénom et nom du requérant</t>
   </si>
   <si>
@@ -837,6 +891,9 @@
     <t>Agent/service d'urgence</t>
   </si>
   <si>
+    <t>$.createCaseHealth.initialAlert.callTaker.organization</t>
+  </si>
+  <si>
     <t>fr.health.samu090</t>
   </si>
   <si>
@@ -856,16 +913,13 @@
   </si>
   <si>
     <t>End</t>
-  </si>
-  <si>
-    <t>$.createCaseHealth.initialAlert.callTaker.organization</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1018,7 +1072,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -1178,6 +1232,19 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1549,7 +1616,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="173">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1577,14 +1644,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1609,11 +1676,11 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1622,43 +1689,43 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1669,13 +1736,13 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1684,7 +1751,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1692,7 +1759,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="6" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1715,20 +1782,20 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="12" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="12" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1736,40 +1803,40 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1784,35 +1851,35 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="13" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1828,40 +1895,73 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1870,36 +1970,6 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2163,9 +2233,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2203,7 +2273,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2309,7 +2379,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2451,7 +2521,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2468,16 +2538,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC96D3DE-56F6-4E60-B012-339ED5333B2B}">
-  <dimension ref="A1:O82"/>
+  <dimension ref="A1:O88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="6" ySplit="10" topLeftCell="G61" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="10" topLeftCell="G73" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="G78" sqref="G78"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
@@ -2492,7 +2562,7 @@
     <col min="12" max="12" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="18.75">
       <c r="A1" s="159" t="s">
         <v>0</v>
       </c>
@@ -2513,7 +2583,7 @@
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
     </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" s="1" customFormat="1" ht="18.75">
       <c r="A2" s="159" t="s">
         <v>2</v>
       </c>
@@ -2529,16 +2599,16 @@
       <c r="I2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="158" t="s">
+      <c r="J2" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="158"/>
-      <c r="L2" s="158"/>
-      <c r="M2" s="158"/>
-      <c r="N2" s="158"/>
-      <c r="O2" s="158"/>
-    </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K2" s="170"/>
+      <c r="L2" s="170"/>
+      <c r="M2" s="170"/>
+      <c r="N2" s="170"/>
+      <c r="O2" s="170"/>
+    </row>
+    <row r="3" spans="1:15" s="1" customFormat="1" ht="18.75">
       <c r="A3" s="159" t="s">
         <v>6</v>
       </c>
@@ -2552,14 +2622,14 @@
       <c r="G3" s="23"/>
       <c r="H3" s="24"/>
       <c r="I3" s="23"/>
-      <c r="J3" s="158"/>
-      <c r="K3" s="158"/>
-      <c r="L3" s="158"/>
-      <c r="M3" s="158"/>
-      <c r="N3" s="158"/>
-      <c r="O3" s="158"/>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J3" s="170"/>
+      <c r="K3" s="170"/>
+      <c r="L3" s="170"/>
+      <c r="M3" s="170"/>
+      <c r="N3" s="170"/>
+      <c r="O3" s="170"/>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="18.75">
       <c r="A4" s="159" t="s">
         <v>7</v>
       </c>
@@ -2573,22 +2643,22 @@
       <c r="G4" s="23"/>
       <c r="H4" s="24"/>
       <c r="I4" s="23"/>
-      <c r="J4" s="158"/>
-      <c r="K4" s="158"/>
-      <c r="L4" s="158"/>
-      <c r="M4" s="158"/>
-      <c r="N4" s="158"/>
-      <c r="O4" s="158"/>
-    </row>
-    <row r="5" spans="1:15" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="170" t="s">
+      <c r="J4" s="170"/>
+      <c r="K4" s="170"/>
+      <c r="L4" s="170"/>
+      <c r="M4" s="170"/>
+      <c r="N4" s="170"/>
+      <c r="O4" s="170"/>
+    </row>
+    <row r="5" spans="1:15" s="1" customFormat="1" ht="18.75">
+      <c r="A5" s="167" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="170"/>
-      <c r="C5" s="170"/>
-      <c r="D5" s="170"/>
-      <c r="E5" s="170"/>
-      <c r="F5" s="170"/>
+      <c r="B5" s="167"/>
+      <c r="C5" s="167"/>
+      <c r="D5" s="167"/>
+      <c r="E5" s="167"/>
+      <c r="F5" s="167"/>
       <c r="G5" s="23"/>
       <c r="H5" s="24"/>
       <c r="I5" s="23"/>
@@ -2599,13 +2669,13 @@
       <c r="N5" s="26"/>
       <c r="O5" s="26"/>
     </row>
-    <row r="6" spans="1:15" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="160" t="s">
+    <row r="6" spans="1:15" s="1" customFormat="1" ht="18.75">
+      <c r="A6" s="171" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="161"/>
-      <c r="C6" s="161"/>
-      <c r="D6" s="162"/>
+      <c r="B6" s="172"/>
+      <c r="C6" s="172"/>
+      <c r="D6" s="173"/>
       <c r="E6" s="21"/>
       <c r="F6" s="6" t="s">
         <v>11</v>
@@ -2620,13 +2690,13 @@
       <c r="N6" s="26"/>
       <c r="O6" s="26"/>
     </row>
-    <row r="7" spans="1:15" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="171" t="s">
+    <row r="7" spans="1:15" s="1" customFormat="1" ht="18.75">
+      <c r="A7" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="171"/>
-      <c r="C7" s="171"/>
-      <c r="D7" s="171"/>
+      <c r="B7" s="168"/>
+      <c r="C7" s="168"/>
+      <c r="D7" s="168"/>
       <c r="E7" s="27"/>
       <c r="F7" s="6" t="s">
         <v>13</v>
@@ -2641,7 +2711,7 @@
       <c r="N7" s="23"/>
       <c r="O7" s="23"/>
     </row>
-    <row r="8" spans="1:15" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" s="1" customFormat="1" ht="18.75">
       <c r="A8" s="28"/>
       <c r="B8" s="28"/>
       <c r="C8" s="28"/>
@@ -2660,7 +2730,7 @@
       <c r="N8" s="23"/>
       <c r="O8" s="23"/>
     </row>
-    <row r="9" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" s="2" customFormat="1" ht="18.75">
       <c r="A9" s="29" t="s">
         <v>15</v>
       </c>
@@ -2701,7 +2771,7 @@
       <c r="N9" s="36"/>
       <c r="O9" s="36"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" s="36" t="s">
         <v>26</v>
       </c>
@@ -2726,11 +2796,11 @@
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
     </row>
-    <row r="11" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="16.5" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="172" t="s">
+      <c r="D11" s="169" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="42"/>
@@ -2755,11 +2825,11 @@
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="172"/>
+      <c r="D12" s="169"/>
       <c r="E12" s="42"/>
       <c r="F12" s="47" t="s">
         <v>36</v>
@@ -2782,11 +2852,11 @@
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
-      <c r="D13" s="172"/>
+      <c r="D13" s="169"/>
       <c r="E13" s="42"/>
       <c r="F13" s="51" t="s">
         <v>39</v>
@@ -2809,11 +2879,11 @@
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
     </row>
-    <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" s="4" customFormat="1">
       <c r="A14" s="52"/>
       <c r="B14" s="52"/>
       <c r="C14" s="52"/>
-      <c r="D14" s="172"/>
+      <c r="D14" s="169"/>
       <c r="E14" s="17">
         <v>3</v>
       </c>
@@ -2838,11 +2908,11 @@
       <c r="N14" s="52"/>
       <c r="O14" s="52"/>
     </row>
-    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" s="4" customFormat="1">
       <c r="A15" s="52"/>
       <c r="B15" s="52"/>
       <c r="C15" s="52"/>
-      <c r="D15" s="172"/>
+      <c r="D15" s="169"/>
       <c r="E15" s="17">
         <v>3</v>
       </c>
@@ -2867,7 +2937,7 @@
       <c r="N15" s="52"/>
       <c r="O15" s="52"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -2890,7 +2960,7 @@
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -2913,11 +2983,11 @@
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
-      <c r="D18" s="163" t="s">
+      <c r="D18" s="160" t="s">
         <v>54</v>
       </c>
       <c r="E18" s="42">
@@ -2944,11 +3014,11 @@
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
     </row>
-    <row r="19" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="28.5" customHeight="1">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
-      <c r="D19" s="164"/>
+      <c r="D19" s="161"/>
       <c r="E19" s="42">
         <v>3</v>
       </c>
@@ -2973,11 +3043,11 @@
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
-      <c r="D20" s="164"/>
+      <c r="D20" s="161"/>
       <c r="E20" s="17">
         <v>2</v>
       </c>
@@ -3002,11 +3072,11 @@
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
     </row>
-    <row r="21" spans="1:15" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" s="8" customFormat="1" ht="30.75">
       <c r="A21" s="75"/>
       <c r="B21" s="75"/>
       <c r="C21" s="75"/>
-      <c r="D21" s="164"/>
+      <c r="D21" s="161"/>
       <c r="E21" s="76">
         <v>3</v>
       </c>
@@ -3031,11 +3101,11 @@
       <c r="N21" s="75"/>
       <c r="O21" s="75"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
-      <c r="D22" s="164"/>
+      <c r="D22" s="161"/>
       <c r="E22" s="17">
         <v>1</v>
       </c>
@@ -3060,11 +3130,11 @@
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
     </row>
-    <row r="23" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="30.75" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="164"/>
+      <c r="D23" s="161"/>
       <c r="E23" s="76">
         <v>3</v>
       </c>
@@ -3089,11 +3159,11 @@
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
-      <c r="D24" s="164"/>
+      <c r="D24" s="161"/>
       <c r="E24" s="17">
         <v>1</v>
       </c>
@@ -3118,11 +3188,11 @@
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
-      <c r="D25" s="165"/>
+      <c r="D25" s="162"/>
       <c r="E25" s="85">
         <v>3</v>
       </c>
@@ -3147,7 +3217,7 @@
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -3178,11 +3248,11 @@
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
-      <c r="D27" s="167" t="s">
+      <c r="D27" s="164" t="s">
         <v>98</v>
       </c>
       <c r="E27" s="92"/>
@@ -3207,11 +3277,11 @@
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
-      <c r="D28" s="168"/>
+      <c r="D28" s="165"/>
       <c r="E28" s="17">
         <v>1</v>
       </c>
@@ -3236,8 +3306,8 @@
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
     </row>
-    <row r="29" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="168"/>
+    <row r="29" spans="1:15" s="6" customFormat="1">
+      <c r="D29" s="165"/>
       <c r="E29" s="17">
         <v>2</v>
       </c>
@@ -3257,11 +3327,11 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
-      <c r="D30" s="168"/>
+      <c r="D30" s="165"/>
       <c r="E30" s="17">
         <v>1</v>
       </c>
@@ -3284,11 +3354,11 @@
       <c r="N30" s="6"/>
       <c r="O30" s="6"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
-      <c r="D31" s="168"/>
+      <c r="D31" s="165"/>
       <c r="E31" s="17"/>
       <c r="F31" s="13" t="s">
         <v>117</v>
@@ -3309,11 +3379,11 @@
       <c r="N31" s="6"/>
       <c r="O31" s="6"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
-      <c r="D32" s="168"/>
+      <c r="D32" s="165"/>
       <c r="E32" s="17"/>
       <c r="F32" s="13" t="s">
         <v>121</v>
@@ -3334,11 +3404,11 @@
       <c r="N32" s="6"/>
       <c r="O32" s="6"/>
     </row>
-    <row r="33" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" s="4" customFormat="1">
       <c r="A33" s="52"/>
       <c r="B33" s="52"/>
       <c r="C33" s="52"/>
-      <c r="D33" s="168"/>
+      <c r="D33" s="165"/>
       <c r="E33" s="17">
         <v>2</v>
       </c>
@@ -3363,11 +3433,11 @@
       <c r="N33" s="52"/>
       <c r="O33" s="52"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
-      <c r="D34" s="167" t="s">
+      <c r="D34" s="164" t="s">
         <v>130</v>
       </c>
       <c r="E34" s="92"/>
@@ -3386,11 +3456,11 @@
       <c r="N34" s="6"/>
       <c r="O34" s="6"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
-      <c r="D35" s="168"/>
+      <c r="D35" s="165"/>
       <c r="E35" s="17"/>
       <c r="F35" s="13" t="s">
         <v>104</v>
@@ -3407,11 +3477,11 @@
       <c r="N35" s="6"/>
       <c r="O35" s="6"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
-      <c r="D36" s="168"/>
+      <c r="D36" s="165"/>
       <c r="E36" s="17"/>
       <c r="F36" s="13" t="s">
         <v>109</v>
@@ -3428,11 +3498,11 @@
       <c r="N36" s="6"/>
       <c r="O36" s="6"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
-      <c r="D37" s="168"/>
+      <c r="D37" s="165"/>
       <c r="E37" s="17"/>
       <c r="F37" s="13" t="s">
         <v>113</v>
@@ -3449,11 +3519,11 @@
       <c r="N37" s="6"/>
       <c r="O37" s="6"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="168"/>
+      <c r="D38" s="165"/>
       <c r="E38" s="17"/>
       <c r="F38" s="13" t="s">
         <v>117</v>
@@ -3470,11 +3540,11 @@
       <c r="N38" s="6"/>
       <c r="O38" s="6"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
-      <c r="D39" s="168"/>
+      <c r="D39" s="165"/>
       <c r="E39" s="17"/>
       <c r="F39" s="13" t="s">
         <v>121</v>
@@ -3491,11 +3561,11 @@
       <c r="N39" s="6"/>
       <c r="O39" s="6"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
-      <c r="D40" s="169"/>
+      <c r="D40" s="166"/>
       <c r="E40" s="17"/>
       <c r="F40" s="105" t="s">
         <v>125</v>
@@ -3512,11 +3582,11 @@
       <c r="N40" s="6"/>
       <c r="O40" s="6"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
-      <c r="D41" s="163" t="s">
+      <c r="D41" s="160" t="s">
         <v>138</v>
       </c>
       <c r="E41" s="42"/>
@@ -3541,11 +3611,11 @@
       <c r="N41" s="6"/>
       <c r="O41" s="6"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
-      <c r="D42" s="164"/>
+      <c r="D42" s="161"/>
       <c r="E42" s="17">
         <v>2</v>
       </c>
@@ -3570,11 +3640,11 @@
       <c r="N42" s="6"/>
       <c r="O42" s="6"/>
     </row>
-    <row r="43" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" s="4" customFormat="1">
       <c r="A43" s="52"/>
       <c r="B43" s="52"/>
       <c r="C43" s="52"/>
-      <c r="D43" s="164"/>
+      <c r="D43" s="161"/>
       <c r="E43" s="17"/>
       <c r="F43" s="114" t="s">
         <v>147</v>
@@ -3593,11 +3663,11 @@
       <c r="N43" s="52"/>
       <c r="O43" s="52"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
-      <c r="D44" s="164"/>
+      <c r="D44" s="161"/>
       <c r="E44" s="92">
         <v>1</v>
       </c>
@@ -3622,11 +3692,11 @@
       <c r="N44" s="6"/>
       <c r="O44" s="6"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
-      <c r="D45" s="164"/>
+      <c r="D45" s="161"/>
       <c r="E45" s="17">
         <v>1</v>
       </c>
@@ -3651,11 +3721,11 @@
       <c r="N45" s="6"/>
       <c r="O45" s="6"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
-      <c r="D46" s="164"/>
+      <c r="D46" s="161"/>
       <c r="E46" s="17">
         <v>3</v>
       </c>
@@ -3680,11 +3750,11 @@
       <c r="N46" s="6"/>
       <c r="O46" s="6"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
-      <c r="D47" s="164"/>
+      <c r="D47" s="161"/>
       <c r="E47" s="17">
         <v>2</v>
       </c>
@@ -3705,11 +3775,11 @@
       <c r="N47" s="6"/>
       <c r="O47" s="6"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
-      <c r="D48" s="164"/>
+      <c r="D48" s="161"/>
       <c r="E48" s="17">
         <v>2</v>
       </c>
@@ -3728,11 +3798,11 @@
       <c r="N48" s="6"/>
       <c r="O48" s="6"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
-      <c r="D49" s="164"/>
+      <c r="D49" s="161"/>
       <c r="E49" s="17">
         <v>2</v>
       </c>
@@ -3753,11 +3823,11 @@
       <c r="N49" s="6"/>
       <c r="O49" s="6"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
-      <c r="D50" s="164"/>
+      <c r="D50" s="161"/>
       <c r="E50" s="17">
         <v>2</v>
       </c>
@@ -3778,11 +3848,11 @@
       <c r="N50" s="6"/>
       <c r="O50" s="6"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
-      <c r="D51" s="164"/>
+      <c r="D51" s="161"/>
       <c r="E51" s="17">
         <v>2</v>
       </c>
@@ -3803,11 +3873,11 @@
       <c r="N51" s="6"/>
       <c r="O51" s="6"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
-      <c r="D52" s="164"/>
+      <c r="D52" s="161"/>
       <c r="E52" s="17">
         <v>2</v>
       </c>
@@ -3828,11 +3898,11 @@
       <c r="N52" s="6"/>
       <c r="O52" s="6"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
-      <c r="D53" s="164"/>
+      <c r="D53" s="161"/>
       <c r="E53" s="17">
         <v>2</v>
       </c>
@@ -3851,11 +3921,11 @@
       <c r="N53" s="6"/>
       <c r="O53" s="6"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
-      <c r="D54" s="164"/>
+      <c r="D54" s="161"/>
       <c r="E54" s="17">
         <v>2</v>
       </c>
@@ -3874,11 +3944,11 @@
       <c r="N54" s="6"/>
       <c r="O54" s="6"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
-      <c r="D55" s="164"/>
+      <c r="D55" s="161"/>
       <c r="E55" s="17">
         <v>2</v>
       </c>
@@ -3899,11 +3969,11 @@
       <c r="N55" s="6"/>
       <c r="O55" s="6"/>
     </row>
-    <row r="56" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" s="4" customFormat="1">
       <c r="A56" s="52"/>
       <c r="B56" s="52"/>
       <c r="C56" s="52"/>
-      <c r="D56" s="164"/>
+      <c r="D56" s="161"/>
       <c r="E56" s="17">
         <v>2</v>
       </c>
@@ -3928,11 +3998,11 @@
       <c r="N56" s="52"/>
       <c r="O56" s="52"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
-      <c r="D57" s="164"/>
+      <c r="D57" s="161"/>
       <c r="E57" s="92"/>
       <c r="F57" s="127" t="s">
         <v>187</v>
@@ -3953,11 +4023,11 @@
       <c r="N57" s="6"/>
       <c r="O57" s="6"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
-      <c r="D58" s="164"/>
+      <c r="D58" s="161"/>
       <c r="E58" s="92">
         <v>3</v>
       </c>
@@ -3980,11 +4050,11 @@
       <c r="N58" s="6"/>
       <c r="O58" s="6"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
-      <c r="D59" s="164"/>
+      <c r="D59" s="161"/>
       <c r="E59" s="92">
         <v>3</v>
       </c>
@@ -4007,11 +4077,11 @@
       <c r="N59" s="6"/>
       <c r="O59" s="6"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
-      <c r="D60" s="164"/>
+      <c r="D60" s="161"/>
       <c r="E60" s="17"/>
       <c r="F60" s="133" t="s">
         <v>198</v>
@@ -4028,11 +4098,11 @@
       <c r="N60" s="6"/>
       <c r="O60" s="6"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
-      <c r="D61" s="164"/>
+      <c r="D61" s="161"/>
       <c r="E61" s="17"/>
       <c r="F61" s="13" t="s">
         <v>200</v>
@@ -4049,11 +4119,11 @@
       <c r="N61" s="6"/>
       <c r="O61" s="6"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
-      <c r="D62" s="164"/>
+      <c r="D62" s="161"/>
       <c r="E62" s="17"/>
       <c r="F62" s="124" t="s">
         <v>202</v>
@@ -4070,11 +4140,11 @@
       <c r="N62" s="6"/>
       <c r="O62" s="6"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
-      <c r="D63" s="165"/>
+      <c r="D63" s="162"/>
       <c r="E63" s="92"/>
       <c r="F63" s="130" t="s">
         <v>204</v>
@@ -4095,11 +4165,11 @@
       <c r="N63" s="6"/>
       <c r="O63" s="6"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
-      <c r="D64" s="166" t="s">
+      <c r="D64" s="163" t="s">
         <v>207</v>
       </c>
       <c r="E64" s="92"/>
@@ -4124,11 +4194,11 @@
       <c r="N64" s="6"/>
       <c r="O64" s="6"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
-      <c r="D65" s="166"/>
+      <c r="D65" s="163"/>
       <c r="E65" s="92"/>
       <c r="F65" s="136" t="s">
         <v>213</v>
@@ -4151,11 +4221,11 @@
       <c r="N65" s="6"/>
       <c r="O65" s="6"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
-      <c r="D66" s="166"/>
+      <c r="D66" s="163"/>
       <c r="E66" s="17"/>
       <c r="F66" s="136" t="s">
         <v>215</v>
@@ -4178,11 +4248,11 @@
       <c r="N66" s="6"/>
       <c r="O66" s="6"/>
     </row>
-    <row r="67" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" ht="15" customHeight="1">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
-      <c r="D67" s="166"/>
+      <c r="D67" s="163"/>
       <c r="E67" s="17">
         <v>2</v>
       </c>
@@ -4201,11 +4271,11 @@
       <c r="N67" s="6"/>
       <c r="O67" s="6"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
-      <c r="D68" s="166"/>
+      <c r="D68" s="163"/>
       <c r="E68" s="17">
         <v>1</v>
       </c>
@@ -4230,8 +4300,8 @@
       <c r="N68" s="6"/>
       <c r="O68" s="6"/>
     </row>
-    <row r="69" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D69" s="166"/>
+    <row r="69" spans="1:15" s="6" customFormat="1">
+      <c r="D69" s="163"/>
       <c r="E69" s="17" t="s">
         <v>223</v>
       </c>
@@ -4253,8 +4323,8 @@
       <c r="K69" s="13"/>
       <c r="L69" s="5"/>
     </row>
-    <row r="70" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D70" s="166"/>
+    <row r="70" spans="1:15" s="10" customFormat="1">
+      <c r="D70" s="163"/>
       <c r="E70" s="18"/>
       <c r="F70" s="20" t="s">
         <v>227</v>
@@ -4274,11 +4344,11 @@
       <c r="K70" s="14"/>
       <c r="L70" s="11"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
-      <c r="D71" s="166"/>
+      <c r="D71" s="163"/>
       <c r="E71" s="17">
         <v>2</v>
       </c>
@@ -4303,8 +4373,8 @@
       <c r="N71" s="6"/>
       <c r="O71" s="6"/>
     </row>
-    <row r="72" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D72" s="166"/>
+    <row r="72" spans="1:15" s="6" customFormat="1">
+      <c r="D72" s="163"/>
       <c r="E72" s="17">
         <v>2</v>
       </c>
@@ -4326,8 +4396,8 @@
       <c r="K72" s="13"/>
       <c r="L72" s="5"/>
     </row>
-    <row r="73" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D73" s="166"/>
+    <row r="73" spans="1:15" s="10" customFormat="1">
+      <c r="D73" s="163"/>
       <c r="E73" s="18"/>
       <c r="F73" s="20" t="s">
         <v>234</v>
@@ -4347,8 +4417,8 @@
       <c r="K73" s="14"/>
       <c r="L73" s="11"/>
     </row>
-    <row r="74" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D74" s="166"/>
+    <row r="74" spans="1:15" s="6" customFormat="1">
+      <c r="D74" s="163"/>
       <c r="E74" s="17"/>
       <c r="F74" s="19" t="s">
         <v>236</v>
@@ -4368,11 +4438,11 @@
       <c r="K74" s="13"/>
       <c r="L74" s="5"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15">
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
-      <c r="D75" s="166"/>
+      <c r="D75" s="163"/>
       <c r="E75" s="17">
         <v>3</v>
       </c>
@@ -4397,11 +4467,11 @@
       <c r="N75" s="6"/>
       <c r="O75" s="6"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
-      <c r="D76" s="166"/>
+      <c r="D76" s="163"/>
       <c r="E76" s="17"/>
       <c r="F76" s="19" t="s">
         <v>242</v>
@@ -4418,181 +4488,325 @@
       <c r="N76" s="6"/>
       <c r="O76" s="6"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
-      <c r="D77" s="166"/>
-      <c r="E77" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="F77" s="144" t="s">
+      <c r="D77" s="163"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="19" t="s">
         <v>244</v>
       </c>
       <c r="G77" s="139" t="s">
         <v>245</v>
       </c>
-      <c r="H77" s="145" t="s">
-        <v>246</v>
-      </c>
-      <c r="I77" s="145" t="s">
-        <v>247</v>
-      </c>
-      <c r="J77" s="93" t="s">
-        <v>248</v>
-      </c>
-      <c r="K77" s="5"/>
-      <c r="L77" s="5"/>
+      <c r="H77" s="60"/>
+      <c r="I77" s="61"/>
+      <c r="J77" s="61"/>
+      <c r="K77" s="19"/>
+      <c r="L77" s="13"/>
       <c r="M77" s="6"/>
       <c r="N77" s="6"/>
       <c r="O77" s="6"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" ht="30.75">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
-      <c r="D78" s="166"/>
-      <c r="E78" s="17"/>
+      <c r="D78" s="163"/>
+      <c r="E78" s="17">
+        <v>2</v>
+      </c>
       <c r="F78" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="G78" s="139" t="s">
+        <v>247</v>
+      </c>
+      <c r="H78" s="144" t="s">
+        <v>248</v>
+      </c>
+      <c r="I78" s="144" t="s">
         <v>249</v>
       </c>
-      <c r="G78" s="139" t="s">
+      <c r="J78" s="144" t="s">
         <v>250</v>
       </c>
-      <c r="H78" s="60" t="s">
-        <v>251</v>
-      </c>
-      <c r="I78" s="61" t="s">
-        <v>252</v>
-      </c>
-      <c r="J78" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="K78" s="5"/>
-      <c r="L78" s="5"/>
+      <c r="K78" s="61"/>
+      <c r="L78" s="13"/>
       <c r="M78" s="6"/>
       <c r="N78" s="6"/>
       <c r="O78" s="6"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
-      <c r="D79" s="166"/>
+      <c r="D79" s="163"/>
       <c r="E79" s="17"/>
-      <c r="F79" s="146" t="s">
-        <v>254</v>
-      </c>
-      <c r="G79" s="147" t="s">
-        <v>255</v>
-      </c>
-      <c r="H79" s="148" t="s">
-        <v>123</v>
-      </c>
-      <c r="I79" s="149" t="s">
-        <v>256</v>
-      </c>
-      <c r="J79" s="125" t="s">
-        <v>257</v>
-      </c>
-      <c r="K79" s="125"/>
-      <c r="L79" s="125"/>
+      <c r="F79" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="G79" s="139" t="s">
+        <v>252</v>
+      </c>
+      <c r="H79" s="22"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="61"/>
+      <c r="K79" s="61"/>
+      <c r="L79" s="13"/>
       <c r="M79" s="6"/>
       <c r="N79" s="6"/>
       <c r="O79" s="6"/>
     </row>
-    <row r="80" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="150"/>
-      <c r="B80" s="150"/>
-      <c r="C80" s="150"/>
-      <c r="D80" s="166"/>
-      <c r="E80" s="92"/>
-      <c r="F80" s="151" t="s">
+    <row r="80" spans="1:15">
+      <c r="A80" s="6"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="163"/>
+      <c r="E80" s="17">
+        <v>2</v>
+      </c>
+      <c r="F80" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="G80" s="139" t="s">
+        <v>254</v>
+      </c>
+      <c r="H80" s="60" t="s">
+        <v>255</v>
+      </c>
+      <c r="I80" s="61" t="s">
+        <v>256</v>
+      </c>
+      <c r="J80" s="19"/>
+      <c r="K80" s="61"/>
+      <c r="L80" s="13"/>
+      <c r="M80" s="6"/>
+      <c r="N80" s="6"/>
+      <c r="O80" s="6"/>
+    </row>
+    <row r="81" spans="1:15">
+      <c r="A81" s="6"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="163"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="G81" s="139" t="s">
         <v>258</v>
       </c>
-      <c r="G80" s="152" t="s">
+      <c r="H81" s="60"/>
+      <c r="I81" s="61"/>
+      <c r="J81" s="19"/>
+      <c r="K81" s="61"/>
+      <c r="L81" s="13"/>
+      <c r="M81" s="6"/>
+      <c r="N81" s="6"/>
+      <c r="O81" s="6"/>
+    </row>
+    <row r="82" spans="1:15" ht="14.25" customHeight="1">
+      <c r="A82" s="6"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="163"/>
+      <c r="E82" s="17">
+        <v>2</v>
+      </c>
+      <c r="F82" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="G82" s="139" t="s">
+        <v>260</v>
+      </c>
+      <c r="H82" s="60"/>
+      <c r="I82" s="61" t="s">
+        <v>261</v>
+      </c>
+      <c r="J82" s="133"/>
+      <c r="K82" s="120"/>
+      <c r="L82" s="5"/>
+      <c r="M82" s="6"/>
+      <c r="N82" s="6"/>
+      <c r="O82" s="6"/>
+    </row>
+    <row r="83" spans="1:15">
+      <c r="A83" s="6"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="163"/>
+      <c r="E83" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="F83" s="145" t="s">
+        <v>262</v>
+      </c>
+      <c r="G83" s="139" t="s">
+        <v>263</v>
+      </c>
+      <c r="H83" s="146" t="s">
+        <v>264</v>
+      </c>
+      <c r="I83" s="146" t="s">
+        <v>265</v>
+      </c>
+      <c r="J83" s="93" t="s">
         <v>266</v>
       </c>
-      <c r="H80" s="130" t="s">
+      <c r="K83" s="5"/>
+      <c r="L83" s="5"/>
+      <c r="M83" s="6"/>
+      <c r="N83" s="6"/>
+      <c r="O83" s="6"/>
+    </row>
+    <row r="84" spans="1:15">
+      <c r="A84" s="6"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="163"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="G84" s="139" t="s">
+        <v>268</v>
+      </c>
+      <c r="H84" s="60" t="s">
+        <v>269</v>
+      </c>
+      <c r="I84" s="61" t="s">
+        <v>270</v>
+      </c>
+      <c r="J84" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="K84" s="5"/>
+      <c r="L84" s="5"/>
+      <c r="M84" s="6"/>
+      <c r="N84" s="6"/>
+      <c r="O84" s="6"/>
+    </row>
+    <row r="85" spans="1:15">
+      <c r="A85" s="6"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="163"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="147" t="s">
+        <v>272</v>
+      </c>
+      <c r="G85" s="148" t="s">
+        <v>273</v>
+      </c>
+      <c r="H85" s="149" t="s">
+        <v>123</v>
+      </c>
+      <c r="I85" s="150" t="s">
+        <v>274</v>
+      </c>
+      <c r="J85" s="125" t="s">
+        <v>275</v>
+      </c>
+      <c r="K85" s="125"/>
+      <c r="L85" s="125"/>
+      <c r="M85" s="6"/>
+      <c r="N85" s="6"/>
+      <c r="O85" s="6"/>
+    </row>
+    <row r="86" spans="1:15" s="9" customFormat="1">
+      <c r="A86" s="151"/>
+      <c r="B86" s="151"/>
+      <c r="C86" s="151"/>
+      <c r="D86" s="163"/>
+      <c r="E86" s="92"/>
+      <c r="F86" s="152" t="s">
+        <v>276</v>
+      </c>
+      <c r="G86" s="153" t="s">
+        <v>277</v>
+      </c>
+      <c r="H86" s="130" t="s">
         <v>95</v>
       </c>
-      <c r="I80" s="130" t="s">
+      <c r="I86" s="130" t="s">
         <v>96</v>
       </c>
-      <c r="J80" s="130" t="s">
-        <v>259</v>
-      </c>
-      <c r="K80" s="153"/>
-      <c r="L80" s="153"/>
-      <c r="M80" s="150"/>
-      <c r="N80" s="150"/>
-      <c r="O80" s="150"/>
-    </row>
-    <row r="81" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="150"/>
-      <c r="B81" s="150"/>
-      <c r="C81" s="150"/>
-      <c r="D81" s="166"/>
-      <c r="E81" s="92"/>
-      <c r="F81" s="151" t="s">
-        <v>260</v>
-      </c>
-      <c r="G81" s="152" t="s">
-        <v>261</v>
-      </c>
-      <c r="H81" s="154" t="s">
-        <v>262</v>
-      </c>
-      <c r="I81" s="154" t="s">
-        <v>263</v>
-      </c>
-      <c r="J81" s="154" t="s">
-        <v>264</v>
-      </c>
-      <c r="K81" s="153"/>
-      <c r="L81" s="153"/>
-      <c r="M81" s="150"/>
-      <c r="N81" s="150"/>
-      <c r="O81" s="150"/>
-    </row>
-    <row r="82" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="155" t="s">
-        <v>265</v>
-      </c>
-      <c r="B82" s="155"/>
-      <c r="C82" s="155"/>
-      <c r="D82" s="155"/>
-      <c r="E82" s="156"/>
-      <c r="F82" s="155"/>
-      <c r="G82" s="155"/>
-      <c r="H82" s="157"/>
-      <c r="I82" s="155"/>
-      <c r="J82" s="155"/>
-      <c r="K82" s="155"/>
-      <c r="L82" s="155"/>
-      <c r="M82" s="155"/>
-      <c r="N82" s="155"/>
-      <c r="O82" s="155"/>
+      <c r="J86" s="130" t="s">
+        <v>278</v>
+      </c>
+      <c r="K86" s="154"/>
+      <c r="L86" s="154"/>
+      <c r="M86" s="151"/>
+      <c r="N86" s="151"/>
+      <c r="O86" s="151"/>
+    </row>
+    <row r="87" spans="1:15" s="9" customFormat="1">
+      <c r="A87" s="151"/>
+      <c r="B87" s="151"/>
+      <c r="C87" s="151"/>
+      <c r="D87" s="163"/>
+      <c r="E87" s="92"/>
+      <c r="F87" s="152" t="s">
+        <v>279</v>
+      </c>
+      <c r="G87" s="153" t="s">
+        <v>280</v>
+      </c>
+      <c r="H87" s="155" t="s">
+        <v>281</v>
+      </c>
+      <c r="I87" s="155" t="s">
+        <v>282</v>
+      </c>
+      <c r="J87" s="155" t="s">
+        <v>283</v>
+      </c>
+      <c r="K87" s="154"/>
+      <c r="L87" s="154"/>
+      <c r="M87" s="151"/>
+      <c r="N87" s="151"/>
+      <c r="O87" s="151"/>
+    </row>
+    <row r="88" spans="1:15" s="7" customFormat="1">
+      <c r="A88" s="156" t="s">
+        <v>284</v>
+      </c>
+      <c r="B88" s="156"/>
+      <c r="C88" s="156"/>
+      <c r="D88" s="156"/>
+      <c r="E88" s="157"/>
+      <c r="F88" s="156"/>
+      <c r="G88" s="156"/>
+      <c r="H88" s="158"/>
+      <c r="I88" s="156"/>
+      <c r="J88" s="156"/>
+      <c r="K88" s="156"/>
+      <c r="L88" s="156"/>
+      <c r="M88" s="156"/>
+      <c r="N88" s="156"/>
+      <c r="O88" s="156"/>
     </row>
   </sheetData>
-  <autoFilter ref="A9:O82" xr:uid="{FC96D3DE-56F6-4E60-B012-339ED5333B2B}">
+  <autoFilter ref="A9:O88" xr:uid="{FC96D3DE-56F6-4E60-B012-339ED5333B2B}">
     <filterColumn colId="0" showButton="0"/>
   </autoFilter>
   <mergeCells count="14">
+    <mergeCell ref="J2:O4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A6:D6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D18:D25"/>
     <mergeCell ref="D41:D63"/>
-    <mergeCell ref="D64:D81"/>
+    <mergeCell ref="D64:D87"/>
     <mergeCell ref="D27:D33"/>
     <mergeCell ref="D34:D40"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="D11:D15"/>
-    <mergeCell ref="J2:O4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A6:D6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D27">
@@ -4666,7 +4880,7 @@
       <formula>AND(NOT(ISBLANK($W41)),ISBLANK($AC41),ISBLANK($AD41))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F64:F67 G67:G79">
+  <conditionalFormatting sqref="F64:F67 G67:G85">
     <cfRule type="expression" dxfId="11" priority="117">
       <formula>AND($AD64=1,$AC64=1)</formula>
     </cfRule>
@@ -4707,13 +4921,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A95:A349" xr:uid="{F02B2F4C-E685-4FCA-8AD1-5712751D5727}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A101:A355" xr:uid="{F02B2F4C-E685-4FCA-8AD1-5712751D5727}">
       <formula1>"Envoi,Réception"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:B23 C11:C23 B24:C347" xr:uid="{8AC62251-BDC4-4625-9564-FBEF29BC725C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24:C353 B10:B23 C11:C23" xr:uid="{8AC62251-BDC4-4625-9564-FBEF29BC725C}">
       <formula1>"RC-EDA,RS-EDA,EMSI,EMSI-DC,EMSI-RDC,EMSI-EO"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10:A94" xr:uid="{22861EF6-4B68-4661-88F5-5CBBDF015C50}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10:A100" xr:uid="{22861EF6-4B68-4661-88F5-5CBBDF015C50}">
       <formula1>"Envoi,Réception,End"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4724,55 +4938,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ModificateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <f8b6baa267c0456bbf6a8d18c49a130b xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </f8b6baa267c0456bbf6a8d18c49a130b>
-    <eef0f6fc4ed046399a9d01fd3a7d6a6a xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </eef0f6fc4ed046399a9d01fd3a7d6a6a>
-    <Référence_x0020_Bon_x0020_de_x0020_Commande xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <Référence_x0020_Documentaire xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <Chantier xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <p671c8df16a44846939d278d4958f62c xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </p671c8df16a44846939d278d4958f62c>
-    <Durée_x0020_d_x0027_Utilité_x0020_Administrative_x0020__x0028_DUA_x0029_ xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <Environnement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <b2804ef99be44b9e8166e80a6c2eb9f1 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </b2804ef99be44b9e8166e80a6c2eb9f1>
-    <_ExtendedDescription xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <mc4aa6e782e045f6bb87dab01c971b56 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </mc4aa6e782e045f6bb87dab01c971b56>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <m312bc62cb0243b6a873cbbf4dace6b2 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </m312bc62cb0243b6a873cbbf4dace6b2>
-    <b084a4cb34a444d7969136255594d2f3 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </b084a4cb34a444d7969136255594d2f3>
-    <CreateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <g30fb2d8061a4d40b63138f91c1a832e xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </g30fb2d8061a4d40b63138f91c1a832e>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <m9a76db3058146ae844db6599c9d7036 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </m9a76db3058146ae844db6599c9d7036>
-    <Ticket_x0020_Changement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <l0a6b4600f484920bbceae0813174244 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </l0a6b4600f484920bbceae0813174244>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5190,50 +5361,65 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ModificateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <f8b6baa267c0456bbf6a8d18c49a130b xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </f8b6baa267c0456bbf6a8d18c49a130b>
+    <eef0f6fc4ed046399a9d01fd3a7d6a6a xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </eef0f6fc4ed046399a9d01fd3a7d6a6a>
+    <Référence_x0020_Bon_x0020_de_x0020_Commande xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <Référence_x0020_Documentaire xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <Chantier xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <p671c8df16a44846939d278d4958f62c xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </p671c8df16a44846939d278d4958f62c>
+    <Durée_x0020_d_x0027_Utilité_x0020_Administrative_x0020__x0028_DUA_x0029_ xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <Environnement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <b2804ef99be44b9e8166e80a6c2eb9f1 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </b2804ef99be44b9e8166e80a6c2eb9f1>
+    <_ExtendedDescription xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <mc4aa6e782e045f6bb87dab01c971b56 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </mc4aa6e782e045f6bb87dab01c971b56>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <m312bc62cb0243b6a873cbbf4dace6b2 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </m312bc62cb0243b6a873cbbf4dace6b2>
+    <b084a4cb34a444d7969136255594d2f3 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </b084a4cb34a444d7969136255594d2f3>
+    <CreateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <g30fb2d8061a4d40b63138f91c1a832e xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </g30fb2d8061a4d40b63138f91c1a832e>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <m9a76db3058146ae844db6599c9d7036 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </m9a76db3058146ae844db6599c9d7036>
+    <Ticket_x0020_Changement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <l0a6b4600f484920bbceae0813174244 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l0a6b4600f484920bbceae0813174244>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33493A62-AC11-48A7-B6C8-0591C55C368B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f6ca01e7-bd19-41f1-999c-e032ef5104c3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381C76DC-CEF1-461E-A76F-551B50E93033}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AEC75D3-A67D-4574-BB93-839AC9299105}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="f6ca01e7-bd19-41f1-999c-e032ef5104c3"/>
-    <ds:schemaRef ds:uri="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AEC75D3-A67D-4574-BB93-839AC9299105}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381C76DC-CEF1-461E-A76F-551B50E93033}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33493A62-AC11-48A7-B6C8-0591C55C368B}"/>
 </file>
--- a/csv_parser/test-cases-15-15.xlsx
+++ b/csv_parser/test-cases-15-15.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://esantegouv.sharepoint.com/sites/GED-Calypso/espace-projets/Espace Programme SISAMU/01 - Equipe projet/07 - Innovation et prospectif/12 - Hub Santé/13 - 15-15/04 - Pilotes 15-15/04 - JDD recette/JSON pour interface LRM/03 - Automodel tracker/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ans-repos\SAMU-Hub-Modeles\csv_parser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE9CDEF5-7CDC-46F5-B434-661C7097DB7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D49C19B-6118-4E34-9AF5-612BBDB33072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3285" yWindow="1590" windowWidth="22740" windowHeight="12930" xr2:uid="{8E95E427-60E8-4C01-A0F5-EF6B52DBDF48}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{8E95E427-60E8-4C01-A0F5-EF6B52DBDF48}"/>
   </bookViews>
   <sheets>
     <sheet name="Partage de dossier simple" sheetId="1" r:id="rId1"/>
@@ -46,9 +46,9 @@
   <commentList>
     <comment ref="F65" authorId="0" shapeId="0" xr:uid="{FB75C0C9-7A43-4C0C-BF65-EEEEE383A568}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
     Pour savoir quelle alerte utiliser dans une affaire :
 =&gt; Regarder cette date de réception</t>
       </text>
@@ -567,9 +567,6 @@
     <t>Digicode 01</t>
   </si>
   <si>
-    <t>$.createCaseHealth.location.access[0].accessCode</t>
-  </si>
-  <si>
     <t>Ascenseur/escalier</t>
   </si>
   <si>
@@ -913,13 +910,16 @@
   </si>
   <si>
     <t>End</t>
+  </si>
+  <si>
+    <t>$.createCaseHealth.location.access.accessCode</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1926,9 +1926,21 @@
     <xf numFmtId="49" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1958,18 +1970,6 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2233,9 +2233,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2273,7 +2273,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2379,7 +2379,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2521,7 +2521,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2541,13 +2541,13 @@
   <dimension ref="A1:O88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="6" ySplit="10" topLeftCell="G73" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="G78" sqref="G78"/>
+      <pane xSplit="6" ySplit="10" topLeftCell="G46" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomRight" activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
@@ -2562,11 +2562,11 @@
     <col min="12" max="12" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.75">
-      <c r="A1" s="159" t="s">
+    <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="160" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="159"/>
+      <c r="B1" s="160"/>
       <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
@@ -2583,11 +2583,11 @@
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
     </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" ht="18.75">
-      <c r="A2" s="159" t="s">
+    <row r="2" spans="1:15" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="160" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="159"/>
+      <c r="B2" s="160"/>
       <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
@@ -2599,20 +2599,20 @@
       <c r="I2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="170" t="s">
+      <c r="J2" s="159" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="170"/>
-      <c r="L2" s="170"/>
-      <c r="M2" s="170"/>
-      <c r="N2" s="170"/>
-      <c r="O2" s="170"/>
-    </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" ht="18.75">
-      <c r="A3" s="159" t="s">
+      <c r="K2" s="159"/>
+      <c r="L2" s="159"/>
+      <c r="M2" s="159"/>
+      <c r="N2" s="159"/>
+      <c r="O2" s="159"/>
+    </row>
+    <row r="3" spans="1:15" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="160" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="159"/>
+      <c r="B3" s="160"/>
       <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
@@ -2622,18 +2622,18 @@
       <c r="G3" s="23"/>
       <c r="H3" s="24"/>
       <c r="I3" s="23"/>
-      <c r="J3" s="170"/>
-      <c r="K3" s="170"/>
-      <c r="L3" s="170"/>
-      <c r="M3" s="170"/>
-      <c r="N3" s="170"/>
-      <c r="O3" s="170"/>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="18.75">
-      <c r="A4" s="159" t="s">
+      <c r="J3" s="159"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="159"/>
+      <c r="M3" s="159"/>
+      <c r="N3" s="159"/>
+      <c r="O3" s="159"/>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="160" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="159"/>
+      <c r="B4" s="160"/>
       <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
@@ -2643,22 +2643,22 @@
       <c r="G4" s="23"/>
       <c r="H4" s="24"/>
       <c r="I4" s="23"/>
-      <c r="J4" s="170"/>
-      <c r="K4" s="170"/>
-      <c r="L4" s="170"/>
-      <c r="M4" s="170"/>
-      <c r="N4" s="170"/>
-      <c r="O4" s="170"/>
-    </row>
-    <row r="5" spans="1:15" s="1" customFormat="1" ht="18.75">
-      <c r="A5" s="167" t="s">
+      <c r="J4" s="159"/>
+      <c r="K4" s="159"/>
+      <c r="L4" s="159"/>
+      <c r="M4" s="159"/>
+      <c r="N4" s="159"/>
+      <c r="O4" s="159"/>
+    </row>
+    <row r="5" spans="1:15" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="171" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="167"/>
-      <c r="C5" s="167"/>
-      <c r="D5" s="167"/>
-      <c r="E5" s="167"/>
-      <c r="F5" s="167"/>
+      <c r="B5" s="171"/>
+      <c r="C5" s="171"/>
+      <c r="D5" s="171"/>
+      <c r="E5" s="171"/>
+      <c r="F5" s="171"/>
       <c r="G5" s="23"/>
       <c r="H5" s="24"/>
       <c r="I5" s="23"/>
@@ -2669,13 +2669,13 @@
       <c r="N5" s="26"/>
       <c r="O5" s="26"/>
     </row>
-    <row r="6" spans="1:15" s="1" customFormat="1" ht="18.75">
-      <c r="A6" s="171" t="s">
+    <row r="6" spans="1:15" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="161" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="172"/>
-      <c r="C6" s="172"/>
-      <c r="D6" s="173"/>
+      <c r="B6" s="162"/>
+      <c r="C6" s="162"/>
+      <c r="D6" s="163"/>
       <c r="E6" s="21"/>
       <c r="F6" s="6" t="s">
         <v>11</v>
@@ -2690,13 +2690,13 @@
       <c r="N6" s="26"/>
       <c r="O6" s="26"/>
     </row>
-    <row r="7" spans="1:15" s="1" customFormat="1" ht="18.75">
-      <c r="A7" s="168" t="s">
+    <row r="7" spans="1:15" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="168"/>
-      <c r="C7" s="168"/>
-      <c r="D7" s="168"/>
+      <c r="B7" s="172"/>
+      <c r="C7" s="172"/>
+      <c r="D7" s="172"/>
       <c r="E7" s="27"/>
       <c r="F7" s="6" t="s">
         <v>13</v>
@@ -2711,7 +2711,7 @@
       <c r="N7" s="23"/>
       <c r="O7" s="23"/>
     </row>
-    <row r="8" spans="1:15" s="1" customFormat="1" ht="18.75">
+    <row r="8" spans="1:15" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="28"/>
       <c r="B8" s="28"/>
       <c r="C8" s="28"/>
@@ -2730,7 +2730,7 @@
       <c r="N8" s="23"/>
       <c r="O8" s="23"/>
     </row>
-    <row r="9" spans="1:15" s="2" customFormat="1" ht="18.75">
+    <row r="9" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>15</v>
       </c>
@@ -2771,7 +2771,7 @@
       <c r="N9" s="36"/>
       <c r="O9" s="36"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
         <v>26</v>
       </c>
@@ -2796,11 +2796,11 @@
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
     </row>
-    <row r="11" spans="1:15" ht="16.5" customHeight="1">
+    <row r="11" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="169" t="s">
+      <c r="D11" s="173" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="42"/>
@@ -2825,11 +2825,11 @@
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="169"/>
+      <c r="D12" s="173"/>
       <c r="E12" s="42"/>
       <c r="F12" s="47" t="s">
         <v>36</v>
@@ -2852,11 +2852,11 @@
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
-      <c r="D13" s="169"/>
+      <c r="D13" s="173"/>
       <c r="E13" s="42"/>
       <c r="F13" s="51" t="s">
         <v>39</v>
@@ -2879,11 +2879,11 @@
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
     </row>
-    <row r="14" spans="1:15" s="4" customFormat="1">
+    <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="52"/>
       <c r="B14" s="52"/>
       <c r="C14" s="52"/>
-      <c r="D14" s="169"/>
+      <c r="D14" s="173"/>
       <c r="E14" s="17">
         <v>3</v>
       </c>
@@ -2908,11 +2908,11 @@
       <c r="N14" s="52"/>
       <c r="O14" s="52"/>
     </row>
-    <row r="15" spans="1:15" s="4" customFormat="1">
+    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="52"/>
       <c r="B15" s="52"/>
       <c r="C15" s="52"/>
-      <c r="D15" s="169"/>
+      <c r="D15" s="173"/>
       <c r="E15" s="17">
         <v>3</v>
       </c>
@@ -2937,7 +2937,7 @@
       <c r="N15" s="52"/>
       <c r="O15" s="52"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -2960,7 +2960,7 @@
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -2983,11 +2983,11 @@
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
-      <c r="D18" s="160" t="s">
+      <c r="D18" s="164" t="s">
         <v>54</v>
       </c>
       <c r="E18" s="42">
@@ -3014,11 +3014,11 @@
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
     </row>
-    <row r="19" spans="1:15" ht="28.5" customHeight="1">
+    <row r="19" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
-      <c r="D19" s="161"/>
+      <c r="D19" s="165"/>
       <c r="E19" s="42">
         <v>3</v>
       </c>
@@ -3043,11 +3043,11 @@
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
-      <c r="D20" s="161"/>
+      <c r="D20" s="165"/>
       <c r="E20" s="17">
         <v>2</v>
       </c>
@@ -3072,11 +3072,11 @@
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
     </row>
-    <row r="21" spans="1:15" s="8" customFormat="1" ht="30.75">
+    <row r="21" spans="1:15" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="75"/>
       <c r="B21" s="75"/>
       <c r="C21" s="75"/>
-      <c r="D21" s="161"/>
+      <c r="D21" s="165"/>
       <c r="E21" s="76">
         <v>3</v>
       </c>
@@ -3101,11 +3101,11 @@
       <c r="N21" s="75"/>
       <c r="O21" s="75"/>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
-      <c r="D22" s="161"/>
+      <c r="D22" s="165"/>
       <c r="E22" s="17">
         <v>1</v>
       </c>
@@ -3130,11 +3130,11 @@
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
     </row>
-    <row r="23" spans="1:15" ht="30.75" customHeight="1">
+    <row r="23" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="161"/>
+      <c r="D23" s="165"/>
       <c r="E23" s="76">
         <v>3</v>
       </c>
@@ -3159,11 +3159,11 @@
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
-      <c r="D24" s="161"/>
+      <c r="D24" s="165"/>
       <c r="E24" s="17">
         <v>1</v>
       </c>
@@ -3188,11 +3188,11 @@
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
-      <c r="D25" s="162"/>
+      <c r="D25" s="166"/>
       <c r="E25" s="85">
         <v>3</v>
       </c>
@@ -3217,7 +3217,7 @@
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -3248,11 +3248,11 @@
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
-      <c r="D27" s="164" t="s">
+      <c r="D27" s="168" t="s">
         <v>98</v>
       </c>
       <c r="E27" s="92"/>
@@ -3277,11 +3277,11 @@
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
-      <c r="D28" s="165"/>
+      <c r="D28" s="169"/>
       <c r="E28" s="17">
         <v>1</v>
       </c>
@@ -3306,8 +3306,8 @@
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
     </row>
-    <row r="29" spans="1:15" s="6" customFormat="1">
-      <c r="D29" s="165"/>
+    <row r="29" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="169"/>
       <c r="E29" s="17">
         <v>2</v>
       </c>
@@ -3327,11 +3327,11 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
-      <c r="D30" s="165"/>
+      <c r="D30" s="169"/>
       <c r="E30" s="17">
         <v>1</v>
       </c>
@@ -3354,11 +3354,11 @@
       <c r="N30" s="6"/>
       <c r="O30" s="6"/>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
-      <c r="D31" s="165"/>
+      <c r="D31" s="169"/>
       <c r="E31" s="17"/>
       <c r="F31" s="13" t="s">
         <v>117</v>
@@ -3379,11 +3379,11 @@
       <c r="N31" s="6"/>
       <c r="O31" s="6"/>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
-      <c r="D32" s="165"/>
+      <c r="D32" s="169"/>
       <c r="E32" s="17"/>
       <c r="F32" s="13" t="s">
         <v>121</v>
@@ -3404,11 +3404,11 @@
       <c r="N32" s="6"/>
       <c r="O32" s="6"/>
     </row>
-    <row r="33" spans="1:15" s="4" customFormat="1">
+    <row r="33" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="52"/>
       <c r="B33" s="52"/>
       <c r="C33" s="52"/>
-      <c r="D33" s="165"/>
+      <c r="D33" s="169"/>
       <c r="E33" s="17">
         <v>2</v>
       </c>
@@ -3433,11 +3433,11 @@
       <c r="N33" s="52"/>
       <c r="O33" s="52"/>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
-      <c r="D34" s="164" t="s">
+      <c r="D34" s="168" t="s">
         <v>130</v>
       </c>
       <c r="E34" s="92"/>
@@ -3456,11 +3456,11 @@
       <c r="N34" s="6"/>
       <c r="O34" s="6"/>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
-      <c r="D35" s="165"/>
+      <c r="D35" s="169"/>
       <c r="E35" s="17"/>
       <c r="F35" s="13" t="s">
         <v>104</v>
@@ -3477,11 +3477,11 @@
       <c r="N35" s="6"/>
       <c r="O35" s="6"/>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
-      <c r="D36" s="165"/>
+      <c r="D36" s="169"/>
       <c r="E36" s="17"/>
       <c r="F36" s="13" t="s">
         <v>109</v>
@@ -3498,11 +3498,11 @@
       <c r="N36" s="6"/>
       <c r="O36" s="6"/>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
-      <c r="D37" s="165"/>
+      <c r="D37" s="169"/>
       <c r="E37" s="17"/>
       <c r="F37" s="13" t="s">
         <v>113</v>
@@ -3519,11 +3519,11 @@
       <c r="N37" s="6"/>
       <c r="O37" s="6"/>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="165"/>
+      <c r="D38" s="169"/>
       <c r="E38" s="17"/>
       <c r="F38" s="13" t="s">
         <v>117</v>
@@ -3540,11 +3540,11 @@
       <c r="N38" s="6"/>
       <c r="O38" s="6"/>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
-      <c r="D39" s="165"/>
+      <c r="D39" s="169"/>
       <c r="E39" s="17"/>
       <c r="F39" s="13" t="s">
         <v>121</v>
@@ -3561,11 +3561,11 @@
       <c r="N39" s="6"/>
       <c r="O39" s="6"/>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
-      <c r="D40" s="166"/>
+      <c r="D40" s="170"/>
       <c r="E40" s="17"/>
       <c r="F40" s="105" t="s">
         <v>125</v>
@@ -3582,11 +3582,11 @@
       <c r="N40" s="6"/>
       <c r="O40" s="6"/>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
-      <c r="D41" s="160" t="s">
+      <c r="D41" s="164" t="s">
         <v>138</v>
       </c>
       <c r="E41" s="42"/>
@@ -3611,11 +3611,11 @@
       <c r="N41" s="6"/>
       <c r="O41" s="6"/>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
-      <c r="D42" s="161"/>
+      <c r="D42" s="165"/>
       <c r="E42" s="17">
         <v>2</v>
       </c>
@@ -3640,11 +3640,11 @@
       <c r="N42" s="6"/>
       <c r="O42" s="6"/>
     </row>
-    <row r="43" spans="1:15" s="4" customFormat="1">
+    <row r="43" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="52"/>
       <c r="B43" s="52"/>
       <c r="C43" s="52"/>
-      <c r="D43" s="161"/>
+      <c r="D43" s="165"/>
       <c r="E43" s="17"/>
       <c r="F43" s="114" t="s">
         <v>147</v>
@@ -3663,11 +3663,11 @@
       <c r="N43" s="52"/>
       <c r="O43" s="52"/>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
-      <c r="D44" s="161"/>
+      <c r="D44" s="165"/>
       <c r="E44" s="92">
         <v>1</v>
       </c>
@@ -3692,11 +3692,11 @@
       <c r="N44" s="6"/>
       <c r="O44" s="6"/>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
-      <c r="D45" s="161"/>
+      <c r="D45" s="165"/>
       <c r="E45" s="17">
         <v>1</v>
       </c>
@@ -3721,11 +3721,11 @@
       <c r="N45" s="6"/>
       <c r="O45" s="6"/>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
-      <c r="D46" s="161"/>
+      <c r="D46" s="165"/>
       <c r="E46" s="17">
         <v>3</v>
       </c>
@@ -3750,11 +3750,11 @@
       <c r="N46" s="6"/>
       <c r="O46" s="6"/>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
-      <c r="D47" s="161"/>
+      <c r="D47" s="165"/>
       <c r="E47" s="17">
         <v>2</v>
       </c>
@@ -3775,11 +3775,11 @@
       <c r="N47" s="6"/>
       <c r="O47" s="6"/>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
-      <c r="D48" s="161"/>
+      <c r="D48" s="165"/>
       <c r="E48" s="17">
         <v>2</v>
       </c>
@@ -3798,11 +3798,11 @@
       <c r="N48" s="6"/>
       <c r="O48" s="6"/>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
-      <c r="D49" s="161"/>
+      <c r="D49" s="165"/>
       <c r="E49" s="17">
         <v>2</v>
       </c>
@@ -3823,11 +3823,11 @@
       <c r="N49" s="6"/>
       <c r="O49" s="6"/>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
-      <c r="D50" s="161"/>
+      <c r="D50" s="165"/>
       <c r="E50" s="17">
         <v>2</v>
       </c>
@@ -3835,7 +3835,7 @@
         <v>168</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>169</v>
+        <v>284</v>
       </c>
       <c r="H50" s="5"/>
       <c r="I50" s="123">
@@ -3848,23 +3848,23 @@
       <c r="N50" s="6"/>
       <c r="O50" s="6"/>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
-      <c r="D51" s="161"/>
+      <c r="D51" s="165"/>
       <c r="E51" s="17">
         <v>2</v>
       </c>
       <c r="F51" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="G51" s="5" t="s">
         <v>170</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>171</v>
       </c>
       <c r="H51" s="5"/>
       <c r="I51" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
@@ -3873,23 +3873,23 @@
       <c r="N51" s="6"/>
       <c r="O51" s="6"/>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
-      <c r="D52" s="161"/>
+      <c r="D52" s="165"/>
       <c r="E52" s="17">
         <v>2</v>
       </c>
       <c r="F52" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="G52" s="5" t="s">
         <v>173</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>174</v>
       </c>
       <c r="H52" s="5"/>
       <c r="I52" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
@@ -3898,19 +3898,19 @@
       <c r="N52" s="6"/>
       <c r="O52" s="6"/>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
-      <c r="D53" s="161"/>
+      <c r="D53" s="165"/>
       <c r="E53" s="17">
         <v>2</v>
       </c>
       <c r="F53" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="G53" s="5" t="s">
         <v>176</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>177</v>
       </c>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
@@ -3921,19 +3921,19 @@
       <c r="N53" s="6"/>
       <c r="O53" s="6"/>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
-      <c r="D54" s="161"/>
+      <c r="D54" s="165"/>
       <c r="E54" s="17">
         <v>2</v>
       </c>
       <c r="F54" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="G54" s="5" t="s">
         <v>178</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>179</v>
       </c>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
@@ -3944,19 +3944,19 @@
       <c r="N54" s="6"/>
       <c r="O54" s="6"/>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
-      <c r="D55" s="161"/>
+      <c r="D55" s="165"/>
       <c r="E55" s="17">
         <v>2</v>
       </c>
       <c r="F55" s="124" t="s">
+        <v>179</v>
+      </c>
+      <c r="G55" s="5" t="s">
         <v>180</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>181</v>
       </c>
       <c r="H55" s="125"/>
       <c r="I55" s="125"/>
@@ -3969,28 +3969,28 @@
       <c r="N55" s="6"/>
       <c r="O55" s="6"/>
     </row>
-    <row r="56" spans="1:15" s="4" customFormat="1">
+    <row r="56" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="52"/>
       <c r="B56" s="52"/>
       <c r="C56" s="52"/>
-      <c r="D56" s="161"/>
+      <c r="D56" s="165"/>
       <c r="E56" s="17">
         <v>2</v>
       </c>
       <c r="F56" s="53" t="s">
+        <v>181</v>
+      </c>
+      <c r="G56" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="G56" s="5" t="s">
+      <c r="H56" s="54" t="s">
         <v>183</v>
       </c>
-      <c r="H56" s="54" t="s">
+      <c r="I56" s="54" t="s">
         <v>184</v>
       </c>
-      <c r="I56" s="54" t="s">
+      <c r="J56" s="126" t="s">
         <v>185</v>
-      </c>
-      <c r="J56" s="126" t="s">
-        <v>186</v>
       </c>
       <c r="K56" s="97"/>
       <c r="L56" s="97"/>
@@ -3998,23 +3998,23 @@
       <c r="N56" s="52"/>
       <c r="O56" s="52"/>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
-      <c r="D57" s="161"/>
+      <c r="D57" s="165"/>
       <c r="E57" s="92"/>
       <c r="F57" s="127" t="s">
+        <v>186</v>
+      </c>
+      <c r="G57" s="128" t="s">
         <v>187</v>
       </c>
-      <c r="G57" s="128" t="s">
+      <c r="H57" s="128" t="s">
         <v>188</v>
       </c>
-      <c r="H57" s="128" t="s">
-        <v>189</v>
-      </c>
       <c r="I57" s="129" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J57" s="128"/>
       <c r="K57" s="81"/>
@@ -4023,25 +4023,25 @@
       <c r="N57" s="6"/>
       <c r="O57" s="6"/>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
-      <c r="D58" s="161"/>
+      <c r="D58" s="165"/>
       <c r="E58" s="92">
         <v>3</v>
       </c>
       <c r="F58" s="130" t="s">
+        <v>189</v>
+      </c>
+      <c r="G58" s="128" t="s">
         <v>190</v>
       </c>
-      <c r="G58" s="128" t="s">
+      <c r="H58" s="131" t="s">
         <v>191</v>
       </c>
-      <c r="H58" s="131" t="s">
+      <c r="I58" s="132" t="s">
         <v>192</v>
-      </c>
-      <c r="I58" s="132" t="s">
-        <v>193</v>
       </c>
       <c r="J58" s="131"/>
       <c r="K58" s="81"/>
@@ -4050,25 +4050,25 @@
       <c r="N58" s="6"/>
       <c r="O58" s="6"/>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
-      <c r="D59" s="161"/>
+      <c r="D59" s="165"/>
       <c r="E59" s="92">
         <v>3</v>
       </c>
       <c r="F59" s="130" t="s">
+        <v>193</v>
+      </c>
+      <c r="G59" s="128" t="s">
         <v>194</v>
       </c>
-      <c r="G59" s="128" t="s">
+      <c r="H59" s="131" t="s">
         <v>195</v>
       </c>
-      <c r="H59" s="131" t="s">
+      <c r="I59" s="132" t="s">
         <v>196</v>
-      </c>
-      <c r="I59" s="132" t="s">
-        <v>197</v>
       </c>
       <c r="J59" s="131"/>
       <c r="K59" s="81"/>
@@ -4077,17 +4077,17 @@
       <c r="N59" s="6"/>
       <c r="O59" s="6"/>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
-      <c r="D60" s="161"/>
+      <c r="D60" s="165"/>
       <c r="E60" s="17"/>
       <c r="F60" s="133" t="s">
+        <v>197</v>
+      </c>
+      <c r="G60" s="120" t="s">
         <v>198</v>
-      </c>
-      <c r="G60" s="120" t="s">
-        <v>199</v>
       </c>
       <c r="H60" s="120"/>
       <c r="I60" s="5"/>
@@ -4098,17 +4098,17 @@
       <c r="N60" s="6"/>
       <c r="O60" s="6"/>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
-      <c r="D61" s="161"/>
+      <c r="D61" s="165"/>
       <c r="E61" s="17"/>
       <c r="F61" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="G61" s="120" t="s">
         <v>200</v>
-      </c>
-      <c r="G61" s="120" t="s">
-        <v>201</v>
       </c>
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
@@ -4119,17 +4119,17 @@
       <c r="N61" s="6"/>
       <c r="O61" s="6"/>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
-      <c r="D62" s="161"/>
+      <c r="D62" s="165"/>
       <c r="E62" s="17"/>
       <c r="F62" s="124" t="s">
+        <v>201</v>
+      </c>
+      <c r="G62" s="120" t="s">
         <v>202</v>
-      </c>
-      <c r="G62" s="120" t="s">
-        <v>203</v>
       </c>
       <c r="H62" s="125"/>
       <c r="I62" s="5"/>
@@ -4140,23 +4140,23 @@
       <c r="N62" s="6"/>
       <c r="O62" s="6"/>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
-      <c r="D63" s="162"/>
+      <c r="D63" s="166"/>
       <c r="E63" s="92"/>
       <c r="F63" s="130" t="s">
+        <v>203</v>
+      </c>
+      <c r="G63" s="128" t="s">
         <v>204</v>
       </c>
-      <c r="G63" s="128" t="s">
+      <c r="H63" s="134" t="s">
         <v>205</v>
       </c>
-      <c r="H63" s="134" t="s">
-        <v>206</v>
-      </c>
       <c r="I63" s="134" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J63" s="134"/>
       <c r="K63" s="81"/>
@@ -4165,28 +4165,28 @@
       <c r="N63" s="6"/>
       <c r="O63" s="6"/>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
-      <c r="D64" s="163" t="s">
-        <v>207</v>
+      <c r="D64" s="167" t="s">
+        <v>206</v>
       </c>
       <c r="E64" s="92"/>
       <c r="F64" s="135" t="s">
+        <v>207</v>
+      </c>
+      <c r="G64" s="128" t="s">
         <v>208</v>
       </c>
-      <c r="G64" s="128" t="s">
+      <c r="H64" s="134" t="s">
         <v>209</v>
       </c>
-      <c r="H64" s="134" t="s">
+      <c r="I64" s="134" t="s">
         <v>210</v>
       </c>
-      <c r="I64" s="134" t="s">
+      <c r="J64" s="134" t="s">
         <v>211</v>
-      </c>
-      <c r="J64" s="134" t="s">
-        <v>212</v>
       </c>
       <c r="K64" s="81"/>
       <c r="L64" s="81"/>
@@ -4194,17 +4194,17 @@
       <c r="N64" s="6"/>
       <c r="O64" s="6"/>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
-      <c r="D65" s="163"/>
+      <c r="D65" s="167"/>
       <c r="E65" s="92"/>
       <c r="F65" s="136" t="s">
+        <v>212</v>
+      </c>
+      <c r="G65" s="128" t="s">
         <v>213</v>
-      </c>
-      <c r="G65" s="128" t="s">
-        <v>214</v>
       </c>
       <c r="H65" s="137" t="s">
         <v>38</v>
@@ -4221,26 +4221,26 @@
       <c r="N65" s="6"/>
       <c r="O65" s="6"/>
     </row>
-    <row r="66" spans="1:15">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
-      <c r="D66" s="163"/>
+      <c r="D66" s="167"/>
       <c r="E66" s="17"/>
       <c r="F66" s="136" t="s">
+        <v>214</v>
+      </c>
+      <c r="G66" s="128" t="s">
         <v>215</v>
       </c>
-      <c r="G66" s="128" t="s">
+      <c r="H66" s="137" t="s">
         <v>216</v>
       </c>
-      <c r="H66" s="137" t="s">
-        <v>217</v>
-      </c>
       <c r="I66" s="137" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J66" s="137" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K66" s="81"/>
       <c r="L66" s="81"/>
@@ -4248,19 +4248,19 @@
       <c r="N66" s="6"/>
       <c r="O66" s="6"/>
     </row>
-    <row r="67" spans="1:15" ht="15" customHeight="1">
+    <row r="67" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
-      <c r="D67" s="163"/>
+      <c r="D67" s="167"/>
       <c r="E67" s="17">
         <v>2</v>
       </c>
       <c r="F67" s="138" t="s">
+        <v>217</v>
+      </c>
+      <c r="G67" s="139" t="s">
         <v>218</v>
-      </c>
-      <c r="G67" s="139" t="s">
-        <v>219</v>
       </c>
       <c r="H67" s="140"/>
       <c r="I67" s="140"/>
@@ -4271,28 +4271,28 @@
       <c r="N67" s="6"/>
       <c r="O67" s="6"/>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
-      <c r="D68" s="163"/>
+      <c r="D68" s="167"/>
       <c r="E68" s="17">
         <v>1</v>
       </c>
       <c r="F68" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="G68" s="139" t="s">
         <v>220</v>
       </c>
-      <c r="G68" s="139" t="s">
+      <c r="H68" s="60" t="s">
         <v>221</v>
       </c>
-      <c r="H68" s="60" t="s">
-        <v>222</v>
-      </c>
       <c r="I68" s="60" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J68" s="60" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K68" s="13"/>
       <c r="L68" s="5"/>
@@ -4300,19 +4300,19 @@
       <c r="N68" s="6"/>
       <c r="O68" s="6"/>
     </row>
-    <row r="69" spans="1:15" s="6" customFormat="1">
-      <c r="D69" s="163"/>
+    <row r="69" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D69" s="167"/>
       <c r="E69" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="F69" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="F69" s="19" t="s">
+      <c r="G69" s="139" t="s">
         <v>224</v>
       </c>
-      <c r="G69" s="139" t="s">
+      <c r="H69" s="16" t="s">
         <v>225</v>
-      </c>
-      <c r="H69" s="16" t="s">
-        <v>226</v>
       </c>
       <c r="I69" s="16">
         <v>702880946</v>
@@ -4323,49 +4323,49 @@
       <c r="K69" s="13"/>
       <c r="L69" s="5"/>
     </row>
-    <row r="70" spans="1:15" s="10" customFormat="1">
-      <c r="D70" s="163"/>
+    <row r="70" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D70" s="167"/>
       <c r="E70" s="18"/>
       <c r="F70" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="G70" s="141" t="s">
         <v>227</v>
       </c>
-      <c r="G70" s="141" t="s">
+      <c r="H70" s="142" t="s">
         <v>228</v>
       </c>
-      <c r="H70" s="142" t="s">
-        <v>229</v>
-      </c>
       <c r="I70" s="142" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J70" s="142" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K70" s="14"/>
       <c r="L70" s="11"/>
     </row>
-    <row r="71" spans="1:15">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
-      <c r="D71" s="163"/>
+      <c r="D71" s="167"/>
       <c r="E71" s="17">
         <v>2</v>
       </c>
       <c r="F71" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="G71" s="139" t="s">
         <v>230</v>
       </c>
-      <c r="G71" s="139" t="s">
-        <v>231</v>
-      </c>
       <c r="H71" s="60" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I71" s="60" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J71" s="60" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K71" s="13"/>
       <c r="L71" s="5"/>
@@ -4373,19 +4373,19 @@
       <c r="N71" s="6"/>
       <c r="O71" s="6"/>
     </row>
-    <row r="72" spans="1:15" s="6" customFormat="1">
-      <c r="D72" s="163"/>
+    <row r="72" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D72" s="167"/>
       <c r="E72" s="17">
         <v>2</v>
       </c>
       <c r="F72" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="G72" s="139" t="s">
         <v>232</v>
       </c>
-      <c r="G72" s="139" t="s">
-        <v>233</v>
-      </c>
       <c r="H72" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I72" s="16">
         <v>702880946</v>
@@ -4396,35 +4396,35 @@
       <c r="K72" s="13"/>
       <c r="L72" s="5"/>
     </row>
-    <row r="73" spans="1:15" s="10" customFormat="1">
-      <c r="D73" s="163"/>
+    <row r="73" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D73" s="167"/>
       <c r="E73" s="18"/>
       <c r="F73" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="G73" s="141" t="s">
         <v>234</v>
       </c>
-      <c r="G73" s="141" t="s">
-        <v>235</v>
-      </c>
       <c r="H73" s="142" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I73" s="142" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J73" s="142" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K73" s="14"/>
       <c r="L73" s="11"/>
     </row>
-    <row r="74" spans="1:15" s="6" customFormat="1">
-      <c r="D74" s="163"/>
+    <row r="74" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D74" s="167"/>
       <c r="E74" s="17"/>
       <c r="F74" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="G74" s="139" t="s">
         <v>236</v>
-      </c>
-      <c r="G74" s="139" t="s">
-        <v>237</v>
       </c>
       <c r="H74" s="15" t="s">
         <v>146</v>
@@ -4438,28 +4438,28 @@
       <c r="K74" s="13"/>
       <c r="L74" s="5"/>
     </row>
-    <row r="75" spans="1:15">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
-      <c r="D75" s="163"/>
+      <c r="D75" s="167"/>
       <c r="E75" s="17">
         <v>3</v>
       </c>
       <c r="F75" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="G75" s="139" t="s">
         <v>238</v>
       </c>
-      <c r="G75" s="139" t="s">
+      <c r="H75" s="143" t="s">
         <v>239</v>
       </c>
-      <c r="H75" s="143" t="s">
+      <c r="I75" s="61" t="s">
         <v>240</v>
       </c>
-      <c r="I75" s="61" t="s">
-        <v>241</v>
-      </c>
       <c r="J75" s="61" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K75" s="13"/>
       <c r="L75" s="5"/>
@@ -4467,17 +4467,17 @@
       <c r="N75" s="6"/>
       <c r="O75" s="6"/>
     </row>
-    <row r="76" spans="1:15">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
-      <c r="D76" s="163"/>
+      <c r="D76" s="167"/>
       <c r="E76" s="17"/>
       <c r="F76" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="G76" s="139" t="s">
         <v>242</v>
-      </c>
-      <c r="G76" s="139" t="s">
-        <v>243</v>
       </c>
       <c r="H76" s="143"/>
       <c r="I76" s="61"/>
@@ -4488,17 +4488,17 @@
       <c r="N76" s="6"/>
       <c r="O76" s="6"/>
     </row>
-    <row r="77" spans="1:15">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
-      <c r="D77" s="163"/>
+      <c r="D77" s="167"/>
       <c r="E77" s="17"/>
       <c r="F77" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="G77" s="139" t="s">
         <v>244</v>
-      </c>
-      <c r="G77" s="139" t="s">
-        <v>245</v>
       </c>
       <c r="H77" s="60"/>
       <c r="I77" s="61"/>
@@ -4509,28 +4509,28 @@
       <c r="N77" s="6"/>
       <c r="O77" s="6"/>
     </row>
-    <row r="78" spans="1:15" ht="30.75">
+    <row r="78" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
-      <c r="D78" s="163"/>
+      <c r="D78" s="167"/>
       <c r="E78" s="17">
         <v>2</v>
       </c>
       <c r="F78" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="G78" s="139" t="s">
         <v>246</v>
       </c>
-      <c r="G78" s="139" t="s">
+      <c r="H78" s="144" t="s">
         <v>247</v>
       </c>
-      <c r="H78" s="144" t="s">
+      <c r="I78" s="144" t="s">
         <v>248</v>
       </c>
-      <c r="I78" s="144" t="s">
+      <c r="J78" s="144" t="s">
         <v>249</v>
-      </c>
-      <c r="J78" s="144" t="s">
-        <v>250</v>
       </c>
       <c r="K78" s="61"/>
       <c r="L78" s="13"/>
@@ -4538,17 +4538,17 @@
       <c r="N78" s="6"/>
       <c r="O78" s="6"/>
     </row>
-    <row r="79" spans="1:15">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
-      <c r="D79" s="163"/>
+      <c r="D79" s="167"/>
       <c r="E79" s="17"/>
       <c r="F79" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="G79" s="139" t="s">
         <v>251</v>
-      </c>
-      <c r="G79" s="139" t="s">
-        <v>252</v>
       </c>
       <c r="H79" s="22"/>
       <c r="I79" s="6"/>
@@ -4559,25 +4559,25 @@
       <c r="N79" s="6"/>
       <c r="O79" s="6"/>
     </row>
-    <row r="80" spans="1:15">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
-      <c r="D80" s="163"/>
+      <c r="D80" s="167"/>
       <c r="E80" s="17">
         <v>2</v>
       </c>
       <c r="F80" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="G80" s="139" t="s">
         <v>253</v>
       </c>
-      <c r="G80" s="139" t="s">
+      <c r="H80" s="60" t="s">
         <v>254</v>
       </c>
-      <c r="H80" s="60" t="s">
+      <c r="I80" s="61" t="s">
         <v>255</v>
-      </c>
-      <c r="I80" s="61" t="s">
-        <v>256</v>
       </c>
       <c r="J80" s="19"/>
       <c r="K80" s="61"/>
@@ -4586,17 +4586,17 @@
       <c r="N80" s="6"/>
       <c r="O80" s="6"/>
     </row>
-    <row r="81" spans="1:15">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
-      <c r="D81" s="163"/>
+      <c r="D81" s="167"/>
       <c r="E81" s="17"/>
       <c r="F81" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="G81" s="139" t="s">
         <v>257</v>
-      </c>
-      <c r="G81" s="139" t="s">
-        <v>258</v>
       </c>
       <c r="H81" s="60"/>
       <c r="I81" s="61"/>
@@ -4607,23 +4607,23 @@
       <c r="N81" s="6"/>
       <c r="O81" s="6"/>
     </row>
-    <row r="82" spans="1:15" ht="14.25" customHeight="1">
+    <row r="82" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
-      <c r="D82" s="163"/>
+      <c r="D82" s="167"/>
       <c r="E82" s="17">
         <v>2</v>
       </c>
       <c r="F82" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="G82" s="139" t="s">
         <v>259</v>
-      </c>
-      <c r="G82" s="139" t="s">
-        <v>260</v>
       </c>
       <c r="H82" s="60"/>
       <c r="I82" s="61" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J82" s="133"/>
       <c r="K82" s="120"/>
@@ -4632,28 +4632,28 @@
       <c r="N82" s="6"/>
       <c r="O82" s="6"/>
     </row>
-    <row r="83" spans="1:15">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
-      <c r="D83" s="163"/>
+      <c r="D83" s="167"/>
       <c r="E83" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F83" s="145" t="s">
+        <v>261</v>
+      </c>
+      <c r="G83" s="139" t="s">
         <v>262</v>
       </c>
-      <c r="G83" s="139" t="s">
+      <c r="H83" s="146" t="s">
         <v>263</v>
       </c>
-      <c r="H83" s="146" t="s">
+      <c r="I83" s="146" t="s">
         <v>264</v>
       </c>
-      <c r="I83" s="146" t="s">
+      <c r="J83" s="93" t="s">
         <v>265</v>
-      </c>
-      <c r="J83" s="93" t="s">
-        <v>266</v>
       </c>
       <c r="K83" s="5"/>
       <c r="L83" s="5"/>
@@ -4661,26 +4661,26 @@
       <c r="N83" s="6"/>
       <c r="O83" s="6"/>
     </row>
-    <row r="84" spans="1:15">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
-      <c r="D84" s="163"/>
+      <c r="D84" s="167"/>
       <c r="E84" s="17"/>
       <c r="F84" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="G84" s="139" t="s">
         <v>267</v>
       </c>
-      <c r="G84" s="139" t="s">
+      <c r="H84" s="60" t="s">
         <v>268</v>
       </c>
-      <c r="H84" s="60" t="s">
+      <c r="I84" s="61" t="s">
         <v>269</v>
       </c>
-      <c r="I84" s="61" t="s">
+      <c r="J84" s="13" t="s">
         <v>270</v>
-      </c>
-      <c r="J84" s="13" t="s">
-        <v>271</v>
       </c>
       <c r="K84" s="5"/>
       <c r="L84" s="5"/>
@@ -4688,26 +4688,26 @@
       <c r="N84" s="6"/>
       <c r="O84" s="6"/>
     </row>
-    <row r="85" spans="1:15">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
-      <c r="D85" s="163"/>
+      <c r="D85" s="167"/>
       <c r="E85" s="17"/>
       <c r="F85" s="147" t="s">
+        <v>271</v>
+      </c>
+      <c r="G85" s="148" t="s">
         <v>272</v>
-      </c>
-      <c r="G85" s="148" t="s">
-        <v>273</v>
       </c>
       <c r="H85" s="149" t="s">
         <v>123</v>
       </c>
       <c r="I85" s="150" t="s">
+        <v>273</v>
+      </c>
+      <c r="J85" s="125" t="s">
         <v>274</v>
-      </c>
-      <c r="J85" s="125" t="s">
-        <v>275</v>
       </c>
       <c r="K85" s="125"/>
       <c r="L85" s="125"/>
@@ -4715,17 +4715,17 @@
       <c r="N85" s="6"/>
       <c r="O85" s="6"/>
     </row>
-    <row r="86" spans="1:15" s="9" customFormat="1">
+    <row r="86" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="151"/>
       <c r="B86" s="151"/>
       <c r="C86" s="151"/>
-      <c r="D86" s="163"/>
+      <c r="D86" s="167"/>
       <c r="E86" s="92"/>
       <c r="F86" s="152" t="s">
+        <v>275</v>
+      </c>
+      <c r="G86" s="153" t="s">
         <v>276</v>
-      </c>
-      <c r="G86" s="153" t="s">
-        <v>277</v>
       </c>
       <c r="H86" s="130" t="s">
         <v>95</v>
@@ -4734,7 +4734,7 @@
         <v>96</v>
       </c>
       <c r="J86" s="130" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K86" s="154"/>
       <c r="L86" s="154"/>
@@ -4742,26 +4742,26 @@
       <c r="N86" s="151"/>
       <c r="O86" s="151"/>
     </row>
-    <row r="87" spans="1:15" s="9" customFormat="1">
+    <row r="87" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="151"/>
       <c r="B87" s="151"/>
       <c r="C87" s="151"/>
-      <c r="D87" s="163"/>
+      <c r="D87" s="167"/>
       <c r="E87" s="92"/>
       <c r="F87" s="152" t="s">
+        <v>278</v>
+      </c>
+      <c r="G87" s="153" t="s">
         <v>279</v>
       </c>
-      <c r="G87" s="153" t="s">
+      <c r="H87" s="155" t="s">
         <v>280</v>
       </c>
-      <c r="H87" s="155" t="s">
+      <c r="I87" s="155" t="s">
         <v>281</v>
       </c>
-      <c r="I87" s="155" t="s">
+      <c r="J87" s="155" t="s">
         <v>282</v>
-      </c>
-      <c r="J87" s="155" t="s">
-        <v>283</v>
       </c>
       <c r="K87" s="154"/>
       <c r="L87" s="154"/>
@@ -4769,9 +4769,9 @@
       <c r="N87" s="151"/>
       <c r="O87" s="151"/>
     </row>
-    <row r="88" spans="1:15" s="7" customFormat="1">
+    <row r="88" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="156" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B88" s="156"/>
       <c r="C88" s="156"/>
@@ -4793,11 +4793,6 @@
     <filterColumn colId="0" showButton="0"/>
   </autoFilter>
   <mergeCells count="14">
-    <mergeCell ref="J2:O4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A6:D6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D18:D25"/>
     <mergeCell ref="D41:D63"/>
@@ -4807,6 +4802,11 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="D11:D15"/>
+    <mergeCell ref="J2:O4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A6:D6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D27">
@@ -4938,15 +4938,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document - Suivi de projet" ma:contentTypeID="0x010100333226B5D6902549BFE4A72F45A4400B0100E98F8C089710A74CA077FC6D601326A8" ma:contentTypeVersion="52" ma:contentTypeDescription="Type de contenu - Documentation de suivi de projet" ma:contentTypeScope="" ma:versionID="b3317a165cd10de70dc68851db9884d1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xmlns:ns3="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b8430278eece82d06f551ff77398a68" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5360,6 +5351,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -5413,13 +5413,41 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381C76DC-CEF1-461E-A76F-551B50E93033}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AEC75D3-A67D-4574-BB93-839AC9299105}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="f6ca01e7-bd19-41f1-999c-e032ef5104c3"/>
+    <ds:schemaRef ds:uri="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AEC75D3-A67D-4574-BB93-839AC9299105}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381C76DC-CEF1-461E-A76F-551B50E93033}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33493A62-AC11-48A7-B6C8-0591C55C368B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33493A62-AC11-48A7-B6C8-0591C55C368B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f6ca01e7-bd19-41f1-999c-e032ef5104c3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>